--- a/communication_data_clean.xlsx
+++ b/communication_data_clean.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="187">
   <si>
     <t>Originator</t>
   </si>
@@ -25,7 +25,10 @@
     <t>Corpus</t>
   </si>
   <si>
-    <t>Source</t>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Text Type</t>
   </si>
   <si>
     <t>Chimamanda Ngozi Adichie</t>
@@ -58,6 +61,48 @@
     <t>Elizabeth Gilbert</t>
   </si>
   <si>
+    <t>Albert E. N. Gray</t>
+  </si>
+  <si>
+    <t>Bill Gurley</t>
+  </si>
+  <si>
+    <t>Richard Hamming</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>Peter Kaufman</t>
+  </si>
+  <si>
+    <t>Admiral William H. McRaven</t>
+  </si>
+  <si>
+    <t>Arno Rafael Minkkinen</t>
+  </si>
+  <si>
+    <t>Charlie Munger</t>
+  </si>
+  <si>
+    <t>Nathan Myhrvold</t>
+  </si>
+  <si>
+    <t>Randy Pausch</t>
+  </si>
+  <si>
+    <t>Anna Quindlen</t>
+  </si>
+  <si>
+    <t>John Roberts</t>
+  </si>
+  <si>
+    <t>Ken Robinson</t>
+  </si>
+  <si>
+    <t>J.K. Rowling</t>
+  </si>
+  <si>
     <t>Michael Jackson</t>
   </si>
   <si>
@@ -88,6 +133,33 @@
     <t>The Beatles</t>
   </si>
   <si>
+    <t>Whitney Houston</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Bee Gees</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Santana</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Prince &amp; The Revolution</t>
+  </si>
+  <si>
+    <t>Bon Jovi</t>
+  </si>
+  <si>
     <t>The Danger of a Single Story</t>
   </si>
   <si>
@@ -118,6 +190,48 @@
     <t>Your Elusive Creative Genius</t>
   </si>
   <si>
+    <t>The Common Denominator of Success</t>
+  </si>
+  <si>
+    <t>Runnin’ Down a Dream: How to Succeed and Thrive in a Career You Love</t>
+  </si>
+  <si>
+    <t>Learning to Learn</t>
+  </si>
+  <si>
+    <t>2005 Stanford Commencement Address</t>
+  </si>
+  <si>
+    <t>The Multidisciplinary Approach to Thinking</t>
+  </si>
+  <si>
+    <t>Make Your Bed</t>
+  </si>
+  <si>
+    <t>Finding Your Own Vision</t>
+  </si>
+  <si>
+    <t>2007 USC Law School Commencement Address</t>
+  </si>
+  <si>
+    <t>Roadkill on the Information Highway</t>
+  </si>
+  <si>
+    <t>Achieving Your Childhood Dreams</t>
+  </si>
+  <si>
+    <t>1999 Mount Holyoke Commencement Speech</t>
+  </si>
+  <si>
+    <t>I Wish You Bad Luck</t>
+  </si>
+  <si>
+    <t>Do Schools Kill Creativity?</t>
+  </si>
+  <si>
+    <t>The Fringe Benefits of Failure</t>
+  </si>
+  <si>
     <t>"Thriller"</t>
   </si>
   <si>
@@ -148,64 +262,3681 @@
     <t>"The Beatles (The White Album)"</t>
   </si>
   <si>
-    <t>i am a storyteller. and i would like to tell you a few personal stories about what i like to call the danger of the single story. i grew up on a university campus in eastern nigeria. my mother says that i started reading at the age of two, although i think four is probably close to the truth. so i was an early reader, and what i read were british and american children books. i was also an early writer, and when i began to write, at about the age of seven, stories in pencil with crayon illustrations that my poor mother was obligated to read, i wrote exactly the kinds of stories i was reading all my characters were white and blue eyed, they played in the snow, they ate apples, and they talked a lot about the weather, how lovely it was that the sun had come out. now, this despite the fact that i lived in nigeria. i had never been outside nigeria. we did not have snow, we ate mangoes, and we never talked about the weather, because there was no need to. my characters also drank a lot of ginger beer, because the characters in the british books i read drank ginger beer. never mind that i had no idea what ginger beer was. and for many years afterwards, i would have a desperate desire to taste ginger beer. but that is another story. what this demonstrates, i think, is how impressionable and vulnerable we are in the face of a story, particularly as children. because all i had read were books in which characters were foreign, i had become convinced that books by their very nature had to have foreigners in them and had to be about things with which i could not personally identify. now, things changed when i discovered african books. there were not many of them available, and they were not quite as easy to find as the foreign books. but because of writers like chinua achebe and camara laye, i went through a mental shift in my perception of literature. i realized that people like me, girls with skin the color of chocolate, whose kinky hair could not form ponytails, could also exist in literature. i started to write about things i recognized. now, i loved those american and british books i read. they stirred my imagination. they opened up new worlds for me. but the unintended consequence was that i did not know that people like me could exist in literature. so what the discovery of african writers did for me was this it saved me from having a single story of what books are. i come from a conventional, middle class nigerian family. my father was a professor. my mother was an administrator. and so we had, as was the norm, live in domestic help, who would often come from nearby rural villages. so, the year i turned eight, we got a new house boy. his name was fide. the only thing my mother told us about him was that his family was very poor. my mother sent yams and rice, and our old clothes, to his family. and when i did not finish my dinner, my mother would say, finish your food! do not you know? people like fide family have nothing. so i felt enormous pity for fide family. then one saturday, we went to his village to visit, and his mother showed us a beautifully patterned basket made of dyed raffia that his brother had made. i was startled. it had not occurred to me that anybody in his family could actually make something. all i had heard about them was how poor they were, so that it had become impossible for me to see them as anything else but poor. their poverty was my single story of them. years later, i thought about this when i left nigeria to go to university in the united states. i was . my american roommate was shocked by me. she asked where i had learned to speak english so well, and was confused when i said that nigeria happened to have english as its official language. she asked if she could listen to what she called my tribal music, and was consequently very disappointed when i produced my tape of mariah carey. she assumed that i did not know how to use a stove. what struck me was this she had felt sorry for me even before she saw me. her default position toward me, as an african, was a kind of patronizing, well meaning pity. my roommate had a single story of africa a single story of catastrophe. in this single story, there was no possibility of africans being similar to her in any way, no possibility of feelings more complex than pity, no possibility of a connection as human equals. i must say that before i went to the u.s., i did not consciously identify as african. but in the u.s., whenever africa came up, people turned to me. never mind that i knew nothing about places like namibia. but i did come to embrace this new identity, and in many ways i think of myself now as african. although i still get quite irritable when africa is referred to as a country, the most recent example being my otherwise wonderful flight from lagos two days ago, in which there was an announcement on the virgin flight about the charity work in india, africa and other countries. so, after i had spent some years in the u.s. as an african, i began to understand my roommate response to me. if i had not grown up in nigeria, and if all i knew about africa were from popular images, i too would think that africa was a place of beautiful landscapes, beautiful animals, and incomprehensible people, fighting senseless wars, dying of poverty and aids, unable to speak for themselves and waiting to be saved by a kind, white foreigner. i would see africans in the same way that i, as a child, had seen fide family. this single story of africa ultimately comes, i think, from western literature. now, here is a quote from the writing of a london merchant called john lok, who sailed to west africa in and kept a fascinating account of his voyage. after referring to the black africans as beasts who have no houses, he writes, they are also people without heads, having their mouth and eyes in their breasts. now, i have laughed every time i have read this. and one must admire the imagination of john lok. but what is important about his writing is that it represents the beginning of a tradition of telling african stories in the west a tradition of sub saharan africa as a place of negatives, of difference, of darkness, of people who, in the words of the wonderful poet rudyard kipling, are half devil, half child. and so, i began to realize that my american roommate must have, throughout her life, seen and heard different versions of this single story, as had a professor, who once told me that my novel was not authentically african. now, i was quite willing to contend that there were a number of things wrong with the novel, that it had failed in a number of places, but i had not quite imagined that it had failed at achieving something called african authenticity. in fact, i did not know what african authenticity was. the professor told me that my characters were too much like him, an educated and middle class man. my characters drove cars. they were not starving. therefore they were not authentically african. but i must quickly add that i too am just as guilty in the question of the single story. a few years ago, i visited mexico from the u.s. the political climate in the u.s. at the time was tense, and there were debates going on about immigration. and, as often happens in america, immigration became synonymous with mexicans. there were endless stories of mexicans as people who were fleecing the healthcare system, sneaking across the border, being arrested at the border, that sort of thing. i remember walking around on my first day in guadalajara, watching the people going to work, rolling up tortillas in the marketplace, smoking, laughing. i remember first feeling slight surprise. and then, i was overwhelmed with shame. i realized that i had been so immersed in the media coverage of mexicans that they had become one thing in my mind, the abject immigrant. i had bought into the single story of mexicans and i could not have been more ashamed of myself. so that is how to create a single story, show a people as one thing, as only one thing, over and over again, and that is what they become. it is impossible to talk about the single story without talking about power. there is a word, an igbo word, that i think about whenever i think about the power structures of the world, and it is nkali. it a noun that loosely translates to to be greater than another. like our economic and political worlds, stories too are defined by the principle of nkali how they are told, who tells them, when they are told, how many stories are told, are really dependent on power. power is the ability not just to tell the story of another person, but to make it the definitive story of that person. the palestinian poet mourid barghouti writes that if you want to dispossess a people, the simplest way to do it is to tell their story and to start with, secondly. start the story with the arrows of the native americans, and not with the arrival of the british, and you have an entirely different story. start the story with the failure of the african state, and not with the colonial creation of the african state, and you have an entirely different story. i recently spoke at a university where a student told me that it was such a shame that nigerian men were physical abusers like the father character in my novel. i told him that i had just read a novel called american psycho and that it was such a shame that young americans were serial murderers. now, obviously, i said this in a fit of mild irritation. but it would never have occurred to me to think that just because i had read a novel in which a character was a serial killer that he was somehow representative of all americans. this is not because i am a better person than that student, but because of america cultural and economic power. i had many stories of america. i had read tyler and updike and steinbeck and gaitskill. i did not have a single story of america. when i learned, some years ago, that writers were expected to have had really unhappy childhoods to be successful, i began to think about how i could invent horrible things my parents had done to me. but the truth is that i had a very happy childhood, full of laughter and love, in a very close knit family. but i also had grandfathers who died in refugee camps. my cousin polle died because he could not get adequate healthcare. one of my closest friends, okoloma, died in a plane crash because our fire trucks did not have water. i grew up under repressive military governments that devalued education, so that sometimes, my parents were not paid their salaries. and so, as a child, i saw jam disappear from the breakfast table, then margarine disappeared, then bread became too expensive, then milk became rationed. and most of all, a kind of normalized political fear invaded our lives. all of these stories make me who i am. but to insist on only these negative stories is to flatten my experience and to overlook the many other stories that formed me. the single story creates stereotypes, and the problem with stereotypes is not that they are untrue, but that they are incomplete. they make one story become the only story. of course, africa is a continent full of catastrophes there are immense ones, such as the horrific rapes in congo and depressing ones, such as the fact that , people apply for one job vacancy in nigeria. but there are other stories that are not about catastrophe, and it is very important, it is just as important, to talk about them. i have always felt that it is impossible to engage properly with a place or a person without engaging with all of the stories of that place and that person. the consequence of the single story is this it robs people of dignity. it makes our recognition of our equal humanity difficult. it emphasizes how we are different rather than how we are similar. so what if before my mexican trip, i had followed the immigration debate from both sides, the u.s. and the mexican? what if my mother had told us that fide family was poor and hardworking? what if we had an african television network that broadcast diverse african stories all over the world? what the nigerian writer chinua achebe calls a balance of stories. what if my roommate knew about my nigerian publisher, muhtar bakare, a remarkable man who left his job in a bank to follow his dream and start a publishing house? now, the conventional wisdom was that nigerians do not read literature. he disagreed. he felt that people who could read, would read, if you made literature affordable and available to them. shortly after he published my first novel, i went to a tv station in lagos to do an interview, and a woman who worked there as a messenger came up to me and said, i really liked your novel. i did not like the ending. now, you must write a sequel, and this is what will happen and she went on to tell me what to write in the sequel. i was not only charmed, i was very moved. here was a woman, part of the ordinary masses of nigerians, who were not supposed to be readers. she had not only read the book, but she had taken ownership of it and felt justified in telling me what to write in the sequel. now, what if my roommate knew about my friend funmi iyanda, a fearless woman who hosts a tv show in lagos, and is determined to tell the stories that we prefer to forget? what if my roommate knew about the heart procedure that was performed in the lagos hospital last week? what if my roommate knew about contemporary nigerian music, talented people singing in english and pidgin, and igbo and yoruba and ijo, mixing influences from jay z to fela to bob marley to their grandfathers. what if my roommate knew about the female lawyer who recently went to court in nigeria to challenge a ridiculous law that required women to get their husband consent before renewing their passports? what if my roommate knew about nollywood, full of innovative people making films despite great technical odds, films so popular that they really are the best example of nigerians consuming what they produce? what if my roommate knew about my wonderfully ambitious hair braider, who has just started her own business selling hair extensions? or about the millions of other nigerians who start businesses and sometimes fail, but continue to nurse ambition? every time i am home i am confronted with the usual sources of irritation for most nigerians our failed infrastructure, our failed government, but also by the incredible resilience of people who thrive despite the government, rather than because of it. i teach writing workshops in lagos every summer, and it is amazing to me how many people apply, how many people are eager to write, to tell stories. my nigerian publisher and i have just started a non profit called farafina trust, and we have big dreams of building libraries and refurbishing libraries that already exist and providing books for state schools that do not have anything in their libraries, and also of organizing lots and lots of workshops, in reading and writing, for all the people who are eager to tell our many stories. stories matter. many stories matter. stories have been used to dispossess and to malign, but stories can also be used to empower and to humanize. stories can break the dignity of a people, but stories can also repair that broken dignity. the american writer alice walker wrote this about her southern relatives who had moved to the north. she introduced them to a book about the southern life that they had left behind. they sat around, reading the book themselves, listening to me read the book, and a kind of paradise was regained. i would like to end with this thought that when we reject the single story, when we realize that there is never a single story about any place, we regain a kind of paradise. thank you.</t>
-  </si>
-  <si>
-    <t>as a kid, i spent my summers with my grandparents on their ranch in texas. i helped fix windmills, vaccinate cattle, and do other chores. we also watched soap operas every afternoon, especially days of our lives. my grandparents belonged to a caravan club, a group of airstream trailer owners who travel together around the u.s. and canada. and every few summers, we would join the caravan. we would hitch up the airstream trailer to my grandfather car, and off we would go, in a line with other airstream adventurers. i loved and worshipped my grandparents and i really looked forward to these trips. on one particular trip, i was about years old. i was rolling around in the big bench seat in the back of the car. my grandfather was driving. and my grandmother had the passenger seat. she smoked throughout these trips, and i hated the smell. at that age, i would take any excuse to make estimates and do minor arithmetic. i would calculate our gas mileage figure out useless statistics on things like grocery spending. i would been hearing an ad campaign about smoking. i ca not remember the details, but basically the ad said, every puff of a cigarette takes some number of minutes off of your life i think it might have been two minutes per puff. at any rate, i decided to do the math for my grandmother. i estimated the number of cigarettes per days, estimated the number of puffs per cigarette and so on. when i was satisfied that i would come up with a reasonable number, i poked my head into the front of the car, tapped my grandmother on the shoulder, and proudly proclaimed, at two minutes per puff, you have taken nine years off your life! i have a vivid memory of what happened, and it was not what i expected. i expected to be applauded for my cleverness and arithmetic skills. jeff, you are so smart. you had to have made some tricky estimates, figure out the number of minutes in a year and do some division. that not what happened. instead, my grandmother burst into tears. i sat in the backseat and did not know what to do. while my grandmother sat crying, my grandfather, who had been driving in silence, pulled over onto the shoulder of the highway. he got out of the car and came around and opened my door and waited for me to follow. was i in trouble? my grandfather was a highly intelligent, quiet man. he had never said a harsh word to me, and maybe this was to be the first time? or maybe he would ask that i get back in the car and apologize to my grandmother. i had no experience in this realm with my grandparents and no way to gauge what the consequences might be. we stopped beside the trailer. my grandfather looked at me, and after a bit of silence, he gently and calmly said, jeff, one day you will understand that it harder to be kind than clever. what i want to talk to you about today is the difference between gifts and choices. cleverness is a gift, kindness is a choice. gifts are easy they are given after all. choices can be hard. you can seduce yourself with your gifts if you are not careful, and if you do, it will probably be to the detriment of your choices. this is a group with many gifts. i am sure one of your gifts is the gift of a smart and capable brain. i am confident that the case because admission is competitive and if there were not some signs that you are clever, the dean of admission would not have let you in. your smarts will come in handy because you will travel in a land of marvels. we humans plodding as we are will astonish ourselves. we will invent ways to generate clean energy and a lot of it. atom by atom, we will assemble tiny machines that will enter cell walls and make repairs. this month comes the extraordinary but also inevitable news that we have synthesized life. in the coming years, we will not only synthesize it, but we will engineer it to specifications. i believe you will even see us understand the human brain. jules verne, mark twain, galileo, newton all the curious from the ages would have wanted to be alive most of all right now. as a civilization, we will have so many gifts, just as you as individuals have so many individual gifts as you sit before me. how will you use these gifts? and will you take pride in your gifts or pride in your choices? i got the idea to start amazon years ago. i came across the fact that web usage was growing at , percent per year. i would never seen or heard of anything that grew that fast, and the idea of building an online bookstore with millions of titles something that simply could not exist in the physical world was very exciting to me. i had just turned years old, and i would been married for a year. i told my wife mackenzie that i wanted to quit my job and go do this crazy thing that probably would not work since most startups don't, and i was not sure what would happen after that. mackenzie also a princeton grad and sitting here in the second row told me i should go for it. as a young boy, i would been a garage inventor. i would invented an automatic gate closer out of cement filled tires, a solar cooker that did not work very well out of an umbrella and tinfoil, baking pan alarms to entrap my siblings. i would always wanted to be an inventor, and she wanted me to follow my passion. i was working at a financial firm in new york city with a bunch of very smart people, and i had a brilliant boss that i much admired. i went to my boss and told him i wanted to start a company selling books on the internet. he took me on a long walk in central park, listened carefully to me, and finally said, that sounds like a really good idea, but it would be an even better idea for someone who did not already have a good job. that logic made some sense to me, and he convinced me to think about it for hours before making a final decision. seen in that light, it really was a difficult choice, but ultimately, i decided i had to give it a shot. i did not think i would regret trying and failing. and i suspected i would always be haunted by a decision to not try at all. after much consideration, i took the less safe path to follow my passion, and i am proud of that choice. tomorrow, in a very real sense, your life the life you author from scratch on your own begins. how will you use your gifts? what choices will you make? will inertia be your guide, or will you follow your passions? will you follow dogma, or will you be original? will you choose a life of ease, or a life of service and adventure? will you wilt under criticism, or will you follow your convictions? will you bluff it out when you are wrong, or will you apologize? will you guard your heart against rejection, or will you act when you fall in love? will you play it safe, or will you be a little bit swashbuckling? when it tough, will you give up, or will you be relentless? will you be a cynic, or will you be a builder? will you be clever at the expense of others, or will you be kind? i will hazard a prediction. when you are years old, and in a quiet moment of reflection narrating for only yourself the most personal version of your life story, the telling that will be most compact and meaningful will be the series of choices you have made. in the end, we are our choices. build yourself a great story. thank you and good luck!</t>
-  </si>
-  <si>
-    <t>here how i recall the wonderful story that sets the theme for my remarks today at a party given by a billionaire on shelter island, the late kurt vonnegut informs his pal, the author joseph heller, that their host, a hedge fund manager, had made more money in a single day than heller had earned from his wildly popular novel catch over its whole history. heller responds, yes, but i have something he will never have . . . enough. enough. i was stunned by its simple eloquence, to say nothing of its relevance to some of the vital issues arising in american society today. many of them revolve around money yes, money increasingly, in our bottom line society, the great god of prestige, the great measure of the man and woman . so this morning i have the temerity to ask you soon to be minted mba graduates, most of whom will enter the world of commerce, to consider with me the role of enough in business and entrepreneurship in our society, enough in the dominant role of the financial system in our economy, and enough in the values you will bring to the fields you choose for your careers. kurt vonnegut loved to speak to college students. he believed, if i may paraphrase here, that we should catch young people before they become ceos, investment bankers, consultants, and money managers and especially hedge fund managers , and do our best to poison their minds with humanity. and in my remarks this morning, i will try to poison your minds with a little bit of that humanity. over the past two centuries, our nation has moved from being an agricultural economy, to a manufacturing economy, to a service economy, and now to a predominantly financial economy. but our financial economy, by definition, subtracts from the value created by our productive businesses. think about it while the owners of business enjoy the dividend yields and earnings growth that our capitalistic system creates, those who play in the financial markets capture those investment gains only after the costs of financial intermediation are deducted. thus, while investing in american business is a winner game, beating the stock market before those costs is a zero sum game. but after intermediation costs are deducted, beating the market for all of us as a group becomes a loser game. yes, the more that our financial system takes, the less our investors make. yet the financial field is where the money is made in modern day america, the breeding ground for the wealthiest of our citizens. if you made less than million dollars last year, you did not make enough to rank among the highest paid hedge fund managers. when we add up all those hedge fund fees, all those mutual fund management fees and operating expenses all those commissions to brokerage firms and fees to financial advisors investment banking and legal fees for all those mergers and ipos and the enormous marketing and advertising expenses entailed in the distribution of financial products, we are talking about some billion dollars per year. that sum, extracted from whatever returns the stock and bond markets are generous enough to deliver to investors, is surely enough, if you will, to seriously undermine the odds in favor of success for our citizens who are accumulating savings for retirement. yet the fact is that the finance sector has become by far our nation largest generator of corporate profits, larger even than the combined profits of our huge energy and health care sectors, and almost three times as much as either manufacturing or information technology. twenty five years ago, financials accounted for only about percent of the earnings of the giant corporations that compose the standard poor stock index. ten years ago, the financial sector share had risen to percent. and last year, the financial sector profits had soared to an all time high of percent. if we add the earnings of the financial affiliates of our giant manufacturers think general electric capital, for example, or the auto financing arms of general motors and ford to this total, financial earnings now likely exceed percent of the earnings of the s p . while that share may or may not be enough, it seems likely to continue to grow, at least for a while. we are moving, or so it seems, to a world where we are no longer making anything in this country we are merely trading pieces of paper, swapping stocks and bonds back and forth with one another, and paying our financial croupiers a veritable fortune. we are also adding even more costs by creating ever more complex financial derivatives in which huge and unfathomable risks are being built into our financial system. when enterprise becomes a mere bubble on a whirlpool of speculation, as the great british economist john maynard keynes warned us years ago, the consequences may be dire. when the capital development of a country becomes a by product of the activities of a casino, the job of capitalism is likely to be ill done. once a profession in which business was subservient, the field of money management and wall street has become a business in which the profession is subservient. harvard business school professor rakesh khurana was right when he defined the conduct of a true professional with these words i will create value for society, rather than extract it. and yet money management, by definition, extracts value from the returns earned by our business enterprises. warren buffett wise partner charlie munger lays it on the line most money making activity contains profoundly antisocial effects . . . as high cost modalities become ever more popular . . . the activity exacerbates the current harmful trend in which ever more of the nation ethical young brain power is attracted into lucrative money management and its attendant modern frictions, as distinguished from work providing much more value to others. but i am not telling you not to go into the highly profitable field of managing money. rather, i present three caveats most commencement speakers like to sum up by citing some eminent philosopher to endorse his message. i am no exception. so i now offer to you new masters of business administration these words from socrates, spoken years ago, as he challenged the citizens of athens. i honor and love you but why do you who are citizens of this great and mighty nation care so much about laying up the greatest amount of money and honor and reputation, and so little about wisdom and truth and the greatest improvement of the soul. are you not ashamed of this? . . . i do nothing but go about persuading you all, not to take thought for your persons and your properties, but first and chiefly to care about the greatest improvement of the soul. i tell you that virtue is not given by money, but that from virtue comes money and every other good of man. i close by returning to kurt vonnegut story, which, when i finally tracked it down, turned out to be a poem. it delightful even better, it only words long true story, word of honor joseph heller, an important and funny writer now dead, and i were at a party given by a billionaire on shelter island. i said, joe, how does it make you feel to know that our host only yesterday may have made more money than your novel catch ' has earned in its entire history? and joe said, i have got something he can never have. and i said, what on earth could that be, joe? and joe said, the knowledge that i have got enough. not bad! rest in peace! but it not time for any of you to rest in peace, or to rest in any other way. bright futures lie before you. there the world work to be done, and there are never enough citizens with determined hearts, courageous character, intelligent minds, and idealistic souls to do it. yes, our world already has quite enough guns, political platitudes, arrogance, disingenuousness, self interest, snobbishness, superficiality, war, and the certainty that god is on one side or the other. but it never has enough conscience, nor enough tolerance, idealism, justice, compassion, wisdom, humility, self sacrifice for the greater good, integrity, courtesy, poetry, laughter, and generosity of substance and spirit. it is these elements that i urge you to carry into your careers, and remember that the great game of life is not about money it is about doing your best to build the world anew. and that enough . . . at least for today.</t>
-  </si>
-  <si>
-    <t>oh, it just feels like an incredible understatement to say how grateful i am to be here with all of you. i feel like i have a relationship with many of you on social media, and you were like, t minus two days. i am like, it coming! we are going to be together. so i am so grateful to be here with you. i am going to talk about trust and i am going to start by saying this one of my favorite parts of my job is that i get to research topics that mean something to me. one of my least favorite parts of my job is i normally come up with findings that kicked me in the butt and make me change my entire life. that the hard part. but i get to dig into the stuff that i think matters in my life and the life of the people around me. and the topic of trust is something i think i probably would have eventually started to look at closely because i study shame and vulnerability. but there a very personal reason i jumped to trust early in my research career, and it was a personal experience. one day, my daughter, ellen, came home from school. she was in third grade. and the minute we closed the front door, she literally just started sobbing and slid down the door until she was just kind of a heap of crying on the floor. and of course i was it scared me, and i said, what wrong ellen? what happened? what happened? and she pulled herself together enough to say, something really hard happened to me today at school, and i shared it with a couple of my friends during recess. and by the time we got back into the classroom, everyone in my class knew what had happened, and they were laughing and pointing at me and calling me names. and it was so bad, and the kids were being so disruptive, that her teacher even had to take marbles out of this marble jar. and the marble jar in the classroom is a jar where if the kids are making great choices together, the teacher adds marbles. if they are making not great choices, the teacher takes out marbles. and if the jar gets filled up, there a celebration for the class. and so, she said, it was one of the worst moments in my life. they were laughing and pointing. and miss bacchum, my teacher, kept saying, i am going to take marbles out. and she did not know what was happening. and she looked at me just with this face that is just seared my mind and said, i will never trust anyone again. and my first reaction, to be really honest with you, was, damn straight, you do not tell anybody anything but your mama. yeah, right? that it. i mean, that was my you just tell me. and when you grow up and you go off to school, mama will go too. i will get a little apartment. and the other thing i was thinking to be quite honest with you is, i will find out who those kids were. and while i am not going to beat up a nine year old, i know their mamas. you know, that the place you go to. and i am like, how am i going to explain trust to this third grader in front of me? so i took a deep breath and i said, ellen, trust is like a marble jar. she said, what do you mean? and i said, you share those hard stories and those hard things that are happening to you with friends, who, over time, you filled up their marble jar. they have done thing after thing after thing where you are like, i know i can share this with this person. does that make sense? yes! and that what ellen said, yes, that makes sense. and i said, do you have any marble jar friends? and she said, oh yeah. totally. hannah and lorna are marble jar friends. and i said and then this is where things got interesting. i said, tell me what you mean. how do they earn marbles for you? and she like, well, lorna, if there not a seat for me at the lunch cafeteria, she will scoot over and give me half a heinie seat. and i am like, she will? she like, yeah. she will just sit like that, and so i can sit with her. and i said, that a big deal. this is not what i was expecting to hear. and then she said, and you know hannah, on sunday at my soccer game? and i was waiting for this story where she said, i got hit by a ball and i was laying on the field, and hannah picked me up and ran me to first aid. and i was like, yeah? and she said, hannah looked over and she saw oma and opa, my parents, her grandparents, and she said, look, your oma and opa are here. and i was like and i was like, boy, she got a marble for that? and she goes, well, you know, not all my friends have eight grandparents. because my parents are divorced and remarried, my husband parents were divorced and remarried. and she said, and it was so nice to me that she remembered their names.</t>
-  </si>
-  <si>
-    <t>you know, when video arts asked me if i would like to talk about creativity i said no problem! no problem! because telling people how to be creative is easy, it only being it that difficult. i knew it would be particularly easy for me because i have spent the last years watching how various creative people produce their stuff, and being fascinating to see if i could figure out what makes folk, including me, more creative. what is more, a couple of years ago i got very excited because a friend of mine who runs the psychology department at sussex university, brian bates, showed me some research on creativity done at berkley in the s by a brilliant psychologist called donald mackinnon which seemed to confirm in the most impressively scientific way all the vague observations and intuitions that i would had over the years. the prospect of settling down for quite serious study of creativity for the purpose of tonight gossip was delightful. having spent several weeks on it, i can state categorically that what i have to tell you tonight about how you can all become more creative is a complete waste of time. so i think it would be much better if i just told jokes instead. you know the lightbulb jokes? how many poles does it take to screw in a lightbulb? one to hold the bulb, four to turn the table. how many folksingers does it take to change a lightbulb? answer five, one to change the bulb and four to sing about how much better the old one was. how many socialists does it take to change a lightbulb? answer we are not going to change it, we think it works. how many creative art the reason why it is futile for me to talk about creativity is that it simply cannot be explained, it like mozart music or van gogh painting or saddam hussein propaganda. it is literally inexplicable. freud, who analyzed practically everything else, repeatedly denied that psychoanalysis could shed any light whatsoever on the mysteries of creativity. and brian bates wrote to me recently most of the best research on creativity was done in the s and s with a quite dramatic drop off in quantity after then, largely, i suspect because researchers began to feel that they had reached the limits of what science could discover about it. in fact, the only thing from the research that i could tell you about how to be creative is the sort of childhood that you should have had, which is of limited help to you at this point in your lives. however there is one negative thing that i can say, and it negative because it is easier to say what creativity isn't. a bit like the sculptor who when asked how he had sculpted a very fine elephant, explained that he would taken a big block of marble and then knocked away all the bits that did not look like an elephant. now here the negative thing creativity is not a talent. it is not a talent, it is a way of operating. so how many actors does it take to screw in a lightbulb? answer thousands. only one to do it but thousands to say i could have done that. how many jewish mothers does it take to screw in a lightbulb? answer do not mind me, i will just sit here in the dark, nobody cares about how many surgeons you see when i say a way of operating what i mean is this creativity is not an ability that you either have or do not have. it is, for example, and this may surprise you absolutely unrelated to iq provided that you are intelligent above a certain minimal level that is but mackinnon showed in investigating scientists, architects, engineers, and writers that those regarded by their peers as most creative were in no way whatsoever different in iq from their less creative colleagues. so in what way were they different? mackinnon showed that the most creative had simply acquired a facility for getting themselves into a particular mood a way of operating which allowed their natural creativity to function. in fact, mackinnon described this particular facility as an ability to play. indeed he described the most creative when in this mood as being childlike. for they were able to play with ideas to explore them not for any immediate practical purpose but just for enjoyment. play for its own sake. now, about this mood. i am working at the moment with dr. robin skynner on a successor to our psychiatry book families and how to survive them we are comparing the ways in which psychologically healthy families function the ways in which such families function with the ways in which the most successful corporations and organizations function. we have become fascinated by the fact that we can usually describe the way in which people function at work in terms of two modes open and closed. so what i can just add now is that creativity is not possible in the closed mode. ok, so how many american network tv executives does it take to screw in a lightbulb? answer does it have to be a lightbulb? how many doorke let me explain a little. by the closed mode i mean the mode that we are in most of the time when at work. we have inside us a feeling that there lots to be done and we have to get on with it if we are going to get through it all. it an active probably slightly anxious mode, although the anxiety can be exciting and pleasurable. it a mode which we are probably a little impatient, if only with ourselves. it has a little tension in it, not much humor. it a mode in which we are very purposeful, and it a mode in which we can get very stressed and even a bit manic, but not creative. by contrast, the open mode, is relaxed expansive less purposeful mode in which we are probably more contemplative, more inclined to humor which always accompanies a wider perspective and, consequently, more playful. it a mood in which curiosity for its own sake can operate because we are not under pressure to get a specific thing done quickly. we can play, and that is what allows our natural creativity to surface. let me give you an example of what i mean. when alexander fleming had the thought that led to the discovery of penicillin, he must have been in the open mode. the previous day, he would arranged a number of dishes to that culture would grow upon them. on the day in question, he glanced at the dishes, and he discovered that on one of them no culture had appeared. now, if he would been in the closed mode he would have been so focused upon his need for dishes with cultures grown upon them that when he saw that one dish was of no use to him for that purpose he would quite simply have thrown it away. thank goodness, he was in the open mode so he became curious about why the culture had not grown on this particular dish. and that curiosity, as the world knows, led him to the lightbulb i am sorry, to penicillin. now in the closed mode an uncultured dish is an irrelevance. in the open mode, it a clue. now, one more example one of alfred hitchcock regular co writers has described working with him on screenplays. he says, when we came up against a block and our discussions became very heated and intense, hitchcock would suddenly stop and tell a story that had nothing to do with the work at hand. at first, i was almost outraged, and then i discovered that he did this intentionally. he mistrusted working under pressure. he would say we are pressing, we are pressing, we are working too hard. relax, it will come. and, says the writer, of course it finally always did. but let me make one thing quite clear we need to be in the open mode when we are pondering a problem but once we come up with a solution, we must then switch to the closed mode to implement it. because once we have made a decision, we are efficient only if we go through with it decisively, undistracted by doubts about its correctness. for example, if you decide to leap a ravine, the moment just before take off is a bad time to start reviewing alternative strategies. when you are attacking a machine gun post you should not make a particular effort to see the funny side of what you are doing. humor is a natural concomitant in the open mode, but it a luxury in the closed. no, once we have taken a decision we should narrow our focus while we are implementing it, and then after it been carried out we should once again switch back to the open mode to review the feedback rising from our action, in order to decide whether the course that we have taken is successful, or whether we should continue with the next stage of our plan. whether we should create an alternative plan to correct any error we perceive. and then back into the closed mode to implement that next stage, and so on. in other words, to be at our most efficient we need to be able to switch backwards and forwards between the two modes. but here the problem we too often get stuck in the closed mode. under the pressures which are all too familiar to us we tend to maintain tunnel vision at times when we really need to step back and contemplate the wider view. this is particularly true, for example, of politicians. the main complaint about them from their non political colleagues is that they become so addicted to the adrenaline that they get from reacting to events on an hour by hour basis that they almost completely lose the desire or the ability to ponder problems in the open mode. and that it. well minutes to go so, how many women libbers does it take to change a lightbulb? answer , one to screw it in, and to make a documentary about it. how many psychiatrists does it take to change a lightbulb? the answer only one, but the lightbulb has really got to want to change. oh, there is one, just one, other thing that i can say about creativity. there are certain conditions which do make it more likely that you will get into the open mode, and that something creative will occur. more likely you ca not guarantee anything will occur. you might sit around for hours as i did last tuesday, and nothing. zilch. bupkis. not a sausage. nevertheless i can at least tell you how to get yourselves into the open mode. you need five things sorry, my mind was wondering. i am getting into the open mode too quickly. instead of a inch waist, you need humor. i do beg your pardon. let take space first you ca not become playful and therefore creative if you are under your usual pressures, because to cope with them you have got to be in the closed mode. so you have to create some space for yourself away from those demands. and that means sealing yourself off. you must make a quiet space for yourself where you will be undisturbed. next time. it not enough to create space, you have to create your space for a specific period of time. you have to know that your space will last until exactly , and that at that moment your normal life will start again. and it only by having a specific moment when your space starts and an equally specific moment when your space stops that you can seal yourself off from the every day closed mode in which we all habitually operate. and i would never realized how vital this was until i read a historical study of play by a dutch historian called johan huizinga and in it he says play is distinct from ordinary life, both as to locality and duration. this is its main characteristic its secludedness, its limitedness. play begins and then at a certain moment it is over. otherwise, it not play. so combining the first two factors we create an oasis of quiet for ourselves by setting the boundaries of space and of time. now creativity can happen, because play is possible when we are separate from everyday life. so, you have arranged to take no calls, you have closed your door, you have sat down somewhere comfortable, take a couple of deep breaths and if you are anything like me, after you have pondered some problem that you want to turn into an opportunity for about seconds, you find yourself thinking oh i forgot i have got to call jim oh, and i must tell tina that i need the report on wednesday and not thursday which means i must move my lunch with joe and damn! i have not called st. paul about getting joe daughter an interview and i must pop out this afternoon to get will birthday present and those plants need watering and none of my pencils are sharpened and right! i have got too much to do, so i am going to start by sorting out my paper clips and then i shall make phone calls and i will do some thinking tomorrow when i have got everything out of the way. because, as we all know, it easier to do trivial things that are urgent than it is to do important things that are not urgent, like thinking. and it also easier to do little things we know we can do than to start on big things that we are not so sure about. so when i say create an oasis of quiet know that when you have, your mind will pretty soon start racing again. but you are not going to take that very seriously, you just sit there for a bit tolerating the racing and the slight anxiety that comes with that, and after a time your mind will quiet down again. now, because it takes some time for your mind to quiet down it absolutely no use arranging a space time oasis lasting minutes, because just as you are getting quieter and getting into the open mode you have to stop and that is very deeply frustrating. so you must allow yourself a good chunk of time. i would suggest about an hour and a half. then after you have gotten to the open mode, you will have about an hour left for something to happen, if you are lucky. but do not put a whole morning aside. my experience is that after about an hour and a half you need a break. so it far better to do an hour and a half now and then an hour and a half next thursday and maybe an hour and a half the week after that, than to fix one four and a half hour session now. there another reason for that, and that factor number three time. yes, i know we have just done time, but that was half of creating our oasis. now i am going to tell you about how to use the oasis that you have created. why do you still need time? well, let me tell you a story. i was always intrigued that one of my monty python colleagues who seemed to be to me more talented than i was but did never produce scripts as original as mine. and i watched for some time and then i began to see why. if he was faced with a problem, and fairly soon saw a solution, he was inclined to take it. even though i think he knew the solution was not very original. whereas if i was in the same situation, although i was sorely tempted to take the easy way out, and finish by o'clock, i just couldn't. i would sit there with the problem for another hour and a quarter, and by sticking at it would, in the end, almost always come up with something more original. it was that simple. my work was more creative than his simply because i was prepared to stick with the problem longer. so imagine my excitement when i found that this was exactly what mackinnon found in his research. he discovered that the most creative professionals always played with a problem for much longer before they tried to resolve it, because they were prepared to tolerate that slight discomfort and anxiety that we all experience when we have not solved a problem. you know i mean, if we have a problem and we need to solve it, until we do, we feel inside us a kind of internal agitation, a tension, or an uncertainty that makes us just plain uncomfortable. and we want to get rid of that discomfort. so, in order to do so, we take a decision. not because we are sure it the best decision, but because taking it will make us feel better. well, the most creative people have learned to tolerate that discomfort for much longer. and so, just because they put in more pondering time, their solutions are more creative. now the people i find it hardest to be creative with are people who need all the time to project an image of themselves as decisive. and who feel that to create this image they need to decide everything very quickly and with a great show of confidence. well, this behavior i suggest sincerely, is the most effective way of strangling creativity at birth. but please note i am not arguing against real decisiveness. i am in favor of taking a decision when it has to be taken and then sticking to it while it is being implemented. what i am suggesting to you is that before you take a decision, you should always ask yourself the question, when does this decision have to be taken? and having answered that, you defer the decision until then, in order to give yourself maximum pondering time, which will lead you to the most creative solution. and if, while you are pondering, somebody accuses you of indecision say, look, babycakes, i do not have to decide until tuesday, and i am not chickening out of my creative discomfort by taking a snap decision before then, that too easy. so, to summarize the third factor that facilitates creativity is time, giving your mind as long as possible to come up with something original. now the next factor, number , is confidence. when you are in your space time oasis, getting into the open mode, nothing will stop you being creative so effectively as the fear of making a mistake. now if you think about play, you will see why. to play is experiment what happens if i do this? what would happen if we did that? what if ? the very essence of playfulness is an openness to anything that may happen. the feeling that whatever happens, it ok. so you cannot be playful if you are frightened that moving in some direction will be wrong something you should not have done. well, you are either free to play, or you are not. as alan watts puts it, you ca not be spontaneous within reason. so you have got risk saying things that are silly and illogical and wrong, and the best way to get the confidence to do that is to know that while you are being creative, nothing is wrong. there no such thing as a mistake, and any drivel may lead to the break through. and now, the last factor, the fifth humor. well, i happen to think the main evolutionary significance of humor is that it gets us from the closed mode to the open mode quicker than anything else. i think we all know that laughter brings relaxation, and that humor makes us playful, yet how many times important discussions been held where really original and creative ideas were desperately needed to solve important problems, but where humor was taboo because the subject being discussed was air quotes so serious ? this attitude seems to me to stem from a very basic misunderstanding of the difference between serious and solemn'. now i suggest to you that a group of us could be sitting around after dinner, discussing matters that were extremely serious like the education of our children, or our marriages, or the meaning of life and i am not talking about the film , and we could be laughing, and that would not make what we were discussing one bit less serious. solemnity, on the other hand i do not know what it for. i mean, what is the point of it? the two most beautiful memorial services that i have ever attended both had a lot of humor, and it somehow freed us all, and made the services inspiring and cathartic. but solemnity? it serves pomposity, and the self important always know with some level of their consciousness that their egotism is going to be punctured by humor that why they see it as a threat. and so dishonestly pretend that their deficiency makes their views more substantial, when it only makes them feel bigger. no, humor is an essential part of spontaneity, an essential part of playfulness, an essential part of the creativity that we need to solve problems, no matter how serious they may be. so when you set up a space time oasis, giggle all you want. and there, ladies and gentlemen, are the five factors which you can arrange to make your lives more creative space, time, time, confidence, and lord jeffrey archer. so, now you know how to get into the open mode, the only other requirement is that you keep mind gently around the subject you are pondering. you will daydream, of course, but you just keep bringing your mind back, just like with meditation. because, and this is the extraordinary thing about creativity, if you just keep your mind resting against the subject in a friendly but persistent way, sooner or later you will get a reward from your unconscious, probably in the shower later. or at breakfast the next morning, but suddenly you are rewarded, out of the blue a new thought mysteriously appears. if you have put in the pondering time first. so, how many cecil parkinsons does it take to change a lightbulb? answer two, one to screw it in, one to screw it up. how many account executives does it take to screw in a lightbulb? answer can i get back to you on that? how many norwei oh, sorry, how many yugoslav how many malt how many dutch i am out of jokes. oh! one thing! looking at you all reminds me, i think it easy to be creative if you have got other people to play with. i always find that if two or more of us throw ideas backwards and forwards i get to more interesting and original places than i could have ever have gotten to on my own. but there is a danger, a real danger, if there one person around you who makes you feel defensive, you lose the confidence to play, and it goodbye creativity. so always make sure your play friends are people that you like and trust. and never say anything to squash them either, never say no or wrong or i do not like that. always be positive, and build on what is being said would it be even better if i do not quite understand that, can you just explain it again? go on what if ? let pretend try to establish as free an atmosphere as possible. sometimes i wonder if the success of the japanese is not partly due to their instinctive understanding of how to use groups creatively. westerners are often amazed at the unstructured nature of japanese meetings but maybe it just that very lack of structure, that absence of time pressure, that frees them to solve problems so creatively. and how clever of the japanese sometimes to plan that un structured ness by, for example, insisting that the first people to give their views are the most junior, so that they can speak freely without the possibility of contradicting what already been said by somebody more important. four minutes left how many irish sorry, sorry well, look, the very last thing that i can say about creativity is this it like humor. in a joke, the laugh comes at a moment when you connect two different frameworks of reference in a new way. example there the old story about a woman doing a survey into sexual attitudes who stops an airline pilot and asks him, amongst other things, when he last had sexual intercourse. he replies nineteen fifty eight. now, knowing airline pilots, the researcher is surprised, and queries this. well, says the pilot, it only twenty one ten now. we laugh, eventually, at the moment of contact between two frameworks of reference the way we express what year it is and the hour clock. now, having an idea, a new idea, is exactly the same thing. it connecting two hitherto separate ideas in a way that generates new meaning. now, connecting different ideas is not difficult, you can connect cheese with motorcycles or moral courage with light green, or bananas with international cooperation. you can get any computer to make a billion random connection for you, but these new connections or juxtapositions are significant only if they generate new meaning. so as you play you can deliberately try inventing these random juxtapositions, and then use your intuition to tell you whether any of them seem to have significance for you. that the bit the computer ca not do. it can produce millions of new connections, but it ca not tell which one smells interesting. and, of course, you will produce some juxtapositions which are absolutely ridiculous, absurd. good for you! because edward de bono who invented the notion of lateral thinking specifically suggests in his book po beyond yes and no that you can try loosening up your assumptions by playing with deliberately crazy connections. he calls such absurd ideas intermediate impossibles. and he points out the use of an intermediate impossible is completely contrary to ordinary logical thinking in which you have to be right at each stage. it does not matter if the intermediate impossible is right or absurd, it can nevertheless be used as a stepping stone to another idea that is right. another example of how, when you are playing, nothing is wrong. so, to summarize if you really do not know how to start, or if you got stuck, start generating random connections, and allow your intuition to tell you if one might lead somewhere interesting. well, that really is all i can tell you that wo not help you to be creative. everything. and now, in the two minutes left, i can come to the important part, and that is, how to stop your subordinates from becoming creative too, which is the real threat. because, believe me no one appreciates better than i do what trouble creative people are. and how they stop decisive, hard nosed bastards like us from running businesses efficiently. i mean, we all know, we encourage someone to be creative, the next thing is they are rocking the boat, coming up with ideas, and asking us questions. now if we do not nip this kind of thing in the bud, we will have to start justifying our decisions by reasoned argument. and sharing information the concealment of which gives us considerable advantages in our power struggles. so, here how to stamp out creativity in the rest of the organization and get a bit of respect going. one allow subordinates no humor, it threatens your self importance and especially your omniscience. treat all humor as frivolous or subversive. because subversive is, of course, what humor will be in your setup, as it the only way that people can express their opposition, since if they express it openly you are down on them like a ton of bricks. so let get this clear blame humor for the resistance that your way of working creates. then you do not have to blame your way of working. this is important. and i mean that solemnly. your dignity is no laughing matter. second keeping ourselves feeling irreplaceable involves cutting everybody else down to size, so do not miss an opportunity to undermine your employees confidence. a perfect opportunity comes when you are reviewing work that they have done. use your authority to zero in immediately on all the things you can find wrong. never, never balance the negatives with positives, only criticize, just as your school teachers did. always remember praise makes people uppity. third demand that people should always be actively doing things. if you catch anyone pondering, accuse them of laziness and or indecision. this is to starve employees of thinking time because that leads to creativity and insurrection. so demand urgency at all times, use lots of fighting talk and war analogies, and establish a permanent atmosphere of stress, of breathless anxiety, and crisis. in a phrase keep that mode closed. in this way we no nonsense types can be sure that the tiny, tiny, microscopic quantity of creativity in our organization will all be ours! but! let your vigilance slip for one moment, and you could find yourself surrounded by happy, enthusiastic, and creative people whom you might never be able to completely control ever again! so be careful. thank you, and good night. thank you.</t>
-  </si>
-  <si>
-    <t>my title must seem like a contradiction. what can solitude have to do with leadership? solitude means being alone, and leadership necessitates the presence of others the people you are leading. when we think about leadership in american history we are likely to think of washington, at the head of an army, or lincoln, at the head of a nation, or king, at the head of a movement people with multitudes behind them, looking to them for direction. and when we think of solitude, we are apt to think of thoreau, a man alone in the woods, keeping a journal and communing with nature in silence. leadership is what you are here to learn the qualities of character and mind that will make you fit to command a platoon, and beyond that, perhaps, a company, a battalion, or, if you leave the military, a corporation, a foundation, a department of government. solitude is what you have the least of here, especially as plebes. you do not even have privacy, the opportunity simply to be physically alone, never mind solitude, the ability to be alone with your thoughts. and yet i submit to you that solitude is one of the most important necessities of true leadership. this lecture will be an attempt to explain why. we need to begin by talking about what leadership really means. i just spent years teaching at another institution that, like west point, liked to talk a lot about leadership, yale university. a school that some of you might have gone to had you not come here, that some of your friends might be going to. and if not yale, then harvard, stanford, mit, and so forth. these institutions, like west point, also see their role as the training of leaders, constantly encourage their students, like west point, to regard themselves as leaders among their peers and future leaders of society. indeed, when we look around at the american elite, the people in charge of government, business, academia, and all our other major institutions senators, judges, ceos, college presidents, and so forth we find that they come overwhelmingly either from the ivy league and its peer institutions or from the service academies, especially west point. so i began to wonder, as i taught at yale, what leadership really consists of. my students, like you, were energetic, accomplished, smart, and often ferociously ambitious, but was that enough to make them leaders? most of them, as much as i liked and even admired them, certainly did not seem to me like leaders. does being a leader, i wondered, just mean being accomplished, being successful? does getting straight as make you a leader? i did not think so. great heart surgeons or great novelists or great shortstops may be terrific at what they do, but that does not mean they are leaders. leadership and aptitude, leadership and achievement, leadership and even ex cellence have to be different things, otherwise the concept of leadership has no meaning. and it seemed to me that that had to be especially true of the kind of excellence i saw in the students around me. see, things have changed since i went to college in the ' s. everything has gotten much more intense. you have to do much more now to get into a top school like yale or west point, and you have to start a lot earlier. we did not begin thinking about college until we were juniors, and maybe we each did a couple of extracurriculars. but i know what it like for you guys now. it an endless series of hoops that you have to jump through, starting from way back, maybe as early as junior high school. classes, standardized tests, extracurriculars in school, extracurriculars outside of school. test prep courses, admissions coaches, private tutors. i sat on the yale college admissions committee a couple of years ago. the first thing the admissions officer would do when presenting a case to the rest of the committee was read what they call the brag in admissions lingo, the list of the student extracurriculars. well, it turned out that a student who had six or seven extracurriculars was already in trouble. because the students who got in in addition to perfect grades and top scores usually had or . so what i saw around me were great kids who had been trained to be world class hoop jumpers. any goal you set them, they could achieve. any test you gave them, they could pass with flying colors. they were, as one of them put it herself, excellent sheep. i had no doubt that they would continue to jump through hoops and ace tests and go on to harvard business school, or michigan law school, or johns hopkins medical school, or goldman sachs, or mckinsey consulting, or whatever. and this approach would indeed take them far in life. they would come back for their th reunion as a partner at white case, or an attending physician at mass general, or an assistant secretary in the department of state. that is exactly what places like yale mean when they talk about training leaders. educating people who make a big name for themselves in the world, people with impressive titles, people the university can brag about. people who make it to the top. people who can climb the greasy pole of whatever hierarchy they decide to attach themselves to. but i think there something desperately wrong, and even dangerous, about that idea. to explain why, i want to spend a few minutes talking about a novel that many of you may have read, heart of darkness. if you have not read it, you have probably seen apocalypse now, which is based on it. marlow in the novel becomes captain willard, played by martin sheen. kurtz in the novel becomes colonel kurtz, played by marlon brando. but the novel is not about vietnam it about colonialism in the belgian congo three generations before vietnam. marlow, not a military officer but a merchant marine, a civilian ship captain, is sent by the company that running the country under charter from the belgian crown to sail deep upriver, up the congo river, to retrieve a manager who ensconced himself in the jungle and gone rogue, just like colonel kurtz does in the movie. now everyone knows that the novel is about imperialism and colonialism and race relations and the darkness that lies in the human heart, but it became clear to me at a certain point, as i taught the novel, that it is also about bureaucracy what i called, a minute ago, hierarchy. the company, after all, is just that a company, with rules and procedures and ranks and people in power and people scrambling for power, just like any other bureaucracy. just like a big law firm or a governmental department or, for that matter, a university. just like and here why i am telling you all this just like the bureaucracy you are about to join. the word bureaucracy tends to have negative connotations, but i say this in no way as a criticism, merely a description, that the u.s. army is a bureaucracy and one of the largest and most famously bureaucratic bureaucracies in the world. after all, it was the army that gave us, among other things, the indispensable bureaucratic acronym snafu situation normal all fucked up or all fouled up in the cleaned up version. that comes from the u.s. army in world war ii. you need to know that when you get your commission, you will be joining a bureaucracy, and however long you stay in the army, you will be operating within a bureaucracy. as different as the armed forces are in so many ways from every other institution in society, in that respect they are the same. and so you need to know how bureaucracies operate, what kind of behavior what kind of character they reward, and what kind they punish. so, back to the novel. marlow proceeds upriver by stages, just like captain willard does in the movie. first he gets to the outer station. kurtz is at the inner station. in between is the central station, where marlow spends the most time, and where we get our best look at bureaucracy in action and the kind of people who succeed in it. this is marlow description of the manager of the central station, the big boss he was commonplace in complexion, in features, in manners, and in voice. he was of middle size and of ordinary build. his eyes, of the usual blue, were perhaps remarkably cold. . . . otherwise there was only an indefinable, faint expression of his lips, something stealthy a smile not a smile i remember it, but i ca not explain. . . . he was a common trader, from his youth up employed in these parts nothing more. he was obeyed, yet he inspired neither love nor fear, nor even respect. he inspired uneasiness. that was it! uneasiness. not a definite mistrust just uneasiness nothing more. you have no idea how effective such a . . . a . . . faculty can be. he had no genius for organizing, for initiative, or for order even. . . . he had no learning, and no intelligence. his position had come to him why? . . . he originated nothing, he could keep the routine going that all. but he was great. he was great by this little thing that it was impossible to tell what could control such a man. he never gave that secret away. perhaps there was nothing within him. such a suspicion made one pause. note the adjectives commonplace, ordinary, usual, common. there is nothing distinguished about this person. about the th time i read that passage, i realized it was a perfect description of the kind of person who tends to prosper in the bureaucratic environment. and the only reason i did is because it suddenly struck me that it was a perfect description of the head of the bureaucracy that i was part of, the chairman of my academic department who had that exact same smile, like a shark, and that exact same ability to make you uneasy, like you were doing something wrong, only she was not ever going to tell you what. like the manager and i am sorry to say this, but like so many people you will meet as you negotiate the bureaucracy of the army or for that matter of whatever institution you end up giving your talents to after the army, whether it microsoft or the world bank or whatever the head of my department had no genius for organizing or initiative or even order, no particular learning or intelligence, no distinguishing characteristics at all. just the ability to keep the routine going, and beyond that, as marlow says, her position had come to her why? that really the great mystery about bureaucracies. why is it so often that the best people are stuck in the middle and the people who are running things the leaders are the mediocrities? because excellence is not usually what gets you up the greasy pole. what gets you up is a talent for maneuvering. kissing up to the people above you, kicking down to the people below you. pleasing your teachers, pleasing your superiors, picking a powerful mentor and riding his coattails until it time to stab him in the back. jumping through hoops. getting along by going along. being whatever other people want you to be, so that it finally comes to seem that, like the manager of the central station, you have nothing inside you at all. not taking stupid risks like trying to change how things are done or question why they are done. just keeping the routine going. i tell you this to forewarn you, because i promise you that you will meet these people and you will find yourself in environments where what is rewarded above all is conformity. i tell you so you can decide to be a different kind of leader. and i tell you for one other reason. as i thought about these things and put all these pieces together the kind of students i had, the kind of leadership they were being trained for, the kind of leaders i saw in my own institution i realized that this is a national problem. we have a crisis of leadership in this country, in every institution. not just in government. look at what happened to american corporations in recent decades, as all the old dinosaurs like general motors or twa or u.s. steel fell apart. look at what happened to wall street in just the last couple of years. finally and i know i am on sensitive ground here look at what happened during the first four years of the iraq war. we were stuck. it was not the fault of the enlisted ranks or the noncoms or the junior officers. it was the fault of the senior leadership, whether military or civilian or both. we were not just not winning, we were not even changing direction. we have a crisis of leadership in america because our overwhelming power and wealth, earned under earlier generations of leaders, made us complacent, and for too long we have been training leaders who only know how to keep the routine going. who can answer questions, but do not know how to ask them. who can fulfill goals, but do not know how to set them. who think about how to get things done, but not whether they are worth doing in the first place. what we have now are the greatest technocrats the world has ever seen, people who have been trained to be incredibly good at one specific thing, but who have no interest in anything beyond their area of exper tise. what we do not have are leaders. what we do not have, in other words, are thinkers. people who can think for themselves. people who can formulate a new direction for the country, for a corporation or a college, for the army a new way of doing things, a new way of looking at things. people, in other words, with vision. now some people would say, great. tell this to the kids at yale, but why bother telling it to the ones at west point? most people, when they think of this institution, assume that it the last place anyone would want to talk about thinking creatively or cultivating independence of mind. it the army, after all. it no accident that the word regiment is the root of the word regimentation. surely you who have come here must be the ultimate conformists. must be people who have bought in to the way things are and have no interest in changing it. are not the kind of young people who think about the world, who ponder the big issues, who question authority. if you were, you would have gone to amherst or pomona. you are at west point to be told what to do and how to think. but you know that not true. i know it, too otherwise i would never have been invited to talk to you, and i am even more convinced of it now that i have spent a few days on campus. to quote colonel scott krawczyk, your course director, in a lecture he gave last year to english from the very earliest days of this country, the model for our officers, which was built on the model of the citizenry and reflective of democratic ideals, was to be different. they were to be possessed of a democratic spirit marked by independent judgment, the freedom to measure action and to express disagreement, and the crucial responsibility never to tolerate tyranny. all the more so now. anyone who been paying attention for the last few years understands that the changing nature of warfare means that officers, including junior officers, are required more than ever to be able to think independently, creatively, flexibly. to deploy a whole range of skills in a fluid and complex situation. lieutenant colonels who are essentially functioning as provincial governors in iraq, or captains who find themselves in charge of a remote town somewhere in afghanistan. people who know how to do more than follow orders and execute routines. look at the most successful, most acclaimed, and perhaps the finest soldier of his generation, general david petraeus. he one of those rare people who rises through a bureaucracy for the right reasons. he is a thinker. he is an intellectual. in fact, prospect magazine named him public intellectual of the year in that in the world. he has a ph.d. from princeton, but what makes him a thinker is not that he has a ph.d. or that he went to princeton or even that he taught at west point. i can assure you from personal experience that there are a lot of highly educated people who do not know how to think at all. no, what makes him a thinker and a leader is precisely that he is able to think things through for himself. and because he can, he has the confidence, the courage, to argue for his ideas even when they are not popular. even when they do not please his superiors. courage there is physical courage, which you all possess in abundance, and then there is another kind of courage, moral courage, the courage to stand up for what you believe. it was not always easy for him. his path to where he is now was not a straight one. when he was running mosul in as commander of the st airborne and developing the strategy he would later formulate in the counterinsurgency field manual and then ultimately apply throughout iraq, he pissed a lot of people off. he was way ahead of the leadership in baghdad and washington, and bureaucracies do not like that sort of thing. here he was, just another two star, and he was saying, implicitly but loudly, that the leadership was wrong about the way it was running the war. indeed, he was not rewarded at first. he was put in charge of training the iraqi army, which was considered a blow to his career, a dead end job. but he stuck to his guns, and ultimately he was vindicated. ironically, one of the central elements of his counterinsurgency strategy is precisely the idea that officers need to think flexibly, creatively, and independently. that the first half of the lecture the idea that true leadership means being able to think for yourself and act on your convictions. but how do you learn to do that? how do you learn to think? let start with how you do not learn to think. a study by a team of researchers at stanford came out a couple of months ago. the investigators wanted to figure out how today college students were able to multitask so much more effectively than adults. how do they manage to do it, the researchers asked? the answer, they discovered and this is by no means what they expected is that they don't. the enhanced cognitive abilities the investigators expected to find, the mental faculties that enable people to multitask effectively, were simply not there. in other words, people do not multitask effectively. and here the really surprising finding the more people multitask, the worse they are, not just at other mental abilities, but at multitasking itself. one thing that made the study different from others is that the researchers did not test people cognitive functions while they were multitasking. they separated the subject group into high multitaskers and low multitaskers and used a different set of tests to measure the kinds of cognitive abilities involved in multitasking. they found that in every case the high multitaskers scored worse. they were worse at distinguishing between relevant and irrelevant information and ignoring the latter. in other words, they were more distractible. they were worse at what you might call mental filing keeping information in the right conceptual boxes and being able to retrieve it quickly. in other words, their minds were more disorganized. and they were even worse at the very thing that defines multitasking itself switching between tasks. multitasking, in short, is not only not thinking, it impairs your ability to think. thinking means concentrating on one thing long enough to develop an idea about it. not learning other people ideas, or memorizing a body of information, however much those may sometimes be useful. developing your own ideas. in short, thinking for yourself. you simply cannot do that in bursts of seconds at a time, constantly interrupted by facebook messages or twitter tweets, or fiddling with your ipod, or watching something on youtube. i find for myself that my first thought is never my best thought. my first thought is always someone else it always what i have already heard about the subject, always the conventional wisdom. it only by concentrating, sticking to the question, being patient, letting all the parts of my mind come into play, that i arrive at an original idea. by giving my brain a chance to make associations, draw connections, take me by surprise. and often even that idea does not turn out to be very good. i need time to think about it, too, to make mistakes and recognize them, to make false starts and correct them, to outlast my impulses, to defeat my desire to declare the job done and move on to the next thing. i used to have students who bragged to me about how fast they wrote their papers. i would tell them that the great german novelist thomas mann said that a writer is someone for whom writing is more difficult than it is for other people. the best writers write much more slowly than everyone else, and the better they are, the slower they write. james joyce wrote ulysses, the greatest novel of the th century, at the rate of about a hundred words a day half the length of the selection i read you earlier from heart of darkness for seven years. t. s. eliot, one of the greatest poets our country has ever produced, wrote about pages of poetry over the course of his entire year career. that half a page a month. so it is with any other form of thought. you do your best thinking by slowing down and concentrating. now that the third time i have used that word, concentrating. concentrating, focusing. you can just as easily consider this lecture to be about concentration as about solitude. think about what the word means. it means gathering yourself together into a single point rather than letting yourself be dispersed everywhere into a cloud of electronic and social input. it seems to me that facebook and twitter and youtube and just so you do not think this is a generational thing, tv and radio and magazines and even newspapers, too are all ultimately just an elaborate excuse to run away from yourself. to avoid the difficult and troubling questions that being human throws in your way. am i doing the right thing with my life? do i believe the things i was taught as a child? what do the words i live by words like duty, honor, and country really mean? am i happy? you and the members of the other service academies are in a unique position among college students, especially today. not only do you know that you are going to have a job when you graduate, you even know who your employer is going to be. but what happens after you fulfill your commitment to the army? unless you know who you are, how will you figure out what you want to do with the rest of your life? unless you are able to listen to yourself, to that quiet voice inside that tells you what you really care about, what you really believe in indeed, how those things might be evolving under the pressure of your experiences. students everywhere else agonize over these questions, and while you may not be doing so now, you are only postponing them for a few years. maybe some of you are agonizing over them now. not everyone who starts here decides to finish here. it no wonder and no cause for shame. you are being put through the most demanding training anyone can ask of people your age, and you are committing yourself to work of awesome responsibility and mortal danger. the very rigor and regimentation to which you are quite properly subject here naturally has a tendency to make you lose touch with the passion that brought you here in the first place. i saw exactly the same kind of thing at yale. it not that my students were robots. quite the reverse. they were in tensely idealistic, but the overwhelming weight of their practical responsibilities, all of those hoops they had to jump through, often made them lose sight of what those ideals were. why they were doing it all in the first place. so it perfectly natural to have doubts, or questions, or even just difficulties. the question is, what do you do with them? do you suppress them, do you distract yourself from them, do you pretend they do not exist? or do you confront them directly, honestly, courageously? if you decide to do so, you will find that the answers to these dilemmas are not to be found on twitter or comedy central or even in the new york times. they can only be found within without distractions, without peer pressure, in solitude. but let me be clear that solitude does not always have to mean introspection. let go back to heart of darkness. it the solitude of concentration that saves marlow amidst the madness of the central station. when he gets there he finds out that the steamboat he supposed to sail upriver has a giant hole in it, and no one is going to help him fix it. i let him run on, he says, this papier m ch mephistopheles he talking not about the manager but his assistant, who even worse, since he still trying to kiss his way up the hierarchy, and who been raving away at him. you can think of him as the internet, the ever present social buzz, chattering away at you i let him run on, this papier m ch mephistopheles and it seemed to me that if i tried i could poke my forefinger through him, and would find nothing inside but a little loose dirt. . . . it was a great comfort to turn from that chap to . . . the battered, twisted, ruined, tin pot steamboat. . . . i had expended enough hard work on her to make me love her. no influential friend would have served me better. she had given me a chance to come out a bit to find out what i could do. no, i do not like work. i had rather laze about and think of all the fine things that can be done. i do not like work no man does but i like what is in the work, the chance to find yourself. your own reality for yourself, not for others what no other man can ever know. the chance to find yourself. now that phrase, finding yourself, has acquired a bad reputation. it suggests an aimless liberal arts college graduate an english major, no doubt, someone who went to a place like amherst or pomona who too spoiled to get a job and spends his time staring off into space. but here marlow, a mariner, a ship captain. a more practical, hardheaded person you could not find. and i should say that marlow creator, conrad, spent years as a merchant marine, eight of them as a ship captain, before he became a writer, so this was not just some artist idea of a sailor. marlow believes in the need to find yourself just as much as anyone does, and the way to do it, he says, is work, solitary work. concentration. climbing on that steamboat and spending a few uninterrupted hours hammering it into shape. or building a house, or cooking a meal, or even writing a college paper, if you really put yourself into it. your own reality for yourself, not for others. thinking for yourself means finding yourself, finding your own reality. here the other problem with facebook and twitter and even the new york times. when you expose yourself to those things, especially in the constant way that people do now older people as well as younger people you are continuously bombarding yourself with a stream of other people thoughts. you are marinating yourself in the conventional wisdom. in other people reality for others, not for yourself. you are creating a cacophony in which it is impossible to hear your own voice, whether it yourself you are thinking about or anything else. that what emerson meant when he said that he who should inspire and lead his race must be defended from travelling with the souls of other men, from living, breathing, reading, and writing in the daily, time worn yoke of their opinions. notice that he uses the word lead. leadership means finding a new direction, not simply putting yourself at the front of the herd that heading toward the cliff. so why is reading books any better than reading tweets or wall posts? well, sometimes it isn't. sometimes, you need to put down your book, if only to think about what you are reading, what you think about what you are reading. but a book has two advantages over a tweet. first, the person who wrote it thought about it a lot more carefully. the book is the result of his solitude, his attempt to think for himself. second, most books are old. this is not a disadvantage this is precisely what makes them valuable. they stand against the conventional wisdom of today simply because they are not from today. even if they merely reflect the conventional wisdom of their own day, they say something different from what you hear all the time. but the great books, the ones you find on a syllabus, the ones people have continued to read, do not reflect the conventional wisdom of their day. they say things that have the permanent power to disrupt our habits of thought. they were revolutionary in their own time, and they are still revolutionary today. and when i say revolutionary, i am deliberately evoking the american revolution, because it was a result of precisely this kind of independent thinking. without solitude the solitude of adams and jefferson and hamilton and madison and thomas paine there would be no america. so solitude can mean introspection, it can mean the concentration of focused work, and it can mean sustained reading. all of these help you to know yourself better. but there one more thing i am going to include as a form of solitude, and it will seem counterintuitive friendship. of course friendship is the opposite of solitude it means being with other people. but i am talking about one kind of friendship in particular, the deep friendship of intimate conversation. long, uninterrupted talk with one other person. not skyping with three people and texting with two others at the same time while you hang out in a friend room listening to music and studying. that what emerson meant when he said that the soul environs itself with friends, that it may enter into a grander self acquaintance or solitude. introspection means talking to yourself, and one of the best ways of talking to yourself is by talking to another person. one other person you can trust, one other person to whom you can unfold your soul. one other person you feel safe enough with to allow you to acknowledge things to acknowledge things to yourself that you otherwise can't. doubts you are not supposed to have, questions you are not supposed to ask. feelings or opinions that would get you laughed at by the group or reprimanded by the authorities. this is what we call thinking out loud, discovering what you believe in the course of articulating it. but it takes just as much time and just as much patience as solitude in the strict sense. and our new electronic world has disrupted it just as violently. instead of having one or two true friends that we can sit and talk to for three hours at a time, we have friends that we never actually talk to instead we just bounce one line messages off them a hundred times a day. this is not friendship, this is distraction. i know that none of this is easy for you. even if you threw away your cell phones and unplugged your computers, the rigors of your training here keep you too busy to make solitude, in any of these forms, anything less than very difficult to find. but the highest reason you need to try is precisely because of what the job you are training for will demand of you. you have probably heard about the hazing scandal at the u.s. naval base in bahrain that was all over the news recently. terrible, abusive stuff that involved an entire unit and was orchestrated, allegedly, by the head of the unit, a senior noncommissioned officer. what are you going to do if you are confronted with a situation like that going on in your unit? will you have the courage to do what right? will you even know what the right thing is? it easy to read a code of conduct, not so easy to put it into practice, especially if you risk losing the loyalty of the people serving under you, or the trust of your peer officers, or the approval of your superiors. what if you are not the commanding officer, but you see your superiors condoning something you think is wrong? how will you find the strength and wisdom to challenge an unwise order or question a wrongheaded policy? what will you do the first time you have to write a letter to the mother of a slain soldier? how will you find words of comfort that are more than just empty formulas? these are truly formidable dilemmas, more so than most other people will ever have to face in their lives, let alone when they are . the time to start preparing yourself for them is now. and the way to do it is by thinking through these issues for yourself morality, mortality, honor so you will have the strength to deal with them when they arise. waiting until you have to confront them in practice would be like waiting for your first firefight to learn how to shoot your weapon. once the situation is upon you, it too late. you have to be prepar</t>
-  </si>
-  <si>
-    <t>what i want to talk to you about tonight is strictly speaking not on the character of physical laws. because one might imagine at least that one talking about nature, when one talking about the character of physical laws. but i do not want to talk about nature, but rather how we stand relative to nature now. i want to tell you what we think we know and what there is to guess and how one goes about guessing it. someone suggested that it would be ideal if, as i went along, i would slowly explain how to guess the laws and then create a new law for you right as i went along. i do not know whether i will be able to do that. but first, i want to tell about what the present situation is, what it is that we know about the physics. you think that i have told you everything already, because in all the lectures, i told you all the great principles that are known. but the principles must be principles about something. the principles that i just spoke of, the conservation of energy the energy of something and quantum mechanical laws are quantum mechanical principles about something. and all these principles added together still does not tell us what the content is of the nature, that is, what we are talking about. so i will tell you a little bit about the stuff, on which all these principles are supposed to have been working. first of all is matter, and remarkably enough, all matter is the same. the matter of which the stars are made is known to be the same as the matter on the earth, by the character of the light that emitted by those stars they give a kind of fingerprint, by which you can tell that it the same kind of atoms in the stars. as on the earth, the same kind of atoms appear to be in living creatures as in non living creatures. frogs are made out of the same goop in different arrangement than rocks. so that makes our problem simpler. we have nothing but atoms, all the same, everywhere. and the atoms all seem to be made from the same general constitution. they have a nucleus, and around the nucleus there are electrons. so i begin to list the parts of the world that we think we know about. one of them is electrons, which are the particles on the outside the atoms. then there are the nuclei. but those are understood today as being themselves made up of two other things, which are called neutrons and protons. they are two particles. incidentally, we have to see the stars and see the atoms and they emit light. and the light is described by particles, themselves, which are called photons. and at the beginning, we spoke about gravitation. and if the quantum theory is right, then the gravitation should have some kind of waves, which behave like particles too. and they call those gravitons. if you do not believe in that, just read gravity here, it the same. now finally, i did mention that in what called beta decay, in which a neutron can disintegrate into a proton and an electron and a neutrino or alien anti neutrino there another particle, here, a neutrino. in addition to all the particles that i am listing, there are of course all the anti particles. but that just a quick statement and takes care of doubling the number of particles immediately. but there no complications. now with the particles that i have listed here, all of the low energy phenomena, all of in fact ordinary phenomena that happen everywhere in the universe as far as we know, with the exception of here and there some very high energy particle does something, or in a laboratory we have been able to do some peculiar things. but if we leave out those special cases, all ordinary phenomena are presumably explained by the action and emotions of these kinds of things. for example, life itself is supposedly made, if understood i mean understandable in principle from the action of movements of atoms. and those atoms are made out of neutrons, protons, and electrons. i must immediately say that when we say, we understand it in principle, i only mean that we think we would, if we could figure everything out, find that there nothing new in physics to be discovered, in order to understand the phenomena of light. or, for instance, for the fact that the stars emit energy solar energy or stellar energy is presumably also understood in terms of nuclear reactions among these particles and so on. and all kinds of details of the way atoms behave are accurately described with this kind of model, at least as far as we know at present. in fact, i can say that in this range of phenomena today, as far as i know there are no phenomena that we are sure cannot be explained this way, or even that there deep mystery about. this was not always possible. there was, for instance, for a while a phenomenon called super conductivity there still is the phenomenon which is that metals conduct electricity without resistance at low temperatures. and it was not at first obvious that this was a consequence of the known laws with these particles. but it turns out that it has been thought through carefully enough. and it seen, in fact, to be a consequence of known laws. there are other phenomena, such as extrasensory perception, which cannot be explained by this known knowledge of physics here. and it is interesting, however, that that phenomena had not been well established, and that we cannot guarantee that it there. so if it could be demonstrated, of course that would prove that the physics is incomplete. and therefore, it extremely interesting to physicists, whether it right or wrong. and many, many experiments exist which show it does not work. the same goes for astrological influences. if it were true that the stars could affect the day that it was good to go to the dentist, then because in america we have that kind of astrology then it would be wrong. the physics theory would be wrong, because there no mechanism understandable in principle from these things that would make it go. and that the reason that there some skepticism among scientists, with regard to those ideas. on the other hand, in the case of hypnotism, at first it looked like that also would be impossible, when it was described incompletely. but now that it known better, it is realized that it is not absolutely impossible that hypnosis could occur through normal physiological but unknown processes. it does not require some special, new kind of course. now, today although the knowledge or the theory of what goes on outside the nucleus of the atom seems precise and complete enough, in the sense that given enough time, we can calculate anything as accurately as it can be measured, it turns out that the forces between neutrons and protons, which constitute the nucleus, are not so completely known and are not understood at all well. and that what i mean by that is, that we cannot today, we do not today understand the forces between neutrons and protons to the extent that if you wanted me to, and give me enough time and computers, i could calculate exactly the energy levels of carbon or something like that. because we do not know enough about that. although we can do the corresponding thing for the energy levels of the outside electrons of the atom, we cannot for the nuclei. so the nuclear forces are still not understood very well. now in order to find out more about that, experimenters have gone on. and they have to study phenomena at very high energy, where they hit neutrons and protons together at very high energy and produced peculiar things. and by studying those peculiar things, we hope to understand better the forces between neutrons and protons. well, a pandora box has been opened by these experiments, although all we really wanted was to get a better idea of the forces between neutrons and protons. when we hit these things together hard, we discover that there are more particles in the world. and as a matter of fact, in this column there was plus over four dozen other particles have been dredged up in an attempt to understand these. and these four dozen other are put in this column, because they have very relevant to the neutron proton problem. they interact very much with neutrons and protons. and they have got something to do with the force between neutrons and protons. so we have got a little bit too much. in addition to that, while the dredge was digging up all this mud over here, it picked up a couple of pieces that are not wanted and are irrelevant to the problem of nuclear forces. and one of them is called a mu meson, or a muon. and the other was a neutrino, which goes with it. there are two kinds of neutrinos, one which goes with the electron, and one which goes with the mu meson. incidentally, most amazingly, all the laws of the muon and its neutrino are now known. as far as we can tell experimentally, the law is they behave precisely the same as the electron and its neutrino, except that the mass of the mu meson is times heavier than the electron. and that the only difference known between those objects. but it rather curious. but i ca not say anymore, because nobody knows anymore. now four dozen other particles is a frightening array plus the anti particles is a frightening array of things. but it turns out, they have various names, mesons, pions, kaons, lambda, sigma four dozen particles, there are going to be a lot of names. but it turns out that these particles come in families, so it helps us a little bit. actually, some of these so called particles last such a short time that there are debates whether it in fact possible to define their very existence and whether it a particle or not. but i wo not enter into that debate. in order to illustrate the family idea, i take the two part cases of a neutron and a proton. the neutron and proton have the same mass, within . or so. one is , the other is times as heavy as an electron roughly, if i remember the numbers. but the thing that very remarkable is this. that for the nuclear forces, which are the strong forces inside the nucleus, the force between a pair of protons two protons is the same as between a proton and a neutron and is the same again between a neutron and a neutron. in other words, for the strong nuclear forces, you ca not tell a proton from a neutron. or a symmetry law neutrons may be substituted for protons, without changing anything, provided you are only talking about the strong forces. if you are talking about electrical forces, oh no. if you change a neutron for a proton, you have a terrible difference. because the proton carries electrical charge, and a neutron doesn't. so by electric measurement, immediately you can see the difference between a proton and a neutron. so this symmetry, that you can replace neutrons by protons, is what we call an approximate symmetry. it right for the strong interactions in nuclear forces. but it not right in some deep sense of nature, because it does not work for the electricity. it just called a partial symmetry. and we have to struggle with these partial symmetries. now the families have been extended. it turns out that the substitution neutron proton can be extended to substitution over a wider range of particles. but the accuracy is still lower. you see, that neutrons can always be substituted for protons is only approximate. it not true for electricity. and that the wider substitutions that have been discovered are legitimate is still more poor, a very poor symmetry, not very accurate. but they have helped to gather the particles into families, and thus to locate places where particles are missing and to help to discover the new ones. this kind of game, of roughly guessing at family relations and so on, is illustrative of a kind of preliminary sparring which one does with nature, before really discovering some deep and fundamental law. before you get the deeper discoveries, examples are very important in the previous history of science. for instance, mendeleev discovery of the periodic table for the elements is analogous to this game. it is the first step, but the complete description of the reason for the periodic table came much later, with atomic theory. in the same way, organization of the knowledge of nuclear levels and characteristics was made by maria mayer and jensen, in what they call the shell model of nuclei some years ago. and it an analogous game, in which a reduction of a complexity is made by some approximate guesses. and that the way it stands today. in addition to these things, then we have all these principles that we were talking about before. principle of relativity, that the things must behave quantum mechanically. and combining that with the relativity that all conservation laws must be local. and so when we put all these principles together, we discover there are too many. they are inconsistent with each other. it seems as if, if we add quantum mechanics plus relativity plus the proposition that everything has to be local plus a number of tacit assumptions which we ca not really find out, because we are prejudiced, we do not see what they are, and it hard to say what they are. adding it all together we get inconsistency, because we really get infinity for various things when we calculate them. well, if we get infinity, how will we ever agree that this agrees with nature? it turns out that it possible to sweep the infinities under the rug by a certain crude skill. and temporarily, we are able to keep on calculating. but the fact of the matter is that all the principles that i told you up till now, if put together, plus some tacit assumptions that we do not know, it gives trouble. they cannot mutually consistent, nice problem. an example of the tacit assumptions that we do not know what the significance is, such propositions are the following. if you calculate the chance for every possibility there is probably this will happen, that will happen it should add up to one. if you add all the alternatives, you should get probability. that seems reasonable, but reasonable things are where the trouble always is. another proposition is that the energy of something must always be positive, it ca not be negative. another proposition that is probably added in, in order before we get inconsistency, is what called causality, which is something like the idea that effects cannot proceed their causes. actually, no one has made a model, in which you disregard the proposition about the probability, or you disregard the causality, which is also consistent with quantum mechanics, relativity, locality, and so on. so we really do not know exactly what it is we are assuming that gives us the difficulty producing infinities. ok, now that the present situation. now i am going to discuss how we would look for a new law. in general, we look for a new law by the following process. first, we guess it. then, we compute well, do not laugh, that really true. then we compute the consequences of the guess, to see what, if this is right, if this law that we guessed is right, we see what it would imply. and then we compare those computation results to nature. or we say, compare to experiment or experience. compare it directly with observation, to see if it works. if it disagrees with experiment, it wrong. and that simple statement is the key to science. it does not make any difference how beautiful your guess is, it does not make any difference how smart you are, who made the guess, or what his name is. if it disagrees with experiment, it wrong. that all there is to it. it true, however, that one has to check a little bit, to make sure that it wrong. because someone who did the experiment may have reported incorrectly. or there may have been some feature in the experiment that was not noticed, like some kind of dirt and so on. you have to obviously check. furthermore, the man who computed the consequences may have been the same one that made the guesses, may have made some mistake in the analysis. those are obvious remarks. so when i say, if it disagrees with experiment, it wrong, i mean after the experiment has been checked, the calculations have been checked, and the thing has been rubbed back and forth a few times to make sure that the consequences are logical consequences from the guess, and that, in fact, it disagrees with our very carefully checked experiment. this will give you somewhat the wrong impression of science. it means that we keep on guessing possibilities and comparing to experiments. and this is to put an experiment on a little bit weak position. it turns out that the experimenters have a certain individual character. they like to do experiments, even if nobody guessed yet. so it very often true that experiments in a region in which people know the theorist does not know anything, nobody has guessed yet for instance, we may have guessed all these laws, but we do not know whether they really work at very high energy because it just a good guess that they work at high energy. so experimenters say, let try higher energy. and therefore experiment produces trouble every once in a while. that is it produces a discovery that one of things that we thought of is wrong, so an experiment can produce unexpected results. and that starts us guessing again. for instance, an unexpected result is the mu meson and its neutrino, which was not guessed at by anybody, whatever, before it was discovered. and still nobody has any method of guessing, by which this is a natural thing. now you see, of course, that with this method, we can disprove any definite theory. if you have a definite theory and a real guess, from which you can really compute consequences, which could be compared to experiment, then in principle, we can get rid of any theory. we can always prove any definite theory wrong. notice, however, we never prove it right. suppose that you invent a good guess, calculate the consequences, and discover that every consequence that you calculate agrees with experiment. your theory is then right? no, it is simply not proved wrong. because in the future, there could be a wider range of experiments, you can compute a wider range of consequences. and you may discover, then, that the thing is wrong. that why laws like newton laws for the motion of planets lasts such a long time. he guessed the law of gravitation, tackling all the kinds of consequences for the solar system and so on, compared them to experiment, and it took several years before the slight error of the motion of mercury was developed. during all that time, the theory had been failed to be proved wrong and could be taken to be temporarily right. but it can never be proved right, because tomorrow experiment may succeed in proving what you thought was right, wrong. so we never are right. we can only be sure we are wrong. however, it rather remarkable that we can last so long, i mean to have some idea which will last so long. incidentally, some people, one of the ways of stopping the science would be to only do experiments in the region where you know the laws. but the experimenters search most diligently and with the greatest effort in exactly those places where it seems most likely that we can prove their theories wrong. in other words, we are trying to prove ourselves wrong as quickly as possible. because only in that way do we find workers progress. for example, today among ordinary low energy phenomena, we do not know where to look for trouble. we think everything all right. and so there is not any particular big program looking for trouble in nuclear reactions or in superconductivity. i must say, i am concentrating on discovering fundamental laws. there a whole range of physics, which is interesting and understanding at another level these phenomena like super conductivity in nuclear reactions. but i am talking about discovering trouble, something wrong with the fundamental law. so nobody knows where to look there, therefore all the experiments today in this field, of finding out a new law are in high energy. i must also point out to you that you cannot prove a vague theory wrong. if the guess that you make is poorly expressed and rather vague, and the method that you used for figuring out the consequences is rather vague, you are not sure, and you just say i think everything is because it all due to moogles, and moogles do this and that, more or less. so i can sort of explain how this works. then you say that that theory is good, because it ca not be proved wrong. if the process of computing the consequences is indefinite, then with a little skill, any experimental result can be made to look like an expected consequence. you are probably familiar with that in other fields. for example, a hates his mother. the reason is, of course, because she did not caress him or love him enough when he was a child. actually, if you investigate, you find out that as a matter of fact, she did love him very much. and everything was all right. well, then, it because she was overindulgent when he was young. so by having a vague theory, it possible to get either result. now wait, the cure for this one is the following. it would be possible to say if it were possible to state ahead of time how much love is not enough, and how much love is overindulgent exactly, then there would be a perfectly legitimate theory, against which you could make tests. it is usually said when this is pointed out, how much love and so on, oh, you are dealing with psychological matters, and things ca not be defined so precisely. yes, but then you ca not claim to know anything about it. now, we have examples, you will be are horrified to hear, in physics of exactly the same kind. we have these approximate symmetries. it works something like this. you have approximate symmetry, you suppose it perfect. calculate the consequences, it easy if you suppose it perfect. you compare with experiment, of course it does not agree. the symmetry you are supposed to expect is approximate. so if the agreement is pretty good, you say, nice. if the agreement is very poor, you say, well this particular thing must be especially sensitive to the failure of the symmetry. now you laugh, but we have to make progress in that way. in the beginning, when our subject is first new, and these particles are new to us, this jockeying around, this is a feeling way of guessing at the result. and this is the beginning of any science. and the same thing is true of psychology as it is of the symmetry propositions in physics. so do not laugh too hard, it necessary in the very beginning to be very careful. it easy to fall over the deep end by this kind of a vague theory. it hard to prove it wrong. it takes a certain skill and experience to not walk off the plank on the game. in this process of guessing, computing consequences, and comparing to experiment, we can get stuck at various stages. for example, we may in the guess stage get stuck. we have no ideas, we ca not guess an idea. or we may get in the computing stage stuck. for example, yukawa guessed an idea for the nuclear forces in . nobody could compute the consequences, because the mathematics was too difficult. so therefore, they could not compare it with experiments successfully. and the theory remained for a long time, until we discovered all this junk. and this junk was not contemplated by yukawa, and therefore, it undoubtedly not as simple, as least, as the way yukawa did it. another place you can get stuck is at the experimental end. for example, the quantum theory of gravitation is going very slowly, if at all, because there no use. all the experiments that you can do never involve quantum mechanics and gravitation at the same time, because the gravity force is so weak, compared to electrical forces. now i want to concentrate from now on because i am a theoretical physicist, i am more delighted with this end of the problem as to how do you make the guesses. now it strictly, as i said before, not of any importance where the guess comes from. it only important that it should agree with experiment and that it should be as definite as possible. but you say that is very simple. we have set up a machine, a great computing machine, which has a random wheel in it, that makes a succession of guesses. and each time it guesses a hypothesis about how nature should work, it computes immediately the consequences and makes a comparison to a list of experimental results it has at the other end. in other words, guessing is a dumb man job. actually, it quite the opposite. and i will try to explain why. the first problem is how to start. you say, i will start with all the known principles. but the principles that are all known are inconsistent with each other. so something has to be removed. so we get a lot of letters from people. we are always getting letters from people who are insisting that we ought to make holes in our guesses. you make a hole to make room for a new guess. somebody says, do you know, you people always say space is continuous. but how do you know when you get to a small enough dimension that there really are enough points in between, it is not just a lot of dots separated by little distances? or they say, you know, those quantum mechanical amplitudes you just told me about, they are so complicated and absurd. what makes you think those are right? maybe they are not right. i get a lot of letters with such content. but i must say that such remarks are perfectly obvious and are perfectly clear to anybody who working on this problem. and it does not do any good to point this out. the problem is not what might be wrong, but what might be substituted precisely in place of it. if you say anything precise, for example in the case of a continuous space, suppose the precise proposition is that space really consists of a series of dots only. and the space between them does not mean anything. and the dots are in a cubic array. then we can prove that immediately is wrong, that does not work. you see, the problem is not to change or to say something might be wrong but to replace it by something. and that is not so easy. as soon as any real, definite idea is substituted, it becomes almost immediately apparent that it does not work. secondly, there an infinite number of possibilities of these the simple types. it something like this. you are sitting, working very hard. you work for a long time, trying to open a safe. and some joe comes along, who does not know anything about what you are doing or anything, except that you are trying to open a safe. he says, you know, why do not you try the combination ? because you are busy, you are trying a lot of things. maybe you already tried . maybe you know that the middle number is already and not . maybe you know that as a matter of fact this is a five digit combination. so these letters do not do any good. and so please do not send me any letters, trying to tell me how the thing is going to work. i read them to make sure that i have not already thought of that. but it takes too long to answer them, because they are usually in the class try . and as usual, nature imagination far surpasses our own. as we have seen from the other theories, they are really quite subtle and deep. and to get such a subtle and deep guess is not so easy. one must be really clever to guess. and it not possible to do it blindly, by machine. so i wanted to discuss the art of guessing nature laws. it an art. how is it done? one way, you might think, well, look at history. how did the other guys do it? so we look at history. let first start out with newton. he has in a situation where he had incomplete knowledge. and he was able to get the laws, by putting together ideas, which all were relatively close to experiment. there was not a great distance between the observations on the test. that the first, but now it does not work so good. now the next guy who did something well, another man who did something great was maxwell, who obtained the laws of electricity and magnetism. but what he did was this. he put together all the laws of electricity, due to faraday and other people who came before him. and he looked at them, and he realized that they were mutually inconsistent. they were mathematically inconsistent. in order to straighten it out, he had to add one term to an equation. by the way, he did this by inventing a model for himself of idle wheels and gears and so on in space. and then he found that what the new law was. and nobody paid much attention, because they did not believe in the idle wheels. we do not believe in the idle wheels today. but the equations that he obtained were correct. so the logic may be wrong, but the answer is all right. in the case of relativity, the discovery of relativity was completely different. there was an accumulation of paradoxes. the known laws gave inconsistent results. and it was a new kind of thinking, a thinking in terms of discussing the possible symmetries of laws. and it was especially difficult, because it was the first time realized how long something like newton laws could be right and still, ultimately, be wrong. and second, that ordinary ideas of time and space that seems so instinctive could be wrong. quantum mechanics was discovered in two independent ways, which is a lesson. there, again, and even more so, an enormous number of paradoxes were discovered experimentally. things that absolutely could not be explained in any way by what was known. not that the knowledge was incomplete, but the knowledge was too complete. your prediction was this should happen, it didn't. the two different roots were one by schrodinger, who guessed the equations. another by heisenberg, who argued that you must analyze what measurable. so it two different philosophical methods reduced to the same discovery in the end. more recently, the discovery of the laws of this interaction, which are still only partly known, had quite a somewhat different situation. again, there was a this time, it was a case of incomplete knowledge. and only the equation was guessed. the special difficulty this time was that the experiments were all wrong. all the experiments were wrong. how can you guess the right answer? when you calculate the results it disagrees with the experiment, and you have the courage to say, the experiments must be wrong. i will explain where the courage comes from in a minute. today, we have not any paradoxes, maybe. we have this infinity that comes if we put all the laws together. but the rug sweeping people are so clever that one sometimes thinks that not a serious paradox. the fact that there are all these particles does not tell us anything, except that our knowledge is incomplete. i am sure that history does not repeat itself in physics, as you see from this list. and the reason is this. any scheme like think of symmetry laws, or put the equations in mathematical form, or any of these schemes, guess equations, and so on are known to everybody now. and they are tried all the time. so if the place where you get stuck is not that, you try that right away. we try looking for symmetries, we try all the things that have been tried before. but we are stuck. so it must be another way next time. so each time that we get in this log jam of too many problems, it because the methods that we are using are just like the ones we used before. we try all that right away. but the new scheme, the new discovery is going to be made in a completely different way. so history does not help us very much. i would like to talk a little bit about this heisenberg idea. but you should not talk about what you ca not measure, because a lot of people talk about that without understanding it very well. they say in physics you should not talk about what you ca not measure. if what you mean by this, if you interpret this in this sense, that the constructs are inventions that you make that you talk about, it must be such a kind that the consequences that you compute must be comparable to experiment. that is, that you do not compute a consequence like a moo must be three goos. when nobody knows what a moo and a goo is, that no good. if the consequences can be compared to experiment, then that all that necessary. it is not necessary that moos and goos ca not appear in the guess. that perfectly all right. you can have as much junk in the guess as you want, provided that you can compare it to experiment. that not fully appreciated, because it usually said, for example, people usually complain of the unwarranted extension of the ideas of particles and paths and so forth, into the atomic realm. not so at all. there nothing unwarranted about the extens</t>
-  </si>
-  <si>
-    <t>i never really expected to find myself giving advice to people graduating from an establishment of higher education. i never graduated from any such establishment. i never even started at one. i escaped from school as soon as i could, when the prospect of four more years of enforced learning before i would become the writer i wanted to be was stifling. i got out into the world, i wrote, and i became a better writer the more i wrote, and i wrote some more, and nobody ever seemed to mind that i was making it up as i went along, they just read what i wrote and they paid for it, or they didn't, and often they commissioned me to write something else for them. which has left me with a healthy respect and fondness for higher education that those of my friends and family, who attended universities, were cured of long ago. looking back, i have had a remarkable ride. i am not sure i can call it a career, because a career implies that i had some kind of career plan, and i never did. the nearest thing i had was a list i made when i was of everything i wanted to do to write an adult novel, a children book, a comic, a movie, record an audiobook, write an episode of doctor who and so on. i did not have a career. i just did the next thing on the list. so i thought i would tell you everything i wish i would known starting out, and a few things that, looking back on it, i suppose that i did know. and that i would also give you the best piece of advice i would ever got, which i completely failed to follow. first of all when you start out on a career in the arts you have no idea what you are doing. this is great. people who know what they are doing know the rules, and know what is possible and impossible. you do not. and you should not. the rules on what is possible and impossible in the arts were made by people who had not tested the bounds of the possible by going beyond them. and you can. if you do not know it impossible it easier to do. and because nobody done it before, they have not made up rules to stop anyone doing that again, yet. secondly, if you have an idea of what you want to make, what you were put here to do, then just go and do that. and that much harder than it sounds and, sometimes in the end, so much easier than you might imagine. because normally, there are things you have to do before you can get to the place you want to be. i wanted to write comics and novels and stories and films, so i became a journalist, because journalists are allowed to ask questions, and to simply go and find out how the world works, and besides, to do those things i needed to write and to write well, and i was being paid to learn how to write economically, crisply, sometimes under adverse conditions, and on time. sometimes the way to do what you hope to do will be clear cut, and sometimes it will be almost impossible to decide whether or not you are doing the correct thing, because you will have to balance your goals and hopes with feeding yourself, paying debts, finding work, settling for what you can get. something that worked for me was imagining that where i wanted to be an author, primarily of fiction, making good books, making good comics and supporting myself through my words was a mountain. a distant mountain. my goal. and i knew that as long as i kept walking towards the mountain i would be all right. and when i truly was not sure what to do, i could stop, and think about whether it was taking me towards or away from the mountain. i said no to editorial jobs on magazines, proper jobs that would have paid proper money because i knew that, attractive though they were, for me they would have been walking away from the mountain. and if those job offers had come along earlier i might have taken them, because they still would have been closer to the mountain than i was at the time. i learned to write by writing. i tended to do anything as long as it felt like an adventure, and to stop when it felt like work, which meant that life did not feel like work. thirdly, when you start off, you have to deal with the problems of failure. you need to be thickskinned, to learn that not every project will survive. a freelance life, a life in the arts, is sometimes like putting messages in bottles, on a desert island, and hoping that someone will find one of your bottles and open it and read it, and put something in a bottle that will wash its way back to you appreciation, or a commission, or money, or love. and you have to accept that you may put out a hundred things for every bottle that winds up coming back. the problems of failure are problems of discouragement, of hopelessness, of hunger. you want everything to happen and you want it now, and things go wrong. my first book a piece of journalism i had done for the money, and which had already bought me an electric typewriter from the advance should have been a bestseller. it should have paid me a lot of money. if the publisher had not gone into involuntary liquidation between the first print run selling out and the second printing, and before any royalties could be paid, it would have done. and i shrugged, and i still had my electric typewriter and enough money to pay the rent for a couple of months, and i decided that i would do my best in future not to write books just for the money. if you did not get the money, then you did not have anything. if i did work i was proud of, and i did not get the money, at least i would have the work. every now and again, i forget that rule, and whenever i do, the universe kicks me hard and reminds me. i do not know that it an issue for anybody but me, but it true that nothing i did where the only reason for doing it was the money was ever worth it, except as bitter experience. usually i did not wind up getting the money, either. the things i did because i was excited, and wanted to see them exist in reality have never let me down, and i have never regretted the time i spent on any of them. the problems of failure are hard. the problems of success can be harder, because nobody warns you about them. the first problem of any kind of even limited success is the unshakable conviction that you are getting away with something, and that any moment now they will discover you. it imposter syndrome, something my wife amanda christened the fraud police. in my case, i was convinced that there would be a knock on the door, and a man with a clipboard i do not know why he carried a clipboard, in my head, but he did would be there, to tell me it was all over, and they had caught up with me, and now i would have to go and get a real job, one that did not consist of making things up and writing them down, and reading books i wanted to read. and then i would go away quietly and get the kind of job where you do not have to make things up any more. the problems of success. they are real, and with luck you will experience them. the point where you stop saying yes to everything, because now the bottles you threw in the ocean are all coming back, and have to learn to say no. i watched my peers, and my friends, and the ones who were older than me and watch how miserable some of them were i would listen to them telling me that they could not envisage a world where they did what they had always wanted to do any more, because now they had to earn a certain amount every month just to keep where they were. they could not go and do the things that mattered, and that they had really wanted to do and that seemed as a big a tragedy as any problem of failure. and after that, the biggest problem of success is that the world conspires to stop you doing the thing that you do, because you are successful. there was a day when i looked up and realised that i had become someone who professionally replied to email, and who wrote as a hobby. i started answering fewer emails, and was relieved to find i was writing much more. fourthly, i hope you will make mistakes. if you are making mistakes, it means you are out there doing something. and the mistakes in themselves can be useful. i once misspelled caroline, in a letter, transposing the a and the o, and i thought, coraline looks like a real name and remember that whatever discipline you are in, whether you are a musician or a photographer, a fine artist or a cartoonist, a writer, a dancer, a designer, whatever you do you have one thing that unique. you have the ability to make art. and for me, and for so many of the people i have known, that been a lifesaver. the ultimate lifesaver. it gets you through good times and it gets you through the other ones. life is sometimes hard. things go wrong, in life and in love and in business and in friendship and in health and in all the other ways that life can go wrong. and when things get tough, this is what you should do. make good art. i am serious. husband runs off with a politician? make good art. leg crushed and then eaten by mutated boa constrictor? make good art. irs on your trail? make good art. cat exploded? make good art. somebody on the internet thinks what you do is stupid or evil or it all been done before? make good art. probably things will work out somehow, and eventually time will take the sting away, but that does not matter. do what only you do best. make good art. make it on the good days too. and fifthly, while you are at it, make your art. do the stuff that only you can do. the urge, starting out, is to copy. and that not a bad thing. most of us only find our own voices after we have sounded like a lot of other people. but the one thing that you have that nobody else has is you. your voice, your mind, your story, your vision. so write and draw and build and play and dance and live as only you can. the moment that you feel that, just possibly, you are walking down the street naked, exposing too much of your heart and your mind and what exists on the inside, showing too much of yourself. that the moment you may be starting to get it right. the things i have done that worked the best were the things i was the least certain about, the stories where i was sure they would either work, or more likely be the kinds of embarrassing failures people would gather together and talk about until the end of time. they always had that in common looking back at them, people explain why they were inevitable successes. while i was doing them, i had no idea. i still don't. and where would be the fun in making something you knew was going to work? and sometimes the things i did really did not work. there are stories of mine that have never been reprinted. some of them never even left the house. but i learned as much from them as i did from the things that worked. sixthly. i will pass on some secret freelancer knowledge. secret knowledge is always good. and it is useful for anyone who ever plans to create art for other people, to enter a freelance world of any kind. i learned it in comics, but it applies to other fields too. and it this people get hired because, somehow, they get hired. in my case i did something which these days would be easy to check, and would get me into trouble, and when i started out, in those pre internet days, seemed like a sensible career strategy when i was asked by editors who i would worked for, i lied. i listed a handful of magazines that sounded likely, and i sounded confident, and i got jobs. i then made it a point of honour to have written something for each of the magazines i would listed to get that first job, so that i had not actually lied, i would just been chronologically challenged you get work however you get work. people keep working, in a freelance world, and more and more of today world is freelance, because their work is good, and because they are easy to get along with, and because they deliver the work on time. and you do not even need all three. two out of three is fine. people will tolerate how unpleasant you are if your work is good and you deliver it on time. they will forgive the lateness of the work if it good, and if they like you. and you do not have to be as good as the others if you are on time and it always a pleasure to hear from you. when i agreed to give this address, i started trying to think what the best advice i would been given over the years was. and it came from stephen king twenty years ago, at the height of the success of sandman. i was writing a comic that people loved and were taking seriously. king had liked sandman and my novel with terry pratchett, good omens, and he saw the madness, the long signing lines, all that, and his advice was this this is really great. you should enjoy it. and i didn't. best advice i got that i ignored.instead i worried about it. i worried about the next deadline, the next idea, the next story. there was not a moment for the next fourteen or fifteen years that i was not writing something in my head, or wondering about it. and i did not stop and look around and go, this is really fun. i wish i would enjoyed it more. it been an amazing ride. but there were parts of the ride i missed, because i was too worried about things going wrong, about what came next, to enjoy the bit i was on. that was the hardest lesson for me, i think to let go and enjoy the ride, because the ride takes you to some remarkable and unexpected places. and here, on this platform, today, is one of those places. i am enjoying myself immensely. to all today graduates i wish you luck. luck is useful. often you will discover that the harder you work, and the more wisely you work, the luckier you get. but there is luck, and it helps. we are in a transitional world right now, if you are in any kind of artistic field, because the nature of distribution is changing, the models by which creators got their work out into the world, and got to keep a roof over their heads and buy sandwiches while they did that, are all changing. i have talked to people at the top of the food chain in publishing, in bookselling, in all those areas, and nobody knows what the landscape will look like two years from now, let alone a decade away. the distribution channels that people had built over the last century or so are in flux for print, for visual artists, for musicians, for creative people of all kinds. which is, on the one hand, intimidating, and on the other, immensely liberating. the rules, the assumptions, the now we are supposed to of how you get your work seen, and what you do then, are breaking down. the gatekeepers are leaving their gates. you can be as creative as you need to be to get your work seen. youtube and the web and whatever comes after youtube and the web can give you more people watching than television ever did. the old rules are crumbling and nobody knows what the new rules are. so make up your own rules. someone asked me recently how to do something she thought was going to be difficult, in this case recording an audio book, and i suggested she pretend that she was someone who could do it. not pretend to do it, but pretend she was someone who could. she put up a notice to this effect on the studio wall, and she said it helped. so be wise, because the world needs more wisdom, and if you cannot be wise, pretend to be someone who is wise, and then just behave like they would. and now go, and make interesting mistakes, make amazing mistakes, make glorious and fantastic mistakes. break rules. leave the world more interesting for your being here. make good art.</t>
-  </si>
-  <si>
-    <t>i am going to talk about self renewal. one of your most fundamental tasks is the renewal of the organizations you serve, and that usually includes persuading the top officers to accomplish a certain amount of self renewal. but to help you think about others is not my primary mission this morning. i want to help you think about yourselves. i take that mission very seriously, and i have written out what i have to say because i want every sentence to hit its target. i know a good deal about the kind of work you do and know how demanding it is. but i am not going to talk about the special problems of your kind of career i am going to talk about some basic problems of the life cycle that will surely hit you if you are not ready for them. i once wrote a book called self renewal that deals with the decay and renewal of societies, organizations and individuals. i explored the question of why civilizations die and how they sometimes renew themselves, and the puzzle of why some men and women go to seed while others remain vital all of their lives. it the latter question that i shall deal with at this time. i know that you as an individual are not going to seed. but the person seated on your right may be in fairly serious danger. not long ago, i read a splendid article on barnacles. i do not want to give the wrong impression of the focus of my reading interests. sometimes days go by without my reading about barnacles, much less remembering what i read. but this article had an unforgettable opening paragraph. the barnacle the author explained is confronted with an existential decision about where it going to live. once it decides.. . it spends the rest of its life with its head cemented to a rock.. end of quote. for a good many of us, it comes to that. we have all seen men and women, even ones in fortunate circumstances with responsible positions who seem to run out of steam in midcareer. one must be compassionate in assessing the reasons. perhaps life just presented them with tougher problems than they could solve. it happens. perhaps something inflicted a major wound on their confidence or their self esteem. perhaps they were pulled down by the hidden resentments and grievances that grow in adult life, sometimes so luxuriantly that, like tangled vines, they immobilize the victim. you have known such people feeling secretly defeated, maybe somewhat sour and cynical, or perhaps just vaguely dispirited. or maybe they just ran so hard for so long that somewhere along the line they forgot what it was they were running for. i am not talking about people who fail to get to the top in achievement. we ca not all get to the top, and that is not the point of life anyway. i am talking about people who no matter how busy they seem to be have stopped learning or growing. many of them are just going through the motions. i do not deride that. life is hard. just to keep on keeping on is sometimes an act of courage. but i do worry about men and women functioning far below the level of their potential. we have to face the fact that most men and women out there in the world of work are more stale than they know, more bored than they would care to admit. boredom is the secret ailment of large scale organizations. someone said to me the other day how can i be so bored when i am so busy? and i said let me count the ways. logan pearsall smith said that boredom can rise to the level of a mystical experience, and if that true i know some very busy middle level executives who are among the great mystics of all time. we ca not write off the danger of complacency, growing rigidity, imprisonment by our own comfortable habits and opinions. look around you. how many people whom you know well people even younger than yourselves are already trapped in fixed attitudes and habits. a famous french writer said there are people whose clocks stop at a certain point in their lives. i could without any trouble name a half of a dozen national figures resident in washington, d.c., whom you would recognize, and could tell you roughly the year their clock stopped. i wo not do it because i still have to deal with them periodically. i have watched a lot of mid career people, and yogi berra says you can observe a lot just by watching. i have concluded that most people enjoy learning and growing. and many are dearly troubled by the self assessments of mid career. such self assessments are no great problem at your age. you are young and moving up. the drama of your own rise is enough. but when you reach middle age, when your energies are not what they used to be, then you will begin to wonder what it all added up to you will begin to look for the figure in the carpet of your life. i have some simple advice for you when you begin that process. do not be too hard on yourself. look ahead. someone said that life is the art of drawing without an eraser. and above all do not imagine that the story is over. life has a lot of chapters. if we are conscious of the danger of going to seed, we can resort to countervailing measures. at almost any age. you do not need to run down like an unwound clock. and if your clock is unwound, you can wind it up again. you can stay alive in every sense of the word until you fail physically. i know some pretty successful people who feel that that just is not possible for them, that life has trapped them. but they do not really know that. life takes unexpected turns. i said in my book, self renewal, that we build our own prisons and serve as our own jail keepers. i no longer completely agree with that. i still think we are our own jailkeepers, but i have concluded that our parents and the society at large have a hand in building our prisons. they create roles for us and self images that hold us captive for a long time. the individual intent on self renewal will have to deal with ghosts of the past the memory of earlier failures, the remnants of childhood dramas and rebellions, accumulated grievances and resentments that have long outlived their cause. sometimes people cling to the ghosts with something almost approaching pleasure but the hampering effect on growth is inescapable. as jim whitaker, who climbed mount everest, said you never conquer the mountain, you only conquer yourself. the more i see of human lives, the more i believe the business of growing up is much longer drawn out than we pretend. if we achieve it in our 's, even our s, we are doing well. to those of you who are parents of teenagers, i can only say sorry about that. there a myth that learning is for young people. but as the proverb says, it what you learn after you know it all that counts. the middle years are great, great learning years. even the years past the middle years. i took on a new job after my th birthday and i am still learning. learn all your life. learn from your failures. learn from your successes, when you hit a spell of trouble, ask what is it trying to teach me? the lessons are not always happy ones, but they keep coming. it is not a bad idea to pause occasionally for an inward look. by midlife, most of us are accomplished fugitives from ourselves. we learn from our jobs, from our friends and families. we learn by accepting the commitments of life, by playing the roles that life hands us not necessarily the roles we would have chosen . we learn by growing older, by suffering, by loving, by bearing with the things we ca not change, by taking risks. the things you learn in maturity are not simple things such as acquiring information and skills. you learn not to engage in self destructive behavior. you leant not to burn up energy in anxiety. you discover how to manage your tensions, if you have any, which you do. you learn that self pity and resentment are among the most toxic of drugs. you find that the world loves talent, but pays off on character. you come to understand that most people are neither for you nor against you, they are thinking about themselves. you learn that no matter how hard you try to please, some people in this world are not going to love you, a lesson that is at first troubling and then really quite relaxing. those are things that are hard to learn early in life, as a rule you have to have picked up some mileage and some dents in your fenders before you understand. as norman douglas said there are some things you ca not learn from others. you have to pass through the fire. you come to terms with yourself. you finally grasp what s. n. behrman meant when he said at the end of every road you meet yourself. you may not get rid of all of your hang ups, but you learn to control them to the point that you can function productively and not hurt others. you learn the arts of mutual dependence, meeting the needs of loved ones and letting yourself need them. you can even be unaffected a quality that often takes years to acquire. you can achieve the simplicity that lies beyond sophistication. you come to understand your impact on others. it interesting that even in the first year of life you learn the impact that a variety of others have on you, but as late as middle age many people have a very imperfect understanding of the impact they themselves have on others. the hostile person keeps asking why are people so hard to get along with? in some measure we create our own environment. you may not yet grasp the power of that truth to change your life. of course failures are a part of the story too. everyone fails, joe louis said everyone has to figure to get beat some time. the question is not did you fail but did you pick yourself up and move ahead? and there is one other little question did you collaborate in your own defeat? a lot of people do. learn not to. one of the enemies of sound, lifelong motivation is a rather childish conception we have of the kind of concrete, describable goal toward which all of our efforts drive us. we want to believe that there is a point at which we can feel that we have arrived. we want a scoring system that tells us when we have piled up enough points to count ourselves successful. so you scramble and sweat and climb to reach what you thought was the goal. when you get to the top you stand up and look around and chances are you feel a little empty. maybe more than a little empty. you wonder whether you climbed the wrong mountain. but life is not a mountain that has a summit, nor is it as some suppose a riddle that has an answer. nor a game that has a final score. life is an endless unfolding, and if we wish it to be, an endless process of self discovery, an endless and unpredictable dialogue between our own potentialities and the life situations in which we find ourselves. by potentialities i mean not just intellectual gifts but the full range of one capacities for learning, sensing, wondering, understanding, loving and aspiring. perhaps you imagine that by age or or even you have explored those potentialities pretty fully. do not kid yourself! the thing you have to understand is that the capacities you actually develop to the full come out as the result of an interplay between you and life challenges and the challenges keep changing. life pulls things out of you. there something i know about you that you may or may not know about yourself. you have within you more resources of energy than have ever been tapped, more talent than has ever been exploited, more strength than has ever been tested, more to give than you have ever given. you know about some of the gifts that you have left undeveloped. would you believe that you have gifts and possibilities you do not even know about? it true. we are just beginning to recognize how even those who have had every advantage and opportunity unconsciously put a ceiling on their own growth, underestimate their potentialities or hide from the risk that growth involves. now i have discussed renewal at some length, but it is not possible to talk about renewal without touching on the subject of motivation. someone defined horse sense as the good judgment horses have that prevents them from betting on people. but we have to bet on people and i place my bets more often on high motivation than on any other quality except judgment. there is no perfection of techniques that will substitute for the lift of spirit and heightened performance that comes from strong motivation, the world is moved by highly motivated people, by enthusiasts, by men and women who want something very much or believe very much. i am not talking about anything as narrow as ambition. after all, ambition eventually wears out and probably should. but you can keep your zest until the day you die. if i may offer you a simple maxim, be interesting, everyone wants to be interesting but the vitalizing thing is to be interested. keep a sense of curiosity. discover new things. care. risk failure. reach out. the nature of one personal commitments is a powerful element in renewal, so let me say a word on that subject. i once lived in a house where i could look out a window as i worked at my desk and observe a small herd of cattle browsing in a neighboring field. and i was struck with a thought that must have occurred to the earliest herdsmen tens of thousands of years ago. you never get the impression that a cow is about to have a nervous breakdown. or is puzzling about the meaning of life. humans have never mastered that kind of complacency. we are worriers and puzzlers, and we want meaning in our lives. i am not speaking idealistically i am stating a plainly observable fact about men and women. it a rare person who can go through life like a homeless alley cat, living from day to day, taking its pleasures where it can and dying unnoticed. that is not to say that we have not all known a few alley cats. but it is not the norm. it just is not the way we are built. as robert louis stevenson said, old or young, we are on our last cruise. we want it to mean something. for many this life is a vale of tears for no one is it free of pain. but we are so designed that we can cope with it if we can live in some context of meaning. given that powerful help, we can draw on the deep springs of the human spirit, to see our suffering in the framework of all human suffering, to accept the gifts of life with thanks and endure life indignities with dignity. in the stable periods of history, meaning was supplied in the context of a coherent communities and traditionally prescribed patterns of culture. today you ca not count on any such heritage. you have to build meaning into your life, and you build it through your commitments whether to your religion, to an ethical order as you conceive it, to your life work, to loved ones, to your fellow humans. young people run around searching for identity, but it is not handed out free any more not in this transient, rootless, pluralistic society. your identity is what you have committed yourself to. it may just mean doing a better job at whatever you are doing. there are men and women who make the world better just by being the kind of people they are and that too is a kind of commitment. they have the gift of kindness or courage or loyalty or integrity. it matters very little whether they are behind the wheel of a truck or running a country store or bringing up a family. i must pause to say a word about my statement there are men and women who make the world better just by being the kind of people they are. i first wrote the sentence some years ago and it has been widely quoted. one day i was looking through a mail order gift catalogue and it included some small ornamental bronze plaques with brief sayings on them, and one of the sayings was the one i just read to you, with my name as author. well i was so overcome by the idea of a sentence of mine being cast in bronze that i ordered it, but then could not figure out what in the world to do with it. i finally sent it to a friend. we tend to think of youth and the active middle years as the years of commitment. as you get a little older, you are told you have earned the right to think about yourself. but that a deadly prescription! people of every age need commitments beyond the self, need the meaning that commitments provide. self preoccupation is a prison, as every self absorbed person finally knows. commitments to larger purposes can get you out of prison. another significant ingredient in motivation is one attitude toward the future. optimism is unfashionable today, particularly among intellectuals. everyone makes fun of it. someone said pessimists got that way by financing optimists. but i am not pessimistic and i advise you not to be. as the fellow said, i would be a pessimist but it would never work. i can tell you that for renewal, a tough minded optimism is best. the future is not shaped by people who do not really believe in the future. men and women of vitality have always been prepared to bet their futures, even their lives, on ventures of unknown outcome. if they had all looked before they leaped, we would still be crouched in caves sketching animal pictures on the wall, but i did say tough minded optimism. high hopes that are dashed by the first failure are precisely what we do not need. we have to believe in ourselves, but we must not suppose that the path will be easy, it tough. life is painful, and rain falls on the just, and mr. churchill was not being a pessimist when he said i have nothing to offer, but blood, toil, tears and sweat. he had a great deal more to offer, but as a good leader he was saying it was not going to be easy, and he was also saying something that all great leaders say constantly that failure is simply a reason to strengthen resolve. we cannot dream of a utopia in which all arrangements are ideal and everyone is flawless. life is tumultuous an endless losing and regaining of balance, a continuous struggle, never an assured victory. nothing is ever finally safe. every important battle is fought and re fought. we need to develop a resilient, indomitable morale that enables us to face those realities and still strive with every ounce of energy to prevail. you may wonder if such a struggle endless and of uncertain outcome is not more than humans can bear. but all of history suggests that the human spirit is well fitted to cope with just that kind of world. remember i mentioned earlier the myth that learning is for young people. i want to give you some examples, in a piece i wrote for reader digest not long ago, i gave what seemed to me a particularly interesting true example of renewal. the man in question was years old. most of his adult life had been a losing struggle against debt and misfortune. in military service he received a battlefield injury that denied him the use of his left arm. and he was seized and held in captivity for five years. later he held two government jobs, succeeding at neither. at he was in prison and not for the first time. there in prison, he decided to write a book, driven by heaven knows what motive boredom, the hope of gain, emotional release, creative impulse, who can say? and the book turned out to be one of the greatest ever written, a book that has enthralled the world for ever years. the prisoner was cervantes the book don quixote. another example was pope john xxiii, a serious man who found a lot to laugh about. the son of peasant farmers, he once said in italy there are three roads to poverty drinking, gambling and fanning. my family chose the slowest of the three. when someone asked him how many people worked in the vatican he said oh, about half. he was years old when he was elected pope. through a lifetime in the bureaucracy, the spark of spirit and imagination had remained undimmed, and when he reached the top he launched the most vigorous renewal that the church has known in this century. still another example is winston churchill. at age , as a correspondent in the boer war he became a prisoner of war and his dramatic escape made him a national hero. elected to parliament at , he performed brilliantly, held high cabinet posts with distinction and at became first lord of the admiralty. then he was discredited, unjustly, i believe, by the dardanelles expedition the defeat at gallipoli and lost his admiralty post. there followed years of ups and downs. all too often the verdict on him was brilliant but erratic not steady, not dependable. he had only himself to blame. a friend described him as a man who jaywalked through life. he was before his moment of flowering came. someone said it all right to be a late bloomer if you do not miss the flower show. churchill did not miss it. well, i wo not give you any more examples. from those i have given i hope it clear to you that the door of opportunity does not really close as long as you are reasonably healthy. and i do not just mean opportunity for high status, but opportunity to grow and enrich your life in every dimension. you just do not know what ahead for you. and remember the words on the bronze plaque some men and women make the world better just by being the kind of people they are. to be that kind of person would be worth all the years of living and learning. many years ago i concluded a speech with a paragraph on the meaning in life. the speech was reprinted over the years, and years later that final paragraph came back to me in a rather dramatic way, really a heartbreaking way. a man wrote to me from colorado saying that his year old daughter had been killed in an auto accident some weeks before and that she was carrying in her billfold a paragraph from a speech of mine. he said he was grateful because the paragraph and the fact that she kept it close to her told him something he might not otherwise have known about her values and concerns. i ca not imagine where or how she came across the paragraph, but here it is meaning is not something you stumble across, like the answer to a riddle or the prize in a treasure hunt. meaning is something you build into your life. you build it out of your own past, out of your affections and loyalties, out of the experience of humankind as it is passed on to you, out of your own talent and understanding, out of the things you believe in, out of the things and people you love, out of the values for which you are willing to sacrifice something. the ingredients are there. you are the only one who can put them together into that unique pattern that will be your life. let it be a life that has dignity and meaning for you. if it does, then the particular balance of success or failure is of less account.</t>
-  </si>
-  <si>
-    <t>i am a writer. writing books is my profession but it more than that, of course. it is also my great lifelong love and fascination. and i do not expect that that ever going to change. but, that said, something kind of peculiar has happened recently in my life and in my career, which has caused me to have to recalibrate my whole relationship with this work. and the peculiar thing is that i recently wrote this book, this memoir called eat, pray, love which, decidedly unlike any of my previous books, went out in the world for some reason, and became this big, mega sensation, international bestseller thing. the result of which is that everywhere i go now, people treat me like i am doomed. seriously doomed, doomed! like, they come up to me now, all worried, and they say, are not you afraid you are never going to be able to top that? are not you afraid you are going to keep writing for your whole life and you are never again going to create a book that anybody in the world cares about at all, ever again? so that reassuring, you know. it would be worse, except for that i happen to remember that over years ago, when i was a teenager, when i first started telling people that i wanted to be a writer, i was met with this same sort of fear based reaction. and people would say, are not you afraid you are never going to have any success? are not you afraid the humiliation of rejection will kill you? are not you afraid that you are going to work your whole life at this craft and nothing ever going to come of it and you are going to die on a scrap heap of broken dreams with your mouth filled with bitter ash of failure? the answer the short answer to all those questions is, yes. yes, i am afraid of all those things. and i always have been. and i am afraid of many, many more things besides that people ca not even guess at, like seaweed and other things that are scary. but, when it comes to writing, the thing that i have been sort of thinking about lately, and wondering about lately, is why? you know, is it rational? is it logical that anybody should be expected to be afraid of the work that they feel they were put on this earth to do? and what is it specifically about creative ventures that seems to make us really nervous about each other mental health in a way that other careers kind of do not do, you know? like my dad, for example, was a chemical engineer and i do not recall once in his years of chemical engineering anybody asking him if he was afraid to be a chemical engineer, you know? that chemical engineering block, john, how it going? it just did not come up like that, you know? but to be fair, chemical engineers as a group have not really earned a reputation over the centuries for being alcoholic manic depressives. we writers, we kind of do have that reputation, and not just writers, but creative people across all genres, it seems, have this reputation for being enormously mentally unstable. and all you have to do is look at the very grim death count in the th century alone, of really magnificent creative minds who died young and often at their own hands, you know? and even the ones who did not literally commit suicide seem to be really undone by their gifts, you know. norman mailer, just before he died, in his last interview, he said, every one of my books has killed me a little more. an extraordinary statement to make about your life work. but we do not even blink when we hear somebody say this, because we have heard that kind of stuff for so long and somehow we have completely internalized and accepted collectively this notion that creativity and suffering are somehow inherently linked and that artistry, in the end, will always ultimately lead to anguish. and the question that i want to ask everybody here today is are you guys all cool with that idea? are you comfortable with that? because if you look at it even from an inch away and, you know i am not at all comfortable with that assumption. i think it odious. and i also think it dangerous, and i do not want to see it perpetuated into the next century. i think it better if we encourage our great creative minds to live. and i definitely know that, in my case in my situation it would be very dangerous for me to start sort of leaking down that dark path of assumption, particularly given the circumstance that i am in right now in my career. i am pretty young, i am only about years old. i still have maybe another four decades of work left in me. and it exceedingly likely that anything i write from this point forward is going to be judged by the world as the work that came after the freakish success of my last book, right? i should just put it bluntly, because we are all sort of friends here now it exceedingly likely that my greatest success is behind me. jesus, what a thought! that the kind of thought that could lead a person to start drinking gin at nine o'clock in the morning, and i do not want to go there. i would prefer to keep doing this work that i love. and so, the question becomes, how? it seems to me, upon a lot of reflection, that the way that i have to work now, in order to continue writing, is that i have to create some sort of protective psychological construct. i have to sort of find some way to have a safe distance between me, as i am writing, and my very natural anxiety about what the reaction to that writing is going to be, from now on. as i have been looking, over the last year, for models for how to do that, i have been sort of looking across time, and i have been trying to find other societies to see if they might have had better and saner ideas than we have about how to help creative people sort of manage the inherent emotional risks of creativity. and that search has led me to ancient greece and ancient rome. so stay with me, because it does circle around and back. in ancient greece and ancient rome people did not happen to believe that creativity came from human beings. people believed that creativity was this divine attendant spirit that came to human beings from some distant and unknowable source, for distant and unknowable reasons. the greeks famously called these divine attendant spirits of creativity daemons. socrates, famously, believed that he had a daemon who spoke wisdom to him from afar. the romans had the same idea, but they called that sort of disembodied creative spirit a genius. which is great, because the romans did not actually think that a genius was a particularly clever individual. they believed that a genius was this, sort of magical divine entity, who was believed to literally live in the walls of an artist studio, kind of like dobby the house elf, and who would come out and sort of invisibly assist the artist with their work and would shape the outcome of that work. so brilliant there it is, right there, that distance that i am talking about that psychological construct to protect you from the results of your work. and everyone knew that this is how it functioned, right? so the ancient artist was protected from certain things, like, for example, too much narcissism, right? if your work was brilliant, you could not take all the credit for it, everybody knew that you had this disembodied genius who had helped you. if your work bombed, not entirely your fault, you know? everyone knew your genius was kind of lame. and this is how people thought about creativity in the west for a really long time. then the renaissance came and everything changed. we had this big idea, and the big idea was, let put the individual human being at the center of the universe above all gods and mysteries, and there no more room for mystical creatures who take dictation from the divine. and it the beginning of rational humanism, and people started to believe that creativity came completely from the self of the individual. and for the first time in history, you start to hear people referring to this or that artist as being a genius, rather than having a genius. and i got to tell you, i think that was a huge error. i think that allowing somebody, one mere person to believe that he or she is like, the vessel, you know, like the font and the essence and the source of all divine, creative, unknowable, eternal mystery is just a smidge too much responsibility to put on one fragile, human psyche. it like asking somebody to swallow the sun. it just completely warps and distorts egos, and it creates all these unmanageable expectations about performance. and i think the pressure of that has been killing off our artists for the last years. and, if this is true, and i think it is true, the question becomes, what now? can we do this differently? maybe go back to some more ancient understanding about the relationship between humans and the creative mystery. maybe not. maybe we ca not just erase years of rational humanistic thought in one minute speech. and there probably people in this audience who would raise really legitimate scientific suspicions about the notion of, basically, fairies who follow people around rubbing fairy juice on their projects and stuff. i am not, probably, going to bring you all along with me on this. but the question that i kind of want to pose is you know, why not? why not think about it this way? because it makes as much sense as anything else i have ever heard in terms of explaining the utter maddening capriciousness of the creative process. a process which, as anybody who has ever tried to make something which is to say basically everyone here knows does not always behave rationally. and, in fact, can sometimes feel downright paranormal. i had this encounter recently where i met the extraordinary american poet ruth stone, who now in her s, but she been a poet her entire life and she told me that when she was growing up in rural virginia, she would be out working in the fields, and she said she would feel and hear a poem coming at her from over the landscape. and she said it was like a thunderous train of air. and it would come barreling down at her over the landscape. and she felt it coming, because it would shake the earth under her feet. she knew that she had only one thing to do at that point, and that was to, in her words, run like hell. and she would run like hell to the house and she would be getting chased by this poem, and the whole deal was that she had to get to a piece of paper and a pencil fast enough so that when it thundered through her, she could collect it and grab it on the page. and other times she would not be fast enough, so she would be running and running, and she would not get to the house and the poem would barrel through her and she would miss it and she said it would continue on across the landscape, looking, as she put it for another poet. and then there were these times this is the piece i never forgot she said that there were moments where she would almost miss it, right? so, she running to the house and she looking for the paper and the poem passes through her, and she grabs a pencil just as it going through her, and then she said, it was like she would reach out with her other hand and she would catch it. she would catch the poem by its tail, and she would pull it backwards into her body as she was transcribing on the page. and in these instances, the poem would come up on the page perfect and intact but backwards, from the last word to the first. that not at all what my creative process is i am not the pipeline! i am a mule, and the way that i have to work is i have to get up at the same time every day, and sweat and labor and barrel through it really awkwardly. but even i, in my mulishness, even i have brushed up against that thing, at times. and i would imagine that a lot of you have too. you know, even i have had work or ideas come through me from a source that i honestly cannot identify. and what is that thing? and how are we to relate to it in a way that will not make us lose our minds, but, in fact, might actually keep us sane? and for me, the best contemporary example that i have of how to do that is the musician tom waits, who i got to interview several years ago on a magazine assignment. and we were talking about this, and you know, tom, for most of his life, he was pretty much the embodiment of the tormented contemporary modern artist, trying to control and manage and dominate these sort of uncontrollable creative impulses that were totally internalized. but then he got older, he got calmer, and one day he was driving down the freeway in los angeles, and this is when it all changed for him. and he speeding along, and all of a sudden he hears this little fragment of melody, that comes into his head as inspiration often comes, elusive and tantalizing, and he wants it, it gorgeous, and he longs for it, but he has no way to get it. he does not have a piece of paper, or a pencil, or a tape recorder. so he starts to feel all of that old anxiety start to rise in him like, i am going to lose this thing, and i will be be haunted by this song forever. i am not good enough, and i ca not do it. and instead of panicking, he just stopped. he just stopped that whole mental process and he did something completely novel. he just looked up at the sky, and he said, excuse me, can you not see that i am driving? do i look like i can write down a song right now? if you really want to exist, come back at a more opportune moment when i can take care of you. otherwise, go bother somebody else today. go bother leonard cohen. and his whole work process changed after that. not the work, the work was still oftentimes as dark as ever. but the process, and the heavy anxiety around it was released when he took the genie, the genius out of him where it was causing nothing but trouble, and released it back where it came from, and realized that this did not have to be this internalized, tormented thing. it could be this peculiar, wondrous, bizarre collaboration, kind of conversation between tom and the strange, external thing that was not quite tom. when i heard that story, it started to shift a little bit the way that i worked too, and this idea already saved me once. it saved me when i was in the middle of writing eat, pray, love, and i fell into one of those sort of pits of despair that we all fall into when we are working on something and it not coming and you start to think this is going to be a disaster, the worst book ever written. not just bad, but the worst book ever written. and i started to think i should just dump this project. but then i remembered tom talking to the open air and i tried it. so i just lifted my face up from the manuscript and i directed my comments to an empty corner of the room. and i said aloud, listen you, thing, you and i both know that if this book is not brilliant that is not entirely my fault, right? because you can see that i am putting everything i have into this, i do not have any more than this. if you want it to be better, you have got to show up and do your part of the deal. but if you do not do that, you know what, the hell with it. i am going to keep writing anyway because that my job. and i would please like the record to reflect today that i showed up for my part of the job. because in the end it like this centuries ago in the deserts of north africa, people used to gather for these moonlight dances of sacred dance and music that would go on for hours and hours, until dawn. they were always magnificent, because the dancers were professionals and they were terrific, right? but every once in a while, very rarely, something would happen, and one of these performers would actually become transcendent. and i know you know what i am talking about, because i know you have all seen, at some point in your life, a performance like this. it was like time would stop, and the dancer would sort of step through some kind of portal and he was not doing anything different than he had ever done, , nights before, but everything would align. and all of a sudden, he would no longer appear to be merely human. he would be lit from within, and lit from below and all lit up on fire with divinity. and when this happened, back then, people knew it for what it was, you know, they called it by its name. they would put their hands together and they would start to chant, allah, allah, allah, god, god, god. that god, you know. curious historical footnote when the moors invaded southern spain, they took this custom with them and the pronunciation changed over the centuries from allah, allah, allah, to ol , ol , ol , which you still hear in bullfights and in flamenco dances. in spain, when a performer has done something impossible and magic, allah, ol , ol , allah, magnificent, bravo, incomprehensible, there it is a glimpse of god. which is great, because we need that. but, the tricky bit comes the next morning, for the dancer himself, when he wakes up and discovers that it tuesday at a.m., and he no longer a glimpse of god. he just an aging mortal with really bad knees, and maybe he never going to ascend to that height again. and maybe nobody will ever chant god name again as he spins, and what is he then to do with the rest of his life? this is hard. this is one of the most painful reconciliations to make in a creative life. but maybe it does not have to be quite so full of anguish if you never happened to believe, in the first place, that the most extraordinary aspects of your being came from you. but maybe if you just believed that they were on loan to you from some unimaginable source for some exquisite portion of your life to be passed along when you are finished, with somebody else. and, you know, if we think about it this way, it starts to change everything. this is how i have started to think, and this is certainly how i have been thinking in the last few months as i have been working on the book that will soon be published, as the dangerously, frighteningly over anticipated follow up to my freakish success. and what i have to sort of keep telling myself when i get really psyched out about that is do not be afraid. do not be daunted. just do your job. continue to show up for your piece of it, whatever that might be. if your job is to dance, do your dance. if the divine, cockeyed genius assigned to your case decides to let some sort of wonderment be glimpsed, for just one moment through your efforts, then ol ! and if not, do your dance anyhow. and ol ! to you, nonetheless. i believe this and i feel that we must teach it. ol ! to you, nonetheless, just for having the sheer human love and stubbornness to keep showing up. thank you.</t>
-  </si>
-  <si>
-    <t>i said you want to be starting something you got to be starting something i said you want to be starting something you got to be starting something and too high to get over yeah, yeah and too low to get under yeah, yeah you are stuck in the middle yeah, yeah and the pain is thunder yeah, yeah and too high to get over yeah, yeah and too low to get under yeah, yeah you are stuck in the middle yeah, yeah and the pain is thunder yeah, yeah i took my baby to the doctor with a fever, but nothing he found by the time this hit the street they said she had a breakdown someone always trying to start my baby crying talkin', squealin', lying saying you just want to be starting something i said you want to be starting something you got to be starting something i said you want to be starting something you got to be starting something and too high to get over yeah, yeah and too low to get under yeah, yeah you are stuck in the middle yeah, yeah and the pain is thunder yeah, yeah and too high to get over yeah, yeah and too low to get under yeah, yeah you are stuck in the middle yeah, yeah and the pain is thunder yeah, yeah you love to pretend that you are good when you are always up to no good you really ca not make him hate her so your tongue became a razor someone always trying to keep my baby crying treacherous, cunnin', declining you got my baby crying i said you want to be starting something you got to be starting something i said you want to be starting something you got to be starting something and too high to get over yeah, yeah and too low to get under yeah, yeah you are stuck in the middle yeah, yeah and the pain is thunder yeah, yeah and too high to get over yeah, yeah and too low to get under yeah, yeah you are stuck in the middle yeah, yeah and the pain is thunder yeah, yeah you are a vegetable, you are a vegetable still they hate you, you are a vegetable you are just a buffet, you are a vegetable they eat off of you, you are a vegetable billie jean is always talking when nobody else is talking telling lies and rubbing shoulders so they called her mouth a motor someone always trying to start my baby crying talkin', squealin', spying saying you just want to be starting something i said you want to be starting something you got to be starting something i said you want to be starting something you got to be starting something and too high to get over yeah, yeah and too low to get under yeah, yeah you are stuck in the middle yeah, yeah and the pain is thunder yeah, yeah and too high to get over yeah, yeah and too low to get under yeah, yeah you are stuck in the middle yeah, yeah and the pain is thunder yeah, yeah you are a vegetable, you are a vegetable still they hate you, you are a vegetable you are just a buffet, you are a vegetable they eat off of you, you are a vegetable if you ca not feed your baby yeah, yeah then do not have a baby yeah, yeah and do not think maybe yeah, yeah if you ca not feed your baby yeah, yeah you will be always trying to stop that child from crying hustlin', stealin', lying now baby slowly dying i said you want to be starting something you got to be starting something i said you want to be starting something you got to be starting something it too high to get over yeah, yeah it too low to get under yeah, yeah you are stuck in the middle yeah, yeah and the pain is thunder yeah, yeah it too high to get over yeah, yeah and too low to get under yeah, yeah you are stuck in the middle yeah, yeah and the pain is thunder yeah, yeah lift your head up high and scream out to the world i know i am someone and let the truth unfurl no one can hurt you now because you know what true yes, i believe in me so you believe in you help me sing it, ma ma se, ma ma sa, ma ma coo sa ma ma se, ma ma sa, ma ma coo sa help me sing it! sing it to the world sing it out loud help me sing it! ma ma se, ma ma sa, ma ma coo sa ma ma se, ma ma sa, ma ma coo sa woo hoo, he he he help me sing it! woo hoo, he he he sing it to the world ma ma se, ma ma sa, ma ma coo sa ma ma se, ma ma sa, ma ma coo sa woo hoo, he he he help me sing it baby! sing it to the world sing it out loud i do not need no dreams when i am by your side every moment takes me to paradise darling let me hold you warm you in my arms and melt your fears away show you all the magic that a perfect love can make i need you night and day so baby be mine baby you gotta be mine and girl i will give you all i got to give so baby be my girl all the time and we can share this ecstasy as long as we believe in love i wo not give you reason to change your mind i guess it still you thrill me baby be mine you are all the future that i desire girl i need to hold you share my feelings in the heat of love embrace show you all the passion burning in my heart today it never gonna fade so baby be mine baby you gotta be mine and girl i will give you all i got to give so baby be my girl all the time you are everything this world could be the reason that i live wo not you stay with me until the morning sun i promise you now that the dawn will be different lady ca not you see that heaven just begun it living here inside our hearts there will be no more mountains for us to climb i ca not be still you thrill me baby be mine this will be a love lasting for all time girl you got to hold me we can touch the sky and light the darkest day hold me only you and i can make sweet love this way there no more i can say so baby be mine baby you gotta be mine tell me that you love me and girl i will give you all i got to give say you are thinking of me so baby be mine all the time show me how it should be you are everything this world could be the reason that i live every night it feels alright baby be my girl tell me that you love me and girl i will give you all i got to give say you are thinking of me so baby, be mine, baby, be mine show me how it should be you are everything this world could be to me every night it feels alright come on girl come on girl tell me that you love me say you are thinking of me so baby be mine show me how it should be you are everything this world could be to me every night it feels alright every night she walks right in my dreams since i met her from the start i am so proud i am the only one who is special in her heart the girl is mine the doggone girl is mine i know she mine because the doggone girl is mine i do not understand the way you think saying that she yours not mine sending roses and your silly dreams really just a waste of time because she mine the doggone girl is mine do not waste your time because the doggone girl is mine i love you more than he take you anywhere but i love you endlessly loving we will share so come and go with me two on the town but we both cannot have her so it one or the other and one day you will discover that she my girl forever and ever i do not build your hopes to be let down because i really feel it time i know she will tell you i am the one for her because she said i blow her mind the girl is mine the doggone girl is mine do not waste your time because the doggone girl is mine she mine, she mine no, no, no, she mine the girl is mine, the girl is mine the girl is mine, the girl is mine the girl is mine mine, mine yep she mine mine, mine the girl is mine mine, mine yep she mine mine, mine do not waste your time because the doggone girl is mine the girl is mine, the girl is mine michael, we are not gonna fight about this, okay? paul, i think i told you, i am a lover not a fighter i have heard it all before, michael she told me that i am her forever lover, you know, do not you remember? well, after loving me, she said she could not love another is that what she said? yes, she said it, you keep dreaming i do not believe it mine, mine no the girl is mine mine, mine no, mine no, mine mine, mine she mine mine mine mine mine mine, mine, mine because the girl is mine mine, mine no girl is mine mine, mine it close to midnight and something evil lurking in the dark under the moonlight you see a sight that almost stops your heart you try to scream but terror takes the sound before you make it you start to freeze as horror looks you right between the eyes, you are paralyzed because this is thriller, thriller night and no one gonna save you from the beast about to strike you know it thriller, thriller night you are fighting for your life inside a killer, thriller tonight you hear the door slam and realize there nowhere left to run you feel the cold hand and wonder if you will ever see the sun you close your eyes and hope that this is just imagination, girl but all the while you hear a creature creeping up behind you are outta time because this is thriller, thriller night there is not no second chance against the thing with the forty eyes, girl thriller, thriller night you are fighting for your life inside a killer, thriller tonight night creatures call and the dead start to walk in their masquerade there no escaping the jaws of the alien this time they are open wide this is the end of your life they are out to get you, there demons closing in on every side they will possess you unless you change that number on your dial now is the time for you and i to cuddle close together all through the night i will save you from the terror on the screen, i will make you see that this is thriller, thriller night because i can thrill you more than any ghoul could ever dare try thriller, thriller night so let me hold you tight and share a killer, thriller, chiller thriller here tonight because this is thriller, thriller night girl, i can thrill you more than any ghoul could ever dare try thriller, thriller night so let me hold you tight and share a killer, thriller i am gonna thrill you tonight darkness falls across the land the midnight hour is close at hand creatures crawl in search of blood to terrorize you all is neighborhood and whomsoever shall be found without the soul for getting down must stand and face the hounds of hell and rot inside a corpse shell i am gonna thrill you tonight... the foulest stench is in the air the funk of forty thousand years and grisly ghouls from every tomb are closing in to seal your doom and though you fight to stay alive your body starts to shiver for no mere mortal can resist the evil of the thriller they told him, do not you ever come around here. do not want to see your face. you better disappear. the fire in their eyes and their words are really clear so beat it, just beat it you better run, you better do what you can do not want to see no blood, do not be a macho man you want to be tough, better do what you can so beat it, but you want to be bad just beat it, beat it, beat it, beat it no one wants to be defeated showing how funky strong is your fight it does not matter who wrong or right just beat it, beat it they are out to get you, better leave while you can do not want to be a boy, you want to be a man you want to stay alive, better do what you can so beat it, just beat it you have to show them that you are really not scared you are playing with your life, this is not no truth or dare they will kick you, then they beat you, then they will tell you it fair so beat it, but you want to be bad just beat it, beat it, beat it, beat it no one wants to be defeated showing how funky strong is your fight it does not matter who wrong or right just beat it, beat it, beat it, beat it, beat it beat it, beat it, beat it, beat it no one wants to be defeated showing how funky strong is your fight it does not matter who wrong or right just beat it, beat it, beat it, beat it no one wants to be defeated showing how funky strong is your fight it does not matter who wrong or right just beat it, beat it beat it, beat it, beat it she was more like a beauty queen from a movie scene i said, do not mind, but what do you mean i am the one who will dance on the floor in the round? she said i am the one who will dance on the floor in the round she told me her name was billie jean as she caused a scene then every head turned with eyes that dreamed of being the one who will dance on the floor in the round people always told me, be careful of what you do. and do not go around breaking young girls hearts. and mother always told me, a be careful of who you love, and be careful of what you do because the lie becomes the truth. billie jean is not my lover she just a girl who claims that i am the one but the kid is not my son she says i am the one but the kid is not my son for forty days and for forty nights law was on her side but who can stand when she in demand her schemes and plans because we danced on the floor in the round so take my strong advice just remember to always think twice do think twice, do think twice. she told, my baby, we would danced until three. then she looked at me then showed a photo of a baby cry his eyes looked like mine, oh, no do a dance on the floor in the round, baby a people always told me, be careful of what you do and do not go around breaking young girls hearts. do not break no heart. a but she came and stood right by me and just the smell of sweet perfume and this happened much too soon and she called me to her room billie jean is not my lover she just a girl who claims that i am the one but the kid is not my son no, no, no, no, no, no, no, no. billie jean is not my lover she just a girl who claims that i am the one but the kid is not my son she says i am the one but the kid is not my son she says i am the one but the kid is not my son no, no, no billie jean is not my lover she just a girl who claims that i am the one no, there not me, baby. but the kid is not my son no, no, no, no, no, no, no. she says i am the one no, babe. but the kid is not my son, no, no, no she says i am the one you know what you did she says he is my son breaking my heart, babe she says i am the one billie jean is not my lover billie jean is not my lover billie jean is not my lover she is the one billie jean is not my lover she is the one do not call me billie jean billie jean is not my lover she is the one she stumbled onto the scene billie jean is not my lover billie jean is not my lover looking out across the night time the city winks a sleepless eye hear her voice shake my window sweet seducing sighs get me out into the night time four walls wo not hold me tonight if this town is just an apple then let me take a bite if they say, why? why? tell them that is human nature why, why does he do it that way? if they say, why? why? tell them that is human nature why, why does he do it that way? reaching out to touch a stranger electric eyes are everywhere see that girl she knows i am watching she likes the way i stare if they say, why? why? just tell them that is human nature why, why does he do it that way? if they say, why? why? do you really like me to be around? tell them that is human nature why, why does he do it that way? i like living this way i like loving this way that way the way it was. that way the way it was. looking out across the morning the city heart begins to beat reaching out i touch her shoulder i am dreaming of the street if they say, why? why? tell them that is human nature why, why does he do it that way? if they say, why? why? just tell me you like me to be around. ooh, tell them why, why does he do it that way? if they say, why? why? why, why does he do it that way? if they say, why? why? just tell me you like me to be around. ooh, tell them why, why does he do it that way? and they say, why? why? ooh, tell them why, why does he do it that way? they say, why? why? just tell me you like me to be around. why, why does he do it that way? i like living this way the way the way you know, you you make me feel so good inside i always wanted a girl just like you you are such a p.y.t. pretty young thing where did you come from baby and ooh wo not you take me there? right away wo not you baby tenderoni you have got to be spark my nature sugar fly with me do not you know now is the perfect time we can make it right hit the city lights then tonight ease the love and pain let me take you to the max i want to love you p.y.t. pretty young thing you need some loving t.l.c. tender love, and care and i will take you there i want to love you p.y.t. pretty young thing you need some loving t.l.c. tender love, and care and i will take you there anywhere you want to go yes, i will. nothing can stop this burning desire to be with you gotta get to you baby wo not you come, it emergency cool my fire yearning honey, come set me free do not you know now is the perfect time we can dim the lights just to make it right in the night hit the loving spot i will give you all that i have got i want to love you p.y.t. pretty young thing you need some loving t.l.c. tender love, and care and i will take you there yes, i will. i want to love you p.y.t. pretty young thing you need some loving t.l.c. tender love, and care and i will take you there yes, i will pretty young thing you make me say pretty young thing you make me say pretty young things, repeat after me say na, na, na. na, na, na na, na, na, na na, na, na, na say na, na, na. na, na, na na, na, na, na, na na, na, na, na, na i will take you there, take you there i want to love you p.y.t. pretty young thing you need some loving t.l.c. tender love, and care and i will take you there take you there take you there i want to love you p.y.t. pretty young thing you need some loving t.l.c. tender love, and care and i will take you there take you there i want to love you p.y.t. pretty young thing oh, baby you need some loving t.l.c. pretty young thing oh, darling you know i think you are really, really nice you and i could've, could have just put together you are such a p.y.t. pretty young thing i just want to love you, you know, it i would give you all there will be no darkness tonight lady our love will shine lighting the night just put your trust in my heart and meet me in paradise now is the time girl, you are every wonder in this world to me a treasure time wo not steal away so listen to my heart lay your body close to mine let me fill you with my dreams i can make you feel alright and baby through the years gonna love you more each day so i promise you tonight that you will always be the lady in my life lay back in my tenderness let make this a night we wo not forget girl, i need your sweet caress, oh reach out to a fantasy two hearts in a beat of ecstasy come to me, girl and i will keep you warm through the shadows of the night let me touch you with my love i can make you feel so right and baby through the years even when we are old and gray i will love you more each day because you will always be the lady in my life stay with me i want you to stay with me i need you by my side do not you go nowhere ooh girl let me keep you warm let me keep you warm you are the lady in my life you are my lady fill you with the sweetest love the sweetest love always the lady in my life i want to touch you baby lay back in my tenderness you are the lady in my life doo doo doo rock me with your sweet caress always the lady in my life you are my lady and i love you girl ooh girl let me keep you warm you are the lady in my life do not you go nowhere fill you with the sweetest love i love you i love you always the lady in my life i need you i want you, baby lay back in my tenderness stay with me you are the lady in my life do not you go no where rock me with your sweet caress and i love you baby always the lady in my life woo ooh baby do not you go nowhere you are my lady all through the night ooh girl let me keep you warm i want to give you all you are the lady in my life in my life fill you with the sweetest love let me fill you baby always the lady in my life all over all over all over lay back in my tenderness lay back with me you are the lady in my life let me touch you girl rock me with your sweet caress lay back with me always the lady in my life all over ooh girl let me keep you warm baby you are the lady in my life woo fill you with the sweetest love always the lady in my life you are my lady lay back in my tenderness you are my lady baby she from a world of popcorn and candy pony rides for a dime little children laughing i am from a world of disappointments and confusions but i want her to be mine i started talking she kept on walking she disappeared into the crowd i lost my heart on the carousel to a circus girl who left my heart in pieces lost my heart on the carousel to a circus girl who ran away. i was the clown and she was the dancer we both knew it would not work but we took our chances what i ca not recall is if there was a girl at all or was it my imagination? i still remember all of those faces and now all i have is memories. i lost my heart on the carousel to a circus girl who left my heart in pieces lost my heart on the carousel to a circus girl who ran away. two different people in love for an instant to see that the circus came today sometimes i can hear the calliope and i can hear her calling me. do not you know? i lost my heart on the carousel to a circus girl who left my heart in pieces lost my heart on the carousel to a circus girl who ran away</t>
-  </si>
-  <si>
-    <t>on a dark desert highway, cool wind in my hair warm smell of colitas, rising up through the air up ahead in the distance, i saw a shimmering light my head grew heavy and my sight grew dim i had to stop for the night there she stood in the doorway i heard the mission bell and i was thinking to myself this could be heaven or this could be hell then she lit up a candle and she showed me the way there were voices down the corridor i thought i heard them say welcome to the hotel california such a lovely place such a lovely place such a lovely face plenty of room at the hotel california any time of year any time of year you can find it here her mind is tiffany twisted, she got the mercedes bends she got a lot of pretty, pretty boys she calls friends how they dance in the courtyard, sweet summer sweat some dance to remember, some dance to forget so i called up the captain please bring me my wine. he said, we have not had that spirit here since nineteen sixty nine. and still those voices are calling from far away wake you up in the middle of the night just to hear them say welcome to the hotel california such a lovely place such a lovely place such a lovely face they living it up at the hotel california what a nice surprise what a nice surprise bring your alibis mirrors on the ceiling the pink champagne on ice and she said we are all just prisoners here, of our own device and in the master chambers they gathered for the feast they stab it with their steely knives but they just ca not kill the beast last thing i remember i was running for the door i had to find the passage back to the place i was before relax, said the night man we are programmed to receive you can check out any time you like but you can never leave! there talk on the street it sounds so familiar great expectations, everybody watching you people you meet they all seem to know you even your old friends treat you like you are something new johnny come lately, the new kid in town everybody loves you, so do not let them down you look in her eyes the music begins to play hopeless romantics, here we go again but after awhile you are looking the other way it those restless hearts that never mend johnny come lately, the new kid in town will she still love you when you are not around? there so many things you should have told her but night after night you are willing to hold her just hold her tears on your shoulder there talk on the street it there to remind you it does not really matter which side you are on you are walking away and they are talking behind you they will never forget you until somebody new comes along where you have been lately? there a new kid in town everybody loves him do not they? now he holding her, and you are still around oh, my, my there a new kid in town just another new kid in town everybody talking about the new kid in town everybody walking like the new kid in town there a new kid in town i do not want to hear it there a new kid in town i do not want to hear it there a new kid in town there a new kid in town there a new kid in town everybody talking there a new kid in town people started walking there a new kid in town there a new kid in town he was a hard headed man, he was brutally handsome, and she was terminally pretty she held him up, and he held her for ransom in the heart of the cold, cold city he had nasty reputation as a cruel dude they said he was ruthless, said he was crude they had one thing in common, they were good in bed she would say, faster, faster. the lights are turning red. life in the fast lane surely make you lose your mind life in the fast lane are you with me so far? eager for action, hot for the game the coming attraction, the drop of a name they knew all the right people, they took all the right pills they threw outrageous parties, they paid heavenly bills there were lines on the mirror, lines on her face she pretended not to notice, she was caught up in the race out every evening, until it was light he was too tired to make it, she was too tired to fight about it life in the fast lane surely make you lose your mind life in the fast lane life in the fast lane, everything all the time life in the fast lane blowing and burnin', blinded by thirst they did not see the stop sign, took a turn for the worst she said, listen, baby. you can hear the engine ring. we have been up and down this highway have not seen a goddamn thing. he said, call the doctor. i think i am gonna crash. the doctor say he comin', but you gotta pay him cash. they went rushing down that freeway, messed around and got lost they did not care they were just dying to get off and it was... life in the fast lane surely make you lose your mind life in the fast lane life in the fast lane, everything all the time life in the fast lane, life in the fast lane life in the fast lane well, baby, there you stand with your little head down in your hand oh, my god, you ca not believe it happening again your baby gone, and you are all alone and it looks like the end. and you are back out on the street. and you are trying to remember. how do you start it over? you do not know if you can. you do not care much for a stranger touch, but you ca not hold your man. you never thought you would be alone this far down the line and i know what been on your mind you are afraid it all been wasted time the autumn leaves have got you thinking about the first time that you fell you did not love the boy too much, no, no, you just loved the boy too well, well, well. so you live from day to day, and you dream about tomorrow and the hours go by like minutes and the shadows come to stay so you take a little something to make them go away i could have done so many things, baby if i could only stop my mind from wondering what i left behind and from worrying about this wasted time another love has come and gone and the years keep rushing on i remember what you told me before you went out on your own, sometimes to keep it together, we got to leave it alone. so you can get on with your search, baby, and i can get on with mine and maybe someday we will find that it was not really wasted time what kind of love have you got? you should be home, but you are not a room full of noise and dangerous boys still makes you thirsty and hot i heard about you and that man there just one thing i do not understand you say he a liar and he put out your fire how come you still got his gun in your hand? victim of love, i see your broken heart you got your stories to tell victim of love, it such an easy part and you know how to play it so well some people never come clean i think you know what i mean you are walking the wire pain and desire looking for love in between tell me your secrets, i will tell you mine this is not no time to be cool and tell all your girlfriends, your been around the world friends that talk is for losers and fools victim of love, i see your broken heart i could be wrong, but i am not, no, i am not victim of love, we are not so far apart show me, what kind of love have you got? victim of love, i see your broken heart i could be wrong, but i am not victim of love, we are not so far apart what kind of love have you got? victim of love, you are just a victim of love i could be wrong, but i am not, no, i am not victim of love, now you are a victim of love what kind of love have you got? what kind of love have you got? what kind of love have you got? hi there. how are 'ya? it been a long time seems like we have come a long way my, but we learn so slow and heroes, they come and they go and leave us behind as if we are supposed to know why why do we give up our hearts to the past? and why must we grow up so fast? and all you wishing well fools with your fortunes someone should send you a rose with love from a friend, it nice to hear from you again and the storybook comes to a close gone are the ribbons and bows things to remember places to go pretty maids all in a row when you are out there on your own where your memories can find you like a circle goes around you were lost until you found out what it all comes down to one by one the lonely feelings come day by day, they slowly fade away oh, the look was in her eyes you never know what might be found there she was dancing right in time and the moves she made so fine like the music that surrounds her should i stay or go? i really want to know would i lose or win if i try and love again? gonna try and love again i am gonna try and love again gonna try and love right or wrong, what done is done it only moments that you borrow but the thoughts will linger on of the lady and her song when the sun comes up tomorrow well, it might take years to see through all these tears do not let go when you find it you will know oh, gonna try and love again oh, gonna try and love again oh, gonna try and love again sometimes lose, sometimes win, sometimes you need a friend gonna try, gonna try gonna try, gonna try she came from providence one in rhode island where the old world shadows hang heavy in the air she packed her hopes and dreams like a refugee just as her father came across the sea she heard about a place people were smiling they spoke about the red man way how they loved the land and they came from everywhere to the great divide seeking a place to stand or a place to hide down in the crowded bars out for a good time ca not wait to tell you all what it like up there they called it paradise i do not know why somebody laid the mountains low while the town got high then the chilly winds blew down across the desert through the canyons of the coast to the malibu where the pretty people play hungry for power to light their neon way give them things to do some rich men came and raped the land nobody caught them put up a bunch of ugly boxes and jesus people bought them they called it paradise the place to be they watched the hazy sun sinking in the sea you can leave it all behind and sail to lahaina just like the missionaries did so many years ago they even brought a neon sign jesus is coming brought the white man burden down brought the white man reign who will provide the grand design? what is yours and what is mine? because there is no more new frontier we have got to make it here we satisfy our endless needs and justify our bloody deeds in the name of destiny and in the name of god and you can see them there on sunday morning they stand up and sing about what it like up there they call it paradise i do not know why you call someplace paradise kiss it goodbye</t>
-  </si>
-  <si>
-    <t>hey, hey mama, said the way you move gonna make you sweat, gonna make you groove uh uh child, way you shake that thing gonna make you burn, gonna make you sting hey, hey, baby, when you walk that way watch your honey drip, ca not keep away ah, yeah, ah, yeah, ah, ah, ah ah, yeah, ah, yeah, ah, ah, ah i gotta roll, ca not stand still got a flaming heart, ca not get my fill eyes that shine, burning red dreams of you all through my head ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah hey hey, baby, oh, baby, pretty baby darling ca not you do me now? hey, baby, oh, baby, pretty baby move me while you do me now did not take too long before i found out what people mean by down and out spent my money, took my car started telling her friends she gonna be a star i do not know, but i been told a big legged woman is not got no soul oh, yeah, oh, yeah, ah, ah, ah oh, yeah, oh, yeah, ah, ah, yeah all i ask for, all i pray steady loaded woman gonna come my way need a woman, gonna hold my hand will tell me no lies, make me a happy man ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah la da ah e ah yes i will. and, yes, i really, really do, baby, baby, baby i can really do you, huh? ooh, wow, you do it, baby push it, baby, push it, baby, push it, baby, push it, baby push it, baby, push it, babe, babe ooh, ooh, aah ooh. ooh. i would really like to do it now i would really like to do it now it been a long time since i rock and rolled. it been a long time since i did the stroll. ooh, let me get it back, let me get it back, let me get it back, baby, where i come from. it been a long time, been a long time, been a long lonely, lonely, lonely, lonely, lonely time. yes, it has. it been a long time since the book of love. i ca not count the tears of a life with no love. carry me back, carry me back, carry me back, baby, where i come from. it been a long time, been a long time, been a long lonely, lonely, lonely, lonely, lonely time. seems so long since we walked in the moonlight, making vows that just ca not work right. open your arms, open your arms, open your arms, baby, let my love come running in. it been a long time, been a long time, been a long lonely, lonely, lonely, lonely, lonely time. it been a long time, been a long time, been a long lonely, lonely, lonely, lonely, lonely time. the queen of light took her bow, and then she turned to go, the prince of peace embraced the gloom, and walked the night alone. oh, dance in the dark of night, sing to the morning light. the dark lord rides in force tonight, and time will tell us all. oh, throw down your plow and hoe, rest not to lock your homes. side by side we wait the might of the darkest of them all. i hear the horses thunder down in the valley below, i am waiting for the angels of avalon, waiting for the eastern glow. the apples of the valley hold the seeds of happiness, the ground is rich from tender care, repay, do not forget, no, no. dance in the dark of night, sing to the morning light. the apples turn to brown and black, the tyrant face is red. oh war is the common cry, pick up your swords and fly. the sky is filled with good and bad that mortals never know. oh, well, the night is long, the beads of time pass slow, tired eyes on the sunrise, waiting for the eastern glow. the pain of war cannot exceed the woe of aftermath, the drums will shake the castle wall, the ringwraiths ride in black, ride on. sing as you raise your bow, ride on shoot straighter than before. no comfort has the fire at night that lights the face so cold. oh dance in the dark of night, sing to the morning light. the magic runes are writ in gold to bring the balance back. bring it back. at last the sun is shining, the clouds of blue roll by, with flames from the dragon of darkness, the sunlight blinds his eyes. bring it back, bring it back, bring it back, bring it back, bring it back, bring it back, bring it back, bring it back oh now oh now oh now oh, oh now oh now oh now bring it back, bring it back, bring it back, bring it back oh now oh now oh now oh, oh now oh now oh now bring it bring it bring it bring it bring it there a lady who sure all that glitters is gold and she buying a stairway to heaven. when she gets there she knows, if the stores are all closed with a word she can get what she came for. ooh, ooh, and she buying a stairway to heaven. there a sign on the wall but she wants to be sure because you know sometimes words have two meanings. in a tree by the brook, there a songbird who sings, sometimes all of our thoughts are misgiven. ooh, it makes me wonder, ooh, it makes me wonder. there a feeling i get when i look to the west, and my spirit is crying for leaving. in my thoughts i have seen rings of smoke through the trees, and the voices of those who stand looking. ooh, it makes me wonder, ooh, it really makes me wonder. and it whispered that soon, if we all call the tune, then the piper will lead us to reason. and a new day will dawn for those who stand long, and the forests will echo with laughter. if there a bustle in your hedgerow, do not be alarmed now, it just a spring clean for the may queen. yes, there are two paths you can go by, but in the long run there still time to change the road you are on. and it makes me wonder. your head is humming and it wo not go, in case you do not know, the piper calling you to join him, dear lady, can you hear the wind blow, and did you know your stairway lies on the whispering wind? and as we wind on down the road our shadows taller than our soul. there walks a lady we all know who shines white light and wants to show how everything still turns to gold. and if you listen very hard the tune will come to you at last. when all are one and one is all to be a rock and not to roll. and she buying a stairway to heaven. walking in the park just the other day, baby, what do you, what do you think i saw? crowds of people sitting on the grass with flowers in their hair said, hey, boy, do you want to score? and you know how it is i really do not know what time it was, woh, oh, so i asked them if i could stay awhile. i did not notice but it had got very dark and i was really, really out of my mind. just then a policeman stepped up to me and asked us said, please, hey, would we care to all get in line, get in line. well you know, they asked us to stay for tea and have some fun, oh, oh, he said that his friends would all drop by, ooh. why do not you take a good look at yourself and describe what you see, and baby, baby, baby, do you like it? there you sit, sitting spare like a book on a shelf rusting ah, not trying to fight it. you really do not care if they are coming, oh, oh, i know that it all a state of mind, ooh. if you go down in the streets today, baby, you better, you better open your eyes. folk down there really do not care, really do not care, do not care, really do not which, which way the pressure lies, so i have decided what i am gonna do now. so i am packing my bags for the misty mountains where the spirits go now, over the hills where the spirits fly, ooh. i really do not know. one, two, three, four, five, six. one, two, three. one. oh, baby, it crying time, oh, baby, i got to fly. got to try to find a way, got to try to get away, because you know i gotta get away from you, babe. oh, baby, the river red, oh, baby, in my head. there a funny feeling going on. i do not think i can hold out long. and when the owls cry in the night, oh, baby, baby, when the pines begin to cry, baby, baby, baby, how do you feel? if the rivers run dry, baby, how would you feel? craze, baby, the rainbow end, mm, baby, it just a den for those who hide, who hide their love to depths of life and ruin dreams that we all knew so, babe. and when the owls cry in the night, oh, baby, baby, when the pines begin to cry, baby, baby, baby, how do you feel? if the rivers run dry, baby, how do you feel? baby, how do you feel? ooh yeah, brave i endure. ooh yeah, strong shields and lore. they ca not hold the wrath of those who walk, and the boots of those who march, baby, through the roads of time so long ago. spent my days with a woman unkind smoked my stuff and drank all my wine made up my mind to make a new start going to california with an aching in my heart someone told me there a girl out there with love in her eyes and flowers in her hair took my chances on a big jet plane never let them tell you that they are all the same the sea was red and the sky was grey wondered how tomorrow could ever follow today mountains and the canyons start to tremble and shake the children of the sun begin to awake watch out seems that the wrath of the gods got a punch on the nose and it started to flow i think i might be sinking throw me a line if i reach it in time i will meet you up there where the path runs straight and high to find a queen without a king they say she plays guitar and cries and sings ride a white mare in the footsteps of dawn trying to find a woman who never, never, never been born standing on a hill in the mountain of dreams telling myself it not as hard, hard, hard as it seems if it keeps on rainin', levee going to break if it keeps on rainin', levee going to break when the levee breaks i will have no place to stay mean old levee taught me to weep and moan mean old levee taught me to weep and moan it got what it takes to make a mountain man leave his home oh, well, oh, well, oh, well do not it make you feel bad when you are trying to find your way home you do not know which way to go? if you are going down south then there no work to do if you re going north there chicago crying wo not help you, praying wo not do you no good now, crying wo not help you, praying wo not do you no good when the levee breaks, mama, you got to move all last night i sat on the levee and moaned all last night sat on the levee and moaned thinking about my baby and my happy home going, i am going to chicago going to chicago sorry but i ca not take you going down... going down now going down... going down now going down going down going down going down going down now going down going down now going down going down now going down going down</t>
-  </si>
-  <si>
-    <t>we came in so you thought you might like to go to the show to feel the warm thrill of confusion that space cadet glow tell me is something eluding you sunshine? is this not what you expected to see? if you want to find out what behind these cold eyes you will just have to claw your way through this disguise momma loves her baby and daddy loves you too and the sea may look warm to you, babe and the sky may look blue ooh, babe ooh, baby blue ooh, babe if you should go skating on the thin ice of modern life dragging behind you the silent reproach of a million tear stained eyes do not be surprised, when a crack in the ice appears under your feet you slip out of your depth and out of your mind with your fear flowing out behind you as you claw the thin ice daddy flown across the ocean leaving just a memory a snap shot in the family album daddy what else did you leave for me? daddy what would you leave behind for me? all in all it was just a brick in the wall all in all it was all just bricks in the wall you! yes, you! stand still, laddy! when we grew up and went to school there were certain teachers who would hurt the children any way they could by pouring their derision upon anything we did exposing every weakness however carefully hidden by the kids but in the town it was well known when they got home at night, their fat and psychopathic wives would thrash them within inches of their lives we do not need no education we do not need no thought control no dark sarcasm in the classroom teacher, leave them kids alone hey, teacher, leave them kids alone all in all it just another brick in the wall all in all you are just another brick in the wall we do not need no education we do not need no thought control no dark sarcasm in the classroom teachers, leave them kids alone hey, teacher, leave us kids alone all in all you are just another brick in the wall all in all you are just another brick in the wall wrong! do it again! wrong! do it again! if you do not eat your meat, you ca not have any pudding! how can you have any pudding if you do not eat your meat?! you! yes, you, behind the bike sheds, stand still, laddy! mother, do you think they will drop the bomb? mother, do you think they will like this song? mother, do you think they will try to break my balls? ooh, aah, mother, should i build the wall? mother, should i run for president? mother, should i trust the government? mother, will they put me in the firing line? ooh, aah, is it just a waste of time? hush now, baby, baby, do not you cry mama gonna make all of your nightmares come true mama gonna put all of her fears into you mama gonna keep you right here under her wing she wo not let you fly but she might let you sing mama gonna keep baby cozy and warm ooh, babe, ooh, babe, ooh, babe of course mama gonna help build the wall mother, do you think she good enough for me? mother, do you think she dangerous to me? mother, will she tear your little boy apart? ooh, aah, mother, will she break my heart? hush now, baby, baby, do not you cry mama gonna check out all your girlfriends for you mama wo not let anyone dirty get through mama gonna wait up until you get in mama will always find out where you have been mamma gonna keep baby healthy and clean ooh, babe, ooh, babe, ooh, babe you will always be a baby to me mother, did it need to be so high? look, mummy. there an airplane up in the sky. did, did, did, did you see the frightened ones? did, did, did, did you hear the falling bombs? did, did, did, did you ever wonder why we had to run for shelter when the promise of a brave new world unfurled beneath a clear blue sky? did, did, did, did you see the frightened ones? did, did, did, did you hear the falling bombs? the flames are all long gone but the pain lingers on goodbye blue sky goodbye blue sky goodbye goodbye hello, luka ... congratulations. you have just discovered the secret message. please send your answer to old pink, care of the funny farm, chalfont... roger! carolyne on the phone! okay what shall we use to fill the empty spaces where we used to talk? how shall i fill the final places? how should i complete the wall i am just a new boy a stranger in this town where are all the good times who gonna show this stranger around? ooooooooh i need a dirty woman ooooooooh i need a dirty girl will some woman in this desert land make me feel like a real man take this rock and roll refugee oooh babe set me free ooooooooh i need a dirty woman ooooooooh i need a dirty girl. ooooooooh i need a dirty woman ooooooooh i need a dirty girl. oh my god! what a fabulous room! are all these your guitars? i am sorry sir, i did not mean to startle you! what? this place is bigger than our apartment! let me know when you are entering a room. yes, sir! can i get a drink of water? i was wondering about dinner, sir. you want some, huh? yes? when do you and your guests want to dine? i have to inform the kitchen staff. oh wow, look at this tub? want to take a bath? yes, i am aware of your duties dobbs. yes, sir. i will have to find out from mrs. bancroft what time she wants to eat. as for her maid, needless to say, she can have her meal with the kitchen help. what are you watching? very good, sir. if you will just let me know as soon as you can when you and mrs bancroft want to eat. mrs. bancroft will be dining alone. hello? why? i do not understand, sir. i wo not be staying for dinner. are you feeling okay?... i am surprised to hear that, sir, since you just arrived. yes, i am a little surprised about it myself. day after day, love turns grey like the skin of a dying man night after night, we pretend it all right but i have grown older and you have grown colder and nothing is very much fun any more and i can feel one of my turns coming on i feel cold as a razor blade tight as a tourniquet dry as a funeral drum run to the bedroom in the suitcase on the left you will find my favourite axe do not look so frightened this is just a passing phase one of my bad days would you like to watch t.v.? or get between the sheets? or contemplate the silent freeway? would you like something to eat? would you like to learn to fly? would you? would you like to see me try? would you like to call the cops? do you think it time i stopped? why are you running away? ooh babe do not leave me now do not say it the end of the road remember the flowers i sent i need you babe to put through the shredder in front of my friends ooh babe do not leave me now how could you go when you know how i need you? to beat to a pulp on a saturday night ooh babe do not leave me now how can you treat me this way running away ooh babe why are you running away? ooh babe! i do not need no arms around me and i do not need no drugs to calm me i have seen the writing on the wall do not think i need anything at all no, do not think i will need anything at all all in all it was all just bricks in the wall all in all you were all just bricks in the wall goodbye cruel world i am leaving you today goodbye goodbye goodbye goodbye all you people there nothing you can say to make me change my mind goodbye. hey, you! out there in the cold getting lonely, getting old. can you feel me? hey, you! standing in the aisles with itchy feet and fading smiles. can you feel me? hey, you! do not help them to bury the light. do not give in without a fight. hey, you! out there on your own sitting naked by the phone. would you touch me? hey, you! with your ear against the wall waiting for someone to call out. would you touch me? hey, you! would you help me to carry the stone? open your heart, i am coming home but it was only fantasy. the wall was too high as you can see. no matter how he tried he could not break free. and the worms ate into his brain. hey, you! out there on the road, always doing what you are told. can you help me? hey, you! out there beyond the wall, breaking bottles in the hall. can you help me? hey, you! do not tell me there no hope at all. together we stand, divided we fall. is there anybody out there? is there anybody out there? is there anybody out there? is there anybody out there? i have got a little black book with my poems in i have got a bag with a toothbrush and a comb in when i am a good dog they sometimes throw me a bone in i got elastic bands keeping my shoes on got those swollen hand blues. i got thirteen channels of shit on the t.v. to choose from i have got electric light and i have got second sight got amazing powers of observation and that is how i know when i try to get through on the telephone to you there will be nobody home i have got the obligatory hendrix perm and the inevitable pinhole burns all down the front of my favourite satin shirt i have got nicotine stains on my fingers i have got a silver spoon on a chain i have got a grand piano to prop up my mortal remains i have got wild staring eyes i have got a strong urge to fly but i have got nowhere to fly to ooh, babe, when i pick up the phone there still nobody home i have got a pair of gohills boots but i have got fading roots. does anybody here remember vera lynn? remember how she said that we would meet again some sunny day? vera! vera! what has become of you? does anybody else in here feel the way i do? bring the boys back home bring the boys back home do not leave the children on their own bring the boys back home hello is there anybody in there? just nod if you can hear me is there anyone at home? come on now i hear you are feeling down well, i can ease your pain and get you on your feet again relax i will need some information first just the basic facts can you show me where it hurts? there is no pain, you are receding a distant ship smoke on the horizon you are only coming through in waves your lips move but i ca not hear what you are saying when i was a child i had a fever my hands felt just like two balloons now i have got that feeling once again i ca not explain, you would not understand this is not how i am i have become comfortably numb i have become comfortably numb o.k. just a little pin prick there will be no more aaaaaaaah! but you may feel a little sick can you stand up? i do believe it working, good that will keep you going through the show come on, it time to go there is no pain you are receding a distant ship smoke on the horizon you are only coming through in waves your lips move but i ca not hear what you are saying when i was a child i caught a fleeting glimpse out of the corner of my eye i turned to look but it was gone i cannot put my finger on it now the child is grown the dream is gone i have become comfortably numb ooh ma ooh pa must the show go on? ooh pa take me home ooh ma let me go there must be some mistake i did not mean to let them take away my soul am i too old? is it too late? ooh ma ooh pa where has the feeling gone? ooh ma ooh pa will i remember the songs? ooh ah the show must go on. so you thought you might like to go to the show to feel the warm thrill of confusion that space cadet glow i got some bad news for you sunshine pink is not well, he stayed back at the hotel and they sent us along as a surrogate band we are gonna find out where you fans really stand are there any queers in the theatre tonight? get them up against the wall against the wall now there one in the spotlight, he do not look right to me get him up against the wall against the... and that one looks jewish and that one a coon who let all this riff raff into the room? there one smoking a joint and another with spots if i had my way i would have all of you shot run, run, run, run you better make your face up in your favourite disguise with your button down lips and your roller blind eyes with your empty smile and your hungry heart feel the bile rising from your guilty past with your nerves in tatters as the cockleshell shatters and the hammers batter down your door you better run run, run, run, run you better run all day and run all night and keep your dirty feelings deep inside. and if you are taking your girlfriend out tonight you better park the car well out of sight because if they catch you in the back seat trying to pick her locks they are gonna send you back to mother in a cardboard box you better run eins, zwei, drei, alle ooh ooh, you cannot reach me now ooh ooh, no matter how you try goodbye, cruel world, it over walk on by sitting in a bunker here behind my wall waiting for the worms to come worms to come in perfect isolation here behind my wall waiting for the worms to come waiting to cut out the deadwood waiting to clean up the city waiting to follow the worms waiting to put on a black shirt waiting to weed out the weaklings waiting to smash in their windows and kick in their doors waiting for the final solution to strengthen the strain waiting to follow the worms waiting to turn on the showers and fire the ovens waiting for the queens and the coons and the reds and the jews waiting to follow the worms would you like to see britannia rule again my friend? all you have to do is follow the worms would you like to send our coloured cousins home again my friend? all you need to do is follow the worms stop i want to go home take off this uniform and leave the show and i am waiting in this cell because i have to know have i been guilty all this time good morning, the worm your honour the crown will plainly show the prisoner who now stands before you was caught red handed showing feelings showing feelings of an almost human nature this will not do call the schoolmaster! i always said he would come to no good in the end, your honour if they would let me have my way i could have flayed him into shape but my hands were tied the bleeding hearts and artists let him get away with murder let me hammer him today crazy toys in the attic, i am crazy truly gone fishing they must have taken my marbles away crazy toys in the attic he is crazy you little shit, you are in it now i hope they throw away the key you should have talked to me more often than you did, but no, you had to go your own way. have you broken any homes up lately? just five minutes, worm your honour, him and me alone babe come to mother, baby, let me hold you in my arms my lord i never wanted him to get in any trouble why would he ever have to leave me? worm your honour, let me take him home crazy over the rainbow i am crazy bars in the window there must have been a door there in the wall when i came in crazy over the rainbow he is crazy the evidence before the court is incontrovertible. there no need for the jury to retire. in all my years of judging i have never heard before of someone more deserving the full penalty of law. the way you made them suffer your exquisite wife and mother fills me with the urge to defecate go on, judge. shit on him. since, my friend, you have revealed your deepest fear i sentence you to be exposed before your peers. tear down the wall tear down the wall all alone or in twos the ones who really love you walk up and down outside the wall some hand in hand and some gathered together in bands the bleeding hearts and the artists make their stand and when they have given you their all some stagger and fall, after all it not easy banging your heart against some mad bugger wall is not this where we...</t>
-  </si>
-  <si>
-    <t>i am rolling thunder pouring rain i am coming on like a hurricane my lightning flashing across the sky you are only young but you are gonna die i wo not take no prisoners wo not spare no lives nobody putting up a fight i got my bell i am gonna take you to hell i am gonna get you satan get you hells bells hells bells, you got me ringing hells bells, my temperature high hells bells i will give you black sensations up and down your spine if you are into evil you are a friend of mine see the white light flashing as i split the night cause if good on the left then i am sticking to the right i wo not take no prisoners wo not spare no lives nobody putting up a fight i got my bell i am gonna take you to hell i am gonna get you satan get you hells bells hells bells, you got me ringing hells bells, my temperature high hells bells hells bells, satan coming to you hells bells, he ringing them now those hells bells, the temperature high hells bells, across the sky hells bells, they are taking you down hells bells, they are dragging you under hells bells, gonna split the night hells bells, there no way to fight hells bells all you women who want a man of the street do not know which way you want to turn just keep a coming and put your hand out to me cause i am the one who gonna make you burn i am gonna take you down down down down so do not you fool around i am gonna pull it, pull it pull the trigger shoot to thrill play to kill too many women too many pills, yeah shoot to thrill play to kill i got my gun at the ready gonna fire at will i am like evil i get under your skin just like a bomb that ready to blow cause i am illegal i got everything that all you women might need to know i am gonna take you down yeah down, down, down so do not you fool around i am gonna pull it, pull it pull the trigger shoot to thrill play to kill too many women too many pills shoot to thrill play, to kill i got my gun at the ready gonna fire at will cause i shoot to thrill and i am ready to kill i ca not get enough and i ca not get my fill shoot to thrill, play to kill pull the trigger, pull it pull it pull it pull the trigger shoot to thrill play to kill too many women too many pills, said shoot to thrill play to kill i got my gun at the ready gonna fire at will cause i shoot to thrill and i am ready to kill i ca not get enough and i ca not get my fill cause i shoot to thrill, play to kill yeah shoot you down, yeah i am gonna get you down on the bottom girl shoot you, i am gonna shoot you oh yeah, yeah, yeah, yeah i am gonna shoot you down, yeah yeah i am gonna get you down, down down down down shoot you, shoot you, shoot you, shoot you down shoot you, shoot you, shoot you down i am gonna shoot to thrill play to kill shoot to thrill you working in bars riding in cars never gonna give it for free your apartment with a view on the finest avenue looking at your beat on the street you are always pushin', shovin', satisfied with nothing you bitch you must be getting old so stop your life on the road all your digging for gold you make me wonder yes i wonder i wonder honey, what do you do for money honey, what do you do for money where do you get your kicks you are loving on the take and you are always on the make squeezing all the blood outta men they are all standing in a queue just to spend a night with you it business as usual again you are always grabbin', stabbing trying get it back in but girl you must be getting slow so stop your life on the road all your digging for gold you make me wonder yes i wonder yes i wonder honey, what do you do for money honey, what do you do for money what do you do for money honey how do you get your kicks what do you do for money honey how do you get your licks honey, what do you do for money, i said honey, what do you do for money, oh yeah honey, what do you do for money honey, what you gotta do for money honey, what do you do for money what do you gotta do what do you gotta do she take you down easy going down to her knees going down to the devil down down to ninety degrees oh, she blowing me crazy she blowing me crazy until my ammunition is dry oh, she using her head again she using her head oh, she using her head again i am just a giving the dog a bone giving the dog a bone, giving the dog a bone giving the dog a bone i am just a giving the dog a bone giving the dog a bone i am just a giving the dog a bone giving the dog a bone oh, she no mona lisa no she no playboy star but she will send you to heaven then explode you to mars oh, she using her head again she using her head oh, she using her head again i am just a giving the dog a bone giving the dog a bone, giving the dog a bone giving the dog a bone, giving the dog a bone i am just a giving the dog a bone giving the dog a bone i am just a giving the dog a bone giving the dog a bone she got the power of union she only hits when it hot and if she likes what you are doing she will give you the lot give it everything i got just giving the dog a bone giving the dog a bone, giving the dog a bone giving the dog a bone, giving the dog a bone giving the dog a bone, giving the dog a bone giving the dog a bone i am just a giving the dog a bone giving the dog a bone, giving the dog a bone giving the dog a bone i am just a giving the dog a bone giving the dog a bone i am just a giving the dog a bone giving the dog giving the dog i am just a giving the dog a bone flying on a free flight driving all night with my machinery cause i i got the power any hour to show the man in me i got reputations blown to pieces with my artillery well i will be guiding and we will be riding giving what you got to me do not you struggle do not you fight do not you worry cause it your turn tonight let me put my love into you babe let me put my love on the line let me put my love into you babe let me cut your cake with my knife like a fever burning faster you spark the fire in me crazy feelings got me reeling they got me raising steam now do not you struggle do not you fight do not you worry cause it your turn tonight, yeah let me put my love into you babe let me put my love on the line let me put my love into you babe let me cut your cake with my knife oh! come on! let me, let me let me put my love into you babe let me put my love on the line let me put my love into you babe let me cut your cake with my knife let me put my love into you babe let me put my love on the line let me put my love into you babe let me give it all let me give it all to you to you give it all back in black i hit the sack i have been too long i am glad to be back yes i am let loose from the noose that kept me hanging about i kept looking at the sky cause it getting me high forget the hearse cause i will never die i got nine lives cat eyes abusing every one of them and running wild cause i am back yes i am back well i am back yes i am back well i am back back well i am back in black yes i am back in black back in the back of a cadillac number one with a bullet i am a power pack yes i am in a bang with the gang they have got to catch me if they want me to hang cause i am back on the track and i am beating the flack nobody gonna get me on another rap so look at me now i am just making my play do not try to push your luck just get out of my way cause i am back yes i am back well i am back yes i am back well i am back back well i am back in black yes i am back in black well i am back yes i am back well i am back yes i am back well i am back back well i am back in black yes i am back in black ho yeah oh yeah yes i am oh yeah, yeah oh yeah back in now well i am back, i am back back, i am back back, i am back back, i am back back, i am back back back in black yes i am back in black outta sight she was a fast machine she kept her motor clean she was the best damn woman that i ever seen she had the sightless eyes telling me no lies knocking me out with those american thighs taking more than her share had me fighting for air she told me to come but i was already there cause the walls start shaking the earth was quaking my mind was aching and we were making it and you shook me all night long yeah you shook me all night long i am working double time on the seduction line she one of a kind she just mine all mine wanted no applause it just another course made a meal outta me and come back for more had to cool me down to take another round now i am back in the ring to take another swing cause the walls were shaking the earth was quaking my mind was aching and we were making it and you shook me all night long yeah you shook me all night long knocked me out i said you shook me all night long you had me shaking and you shook me all night long yeah you shook me when you took me you really took me and you shook me all night long you shook me all night long yeah, yeah, you shook me all night long you really got me and you shook me all night long yeah you shook me yeah you shook me all night long whiskey gin and brandy with a glass i am pretty handy i am trying to walk a straight line on sour mash and cheap wine so join me for a drink boys we are gonna make a big noise so do not worry about tomorrow take it today forget about the check we will get hell to pay have a drink on me yeah have a drink on me yeah have a drink on me have a drink on me i am dizzy drunk and fightin on tequila white lightnin my glass is getting shorter on whiskey ice and water so come on have a good time and get blinded outta your mind so do not worry about tomorrow take it today forget about the check we will get hell to pay have a drink on me yeah have a drink on me yeah have a drink on me have a drink on me get stoned have a drink on me have a drink on me have a drink on me come on gonna roll around gonna hit the ground take another swig have another drink gonna drink you dry gonna get me high come on all the boys make a noise have a drink on me have a drink on me have a drink on me have a drink on me have a drink on me have a drink on me have a drink on me idle juvenile on the street on the street kicking everything with his feet with his feet fighting on the wrong side of the law of the law do not kick do not fight do not sleep at night and shake a leg shake a leg shake a leg shake it again keeping outta trouble with eyes in the back of my face kicking ass in the class and they tell me i am a damn disgrace they tell me what they think but they stink and i really do not care got a mind of my own move on get outta my hair shake a leg shake your head shake a leg wake the dead shake a leg get stuck in shake a leg shake a leg mob scenes, wet dreams, dirty women on machines for me big licks skin flicks tricky dicks are my chemistry going against the grain tryin to keep me sane with you so stop your grinning and drop your linen for me shake a leg shake your head shake a leg wake the dead shake a leg get stuck in shake a leg shake a leg shake it idle juvenile on the street on the street kicking everything with his feet with his feet fighting on the wrong side of the law of the law spitting and biting and kicking and fighting for more shake a leg shake your head shake a leg wake the dead shake a leg get stuck in shake a leg play to win shake a leg shake your head shake a leg wake the dead shake a leg get stuck in shake a leg shake a leg shake it hey there all you middle men throw away your fancy clothes and while you are out sitting on a fence so get off your arse and come down here cause rock and roll is not no riddle man to me it makes good good sense good sense yeah let go heavy decibels are playing on my guitar we got vibrations coming up from the floor we are just listening to the rock that giving too much noise are you deaf you want to hear some more we are just talking about the future forget about the past it will always be with us it never gonna die never gonna die rock and roll is not noise pollution rock and roll is not gonna die rock and roll is not noise pollution rock and roll it will survive yes it will i took a look inside your bedroom door you looked so good lying on your bed well i asked you if you wanted any rhythm and love you said you want to rock and roll instead we are just talking about the future forget about the past it will always be with us it never gonna die never gonna die rock and roll is not noise pollution rock and roll is not gonna die rock and roll is not noise pollution rock and roll is just rock and roll rock and roll is not noise pollution rock and roll is not gonna die rock and roll is not noise pollution rock and rolling will survive rock and roll is not noise pollution rock and roll will never die rock and roll is not noise pollution rock and roll rock and roll is just rock and roll</t>
-  </si>
-  <si>
-    <t>we all came here for a party tonight and your gonna get left if you do not get right, child so forget your troubles and forget the news we are gonna pull the plug and black out them blues and if your tie to tight then adjust the noose because if your gonna hang tight, cut loose tearing it up and we are buring it down hey daddy hide your daughters until the sun come back around because we all came here to party we came to come unwound so go tell everybody that the boys are back in town just to tear it up and to burn it down we love to hear you stomp and sing just swamp a little southeast western swing thing so just grab unto each other and let go make a little midnight moonlight mo jo when the magic happens let it all hang out if you want to join the fun shout tearing it up and we are buring it down hey daddy hide your daughters until the sun come back around because we all came here to party we came to come unwound so go tell everybody that the boys are back in town just to tear it up and to burn it down tearing it up and we are buring it down hey daddy hide your daughters until that sun come back around because we all came here to party we came to come unwound so go tell everybody that the boys are back in town just to tear it up and to burn it down we know you like to party we know you like to throw it down so go tell everybody let get them all around we are gonna tear it up and burn it down johnny grew up on the dark side of the law living in the shadow of the light he never saw rosie came around in the way that true love does just when you are looking elsewhere for the thing that never was wild as the wind wild as the wind is wild as the wind is love wild as the wind wild as the wind is wild as the wind is love so they team up and they traveled on thier way looking for forever for every yesterday she brings him hope in the way that angels do taking him to heaven in ways he never knew wild as the wind wild as the wind is wild as the wind is love wild as the wind wild as the wind is wild as the wind is love wild as the wind every so often he gets a stray look in his eye she knows how to hold him without ever asking why wild as the wind wild as the wind is wild as the wind is love wild as the wind wild as the wind is wild as the wind is love wild as the wind wild as the wind is wild as the wind is love wild as the wind wild as the wind is wild as the wind is love standing in the spotlight on such a perfect night knowing that your out there listening i remember one time when i was so afraid did not think i had the courage to stand up on this stage then you reached into my heart and you found the melody and if there ever was somebody who made me believe in me it was you it was you it was your song that made me sing it was your voice that gave me wings and it was your light that shined guiding my heart to find this place where i belong it was your song every night i pray before the music starts to play that i will do my best and i wo not let you down and for all the times i have stood here this feeling feels brand new and any time i doubt myself i think of you because it was your song that made me sing it was your voice that gave me wings and it was your light that shined guiding my heart to find this place where i belong it was your song dreams can come true with god great angels like you it was your song that made me sing it was your voice that gave me wings and it was your light that shined guiding my heart to find this place where i belong it was your song it was your song it always been your song</t>
-  </si>
-  <si>
-    <t>you got your big girl now you have got your young one too wondering if some day i could have them the way i once had you i remember your crazy remarks we would get drunk and go out after dark searching for someone we could take home you do not want to be alone you do not want to see the sun go down you do not want to open the door and see her go one step and tomorrow comes two steps and she off with someone three steps and it all you know you will be gone, she will be gone so what are you gonna do about me i will be there when you have no one else i will be there, be your friend hold on strong, do not let go there will never be no one to take your place so do not you want to reach out and take my hand with a little love, and some tenderness we will walk upon the water we will rise above this mess with a little peace, and some harmony we will take the world together we will take them by the hand because i have got a hand for you because i want to run with you yesterday, i saw you standing there your head was down, your eyes were red no comb had touched your hair i said get up, and let me see you smile we will take a walk together walk the road awhile, because because i have got a hand for you i have got a hand for you because i want to run with you wo not you let me run with you? yeah hold my hand want you to hold my hand hold my hand i will take you to a place where you can be hold my hand anything you want to be because i want to love you the best that, the best that i can see i was wasted, and i was wasting time until i thought about your problems, i thought about your crimes then i stood up, and then i screamed aloud i do not want to be part of your problems do not want to be part of your crowd, no because i have got a hand for you i have got a hand for you because i want to run with you ah, wo not you let me run with you? hold my hand want you to hold my hand hold my hand i will take you to the promised land hold my hand maybe we ca not change the world but i want to love you the best that, the best that i can, yeah hold my hand want you to hold my hand hold my hand i will take you to a place where you can be hold my hand anything you want to be because i...oh...no, no, no, no, no hold my hand want you to hold my hand hold my hand i will take you to the promised land hold my hand maybe we ca not change the world but i want to love you the best that, best that i can oh, the best that i can she sits alone by a lamp post trying to find a thought that escaped her mind she says dar the one i love the most but stipe not far behind she never lets me in only tell me where she been when she had too much to drink i say that i do not care i just run my hands through her dark hair then i pray to god you gotta help me fly away and just... let her cry, if the tears fall down like rain let her sing, if it eases all her pain let her go, let her walk right out on me and if the sun comes up tomorrow let her be, let her be. this morning i woke up alone found a note standing by the phone saying maybe, maybe i will be back some day i wanted to look for you you walked in i did not know just what i should do so i sat back down and had a beer and felt sorry for myself saying... let her cry, if the tears fall down like rain let her sing, if it eases all her pain let her go, let her walk right out on me and if the sun comes up tomorrow let her be, let her be. let her cry, if the tears fall down like rain let her sing, if it eases all her pain let her go, let her walk right out on me and if the sun comes up tomorrow let her be, oh, oh. last night i tried to leave cried so much i could not believe she was the same girl i fell in love with long ago she went in the back to get high i sat down on my couch and cried yelling oh mama please help me wo not you hold my hand and... let her cry, if the tears fall down like rain let her sing, if it eases all her pain let her go, let her walk right out on me and if the sun comes up tomorrow let her be, oh, oh. let her cry, if the tears fall down like rain let her sing, if it eases all her pain let her go, let her walk right out on me and if the sun comes up tomorrow let her be, oh, let her be. you and me we come from different worlds you like to laugh at me when i look at other girls sometimes you are crazy and you wonder why i am such a baby because the dolphins make me cry well, there nothing i can do i have been looking for a girl like you you look at me, you got nothing left to say i am gonna pout at you until i get my way i wo not dance, you wo not sing i just want to love you, but you want to wear my ring well, there nothing i can do i only want to be with you you can call me your fool i only want to be with you put on a little dylan sitting on a fence i say, that line is great. you ask me what it meant by said i shot a man named gray took his wife to italy she inherited a million bucks and when she died it came to me i ca not help it if i am lucky i only want to be with you is not bobby so cool? i only want to be with you yeah, i am tangled up in blue i only want to be with you you can call me your fool only want to be with you sometimes i wonder if it will ever end you get so mad at me when i go out with my friends sometimes you are crazy and you wonder why i am such a baby, yeah the dolphins make me cry well, there nothing i can do only want to be with you you can call me your fool i only want to be with you yeah, i am tangled up in blue i only want to be with you i only want to be with you i only want to be with you i only want to be with you do not look a gift horse in the mouth come on try and tell me what you are talkin about those things you are dealing with, you are living a lie every time i see you it makes me want to cry sometimes we would laugh and talk, seems like yesterday then you let the white horse come and take you away they came to get you, it was cold and black the wheels were in motion, there was no turning back running from and angel, runnin to the devil i looked up to you a long time ago but there something i want you to know your lying and cheating really tore us apart please do not come home if you are gonna break my momma heart mama please do not go wo not you stay here for one more day i have been your boy for so long now there so much i still have to say sky rips open, and i hold my heart in my hand like a soldier on his very last day cried myself to sleep that night, and i listened as i heard the angels sing sha la la la sha la la la, i am going home. sha la la la sha la la la, i am going home. something inside makes me scream how could god take you from a little boy he will be alright, he by my side he no little boy, he my pride and joy summer on the radio and the phone rings and it was jeanette she said boy we had to let her go i begged her no, no not yet you left six of us to fend for ourselves i guess it part of someone master plan i see you laughing, you are my best friend you are the light of the lamb, and i cried as the angels sing trouble with the world is we are too busy to think about it, all right why is there a rebel flag hanging from the state house walls? tired of hearing this shit about heritage not hate time to make the world a better place why must we hate one another? well no matter what we gotta live together just that you do not look like me, tell me what do you see when we pass on the street what do you want to see p.e. coming is all i gotta say want to turn and run away they are just telling you how they see it right or wrong they do not care, you wish that they would quit drowning in a sea of tears hatred trying to hide your fears living only for yourself hating everybody else cause they do not look like you nanci singing it a hard life wherever you go about some fat racist living in chicago trying to teach his kids to hate everyone well tell me why is that something you want to teach your son? why must we hate one another? when the people in the church, they tell me you are my brother you do not walk like me, ... you do not talk like me, saying go back to africa, i just do not understand i am trying to be someone that he could look up to, but when i walk down the street, tell me what do you see i am a man, i am a man, i am a man no i am not like you why do you hate me so i do not know, i do not know, i do not know hating everybody else cause they do not look like you time, why you punish me? like a wave crashing into the shore you wash away my dreams time, why you walk away? like a friend with somewhere to go you left me crying can you teach me about tomorrow and all the pain and sorrow running free? because tomorrow just another day and i do not believe in time time, i do not understand children killing in the street dying for the color of a rag time, take their red and blue wash them in the ocean, make them clean maybe their mothers wo not cry tonight can you teach me about tomorrow and all the pain and sorrow running free? but tomorrow just another day and i do not believe in time is wasting time is walking you is not no friend of mine i do not know where i am going i think i am out of my mind thinking about time if i die tomorrow, yeah just lay me down to sleep time is wasting time is walking you is not no friend of mine i do not know where i am going i think i am out of my mind thinking about time time, you left me standing there like a tree growing all alone the wind just stripped me bare, stripped me bare time, the past has come and gone the future far away now only lasts for one second, one second can you teach me about tomorrow and all the pain and sorrow running free? because tomorrow just another day and i do not believe in time time, you is not no friend of mine i do not know where i am going i think i am outta my mind walkin', wasting you is not no friend of mine i do not know where i am going oh no, no, no time without courage and power without faith is just wasted, wasted, wasted time time, why you punish me? i saw her standing there tears upon her cheek told me something was wrong i asked her what it was she looked away and said my daddy home. i knew what that meant it meant that i could never see her again i had seen this once before i did not want to deal with it anymore look away she said, as she turned to me and when i tried to hold her, i could not let her be let her be, let her be i said why, why do you make me cry she said i love you so, look away i do not want to know i saw her standing there tears upon her cheek told me something wrong i said what baby she looked away and said my daddy home look away she said, and she turned to me but darling, oh i loved her, could not let her be let her be, let her be look away, she said i love you so, look away. alone as i sit and watch the trees wo not you tell me if i scream will they bend down and listen to me and it makes me wonder if i know the words will you come or will you laugh at me or will i run little boy says to me, where you going now son i said, i do not know where i am going boy i only know where i am from and it makes me wonder if the stars shine when my eyes close or does my brothers heart cry i do not know i am a stranger in my home now that everybody gone someone please talk to me cause i feel you cry and you are sitting with him and i know i will never see you again lying down in charleston under the carolina sky you see i am tired of feeling this pain i am tired of living my own little lie and it makes me wonder when i see you in my dreams does it mean anything are you trying to talk to me i am a stranger in my home tell me are you feeling alone someone tell me what to do because i am feeling strong and i wonder how you feel do you realize my pain is for real i see you in my dreams and i wonder if you are looking down at me and smiling right now i want to know if it true when he looks at me wo not you tell me does he realize he came down here and he took you too soon and now my days are short an my nights are long i lay down with memories of you keep that keep me going on, going on it makes me wonder as i sit and stare will i see your face again tell me, do you care i am a stranger in my home living life on my own right now i just ca not see because i am feeling weak and my sould begins to bleed and no one is listening to me, not even the trees tomorrow used to be a day away now love is gone and you are into someone far away. i never thought the day would come when i would see his hand, not mine, holding onto yours because i could not find the time. now i ca not deny nothing lasts forever i do not want to leave and i see the tear drops in your eyes i do not want to live to see the day we say goodbye now there comes another part of life that i call alone sitting at a bar with chris and i ca not leave because my house is not no home, no. i just want to touch you girl i want to feel you close to me without your love i would give up now and walk away so easily. so maybe while you are young we will figure out together that even with the pain, there a remedy and we will be all right i do not want to live to see the day we say goodbye. when i first met you i could not love anyone but you stole my dreams and you made me see that i can walk under the sun and i can still be me and now i ca not deny nothing lasts forever. but i do not want to leave and see the teardrops in your eyes so baby while we are young let figure out together that even with the pain there a remedy and we will be all right. i do not want to live to see the day we say goodbye, we say goodbye, oh goodbye, goodbye.</t>
-  </si>
-  <si>
-    <t>i know there nothing to say someone has taken my place when times go bad when times go rough wo not you lay me down in tall grass and let me do my stuff i know i got nothing on you i know there nothing to do when times go bad and you ca not get enough wo not you lay me down in the tall grass and let me do my stuff one thing i think you should know i is not gonna miss you when you go been down so long i have been tossed around enough could not you just let me go down and do my stuff i know you are hoping to find someone who gonna give you peace of mind when times go bad when times go rough wo not you lay me down in tall grass and let me do my stuff i am just second hand news i am just second hand news now here you go again you say you want your freedom well, who am i to keep you down? it only right that you should play the way you feel it but listen carefully to the sound of your loneliness like a heartbeat... drives you mad in the stillness of remembering what you had and what you lost... and what you had... and what you lost thunder only happens when it raining players only love you when they are playing say... women... they will come and they will go when the rain washes you clean... you will know, you will know now here i go again, i see the crystal visions i keep my visions to myself it only me who wants to wrap around your dreams and... have you any dreams you would like to sell? dreams of loneliness... like a heartbeat... drives you mad... in the stillness of remembering what you had... and what you lost... and what you had... and what you lost thunder only happens when it raining players only love you when they are playing women they will come and they will go when the rain washes you clean, you will know oh, thunder only happens when it raining players only love you when they are playing say women they will come and they will go when the rain washes you clean, you will know, you will know you will know, you will know she broke down and let me in made me see where i have been been down one time been down two times i am never going back again you do not know what it means to win come down and see me again been down one time been down two times i am never going back again if you wake up and do not want to smile if it takes just a little while open your eyes and look at the day you will see things in a different way do not stop thinking about tomorrow do not stop, it will soon be here it will be here better than before yesterday gone, yesterday gone why not think about times to come? and not about the things that you have done? if your life was bad to you just think what tomorrow will do do not stop thinking about tomorrow do not stop, it will soon be here it will be here better than before yesterday gone, yesterday gone all i want is to see you smile if it takes just a little while i know you do not believe that it true i never meant any harm to you do not stop thinking about tomorrow do not stop, it will soon be here it will be here better than before yesterday gone, yesterday gone do not stop thinking about tomorrow do not stop, it will soon be here it will be here better than before yesterday gone, yesterday gone do not you look back do not you look back do not you look back do not you look back loving you is not the right thing to do how can i ever change things that i feel? if i could baby i would give you my world how can i when you wo not take it from me? you can go your own way go your own way you can call it another lonely day you can go your own way go your own way tell me why everything turned around packing up shacking up all you want to do if i could baby i would give you my world open up everything waiting for you you can go your own way go your own way you can call it another lonely day you can go your own way go your own way for you, there will be no more crying for you, the sun will be shining and i feel that when i am with you it alright, i know it right to you, i will give the world to you, i will never be cold because i feel that when i am with you it alright, i know it right and the songbirds are singing like they know the score and i love you, i love you, i love you like never before and i wish you all the love in the world but most of all, i wish it from myself and the songbirds keep singing like they know the score and i love you, i love you, i love you like never before like never before like never before listen to the wind blow watch the sun rise run in the shadows damn your love damn your lies and if you do not love me now you will never love me again i can still hear you saying you would never break the chain listen to the wind blow down comes the night run in the shadows damn your love damn your lies break the silence damn the dark damn the light and if you do not love me now you will never love me again i can still hear you saying you would never break the chain chain, keep us together running in the shadows sweet wonderful you, you make me happy with the things you do. oh, can it be so? this feeling follows me wherever i go. i never did believe in miracles, but i have a feeling it time to try. i never did believe in the ways of magic, but i am beginning to wonder why. i never did believe in miracles, but i have a feeling it time to try. i never did believe in the ways of magic, but i am beginning to wonder why. don't, do not break the spell. it would be different, and you know it will. you, you make loving fun, and i do not have to tell you, but you are the only one. you, you make loving fun. it all i want to do. you, you make loving fun. it all i want to do. you, you make loving fun. it all i want to do. you, you make loving fun. it all i want to do. i do not want to know the reasons why our love keeps right on walking on down the line i do not want to stand between you and love, honey i just want you to feel fine i do not want to know the reasons why our love keeps right on walking on down the line i do not want to stand between you and love, honey i just want you to feel fine finally baby the truth has come down now take a listen to your spirit it crying out loud try to believe you say you love me, but you do not know you got me rocking and a reeling i do not want to know the reasons why our love keeps right on walking on down the line i do not want to stand between you and love, honey i just want you to feel fine i do not want to know the reasons why our love keeps right on walking on down the line i do not want to stand between you and love, honey i just want you to feel fine finally baby the truth has been told now you tell me that i am crazy it nothing that i did not know trying to survive you say you love me, but you do not know you got me rocking and a reeling hanging onto you i do not want to know the reasons why our love keeps right on walking on down the line i do not want to stand between you and love, honey, take a little time oh, i do not want to know oh daddy, you know you make me cry, how can you love me, i do not understand why. oh daddy, if i can make you see, if there been a fool around, it got to be me. oh daddy, you soothe me with your smile, you are letting me know, you are the best thing in my life. oh daddy, if i can make you see, if there been a fool around, it got to be me. why are you right when i am so wrong, i am so weak but you are so strong, everything you do is just alright, and i ca not walk away from you, baby if i tried. rock on, gold dust woman take your silver spoon and dig your grave heartless challenge pick your path and i will pray wake up in the morning see your sunrise loves to go down lousy lovers pick their prey but they never cry out loud, cry out well, did she make you cry, make you break down, shatter your illusions of love? and is it over now? do you know how? pick up the pieces and go home rock on, ancient queen follow those who pale in your shadow rulers make bad lovers you better put your kingdom up for sale, up for sale well, did she make you cry, make you break down, shatter your illusions of love? and is it over now? do you know how? pick up the pieces and go home well, did she make you cry, make you break down, shatter your illusions of love? and now tell me is it over now? do you know how? pick up the pieces and go home go home go home ooh, pale shadow of a woman, black widow, pale shadow of a dragon, dust woman. ooh, pale shadow of a woman, black widow, ooh, pale shadow, she a dragon, gold dust woman</t>
-  </si>
-  <si>
-    <t>let go girls! come on. i am going out tonight i am feeling alright gonna let it all hang out want to make some noise really raise my voice yeah, i want to scream and shout no inhibitions make no conditions get a little outta line i is not gonna act politically correct i only want to have a good time the best thing about being a woman is the prerogative to have a little fun oh, oh, oh, go totally crazy forget i am a lady men shirts short skirts oh, oh, oh, really go wild yeah, doing it in style oh, oh, oh, get in the action feel the attraction color my hair do what i dare oh, oh, oh, i want to be free yeah, to feel the way i feel man! i feel like a woman! the girls need a break tonight we are gonna take the chance to get out on the town we do not need romance we only want to dance we are gonna let our hair hang down the best thing about being a woman is the prerogative to have a little fun oh, oh, oh, go totally crazy forget i am a lady men shirts short skirts oh, oh, oh, really go wild yeah, doing it in style oh, oh, oh, get in the action feel the attraction color my hair do what i dare oh, oh, oh, i want to be free yeah, to feel the way i feel man! i feel like a woman! the best thing about being a woman is the prerogative to have a little fun fun, fun oh, oh, oh, go totally crazy forget i am a lady men shirts short skirts oh, oh, oh, really go wild yeah, doing it in style oh, oh, oh, get in the action feel the attraction color my hair do what i dare oh, oh, oh, i want to be free yeah, to feel the way i feel man! i feel like a woman! i get totally crazy can you feel it come, come, come on baby i feel like a woman i do not need a shrink to tell me what to think there is not no missing link in my love life it alright, i is not that uptight i do not need a psychic because i do not really like it when someone tries to tell me just what my future holds i already know your love keeps me alive you are all i need to survive i got you by my side so i am holding on i am feeling strong baby you are the one for all my life! yeah i am holding out there is not no doubt i ca not live without you all my life! i am holding on to love to save my life i do not need to get all caught up on the net because i am already set ca not you understand already got my man no i do not need proof to show me the truth, not even dr. ruth is gonna tell me how i feel i know our love is real your love keeps me alive you are all i need to survive i got you by my side so i am holding on i am feeling strong baby you are the one for all my life! yeah i am holding out there is not no doubt i ca not live without you all my life! i am holding on to love to save my life i am holding on to love to save my life your love keeps me alive you are all i need to survive i got you by my side so i am holding on i am feeling strong baby you are the one for all my life! yeah i am holding out there is not no doubt i ca not live without you all my life! i am holding on to love to save my life save me, save me, save me save my life life was going great love was gonna have to wait was in no hurry had no worries staying single was the plan did not need a steady man i had it covered until i discovered that love gets me every time my heart changed my mind i gol darn gone and done it gone and done it gone and done it guess i fell in love gone and done it must have been the way he walked gone and done it or his sweet, sweet talk gone and done it i guess i gol darn gone and done it i was quite content just a paying my own rent it was my place i needed my space i was free to shop around in no rush to settle down i had it covered until i discovered that love gets me every time my heart changed my mind i gol darn gone and done it gone and done it gone and done it guess i fell in love gone and done it must have been the way he walked gone and done it or his sweet, sweet talk gone and done it i guess i gol darn gone and done it love gets me every time my heart changed my mind i gol darn gone and done it gone and done it gone and done it guess i fell in love gone and done it must have been the way he walked gone and done it or his sweet, sweet talk gone and done it it in the way he calls my name gone and done it i know i will never be the same gone and done it love gets me every time my heart changed my mind i gol darn gone and done it thought i had it covered life was going great well i gol darn gone and done it you are so complicated you hang over my shoulder when i read my mail i do not appreciate it when i talk to other guys you think they are on my tail i get so aggravated when i get off the phone and i get the third degree i am really feeling frustrated why do not you take a pill and put a little trust in me and you will see do not freak out until you know the facts relax do not be stupid you know i love you do not be ridiculous you know i need you do not be absurd you know i want you do not be impossible i am mad about you i am mad about you ca not live without you ca not live without you i am crazy about you i am crazy about you so do not be stupid you know i love you stop overreacting you even get suspicious when i paint my nails it definitely distracting the way you dramatize every little small detail do not freak out until you know the facts relax max do not be stupid you know i love you do not be ridiculous you know i need you do not be absurd you know i want you do not be impossible i am mad about you i am mad about you ca not live without you ca not live without you i am crazy about you i am crazy about you do not be stupid you know i love you do not be stupid you are my baby i am mad about you i am mad about you ca not live without you ca not live without you i am crazy about you i am crazy about you do not be stupid you know i love you do not be ridiculous you know i need you do not be absurd you know i want you do not be impossible i do swear that i will always be there i would give anything and everything and i will always care through weakness and strength, happiness and sorrow, for better for worse, i will love you with every beat of my heart from this moment life has begun from this moment you are the one right beside you is where i belong from this moment on from this moment i have been blessed i live only for your happiness and for your love i would give my last breath from this moment on i give my hand to you with all my heart i ca not wait to live my life with you i ca not wait to start you and i will never be apart my dreams came true because of you from this moment as long as i live i will love you, i promise you this there is nothing i would not give from this moment on you are the reason i believe in love and you are the answer to my prayers from up above all we need is just the two of us my dreams came true because of you from this moment as long as i live i will love you, i promise you this there is nothing i would not give from this moment i will love you as long as i live from this moment on get a life get a grip get away somewhere, take a trip take a break take control take advice from someone you know come on over come on in pull up a seat take a load off your feet come on over come on in you can unwind take a load off your mind make a wish make a move make up your mind you can choose when you are up when you are down when you need a laugh come around come on over come on in pull up a seat take a load off your feet come on over come on in you can unwind take a load off your mind oh, oh, oh... be a winner be a star be happy to be who you are gotta be yourself gotta make a plan gotta go for it while you can come on over come on in pull up a seat take a load off your feet come on over come on in you can unwind take a load off your mind get a life get a grip get away somewhere, take a trip take a break take control take advice from someone you know come on over come on in pull up a seat take a load off your feet come on over come on in you can unwind take a load off your mind oh, oh, oh... if elephants could fly i would be a little more optimistic but i do not see that happening anytime soon i do not mean to sound so pessimistic but i do not think that cow really jumped over the moon when will i wake up? why did we break up? when will we make up? when money grows on trees people live in peace everyone agrees when happiness is free love can guarantee you will come back to me that when i would love to wake up smiling full of the joys of spring and hear on cnn that elvis lives again and that john back with the beatles and they are going out on tour i will be the first in line for tickets gotta see that show for sure when will i wake up? why did we break up? when will we make up? when money grows on trees people live in peace everyone agrees when happiness is free love can guarantee you will come back to me that when when will i wake up? why did we break up? when will we make up? when money grows on trees people live in peace everyone agrees when happiness is free love can guarantee you will come back to me that when deep in denialville trying a' fight the way i feel i go jello when you smile i start blushing my head rushing if you stand too close to me i might melt down from the heat if ya look my way one more time i am gonna go out of my mind whatever you do... do not even think about it! do not go and get me started! do not you dare drive me crazy! do not do that to me baby! you stop me in my tracks my heart pumping to the max i am such a sucker for your eyes they permanently paralyze whatever you do... do not even think about it! do not go and get me started! do not you dare drive me crazy! do not do that to me baby! whatever you do, do not do that to me you got my heart under attack you give me shivers down my back would you have to walk the way you do? i get weak just watching you whatever you do... do not even think about it! do not go and get me started! do not you dare drive me crazy! do not do that to me baby! do not do that do not do that let me let you in on a secret how to treat a woman right if you are looking for a place in her heart it is not gonna happen overnight first you gotta learn to listen to understand her deepest thoughts she needs to know you can be friends before she will give you all she got if you start from the heart you will see love is gonna play it part if you want to get to know her really get inside her mind if you want to move in closer take it slow, yeah take your time you must start from the heart and then... if you want to touch her really want to touch her if you want to touch her, ask! a little physical attraction romantic, old fashioned charm and a lot of love and tenderness is gonna get you into her arms if you start from the heart you will see love is gonna play it part if you want to get to know her really get inside her mind if you want to move in closer take it slow, yeah take your time you must start from the heart and then... if you want to touch her really want to touch her if you want to touch her, ask! let me let you in on a secret how to treat a woman right if you are looking for a place in her heart it is not gonna happen overnight if you want to get to know her really get inside her mind if you want to move in closer take it slow, yeah take your time you must start from the heart and then... if you want to touch her really want to touch her if you want to touch her, ask! when i first saw you, i saw love and the first time you touched me, i felt love and after all this time, you are still the one i love looks like we made it look how far we have come, my baby we mighta took the long way we knew we would get there someday they said, i bet they will never make it but just look at us holding on we are still together, still going strong you are still the one you are still the one i run to the one that i belong to you are still the one i want for life you are still the one you are still the one that i love the only one i dream of you are still the one i kiss good night is not nothing better we beat the odds together i am glad we did not listen look at what we would be missing they said, i bet they will never make it but just look at us holding on we are still together still going strong you are still the one you are still the one i run to the one that i belong to you are still the one i want for life you are still the one you are still the one that i love the only one i dream of you are still the one i kiss good night you are still the one you are still the one you are still the one i run to the one that i belong to you are still the one i want for life you are still the one you are still the one that i love the only one i dream of you are still the one i kiss good night i am so glad we made it look how far we have come, my baby the car wo not start it falling apart i was late for work and the boss got smart my pantyline shows got a run in my hose my hair went flat man, i hate that just when i thought things could not get worse i realized i forgot my purse with all this stress i must confess this could be worse than pms this job is not worth the pay ca not wait until the end of the day honey, i am on my way hey! hey! hey! hey! honey, i am home and i had a hard day pour me a cold one and oh, by the way rub my feet, gimme something to eat fix me up my favorite treat honey, i am back, my head killing me i need to relax and watch tv get off the phone give the dog a bone hey! hey! honey, i am home! i broke a nail opening the mail i cursed out loud because it hurt like hell this job a pain it so mundane it sure do not stimulate my brain this job is not worth the pay ca not wait until the end of the day honey, i am on my way hey! hey! hey! hey! honey, i am home and i had a hard day pour me a cold one and oh, by the way rub my feet, gimme something to eat fix me up my favorite treat honey, i am back, my head killing me i need to relax and watch tv get off the phone give the dog a bone hey! hey! honey, i am home! oh, rub my neck will you honey, i am home and i had a hard day pour me a cold one and oh, by the way rub my feet, gimme something to eat fix me up my favorite treat honey, i am back, my head killing me i need to relax and watch tv get off the phone give the dog a bone hey! hey! honey, i am home! i am home, that feels much better i have known a few guys who thought they were pretty smart but you have got being right down to an art you think you are a genius, you drive me up the wall you are a regular original, a know it all oh oo oh, you think you are special oh oo oh, you think you are something else ok, so you are a rocket scientist that do not impress me much so you got the brain but have you got the touch? now do not get me wrong, yeah, i think you are alright but that wo not keep me warm in the middle of the night that do not impress me much i never knew a guy who carried a mirror in his pocket and a comb up his sleeve just in case and all that extra hold gel in your hair oughtta lock it because heaven forbid it should fall outta place oh oo oh, you think you are special oh oo oh, you think you are something else ok, so you are brad pitt that do not impress me much so you got the looks but have you got the touch? now do not get me wrong, yeah, i think you are alright but that wo not keep me warm in the middle of the night that do not impress me much you are one of those guys who likes to shine his machine you make me take off my shoes before you let me get in i ca not believe you kiss your car good night now, c'mon, baby, tell me? you must be jokin', right? oh oo oh, you think you are special oh oo oh, you think you are something else ok, so you have got a car that do not impress me much so you got the moves but have you got the touch? now do not get me wrong, yeah, i think you are alright but that wo not keep me warm in the middle of the night that do not impress me much you think you are cool but have you got the touch? now do not get me wrong, yeah, i think you are alright but that wo not keep me warm on the long, cold, lonely night that do not impress me much ok. so, what do you think? you are elvis or something? that do not impress me much! that do not impress me much! black eyes, i do not need them blue tears, gimme freedom positively never going back i wo not live where things are so out of whack no more rolling with the punches no more using or abusing i would rather die standing than live on my knees begging please no more black eyes i do not need them blue tears gimme freedom black eyes all behind me blue tears will never find me now definitley found my self esteem finally i am forever free to dream no more crying in the corner no excuses no more bruises i would rather die standing than live on my knees begging please no more black eyes i do not need them blue tears gimme freedom black eyes all behind me blue tears will never find me now i would rather die standing than live on my knees, begging please... black eyes i do not need them blue tears gimme freedom black eyes all behind me blue tears will never find me now it all behind me, they will never find me now find your self esteem and be forever free to dream together midnight in summer the air so much warmer falling in love under starlight holding on so tight together i wo not leave you lonely tonight i want you to hold me all night it gonna be alright i wo not leave you lonely tonight imagine the air filled with jasmine the breeze blows with passion you and me dance with desire the moon is on fire imagine i wo not leave you lonely tonight i want you to hold me all night it gonna be alright i wo not leave you lonely tonight je love you beaucoup mon amour you are the one i adore i wo not leave you lonely tonight i want you to hold me all night it gonna be alright no you wo not be lonely tonight na na na... te amo mucho mi amor you are the one i adore te amo i woke up this morning with a buzz rolling around in my brain i have not been drinking but it feels pretty good just the same it must be contagious looks like it going around it cool once you catch it you ca not keep your feet on the ground c'mon, come on let get something started c'mon, come on let start something now we are gonna rock this country we are gonna rock this country every brown eyed boy every blue eyed girl gotta really go psycho give it a whirl we are gonna rock this country right out of this world ah oo na na na... from utah to texas, minnesota, mississippi too or nevada, no matter where you live this buzz is for you c'mon, come on let get something started c'mon, come on let start something now we are gonna rock this country we are gonna rock this country every brown eyed boy every blue eyed girl gotta really go psycho give it a whirl we are gonna rock this country right out of this world ah oo na na na... ah oo na na na... we are plugging in the power cranking up the sound it coming your direction it heading to your town we are kicking up dust blowing off steam let get nuts now everybody scream we are gonna rock this country we are gonna rock this country every brown eyed boy every blue eyed girl gotta really go psycho give it a whirl we are gonna rock this country right out of this world ah oo na na na... you have got a way with me somehow you got me to believe in everything that i could be i have gotta say you really got a way you have got a way it seems you gave me faith to find my dreams you will never know just what that means ca not you see... you got a way with me it in the way you want me it in the way you hold me the way you show me just what love made of it in the way we make love you have got a way with words you get me smiling even when it hurts there no way to measure what your love is worth i ca not believe the way you get through to me it in the way you want me it in the way you hold me the way you show me just what love made of it in the way we make love oh, how i adore you like no one before you i love you just the way you are it in the way you want me it in the way you hold me the way you show me just what love made of it in the way we make love it just the way you are</t>
-  </si>
-  <si>
-    <t>oh, flew in by miami beach b.o.a.c. did not get to bed last night on the way the paper bag was on my knee man i had a dreadful flight i am back in the u.s.s.r. you do not know how lucky you are boy back in the u.s.s.r. yeah been away so long i hardly knew the place gee it good to be back home leave it until tomorrow to unpack my case honey disconnect the phone i am back in the u.s.s.r. you do not know how lucky you are boy back in the u.s. back in the u.s. back in the u.s.s.r. well the ukraine girls really knock me out they leave the west behind and moscow girls make me sing and shout that georgia always on my my my my my my my my my mind aw come on! ho yeah! ho yeah! ho ho yeah! yeah yeah! yeah i am back in the u.s.s.r. you do not know how lucky you are boys back in the u.s.s.r. well the ukraine girls really knock me out they leave the west behind and moscow girls make me sing and shout that georgia always on my my my my my my my my my mind oh, show me around your snow peaked mountains way down south take me to your daddy farm let me hear your balalaikas ringing out come and keep your comrade warm i am back in the u.s.s.r. hey you do not know how lucky you are boys back in the u.s.s.r. oh let me tell you, honey hey, i am back! i am back in the u.s.s.r. yes, i am free! yeah, back in the u.s.s.r. ha ha dear prudence, wo not you come out to play? dear prudence, greet the brand new day the sun is up, the sky is blue it beautiful and so are you dear prudence, wo not you come out to play? dear prudence, open up your eyes dear prudence, see the sunny skies the wind is low, the birds will sing that you are part of everything dear prudence, wo not you open up your eyes? look around round look around round round look around dear prudence, let me see you smile dear prudence, like a little child the clouds will be a daisy chain so let me see you smile again dear prudence, wo not you let me see you smile? dear prudence, wo not you come out to play? dear prudence, greet the brand new day the sun is up, the sky is blue it beautiful and so are you dear prudence, wo not you come out to play? i told you about strawberry fields you know the place where nothing is real well here another place you can go where everything flows looking through the bent backed tulips to see how the other half live looking through a glass onion i told you about the walrus and me, man you know that we are as close as can be, man well here another clue for you all the walrus was paul standing on the cast iron shore, yeah lady madonna trying to make ends meet, yeah looking through a glass onion oh yeah oh yeah oh yeah looking through a glass onion i told you about the fool on the hill i tell you man he living there still well here another place you can be listen to me fixing a hole in the ocean trying to make a dove tail joint, yeah looking through a glass onion desmond has a barrow in the market place molly is the singer in a band desmond says to molly, girl, i like your face and molly says this as she takes him by the hand ob la di ob la da life goes on bra la la how their life goes on ob la di ob la da life goes on bra la la how their life goes on desmond takes a trolley to the jeweler stores buys a twenty carat golden ring golden ring? takes it back to molly waiting at the door and as he gives it to her she begins to sing sing ob la di ob la da life goes on bra la la how their life goes on ob la di ob la da life goes on bra la la how their life goes on, yeah no in a couple of years they have built a home sweet home with a couple of kids running in the yard of desmond and molly jones ah ha ha ha ha ha happy ever after in the market place desmond lets the children lend a hand arm! leg! molly stays at home and does her pretty face and in the evening she still sings it with the band yes, ob la di ob la da life goes on bra la la how their life goes on ha ha ha hey, ob la di ob la da life goes on bra la la how their life goes on in a couple of years they have built a home sweet home with a couple of kids running in the yard of desmond and molly jones ha ha ha ha ha ha ha ha ha ha yeah, happy ever after in the market place molly lets the children lend a hand foot! desmond stays at home and does his pretty face and in the evening she a singer with the band yeah, ob la di ob la da life goes on bra la la how their life goes on yeah, ob la di ob la da life goes on bra la la how their life goes on and if you want some fun take ob la di ob la da thank you, uh, ha ha ha! honey pie honey pie honey pie honey pie honey pie honey pie honey pie honey pie i love you, honey pie hey, bungalow bill what did you kill, bungalow bill? hey, bungalow bill what did you kill, bungalow bill? he went out tiger hunting with his elephant and gun in case of accidents he always took his mum he the all american bullet headed saxon mother son all the children sing hey, bungalow bill what did you kill, bungalow bill? hey, bungalow bill what did you kill, bungalow bill? deep in the jungle where the mighty tiger lies bill and his elephants were taken by surprise so captain marvel zapped him right between the eyes, zap! all the children sing hey, bungalow bill what did you kill, bungalow bill? hey, bungalow bill what did you kill, bungalow bill? the children asked him if to kill was not a sin not when he looked so fierce , his mummy butted in if looks could kill it would have been us instead of him all the children sing hey, bungalow bill what did you kill, bungalow bill? hey, bungalow bill what did you kill, bungalow bill? oh ho! hey, bungalow bill what did you kill, bungalow bill? hey, bungalow bill what did you kill, bungalow bill? hey, bungalow bill what did you kill, bungalow bill? hey, bungalow bill what did you kill, bungalow bill? hey, bungalow bill what did you kill, bungalow bill? hey, bungalow bill what did you kill, bungalow bill? ey op! i look at you all, see the love there that sleeping while my guitar gently weeps i look at the floor and i see it needs sweeping still my guitar gently weeps i do not know why nobody told you how to unfold your love i do not know how someone controlled you they bought and sold you i look at the world and i notice it turning while my guitar gently weeps with every mistake we must surely be learning still my guitar gently weeps well... i do not know how you were diverted you were perverted too i do not know how you were inverted no one alerted you i look at you all, see the love there that sleeping i look from the wings at the play you are staging. while my guitar gently weeps look at you all as i am sitting here doing nothing but aging still my guitar gently weeps oh, oh oh, oh, oh, oh, oh, oh, oh oh, oh, oh, oh yeah, yeah, yeah, yeah, yeah yeah, yeah, yeah, yeah, oh, ooh she not a girl who misses much do do do do do do do do, oh yeah she well acquainted with the touch of the velvet hand like a lizard on a window pane the man in the crowd with the multicoloured mirrors on his hobnail boots lying with his eyes while his hands are busy working overtime a soap impression of his wife which he ate and donated to the national trust down i need a fix because i am going down down to the bits that i left uptown i need a fix because i am going down mother superior jump the gun mother superior jump the gun mother superior jump the gun mother superior jump the gun mother superior jump the gun mother superior jump the gun happiness is a warm gun happiness bang, bang, shoot, shoot happiness is a warm gun, mama happiness bang, bang, shoot, shoot when i hold you in my arms oo oo oh yeah and i feel my finger on your trigger oo oo oh yeah i know nobody can do me no harm oo oo oh yeah because happiness is a warm gun, mama happiness bang, bang, shoot, shoot happiness is a warm gun, yes it is happiness bang, bang, shoot, shoot happiness is a warm, yes it is, gun happiness bang, bang, shoot, shoot well, do not you know that happiness is a warm gun, mama? happiness is a warm gun, yeah martha my dear though i spend my days in conversation please remember me martha my love do not forget me martha my dear hold your head up you silly girl look what you have done when you find yourself in the thick of it help yourself to a bit of what is all around you silly girl take a good look around you take a good look you are bound to see that you and me were meant to be for each other silly girl hold your hand out you silly girl see what you have done when you find yourself in the thick of it help yourself to a bit of what is all around you silly girl martha my dear you have always been my inspiration please be good to me martha my love do not forget me martha my dear i am so tired, i have not slept a wink i am so tired, my mind is on the blink i wonder should i get up and fix myself a drink no, no, no i am so tired i do not know what to do i am so tired my mind is set on you i wonder should i call you but i know what you would do you would say i am putting you on but it no joke, it doing me harm you know i ca not sleep, i ca not stop my brain you know it three weeks, i am going insane you know i would give you everything i have got for a little peace of mind i am so tired, i am feeling so upset although i am so tired i will have another cigarette and curse sir walter raleigh he was such a stupid git you would say i am putting you on but it no joke, it doing me harm you know i ca not sleep, i ca not stop my brain you know it three weeks, i am going insane you know i would give you everything i have got for a little peace of mind i would give you everything i have got for a little peace of mind i would give you everything i have got for a little peace of mind monsieur, monsieur, monsieur, how about another one? blackbird singing in the dead of night take these broken wings and learn to fly all your life you were only waiting for this moment to arise blackbird singing in the dead of night take these sunken eyes and learn to see all your life you were only waiting for this moment to be free black bird fly, black bird fly into the light of the dark black night black bird fly, black bird fly into the light of the dark black night blackbird singing in the dead of night take these broken wings and learn to fly all your life you were only waiting for this moment to arise you were only waiting for this moment to arise you were only waiting for this moment to arise have you seen the little piggies crawling in the dirt? and for all the little piggies life is getting worse always having dirt to play around in have you seen the bigger piggies in their starched white shirts? you will find the bigger piggies stirring up the dirt always have clean shirts to play around in in their styes with all their backing they do not care what goes on around in their eyes there something lacking what they need a damn good whacking everywhere there lots of piggies living piggy lives you can see them out for dinner with their piggy wives clutching forks and knives to eat their bacon one more time... now somewhere in the black mountain hills of dakota there lived a young boy named rocky raccoon and one day his woman ran off with another guy hit young rocky in the eye rocky did not like that he said i am gonna get that boy so one day he walked into town booked himself a room in the local saloon rocky raccoon checked into his room only to find gideon bible rocky had come, equipped with a gun to shoot off the legs of his rival his rival, it seems, had broken his dreams by stealing the girl of his fancy her name was magill, and she called herself lil but everyone knew her as nancy now she and her man, who called himself dan were in the next room at the hoedown rocky burst in, and grinning a grin he said, danny boy, this is a showdown but daniel was hot, he drew first and shot and rocky collapsed in the corner, ah    da da da    da da da    da     do do do do do do    do do do    do do do    do do     do do do do do do now, the doctor came in, stinking of gin and proceeded to lie on the table he said, rocky, you met your match and rocky said, doc, it only a scratch and i will be better, i will be better, doc, as soon as i am able and now rocky raccoon, he fell back in his room only to find gideon bible gideon checked out and he left it no doubt to help with good rocky revival, ah oh yeah, yeah    do do do    do do do    do do     do do do do do do    do do do, come on, rocky boy    do do do, come on, rocky boy    do do     the story of rocky there i listen for your footsteps coming up the drive listen for your footsteps but they do not arrive waiting for your knock, dear on my old front door i do not hear it does it mean you do not love me any more? i hear the clock are ticking on the mantel shelf see the hands are moving but i am by myself i wonder where you are tonight and why i am by myself i do not see you does it mean you do not love me any more? do not pass me by, do not make me cry, do not make me blue cause you know darling i love only you you will never know it hurt me so how i hate to see you go do not pass me by, do not make me cry i am sorry that i doubted you i was so unfair you were in a car crash and you lost your hair you said that you would be late about an hour or two i said that alright i am waiting here just waiting to hear from you do not pass me by, do not make me cry, do not make me blue cause you know darling i love only you you will never know it hurt me so how i hate to see you go do not pass me by, do not make me cry why do not we do it in the road? mm why do not we do it in the road? ah why do not we do it in the road? mm why do not we do it in the road? mm no one will be watching us why do not we do it in the road? why do not we do it in the road? why do not we do it in the road? why do not we do it in the road? why do not we do it in the road? no one will be watching us why do not we do it in the road? ooh why do not we do it in the road? why do not we do it in the road? why do not we do it, do it in the road? why do not we do it in the road? no one will be watching us why do not we do it in the road? who knows how long i have loved you you know i love you still will i wait a lonely lifetime if you want me to, i will for if i ever saw you i did not catch your name but it never really mattered i will always feel the same love you forever and forever love you with all my heart love you whenever we are together love you when we are apart and when at last i find you your song will fill the air sing it loud so i can hear you make it easy to be near you for the things you do endear you to me oh, you know i will i will mm mm mm mm mm mm mm mm mm da da da da da da da half of what i say is meaningless but i say it just to reach you, julia julia, julia, oceanchild, calls me so i sing a song of love, julia julia, seashell eyes, windy smile, calls me so i sing a song of love, julia her hair of floating sky is shimmering, glimmering in the sun julia, julia, morning moon, touch me so i sing a song of love, julia when i cannot sing my heart i can only speak my mind, julia julia, sleeping sand, silent cloud, touch me so i sing a song of love, julia hum hum hum hum... calls me so i sing a song of love for julia, julia, julia they say it your birthday it my birthday too, yeah they say it your birthday we are gonna have a good time i am glad it your birthday happy birthday to you ah ah ah come on come on yes we are going to a party party yes we are going to a party party yes we are going to a party party i would like you to dance birthday take a cha cha cha chance birthday i would like you to dance birthday dance yeah oh come on i would like you to dance birthday take a cha cha cha chance birthday i would like you to dance birthday oh dance! dance they say it your birthday well it my birthday too, yeah they say it your birthday we are gonna have a good time i am glad it your birthday happy birthday to you two, three yes i am lonely want to die yes i am lonely want to die if i is not dead already ooh girl you know the reason why in the morning want to die in the evening want to die if i is not dead already ooh girl you know the reason why my mother was of the sky my father was of the earth but i am of the universe and you know what it worth i am lonely want to die if i is not dead already ooh girl you know the reason why the eagle picks my eye the worm he licks my bone i feel so suicidal just like dylan mr. jones lonely want to die if i is not dead already ooh girl you know the reason why black cloud crossed my mind blue mist around my soul feel so suicidal even hate my rock and roll want to die yeah want to die if i is not dead already ooh girl you know the reason why want to die yes, i am lonely want to die the only reason why want to die born a poor young country boy, mother nature son all day long i am sitting singing songs for everyone sit beside a mountain stream, see her waters rise listen to the pretty sound of music as she flies doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo find me in my field of grass, mother nature son swaying daisies sing a lazy song beneath the sun doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo yeah yeah yeah mm mm mm mm mm mm mm mm mm mm, ooh ooh ooh mm mm mm mm mm mm mm mm mm mm mm, wah wah wah wah, mother nature son come on come on come on come on come on it such a joy come on it such a joy come on let take it easy come on let take it easy take it easy take it easy everybody got something to hide except for me and my monkey ooh the deeper you go the higher you fly the higher you fly the deeper you go so come on come on come on come on it such a joy come on it such a joy come on let make it easy come on let take it easy oh take it easy yeh yeh yeh take it easy hoo everybody got something to hide except for me and my monkey, yeah oh! your inside is out when your outside is in your outside is in when your inside is out so come on ho come on ho come on it such a joy come on it such a joy come on let make it easy come on let make it easy make it easy hoo make it easy hoo everybody got something to hide except for me and my monkey hey! come on, come on, come on, come on, come on come on, come on, come on... come on, come on, come on, come on, come on come on, come on, come on... sexy sadie what have you done you made a fool of everyone you made a fool of everyone sexy sadie ooh what have you done sexy sadie you broke the rules you layed it down for all to see you layed it down for all to see sexy sadie oooh you broke the rules one sunny day the world was waiting for a lover she came along to turn on everyone sexy sadie the greatest of them all sexy sadie how did you know the world was waiting just for you the world was waiting just for you sexy sadie oooh how did you know sexy sadie you will get yours yet however big you think you are however big you think you are sexy sadie oooh you will get yours yet we gave her everything we owned just to sit at her table just a smile would lighten everything sexy sadie she the latest and the greatest of them all she made a fool of everyone sexy sadie however big you think you are sexy sadie when i get to the bottom i go back to the top of the slide where i stop and i turn and i go for a ride till i get to the bottom and i see you again yeah yeah yeah hey do you, do not you want me to love you i am coming down fast but i am miles above you tell me tell me tell me come on tell me the answer well you may be a lover but you is not no dancer now helter skelter helter skelter helter skelter yeah ooh! will you, wo not you want me to make you i am coming down fast but do not let me break you tell me tell me tell me the answer you may be a lover but you is not no dancer look out helter skelter helter skelter helter skelter ooh look out, cos here she comes when i get to the bottom i go back to the top of the slide and i stop and i turn and i go for a ride and i get to the bottom and i see you again yeah yeah yeah well do you, do not you want me to make you i am coming down fast but do not let me break you tell me tell me tell me the answer you may be a lover but you is not no dancer look out helter skelter helter skelter helter skelter look out helter skelter she coming down fast yes she is yes she is coming down fast my head is spinning, ooh... ha ha ha, ha ha ha, alright! i got blisters on my fingers! it been a long long long time how could i ever have lost you when i loved you it took a long long long time now i am so happy i found you how i love you so many tears i was searching so many tears i was wasting, oh oh now i can see you, be you how can i ever misplace you how i want you oh i love you you know that i need you ooh i love you oh ah, take ok! you say you want a revolution well you know we all want to change the world you tell me that it evolution well you know we all want to change the world but when you talk about destruction do not you know that you can count me out in do not you know it gonna be alright do not you know it gonna be alright do not you know it gonna be alright you say you got a real solution well you know we would all love to see the plan you ask me for a contribution well you know we are doing what we can but if you want money for people with minds that hate all i can tell you is brother you have to wait do not you know it gonna be alright do not you know it gonna be alright do not you know it gonna be alright you say you will change the constitution well you know we would all love to change your head you tell me it the institution well you know you better free your mind instead but if you go carrying pictures of chairman mao you is not going to make it with anyone anyhow do not you know it gonna be alright do not you know it gonna be alright do not you know it gonna be alright oh, oh, oh, oh, oh, oh, oh, oh, oh, oh alright, alright, alright, alright, alright alright, alright, alright, alright, alright oh, oh, oh, oh, oh, oh alright, alright, alright alright alright she was a working girl north of england way now she hit the big time in the usa and if she could only hear me this is what i would say honey pie you are making me crazy i am in love but i am lazy so wo not you please come home oh honey pie my position is tragic come and show me the magic of your hollywood song you became a legend of the silver screen and now the thought of meeting you makes me weak in the knee oh honey pie you are driving me frantic sail across the atlantic to be where you belong honey pie come back to me, oh yeah i like it like that, oh ah i like this kind of hot kind of music hot kind of music play it to me, play it to me, honey, the blues will the wind that blew her boat across the sea kindly send her sailing back to me honey pie you are making me crazy i am in love but i am lazy so wo not you please come home come, come back to me, honey pie oooooooooooh oh oh oh oh oh oh oh oh honey pie, honey pie creme tangerine and montelimar a ginger sling with a pineapple heart a coffee dessert, yes, you know it good news but you will have to have them all pulled out after the savoy truffle cool cherry cream, nice apple tart i feel your taste all the time we are apart coconut fudge really blows down those blues but you will have to have them all pulled out after the savoy truffle you might not feel it now but when the pain cuts through you are going to know and how the sweat is going to fill your head when it becomes too much you will shout aloud but you will have to have them all pulled out after the savoy truffle you know that what you eat you are but what is sweet now turns so sour we all know obla dibla da but can you show me where you are? creme tangerine and montelimar a ginger sling with a pineapple heart a coffee dessert, yes, you know it good news but you will have to have them all pulled out after the savoy truffle yes you will have to have them all pulled out after the savoy truffle cry baby cry make your mother sigh she old enough to know better the king of marigold was in the kitchen cooking breakfast for the queen the queen was in the parlour playing piano for the children of the king cry baby cry make your mother sigh she old enough to know better so cry baby cry the king was in the garden picking flowers for a friend who came to play the queen was in the playroom painting pictures for the childrens holiday cry baby cry make your mother sigh she old enough to know better so cry baby cry the duchess of kircaldy always smiling and arriving late for tea the duke was having problems with a message at the local bird and bee cry baby cry make your mother sigh she old enough to know better so cry baby cry at twelve o'clock a meeting round the table for a seance in the dark with voices out of nowhere put on specially by the children for a lark cry baby cry make your mother sigh she old enough to know better so cry baby cry cry cry cry baby make your mother sigh she old enough to know better cry baby cry cry cry cry make your mother sigh she old enough to know better so cry baby cry bottle of claret for you if i had realised well, do it next time. i forgot about it, george, i am sorry. will you forgive me? yes. cheeky bitch! number , number , number , number , number , number , number , number , number , number , number , number , number , number , number then there this welsh rarebit wearing some brown underpants about the shortage of grain in hertfordshire everyone of them knew that as time went by they would get a little bit older and a little bit slower but it all the same thing, in this case manufactured by someone who always umpteen your father giving it diddly i dee district was leaving, intended to pay for number , number who to know? who was to know? number , number , number , number , number , number , number , number , number , number , number , number i sustained nothing worse than also for example whatever you are doing a business deal falls through i informed him on the third night when fortune gives number , number , number people right, people right right, right, right, right, right right! right! , number , number , number i have missed all of that it makes me a few days late compared with, like, wow! and weird stuff like that taking our sides sometimes floral bark rouge doctors have brought this specimen i have nobody short cuts, aha , number with the situation they are standing still the plan, the telegram ooh ooh number , number ooh a man without terrors from beard to false as the headmaster reported to me my son he really can try as they do to find function tell what he was saying, and his voice was low and his hive high and his eyes were low alright! his head was on fire, his glasses were saved this was... which enables him to move about number , number , number , number , number , number , number , number , number , number , number so the wife called me and we would better go to see a surgeon or whatever to price it yellow underclothes so, any road, we went to see the dentist instead who gave her a pair of teeth which was not any good at all so so instead of that he joined the fucking navy and went to sea in my broken chair, my wings are broken and so is my hair i am not in the mood for whirling um da aaah how? we are gathered in france dogs for dogging, hands for clapping birds for birding and fish for fishing them for themming and when for whimming only to find the night watchman unaware of his presence in the building onion soup number , number , number , number , number , number industrial output financial imbalance thrusting it between his shoulder blades the watusi the twist eldorado take this brother, may it serve you well maybe it nothing aaah maybe it nothing what? what? oh maybe even then impervious in london could be difficult thing hold that line! hold that line! hold that line! hold that line! it quick like rush for peace is because it so much it was like being naked it alright, it alright, it alright if you become naked block that kick! block that kick! block that kick! block that kick! block that kick! block that kick! block that kick! block that kick! block that kick! block that kick! now it time to say good night good night, sleep tight now the sun turns out his light good night, sleep tight dream sweet dreams for me dream sweet dream sweet dreams for you close your eyes and i will close mine good night, sleep tight now the moon begins to shine good night, sleep tight dream sweet dreams for me dream sweet dream sweet dreams for you mmmmmm mmmmmm mmmmmmmmmm close your eyes and i will close mine good night, sleep tight now the sun turns out his light good night, sleep tight dream sweet dreams for me dream sweet dream sweet dreams for you good night, good night, everybody everybody everywhere good night</t>
+    <t>"The Bodyguard"</t>
+  </si>
+  <si>
+    <t>"Boston"</t>
+  </si>
+  <si>
+    <t>"No Fences"</t>
+  </si>
+  <si>
+    <t>"Saturday Night Fever"</t>
+  </si>
+  <si>
+    <t>"Physical Graffiti"</t>
+  </si>
+  <si>
+    <t>"Born In The U.S.A."</t>
+  </si>
+  <si>
+    <t>"Supernatural"</t>
+  </si>
+  <si>
+    <t>"21"</t>
+  </si>
+  <si>
+    <t>"...Baby One More Time"</t>
+  </si>
+  <si>
+    <t>"Ropin' The Wind"</t>
+  </si>
+  <si>
+    <t>"Purple Rain"</t>
+  </si>
+  <si>
+    <t>"Whitney Houston"</t>
+  </si>
+  <si>
+    <t>"Slippery When Wet"</t>
+  </si>
+  <si>
+    <t>i am a storyteller. and i would like to tell you a few personal stories about what i like to call the danger of the single story. 
+i grew up on a university campus in eastern nigeria. my mother says that i started reading at the age of two, although i think four is probably close to the truth. so i was an early reader, and what i read were british and american children books. 
+i was also an early writer, and when i began to write, at about the age of seven, stories in pencil with crayon illustrations that my poor mother was obligated to read, i wrote exactly the kinds of stories i was reading all my characters were white and blue eyed, they played in the snow, they ate apples, and they talked a lot about the weather, how lovely it was that the sun had come out. 
+now, this despite the fact that i lived in nigeria. i had never been outside nigeria. we did not have snow, we ate mangoes, and we never talked about the weather, because there was no need to. 
+my characters also drank a lot of ginger beer, because the characters in the british books i read drank ginger beer. never mind that i had no idea what ginger beer was. and for many years afterwards, i would have a desperate desire to taste ginger beer. but that is another story. 
+what this demonstrates, i think, is how impressionable and vulnerable we are in the face of a story, particularly as children. because all i had read were books in which characters were foreign, i had become convinced that books by their very nature had to have foreigners in them and had to be about things with which i could not personally identify. 
+now, things changed when i discovered african books. there were not many of them available, and they were not quite as easy to find as the foreign books. but because of writers like chinua achebe and camara laye, i went through a mental shift in my perception of literature. i realized that people like me, girls with skin the color of chocolate, whose kinky hair could not form ponytails, could also exist in literature. i started to write about things i recognized. 
+now, i loved those american and british books i read. they stirred my imagination. they opened up new worlds for me. but the unintended consequence was that i did not know that people like me could exist in literature. so what the discovery of african writers did for me was this it saved me from having a single story of what books are. 
+i come from a conventional, middle class nigerian family. my father was a professor. my mother was an administrator. and so we had, as was the norm, live in domestic help, who would often come from nearby rural villages. so, the year i turned eight, we got a new house boy. his name was fide. the only thing my mother told us about him was that his family was very poor. my mother sent yams and rice, and our old clothes, to his family. and when i did not finish my dinner, my mother would say, finish your food! do not you know? people like fide family have nothing. so i felt enormous pity for fide family. 
+then one saturday, we went to his village to visit, and his mother showed us a beautifully patterned basket made of dyed raffia that his brother had made. i was startled. it had not occurred to me that anybody in his family could actually make something. all i had heard about them was how poor they were, so that it had become impossible for me to see them as anything else but poor. their poverty was my single story of them. 
+years later, i thought about this when i left nigeria to go to university in the united states. i was . my american roommate was shocked by me. she asked where i had learned to speak english so well, and was confused when i said that nigeria happened to have english as its official language. she asked if she could listen to what she called my tribal music, and was consequently very disappointed when i produced my tape of mariah carey. she assumed that i did not know how to use a stove. 
+what struck me was this she had felt sorry for me even before she saw me. her default position toward me, as an african, was a kind of patronizing, well meaning pity. my roommate had a single story of africa a single story of catastrophe. in this single story, there was no possibility of africans being similar to her in any way, no possibility of feelings more complex than pity, no possibility of a connection as human equals. 
+i must say that before i went to the u.s., i did not consciously identify as african. but in the u.s., whenever africa came up, people turned to me. never mind that i knew nothing about places like namibia. 
+but i did come to embrace this new identity, and in many ways i think of myself now as african. although i still get quite irritable when africa is referred to as a country, the most recent example being my otherwise wonderful flight from lagos two days ago, in which there was an announcement on the virgin flight about the charity work in india, africa and other countries. 
+so, after i had spent some years in the u.s. as an african, i began to understand my roommate response to me. if i had not grown up in nigeria, and if all i knew about africa were from popular images, i too would think that africa was a place of beautiful landscapes, beautiful animals, and incomprehensible people, fighting senseless wars, dying of poverty and aids, unable to speak for themselves and waiting to be saved by a kind, white foreigner. i would see africans in the same way that i, as a child, had seen fide family. 
+this single story of africa ultimately comes, i think, from western literature. now, here is a quote from the writing of a london merchant called john lok, who sailed to west africa in and kept a fascinating account of his voyage. after referring to the black africans as beasts who have no houses, he writes, they are also people without heads, having their mouth and eyes in their breasts. 
+now, i have laughed every time i have read this. and one must admire the imagination of john lok. but what is important about his writing is that it represents the beginning of a tradition of telling african stories in the west a tradition of sub saharan africa as a place of negatives, of difference, of darkness, of people who, in the words of the wonderful poet rudyard kipling, are half devil, half child. 
+and so, i began to realize that my american roommate must have, throughout her life, seen and heard different versions of this single story, as had a professor, who once told me that my novel was not authentically african. now, i was quite willing to contend that there were a number of things wrong with the novel, that it had failed in a number of places, but i had not quite imagined that it had failed at achieving something called african authenticity. in fact, i did not know what african authenticity was. the professor told me that my characters were too much like him, an educated and middle class man. my characters drove cars. they were not starving. therefore they were not authentically african. 
+but i must quickly add that i too am just as guilty in the question of the single story. a few years ago, i visited mexico from the u.s. the political climate in the u.s. at the time was tense, and there were debates going on about immigration. and, as often happens in america, immigration became synonymous with mexicans. there were endless stories of mexicans as people who were fleecing the healthcare system, sneaking across the border, being arrested at the border, that sort of thing. 
+i remember walking around on my first day in guadalajara, watching the people going to work, rolling up tortillas in the marketplace, smoking, laughing. i remember first feeling slight surprise. and then, i was overwhelmed with shame. i realized that i had been so immersed in the media coverage of mexicans that they had become one thing in my mind, the abject immigrant. i had bought into the single story of mexicans and i could not have been more ashamed of myself. 
+so that is how to create a single story, show a people as one thing, as only one thing, over and over again, and that is what they become. 
+it is impossible to talk about the single story without talking about power. there is a word, an igbo word, that i think about whenever i think about the power structures of the world, and it is nkali. it a noun that loosely translates to to be greater than another. like our economic and political worlds, stories too are defined by the principle of nkali how they are told, who tells them, when they are told, how many stories are told, are really dependent on power. 
+power is the ability not just to tell the story of another person, but to make it the definitive story of that person. the palestinian poet mourid barghouti writes that if you want to dispossess a people, the simplest way to do it is to tell their story and to start with, secondly. start the story with the arrows of the native americans, and not with the arrival of the british, and you have an entirely different story. start the story with the failure of the african state, and not with the colonial creation of the african state, and you have an entirely different story. 
+i recently spoke at a university where a student told me that it was such a shame that nigerian men were physical abusers like the father character in my novel. i told him that i had just read a novel called american psycho and that it was such a shame that young americans were serial murderers. 
+now, obviously, i said this in a fit of mild irritation. but it would never have occurred to me to think that just because i had read a novel in which a character was a serial killer that he was somehow representative of all americans. this is not because i am a better person than that student, but because of america cultural and economic power. i had many stories of america. i had read tyler and updike and steinbeck and gaitskill. i did not have a single story of america. 
+when i learned, some years ago, that writers were expected to have had really unhappy childhoods to be successful, i began to think about how i could invent horrible things my parents had done to me. but the truth is that i had a very happy childhood, full of laughter and love, in a very close knit family. 
+but i also had grandfathers who died in refugee camps. my cousin polle died because he could not get adequate healthcare. one of my closest friends, okoloma, died in a plane crash because our fire trucks did not have water. i grew up under repressive military governments that devalued education, so that sometimes, my parents were not paid their salaries. and so, as a child, i saw jam disappear from the breakfast table, then margarine disappeared, then bread became too expensive, then milk became rationed. and most of all, a kind of normalized political fear invaded our lives. 
+all of these stories make me who i am. but to insist on only these negative stories is to flatten my experience and to overlook the many other stories that formed me. the single story creates stereotypes, and the problem with stereotypes is not that they are untrue, but that they are incomplete. they make one story become the only story. 
+of course, africa is a continent full of catastrophes there are immense ones, such as the horrific rapes in congo and depressing ones, such as the fact that , people apply for one job vacancy in nigeria. but there are other stories that are not about catastrophe, and it is very important, it is just as important, to talk about them. 
+i have always felt that it is impossible to engage properly with a place or a person without engaging with all of the stories of that place and that person. the consequence of the single story is this it robs people of dignity. it makes our recognition of our equal humanity difficult. it emphasizes how we are different rather than how we are similar. 
+so what if before my mexican trip, i had followed the immigration debate from both sides, the u.s. and the mexican? what if my mother had told us that fide family was poor and hardworking? what if we had an african television network that broadcast diverse african stories all over the world? what the nigerian writer chinua achebe calls a balance of stories. 
+what if my roommate knew about my nigerian publisher, muhtar bakare, a remarkable man who left his job in a bank to follow his dream and start a publishing house? now, the conventional wisdom was that nigerians do not read literature. he disagreed. he felt that people who could read, would read, if you made literature affordable and available to them. 
+shortly after he published my first novel, i went to a tv station in lagos to do an interview, and a woman who worked there as a messenger came up to me and said, i really liked your novel. i did not like the ending. now, you must write a sequel, and this is what will happen 
+and she went on to tell me what to write in the sequel. i was not only charmed, i was very moved. here was a woman, part of the ordinary masses of nigerians, who were not supposed to be readers. she had not only read the book, but she had taken ownership of it and felt justified in telling me what to write in the sequel. 
+now, what if my roommate knew about my friend funmi iyanda, a fearless woman who hosts a tv show in lagos, and is determined to tell the stories that we prefer to forget? what if my roommate knew about the heart procedure that was performed in the lagos hospital last week? what if my roommate knew about contemporary nigerian music, talented people singing in english and pidgin, and igbo and yoruba and ijo, mixing influences from jay z to fela to bob marley to their grandfathers. 
+what if my roommate knew about the female lawyer who recently went to court in nigeria to challenge a ridiculous law that required women to get their husband consent before renewing their passports? what if my roommate knew about nollywood, full of innovative people making films despite great technical odds, films so popular that they really are the best example of nigerians consuming what they produce? what if my roommate knew about my wonderfully ambitious hair braider, who has just started her own business selling hair extensions? or about the millions of other nigerians who start businesses and sometimes fail, but continue to nurse ambition? 
+every time i am home i am confronted with the usual sources of irritation for most nigerians our failed infrastructure, our failed government, but also by the incredible resilience of people who thrive despite the government, rather than because of it. i teach writing workshops in lagos every summer, and it is amazing to me how many people apply, how many people are eager to write, to tell stories. 
+my nigerian publisher and i have just started a non profit called farafina trust, and we have big dreams of building libraries and refurbishing libraries that already exist and providing books for state schools that do not have anything in their libraries, and also of organizing lots and lots of workshops, in reading and writing, for all the people who are eager to tell our many stories. 
+stories matter. many stories matter. stories have been used to dispossess and to malign, but stories can also be used to empower and to humanize. stories can break the dignity of a people, but stories can also repair that broken dignity. 
+the american writer alice walker wrote this about her southern relatives who had moved to the north. she introduced them to a book about the southern life that they had left behind. they sat around, reading the book themselves, listening to me read the book, and a kind of paradise was regained. 
+i would like to end with this thought that when we reject the single story, when we realize that there is never a single story about any place, we regain a kind of paradise. 
+thank you.</t>
+  </si>
+  <si>
+    <t>as a kid, i spent my summers with my grandparents on their ranch in texas. i helped fix windmills, vaccinate cattle, and do other chores. we also watched soap operas every afternoon, especially days of our lives. my grandparents belonged to a caravan club, a group of airstream trailer owners who travel together around the u.s. and canada. and every few summers, we would join the caravan. we would hitch up the airstream trailer to my grandfather car, and off we would go, in a line with other airstream adventurers. i loved and worshipped my grandparents and i really looked forward to these trips. on one particular trip, i was about years old. i was rolling around in the big bench seat in the back of the car. my grandfather was driving. and my grandmother had the passenger seat. she smoked throughout these trips, and i hated the smell. 
+at that age, i would take any excuse to make estimates and do minor arithmetic. i would calculate our gas mileage figure out useless statistics on things like grocery spending. i would been hearing an ad campaign about smoking. i ca not remember the details, but basically the ad said, every puff of a cigarette takes some number of minutes off of your life i think it might have been two minutes per puff. at any rate, i decided to do the math for my grandmother. i estimated the number of cigarettes per days, estimated the number of puffs per cigarette and so on. when i was satisfied that i would come up with a reasonable number, i poked my head into the front of the car, tapped my grandmother on the shoulder, and proudly proclaimed, at two minutes per puff, you have taken nine years off your life! 
+i have a vivid memory of what happened, and it was not what i expected. i expected to be applauded for my cleverness and arithmetic skills. jeff, you are so smart. you had to have made some tricky estimates, figure out the number of minutes in a year and do some division. that not what happened. instead, my grandmother burst into tears. i sat in the backseat and did not know what to do. while my grandmother sat crying, my grandfather, who had been driving in silence, pulled over onto the shoulder of the highway. he got out of the car and came around and opened my door and waited for me to follow. was i in trouble? my grandfather was a highly intelligent, quiet man. he had never said a harsh word to me, and maybe this was to be the first time? or maybe he would ask that i get back in the car and apologize to my grandmother. i had no experience in this realm with my grandparents and no way to gauge what the consequences might be. we stopped beside the trailer. my grandfather looked at me, and after a bit of silence, he gently and calmly said, jeff, one day you will understand that it harder to be kind than clever. 
+what i want to talk to you about today is the difference between gifts and choices. cleverness is a gift, kindness is a choice. gifts are easy they are given after all. choices can be hard. you can seduce yourself with your gifts if you are not careful, and if you do, it will probably be to the detriment of your choices. 
+this is a group with many gifts. i am sure one of your gifts is the gift of a smart and capable brain. i am confident that the case because admission is competitive and if there were not some signs that you are clever, the dean of admission would not have let you in. 
+your smarts will come in handy because you will travel in a land of marvels. we humans plodding as we are will astonish ourselves. we will invent ways to generate clean energy and a lot of it. atom by atom, we will assemble tiny machines that will enter cell walls and make repairs. this month comes the extraordinary but also inevitable news that we have synthesized life. in the coming years, we will not only synthesize it, but we will engineer it to specifications. i believe you will even see us understand the human brain. jules verne, mark twain, galileo, newton all the curious from the ages would have wanted to be alive most of all right now. as a civilization, we will have so many gifts, just as you as individuals have so many individual gifts as you sit before me. 
+how will you use these gifts? and will you take pride in your gifts or pride in your choices? 
+i got the idea to start amazon years ago. i came across the fact that web usage was growing at , percent per year. i would never seen or heard of anything that grew that fast, and the idea of building an online bookstore with millions of titles something that simply could not exist in the physical world was very exciting to me. i had just turned years old, and i would been married for a year. i told my wife mackenzie that i wanted to quit my job and go do this crazy thing that probably would not work since most startups do not, and i was not sure what would happen after that. mackenzie also a princeton grad and sitting here in the second row told me i should go for it. as a young boy, i would been a garage inventor. i would invented an automatic gate closer out of cement filled tires, a solar cooker that did not work very well out of an umbrella and tinfoil, baking pan alarms to entrap my siblings. i would always wanted to be an inventor, and she wanted me to follow my passion. 
+i was working at a financial firm in new york city with a bunch of very smart people, and i had a brilliant boss that i much admired. i went to my boss and told him i wanted to start a company selling books on the internet. he took me on a long walk in central park, listened carefully to me, and finally said, that sounds like a really good idea, but it would be an even better idea for someone who did not already have a good job. that logic made some sense to me, and he convinced me to think about it for hours before making a final decision. seen in that light, it really was a difficult choice, but ultimately, i decided i had to give it a shot. i did not think i would regret trying and failing. and i suspected i would always be haunted by a decision to not try at all. after much consideration, i took the less safe path to follow my passion, and i am proud of that choice. 
+tomorrow, in a very real sense, your life the life you author from scratch on your own begins. 
+how will you use your gifts? what choices will you make? 
+will inertia be your guide, or will you follow your passions? 
+will you follow dogma, or will you be original? 
+will you choose a life of ease, or a life of service and adventure? 
+will you wilt under criticism, or will you follow your convictions? 
+will you bluff it out when you are wrong, or will you apologize? 
+will you guard your heart against rejection, or will you act when you fall in love? 
+will you play it safe, or will you be a little bit swashbuckling? 
+when it tough, will you give up, or will you be relentless? 
+will you be a cynic, or will you be a builder? 
+will you be clever at the expense of others, or will you be kind? 
+i will hazard a prediction. when you are years old, and in a quiet moment of reflection narrating for only yourself the most personal version of your life story, the telling that will be most compact and meaningful will be the series of choices you have made. in the end, we are our choices. build yourself a great story. thank you and good luck!</t>
+  </si>
+  <si>
+    <t>here how i recall the wonderful story that sets the theme for my remarks today at a party given by a billionaire on shelter island, the late kurt vonnegut informs his pal, the author joseph heller, that their host, a hedge fund manager, had made more money in a single day than heller had earned from his wildly popular novel catch over its whole history. heller responds, yes, but i have something he will never have . . . enough. 
+enough. i was stunned by its simple eloquence, to say nothing of its relevance to some of the vital issues arising in american society today. many of them revolve around money yes, money increasingly, in our bottom line society, the great god of prestige, the great measure of the man and woman . so this morning i have the temerity to ask you soon to be minted mba graduates, most of whom will enter the world of commerce, to consider with me the role of enough in business and entrepreneurship in our society, enough in the dominant role of the financial system in our economy, and enough in the values you will bring to the fields you choose for your careers. 
+kurt vonnegut loved to speak to college students. he believed, if i may paraphrase here, that we should catch young people before they become ceos, investment bankers, consultants, and money managers and especially hedge fund managers , and do our best to poison their minds with humanity. and in my remarks this morning, i will try to poison your minds with a little bit of that humanity. 
+over the past two centuries, our nation has moved from being an agricultural economy, to a manufacturing economy, to a service economy, and now to a predominantly financial economy. but our financial economy, by definition, subtracts from the value created by our productive businesses. think about it while the owners of business enjoy the dividend yields and earnings growth that our capitalistic system creates, those who play in the financial markets capture those investment gains only after the costs of financial intermediation are deducted. thus, while investing in american business is a winner game, beating the stock market before those costs is a zero sum game. but after intermediation costs are deducted, beating the market for all of us as a group becomes a loser game. 
+yes, the more that our financial system takes, the less our investors make. yet the financial field is where the money is made in modern day america, the breeding ground for the wealthiest of our citizens. if you made less than million dollars last year, you did not make enough to rank among the highest paid hedge fund managers. when we add up all those hedge fund fees, all those mutual fund management fees and operating expenses all those commissions to brokerage firms and fees to financial advisors investment banking and legal fees for all those mergers and ipos and the enormous marketing and advertising expenses entailed in the distribution of financial products, we are talking about some billion dollars per year. that sum, extracted from whatever returns the stock and bond markets are generous enough to deliver to investors, is surely enough, if you will, to seriously undermine the odds in favor of success for our citizens who are accumulating savings for retirement. 
+yet the fact is that the finance sector has become by far our nation largest generator of corporate profits, larger even than the combined profits of our huge energy and health care sectors, and almost three times as much as either manufacturing or information technology. twenty five years ago, financials accounted for only about percent of the earnings of the giant corporations that compose the standard poor stock index. ten years ago, the financial sector share had risen to percent. and last year, the financial sector profits had soared to an all time high of percent. if we add the earnings of the financial affiliates of our giant manufacturers think general electric capital, for example, or the auto financing arms of general motors and ford to this total, financial earnings now likely exceed percent of the earnings of the s p . while that share may or may not be enough, it seems likely to continue to grow, at least for a while. 
+we are moving, or so it seems, to a world where we are no longer making anything in this country we are merely trading pieces of paper, swapping stocks and bonds back and forth with one another, and paying our financial croupiers a veritable fortune. we are also adding even more costs by creating ever more complex financial derivatives in which huge and unfathomable risks are being built into our financial system. when enterprise becomes a mere bubble on a whirlpool of speculation, as the great british economist john maynard keynes warned us years ago, the consequences may be dire. when the capital development of a country becomes a by product of the activities of a casino, the job of capitalism is likely to be ill done. 
+once a profession in which business was subservient, the field of money management and wall street has become a business in which the profession is subservient. harvard business school professor rakesh khurana was right when he defined the conduct of a true professional with these words i will create value for society, rather than extract it. and yet money management, by definition, extracts value from the returns earned by our business enterprises. warren buffett wise partner charlie munger lays it on the line 
+ most money making activity contains profoundly antisocial effects . . . as high cost modalities become ever more popular . . . the activity exacerbates the current harmful trend in which ever more of the nation ethical young brain power is attracted into lucrative money management and its attendant modern frictions, as distinguished from work providing much more value to others. 
+but i am not telling you not to go into the highly profitable field of managing money. rather, i present three caveats 
+most commencement speakers like to sum up by citing some eminent philosopher to endorse his message. i am no exception. so i now offer to you new masters of business administration these words from socrates, spoken years ago, as he challenged the citizens of athens. 
+ i honor and love you but why do you who are citizens of this great and mighty nation care so much about laying up the greatest amount of money and honor and reputation, and so little about wisdom and truth and the greatest improvement of the soul. are you not ashamed of this? . . . i do nothing but go about persuading you all, not to take thought for your persons and your properties, but first and chiefly to care about the greatest improvement of the soul. i tell you that virtue is not given by money, but that from virtue comes money and every other good of man. 
+i close by returning to kurt vonnegut story, which, when i finally tracked it down, turned out to be a poem. it delightful even better, it only words long 
+true story, word of honor 
+joseph heller, an important and funny writer
+now dead,
+and i were at a party given by a billionaire
+on shelter island.
+i said, joe, how does it make you feel
+to know that our host only yesterday
+may have made more money
+than your novel catch '
+has earned in its entire history? 
+and joe said, i have got something he can never have. 
+and i said, what on earth could that be, joe? 
+and joe said, the knowledge that i have got enough. 
+not bad! rest in peace! 
+but it not time for any of you to rest in peace, or to rest in any other way. bright futures lie before you. there the world work to be done, and there are never enough citizens with determined hearts, courageous character, intelligent minds, and idealistic souls to do it. yes, our world already has quite enough guns, political platitudes, arrogance, disingenuousness, self interest, snobbishness, superficiality, war, and the certainty that god is on one side or the other. but it never has enough conscience, nor enough tolerance, idealism, justice, compassion, wisdom, humility, self sacrifice for the greater good, integrity, courtesy, poetry, laughter, and generosity of substance and spirit. it is these elements that i urge you to carry into your careers, and remember that the great game of life is not about money it is about doing your best to build the world anew. 
+and that enough . . . at least for today.</t>
+  </si>
+  <si>
+    <t>oh, it just feels like an incredible understatement to say how grateful i am to be here with all of you. i feel like i have a relationship with many of you on social media, and you were like, t minus two days. i am like, it coming! we are going to be together. so i am so grateful to be here with you. 
+i am going to talk about trust and i am going to start by saying this one of my favorite parts of my job is that i get to research topics that mean something to me. one of my least favorite parts of my job is i normally come up with findings that kicked me in the butt and make me change my entire life. that the hard part. but i get to dig into the stuff that i think matters in my life and the life of the people around me. 
+and the topic of trust is something i think i probably would have eventually started to look at closely because i study shame and vulnerability. but there a very personal reason i jumped to trust early in my research career, and it was a personal experience. 
+one day, my daughter, ellen, came home from school. she was in third grade. and the minute we closed the front door, she literally just started sobbing and slid down the door until she was just kind of a heap of crying on the floor. and of course i was it scared me, and i said, what wrong ellen? what happened? what happened? 
+and she pulled herself together enough to say, something really hard happened to me today at school, and i shared it with a couple of my friends during recess. and by the time we got back into the classroom, everyone in my class knew what had happened, and they were laughing and pointing at me and calling me names. and it was so bad, and the kids were being so disruptive, that her teacher even had to take marbles out of this marble jar. 
+and the marble jar in the classroom is a jar where if the kids are making great choices together, the teacher adds marbles. if they are making not great choices, the teacher takes out marbles. and if the jar gets filled up, there a celebration for the class. 
+and so, she said, it was one of the worst moments in my life. they were laughing and pointing. and miss bacchum, my teacher, kept saying, i am going to take marbles out.' and she did not know what was happening. 
+and she looked at me just with this face that is just seared my mind and said, i will never trust anyone again. and my first reaction, to be really honest with you, was, damn straight, you do not tell anybody anything but your mama. 
+yeah, right? that it. i mean, that was my you just tell me. and when you grow up and you go off to school, mama will go too. i will get a little apartment. and the other thing i was thinking to be quite honest with you is, i will find out who those kids were. and while i am not going to beat up a nine year old, i know their mamas. 
+you know, that the place you go to. and i am like, how am i going to explain trust to this third grader in front of me? so i took a deep breath and i said, ellen, trust is like a marble jar. she said, what do you mean? and i said, you share those hard stories and those hard things that are happening to you with friends, who, over time, you filled up their marble jar. they have done thing after thing after thing where you are like, i know i can share this with this person.' does that make sense? 
+yes! 
+and that what ellen said, yes, that makes sense. and i said, do you have any marble jar friends? and she said, oh yeah. totally. hannah and lorna are marble jar friends. and i said and then this is where things got interesting. i said, tell me what you mean. how do they earn marbles for you? 
+and she like, well, lorna, if there not a seat for me at the lunch cafeteria, she will scoot over and give me half a heinie seat. and i am like, she will? she like, yeah. she will just sit like that, and so i can sit with her. and i said, that a big deal. this is not what i was expecting to hear. 
+and then she said, and you know hannah, on sunday at my soccer game? and i was waiting for this story where she said, i got hit by a ball and i was laying on the field, and hannah picked me up and ran me to first aid. and i was like, yeah? and she said, hannah looked over and she saw oma and opa, my parents, her grandparents, and she said, look, your oma and opa are here.' and i was like 
+and i was like, boy, she got a marble for that? and she goes, well, you know, not all my friends have eight grandparents. because my parents are divorced and remarried, my husband parents were divorced and remarried. and she said, and it was so nice to me that she remembered their names. 
+and i was like, hmm. and she said, do you have marble jar friends? and i said, yeah, i do have a couple of marble jar friends. and she said, well, what kind of things do they do to get marbles? and this feeling came over me. and i thought the first thing i could think of, because we were talking about the soccer game, was that same game. my good friend eileen walked up to my parents and said, diane, david, good to see you. and i remember what that felt like for me. and i was like, certainly, trust cannot be built by these small insignificant moments in our lives. it gotta be a grander gesture than that. 
+so, as a researcher, i start looking into the data. i gather up the doctoral students who have worked with me. we start looking. and it is crystal clear. trust is built in very small moments. and when we started looking at examples of when people talked about trust in the research, they said things like, yeah, i really trust my boss. she even asked me how my mom chemotherapy was going. i trust my neighbor because if something going on with my kid, it does not matter what she doing, she will come over and help me figure it out. you know, one of the number one things emerged around trust and small things? people who attend funerals. this is someone who showed up at my sister funeral. 
+another huge marble jar moment for people, i trust him because he will ask for help when he needs it. how many of you are better at giving help than asking for help? right? so, asking for help is one of those moments. 
+so, one of the ways i work as a grounded theory researcher, is i look at the data first, then i go in and see what other researchers are talking about and saying, because we believe the best theories are not built on other existing theories, but on our own lived experiences. 
+so, after i had looked at this, i said, let me see what the research says. and i went to john gottman, who been studying relationship for years. he has amazing work on trust and betrayal. and the first thing i read, trust is built in the smallest of moments. and he calls them sliding door moments. 
+sliding doors is a movie with gwyneth paltrow from the s. have you all seen this movie? so, it a really tough movie, because what happens is it follows her life to this seemingly unimportant moment where she trying to get on a train. and she makes the train, but the movie stops and splits into two parts where she makes a train and she does not make the train, and it follows them to radically different endings. and he would argue that trust is a sliding door moment. and the example that he gives is so powerful. 
+he said he was lying in bed one night, he had pages left of his murder mystery, and he had us feeling he knew who the killer was, but he was dying to finish this book. so he said, i do not even want i want to get up, brush my teeth, go to the bathroom, and get back in and not have to get up. you know that feeling when you just want to get all situated and read the end of your book? 
+so, he gets up and he walks past his wife in the bathroom, who brushing her hair and who looks really sad. and he said, my first thought was just keep walking. just keep walking. 
+and how many of you have had that moment you walk past someone and you are like, oh, god. they look avert your eyes. or you look at caller id or your cell phone, and you are like, oh yeah, i know she in a big mess right now. i do not have time to pick up the phone. right? yes or no? this looks like guilty laughter to me. 
+so, he said, that a sliding door moment. and here what struck me about his story, because he said, there is the opportunity to build trust and there is the opportunity to betray. because as small as the moments of trust can be, those are the moments of betrayal as well. to choose to not connect when the opportunity is there is a betrayal. so he took the brush out of her hand and started brushing her hair and said, what going on with you right now, babe? that a moment of trust, right? 
+so fast forward five years, and i am clear about trust, and i talk about trust as the marble jar. we have got to really share our stories and our hard stuff with people whose jars are full, people who have, over time, really done those small things that have helped us believe that they are worth our story. 
+but the new question for me was this what are those marbles? what is trust? what do we talk about when we talk about trust? trust is a big word, right? to hear, i trust you, or i do not trust you. i do not even know what that means. so, i wanted to know, what is the anatomy of trust? what does that mean? 
+so, i started looking in the research and i found a definition from charles feldman that i think is the most beautiful definition i have ever heard. and it simply this trust is choosing to make something important to you vulnerable to the actions of someone else. choosing to make something important to you vulnerable to the actions of someone else. feldman says that distrust is what i have shared with you that is important to me is not safe with you. 
+so, i thought, that true. and feldman really calls for this, let understand what trust is. so, we went back into all the data to find out, can i figure out what trust is? do i know what trust is from the data? and i think i do know what trust is. 
+and i put together an acronym, braving, b r a v i n g. braving. because when we trust, we are braving connection with someone. so what are the parts of trust? b, boundaries. i trust you. if you are about your boundaries and you hold them, and you are clear about my boundaries and you respect them. there is no trust without boundaries. 
+r, reliability. i can only trust you if you do what you say you are going to do. and not once. reliability let me tell you what reliability is in research terms. we are always looking for things that are valid and reliable. any researchers here or research kind of geeks? there of us. 
+okay. so we would say a scale that you weigh yourself on is valid if you get on it and it an accurate weight. . okay. so that would be a very valid scale. i would pay a lot of money for that scale. so, that actually not a valid scale, but we will pretend for the sake of this. that a valid scale. 
+a reliable scale is a scale that if i got on it a hundred times, it gonna say the same thing every time. so, what reliability is, is you do what you say you are going to do over and over and over again. you cannot gain and earn my trust if you are reliable once, because that not the definition of reliability. 
+in our working lives, reliability means that we have to be very clear on our limitations so we do not take on so much that we come up short and do not deliver on our commitments. in our personal life, it means the same thing. so, when we say to someone, oh god, it was so great seeing you. i am going to give you a call and we can have lunch. yes or no? no. it was really great seeing you. moment of discomfort. goodbye. right? but honest. 
+so b, boundaries. r, reliability. a huge. accountability. i can only trust you if, when you make a mistake, you are willing to own it, apologize for it, and make amends. i can only trust you if when i make a mistake, i am allowed to own it, apologize, and make amends. no accountability? no trust. 
+v, and this one shook me to the core. vault. the vault. what i share with you, you will hold in confidence. what you share with me, i will hold in confidence. but you know what we do not understand? and this came up over and over again in the research. we do not understand the other side of the vault. that only one door on the vault. here where we lose trust with people. 
+if a good friend comes up to me and says, oh my god, did you hear about caroline? they are getting a divorce and it is ugly. i am pretty sure her partner cheating. you have just shared something with me that was not yours to share, and now, my trust for you, even though you are gossiping and giving me the juice, now my trust for you is completely diminished. 
+does that make sense? so the vault is not just about the fact that you hold my confidences, it that, in our relationship, i see that you acknowledge confidentiality. here the tricky thing about the vault. a lot of times, we share things that are not ours to share as a way to hot wire connection with a friend, right? if you do not have anything nice to say, come sit next to me. you know? yes or no? our closeness is built on talking bad about other people. you know what i call that? common enemy intimacy. 
+what we have is not real. the intimacy we have is built on hating the same people, and that counterfeit. that counterfeit trust. that not real. so, the vault means you respect my story, but you respect other people story. 
+i, integrity. i cannot trust you and be in a trusting relationship with you if you do not act from a place of integrity and encourage me to do the same. so, what is integrity? 
+i came up with this definition because i did not like any of the ones out there, and that what i do when i do not like them. i do. i look in the data, and i say, what integrity? here what i think integrity is. three pieces. it choosing courage over comfort, choosing what right over what fun, fast, or easy, and practicing your values, not just professing your values, right? i mean, that integrity. 
+n, non judgment. i can fall apart, ask for help, and be in struggle without being judged by you. and you can fall apart, and be in struggle, and ask for help without being judged by me, which is really hard because we are better at helping than we are asking for help. 
+and we think that we have set up trusting relationships with people who really trust us because we are always there to help them. but let me tell you this, if you ca not ask for help and they cannot reciprocate that, that is not a trusting relationship. period. and when we assign value to needing help, when i think less of myself for needing help, whether you are conscious of it or not, when you offer help to someone, you think less of them too. 
+you cannot judge yourself for needing help but not judge others for needing your help. and somewhere in there, if you are like me, you are getting value from being the helper in relationship. you think that your worth. but real trust does not exist unless help is reciprocal and non judgment. 
+the last one is g, generosity. our relationship is only a trusting relationship if you can assume the most generous thing about my words, intentions, and behaviors, and then check in with me. so, if i screw up, say something, forget something, you will make a generous assumption and say, yesterday was my mom one year anniversary of her death, and it was really tough for me, and i talked to you about it last month. and i really was hoping that you would have called, but i know you care about me. i know you think it a big deal. so i wanted to let you know that i have been thinking about that. as opposed to not returning calls, not returning emails, and waiting for the moment where you can spring, well, you forgot to call on this important you know? you will make a generous assumption about me and check it out. 
+does that make sense? so we have got boundaries, reliability, accountability, the vault, integrity, non judgment, and generosity. these, this is the anatomy of trust, and it complex. 
+why do we need to break it down? for a very simple reason. how many of you in here have ever struggled with trust in a relationship, professional or personal? it should be everybody, statistically, right? and so, what you end up saying to someone is, i do not trust you. what do you mean you do not trust me? i love you. i am so dependable. what do you mean you do not trust me? 
+how do we talk about trust if we ca not break it down? what understanding trust gives us is words to say, here my struggle. you are not reliable with me. you say you are going to do something, i count on it, you do not do it. or maybe the issue is non judgment. but we can break it down and talk about it and ask for what we need, very specifically. instead of using this huge word that has tons of weight and value around it, we can say, here specifically what not working. what not working is we have got a boundaries issue. 
+so, one of the things that interesting, i think, is one of the biggest casualties with heartbreak and disappointment and failure and our struggle, is not just the loss of trust with other people, but the loss of self trust. when something hard happens in our lives, the first thing we say is i ca not trust myself. i was so stupid. i was so naive. 
+so, this braving acronym works with self trust too. so, when something happens i just recently went through a really tough failure, and i had to ask myself, did i honor my own boundaries? was i reliable? can i count on myself? did i hold myself accountable? was i really protective of my stories? did i stay in my integrity? was i judgmental toward myself? and i give myself the benefit of the doubt? was i generous toward myself? 
+because if braving relationships with other people is braving connection, self trust is braving self love. self respect, the wildest adventure we will ever take in our whole lives. and so, what i would invite you to think about when you think about trust is if your own marble jar is not full, if you ca not count on yourself, you ca not ask other people to give you what you do not have. so we have to start with self trust. 
+there a great quote from maya angelou that says, i do not trust people who do not love themselves, but say i love you. right? 
+she quotes an african proverb when she said that, and she said, be wary of the naked man offering you a shirt. and so, a lot of times if you find yourself in struggle with trust, the thing to examine first is your own marble jar, how you treat yourself. because we ca not ask people to give to us something that we do not believe we are worthy of receiving. and you will know you are worthy of receiving it when you trust yourself above everyone else. so, thank you all so much. i am so honored to be here. thank you. thank you all.</t>
+  </si>
+  <si>
+    <t>you know, when video arts asked me if i would like to talk about creativity i said no problem! no problem! because telling people how to be creative is easy, it only being it that difficult. 
+i knew it would be particularly easy for me because i have spent the last years watching how various creative people produce their stuff, and being fascinating to see if i could figure out what makes folk, including me, more creative. 
+what is more, a couple of years ago i got very excited because a friend of mine who runs the psychology department at sussex university, brian bates, showed me some research on creativity done at berkley in the s by a brilliant psychologist called donald mackinnon which seemed to confirm in the most impressively scientific way all the vague observations and intuitions that i would had over the years. 
+the prospect of settling down for quite serious study of creativity for the purpose of tonight gossip was delightful. having spent several weeks on it, i can state categorically that what i have to tell you tonight about how you can all become more creative is a complete waste of time. 
+so i think it would be much better if i just told jokes instead. 
+you know the lightbulb jokes? how many poles does it take to screw in a lightbulb? one to hold the bulb, four to turn the table. how many folksingers does it take to change a lightbulb? answer five, one to change the bulb and four to sing about how much better the old one was. how many socialists does it take to change a lightbulb? answer we are not going to change it, we think it works. how many creative art 
+the reason why it is futile for me to talk about creativity is that it simply cannot be explained, it like mozart music or van gogh painting or saddam hussein propaganda. it is literally inexplicable. 
+freud, who analyzed practically everything else, repeatedly denied that psychoanalysis could shed any light whatsoever on the mysteries of creativity. 
+and brian bates wrote to me recently most of the best research on creativity was done in the s and s with a quite dramatic drop off in quantity after then, largely, i suspect because researchers began to feel that they had reached the limits of what science could discover about it. 
+in fact, the only thing from the research that i could tell you about how to be creative is the sort of childhood that you should have had, which is of limited help to you at this point in your lives. 
+however there is one negative thing that i can say, and it negative because it is easier to say what creativity is not. 
+a bit like the sculptor who when asked how he had sculpted a very fine elephant, explained that he would taken a big block of marble and then knocked away all the bits that did not look like an elephant. 
+now here the negative thing creativity is not a talent. it is not a talent, it is a way of operating. 
+so how many actors does it take to screw in a lightbulb? answer thousands. only one to do it but thousands to say i could have done that. how many jewish mothers does it take to screw in a lightbulb? answer do not mind me, i will just sit here in the dark, nobody cares about how many surgeons 
+you see when i say a way of operating what i mean is this creativity is not an ability that you either have or do not have. 
+it is, for example, and this may surprise you absolutely unrelated to iq provided that you are intelligent above a certain minimal level that is but mackinnon showed in investigating scientists, architects, engineers, and writers that those regarded by their peers as most creative were in no way whatsoever different in iq from their less creative colleagues. 
+so in what way were they different? 
+mackinnon showed that the most creative had simply acquired a facility for getting themselves into a particular mood a way of operating which allowed their natural creativity to function. 
+in fact, mackinnon described this particular facility as an ability to play. 
+indeed he described the most creative when in this mood as being childlike. for they were able to play with ideas to explore them not for any immediate practical purpose but just for enjoyment. play for its own sake. 
+now, about this mood. 
+i am working at the moment with dr. robin skynner on a successor to our psychiatry book families and how to survive them we are comparing the ways in which psychologically healthy families function the ways in which such families function with the ways in which the most successful corporations and organizations function. 
+we have become fascinated by the fact that we can usually describe the way in which people function at work in terms of two modes open and closed. 
+so what i can just add now is that creativity is not possible in the closed mode. 
+ok, so how many american network tv executives does it take to screw in a lightbulb? answer does it have to be a lightbulb? how many doorke 
+let me explain a little. by the closed mode i mean the mode that we are in most of the time when at work. 
+we have inside us a feeling that there lots to be done and we have to get on with it if we are going to get through it all. 
+it an active probably slightly anxious mode, although the anxiety can be exciting and pleasurable. 
+it a mode which we are probably a little impatient, if only with ourselves. 
+it has a little tension in it, not much humor. 
+it a mode in which we are very purposeful, and it a mode in which we can get very stressed and even a bit manic, but not creative. 
+by contrast, the open mode, is relaxed expansive less purposeful mode in which we are probably more contemplative, more inclined to humor which always accompanies a wider perspective and, consequently, more playful. 
+it a mood in which curiosity for its own sake can operate because we are not under pressure to get a specific thing done quickly. we can play, and that is what allows our natural creativity to surface. 
+let me give you an example of what i mean. 
+when alexander fleming had the thought that led to the discovery of penicillin, he must have been in the open mode. 
+the previous day, he would arranged a number of dishes to that culture would grow upon them. 
+on the day in question, he glanced at the dishes, and he discovered that on one of them no culture had appeared. 
+now, if he would been in the closed mode he would have been so focused upon his need for dishes with cultures grown upon them that when he saw that one dish was of no use to him for that purpose he would quite simply have thrown it away. 
+thank goodness, he was in the open mode so he became curious about why the culture had not grown on this particular dish. and that curiosity, as the world knows, led him to the lightbulb i am sorry, to penicillin. 
+now in the closed mode an uncultured dish is an irrelevance. in the open mode, it a clue. 
+now, one more example one of alfred hitchcock regular co writers has described working with him on screenplays. 
+he says, when we came up against a block and our discussions became very heated and intense, hitchcock would suddenly stop and tell a story that had nothing to do with the work at hand. at first, i was almost outraged, and then i discovered that he did this intentionally. he mistrusted working under pressure. he would say we are pressing, we are pressing, we are working too hard. relax, it will come. and, says the writer, of course it finally always did. 
+but let me make one thing quite clear we need to be in the open mode when we are pondering a problem but once we come up with a solution, we must then switch to the closed mode to implement it. because once we have made a decision, we are efficient only if we go through with it decisively, undistracted by doubts about its correctness. 
+for example, if you decide to leap a ravine, the moment just before take off is a bad time to start reviewing alternative strategies. when you are attacking a machine gun post you should not make a particular effort to see the funny side of what you are doing. 
+humor is a natural concomitant in the open mode, but it a luxury in the closed. 
+no, once we have taken a decision we should narrow our focus while we are implementing it, and then after it been carried out we should once again switch back to the open mode to review the feedback rising from our action, in order to decide whether the course that we have taken is successful, or whether we should continue with the next stage of our plan. whether we should create an alternative plan to correct any error we perceive. 
+and then back into the closed mode to implement that next stage, and so on. 
+in other words, to be at our most efficient we need to be able to switch backwards and forwards between the two modes. 
+but here the problem we too often get stuck in the closed mode. 
+under the pressures which are all too familiar to us we tend to maintain tunnel vision at times when we really need to step back and contemplate the wider view. 
+this is particularly true, for example, of politicians. the main complaint about them from their non political colleagues is that they become so addicted to the adrenaline that they get from reacting to events on an hour by hour basis that they almost completely lose the desire or the ability to ponder problems in the open mode. 
+and that it. well minutes to go so, how many women libbers does it take to change a lightbulb? answer , one to screw it in, and to make a documentary about it. how many psychiatrists does it take to change a lightbulb? the answer only one, but the lightbulb has really got to want to change. 
+oh, there is one, just one, other thing that i can say about creativity. 
+there are certain conditions which do make it more likely that you will get into the open mode, and that something creative will occur. 
+more likely you ca not guarantee anything will occur. you might sit around for hours as i did last tuesday, and nothing. 
+zilch. 
+bupkis. 
+not a sausage. 
+nevertheless i can at least tell you how to get yourselves into the open mode. you need five things 
+sorry, my mind was wondering. i am getting into the open mode too quickly. instead of a inch waist, you need humor. i do beg your pardon. 
+let take space first you ca not become playful and therefore creative if you are under your usual pressures, because to cope with them you have got to be in the closed mode. 
+so you have to create some space for yourself away from those demands. and that means sealing yourself off. 
+you must make a quiet space for yourself where you will be undisturbed. 
+next time. it not enough to create space, you have to create your space for a specific period of time. you have to know that your space will last until exactly , and that at that moment your normal life will start again. 
+and it only by having a specific moment when your space starts and an equally specific moment when your space stops that you can seal yourself off from the every day closed mode in which we all habitually operate. 
+and i would never realized how vital this was until i read a historical study of play by a dutch historian called johan huizinga and in it he says play is distinct from ordinary life, both as to locality and duration. this is its main characteristic its secludedness, its limitedness. play begins and then at a certain moment it is over. otherwise, it not play. 
+so combining the first two factors we create an oasis of quiet for ourselves by setting the boundaries of space and of time. 
+now creativity can happen, because play is possible when we are separate from everyday life. 
+so, you have arranged to take no calls, you have closed your door, you have sat down somewhere comfortable, take a couple of deep breaths and if you are anything like me, after you have pondered some problem that you want to turn into an opportunity for about seconds, you find yourself thinking oh i forgot i have got to call jim oh, and i must tell tina that i need the report on wednesday and not thursday which means i must move my lunch with joe and damn! i have not called st. paul about getting joe daughter an interview and i must pop out this afternoon to get will birthday present and those plants need watering and none of my pencils are sharpened and right! i have got too much to do, so i am going to start by sorting out my paper clips and then i shall make phone calls and i will do some thinking tomorrow when i have got everything out of the way. 
+because, as we all know, it easier to do trivial things that are urgent than it is to do important things that are not urgent, like thinking. 
+and it also easier to do little things we know we can do than to start on big things that we are not so sure about. 
+so when i say create an oasis of quiet know that when you have, your mind will pretty soon start racing again. but you are not going to take that very seriously, you just sit there for a bit tolerating the racing and the slight anxiety that comes with that, and after a time your mind will quiet down again. 
+now, because it takes some time for your mind to quiet down it absolutely no use arranging a space time oasis lasting minutes, because just as you are getting quieter and getting into the open mode you have to stop and that is very deeply frustrating. so you must allow yourself a good chunk of time. i would suggest about an hour and a half. then after you have gotten to the open mode, you will have about an hour left for something to happen, if you are lucky. 
+but do not put a whole morning aside. my experience is that after about an hour and a half you need a break. so it far better to do an hour and a half now and then an hour and a half next thursday and maybe an hour and a half the week after that, than to fix one four and a half hour session now. 
+there another reason for that, and that factor number three time. 
+yes, i know we have just done time, but that was half of creating our oasis. 
+now i am going to tell you about how to use the oasis that you have created. 
+why do you still need time? 
+well, let me tell you a story. i was always intrigued that one of my monty python colleagues who seemed to be to me more talented than i was but did never produce scripts as original as mine. and i watched for some time and then i began to see why. if he was faced with a problem, and fairly soon saw a solution, he was inclined to take it. even though i think he knew the solution was not very original. 
+whereas if i was in the same situation, although i was sorely tempted to take the easy way out, and finish by o'clock, i just could not. i would sit there with the problem for another hour and a quarter, and by sticking at it would, in the end, almost always come up with something more original. 
+it was that simple. 
+my work was more creative than his simply because i was prepared to stick with the problem longer. 
+so imagine my excitement when i found that this was exactly what mackinnon found in his research. he discovered that the most creative professionals always played with a problem for much longer before they tried to resolve it, because they were prepared to tolerate that slight discomfort and anxiety that we all experience when we have not solved a problem. 
+you know i mean, if we have a problem and we need to solve it, until we do, we feel inside us a kind of internal agitation, a tension, or an uncertainty that makes us just plain uncomfortable. and we want to get rid of that discomfort. so, in order to do so, we take a decision. not because we are sure it the best decision, but because taking it will make us feel better. 
+well, the most creative people have learned to tolerate that discomfort for much longer. and so, just because they put in more pondering time, their solutions are more creative. 
+now the people i find it hardest to be creative with are people who need all the time to project an image of themselves as decisive. 
+and who feel that to create this image they need to decide everything very quickly and with a great show of confidence. 
+well, this behavior i suggest sincerely, is the most effective way of strangling creativity at birth. 
+but please note i am not arguing against real decisiveness. i am in favor of taking a decision when it has to be taken and then sticking to it while it is being implemented. 
+what i am suggesting to you is that before you take a decision, you should always ask yourself the question, when does this decision have to be taken? and having answered that, you defer the decision until then, in order to give yourself maximum pondering time, which will lead you to the most creative solution. 
+and if, while you are pondering, somebody accuses you of indecision say, look, babycakes, i do not have to decide until tuesday, and i am not chickening out of my creative discomfort by taking a snap decision before then, that too easy. 
+so, to summarize the third factor that facilitates creativity is time, giving your mind as long as possible to come up with something original. 
+now the next factor, number , is confidence. 
+when you are in your space time oasis, getting into the open mode, nothing will stop you being creative so effectively as the fear of making a mistake. 
+now if you think about play, you will see why. to play is experiment what happens if i do this? what would happen if we did that? what if ? 
+the very essence of playfulness is an openness to anything that may happen. the feeling that whatever happens, it ok. so you cannot be playful if you are frightened that moving in some direction will be wrong something you should not have done. 
+well, you are either free to play, or you are not. 
+as alan watts puts it, you ca not be spontaneous within reason. 
+so you have got risk saying things that are silly and illogical and wrong, and the best way to get the confidence to do that is to know that while you are being creative, nothing is wrong. there no such thing as a mistake, and any drivel may lead to the break through. 
+and now, the last factor, the fifth humor. 
+well, i happen to think the main evolutionary significance of humor is that it gets us from the closed mode to the open mode quicker than anything else. 
+i think we all know that laughter brings relaxation, and that humor makes us playful, yet how many times important discussions been held where really original and creative ideas were desperately needed to solve important problems, but where humor was taboo because the subject being discussed was air quotes so serious ? 
+this attitude seems to me to stem from a very basic misunderstanding of the difference between serious and solemn. 
+now i suggest to you that a group of us could be sitting around after dinner, discussing matters that were extremely serious like the education of our children, or our marriages, or the meaning of life and i am not talking about the film , and we could be laughing, and that would not make what we were discussing one bit less serious. 
+solemnity, on the other hand i do not know what it for. i mean, what is the point of it? the two most beautiful memorial services that i have ever attended both had a lot of humor, and it somehow freed us all, and made the services inspiring and cathartic. 
+but solemnity? it serves pomposity, and the self important always know with some level of their consciousness that their egotism is going to be punctured by humor that why they see it as a threat. and so dishonestly pretend that their deficiency makes their views more substantial, when it only makes them feel bigger. 
+no, humor is an essential part of spontaneity, an essential part of playfulness, an essential part of the creativity that we need to solve problems, no matter how serious they may be. 
+so when you set up a space time oasis, giggle all you want. 
+and there, ladies and gentlemen, are the five factors which you can arrange to make your lives more creative 
+space, time, time, confidence, and lord jeffrey archer. 
+so, now you know how to get into the open mode, the only other requirement is that you keep mind gently around the subject you are pondering. 
+you will daydream, of course, but you just keep bringing your mind back, just like with meditation. because, and this is the extraordinary thing about creativity, if you just keep your mind resting against the subject in a friendly but persistent way, sooner or later you will get a reward from your unconscious, probably in the shower later. or at breakfast the next morning, but suddenly you are rewarded, out of the blue a new thought mysteriously appears. 
+if you have put in the pondering time first. 
+so, how many cecil parkinsons does it take to change a lightbulb? answer two, one to screw it in, one to screw it up. how many account executives does it take to screw in a lightbulb? answer can i get back to you on that? how many norwei oh, sorry, how many yugoslav how many malt how many dutch i am out of jokes. 
+oh! one thing! looking at you all reminds me, i think it easy to be creative if you have got other people to play with. 
+i always find that if two or more of us throw ideas backwards and forwards i get to more interesting and original places than i could have ever have gotten to on my own. but there is a danger, a real danger, if there one person around you who makes you feel defensive, you lose the confidence to play, and it goodbye creativity. 
+so always make sure your play friends are people that you like and trust. 
+and never say anything to squash them either, never say no or wrong or i do not like that. 
+always be positive, and build on what is being said 
+ would it be even better if 
+ i do not quite understand that, can you just explain it again? 
+ go on 
+ what if ? 
+ let pretend 
+try to establish as free an atmosphere as possible. 
+sometimes i wonder if the success of the japanese is not partly due to their instinctive understanding of how to use groups creatively. 
+westerners are often amazed at the unstructured nature of japanese meetings but maybe it just that very lack of structure, that absence of time pressure, that frees them to solve problems so creatively. and how clever of the japanese sometimes to plan that un structured ness by, for example, insisting that the first people to give their views are the most junior, so that they can speak freely without the possibility of contradicting what already been said by somebody more important. 
+four minutes left how many irish sorry, sorry 
+well, look, the very last thing that i can say about creativity is this it like humor. in a joke, the laugh comes at a moment when you connect two different frameworks of reference in a new way. 
+example there the old story about a woman doing a survey into sexual attitudes who stops an airline pilot and asks him, amongst other things, when he last had sexual intercourse. he replies nineteen fifty eight. now, knowing airline pilots, the researcher is surprised, and queries this. well, says the pilot, it only twenty one ten now. 
+we laugh, eventually, at the moment of contact between two frameworks of reference the way we express what year it is and the hour clock. 
+now, having an idea, a new idea, is exactly the same thing. it connecting two hitherto separate ideas in a way that generates new meaning. 
+now, connecting different ideas is not difficult, you can connect cheese with motorcycles or moral courage with light green, or bananas with international cooperation. you can get any computer to make a billion random connection for you, but these new connections or juxtapositions are significant only if they generate new meaning. 
+so as you play you can deliberately try inventing these random juxtapositions, and then use your intuition to tell you whether any of them seem to have significance for you. that the bit the computer ca not do. it can produce millions of new connections, but it ca not tell which one smells interesting. 
+and, of course, you will produce some juxtapositions which are absolutely ridiculous, absurd. good for you! 
+because edward de bono who invented the notion of lateral thinking specifically suggests in his book po beyond yes and no that you can try loosening up your assumptions by playing with deliberately crazy connections. he calls such absurd ideas intermediate impossibles. 
+and he points out the use of an intermediate impossible is completely contrary to ordinary logical thinking in which you have to be right at each stage. 
+it does not matter if the intermediate impossible is right or absurd, it can nevertheless be used as a stepping stone to another idea that is right. another example of how, when you are playing, nothing is wrong. 
+so, to summarize if you really do not know how to start, or if you got stuck, start generating random connections, and allow your intuition to tell you if one might lead somewhere interesting. 
+well, that really is all i can tell you that will not help you to be creative. everything. 
+and now, in the two minutes left, i can come to the important part, and that is, how to stop your subordinates from becoming creative too, which is the real threat. 
+because, believe me no one appreciates better than i do what trouble creative people are. and how they stop decisive, hard nosed bastards like us from running businesses efficiently. 
+i mean, we all know, we encourage someone to be creative, the next thing is they are rocking the boat, coming up with ideas, and asking us questions. now if we do not nip this kind of thing in the bud, we will have to start justifying our decisions by reasoned argument. and sharing information the concealment of which gives us considerable advantages in our power struggles. 
+so, here how to stamp out creativity in the rest of the organization and get a bit of respect going. 
+one allow subordinates no humor, it threatens your self importance and especially your omniscience. treat all humor as frivolous or subversive. 
+because subversive is, of course, what humor will be in your setup, as it the only way that people can express their opposition, since if they express it openly you are down on them like a ton of bricks. 
+so let get this clear blame humor for the resistance that your way of working creates. then you do not have to blame your way of working. this is important. and i mean that solemnly. your dignity is no laughing matter. 
+second keeping ourselves feeling irreplaceable involves cutting everybody else down to size, so do not miss an opportunity to undermine your employees confidence. 
+a perfect opportunity comes when you are reviewing work that they have done. use your authority to zero in immediately on all the things you can find wrong. never, never balance the negatives with positives, only criticize, just as your school teachers did. 
+always remember praise makes people uppity. 
+third demand that people should always be actively doing things. if you catch anyone pondering, accuse them of laziness and or indecision. this is to starve employees of thinking time because that leads to creativity and insurrection. so demand urgency at all times, use lots of fighting talk and war analogies, and establish a permanent atmosphere of stress, of breathless anxiety, and crisis. 
+in a phrase keep that mode closed. 
+in this way we no nonsense types can be sure that the tiny, tiny, microscopic quantity of creativity in our organization will all be ours! 
+but! let your vigilance slip for one moment, and you could find yourself surrounded by happy, enthusiastic, and creative people whom you might never be able to completely control ever again! 
+so be careful. 
+thank you, and good night. thank you.</t>
+  </si>
+  <si>
+    <t>my title must seem like a contradiction. what can solitude have to do with leadership? solitude means being alone, and leadership necessitates the presence of others the people you are leading. when we think about leadership in american history we are likely to think of washington, at the head of an army, or lincoln, at the head of a nation, or king, at the head of a movement people with multitudes behind them, looking to them for direction. and when we think of solitude, we are apt to think of thoreau, a man alone in the woods, keeping a journal and communing with nature in silence. 
+leadership is what you are here to learn the qualities of character and mind that will make you fit to command a platoon, and beyond that, perhaps, a company, a battalion, or, if you leave the military, a corporation, a foundation, a department of government. solitude is what you have the least of here, especially as plebes. you do not even have privacy, the opportunity simply to be physically alone, never mind solitude, the ability to be alone with your thoughts. and yet i submit to you that solitude is one of the most important necessities of true leadership. this lecture will be an attempt to explain why. 
+we need to begin by talking about what leadership really means. i just spent years teaching at another institution that, like west point, liked to talk a lot about leadership, yale university. a school that some of you might have gone to had you not come here, that some of your friends might be going to. and if not yale, then harvard, stanford, mit, and so forth. these institutions, like west point, also see their role as the training of leaders, constantly encourage their students, like west point, to regard themselves as leaders among their peers and future leaders of society. indeed, when we look around at the american elite, the people in charge of government, business, academia, and all our other major institutions senators, judges, ceos, college presidents, and so forth we find that they come overwhelmingly either from the ivy league and its peer institutions or from the service academies, especially west point. 
+so i began to wonder, as i taught at yale, what leadership really consists of. my students, like you, were energetic, accomplished, smart, and often ferociously ambitious, but was that enough to make them leaders? most of them, as much as i liked and even admired them, certainly did not seem to me like leaders. does being a leader, i wondered, just mean being accomplished, being successful? does getting straight as make you a leader? i did not think so. great heart surgeons or great novelists or great shortstops may be terrific at what they do, but that does not mean they are leaders. leadership and aptitude, leadership and achievement, leadership and even ex cellence have to be different things, otherwise the concept of leadership has no meaning. and it seemed to me that that had to be especially true of the kind of excellence i saw in the students around me. 
+see, things have changed since i went to college in the ' s. everything has gotten much more intense. you have to do much more now to get into a top school like yale or west point, and you have to start a lot earlier. we did not begin thinking about college until we were juniors, and maybe we each did a couple of extracurriculars. but i know what it like for you guys now. it an endless series of hoops that you have to jump through, starting from way back, maybe as early as junior high school. classes, standardized tests, extracurriculars in school, extracurriculars outside of school. test prep courses, admissions coaches, private tutors. i sat on the yale college admissions committee a couple of years ago. the first thing the admissions officer would do when presenting a case to the rest of the committee was read what they call the brag in admissions lingo, the list of the student extracurriculars. well, it turned out that a student who had six or seven extracurriculars was already in trouble. because the students who got in in addition to perfect grades and top scores usually had or . 
+so what i saw around me were great kids who had been trained to be world class hoop jumpers. any goal you set them, they could achieve. any test you gave them, they could pass with flying colors. they were, as one of them put it herself, excellent sheep. i had no doubt that they would continue to jump through hoops and ace tests and go on to harvard business school, or michigan law school, or johns hopkins medical school, or goldman sachs, or mckinsey consulting, or whatever. and this approach would indeed take them far in life. they would come back for their th reunion as a partner at white case, or an attending physician at mass general, or an assistant secretary in the department of state. 
+that is exactly what places like yale mean when they talk about training leaders. educating people who make a big name for themselves in the world, people with impressive titles, people the university can brag about. people who make it to the top. people who can climb the greasy pole of whatever hierarchy they decide to attach themselves to. 
+but i think there something desperately wrong, and even dangerous, about that idea. to explain why, i want to spend a few minutes talking about a novel that many of you may have read, heart of darkness. if you have not read it, you have probably seen apocalypse now, which is based on it. marlow in the novel becomes captain willard, played by martin sheen. kurtz in the novel becomes colonel kurtz, played by marlon brando. but the novel is not about vietnam it about colonialism in the belgian congo three generations before vietnam. marlow, not a military officer but a merchant marine, a civilian ship captain, is sent by the company that running the country under charter from the belgian crown to sail deep upriver, up the congo river, to retrieve a manager who ensconced himself in the jungle and gone rogue, just like colonel kurtz does in the movie. 
+now everyone knows that the novel is about imperialism and colonialism and race relations and the darkness that lies in the human heart, but it became clear to me at a certain point, as i taught the novel, that it is also about bureaucracy what i called, a minute ago, hierarchy. the company, after all, is just that a company, with rules and procedures and ranks and people in power and people scrambling for power, just like any other bureaucracy. just like a big law firm or a governmental department or, for that matter, a university. just like and here why i am telling you all this just like the bureaucracy you are about to join. the word bureaucracy tends to have negative connotations, but i say this in no way as a criticism, merely a description, that the u.s. army is a bureaucracy and one of the largest and most famously bureaucratic bureaucracies in the world. after all, it was the army that gave us, among other things, the indispensable bureaucratic acronym snafu situation normal all fucked up or all fouled up in the cleaned up version. that comes from the u.s. army in world war ii. 
+you need to know that when you get your commission, you will be joining a bureaucracy, and however long you stay in the army, you will be operating within a bureaucracy. as different as the armed forces are in so many ways from every other institution in society, in that respect they are the same. and so you need to know how bureaucracies operate, what kind of behavior what kind of character they reward, and what kind they punish. 
+so, back to the novel. marlow proceeds upriver by stages, just like captain willard does in the movie. first he gets to the outer station. kurtz is at the inner station. in between is the central station, where marlow spends the most time, and where we get our best look at bureaucracy in action and the kind of people who succeed in it. this is marlow description of the manager of the central station, the big boss 
+he was commonplace in complexion, in features, in manners, and in voice. he was of middle size and of ordinary build. his eyes, of the usual blue, were perhaps remarkably cold. . . . otherwise there was only an indefinable, faint expression of his lips, something stealthy a smile not a smile i remember it, but i ca not explain. . . . he was a common trader, from his youth up employed in these parts nothing more. he was obeyed, yet he inspired neither love nor fear, nor even respect. he inspired uneasiness. that was it! uneasiness. not a definite mistrust just uneasiness nothing more. you have no idea how effective such a . . . a . . . faculty can be. he had no genius for organizing, for initiative, or for order even. . . . he had no learning, and no intelligence. his position had come to him why? . . . he originated nothing, he could keep the routine going that all. but he was great. he was great by this little thing that it was impossible to tell what could control such a man. he never gave that secret away. perhaps there was nothing within him. such a suspicion made one pause. 
+note the adjectives commonplace, ordinary, usual, common. there is nothing distinguished about this person. about the th time i read that passage, i realized it was a perfect description of the kind of person who tends to prosper in the bureaucratic environment. and the only reason i did is because it suddenly struck me that it was a perfect description of the head of the bureaucracy that i was part of, the chairman of my academic department who had that exact same smile, like a shark, and that exact same ability to make you uneasy, like you were doing something wrong, only she was not ever going to tell you what. like the manager and i am sorry to say this, but like so many people you will meet as you negotiate the bureaucracy of the army or for that matter of whatever institution you end up giving your talents to after the army, whether it microsoft or the world bank or whatever the head of my department had no genius for organizing or initiative or even order, no particular learning or intelligence, no distinguishing characteristics at all. just the ability to keep the routine going, and beyond that, as marlow says, her position had come to her why? 
+that really the great mystery about bureaucracies. why is it so often that the best people are stuck in the middle and the people who are running things the leaders are the mediocrities? because excellence is not usually what gets you up the greasy pole. what gets you up is a talent for maneuvering. kissing up to the people above you, kicking down to the people below you. pleasing your teachers, pleasing your superiors, picking a powerful mentor and riding his coattails until it time to stab him in the back. jumping through hoops. getting along by going along. being whatever other people want you to be, so that it finally comes to seem that, like the manager of the central station, you have nothing inside you at all. not taking stupid risks like trying to change how things are done or question why they are done. just keeping the routine going. 
+i tell you this to forewarn you, because i promise you that you will meet these people and you will find yourself in environments where what is rewarded above all is conformity. i tell you so you can decide to be a different kind of leader. and i tell you for one other reason. as i thought about these things and put all these pieces together the kind of students i had, the kind of leadership they were being trained for, the kind of leaders i saw in my own institution i realized that this is a national problem. we have a crisis of leadership in this country, in every institution. not just in government. look at what happened to american corporations in recent decades, as all the old dinosaurs like general motors or twa or u.s. steel fell apart. look at what happened to wall street in just the last couple of years. 
+finally and i know i am on sensitive ground here look at what happened during the first four years of the iraq war. we were stuck. it was not the fault of the enlisted ranks or the noncoms or the junior officers. it was the fault of the senior leadership, whether military or civilian or both. we were not just not winning, we were not even changing direction. 
+we have a crisis of leadership in america because our overwhelming power and wealth, earned under earlier generations of leaders, made us complacent, and for too long we have been training leaders who only know how to keep the routine going. who can answer questions, but do not know how to ask them. who can fulfill goals, but do not know how to set them. who think about how to get things done, but not whether they are worth doing in the first place. what we have now are the greatest technocrats the world has ever seen, people who have been trained to be incredibly good at one specific thing, but who have no interest in anything beyond their area of exper tise. what we do not have are leaders. 
+what we do not have, in other words, are thinkers. people who can think for themselves. people who can formulate a new direction for the country, for a corporation or a college, for the army a new way of doing things, a new way of looking at things. people, in other words, with vision. 
+now some people would say, great. tell this to the kids at yale, but why bother telling it to the ones at west point? most people, when they think of this institution, assume that it the last place anyone would want to talk about thinking creatively or cultivating independence of mind. it the army, after all. it no accident that the word regiment is the root of the word regimentation. surely you who have come here must be the ultimate conformists. must be people who have bought in to the way things are and have no interest in changing it. are not the kind of young people who think about the world, who ponder the big issues, who question authority. if you were, you would have gone to amherst or pomona. you are at west point to be told what to do and how to think. 
+but you know that not true. i know it, too otherwise i would never have been invited to talk to you, and i am even more convinced of it now that i have spent a few days on campus. to quote colonel scott krawczyk, your course director, in a lecture he gave last year to english 
+from the very earliest days of this country, the model for our officers, which was built on the model of the citizenry and reflective of democratic ideals, was to be different. they were to be possessed of a democratic spirit marked by independent judgment, the freedom to measure action and to express disagreement, and the crucial responsibility never to tolerate tyranny. 
+all the more so now. anyone who been paying attention for the last few years understands that the changing nature of warfare means that officers, including junior officers, are required more than ever to be able to think independently, creatively, flexibly. to deploy a whole range of skills in a fluid and complex situation. lieutenant colonels who are essentially functioning as provincial governors in iraq, or captains who find themselves in charge of a remote town somewhere in afghanistan. people who know how to do more than follow orders and execute routines. 
+look at the most successful, most acclaimed, and perhaps the finest soldier of his generation, general david petraeus. he one of those rare people who rises through a bureaucracy for the right reasons. he is a thinker. he is an intellectual. in fact, prospect magazine named him public intellectual of the year in that in the world. he has a ph.d. from princeton, but what makes him a thinker is not that he has a ph.d. or that he went to princeton or even that he taught at west point. i can assure you from personal experience that there are a lot of highly educated people who do not know how to think at all. 
+no, what makes him a thinker and a leader is precisely that he is able to think things through for himself. and because he can, he has the confidence, the courage, to argue for his ideas even when they are not popular. even when they do not please his superiors. courage there is physical courage, which you all possess in abundance, and then there is another kind of courage, moral courage, the courage to stand up for what you believe. 
+it was not always easy for him. his path to where he is now was not a straight one. when he was running mosul in as commander of the st airborne and developing the strategy he would later formulate in the counterinsurgency field manual and then ultimately apply throughout iraq, he pissed a lot of people off. he was way ahead of the leadership in baghdad and washington, and bureaucracies do not like that sort of thing. here he was, just another two star, and he was saying, implicitly but loudly, that the leadership was wrong about the way it was running the war. indeed, he was not rewarded at first. he was put in charge of training the iraqi army, which was considered a blow to his career, a dead end job. but he stuck to his guns, and ultimately he was vindicated. ironically, one of the central elements of his counterinsurgency strategy is precisely the idea that officers need to think flexibly, creatively, and independently. 
+that the first half of the lecture the idea that true leadership means being able to think for yourself and act on your convictions. but how do you learn to do that? how do you learn to think? let start with how you do not learn to think. a study by a team of researchers at stanford came out a couple of months ago. the investigators wanted to figure out how today college students were able to multitask so much more effectively than adults. how do they manage to do it, the researchers asked? the answer, they discovered and this is by no means what they expected is that they do not. the enhanced cognitive abilities the investigators expected to find, the mental faculties that enable people to multitask effectively, were simply not there. in other words, people do not multitask effectively. and here the really surprising finding the more people multitask, the worse they are, not just at other mental abilities, but at multitasking itself. 
+one thing that made the study different from others is that the researchers did not test people cognitive functions while they were multitasking. they separated the subject group into high multitaskers and low multitaskers and used a different set of tests to measure the kinds of cognitive abilities involved in multitasking. they found that in every case the high multitaskers scored worse. they were worse at distinguishing between relevant and irrelevant information and ignoring the latter. in other words, they were more distractible. they were worse at what you might call mental filing keeping information in the right conceptual boxes and being able to retrieve it quickly. in other words, their minds were more disorganized. and they were even worse at the very thing that defines multitasking itself switching between tasks. 
+multitasking, in short, is not only not thinking, it impairs your ability to think. thinking means concentrating on one thing long enough to develop an idea about it. not learning other people ideas, or memorizing a body of information, however much those may sometimes be useful. developing your own ideas. in short, thinking for yourself. you simply cannot do that in bursts of seconds at a time, constantly interrupted by facebook messages or twitter tweets, or fiddling with your ipod, or watching something on youtube. 
+i find for myself that my first thought is never my best thought. my first thought is always someone else it always what i have already heard about the subject, always the conventional wisdom. it only by concentrating, sticking to the question, being patient, letting all the parts of my mind come into play, that i arrive at an original idea. by giving my brain a chance to make associations, draw connections, take me by surprise. and often even that idea does not turn out to be very good. i need time to think about it, too, to make mistakes and recognize them, to make false starts and correct them, to outlast my impulses, to defeat my desire to declare the job done and move on to the next thing. 
+i used to have students who bragged to me about how fast they wrote their papers. i would tell them that the great german novelist thomas mann said that a writer is someone for whom writing is more difficult than it is for other people. the best writers write much more slowly than everyone else, and the better they are, the slower they write. james joyce wrote ulysses, the greatest novel of the th century, at the rate of about a hundred words a day half the length of the selection i read you earlier from heart of darkness for seven years. t. s. eliot, one of the greatest poets our country has ever produced, wrote about pages of poetry over the course of his entire year career. that half a page a month. so it is with any other form of thought. you do your best thinking by slowing down and concentrating. 
+now that the third time i have used that word, concentrating. concentrating, focusing. you can just as easily consider this lecture to be about concentration as about solitude. think about what the word means. it means gathering yourself together into a single point rather than letting yourself be dispersed everywhere into a cloud of electronic and social input. it seems to me that facebook and twitter and youtube and just so you do not think this is a generational thing, tv and radio and magazines and even newspapers, too are all ultimately just an elaborate excuse to run away from yourself. to avoid the difficult and troubling questions that being human throws in your way. am i doing the right thing with my life? do i believe the things i was taught as a child? what do the words i live by words like duty, honor, and country really mean? am i happy? 
+you and the members of the other service academies are in a unique position among college students, especially today. not only do you know that you are going to have a job when you graduate, you even know who your employer is going to be. but what happens after you fulfill your commitment to the army? unless you know who you are, how will you figure out what you want to do with the rest of your life? unless you are able to listen to yourself, to that quiet voice inside that tells you what you really care about, what you really believe in indeed, how those things might be evolving under the pressure of your experiences. students everywhere else agonize over these questions, and while you may not be doing so now, you are only postponing them for a few years. 
+maybe some of you are agonizing over them now. not everyone who starts here decides to finish here. it no wonder and no cause for shame. you are being put through the most demanding training anyone can ask of people your age, and you are committing yourself to work of awesome responsibility and mortal danger. the very rigor and regimentation to which you are quite properly subject here naturally has a tendency to make you lose touch with the passion that brought you here in the first place. i saw exactly the same kind of thing at yale. it not that my students were robots. quite the reverse. they were in tensely idealistic, but the overwhelming weight of their practical responsibilities, all of those hoops they had to jump through, often made them lose sight of what those ideals were. why they were doing it all in the first place. 
+so it perfectly natural to have doubts, or questions, or even just difficulties. the question is, what do you do with them? do you suppress them, do you distract yourself from them, do you pretend they do not exist? or do you confront them directly, honestly, courageously? if you decide to do so, you will find that the answers to these dilemmas are not to be found on twitter or comedy central or even in the new york times. they can only be found within without distractions, without peer pressure, in solitude. 
+but let me be clear that solitude does not always have to mean introspection. let go back to heart of darkness. it the solitude of concentration that saves marlow amidst the madness of the central station. when he gets there he finds out that the steamboat he supposed to sail upriver has a giant hole in it, and no one is going to help him fix it. i let him run on, he says, this papier m ch mephistopheles he talking not about the manager but his assistant, who even worse, since he still trying to kiss his way up the hierarchy, and who been raving away at him. you can think of him as the internet, the ever present social buzz, chattering away at you 
+i let him run on, this papier m ch mephistopheles and it seemed to me that if i tried i could poke my forefinger through him, and would find nothing inside but a little loose dirt. . . . 
+it was a great comfort to turn from that chap to . . . the battered, twisted, ruined, tin pot steamboat. . . . i had expended enough hard work on her to make me love her. no influential friend would have served me better. she had given me a chance to come out a bit to find out what i could do. no, i do not like work. i had rather laze about and think of all the fine things that can be done. i do not like work no man does but i like what is in the work, the chance to find yourself. your own reality for yourself, not for others what no other man can ever know. 
+ the chance to find yourself. now that phrase, finding yourself, has acquired a bad reputation. it suggests an aimless liberal arts college graduate an english major, no doubt, someone who went to a place like amherst or pomona who too spoiled to get a job and spends his time staring off into space. but here marlow, a mariner, a ship captain. a more practical, hardheaded person you could not find. and i should say that marlow creator, conrad, spent years as a merchant marine, eight of them as a ship captain, before he became a writer, so this was not just some artist idea of a sailor. marlow believes in the need to find yourself just as much as anyone does, and the way to do it, he says, is work, solitary work. concentration. climbing on that steamboat and spending a few uninterrupted hours hammering it into shape. or building a house, or cooking a meal, or even writing a college paper, if you really put yourself into it. 
+ your own reality for yourself, not for others. thinking for yourself means finding yourself, finding your own reality. here the other problem with facebook and twitter and even the new york times. when you expose yourself to those things, especially in the constant way that people do now older people as well as younger people you are continuously bombarding yourself with a stream of other people thoughts. you are marinating yourself in the conventional wisdom. in other people reality for others, not for yourself. you are creating a cacophony in which it is impossible to hear your own voice, whether it yourself you are thinking about or anything else. that what emerson meant when he said that he who should inspire and lead his race must be defended from travelling with the souls of other men, from living, breathing, reading, and writing in the daily, time worn yoke of their opinions. notice that he uses the word lead. leadership means finding a new direction, not simply putting yourself at the front of the herd that heading toward the cliff. 
+so why is reading books any better than reading tweets or wall posts? well, sometimes it is not. sometimes, you need to put down your book, if only to think about what you are reading, what you think about what you are reading. but a book has two advantages over a tweet. first, the person who wrote it thought about it a lot more carefully. the book is the result of his solitude, his attempt to think for himself. 
+second, most books are old. this is not a disadvantage this is precisely what makes them valuable. they stand against the conventional wisdom of today simply because they are not from today. even if they merely reflect the conventional wisdom of their own day, they say something different from what you hear all the time. but the great books, the ones you find on a syllabus, the ones people have continued to read, do not reflect the conventional wisdom of their day. they say things that have the permanent power to disrupt our habits of thought. they were revolutionary in their own time, and they are still revolutionary today. and when i say revolutionary, i am deliberately evoking the american revolution, because it was a result of precisely this kind of independent thinking. without solitude the solitude of adams and jefferson and hamilton and madison and thomas paine there would be no america. 
+so solitude can mean introspection, it can mean the concentration of focused work, and it can mean sustained reading. all of these help you to know yourself better. but there one more thing i am going to include as a form of solitude, and it will seem counterintuitive friendship. of course friendship is the opposite of solitude it means being with other people. but i am talking about one kind of friendship in particular, the deep friendship of intimate conversation. long, uninterrupted talk with one other person. not skyping with three people and texting with two others at the same time while you hang out in a friend room listening to music and studying. that what emerson meant when he said that the soul environs itself with friends, that it may enter into a grander self acquaintance or solitude. 
+introspection means talking to yourself, and one of the best ways of talking to yourself is by talking to another person. one other person you can trust, one other person to whom you can unfold your soul. one other person you feel safe enough with to allow you to acknowledge things to acknowledge things to yourself that you otherwise ca not. doubts you are not supposed to have, questions you are not supposed to ask. feelings or opinions that would get you laughed at by the group or reprimanded by the authorities. 
+this is what we call thinking out loud, discovering what you believe in the course of articulating it. but it takes just as much time and just as much patience as solitude in the strict sense. and our new electronic world has disrupted it just as violently. instead of having one or two true friends that we can sit and talk to for three hours at a time, we have friends that we never actually talk to instead we just bounce one line messages off them a hundred times a day. this is not friendship, this is distraction. 
+i know that none of this is easy for you. even if you threw away your cell phones and unplugged your computers, the rigors of your training here keep you too busy to make solitude, in any of these forms, anything less than very difficult to find. but the highest reason you need to try is precisely because of what the job you are training for will demand of you. 
+you have probably heard about the hazing scandal at the u.s. naval base in bahrain that was all over the news recently. terrible, abusive stuff that involved an entire unit and was orchestrated, allegedly, by the head of the unit, a senior noncommissioned officer. what are you going to do if you are confronted with a situation like that going on in your unit? will you have the courage to do what right? will you even know what the right thing is? it easy to read a code of conduct, not so easy to put it into practice, especially if you risk losing the loyalty of the people serving under you, or the trust of your peer officers, or the approval of your superiors. what if you are not the commanding officer, but you see your superiors condoning something you think is wrong? 
+how will you find the strength and wisdom to challenge an unwise order or question a wrongheaded policy? what will you do the first time you have to write a letter to the mother of a slain soldier? how will you find words of comfort that are more than just empty formulas? 
+these are truly formidable dilemmas, more so than most other people will ever have to face in their lives, let alone when they are . the time to start preparing yourself for them is now. and the way to do it is by thinking through these issues for yourself morality, mortality, honor so you will have the strength to deal with them when they arise. waiting until you have to confront them in practice would be like waiting for your first firefight to learn how to shoot your weapon. once the situation is</t>
+  </si>
+  <si>
+    <t>what i want to talk to you about tonight is strictly speaking not on the character of physical laws. because one might imagine at least that one talking about nature, when one talking about the character of physical laws. but i do not want to talk about nature, but rather how we stand relative to nature now. i want to tell you what we think we know and what there is to guess and how one goes about guessing it. 
+someone suggested that it would be ideal if, as i went along, i would slowly explain how to guess the laws and then create a new law for you right as i went along. 
+i do not know whether i will be able to do that. but first, i want to tell about what the present situation is, what it is that we know about the physics. you think that i have told you everything already, because in all the lectures, i told you all the great principles that are known. 
+but the principles must be principles about something. the principles that i just spoke of, the conservation of energy the energy of something and quantum mechanical laws are quantum mechanical principles about something. and all these principles added together still does not tell us what the content is of the nature, that is, what we are talking about. so i will tell you a little bit about the stuff, on which all these principles are supposed to have been working. 
+first of all is matter, and remarkably enough, all matter is the same. the matter of which the stars are made is known to be the same as the matter on the earth, by the character of the light that emitted by those stars they give a kind of fingerprint, by which you can tell that it the same kind of atoms in the stars. as on the earth, the same kind of atoms appear to be in living creatures as in non living creatures. frogs are made out of the same goop in different arrangement than rocks. 
+so that makes our problem simpler. we have nothing but atoms, all the same, everywhere. and the atoms all seem to be made from the same general constitution. they have a nucleus, and around the nucleus there are electrons. 
+so i begin to list the parts of the world that we think we know about. one of them is electrons, which are the particles on the outside the atoms. then there are the nuclei. but those are understood today as being themselves made up of two other things, which are called neutrons and protons. they are two particles. 
+incidentally, we have to see the stars and see the atoms and they emit light. and the light is described by particles, themselves, which are called photons. and at the beginning, we spoke about gravitation. and if the quantum theory is right, then the gravitation should have some kind of waves, which behave like particles too. and they call those gravitons. if you do not believe in that, just read gravity here, it the same. 
+now finally, i did mention that in what called beta decay, in which a neutron can disintegrate into a proton and an electron and a neutrino or alien anti neutrino there another particle, here, a neutrino. in addition to all the particles that i am listing, there are of course all the anti particles. but that just a quick statement and takes care of doubling the number of particles immediately. but there no complications. 
+now with the particles that i have listed here, all of the low energy phenomena, all of in fact ordinary phenomena that happen everywhere in the universe as far as we know, with the exception of here and there some very high energy particle does something, or in a laboratory we have been able to do some peculiar things. but if we leave out those special cases, all ordinary phenomena are presumably explained by the action and emotions of these kinds of things. 
+for example, life itself is supposedly made, if understood i mean understandable in principle from the action of movements of atoms. and those atoms are made out of neutrons, protons, and electrons. i must immediately say that when we say, we understand it in principle, i only mean that we think we would, if we could figure everything out, find that there nothing new in physics to be discovered, in order to understand the phenomena of light. or, for instance, for the fact that the stars emit energy solar energy or stellar energy is presumably also understood in terms of nuclear reactions among these particles and so on. 
+and all kinds of details of the way atoms behave are accurately described with this kind of model, at least as far as we know at present. in fact, i can say that in this range of phenomena today, as far as i know there are no phenomena that we are sure cannot be explained this way, or even that there deep mystery about. 
+this was not always possible. there was, for instance, for a while a phenomenon called super conductivity there still is the phenomenon which is that metals conduct electricity without resistance at low temperatures. and it was not at first obvious that this was a consequence of the known laws with these particles. but it turns out that it has been thought through carefully enough. and it seen, in fact, to be a consequence of known laws. 
+there are other phenomena, such as extrasensory perception, which cannot be explained by this known knowledge of physics here. and it is interesting, however, that that phenomena had not been well established, and that we cannot guarantee that it there. so if it could be demonstrated, of course that would prove that the physics is incomplete. and therefore, it extremely interesting to physicists, whether it right or wrong. and many, many experiments exist which show it does not work. 
+the same goes for astrological influences. if it were true that the stars could affect the day that it was good to go to the dentist, then because in america we have that kind of astrology then it would be wrong. the physics theory would be wrong, because there no mechanism understandable in principle from these things that would make it go. and that the reason that there some skepticism among scientists, with regard to those ideas. 
+on the other hand, in the case of hypnotism, at first it looked like that also would be impossible, when it was described incompletely. but now that it known better, it is realized that it is not absolutely impossible that hypnosis could occur through normal physiological but unknown processes. it does not require some special, new kind of course. 
+now, today although the knowledge or the theory of what goes on outside the nucleus of the atom seems precise and complete enough, in the sense that given enough time, we can calculate anything as accurately as it can be measured, it turns out that the forces between neutrons and protons, which constitute the nucleus, are not so completely known and are not understood at all well. and that what i mean by that is, that we cannot today, we do not today understand the forces between neutrons and protons to the extent that if you wanted me to, and give me enough time and computers, i could calculate exactly the energy levels of carbon or something like that. because we do not know enough about that. although we can do the corresponding thing for the energy levels of the outside electrons of the atom, we cannot for the nuclei. so the nuclear forces are still not understood very well. 
+now in order to find out more about that, experimenters have gone on. and they have to study phenomena at very high energy, where they hit neutrons and protons together at very high energy and produced peculiar things. and by studying those peculiar things, we hope to understand better the forces between neutrons and protons. 
+well, a pandora box has been opened by these experiments, although all we really wanted was to get a better idea of the forces between neutrons and protons. when we hit these things together hard, we discover that there are more particles in the world. and as a matter of fact, in this column there was plus over four dozen other particles have been dredged up in an attempt to understand these. and these four dozen other are put in this column, because they have very relevant to the neutron proton problem. they interact very much with neutrons and protons. and they have got something to do with the force between neutrons and protons. so we have got a little bit too much. 
+in addition to that, while the dredge was digging up all this mud over here, it picked up a couple of pieces that are not wanted and are irrelevant to the problem of nuclear forces. and one of them is called a mu meson, or a muon. and the other was a neutrino, which goes with it. 
+there are two kinds of neutrinos, one which goes with the electron, and one which goes with the mu meson. incidentally, most amazingly, all the laws of the muon and its neutrino are now known. as far as we can tell experimentally, the law is they behave precisely the same as the electron and its neutrino, except that the mass of the mu meson is times heavier than the electron. 
+and that the only difference known between those objects. but it rather curious. but i ca not say anymore, because nobody knows anymore. 
+now four dozen other particles is a frightening array plus the anti particles is a frightening array of things. but it turns out, they have various names, mesons, pions, kaons, lambda, sigma four dozen particles, there are going to be a lot of names. 
+but it turns out that these particles come in families, so it helps us a little bit. actually, some of these so called particles last such a short time that there are debates whether it in fact possible to define their very existence and whether it a particle or not. but i will not enter into that debate. 
+in order to illustrate the family idea, i take the two part cases of a neutron and a proton. the neutron and proton have the same mass, within . or so. one is , the other is times as heavy as an electron roughly, if i remember the numbers. 
+but the thing that very remarkable is this. that for the nuclear forces, which are the strong forces inside the nucleus, the force between a pair of protons two protons is the same as between a proton and a neutron and is the same again between a neutron and a neutron. in other words, for the strong nuclear forces, you ca not tell a proton from a neutron. 
+or a symmetry law neutrons may be substituted for protons, without changing anything, provided you are only talking about the strong forces. if you are talking about electrical forces, oh no. if you change a neutron for a proton, you have a terrible difference. because the proton carries electrical charge, and a neutron does not. so by electric measurement, immediately you can see the difference between a proton and a neutron. 
+so this symmetry, that you can replace neutrons by protons, is what we call an approximate symmetry. it right for the strong interactions in nuclear forces. but it not right in some deep sense of nature, because it does not work for the electricity. it just called a partial symmetry. and we have to struggle with these partial symmetries. 
+now the families have been extended. it turns out that the substitution neutron proton can be extended to substitution over a wider range of particles. but the accuracy is still lower. you see, that neutrons can always be substituted for protons is only approximate. it not true for electricity. and that the wider substitutions that have been discovered are legitimate is still more poor, a very poor symmetry, not very accurate. but they have helped to gather the particles into families, and thus to locate places where particles are missing and to help to discover the new ones. 
+this kind of game, of roughly guessing at family relations and so on, is illustrative of a kind of preliminary sparring which one does with nature, before really discovering some deep and fundamental law. before you get the deeper discoveries, examples are very important in the previous history of science. for instance, mendeleev discovery of the periodic table for the elements is analogous to this game. it is the first step, but the complete description of the reason for the periodic table came much later, with atomic theory. 
+in the same way, organization of the knowledge of nuclear levels and characteristics was made by maria mayer and jensen, in what they call the shell model of nuclei some years ago. and it an analogous game, in which a reduction of a complexity is made by some approximate guesses. and that the way it stands today. 
+in addition to these things, then we have all these principles that we were talking about before. principle of relativity, that the things must behave quantum mechanically. and combining that with the relativity that all conservation laws must be local. and so when we put all these principles together, we discover there are too many. they are inconsistent with each other. 
+it seems as if, if we add quantum mechanics plus relativity plus the proposition that everything has to be local plus a number of tacit assumptions which we ca not really find out, because we are prejudiced, we do not see what they are, and it hard to say what they are. adding it all together we get inconsistency, because we really get infinity for various things when we calculate them. well, if we get infinity, how will we ever agree that this agrees with nature? 
+it turns out that it possible to sweep the infinities under the rug by a certain crude skill. and temporarily, we are able to keep on calculating. but the fact of the matter is that all the principles that i told you up till now, if put together, plus some tacit assumptions that we do not know, it gives trouble. they cannot mutually consistent, nice problem. 
+an example of the tacit assumptions that we do not know what the significance is, such propositions are the following. if you calculate the chance for every possibility there is probably this will happen, that will happen it should add up to one. if you add all the alternatives, you should get probability. that seems reasonable, but reasonable things are where the trouble always is. 
+another proposition is that the energy of something must always be positive, it ca not be negative. another proposition that is probably added in, in order before we get inconsistency, is what called causality, which is something like the idea that effects cannot proceed their causes. actually, no one has made a model, in which you disregard the proposition about the probability, or you disregard the causality, which is also consistent with quantum mechanics, relativity, locality, and so on. so we really do not know exactly what it is we are assuming that gives us the difficulty producing infinities. 
+ok, now that the present situation. now i am going to discuss how we would look for a new law. in general, we look for a new law by the following process. first, we guess it. 
+then, we compute well, do not laugh, that really true. then we compute the consequences of the guess, to see what, if this is right, if this law that we guessed is right, we see what it would imply. and then we compare those computation results to nature. or we say, compare to experiment or experience. compare it directly with observation, to see if it works. 
+if it disagrees with experiment, it wrong. and that simple statement is the key to science. it does not make any difference how beautiful your guess is, it does not make any difference how smart you are, who made the guess, or what his name is. if it disagrees with experiment, it wrong. that all there is to it. 
+it true, however, that one has to check a little bit, to make sure that it wrong. because someone who did the experiment may have reported incorrectly. or there may have been some feature in the experiment that was not noticed, like some kind of dirt and so on. you have to obviously check. 
+furthermore, the man who computed the consequences may have been the same one that made the guesses, may have made some mistake in the analysis. those are obvious remarks. so when i say, if it disagrees with experiment, it wrong, i mean after the experiment has been checked, the calculations have been checked, and the thing has been rubbed back and forth a few times to make sure that the consequences are logical consequences from the guess, and that, in fact, it disagrees with our very carefully checked experiment. 
+this will give you somewhat the wrong impression of science. it means that we keep on guessing possibilities and comparing to experiments. and this is to put an experiment on a little bit weak position. it turns out that the experimenters have a certain individual character. they like to do experiments, even if nobody guessed yet. 
+so it very often true that experiments in a region in which people know the theorist does not know anything, nobody has guessed yet for instance, we may have guessed all these laws, but we do not know whether they really work at very high energy because it just a good guess that they work at high energy. so experimenters say, let try higher energy. and therefore experiment produces trouble every once in a while. that is it produces a discovery that one of things that we thought of is wrong, so an experiment can produce unexpected results. and that starts us guessing again. 
+for instance, an unexpected result is the mu meson and its neutrino, which was not guessed at by anybody, whatever, before it was discovered. and still nobody has any method of guessing, by which this is a natural thing. 
+now you see, of course, that with this method, we can disprove any definite theory. if you have a definite theory and a real guess, from which you can really compute consequences, which could be compared to experiment, then in principle, we can get rid of any theory. we can always prove any definite theory wrong. 
+notice, however, we never prove it right. suppose that you invent a good guess, calculate the consequences, and discover that every consequence that you calculate agrees with experiment. your theory is then right? 
+no, it is simply not proved wrong. because in the future, there could be a wider range of experiments, you can compute a wider range of consequences. and you may discover, then, that the thing is wrong. 
+that why laws like newton laws for the motion of planets lasts such a long time. he guessed the law of gravitation, tackling all the kinds of consequences for the solar system and so on, compared them to experiment, and it took several years before the slight error of the motion of mercury was developed. during all that time, the theory had been failed to be proved wrong and could be taken to be temporarily right. 
+but it can never be proved right, because tomorrow experiment may succeed in proving what you thought was right, wrong. so we never are right. we can only be sure we are wrong. 
+however, it rather remarkable that we can last so long, i mean to have some idea which will last so long. 
+incidentally, some people, one of the ways of stopping the science would be to only do experiments in the region where you know the laws. but the experimenters search most diligently and with the greatest effort in exactly those places where it seems most likely that we can prove their theories wrong. in other words, we are trying to prove ourselves wrong as quickly as possible. because only in that way do we find workers progress. 
+for example, today among ordinary low energy phenomena, we do not know where to look for trouble. we think everything all right. and so there is not any particular big program looking for trouble in nuclear reactions or in superconductivity. 
+i must say, i am concentrating on discovering fundamental laws. there a whole range of physics, which is interesting and understanding at another level these phenomena like super conductivity in nuclear reactions. but i am talking about discovering trouble, something wrong with the fundamental law. so nobody knows where to look there, therefore all the experiments today in this field, of finding out a new law are in high energy. 
+i must also point out to you that you cannot prove a vague theory wrong. if the guess that you make is poorly expressed and rather vague, and the method that you used for figuring out the consequences is rather vague, you are not sure, and you just say i think everything is because it all due to moogles, and moogles do this and that, more or less. so i can sort of explain how this works. then you say that that theory is good, because it ca not be proved wrong. 
+if the process of computing the consequences is indefinite, then with a little skill, any experimental result can be made to look like an expected consequence. you are probably familiar with that in other fields. for example, a hates his mother. the reason is, of course, because she did not caress him or love him enough when he was a child. 
+actually, if you investigate, you find out that as a matter of fact, she did love him very much. and everything was all right. well, then, it because she was overindulgent when he was young. 
+so by having a vague theory, it possible to get either result. 
+now wait, the cure for this one is the following. it would be possible to say if it were possible to state ahead of time how much love is not enough, and how much love is overindulgent exactly, then there would be a perfectly legitimate theory, against which you could make tests. it is usually said when this is pointed out, how much love and so on, oh, you are dealing with psychological matters, and things ca not be defined so precisely. yes, but then you ca not claim to know anything about it. 
+now, we have examples, you will be are horrified to hear, in physics of exactly the same kind. we have these approximate symmetries. it works something like this. you have approximate symmetry, you suppose it perfect. calculate the consequences, it easy if you suppose it perfect. 
+you compare with experiment, of course it does not agree. the symmetry you are supposed to expect is approximate. so if the agreement is pretty good, you say, nice. if the agreement is very poor, you say, well this particular thing must be especially sensitive to the failure of the symmetry. 
+now you laugh, but we have to make progress in that way. in the beginning, when our subject is first new, and these particles are new to us, this jockeying around, this is a feeling way of guessing at the result. and this is the beginning of any science. 
+and the same thing is true of psychology as it is of the symmetry propositions in physics. so do not laugh too hard, it necessary in the very beginning to be very careful. it easy to fall over the deep end by this kind of a vague theory. it hard to prove it wrong. it takes a certain skill and experience to not walk off the plank on the game. 
+in this process of guessing, computing consequences, and comparing to experiment, we can get stuck at various stages. for example, we may in the guess stage get stuck. we have no ideas, we ca not guess an idea. 
+or we may get in the computing stage stuck. for example, yukawa guessed an idea for the nuclear forces in . nobody could compute the consequences, because the mathematics was too difficult. 
+so therefore, they could not compare it with experiments successfully. and the theory remained for a long time, until we discovered all this junk. and this junk was not contemplated by yukawa, and therefore, it undoubtedly not as simple, as least, as the way yukawa did it. 
+another place you can get stuck is at the experimental end. for example, the quantum theory of gravitation is going very slowly, if at all, because there no use. all the experiments that you can do never involve quantum mechanics and gravitation at the same time, because the gravity force is so weak, compared to electrical forces. 
+now i want to concentrate from now on because i am a theoretical physicist, i am more delighted with this end of the problem as to how do you make the guesses. now it strictly, as i said before, not of any importance where the guess comes from. it only important that it should agree with experiment and that it should be as definite as possible. 
+but you say that is very simple. we have set up a machine, a great computing machine, which has a random wheel in it, that makes a succession of guesses. and each time it guesses a hypothesis about how nature should work, it computes immediately the consequences and makes a comparison to a list of experimental results it has at the other end. 
+in other words, guessing is a dumb man job. actually, it quite the opposite. and i will try to explain why. 
+the first problem is how to start. you say, i will start with all the known principles. but the principles that are all known are inconsistent with each other. so something has to be removed. 
+so we get a lot of letters from people. we are always getting letters from people who are insisting that we ought to make holes in our guesses. you make a hole to make room for a new guess. 
+somebody says, do you know, you people always say space is continuous. but how do you know when you get to a small enough dimension that there really are enough points in between, it is not just a lot of dots separated by little distances? or they say, you know, those quantum mechanical amplitudes you just told me about, they are so complicated and absurd. what makes you think those are right? maybe they are not right. 
+i get a lot of letters with such content. but i must say that such remarks are perfectly obvious and are perfectly clear to anybody who working on this problem. and it does not do any good to point this out. the problem is not what might be wrong, but what might be substituted precisely in place of it. 
+if you say anything precise, for example in the case of a continuous space, suppose the precise proposition is that space really consists of a series of dots only. and the space between them does not mean anything. and the dots are in a cubic array. then we can prove that immediately is wrong, that does not work. 
+you see, the problem is not to change or to say something might be wrong but to replace it by something. and that is not so easy. as soon as any real, definite idea is substituted, it becomes almost immediately apparent that it does not work. 
+secondly, there an infinite number of possibilities of these the simple types. it something like this. you are sitting, working very hard. you work for a long time, trying to open a safe. 
+and some joe comes along, who does not know anything about what you are doing or anything, except that you are trying to open a safe. he says, you know, why do not you try the combination ? because you are busy, you are trying a lot of things. 
+maybe you already tried . maybe you know that the middle number is already and not . maybe you know that as a matter of fact this is a five digit combination. 
+so these letters do not do any good. and so please do not send me any letters, trying to tell me how the thing is going to work. i read them to make sure that i have not already thought of that. but it takes too long to answer them, because they are usually in the class try . 
+and as usual, nature imagination far surpasses our own. as we have seen from the other theories, they are really quite subtle and deep. and to get such a subtle and deep guess is not so easy. one must be really clever to guess. and it not possible to do it blindly, by machine. 
+so i wanted to discuss the art of guessing nature laws. it an art. how is it done? 
+one way, you might think, well, look at history. how did the other guys do it? so we look at history. 
+let first start out with newton. he has in a situation where he had incomplete knowledge. and he was able to get the laws, by putting together ideas, which all were relatively close to experiment. there was not a great distance between the observations on the test. that the first, but now it does not work so good. 
+now the next guy who did something well, another man who did something great was maxwell, who obtained the laws of electricity and magnetism. but what he did was this. he put together all the laws of electricity, due to faraday and other people who came before him. and he looked at them, and he realized that they were mutually inconsistent. they were mathematically inconsistent. 
+in order to straighten it out, he had to add one term to an equation. by the way, he did this by inventing a model for himself of idle wheels and gears and so on in space. and then he found that what the new law was. 
+and nobody paid much attention, because they did not believe in the idle wheels. we do not believe in the idle wheels today. but the equations that he obtained were correct. 
+so the logic may be wrong, but the answer is all right. in the case of relativity, the discovery of relativity was completely different. there was an accumulation of paradoxes. the known laws gave inconsistent results. and it was a new kind of thinking, a thinking in terms of discussing the possible symmetries of laws. 
+and it was especially difficult, because it was the first time realized how long something like newton laws could be right and still, ultimately, be wrong. and second, that ordinary ideas of time and space that seems so instinctive could be wrong. 
+quantum mechanics was discovered in two independent ways, which is a lesson. there, again, and even more so, an enormous number of paradoxes were discovered experimentally. things that absolutely could not be explained in any way by what was known. not that the knowledge was incomplete, but the knowledge was too complete. your prediction was this should happen, it did not. 
+the two different roots were one by schrodinger, who guessed the equations. another by heisenberg, who argued that you must analyze what measurable. so it two different philosophical methods reduced to the same discovery in the end. 
+more recently, the discovery of the laws of this interaction, which are still only partly known, had quite a somewhat different situation. again, there was a this time, it was a case of incomplete knowledge. and only the equation was guessed. the special difficulty this time was that the experiments were all wrong. 
+all the experiments were wrong. how can you guess the right answer? when you calculate the results it disagrees with the experiment, and you have the courage to say, the experiments must be wrong. i will explain where the courage comes from in a minute. 
+today, we have not any paradoxes, maybe. we have this infinity that comes if we put all the laws together. but the rug sweeping people are so clever that one sometimes thinks that not a serious paradox. 
+the fact that there are all these particles does not tell us anything, except that our knowledge is incomplete. i am sure that history does not repeat itself in physics, as you see from this list. and the reason is this. 
+any scheme like think of symmetry laws, or put the equations in mathematical form, or any of these schemes, guess equations, and so on are known to everybody now. and they are tried all the time. so if the place where you get stuck is not that, you try that right away. we try looking for symmetries, we try all the things that have been tried before. but we are stuck. 
+so it must be another way next time. so each time that we get in this log jam of too many problems, it because the methods that we are using are just like the ones we used before. we try all that right away. but the new scheme, the new discovery is going to be made in a completely different way. so history does not help us very much. 
+i would like to talk a little bit about this heisenberg idea. but you should not talk about what you ca not measure, because a lot of people talk about that without understanding it very well. they say in physics you should not talk about what you ca not measure. 
+if what you mean by this, if you interpret this in this sense, that the constructs are inventions that you make that you talk about, it must be such a kind that the consequences that you compute must be comparable to experiment. that is, that you do not compute a consequence like a moo must be three goos. when nobody knows what a moo and a goo is, that no good. 
+if the consequences can be compared to experiment, then that all that necessary. it is not necessary that moos and goos ca not appear in the guess. that perfectly all right. you can have as much junk in the guess as you want, provided that you can compare it to experiment. 
+that not fully appreciated, because it usually said, for example, people usually complain of the unwarranted extension of the ideas of particles and pat</t>
+  </si>
+  <si>
+    <t>i never really expected to find myself giving advice to people graduating from an establishment of higher education. i never graduated from any such establishment. i never even started at one. i escaped from school as soon as i could, when the prospect of four more years of enforced learning before i would become the writer i wanted to be was stifling. 
+i got out into the world, i wrote, and i became a better writer the more i wrote, and i wrote some more, and nobody ever seemed to mind that i was making it up as i went along, they just read what i wrote and they paid for it, or they did not, and often they commissioned me to write something else for them. 
+which has left me with a healthy respect and fondness for higher education that those of my friends and family, who attended universities, were cured of long ago. 
+looking back, i have had a remarkable ride. i am not sure i can call it a career, because a career implies that i had some kind of career plan, and i never did. the nearest thing i had was a list i made when i was of everything i wanted to do to write an adult novel, a children book, a comic, a movie, record an audiobook, write an episode of doctor who and so on. i did not have a career. i just did the next thing on the list. 
+so i thought i would tell you everything i wish i would known starting out, and a few things that, looking back on it, i suppose that i did know. and that i would also give you the best piece of advice i would ever got, which i completely failed to follow. 
+first of all when you start out on a career in the arts you have no idea what you are doing. 
+this is great. people who know what they are doing know the rules, and know what is possible and impossible. you do not. and you should not. the rules on what is possible and impossible in the arts were made by people who had not tested the bounds of the possible by going beyond them. and you can. 
+if you do not know it impossible it easier to do. and because nobody done it before, they have not made up rules to stop anyone doing that again, yet. 
+secondly, if you have an idea of what you want to make, what you were put here to do, then just go and do that. 
+and that much harder than it sounds and, sometimes in the end, so much easier than you might imagine. because normally, there are things you have to do before you can get to the place you want to be. i wanted to write comics and novels and stories and films, so i became a journalist, because journalists are allowed to ask questions, and to simply go and find out how the world works, and besides, to do those things i needed to write and to write well, and i was being paid to learn how to write economically, crisply, sometimes under adverse conditions, and on time. 
+sometimes the way to do what you hope to do will be clear cut, and sometimes it will be almost impossible to decide whether or not you are doing the correct thing, because you will have to balance your goals and hopes with feeding yourself, paying debts, finding work, settling for what you can get. 
+something that worked for me was imagining that where i wanted to be an author, primarily of fiction, making good books, making good comics and supporting myself through my words was a mountain. a distant mountain. my goal. 
+and i knew that as long as i kept walking towards the mountain i would be all right. and when i truly was not sure what to do, i could stop, and think about whether it was taking me towards or away from the mountain. i said no to editorial jobs on magazines, proper jobs that would have paid proper money because i knew that, attractive though they were, for me they would have been walking away from the mountain. and if those job offers had come along earlier i might have taken them, because they still would have been closer to the mountain than i was at the time. 
+i learned to write by writing. i tended to do anything as long as it felt like an adventure, and to stop when it felt like work, which meant that life did not feel like work. 
+thirdly, when you start off, you have to deal with the problems of failure. you need to be thickskinned, to learn that not every project will survive. a freelance life, a life in the arts, is sometimes like putting messages in bottles, on a desert island, and hoping that someone will find one of your bottles and open it and read it, and put something in a bottle that will wash its way back to you appreciation, or a commission, or money, or love. and you have to accept that you may put out a hundred things for every bottle that winds up coming back. 
+the problems of failure are problems of discouragement, of hopelessness, of hunger. you want everything to happen and you want it now, and things go wrong. my first book a piece of journalism i had done for the money, and which had already bought me an electric typewriter from the advance should have been a bestseller. it should have paid me a lot of money. if the publisher had not gone into involuntary liquidation between the first print run selling out and the second printing, and before any royalties could be paid, it would have done. 
+and i shrugged, and i still had my electric typewriter and enough money to pay the rent for a couple of months, and i decided that i would do my best in future not to write books just for the money. if you did not get the money, then you did not have anything. if i did work i was proud of, and i did not get the money, at least i would have the work. 
+every now and again, i forget that rule, and whenever i do, the universe kicks me hard and reminds me. i do not know that it an issue for anybody but me, but it true that nothing i did where the only reason for doing it was the money was ever worth it, except as bitter experience. usually i did not wind up getting the money, either. the things i did because i was excited, and wanted to see them exist in reality have never let me down, and i have never regretted the time i spent on any of them. 
+the problems of failure are hard. 
+the problems of success can be harder, because nobody warns you about them. 
+the first problem of any kind of even limited success is the unshakable conviction that you are getting away with something, and that any moment now they will discover you. it imposter syndrome, something my wife amanda christened the fraud police. 
+in my case, i was convinced that there would be a knock on the door, and a man with a clipboard i do not know why he carried a clipboard, in my head, but he did would be there, to tell me it was all over, and they had caught up with me, and now i would have to go and get a real job, one that did not consist of making things up and writing them down, and reading books i wanted to read. and then i would go away quietly and get the kind of job where you do not have to make things up any more. 
+the problems of success. they are real, and with luck you will experience them. the point where you stop saying yes to everything, because now the bottles you threw in the ocean are all coming back, and have to learn to say no. 
+i watched my peers, and my friends, and the ones who were older than me and watch how miserable some of them were i would listen to them telling me that they could not envisage a world where they did what they had always wanted to do any more, because now they had to earn a certain amount every month just to keep where they were. they could not go and do the things that mattered, and that they had really wanted to do and that seemed as a big a tragedy as any problem of failure. 
+and after that, the biggest problem of success is that the world conspires to stop you doing the thing that you do, because you are successful. there was a day when i looked up and realised that i had become someone who professionally replied to email, and who wrote as a hobby. i started answering fewer emails, and was relieved to find i was writing much more. 
+fourthly, i hope you will make mistakes. if you are making mistakes, it means you are out there doing something. and the mistakes in themselves can be useful. i once misspelled caroline, in a letter, transposing the a and the o, and i thought, coraline looks like a real name 
+and remember that whatever discipline you are in, whether you are a musician or a photographer, a fine artist or a cartoonist, a writer, a dancer, a designer, whatever you do you have one thing that unique. you have the ability to make art. 
+and for me, and for so many of the people i have known, that been a lifesaver. the ultimate lifesaver. it gets you through good times and it gets you through the other ones. 
+life is sometimes hard. things go wrong, in life and in love and in business and in friendship and in health and in all the other ways that life can go wrong. and when things get tough, this is what you should do. 
+make good art. 
+i am serious. husband runs off with a politician? make good art. leg crushed and then eaten by mutated boa constrictor? make good art. irs on your trail? make good art. cat exploded? make good art. somebody on the internet thinks what you do is stupid or evil or it all been done before? make good art. probably things will work out somehow, and eventually time will take the sting away, but that does not matter. do what only you do best. make good art. 
+make it on the good days too. 
+and fifthly, while you are at it, make your art. do the stuff that only you can do. 
+the urge, starting out, is to copy. and that not a bad thing. most of us only find our own voices after we have sounded like a lot of other people. but the one thing that you have that nobody else has is you. your voice, your mind, your story, your vision. so write and draw and build and play and dance and live as only you can. 
+the moment that you feel that, just possibly, you are walking down the street naked, exposing too much of your heart and your mind and what exists on the inside, showing too much of yourself. that the moment you may be starting to get it right. 
+the things i have done that worked the best were the things i was the least certain about, the stories where i was sure they would either work, or more likely be the kinds of embarrassing failures people would gather together and talk about until the end of time. they always had that in common looking back at them, people explain why they were inevitable successes. while i was doing them, i had no idea. 
+i still do not. and where would be the fun in making something you knew was going to work? 
+and sometimes the things i did really did not work. there are stories of mine that have never been reprinted. some of them never even left the house. but i learned as much from them as i did from the things that worked. 
+sixthly. i will pass on some secret freelancer knowledge. secret knowledge is always good. and it is useful for anyone who ever plans to create art for other people, to enter a freelance world of any kind. i learned it in comics, but it applies to other fields too. and it this 
+people get hired because, somehow, they get hired. in my case i did something which these days would be easy to check, and would get me into trouble, and when i started out, in those pre internet days, seemed like a sensible career strategy when i was asked by editors who i would worked for, i lied. i listed a handful of magazines that sounded likely, and i sounded confident, and i got jobs. i then made it a point of honour to have written something for each of the magazines i would listed to get that first job, so that i had not actually lied, i would just been chronologically challenged you get work however you get work. 
+people keep working, in a freelance world, and more and more of today world is freelance, because their work is good, and because they are easy to get along with, and because they deliver the work on time. and you do not even need all three. two out of three is fine. people will tolerate how unpleasant you are if your work is good and you deliver it on time. they will forgive the lateness of the work if it good, and if they like you. and you do not have to be as good as the others if you are on time and it always a pleasure to hear from you. 
+when i agreed to give this address, i started trying to think what the best advice i would been given over the years was. 
+and it came from stephen king twenty years ago, at the height of the success of sandman. i was writing a comic that people loved and were taking seriously. king had liked sandman and my novel with terry pratchett, good omens, and he saw the madness, the long signing lines, all that, and his advice was this 
+ this is really great. you should enjoy it. 
+and i did not. best advice i got that i ignored.instead i worried about it. i worried about the next deadline, the next idea, the next story. there was not a moment for the next fourteen or fifteen years that i was not writing something in my head, or wondering about it. and i did not stop and look around and go, this is really fun. i wish i would enjoyed it more. it been an amazing ride. but there were parts of the ride i missed, because i was too worried about things going wrong, about what came next, to enjoy the bit i was on. 
+that was the hardest lesson for me, i think to let go and enjoy the ride, because the ride takes you to some remarkable and unexpected places. 
+and here, on this platform, today, is one of those places. i am enjoying myself immensely. 
+to all today graduates i wish you luck. luck is useful. often you will discover that the harder you work, and the more wisely you work, the luckier you get. but there is luck, and it helps. 
+we are in a transitional world right now, if you are in any kind of artistic field, because the nature of distribution is changing, the models by which creators got their work out into the world, and got to keep a roof over their heads and buy sandwiches while they did that, are all changing. i have talked to people at the top of the food chain in publishing, in bookselling, in all those areas, and nobody knows what the landscape will look like two years from now, let alone a decade away. the distribution channels that people had built over the last century or so are in flux for print, for visual artists, for musicians, for creative people of all kinds. 
+which is, on the one hand, intimidating, and on the other, immensely liberating. the rules, the assumptions, the now we are supposed to of how you get your work seen, and what you do then, are breaking down. the gatekeepers are leaving their gates. you can be as creative as you need to be to get your work seen. youtube and the web and whatever comes after youtube and the web can give you more people watching than television ever did. the old rules are crumbling and nobody knows what the new rules are. 
+so make up your own rules. 
+someone asked me recently how to do something she thought was going to be difficult, in this case recording an audio book, and i suggested she pretend that she was someone who could do it. not pretend to do it, but pretend she was someone who could. she put up a notice to this effect on the studio wall, and she said it helped. 
+so be wise, because the world needs more wisdom, and if you cannot be wise, pretend to be someone who is wise, and then just behave like they would. 
+and now go, and make interesting mistakes, make amazing mistakes, make glorious and fantastic mistakes. break rules. leave the world more interesting for your being here. make good art.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i am going to talk about self renewal. one of your most fundamental tasks is the renewal of the organizations you serve, and that usually includes persuading the top officers to accomplish a certain amount of self renewal. but to help you think about others is not my primary mission this morning. i want to help you think about yourselves. 
+i take that mission very seriously, and i have written out what i have to say because i want every sentence to hit its target. i know a good deal about the kind of work you do and know how demanding it is. but i am not going to talk about the special problems of your kind of career i am going to talk about some basic problems of the life cycle that will surely hit you if you are not ready for them. 
+i once wrote a book called self renewal that deals with the decay and renewal of societies, organizations and individuals. i explored the question of why civilizations die and how they sometimes renew themselves, and the puzzle of why some men and women go to seed while others remain vital all of their lives. it the latter question that i shall deal with at this time. i know that you as an individual are not going to seed. but the person seated on your right may be in fairly serious danger. 
+not long ago, i read a splendid article on barnacles. i do not want to give the wrong impression of the focus of my reading interests. sometimes days go by without my reading about barnacles, much less remembering what i read. but this article had an unforgettable opening paragraph. the barnacle the author explained is confronted with an existential decision about where it going to live. once it decides.. . it spends the rest of its life with its head cemented to a rock.. end of quote. for a good many of us, it comes to that. 
+we have all seen men and women, even ones in fortunate circumstances with responsible positions who seem to run out of steam in midcareer. 
+one must be compassionate in assessing the reasons. perhaps life just presented them with tougher problems than they could solve. it happens. perhaps something inflicted a major wound on their confidence or their self esteem. perhaps they were pulled down by the hidden resentments and grievances that grow in adult life, sometimes so luxuriantly that, like tangled vines, they immobilize the victim. you have known such people feeling secretly defeated, maybe somewhat sour and cynical, or perhaps just vaguely dispirited. or maybe they just ran so hard for so long that somewhere along the line they forgot what it was they were running for. 
+i am not talking about people who fail to get to the top in achievement. we ca not all get to the top, and that is not the point of life anyway. i am talking about people who no matter how busy they seem to be have stopped learning or growing. many of them are just going through the motions. i do not deride that. life is hard. just to keep on keeping on is sometimes an act of courage. but i do worry about men and women functioning far below the level of their potential. 
+we have to face the fact that most men and women out there in the world of work are more stale than they know, more bored than they would care to admit. boredom is the secret ailment of large scale organizations. someone said to me the other day how can i be so bored when i am so busy? and i said let me count the ways. logan pearsall smith said that boredom can rise to the level of a mystical experience, and if that true i know some very busy middle level executives who are among the great mystics of all time. 
+we ca not write off the danger of complacency, growing rigidity, imprisonment by our own comfortable habits and opinions. look around you. how many people whom you know well people even younger than yourselves are already trapped in fixed attitudes and habits. a famous french writer said there are people whose clocks stop at a certain point in their lives. i could without any trouble name a half of a dozen national figures resident in washington, d.c., whom you would recognize, and could tell you roughly the year their clock stopped. i will not do it because i still have to deal with them periodically. 
+i have watched a lot of mid career people, and yogi berra says you can observe a lot just by watching. i have concluded that most people enjoy learning and growing. and many are dearly troubled by the self assessments of mid career. 
+such self assessments are no great problem at your age. you are young and moving up. the drama of your own rise is enough. but when you reach middle age, when your energies are not what they used to be, then you will begin to wonder what it all added up to you will begin to look for the figure in the carpet of your life. i have some simple advice for you when you begin that process. do not be too hard on yourself. look ahead. someone said that life is the art of drawing without an eraser. and above all do not imagine that the story is over. life has a lot of chapters. 
+if we are conscious of the danger of going to seed, we can resort to countervailing measures. at almost any age. you do not need to run down like an unwound clock. and if your clock is unwound, you can wind it up again. you can stay alive in every sense of the word until you fail physically. i know some pretty successful people who feel that that just is not possible for them, that life has trapped them. but they do not really know that. life takes unexpected turns. 
+i said in my book, self renewal, that we build our own prisons and serve as our own jail keepers. i no longer completely agree with that. i still think we are our own jailkeepers, but i have concluded that our parents and the society at large have a hand in building our prisons. they create roles for us and self images that hold us captive for a long time. the individual intent on self renewal will have to deal with ghosts of the past the memory of earlier failures, the remnants of childhood dramas and rebellions, accumulated grievances and resentments that have long outlived their cause. sometimes people cling to the ghosts with something almost approaching pleasure but the hampering effect on growth is inescapable. as jim whitaker, who climbed mount everest, said you never conquer the mountain, you only conquer yourself. 
+the more i see of human lives, the more i believe the business of growing up is much longer drawn out than we pretend. if we achieve it in our 's, even our s, we are doing well. to those of you who are parents of teenagers, i can only say sorry about that. 
+there a myth that learning is for young people. but as the proverb says, it what you learn after you know it all that counts. the middle years are great, great learning years. even the years past the middle years. i took on a new job after my th birthday and i am still learning. 
+learn all your life. learn from your failures. learn from your successes, when you hit a spell of trouble, ask what is it trying to teach me? the lessons are not always happy ones, but they keep coming. it is not a bad idea to pause occasionally for an inward look. by midlife, most of us are accomplished fugitives from ourselves. 
+we learn from our jobs, from our friends and families. we learn by accepting the commitments of life, by playing the roles that life hands us not necessarily the roles we would have chosen . we learn by growing older, by suffering, by loving, by bearing with the things we ca not change, by taking risks. 
+the things you learn in maturity are not simple things such as acquiring information and skills. you learn not to engage in self destructive behavior. you leant not to burn up energy in anxiety. you discover how to manage your tensions, if you have any, which you do. you learn that self pity and resentment are among the most toxic of drugs. you find that the world loves talent, but pays off on character. 
+you come to understand that most people are neither for you nor against you, they are thinking about themselves. you learn that no matter how hard you try to please, some people in this world are not going to love you, a lesson that is at first troubling and then really quite relaxing. 
+those are things that are hard to learn early in life, as a rule you have to have picked up some mileage and some dents in your fenders before you understand. as norman douglas said there are some things you ca not learn from others. you have to pass through the fire.' 
+you come to terms with yourself. you finally grasp what s. n. behrman meant when he said at the end of every road you meet yourself. you may not get rid of all of your hang ups, but you learn to control them to the point that you can function productively and not hurt others. 
+you learn the arts of mutual dependence, meeting the needs of loved ones and letting yourself need them. you can even be unaffected a quality that often takes years to acquire. you can achieve the simplicity that lies beyond sophistication. 
+you come to understand your impact on others. it interesting that even in the first year of life you learn the impact that a variety of others have on you, but as late as middle age many people have a very imperfect understanding of the impact they themselves have on others. the hostile person keeps asking why are people so hard to get along with? in some measure we create our own environment. you may not yet grasp the power of that truth to change your life. 
+of course failures are a part of the story too. everyone fails, joe louis said everyone has to figure to get beat some time. the question is not did you fail but did you pick yourself up and move ahead? and there is one other little question did you collaborate in your own defeat? a lot of people do. learn not to. 
+one of the enemies of sound, lifelong motivation is a rather childish conception we have of the kind of concrete, describable goal toward which all of our efforts drive us. we want to believe that there is a point at which we can feel that we have arrived. we want a scoring system that tells us when we have piled up enough points to count ourselves successful. 
+so you scramble and sweat and climb to reach what you thought was the goal. when you get to the top you stand up and look around and chances are you feel a little empty. maybe more than a little empty. 
+you wonder whether you climbed the wrong mountain. 
+but life is not a mountain that has a summit, nor is it as some suppose a riddle that has an answer. nor a game that has a final score. 
+life is an endless unfolding, and if we wish it to be, an endless process of self discovery, an endless and unpredictable dialogue between our own potentialities and the life situations in which we find ourselves. by potentialities i mean not just intellectual gifts but the full range of one capacities for learning, sensing, wondering, understanding, loving and aspiring. 
+perhaps you imagine that by age or or even you have explored those potentialities pretty fully. do not kid yourself! 
+the thing you have to understand is that the capacities you actually develop to the full come out as the result of an interplay between you and life challenges and the challenges keep changing. life pulls things out of you. 
+there something i know about you that you may or may not know about yourself. you have within you more resources of energy than have ever been tapped, more talent than has ever been exploited, more strength than has ever been tested, more to give than you have ever given. 
+you know about some of the gifts that you have left undeveloped. would you believe that you have gifts and possibilities you do not even know about? it true. we are just beginning to recognize how even those who have had every advantage and opportunity unconsciously put a ceiling on their own growth, underestimate their potentialities or hide from the risk that growth involves. 
+now i have discussed renewal at some length, but it is not possible to talk about renewal without touching on the subject of motivation. someone defined horse sense as the good judgment horses have that prevents them from betting on people. but we have to bet on people and i place my bets more often on high motivation than on any other quality except judgment. there is no perfection of techniques that will substitute for the lift of spirit and heightened performance that comes from strong motivation, the world is moved by highly motivated people, by enthusiasts, by men and women who want something very much or believe very much. 
+i am not talking about anything as narrow as ambition. after all, ambition eventually wears out and probably should. but you can keep your zest until the day you die. if i may offer you a simple maxim, be interesting, everyone wants to be interesting but the vitalizing thing is to be interested. keep a sense of curiosity. discover new things. care. risk failure. reach out. 
+the nature of one personal commitments is a powerful element in renewal, so let me say a word on that subject. 
+i once lived in a house where i could look out a window as i worked at my desk and observe a small herd of cattle browsing in a neighboring field. and i was struck with a thought that must have occurred to the earliest herdsmen tens of thousands of years ago. you never get the impression that a cow is about to have a nervous breakdown. or is puzzling about the meaning of life. 
+humans have never mastered that kind of complacency. we are worriers and puzzlers, and we want meaning in our lives. i am not speaking idealistically i am stating a plainly observable fact about men and women. it a rare person who can go through life like a homeless alley cat, living from day to day, taking its pleasures where it can and dying unnoticed. 
+that is not to say that we have not all known a few alley cats. but it is not the norm. it just is not the way we are built. 
+as robert louis stevenson said, old or young, we are on our last cruise. we want it to mean something. 
+for many this life is a vale of tears for no one is it free of pain. but we are so designed that we can cope with it if we can live in some context of meaning. given that powerful help, we can draw on the deep springs of the human spirit, to see our suffering in the framework of all human suffering, to accept the gifts of life with thanks and endure life indignities with dignity. 
+in the stable periods of history, meaning was supplied in the context of a coherent communities and traditionally prescribed patterns of culture. today you ca not count on any such heritage. you have to build meaning into your life, and you build it through your commitments whether to your religion, to an ethical order as you conceive it, to your life work, to loved ones, to your fellow humans. young people run around searching for identity, but it is not handed out free any more not in this transient, rootless, pluralistic society. your identity is what you have committed yourself to. 
+it may just mean doing a better job at whatever you are doing. there are men and women who make the world better just by being the kind of people they are and that too is a kind of commitment. they have the gift of kindness or courage or loyalty or integrity. it matters very little whether they are behind the wheel of a truck or running a country store or bringing up a family. 
+i must pause to say a word about my statement there are men and women who make the world better just by being the kind of people they are. i first wrote the sentence some years ago and it has been widely quoted. one day i was looking through a mail order gift catalogue and it included some small ornamental bronze plaques with brief sayings on them, and one of the sayings was the one i just read to you, with my name as author. well i was so overcome by the idea of a sentence of mine being cast in bronze that i ordered it, but then could not figure out what in the world to do with it. i finally sent it to a friend. 
+we tend to think of youth and the active middle years as the years of commitment. as you get a little older, you are told you have earned the right to think about yourself. but that a deadly prescription! people of every age need commitments beyond the self, need the meaning that commitments provide. self preoccupation is a prison, as every self absorbed person finally knows. commitments to larger purposes can get you out of prison. 
+another significant ingredient in motivation is one attitude toward the future. optimism is unfashionable today, particularly among intellectuals. everyone makes fun of it. someone said pessimists got that way by financing optimists. but i am not pessimistic and i advise you not to be. as the fellow said, i would be a pessimist but it would never work. 
+i can tell you that for renewal, a tough minded optimism is best. the future is not shaped by people who do not really believe in the future. men and women of vitality have always been prepared to bet their futures, even their lives, on ventures of unknown outcome. if they had all looked before they leaped, we would still be crouched in caves sketching animal pictures on the wall, 
+but i did say tough minded optimism. high hopes that are dashed by the first failure are precisely what we do not need. we have to believe in ourselves, but we must not suppose that the path will be easy, it tough. life is painful, and rain falls on the just, and mr. churchill was not being a pessimist when he said i have nothing to offer, but blood, toil, tears and sweat. he had a great deal more to offer, but as a good leader he was saying it was not going to be easy, and he was also saying something that all great leaders say constantly that failure is simply a reason to strengthen resolve. 
+we cannot dream of a utopia in which all arrangements are ideal and everyone is flawless. life is tumultuous an endless losing and regaining of balance, a continuous struggle, never an assured victory. 
+nothing is ever finally safe. every important battle is fought and re fought. we need to develop a resilient, indomitable morale that enables us to face those realities and still strive with every ounce of energy to prevail. you may wonder if such a struggle endless and of uncertain outcome is not more than humans can bear. but all of history suggests that the human spirit is well fitted to cope with just that kind of world. 
+remember i mentioned earlier the myth that learning is for young people. i want to give you some examples, in a piece i wrote for reader digest not long ago, i gave what seemed to me a particularly interesting true example of renewal. the man in question was years old. most of his adult life had been a losing struggle against debt and misfortune. in military service he received a battlefield injury that denied him the use of his left arm. and he was seized and held in captivity for five years. later he held two government jobs, succeeding at neither. at he was in prison and not for the first time. there in prison, he decided to write a book, driven by heaven knows what motive boredom, the hope of gain, emotional release, creative impulse, who can say? and the book turned out to be one of the greatest ever written, a book that has enthralled the world for ever years. the prisoner was cervantes the book don quixote. 
+another example was pope john xxiii, a serious man who found a lot to laugh about. the son of peasant farmers, he once said in italy there are three roads to poverty drinking, gambling and fanning. my family chose the slowest of the three. when someone asked him how many people worked in the vatican he said oh, about half. he was years old when he was elected pope. through a lifetime in the bureaucracy, the spark of spirit and imagination had remained undimmed, and when he reached the top he launched the most vigorous renewal that the church has known in this century. 
+still another example is winston churchill. at age , as a correspondent in the boer war he became a prisoner of war and his dramatic escape made him a national hero. elected to parliament at , he performed brilliantly, held high cabinet posts with distinction and at became first lord of the admiralty. then he was discredited, unjustly, i believe, by the dardanelles expedition the defeat at gallipoli and lost his admiralty post. there followed years of ups and downs. all too often the verdict on him was brilliant but erratic not steady, not dependable. he had only himself to blame. a friend described him as a man who jaywalked through life. he was before his moment of flowering came. someone said it all right to be a late bloomer if you do not miss the flower show. churchill did not miss it. 
+well, i will not give you any more examples. from those i have given i hope it clear to you that the door of opportunity does not really close as long as you are reasonably healthy. and i do not just mean opportunity for high status, but opportunity to grow and enrich your life in every dimension. you just do not know what ahead for you. and remember the words on the bronze plaque some men and women make the world better just by being the kind of people they are. to be that kind of person would be worth all the years of living and learning. 
+many years ago i concluded a speech with a paragraph on the meaning in life. the speech was reprinted over the years, and years later that final paragraph came back to me in a rather dramatic way, really a heartbreaking way. 
+a man wrote to me from colorado saying that his year old daughter had been killed in an auto accident some weeks before and that she was carrying in her billfold a paragraph from a speech of mine. he said he was grateful because the paragraph and the fact that she kept it close to her told him something he might not otherwise have known about her values and concerns. i ca not imagine where or how she came across the paragraph, but here it is 
+ meaning is not something you stumble across, like the answer to a riddle or the prize in a treasure hunt. meaning is something you build into your life. you build it out of your own past, out of your affections and loyalties, out of the experience of humankind as it is passed on to you, out of your own talent and understanding, out of the things you believe in, out of the things and people you love, out of the values for which you are willing to sacrifice something. the ingredients are there. you are the only one who can put them together into that unique pattern that will be your life. let it be a life that has dignity and meaning for you. if it does, then the particular balance of success or failure is of less account. </t>
+  </si>
+  <si>
+    <t>i am a writer. writing books is my profession but it more than that, of course. it is also my great lifelong love and fascination. and i do not expect that that ever going to change. 
+but, that said, something kind of peculiar has happened recently in my life and in my career, which has caused me to have to recalibrate my whole relationship with this work. and the peculiar thing is that i recently wrote this book, this memoir called eat, pray, love which, decidedly unlike any of my previous books, went out in the world for some reason, and became this big, mega sensation, international bestseller thing. the result of which is that everywhere i go now, people treat me like i am doomed. 
+seriously doomed, doomed! like, they come up to me now, all worried, and they say, are not you afraid you are never going to be able to top that? are not you afraid you are going to keep writing for your whole life and you are never again going to create a book that anybody in the world cares about at all, ever again? 
+so that reassuring, you know. 
+it would be worse, except for that i happen to remember that over years ago, when i was a teenager, when i first started telling people that i wanted to be a writer, i was met with this same sort of fear based reaction. and people would say, are not you afraid you are never going to have any success? are not you afraid the humiliation of rejection will kill you? are not you afraid that you are going to work your whole life at this craft and nothing ever going to come of it and you are going to die on a scrap heap of broken dreams with your mouth filled with bitter ash of failure? 
+the answer the short answer to all those questions is, yes. 
+yes, i am afraid of all those things. and i always have been. and i am afraid of many, many more things besides that people ca not even guess at, like seaweed and other things that are scary. 
+but, when it comes to writing, the thing that i have been sort of thinking about lately, and wondering about lately, is why? you know, is it rational? is it logical that anybody should be expected to be afraid of the work that they feel they were put on this earth to do? and what is it specifically about creative ventures that seems to make us really nervous about each other mental health in a way that other careers kind of do not do, you know? 
+like my dad, for example, was a chemical engineer and i do not recall once in his years of chemical engineering anybody asking him if he was afraid to be a chemical engineer, you know? that chemical engineering block, john, how it going? it just did not come up like that, you know? but to be fair, chemical engineers as a group have not really earned a reputation over the centuries for being alcoholic manic depressives. 
+we writers, we kind of do have that reputation, and not just writers, but creative people across all genres, it seems, have this reputation for being enormously mentally unstable. and all you have to do is look at the very grim death count in the th century alone, of really magnificent creative minds who died young and often at their own hands, you know? 
+and even the ones who did not literally commit suicide seem to be really undone by their gifts, you know. norman mailer, just before he died, in his last interview, he said, every one of my books has killed me a little more. an extraordinary statement to make about your life work. but we do not even blink when we hear somebody say this, because we have heard that kind of stuff for so long and somehow we have completely internalized and accepted collectively this notion that creativity and suffering are somehow inherently linked and that artistry, in the end, will always ultimately lead to anguish. 
+and the question that i want to ask everybody here today is are you guys all cool with that idea? are you comfortable with that? 
+because if you look at it even from an inch away and, you know i am not at all comfortable with that assumption. i think it odious. and i also think it dangerous, and i do not want to see it perpetuated into the next century. i think it better if we encourage our great creative minds to live. 
+and i definitely know that, in my case in my situation it would be very dangerous for me to start sort of leaking down that dark path of assumption, particularly given the circumstance that i am in right now in my career. 
+i am pretty young, i am only about years old. i still have maybe another four decades of work left in me. and it exceedingly likely that anything i write from this point forward is going to be judged by the world as the work that came after the freakish success of my last book, right? i should just put it bluntly, because we are all sort of friends here now it exceedingly likely that my greatest success is behind me. 
+jesus, what a thought! that the kind of thought that could lead a person to start drinking gin at nine o'clock in the morning, and i do not want to go there. i would prefer to keep doing this work that i love. 
+and so, the question becomes, how? 
+it seems to me, upon a lot of reflection, that the way that i have to work now, in order to continue writing, is that i have to create some sort of protective psychological construct. i have to sort of find some way to have a safe distance between me, as i am writing, and my very natural anxiety about what the reaction to that writing is going to be, from now on. 
+as i have been looking, over the last year, for models for how to do that, i have been sort of looking across time, and i have been trying to find other societies to see if they might have had better and saner ideas than we have about how to help creative people sort of manage the inherent emotional risks of creativity. and that search has led me to ancient greece and ancient rome. so stay with me, because it does circle around and back. 
+in ancient greece and ancient rome people did not happen to believe that creativity came from human beings. people believed that creativity was this divine attendant spirit that came to human beings from some distant and unknowable source, for distant and unknowable reasons. 
+the greeks famously called these divine attendant spirits of creativity daemons. socrates, famously, believed that he had a daemon who spoke wisdom to him from afar. 
+the romans had the same idea, but they called that sort of disembodied creative spirit a genius. which is great, because the romans did not actually think that a genius was a particularly clever individual. they believed that a genius was this, sort of magical divine entity, who was believed to literally live in the walls of an artist studio, kind of like dobby the house elf, and who would come out and sort of invisibly assist the artist with their work and would shape the outcome of that work. 
+so brilliant there it is, right there, that distance that i am talking about that psychological construct to protect you from the results of your work. 
+and everyone knew that this is how it functioned, right? so the ancient artist was protected from certain things, like, for example, too much narcissism, right? if your work was brilliant, you could not take all the credit for it, everybody knew that you had this disembodied genius who had helped you. if your work bombed, not entirely your fault, you know? everyone knew your genius was kind of lame. 
+and this is how people thought about creativity in the west for a really long time. then the renaissance came and everything changed. we had this big idea, and the big idea was, let put the individual human being at the center of the universe above all gods and mysteries, and there no more room for mystical creatures who take dictation from the divine. and it the beginning of rational humanism, and people started to believe that creativity came completely from the self of the individual. and for the first time in history, you start to hear people referring to this or that artist as being a genius, rather than having a genius. 
+and i got to tell you, i think that was a huge error. 
+i think that allowing somebody, one mere person to believe that he or she is like, the vessel, you know, like the font and the essence and the source of all divine, creative, unknowable, eternal mystery is just a smidge too much responsibility to put on one fragile, human psyche. it like asking somebody to swallow the sun. it just completely warps and distorts egos, and it creates all these unmanageable expectations about performance. and i think the pressure of that has been killing off our artists for the last years. 
+and, if this is true, and i think it is true, the question becomes, what now? can we do this differently? maybe go back to some more ancient understanding about the relationship between humans and the creative mystery. maybe not. maybe we ca not just erase years of rational humanistic thought in one minute speech. and there probably people in this audience who would raise really legitimate scientific suspicions about the notion of, basically, fairies who follow people around rubbing fairy juice on their projects and stuff. i am not, probably, going to bring you all along with me on this. 
+but the question that i kind of want to pose is you know, why not? why not think about it this way? because it makes as much sense as anything else i have ever heard in terms of explaining the utter maddening capriciousness of the creative process. a process which, as anybody who has ever tried to make something which is to say basically everyone here knows does not always behave rationally. and, in fact, can sometimes feel downright paranormal. 
+i had this encounter recently where i met the extraordinary american poet ruth stone, who now in her s, but she been a poet her entire life and she told me that when she was growing up in rural virginia, she would be out working in the fields, and she said she would feel and hear a poem coming at her from over the landscape. 
+and she said it was like a thunderous train of air. and it would come barreling down at her over the landscape. and she felt it coming, because it would shake the earth under her feet. she knew that she had only one thing to do at that point, and that was to, in her words, run like hell. 
+and she would run like hell to the house and she would be getting chased by this poem, and the whole deal was that she had to get to a piece of paper and a pencil fast enough so that when it thundered through her, she could collect it and grab it on the page. and other times she would not be fast enough, so she would be running and running, and she would not get to the house and the poem would barrel through her and she would miss it and she said it would continue on across the landscape, looking, as she put it for another poet. 
+and then there were these times this is the piece i never forgot she said that there were moments where she would almost miss it, right? so, she running to the house and she looking for the paper and the poem passes through her, and she grabs a pencil just as it going through her, and then she said, it was like she would reach out with her other hand and she would catch it. she would catch the poem by its tail, and she would pull it backwards into her body as she was transcribing on the page. and in these instances, the poem would come up on the page perfect and intact but backwards, from the last word to the first. 
+that not at all what my creative process is i am not the pipeline! i am a mule, and the way that i have to work is i have to get up at the same time every day, and sweat and labor and barrel through it really awkwardly. but even i, in my mulishness, even i have brushed up against that thing, at times. and i would imagine that a lot of you have too. 
+you know, even i have had work or ideas come through me from a source that i honestly cannot identify. and what is that thing? and how are we to relate to it in a way that will not make us lose our minds, but, in fact, might actually keep us sane? 
+and for me, the best contemporary example that i have of how to do that is the musician tom waits, who i got to interview several years ago on a magazine assignment. and we were talking about this, and you know, tom, for most of his life, he was pretty much the embodiment of the tormented contemporary modern artist, trying to control and manage and dominate these sort of uncontrollable creative impulses that were totally internalized. 
+but then he got older, he got calmer, and one day he was driving down the freeway in los angeles, and this is when it all changed for him. and he speeding along, and all of a sudden he hears this little fragment of melody, that comes into his head as inspiration often comes, elusive and tantalizing, and he wants it, it gorgeous, and he longs for it, but he has no way to get it. he does not have a piece of paper, or a pencil, or a tape recorder. 
+so he starts to feel all of that old anxiety start to rise in him like, i am going to lose this thing, and i will be be haunted by this song forever. i am not good enough, and i ca not do it. and instead of panicking, he just stopped. he just stopped that whole mental process and he did something completely novel. 
+he just looked up at the sky, and he said, excuse me, can you not see that i am driving? do i look like i can write down a song right now? if you really want to exist, come back at a more opportune moment when i can take care of you. otherwise, go bother somebody else today. go bother leonard cohen. 
+and his whole work process changed after that. not the work, the work was still oftentimes as dark as ever. but the process, and the heavy anxiety around it was released when he took the genie, the genius out of him where it was causing nothing but trouble, and released it back where it came from, and realized that this did not have to be this internalized, tormented thing. it could be this peculiar, wondrous, bizarre collaboration, kind of conversation between tom and the strange, external thing that was not quite tom. 
+when i heard that story, it started to shift a little bit the way that i worked too, and this idea already saved me once. it saved me when i was in the middle of writing eat, pray, love, and i fell into one of those sort of pits of despair that we all fall into when we are working on something and it not coming and you start to think this is going to be a disaster, the worst book ever written. not just bad, but the worst book ever written. and i started to think i should just dump this project. 
+but then i remembered tom talking to the open air and i tried it. so i just lifted my face up from the manuscript and i directed my comments to an empty corner of the room. and i said aloud, listen you, thing, you and i both know that if this book is not brilliant that is not entirely my fault, right? because you can see that i am putting everything i have into this, i do not have any more than this. if you want it to be better, you have got to show up and do your part of the deal. but if you do not do that, you know what, the hell with it. i am going to keep writing anyway because that my job. and i would please like the record to reflect today that i showed up for my part of the job. 
+because in the end it like this centuries ago in the deserts of north africa, people used to gather for these moonlight dances of sacred dance and music that would go on for hours and hours, until dawn. they were always magnificent, because the dancers were professionals and they were terrific, right? 
+but every once in a while, very rarely, something would happen, and one of these performers would actually become transcendent. and i know you know what i am talking about, because i know you have all seen, at some point in your life, a performance like this. it was like time would stop, and the dancer would sort of step through some kind of portal and he was not doing anything different than he had ever done, , nights before, but everything would align. and all of a sudden, he would no longer appear to be merely human. he would be lit from within, and lit from below and all lit up on fire with divinity. 
+and when this happened, back then, people knew it for what it was, you know, they called it by its name. they would put their hands together and they would start to chant, allah, allah, allah, god, god, god. that god, you know. 
+curious historical footnote when the moors invaded southern spain, they took this custom with them and the pronunciation changed over the centuries from allah, allah, allah, to ol , ol , ol , which you still hear in bullfights and in flamenco dances. in spain, when a performer has done something impossible and magic, allah, ol , ol , allah, magnificent, bravo, incomprehensible, there it is a glimpse of god. which is great, because we need that. 
+but, the tricky bit comes the next morning, for the dancer himself, when he wakes up and discovers that it tuesday at a.m., and he no longer a glimpse of god. he just an aging mortal with really bad knees, and maybe he never going to ascend to that height again. and maybe nobody will ever chant god name again as he spins, and what is he then to do with the rest of his life? 
+this is hard. this is one of the most painful reconciliations to make in a creative life. but maybe it does not have to be quite so full of anguish if you never happened to believe, in the first place, that the most extraordinary aspects of your being came from you. but maybe if you just believed that they were on loan to you from some unimaginable source for some exquisite portion of your life to be passed along when you are finished, with somebody else. and, you know, if we think about it this way, it starts to change everything. 
+this is how i have started to think, and this is certainly how i have been thinking in the last few months as i have been working on the book that will soon be published, as the dangerously, frighteningly over anticipated follow up to my freakish success. 
+and what i have to sort of keep telling myself when i get really psyched out about that is do not be afraid. do not be daunted. just do your job. continue to show up for your piece of it, whatever that might be. if your job is to dance, do your dance. if the divine, cockeyed genius assigned to your case decides to let some sort of wonderment be glimpsed, for just one moment through your efforts, then ol ! and if not, do your dance anyhow. and ol ! to you, nonetheless. 
+i believe this and i feel that we must teach it. ol ! to you, nonetheless, just for having the sheer human love and stubbornness to keep showing up. 
+thank you.</t>
+  </si>
+  <si>
+    <t>several years ago i was brought face to face with the very disturbing realization that i was trying to supervise and direct the efforts of a large number of men and women who were trying to achieve success, without knowing myself what the secret of success really was. and that, naturally, brought me face to face with the further realization that regardless of what other knowledge i might have brought to my job, i was definitely lacking in the most important knowledge of all. 
+of course, like most of us. i have been brought up on the popular belief that the secret of success is hard work, but i had seen so many people work hard without succeeding and so many people succeed without working hard that i had become convinced that hard work was not the real secret even though in most cases it might be one of the requirements. 
+and so i set out on a voyage of discovery which carried me through biographies and autobiographies and all sorts of dissertations on success and the lives of successful individuals until i finally reached the point at which i realized that the secret i was trying to discover lay not only in what individuals did, but also in what made them do it. 
+i realized further that the secret for which i was searching must not only apply to every definition of success, but since it must apply to everyone to whom it was offered it must also apply to everyone who had ever been successful. in short, i was looking for the common denominator of success. 
+and because that is exactly what i was looking for, that is exactly what i found. 
+but this common denominator of success is so big, so powerful, and so vitally important to your future and mine that i am not going to make a speech about it. i am just going to lay it on the line in words of one syllable, so simple that everyone can understand them. 
+the common denominator of success secret of success of every individual who has ever been successful lies in the fact that he or she formed the habit of doing things that failures do not like to do. 
+it just as true as it sounds and it just as simple as it seems. you can hold it up to the light, you can put it to the acid test, and you can kick it around until it worn out, but when you are all through with it, it will still be the common denominator of success, whether we like it or not. 
+it will still explain why some individuals have come into this business of ours with every apparent qualification for success and given us our most disappointing failures, while others have come in and achieved outstanding success in spite of many obvious handicaps. and since it will also explain your future, it would seem to be a mighty good idea for you to use it in determining just what sort of a future you are going to have. in other words, let take this big, all embracing secret and boil it down to fit the individual you. 
+if the secret of success lies in forming the habit of doing things that failures do not like to do, let start the boiling down process by determining what are the things that failures do not like to do. the things that failures do not like to do are the very things that you and i and other human beings, including successful people, naturally do not like to do. in other words, we have got to realize right from the start that success is something which is achieved by the minority of people, and is therefore unnatural and not to be achieved by following our natural likes and dislikes nor by being guided by our natural preferences and prejudices. 
+the things that failures do not like to do, in general, are too many and too obvious for us to discuss them here, and so, since our success is to be achieved in the sale of life insurance, let us move on to a discussion of the things that we as life insurance agents do not like to do. here, too, the things we do not like to do are too many to permit of specific discussion, but i think they can all be disposed of by saying that they all emanate from one basic dislike peculiar to our type of selling. we do not like to call on people who do not want to see us and talk to them about something they do not want to talk about. any reluctance to follow a prospecting program, to use prepared sales talks, to organize time and to organize effort are all caused by this one basic dislike. 
+perhaps you have wondered what is behind this peculiar lack of welcome on the pan of our prospective buyers. is not it due to the fact that our prospects are human too? and is not it true that average human beings are not big enough to buy life insurance of their own accord and are therefore prone to escape our efforts to make them bigger or persuade them to do something they do not want to do by striking at the most important weakness we possess namely, our desire to be appreciated? 
+perhaps you have been discouraged by a feeling that you were born subject to certain dislikes peculiar to you, with which the successful agents in our business are not afflicted. perhaps you have wondered why it is that our biggest producers seem to like to do the things that you do not like to do. 
+they do not! and i think this is the most encouraging statement i have ever offered to a group of life insurance agents. 
+but if they do not like to do these things, then why do they do them? because by doing the things they do not like to do, they can accomplish the things they want to accomplish. successful people are influenced by the desire for pleasing results. failures are influenced by the desire for pleasing methods and are included to be satis ed with such results as can be obtained by doing things they like to do. 
+why are successful people able to do things they do not like to do while failures are not? because successful people have a purpose strong enough to make them form the habit of doing things they do not like to do in order to accomplish the purpose they want to accomplish. 
+sometimes even our best producers get into a slump. when people go into a slump, it simply means that they have reached a point at which, for the time being, the things they do not like to do have become more important than their reasons for doing them. and may i pause to suggest to you managers and agents that when one of your good producers goes into a slump, the less you talk about production and the more you talk about purpose, the sooner you will pull that agent out of that slump? 
+many people with whom i have discussed this common denominator of success have said at this point, but i have a family to support and i have to make a living for my family and myself. is not that enough of a purpose? 
+no, it is not. it is not a sufficiently strong purpose to make you form the habit of doing the things you do not like to do for the very simple reason that it is easier to adjust ourselves to the hardships of a poor living than it is to adjust ourselves to the hardships of making a better one. if you doubt me, just think of all the things you are willing to go without in order to avoid doing the things you do not like to do. all of which seems to prove that the strength which holds you to your purpose is not your own strength but the strength of the purpose itself. 
+now, let see why habit belongs so importantly in this common denominator of success. 
+people are creatures of habit just as machines are creatures of momentum, for habit is nothing more or less than momentum translated from the concrete into the abstract. can you picture the problem that would face our mechanical engineers if there were no such things as momentum? speed would be impossible because the highest speed at which any vehicle could be moved would be the first speed at which it could be broken away from a standstill. elevators could not be made to rise, airplanes could not be made to fly, and the entire world of mechanics would find itself in a total state of helplessness. then who are you and i to think that we can do with our own human nature, what the finest engineers in the world could not do with the finest machinery that was ever built? 
+every single qualification for success is acquired through habit. people form habits and habits form futures. if you do not deliberately form good habits, then unconsciously you will form bad ones.you are the kind of person you are because you have formed the habit of being that kind of person, and the only way you can change is through habit. 
+the success habits in life insurance selling are divided into four main groups 
+ . prospecting habits
+ . calling habits
+ . selling habits
+ . working habits 
+let discuss these habit groups in their order. 
+any successful life insurance agent will tell you that it is easier to sell life insurance to people who do not want it than it is to find people who do want it, but if you have not deliberately formed the habit of prospecting for needs, regardless of wants, then unconsciously you have formed the habit of limiting your prospecting to people who want life insurance, and therein lies the one and only real reason for lack of prospects. 
+as to calling habits, unless you have deliberately formed the habit of calling on people who are able to buy but unwilling to listen, then unconsciously you have formed the habit of calling on people who are willing to listen but unable to buy. 
+as to selling habits, unless you have deliberately formed the habit of calling on prospects determined to make them see their reasons for buying life insurance, then unconsciously you have formed the habit of calling on prospects in a state of mind in which you are willing to let them make you see their reasons for not buying it. 
+as to working habits, if you will take care of the other three groups, the working habits will generally take care of themselves because under working habits are included study and preparation, organization of time and efforts, records, analyses, etc. certainly you are not going to take the trouble to learn interest arousing approaches and sales talks unless you are going to use them. you are not going to plan your day work when you know in your heart that you are not going to carry out your plans. and you are certainly not going to keep an honest record of things you have not done or of results you have not achieved. so let not worry so much about the fourth group of success habits, for if you are taking care of the first three groups, most of the working habits will take care of themselves and you will be able to afford a secretary to take care of the rest of them for you. 
+but before you decide to adopt these success habits, let me warn you of the importance of habit to your decision. i have attended many sales meetings and sales congresses during the past ten years and have often wondered why, in spite of the fact that there is so much good in them, so many people seem to get so little lasting good out of them. perhaps you have attended sales meetings in the past and have left these meetings determined to do the things that would make you successful or more successful only to find your decision or determination waning at just the time when it should be put into effect or practice. 
+here the answer. any resolution of decision you make is simply a promise to yourself which is not worth a tinker damn until you have formed the habit of making it and keeping it. and you will not form the habit of making it and keeping it unless right at the start you link it with a definite purpose that can be accomplished by keeping it, in other words, any resolution or decision you make today has to be made again tomorrow, and the next day, and the next, and the next, and so on. and it not only has to be made each day, but it has to be kept each day for if you miss one day in the making or keeping of it, you have got to go back and begin all over again. but if you continue the process of making it each morning and keeping it each day, you will finally wake up some morning, a different person in a different world, and you will wonder what has happened to you and the world you used to live in. 
+here what has happened. your resolution or decision has become a habit and you will not have to make it on this particular morning. and the reason for your seeming like a different person living in a different world lies in the fact that for the first time in your life, you have control of yourself and control of your likes and dislikes by surrendering to your purpose in life. that is why behind every success there must be a purpose and that is what makes purpose so important to your future. for in the last analysis, your future is not going to depend on economic conditions or outside influences of circumstances over which you have no control. your future is going to depend on your purpose in life. so let talk about purpose. 
+first of all, your purpose must be practical and not visionary. some time ago, i talked with a woman who thought she had a purpose which was more important to her than income. she was interested in people suffering and she wanted to be placed in a position to alleviate that suffering. but when we analyzed her real feelings, we discovered, and she admitted it, that what she really wanted was a real nice job dispensing charity with other people money and being well paid for it, along with the appreciation and feeling of importance that would naturally go with such a job. 
+but in making your purpose practical, be careful not to make it logical. make it a purpose of the sentimental or emotional type. remember needs are logical while wants and desires are sentimental and emotional. your needs will push you just so far, but when your needs are satis ed, they will stop pushing you. if, however, your purpose is in terms of wants or desires, then your wants and desires are fulfilled. 
+recently i was talking with a young man who long ago discovered the common denominator of success without identifying his discovery. he had a definite purpose in life and it was definitely a sentimental or emotional purpose. 
+he wanted his children to go through college without having to work their way through as he had done. and he wanted his wife, and mother of his children, to enjoy the luxuries and comforts and even necessities, which had been denied his own mother. and he was willing to form the habit of doing things he didn t like to do in order to accomplish this purpose. 
+not to discourage him, but rather to have him encourage me, i said to him, are not you going a little too far with this thing? there no logical reason why your children should not be willing and able to work their way through college just as their father did. of course they will miss many of the things that you missed in your college life and they will probably have heartaches and disappointments. but if they are any good, they will come through in the end just as you did. and there no logical reason why you should slave in order that your wife can enjoy comforts and luxuries that your mother never had. 
+he looked at me with a rather pitying look and said, but mr. gray, there no inspiration in logic. there no courage in logic. there not even happiness in logic. there only satisfaction. the only place logic has in my life is in the realization that the more i am willing to do for my family, the more i shall be able to do for myself. 
+i imagine, after hearing that story, you will not have to be told how to find your purpose or how to identify it or how to surrender to it. if it a big purpose, you will be big in its accomplishment. if it an unselfish purpose, you will be unselfish in accomplishing it. and if it an honest purpose, you will be honest and honorable in the accomplishment of it. 
+but as long as you live, do not ever forget that while you may succeed beyond your fondest hopes and your greatest expectations, you will never succeed beyond the purpose to which you are willing to surrender. furthermore, your surrender will not be complete until you have formed the habit of doing things that failures do not like to do.</t>
+  </si>
+  <si>
+    <t>thanks for having me. believe it or not, i have been thinking about giving this particular presentation for about a decade. i have been talking to the administration. i was inspired after studying the stories of three people that you might call luminaries. they were probably heroes of mine when i read about them, and i noticed an overlap of pattern amongst them. that what i am here to talk about. now, how many people in the room have heard of the phrase dream job? raise your hand. all right, everybody has heard the phrase, so you know what it means. it means chasing a career where you just have immense passion. my partner kevin harvey has a phrase that i love, and he says, life is a use or lose it proposition. for most humans, they take one career path. if you have only got one shot, and then it all over why not do what makes you most happy? 
+by the way, one of the reasons this is the audience, and i want to thank you for being here, this is the audience i wanted to do this presentation to first because i think coming to an mba program is this amazingly unique opportunity you have. you have had your undergrad degree. you have worked a little bit, and now you have this chance to go do whatever you want. it an amazing pivot point. for me, you are the opportune audience for this, and, obviously, i wanted to come back to texas to do it. thanks for having me. 
+what i am going to do first is i am going to start by telling three stories of these luminaries, and then after that i am going to walk through five guidelines that i have inferred from what they did. then there some special stories at the end as well. i am going to start in orville, ohio. anyone know what company was founded in orville in ? i will give you bucks if anybody knows, smucker. that has nothing to do with this presentation. 
+the first gentleman i am talking about is a guy named robert montgomery that grew up in orville. this is in , and this is what the town looked like when he did. he attended orville high school where he was a three sport letter man, baseball, football, basketball. he was lucky enough one of his neighbors knew the coach, fred taylor at ohio state, and he was able to get a spot on a really good basketball team. this is robert, number . he a point guard. that him peering into the huddle. that fred taylor, the coach of ohio state at the time. 
+robert was not a starter. he came off the bench, and he did not get a ton of minutes, but this team had john havlicek and john cuzzie. his sophomore year they won the national championship. they played in the national championship his junior and senior year. those two players that i mentioned went onto the nba, and robert went into coaching. he spent his first year as a jv coach at a high school, and then finagled his way onto the staff at army. at , he was an assistant at army, the black knights. they played here in gillis field house. 
+when he was the head coach retired, and he begged for the job. this is him signing the contract. at , he became head coach of a d school. now, what ended up making robert successful, from my point of view, is not what happened inside the four walls of the gym where they practiced every day. it what he did outside. in the first five years of his coaching career he befriended five of the top basketball minds on the east coast. this is red auerbach, so havlicek went to boston, and red was the coach at the time. he was able to build a relationship through that. 
+this is joe lapchick. clair bee coached at long island university and has the best record of any coach in the basketball hall of fame. robert met clair when he was . when he was , robert drove clair to clair induction into the basketball hall of fame and sat next to him. the next one is henry iba. he coached years at oklahoma state and was, at the time, probably one of the most successful basketball coaches of all time. that evert dean from indiana, and he met all of them and became friends. two of them lapchick and iba, he just went to a coaches luncheon where he knew they were going to be, and he begged, he said, can i sit next to you? that how he met both of them. then he kept following up and hanging out. 
+a year later he met pete newell. pete was the greatest basketball mind on the west coast at the time. they became fast friends. years later pete would induct robert into the basketball hall of fame. he did not limit his peer network to basketball coaches. he met football coaches as well. this was the coach of the cincinnati bengals, bo schembechler, who would go on to coach at michigan, was his assistant on the basketball team at army. he met bill parcells around the same time, way before bill became a star in the national league. then doc counsilman was the long time swimming coach at indiana, and also someone that robert became friends with. 
+now, i am using the name robert to obscure things a little bit. i am talking about bobby knight. at age bobby knight became head coach at indiana university. five years later at they went undefeated, both in the regular season and the post season, and won the national championship. that never been repeated since in over four decades. at indiana, he would win three national championships, four coach of the year awards, big titles, and when he retired he had victories, the most of any coach at the time. as i said, pete newell inducted bobby into the hall of fame. 
+i am going to move onto the next story, and then i will circle back, and you will see where i am going. now i am going to start in hibbing, minnesota. this is about two or three hours north of minnesota. another robert, robert zimmerman, grew up in hibbing. that what hibbing looked like when he was young. even though it pretty far north in minnesota, there a bit of an urban environment. robert loved music, and in this early photo he got a drum. he got a guitar when he was years old, and by high school was playing in a band regularly. they used to cover elvis and little richard. his yearbook says that he likely to join little richard. that did not happen. 
+what happened was he went to the university of minnesota. he did not go to class. he was hanging out in this place called dinky town, which is this photo right here. at the time, and this is late s, early s, there a lot of new stuff happening. even though he grew up playing rock and roll, he fell in love with folk music. over, i would say, eight or nine months he studied every folk album he possibly could. he did not have a lot of money. back in the time you could walk into a record store and listen in a booth. he would do that for hours and hours and hours. he became friends with people that also liked folk music, but had money. he would go to their house and listen to their record collection. he even accused of having borrowed their records and not returned them, which is a point of controversy even still today. 
+the next thing that happened, i think, is one of the most ambitious actions anyone that i know has taken to pursue their dream job. he hitch hiked from minneapolis to new york city. he had a guitar, a suitcase and , and it , miles. if you ask him today why he did it, he will talk a little bit about chasing the performers, so this is dave van ronk, peggy seeger, the new lost city ramblers, these were people he was listening to in minnesota, but these people were in new york city, and so he wanted to see them. 
+there was really one person he wanted to see, which is woody guthrie. woody guthrie had become his hero. if you just go to wikipedia, once you find out who this is, if you do not know already, he went to new york to find woody guthrie. that was his pursuit because he had come to have this affection and love for the way woody played, and he wanted to know everything he possibly could about it. 
+he went to new york. he found woody guthrie. he used to perform for him. then he started hanging out at these three venues, the caf wha?, the gaslight caf and gerde folk city. this was the epicenter of folk music at the time, and he would sit in each of these venues for hours upon hours and study what the other artists were doing. years later liam clancy would say, he could perform any one of our songs like us, including tonality, tempo, everything, so he was a mimic. he was studying, studying, studying. he got a big break. he was asked to open for john lee hooker at gerde one day, and his career got started. 
+this gentleman is joe hammond. he was the producer for aretha franklin, billie holiday, count basie. one day he walked in and found this gentleman, . i think he , , something like that. the next year robert zimmerman changes his name to bob dylan. john releases the first album. the album does okay. in ' they released the freewheeling bob dylan. this album goes to number in the u.s. and number one in the uk. from there everything was off and to the races. in ' he performed at the march on washington with joan baez where martin luther king spoke his famous speech. a year later he performed for the first time with johnny cash, another one of his heroes. johnny gave him a guitar and asked if he could record several of his song. johnny asked bob if he could record his songs, which he did. 
+the rest is history, as they say, million albums sold, grammys, an oscar, an emmy. he was introduced into the rock and roll hall of fame, and then he took it to a whole new level, a kennedy center award with clinton, barack obama gave him a medal of freedom, and then he topped it off with something that never been done. he won the nobel prize in literature. the only musician ever to be given such an award. that happened two years ago, amazing story. 
+all right, this one you will not know as well, but it equally inspiring. saint louis, missouri, the person this time is named daniel. he grew up in saint louis. his father was an intelligence officer in the military, and moved around europe quite a bit. after the war ended his father became a travel agent, and his mother worked with him, and so they traveled quite a bit. now, because they were travel agents his mom told him he had to journal everything, so he was forced to go on vacation and take notes. he was not that interested in travel, but he loved food. when he went back and looked at all the journal notes he had always taken, they were always about the food they were eating wherever they were. he started to associate different places with the food that he went to. 
+he went to john boroughs high school in saint louis. ended up at trinity college in connecticut where he would spend every weekend in new york city eating food because that what he was passionate about. he got a poly sci major. he went and work on a campaign for a year, was not that interesting to him, so he went back to new york. robert zimmerman was chasing folk music, danny was chasing food. his personal life was all about what he could do, and going to different restaurants and exploring. 
+he went to work for check point. they make those things that you attach to clothes in the store so that when you walk out the beeper goes off. this was early in check point life. he did incredibly well there, and within a year was making k a year as a salesman, which, he spent the most of it on food in new york city. one night he was out to eat with his uncle and his aunt and his grandmother at elio, a restaurant that open. 
+he told him that he was studying for the lsat. he was going to take the lsat next year and go up his career ladder again and become a lawyer, to which his uncle replied, will you just stop it? why do not you go open a restaurant? you know that what you are supposed to do. caught him a little off guard, but woke him up. the next day he took the lsat. he never sent the scores to a single school. never applied to a single school. he quit his job as a salesman, and went to work at a restaurant called pesca in the front office for , a year, so he took a x salary reduction. 
+the reason he chose pesca is there was a chef there, an up and coming chef called michael romano. he wanted to be around this gentleman. he would work during the day in the front office, and then at night he would beg to do the slop work in the kitchen just so he could get exposure to what was happening there. he was also taking a wine class at night, and he met this gentleman who happened to be the head or one of the top restaurant critics for the new york times. they started hanging out together and going to different restaurants and talking and learning. 
+he did something really interesting. he made a list of icons in the restaurant industry. these were new people that were doing innovative things around opening new high end restaurants. wolfgang puck is the first one, but there were different. a lot of these people are on celebrity chef shows today. he started studying them. he created a notebook for each and every one of them, what makes them special, what do they do unique? he started looking at their recipes. 
+then he got even bolder and decided to go to europe. he took every single one of the connections he had, both in the restaurant industry and the travel industry through his parents, plus when he was at trinity he would go do tours in europe for his parents, and so he had a lot of connections, and he did this. now, i just had to look this up for the presentation. it a stagiaire, which i think is a fancy french word for, i will work in a restaurant for free, because that what he did. one of the restaurants that he worked in he had to pay a month, which i ran the math, and that equal to a negative thousand k a year salary. he gone from making to , to now he upside down . 
+what he does is what you think he would do. he studies, so in each and every one of these places, each and every one of these restaurants he watching the chef. he watching the recipes. he goes on the sourcing trips to see how they pick food out of markets or from different fish markets. he just takes tons of notes. he looks at the d cor, he looks at the wine list. on the way home from this nine month journey he said it took the entire eight and a half hour flight just to organize the notes. 
+when he gets back to new york he will spend another six or seven months searching a hundred locations to find the very best location to launch his first restaurant. he years old when he opened his union square caf . this is danny meyer for those of you that might know who he is. i love this quote. he most proud of the studying he did on his own, not the studying that he did at trinity college. he viewed this as the best work he had ever done as a student. union square caf is still open today, times zagat has said it the very best restaurant in new york. danny meyer would go on to launch high end restaurants in new york city, four have won michelin stars. he is the undisputed king of high end restaurants in new york city, but he was not done. 
+a lot of these restaurants, danny would open in areas that needed re gentrification. he had a philosophy that if he could build a restaurant it could become the bespoke place that people go, and then the community would evolve, that he would get a lift alongside that. he, typically, would look for areas that were on the rise, but needed help. one area that needed a lot of help was madison square park, which was not far from union square. he and a bunch of other business people helped launch the madison square conservancy that rebuilt the park. a few years after that happened they started improving the park. there was a decision made to allow there to be a restaurant in the center of the park. he applied, got the bid, and won. that was the location of the first shake shack. 
+a while later i am going to go through something so you will see the work that went into launching the first shake shack. if you go to the first shake shack, it does not look like this. if you want to eat it looks like this when it open. there always a line. i got to know danny on the open table board. we worked together for over a decade, and he used to tell me i had to keep it a secret, but that this single venue made way more profit than any of the white table cloth restaurants that he owned. of course, fast forward today. there shake shacks around the world. they took shake shack public on the nysc, and it now worth . billion. i think there one here in austin, correct? 
+these were the three stories. i had read them all independently, and i noticed that there was a similar strain that was running through each and every one of these stories. now i have organized that, and i want to talk to you about it. the first one is the one that i can provide the least amount of help with you about because i do not know what your passions are. my first piece of advice would be to find your passion. pick a profession in which you have a deep, personal interest. 
+there nothing that going to make you be more successful than if you love doing what you are doing because you are going to work harder than anybody else because it going to feel like work. it going to feel like fun. i think this is the most important decision you can possibly make in a career, is to make sure you have immense passion for what you are doing. this should be your personal passion, not your parents, not your sister, not your family generation of expectation. it needs to be something that you are doing on your own. it might be that your passionate about the same thing as your parents. you do not have to run from them, but you need to know that this is something you are doing on your own. 
+then, i also mention status and compensation. there are a lot of high profile careers that make a lot of money, and they are generally perceived to be areas where successful people go. if you run at those things and do not have a passion for them you are going to burn out eventually. it not going to be where you want to be. the last point is just you ca not fake it. somebody else sitting in some other mba program has a deep passion for whatever career path you are going down, and they are going to smoke you if you do not have it yourself. 
+this is one of my favorite quotes from bobby knight. he says, everybody has the will to win. people do not have the will to practice. i think this is the test for whether or not you are actually pursuing your dream job, which is the essence of it that would be considered studying or work or practice, do you enjoy that part? do you enjoy the preparation? everybody enjoys winning. do you enjoy the preparation? 
+the second of the five guidelines i would have for you is hone your craft constantly. it extremely important to be obsessive about understanding everything you possibly can about your craft. consider it an obligation. hold yourself accountable. that requires you to keep learning over time. study the history, know the pioneers. it the bedrock foundation for what you are going to build upon, and it will help you in networking that you are able to talk the language of the people that came before you. 
+strive to know more than everyone else about your particular craft. that can be in a subgroup. what do i mean by that? let say you love e sports. let just say you have decided multiplayer gaming e sports, like, this is it for you. you grew up gaming, i love it. all right? within the first six months of being in this program you should be the most knowledgeable person at mccombs in e sports. that doable. you should be able to do that. then, by the end of your first year you should be top five of all mba students, and, hopefully, when you exit your second year you are number one of any mba student out there. it does not mean you are the best e sports person in the world, but you have separated yourself from everyone else that out there. i ca not make you the smartest or the brightest, but it quite doable to be the most knowledgeable. it possible to gather more information than somebody else, especially today. 
+then, lastly, and this is a bit of a caveat, depending on what it is that you are chasing, you might want to go to where the epicenter is. the reason is there just more networking available there if that where the great people are. the next two bullet points will tie into that. this is an interesting story from bobby knight biography. his second time he met with pete newell he walked into the room. this guy like , pete newell is one of the most famous basketball coaches ever. he walks into the room with plays diagrammed on three by five cards, sits down in the middle of the floor and says, hey, pete, come go through these with me. i do not know if it audacious or brilliant or what, but some people would consider that over the top, but to get the number one mentor you can possibly find and make them go through that amount of tedious work, but he did it. pete did it. they both learned from it, which is interesting. 
+these quotes from the movie no direction home , martin scorsese did against dylan, really highlight the point that i am trying to drive home to you. most people would think, eh, bob dylan, folk singer. probably just had the dna, or got lucky or something. he was studying. he used the word, i am a musical expeditionary. i looked up expeditionary. an expedition is to travel for scientific research or exploration. that what dylan was doing. there was no one that knew more about folk music than he did when he broke out. he knew more than anybody. another guy in minneapolis that knew him called him a sponge. then this, there a ruthlessness in the way dylan finds sources, uses them and moves on, constantly gathering information and putting it into his own repertoire. 
+i am going to read from danny book for you because i want to drive home this point of studying. you can see i am a huge fan of danny. i have got all these markers here. he one of the most genuine humans i have ever met. he has a restaurant in new york called blue smoke, which is actually a barbecue place. when they were thinking about launching that he says, in the barbecue, within the mile radius of austin and the texas hill country lie five towns i revere. each with a distinctly different style of barbecue. the elements of barbecue are limited, ribs, brisket, pulled pork, chop mince pork, sausage, chicken, coleslaw, beans and a handful of sides, but it become an american culinary language with thousands of dialects and accents. i tried to understand each variation. 
+during one hour road trip through north carolina i tasted variations on chopped pork, each defined by subtle and dramatic differences in texture, the degree and type of smoke used, the amount of tomato or vinegar in the sauce, how much heat was applied to the meat and how well or how much or how little crackling got chopped up and tossed in. that the level of detail he thinks about food. 
+i really like this one because it has to do with shake shack, but, as soon as we won the bid richard corrine, my most enthusiastic researcher of road food, and i set off to study burger and shake stands all over the country. we started out, of course, at ted drew steak and shake in saint lewis, which he grew up eating. continued on to kansas city, and individually made stops in michigan, culver, los angeles, in n out burger, napa, taylor automatic refreshers, chicago, gold coast dogs, plus eight other establishments. connecticut, and he names three or four. always in search of the best of breed. that how they did research for shake shack. i think it drives home this point of like understand more than anybody else. 
+this is a bit of an aside. does anybody know this painting? this is a painting called first communion. it was painted by pablo picasso when he was years old. most people, i think, are brought up, and they are told about picasso in their first art class. you look at these cubism pictures, and someone will say, oh, a seven year old could do that. what they do not know that picasso was a trained classic artist and had mastered it by the time he was . he had spent time studying the way you would if you had set out to be the greatest painter in the world, and that why i made this statement, greatness is not random, it earned. if you are going to research something, this is your lucky day. information is freely available on the internet. that the good news. the bad news is you have zero excuse for not being the most knowledgeable in any subject you want because it right there at your fingertip, and it free, which is excellent. 
+three develop mentors in your field. i do not know if any of you will ever dare to be as aggressive as dylan, hitch hiking , miles to find your mentor, but that might be the type of attitude you want to think about in the back of your mind as you pursue mentors. take every chance you can to find somebody who can teach you about the field you want to excel in. you can work your way up the stack. you do not have to jump straight to the top on day one. treat them with respect. debate things, learn from them. document what you hear, share it with others. try to get these mentors interested in you and your own development. how do you do this? send them notes. tell them when you use their advice to be successful. send them gifts when you have accomplishments. get them bought in. one of the reason american idol works because you start voting or cheering for somebody, and not all of a sudden you feel like you are part of that process, right? get them to feel that way about your own success. 
+then, on the mentor thing, never stop. you have got to keep on pursuing. i had the remarkable fortune this year in my th year as an investor to meet stan druckenmiller and howard marks. they are two people i have admired for a very long time. i read everything that they write any time they speak. i got to sit down with both of them for a couple of hours and talk about investing. it was awesome. the things that they pushed on changed some of the actions that i am taking today in my work. 
+i would already walked you through these examples. every one of these three luminaries had a mentor that was important to them. funny story, last week when i was preparing for this presentation i was rereading danny book, and i went back to this notion when he was and he made this list of people that he considered to be icons in the industry. i texted him and i said, danny, how many of those icons have you ended up establishing a relationship with? he sent me this emoji back. i was thrilled that he knew how to use emojis. he went on to tell me that four of them have become close, personal friends. i think it just documents this point i am making about how searching for mentors and leaning on mentors is a never ending task. 
+four embrace peers in your field. develop a relationship with them. have discussions. have arguments. this is a way you learn. this is a way that ideas get shared. this is a way you hone and innovate ideas. this is one thing i wish someone had told me. when i got to mba school everybody said, network, network, network, and i thought it was a social activity. i thought they were telling me, oh, you need to develop your social skills, and they want me to randomly talk to people that i have no similar interests with. what i have come to realize is, no, it not about that. it about connecting with the people that you have the most overlap with because you will be able to help each other along the way, along the journey. 
+always share best practices and do not worry about giving any proprietary knowledge. it a good trade. it just smart. if you get caught in worrying about it, you are going to fail to advance. the activity of sharing with mentors and peers will lead to so many positive things that help you go up, that whatever the negative costs are are not going to come anywhere close. celebrate your peers accomplishments as if they were your own. cheer them, send them notes, be happy for them. that will come back to you in spades. 
+then, lastly, peers do not need to be in your exact field. bobby knight had sat down with a swimming coach and got knowledge. some of the entrepreneurs i work with and ceos find that it more interesting to go to a conference on a topic that a little bit far away because they get more innovative ideas that they can bring back to their field. it does not have to be this close. it can be spread out. 
+now, most of you know that this is the way you are supposed to network online, and you should certainly have a linkedin profile, and you should certainly connect with people. i will give you one piece of advice, which is, i would be a little stingy with who you link to. i have a rule where i only want to link to people that i would call and trust their advice because then when i am searching for a candidate that i want a reference on or something i do not get random answers. i get people that i know i am going to use. i think people over proliferate their linkedin account. 
+but, and for those of you who were here yesterday, i think there is a much more incredible resource, not an alternative, you should do this and twitter. twitter is the most amazing networking and learning network ever built. for someone that pursuing their dream job or chasing a group of mentors or peers it remarkable. in any given field to of the top experts in that field are in twitter, and they are sharing ideas, and you can connect to them and follow them in your personal feed. if you get lucky enough and say something they find interesting they might follow you. the reason this becomes super interesting is that unlocks direct message. now all of a sudden you can communicate directly electronically whenever you want with that individual, very, very powerful. if you are not using twitter you are missing out. i do not even own any shares anymore. 
+last one, this should be obvious to people, but always give the majority of the credit to the other people that helped you up along the way. one, it the right thing do to, and, two, it will keep you from being an asshole when you are successful. i find all the greats do it. it the right thing to do. send letters, send gifts, anytime you accomplish something in your career take the time to send messages back to the people that helped you. 
+i will tell you a personal story that quite serious that will help reinforce this. my favorite professor when i was here was jim fredrickson who, many of you know, passed away this year. along the way along my journey three or four times i took the time to write him a letter, send him a note, send him a gift and tell him what an impact he had had on me. when he passed i did not have all this anxiety like, oh, i did not get a chance to tell him. i took the chances to tell him, and i would encourage you guys to do that type of stuff along the way. 
+then, lastly, eventually you have got to pay it back. you become the mentor, people start reaching out to you. make sure you take the time. here are a few examples of that. this is bobby knight. shortly after one of his sessions with pete newell and the next year indiana playing one of pete teams. they end up in a tournament together. bobby uses the stuff that pete taught him and beats pete on the field. he recalled that notion in the book, and he said, you know, if pete was willing to do that for me, i have got to do it for everybody else. 
+let me show you statistically a little bit of the impact of what bobby did later in his career. this is from wikipedia. these are bobby former players that are coaching either d or nba, and this is his former coaches that are coaching d or nba. it an immense legacy of people that he developed that went on to be successful. if any deep, deep basketball fans in the room they know that his point guard at army was none other mike krzyzewski, who is one of two people that have now passed him on career wins, . krzyzewski asked bobby knight to induct him into the hall of fame, which is a moving video you can go watch on youtube if you are interested. 
+this is danny. he probably the most wonderful human, or certainly one of the most wonderful humans i have ever met in my life. he talks here about graciousness. it evident in every single thing that he does, how he talks to people, how he treats his staff. his book is worth reading, if you get a chance. as you can see, i am a huge fan. 
+now i am going to tell you two more stories, if we have time. the reason, once again, that i wanted to talk to an mba class is bec</t>
+  </si>
+  <si>
+    <t>the first lecture is on orientation. what am i trying to do? the purpose of this course is to prepare you for your technical future. there really is not this course any technical content, although i am going to talk about digital fillers and all kinds of things. there are things you presumably know. i am concerned about style. 
+i have studied great scientists, ever since i was at los alamos during the war. what is different between those who do and those who do not do significant things? mainly, it a manner of style. 
+many a person i have known worked just as hard and others, but did not have much to show for it. so my problem is, to instill in you something called style so you will amount to something. after all, the navy is paying a large sum on money to have you here. and it wants it money back, by your later performance. 
+now i will examine, criticize and talk about various people style. mainly my own, but other people, why can we use it. now, there are many things i am going to tell you, i wish somebody had told me. i had to find out for myself. this course is not a normal technical course. it all about the topics they never told you in class, but they should have. because each course is taught this way and a large amount falls in between. that why i am trying to pick up. 
+now style cannot be put into words. i can only approach you by particular examples and let you infer what it is. now, there a belief that you probably have, that anything can be talked about. this goes back to socrates, plato, aristotle and the early greek times. they thought they could talk about the gods, truth, beauty, justice, love, all those things. at the time they were saying these things, there were the mystery cults in greece. who said you must experience, you cannot talk. 
+and if you remember the middle ages, various saints said, you ca not talk about god. you got to experience him. the same way the mohammedans about allah, you ca not portray him, you ca not put pictures. you must sense. so there is a long minuscule that says you cannot put everything into words. and one of them is style. i really cannot say what i mean, i can only give you these examples of struggle. hopefully, you will get the idea. 
+now to be effective at a course like this, i have found that i have to talk about myself. if i make abstract remarks. it just sounds like so many pious words. if i talk about me and what i have done, maybe it will penetrate you. now it gives a course, attitude of bragging. i am always talking about myself. but i will tell you several mistakes that i made, so you will not do the same sort of thing. 
+similarly, i have to get you to quit your modesty. i have to get you individually, to respond to my challenge that you are going to be great. you have to say to yourself, yes, if that guy hammond can go out and become a great scientist, i can. or i can become a great person. i have to get you to say to yourself that you want to. that it worth the effort. and you are going to try to be something more than just the average person. 
+now, while we speak of teachers, we are really coaches. i cannot run a mile, the four minute mile for you. i can comment upon your style. but you know you must do the work. the same way i cannot make you a great scientist. i can criticize style and other things. but i cannot, by mere words make you a great scientist. you just as in running four minute mile, must do the work. which means you have to take what you hear and read. think it over carefully, discuss with your friends and see what you can adapt yourself. 
+there is no one style which is successful. painters paint many different styles. you have to find a style that fits you. which means you have to take what fragments you can from other people, use them and adapt them and become yours. you ca not copy me directly, you will not get away with it. and i will use the analogy of painting as an example. in painting, once you have learned color mixing and form and sketching, and so on, you study under a master who you temporarily accept as knowing what he talking about. 
+well, there are limits what can be done. you know that you copy the master style, exactly, you will not be a great painter. you know also, that if you paint in the style he did, or she did, it too late. the future wants a different style. thus i can tell you about the style i used in the past. but that will not be the style you will have to have to cope with the future. you must manufacturer the style, which will make you as a significant person in the future. so it not easy. while i can only talk about past ones and make references to possible future ones. it a problem you face. what i did would not make me successful if i were starting now. just as my predecessor got successful on other things that i could not do and get successful on. 
+now is another practice very difficult for you. when i went to build our laboratories , i looked around since i was already interested what made great scientists. and i looked at what they did. and when i looked at what they did to become famous, it did not look that difficult. they tend to do the easy problems. now i found in the course my time there, a couple of holes they left. but fundamentally, they did the easy problems. my generation did somewhat harder ones, and we left to the others the harder still. every generation has more difficulty, but you stand on our shoulders to some extent yet, the task is harder. having got man to the moon, the next real good feet in space is gonna be a lot harder. therefore you have difficulty, it very definite. 
+now when i came to bell labs, there were four of us at the same time about. we came in about the same time. and we were about the same age within a year. we probably called ourselves the four young turks. and many, many years later, i discovered top management called the same. we were troublemakers. we did not do things the way the previous generation did. we did new things. 
+the previous generation did not like it. we did not do things right. for example, my boss henry boda in network theory had made reputation doing network to with complex variable, and knew that how you do things, after all. that is what made him famous. this guy hamming comes on and keeps using computing machines, which is not the way to do it in his eyes. but it was the thing that needed to be done. this is a lesson which i want to get across to you regularly. 
+supposing i am successful and you do rise to the top. would you please remember that what made you great is not appropriate for the next generation. you know how to get great because after all, you were great. but the things that you did may not be appropriate for next generation. all too often we have a troubled bosses. they know by god, this is the way i did it and i got the top, then it must be right. they are very often wrong. and i want you to think seriously, when you rise to the top that your method of success is not appropriate. now the world has changed. 
+i want to talk to education. education is what, when and why to do things. training is how to do it. most year courses i have been training, i am trying to talk about the education part. it not easy. but the school has allowed me a great deal of latitude in putting this course together, which is concentrating on education. now, if you have one without the other, it not much good. i have had very able technical people reporting to me, who apply their technology and the methods to the wrong problem. and it had to be undone. i have other people, who had all kinds of theory but could not do anything. they are not what you use either. you need both theory to guide you and skill and technique to do. one without the other is not too good. 
+now, in a certain sense, i am engaged in meta education. i am talking about education constantly, because that what you are going to have to do. you are going to have to educate yourself constantly. that what the future says. now i am going to constantly try and project forward what the world gonna be like. 
+let look back first history. the modern era in science engineering began with sir isaac newton, roughly. , he was born christmas day, the same year that galileo died. and he lived to be about . so we can say it around . from newton time to ours, we have about double the knowledge every years. 
+the doubling period of science from then to now is roughly . why ca not a bell laboratories in , they were trying to shrink down the war size down to people. i watched through years of management, putting hiring freeze and doing everything else like that double every years with small wiggles. they had to hire two people to keep up with expanding knowledge. publications, books, journals, and so on. for example, i think i have the numbers here. no, i guess i do not. i am going to make a digression. oh. the other thing about the situation is that of the scientists who ever lived are now alive. it a common statement. 
+i am going to now turn to a back of the envelope calculation, which i learned by watching family and other people, and other shockley people i used to get lunch with them. i am going to suppose first we have an exponential growth of the number of scientists. that comes from a differential equation, the rate of change is proportional how much you have. and the solution is a you know, the exponential growth. now if i assume that the amount of knowledge being generated is proportional to the number of scientists, this is the amount of rate and in the up to years ago. this is how much we generated. this is about up to now. now i put minus infinity on because it does not matter what lower limit i put is so small, does not matter. the exponential is very, very small. so who cares? 
+well, i will be would simply work it out. i would do the integration. i come up that, and the statement was half the stuff has been done, the doubling every years from years ago, now we have doubled. that says the ratio to half. i have got a farm you formula for b. now take the other statement, of the scientists who ever lived are now alive. from now back years, that what i am going to take for lifetime of a scientist. you probably do not mean a living scientist, when he two years old, you probably mean his science alive, what he become are beginning to be a scientist. and until he decay somewhere in the s you deserve a sign. so years is a reasonable number. if i put that in over the whole, of all scientists that ever lived, i come up with this, using that, this is a b. i come up with . which is just close enough to . 
+now let see what happened. i got a clear idea what i was talking about. and i had to answer the question which i had not thought about. what did i mean by a lifetime of a scientist? but you see, those two statements are compatible. we double every years, and of the scientists who ever lived are now alive. you have seen enormous growth of science from newton time to now. well, let me project. well, let me say now, a good estimate of the number of various branches of science which we have developed. in newton this time, we had only one thing called natural philosophy. now we have lots of specialties. there are something like , specialties. there certainly is more than , , and almost certainly less than , . so , is a good number. 
+now if i could check forward, doubling every years, for years, that a million fold to the th. that would make million fields especially. but you do not believe it. you do not believe in years, that will be billion fields of specialty. consequently, science cannot go the way it has been for the next or years. the doubling and the growth cannot go on. one of the things we have done is we have got an exponential number of people in the field. we ca not go on that either. everyone would have to be a scientist. so you know the past is not too good a guide to the future. 
+now the reason why i want to put the back the envelope in is it widely used. i observed that fairmi and shockley and those, i use to eat lunch with them. they did back the envelope. and you saw what i had to do. not only that, but it also does two things. it puts the thing firmer in your mind, having shown you the calculation, you may retain a little longer. plus it gives you practice in quick modeling. nobody pretends this is really accurate. i do not pretend is exactly a number. it somewhere around there. but back the envelope calculations are very useful. 
+i find it very, very useful. when i hear things over tv or something else. radio, read newspapers, so on to a quick modeling and ask myself, are these numbers possible? and very frequently, two things emerge, either they are not possible or b, you did not even know what they were talking about to make a model. your father, they failed to tell you what they were talking about, just gave you a spectacular answer. so doing back envelope modeling is a very, very big help. 
+now, this doubling business is a very serious one. i have had lived through my life with that fact. so i put them in here a table. double the years, triple that four, five, six, seven, eight, nine, ten times, about years, something like that. hey, how do you read that? one way is ask the time from now to retirement. look at this column. that how much knowledge will be, that much times at what you now have. if we go on the same way. you face a rather horrendous future. another way to look at is this. 
+suppose you were when your child was born. now your child goes to college. there four times as much knowledge, not just mathematical theorems. recording is beethoven ninth, where to go skiing, what channels to read, listen to on tv. there going to be four times as much knowledge for your poor child to face. now you remember when you hit college, how much there seemed to be? do not be surprised if your children are somewhat more disoriented than you were. and god knows you were sometimes disoriented. 
+this is what that means. furthermore, the doubling, all the doubling occurs worst in the last period. almost half, the half the episodes occur in the last doubling period. and that what causes saturation. saturation comes on quite rapidly. so another way of looking at doubling is simply this table here, which is disconcerting. if you think you will be chief of staff in, say years, no, i will say years. they will be five times as much knowledge needed to run the navy, as needed now. 
+that is what you face. but what my answer? my answer to that is learning to learn, was the only thing i could do. things become obsolete. something like half of what we have taught you. loving the other courses will be obsolete in years. either we are no longer doing it, or it been replaced by something else. consider what i had lived through. i came to bell laboratories in , and they were running back and due to so on with a very important part. so i started having a mathematical background, studying light to engineering and what back and tubes were to song. 
+but in some years, i began eating with the physics department and i ate with the guy is while they were perfecting that when they started. when they were developing engineering side of transistors, i did a great deal of calculation for him on transistors. i absolutely needed all the knowledge i knew. i have to to see if i could do for long walks up to my friends office where he keeps going around the show suits what a vacuum tube is, you do not see the very often. now you can say well, the original transistor roll tin cans and three legs. now there a minimalist ship that sides. i have had to do that. at los alamos, we calculate how we bomb designs, on really calculus, which probably averaged maybe an operation or a second, or maybe a second and a half. round the clock, six and a half days a week for a month. sometimes three months, but typically about a month, to get one solution. now you can punch in a modern machine, go boop, boop, and there the answer. i have had to live through a tremendous change. 
+furthermore, i was educated as a mathematician, i certainly had no course numerical analysis. i never knew about a computer. i knew a little physics, the los alamos taught me so more. but fundamentally, when i went to bell labs, because i believe that the computing i did, i should understand the nature problem. i had to learn something of the breadth of physical sciences. some chemistry, as well a lot of physics, some social science and a little bit of biological science. because laboratories had such departments, and sub social science. i spent a lifetime getting background knowledge on something, you have to have background knowledge enough to penetrate jargon, which i will talk about extensively at a later date. 
+now, one thing you could do is to try and claim the fundamentals, which is very glib until you ask what do i mean by fundamentals? well, i have two criteria, which are not adequate. one is from the fundamental you can derive the rest of the field. secondly, they have been around for some time. but the fundamentals of application, which were vacuum tubes, does not count now. true, the formula for gain, oh. i have trouble with names frequently. i will come to it pretty soon. nyquist formulas are still good. the game form is used out of back in tubes are still useful. although we have to apply it to other things. feedback is still the same. a lot of things are not. 
+now i need to discuss science versus engineering. science, if you are doing it, you should not know what you are doing. if you know what you are doing, you should not be doing it. not in science, because science is supposed to be exploration. but you do not know. engineering. you should not be doing it unless you do know what you are doing. well, nothing is pure. science involves a great deal of engineering. and engineering involves a great deal of new material. so it a great blend. but what is painful to you is going to be worse, is that they two fields are growing together because of a simple fact. again, going back by first candy bell labs, when suddenly we discovered in physics. the telephone company was not in that greater hurry to get it developed it into the field, after all have pretty much monopoly, why hurry? now as you know, we are not willing to wait for scientific principles to develop we want the field tomorrow. so two fields to come together like that. 
+and the leisure which we use long ago, which we are still using some extent, develop the ideas first and then apply it is going to be less and less acceptable. when ideas first around you want to apply it. i just read last night, one of the presidents who were was at a museum or one of these world fair was shot, and the boat was back. right his back, but the doctors refused operate because they did not know where the bullet was. but there at the booth thing where x ray being demonstrated, they did not use a new technique was right ready available, they kind of wheeled in their kind of picture. no, they were conservative, we do not allow that much anymore, we are pushing very hard are you going to be pushed very much to go from idea to develop item and get it on the market rapidly. 
+i once read there was some different methods of predicting the future, which is why i am engaged in doing to some extent. one is to predict tomorrow will be like today. whatever temperature is today predict tomorrow is the same. it a pretty good prediction. a somewhat better one is to note the linear trend and predict a linear trend. that good for a while but not too long. and furthermore, it depends on which variable you pick to be linear. if you pick the coefficient from to be linear, one thing we pick the exponent something else. it does not work too well. i made many predictions on how much computing i will do pretty soon. because i need to know how much capacity would need and so on. i was regularly raw on the low side. 
+so one time i said i will predict high. so i got the form is and predicted real high a couple years later, the paper turned off my desk i looked at it, i was low again, the growth in computing has been unbelievable. on the other hand, on the other side, take artificial intelligence. the predictions made by almost all the experts , , years ago have not been realized. so you ca not always go on things. none the less, there a saying. short term predictions are optimistic long term predictions are pessimistic. and the reason is very simple. the long term of the pessimistic is nobody can believe in geometric regression. i say again, when we got the transistors going, nobody in his right mind would have predicted a million transistors on a ship that big. nobody. it beyond belief. but that what we did. you know, so predict the future is a very, very hard business. but you have to do it. history is important. 
+now, some people believe that history repeats itself, and some people believe exactly the opposite. but one thing you can be sure. what we now regard is the past was to some people the future. and what you think is the future will be the past. there will be a time when some of you will be in the history books. yes, you live long enough and do enough. and you end up in history books. so what do you think the future will become the past? 
+now, another thing against history is henry ford senior remark history is bunk. and i think he said it for two reasons. one is history is rarely reported correctly. there are great main description of what happened at last almost during the war. no two of them agree. and they do not agree with what i think happened. indeed, one time, a math teacher who wrote his experience about the matter. and publisher guy came in last almost our regular summer visit said to my friend, i just read william book. that is the how i remembered it. he said, that is not how i remember to either. i was just going to say, how do you remember? and i suddenly realized no two people remember the same. you are familiar with this an accident. several witnesses see it, they report different things. there is no reliable report of what happened in the past. it what has come down to is accepted. secondly, i think in affords mine was the fact that the past has been more rapidly disconnected from the future. 
+the invention of the computer tells you how much the world is different than what was before computers appear. it a change in the way we do things. engineering now is to great extent, getting a computer do job writing program and putting some terminal equipment around the defect the real world. the heart of much of engineering now is a computer. now, some historians when you read them, they will give you the impression that the it was inevitable this was going to happen it was inevitable that rome would fall or this or that. and on the other hand, they will tell you the future is very open ended. many things are possible. can this be true that the past was very determined, the future is very open? it seems unlikely. so your left was saying maybe the past was not so determined. for example, individual lives of alexander the great, napoleon, and hitler. if they had died in their childhood, would not the world be very different? 
+on the intellectual side, pythagoras, aristotle, newton, maxwell, einstein are examples who people who had they died in their youth, the world would be rather different. so individuals do matter. i suggest the past was less determine the historians like to make and the future is less open ended than you would like to believe. but there a great many possibilities for you. the future had got great possibilities. now, one of the thing is history is unforeseen technological inventions can ruin anything like i told you transistors, the development of vacuum tubes was practically cut off. 
+a technological invention, you can change completely, the history of something, and one could hardly foresee technological inventions. but they are also social inventions, which are important. you people have been trained mainly in the physical side, i have got to make you more sensitive to the fact that all of your life takes place in a social society, which has restraints. thus i will claim that the future of technology will be less determined by what technology can do. then social, legal, and other restraints on what we can do this, if you stop, think about highway controlled, computer control highway traffic. it sounds good, do you ask yourself who do i sue in an accident? and you begin to decide, you know, it going to be a very, very difficult thing to get going. very difficult. social conventions are going to stop great things from happening. 
+now i want to talk another thing, a story which i will use several times the story of the drunken sailor. he staggered a couple steps this way, and he staggers this way. and he staggers this way and he staggers this way. in n steps, typically he will get the square root of n distance. in steps, he will get about . in , steps, it will be about times where he may be right where you started maybe for the way, but that typical. on the other hand, if there a pretty girl over there, he talking like this back like this over like this. he going to disproportional the end. if i can create in you a vision of where you are headed, you will make a progress proportional to end. if you do not have a vision, you will wander like a drunken sailor, and get very little. so one of my major purposes is to get you to form a reasonable vision of what you are going to do your future what kind of a person you are going to be. 
+now you are gonna say me, but hannick, how do i know the future? i am gonna say, it does not matter much from our examine in life. what goal you set? what do you want march that way, that way or that way. if you have a goal, you will get somewhere near it. if you do not have a goal, you are a drunken sailor. my problem is to make you form your goals and some except try to achieve them to make something important rather than just drifting. now is comfortable drift to life. a great many people one question closely will assert that perfectly content to drift through life. i do not think too good idea of the whole thing. 
+now, it none of my business, what goal you take, it is my business, to force you one way or another to set up some reasonably decent goals to try and achieve something in your life. again, this society is paying a great deal of money for your education, it entitled to something those who do something generally have some kind of goals to see where they are headed, and their lives add up. those who do not are just a bunch of isolated events. they did this they did that they did nothing, but nothing added up. so i promise to get you to choose your goals. even if you want mary be a great guitar player, i do not mind. so long you set a goal is struggling. that is the essential part that i am really after. and that what this course is about to some extent, forcing you somehow rather to do more than you would have done otherwise. 
+now the standard method teaching is to have departments. departments break things up into something better like calculus, linear, linear programming a so on. too much falls between and this course is an attempt one way to plug all those holes, the engineering courses you had. you had a lot of engineering courses, they taught you this at the i mean, there are vast holes between them. the optimizing of the combos individual courses, is not optimizing a total education is i will come to the system engineering. 
+now another goal i have is to show you that in spite of different departments, there essential unity of all knowledge. when you face a difficult problem of unknown type, it does not matter whether it comes from chemistry, physics or anything else, you have to find the answer. and knowledge is pretty homogeneous, then it no longer divided up into courses, no longer divided up in apartments, although at bell labs, i was in the math department almost all the time. in fact, i was doing great many things. i was doing statistics i was doing computing, how you doing physics, i did a lot of other chemistry. 
+we did not observed tied to division but for purpose of organization, you do have to have some structure by want to get new minds. now which is sort of a homogeneous body, which we have specialized with certain names, but it all reconnected together. now the course will center around computing. not i like to think because i am prejudiced my life in computing, but rather in fact they are going to dominate science and engineering. and there are reasons for this, very powerful reasons. 
+economics, for example, computers are far cheaper than human beings. far cheaper and getting cheaper by the year, humans are getting more expensive by the year. speed. far, far faster. your nervous system if you drop something on your toe signals up your head about meters per second. like kilometers per second you walk in a league you ca not even touch electronic speeds, there no way you come near. so speed is overwhelmingly on the side the machine. accuracy the me number ditches arithmetic carry. yes, they can be quite precise. they can do double precision if necessary. you will have trouble doing double precision with take probably if you tried doing it. you can work it out but you would have trouble. reliability. they are far, far ahead of you, god or nature however you want to it, did not make you to be a reliable thing. you have been walking for years and still every now and then you trip and stumble. you ca not do anything really reliable. that why man ended up at the top of the heap. 
+he has the flexibility built in. but do not ever try to get humans do something reliable. take for example bowling. why you just throw the ball down the alley exactly same way every time have a perfect game. perfect games are rare even among the most skill experts. precision, flying and other things are very hard to do. we recognize it being very precise drill teams and so on or something remarkable. the human animal was really designed to do that. he was designed for something else. repeated repetitive control because the machines got rapid control. we are now building airplanes which are basically unstable and we have a computer every millisecond is correcting usability. 
+so we get better performance out of it, but the pilot could not do it. if that computer goes out, the pilot through. the pilot is left with a large scale abroad planning but the millisecond to millisecond is left better computer because of human just ca not act act fast. another one who tried well on very much freedom boarding. it sounds trivial. you cannot put a human being on a job to look for something for three years and when it happens respond properly. you can put a computer on the job. you can put the computer on job to watch for the rare event. if such and such an episode happens in the atomic pile, do this. but that has not happened for four years. the human being is not going to do very well. you guys know looking at think for last two and a half years even. 
+you ca not get humans to be freed from boredom. machines do not know what the word is. bandwidth in and out. in any rapidly changing situation, the person in charge can only get so much information in and out and there a general belief that really you can process only about bits per second maybe , something like that. but you ca not process , bits per second. a machines got enormous more bandwidth. now the visual auditory or pull all your inputs together they will not match a modern machine for bandwidth. now only coming in, but getting orders out. for central control the humans simply cannot in a complicated situation compete with the machine. if it is merely bandwidth and bandwidth out. if it is making judgments to sell the story, but the machines simply cannot cope with us. we no longer have a crew aiming a gun at airplane, we have a self contained. the human is too slow, it just is not much good. 
+we need much more rapid things and humans can cope with the bandwidth in and out, which is we speed of getting information is fundamental. computers have got all over you. ease of retraining. training the old ways you learn to do something and now we i changed the equipment you gotta unlearn the old habits learn some new ones and you got to repeat them many many times to learn them with the computer i changed the program. and it done, no elaborate training, no endless hours or constant practice. just put a new progra</t>
+  </si>
+  <si>
+    <t>i am honored to be with you today at your commencement from one of the finest universities in the world. i never graduated from college. truth be told, this is the closest i have ever gotten to a college graduation. today i want to tell you three stories from my life. that it. no big deal. just three stories. 
+the first story is about connecting the dots. 
+i dropped out of reed college after the first months, but then stayed around as a drop in for another months or so before i really quit. so why did i drop out? 
+it started before i was born. my biological mother was a young, unwed college graduate student, and she decided to put me up for adoption. she felt very strongly that i should be adopted by college graduates, so everything was all set for me to be adopted at birth by a lawyer and his wife. except that when i popped out they decided at the last minute that they really wanted a girl. so my parents, who were on a waiting list, got a call in the middle of the night asking we have an unexpected baby boy do you want him? they said of course. my biological mother later found out that my mother had never graduated from college and that my father had never graduated from high school. she refused to sign the final adoption papers. she only relented a few months later when my parents promised that i would someday go to college. 
+and years later i did go to college. but i naively chose a college that was almost as expensive as stanford, and all of my working class parents savings were being spent on my college tuition. after six months, i could not see the value in it. i had no idea what i wanted to do with my life and no idea how college was going to help me figure it out. and here i was spending all of the money my parents had saved their entire life. so i decided to drop out and trust that it would all work out ok. it was pretty scary at the time, but looking back it was one of the best decisions i ever made. the minute i dropped out i could stop taking the required classes that did not interest me, and begin dropping in on the ones that looked interesting. 
+it was not all romantic. i did not have a dorm room, so i slept on the floor in friends rooms, i returned coke bottles for the deposits to buy food with, and i would walk the miles across town every sunday night to get one good meal a week at the hare krishna temple. i loved it. and much of what i stumbled into by following my curiosity and intuition turned out to be priceless later on. let me give you one example 
+reed college at that time offered perhaps the best calligraphy instruction in the country. throughout the campus every poster, every label on every drawer, was beautifully hand calligraphed. because i had dropped out and did not have to take the normal classes, i decided to take a calligraphy class to learn how to do this. i learned about serif and sans serif typefaces, about varying the amount of space between different letter combinations, about what makes great typography great. it was beautiful, historical, artistically subtle in a way that science ca not capture, and i found it fascinating. 
+none of this had even a hope of any practical application in my life. but years later, when we were designing the first macintosh computer, it all came back to me. and we designed it all into the mac. it was the first computer with beautiful typography. if i had never dropped in on that single course in college, the mac would have never had multiple typefaces or proportionally spaced fonts. and since windows just copied the mac, it likely that no personal computer would have them. if i had never dropped out, i would have never dropped in on this calligraphy class, and personal computers might not have the wonderful typography that they do. of course it was impossible to connect the dots looking forward when i was in college. but it was very, very clear looking backward years later. 
+again, you ca not connect the dots looking forward you can only connect them looking backward. so you have to trust that the dots will somehow connect in your future. you have to trust in something your gut, destiny, life, karma, whatever. this approach has never let me down, and it has made all the difference in my life. 
+my second story is about love and loss. 
+i was lucky i found what i loved to do early in life. woz and i started apple in my parents garage when i was . we worked hard, and in years apple had grown from just the two of us in a garage into a billion company with over , employees. we had just released our finest creation the macintosh a year earlier, and i had just turned . and then i got fired. how can you get fired from a company you started? well, as apple grew we hired someone who i thought was very talented to run the company with me, and for the first year or so things went well. but then our visions of the future began to diverge and eventually we had a falling out. when we did, our board of directors sided with him. so at i was out. and very publicly out. what had been the focus of my entire adult life was gone, and it was devastating. 
+i really did not know what to do for a few months. i felt that i had let the previous generation of entrepreneurs down that i had dropped the baton as it was being passed to me. i met with david packard and bob noyce and tried to apologize for screwing up so badly. i was a very public failure, and i even thought about running away from the valley. but something slowly began to dawn on me i still loved what i did. the turn of events at apple had not changed that one bit. i had been rejected, but i was still in love. and so i decided to start over. 
+i did not see it then, but it turned out that getting fired from apple was the best thing that could have ever happened to me. the heaviness of being successful was replaced by the lightness of being a beginner again, less sure about everything. it freed me to enter one of the most creative periods of my life. 
+during the next five years, i started a company named next, another company named pixar, and fell in love with an amazing woman who would become my wife. pixar went on to create the world first computer animated feature film, toy story, and is now the most successful animation studio in the world. in a remarkable turn of events, apple bought next, i returned to apple, and the technology we developed at next is at the heart of apple current renaissance. and laurene and i have a wonderful family together. 
+i am pretty sure none of this would have happened if i had not been fired from apple. it was awful tasting medicine, but i guess the patient needed it. sometimes life hits you in the head with a brick. do not lose faith. i am convinced that the only thing that kept me going was that i loved what i did. you have got to find what you love. and that is as true for your work as it is for your lovers. your work is going to fill a large part of your life, and the only way to be truly satisfied is to do what you believe is great work. and the only way to do great work is to love what you do. if you have not found it yet, keep looking. do not settle. as with all matters of the heart, you will know when you find it. and, like any great relationship, it just gets better and better as the years roll on. so keep looking until you find it. do not settle. 
+my third story is about death. 
+when i was , i read a quote that went something like if you live each day as if it was your last, someday you will most certainly be right. it made an impression on me, and since then, for the past years, i have looked in the mirror every morning and asked myself if today were the last day of my life, would i want to do what i am about to do today? and whenever the answer has been no for too many days in a row, i know i need to change something. 
+remembering that i will be dead soon is the most important tool i have ever encountered to help me make the big choices in life. because almost everything all external expectations, all pride, all fear of embarrassment or failure these things just fall away in the face of death, leaving only what is truly important. remembering that you are going to die is the best way i know to avoid the trap of thinking you have something to lose. you are already naked. there is no reason not to follow your heart. 
+about a year ago i was diagnosed with cancer. i had a scan at in the morning, and it clearly showed a tumor on my pancreas. i did not even know what a pancreas was. the doctors told me this was almost certainly a type of cancer that is incurable, and that i should expect to live no longer than three to six months. my doctor advised me to go home and get my affairs in order, which is doctor code for prepare to die. it means to try to tell your kids everything you thought you would have the next years to tell them in just a few months. it means to make sure everything is buttoned up so that it will be as easy as possible for your family. it means to say your goodbyes. 
+i lived with that diagnosis all day. later that evening i had a biopsy, where they stuck an endoscope down my throat, through my stomach and into my intestines, put a needle into my pancreas and got a few cells from the tumor. i was sedated, but my wife, who was there, told me that when they viewed the cells under a microscope the doctors started crying because it turned out to be a very rare form of pancreatic cancer that is curable with surgery. i had the surgery and i am fine now. 
+this was the closest i have been to facing death, and i hope it the closest i get for a few more decades. having lived through it, i can now say this to you with a bit more certainty than when death was a useful but purely intellectual concept 
+no one wants to die. even people who want to go to heaven do not want to die to get there. and yet death is the destination we all share. no one has ever escaped it. and that is as it should be, because death is very likely the single best invention of life. it is life change agent. it clears out the old to make way for the new. right now the new is you, but someday not too long from now, you will gradually become the old and be cleared away. sorry to be so dramatic, but it is quite true. 
+your time is limited, so do not waste it living someone else life. do not be trapped by dogma which is living with the results of other people thinking. do not let the noise of others opinions drown out your own inner voice. and most important, have the courage to follow your heart and intuition. they somehow already know what you truly want to become. everything else is secondary. 
+when i was young, there was an amazing publication called the whole earth catalog, which was one of the bibles of my generation. it was created by a fellow named stewart brand not far from here in menlo park, and he brought it to life with his poetic touch. this was in the late s, before personal computers and desktop publishing, so it was all made with typewriters, scissors and polaroid cameras. it was sort of like google in paperback form, years before google came along it was idealistic, and overflowing with neat tools and great notions. 
+stewart and his team put out several issues of the whole earth catalog, and then when it had run its course, they put out a final issue. it was the mid s, and i was your age. on the back cover of their final issue was a photograph of an early morning country road, the kind you might find yourself hitchhiking on if you were so adventurous. beneath it were the words stay hungry. stay foolish. it was their farewell message as they signed off. stay hungry. stay foolish. and i have always wished that for myself. and now, as you graduate to begin anew, i wish that for you. 
+stay hungry. stay foolish. 
+thank you all very much.</t>
+  </si>
+  <si>
+    <t>i was asked to talk about the multidisciplinary approach to thinking. so i will start out with that. but if you guys get bored or something and say well i thought we were supposed to have fun listening to this today.' you can raise your hand and say could you talk about leadership or team building or business strategy or ethics or something else?' i gave a talk recently at google, in fact i have given three talks at google. and the first talk i gave they said what are you going to talk about?' and i said, well, what do you want to talk about?' they said, about whatever you want. what do you usually talk about?' well i usually talk about leadership, culture, team building, strategy, ethics. and they said, we do not want to hear about that team building crap. we get that all the time. we want to hear about self improvement.' so i will mix in with our multidisciplinary topic a little bit of self improvement as well. is that ok? ok. 
+so why is it important to be a multidisciplinary thinker? the answer comes from the austrian philosopher ludwig wittgenstein who said, to understand is to know what to do.' could there be anything that sounds simpler than that? and yet it a genius line, to understand is to know what to do. how many mistakes do you make when you understand something? you do not make any mistakes. where do mistakes come from? they come from blind spots, a lack of understanding. why do you need to be multidisciplinary in your thinking? because as the japanese proverb says, the frog in the well knows nothing of the mighty ocean.' you may know everything there is to know about your specialty, your silo, your well, but how are you going to make any good decisions in life the complex systems of life, the dynamic system of life if all you know is one well? 
+so i tried to learn what munger calls, the big ideas from all the different disciplines. right up front i want to tell you what my trick was, because if you try to do it the way he did it, you do not have enough time in your life to do it. it impossible. because the fields are too big and the books are too thick. so my trick to learn the big ideas of science, biology, etc., was i found this science magazine called discover magazine. show of hands, anybody here ever heard of discover magazine? a few people. ok. and i found that this magazine every month had a really good interview with somebody from some aspect of science. every month. and it was six or seven pages long. it was all in layperson terms. the person who was trying to get their ideas across would do so using good stories, clear language, and they would never fail to get all their big ideas into the interview. i mean if you are given the chance to be interviewed by discover magazine and your field is nanoparticles or something, are not you going to try your very best to get all the good ideas into the interview with the best stories. ok. so i discovered that on the internet there were years of discover magazine articles available in the archives. so i printed out years times months of these interviews. i had of these interviews. and i put them in these big three ring binders. filled up three big binders. and for the next six months i went to the coffee shop for an hour or two every morning and i read these. and i read them index fund style, which means i read them all. i did not pick and choose. this is the universe and i am going to own the whole universe. i read every single one. now i will tell you that out of articles, if i would have been selecting my reading material, i probably would have read about of them. and the other ? i would never in a million years read six pages on nanoparticles. guess what i had at the end of six months? i had inside my head every single big idea from every single domain of science and biology. it only took me months. and it was not that hard because it was written in layperson terms. and really, what did i really get? just like an index fund, i captured all the parabolic ideas that no one else has. and why does not anybody else have these ideas? because who in the world would read an interview on nanoparticles? and yet that where i got my best ideas. i would read some arcane subject and, oh my god, i saw, that exactly how this works over here in biology.' or that exactly how this works over here in human nature.' you have to know all these big ideas. or there is an alternative, find somebody who did what i did and just get all the ideas from them. now when i was your age and i was in school i thought the asymmetry of it was very unfair because i had to do all the work. so every time i go back and meet with a group of students i change the asymmetry around. i did all the work for you 
+i have multiple examples of models that i derived from what i call my three buckets. let see if i have got my three buckets in here. i do. i do have my three buckets. ok. so this is how i use ideas that no one else in the world uses and yet i can be comfortable that they are right. a statistician best friend is what? a large, relevant sample size. and why? because a principle derived from a large relevant sample size ca not be wrong can it? the only way it could be wrong is if the sample size is too small or the sample itself is not relevant. so i want to tell you what my three buckets are where i derive my models, my multidisciplinary models. number one is . billion years. is that a large sample? it the largest one in the whole universe. there is no larger sample. because what is it? it the inorganic universe. physics. geology. anything that not living goes in my bucket number . . billion years. 
+bucket number is . billion years. it biology on the planet earth. is that a big sample size? is it relevant? we are biological creatures. let me ask you this, inorganic, bucket number one, is it relevant? we live in it. so bucket number one we live in, . billion years. bucket number two is what we are part of, biology. . billion years. and number three is , years of recorded human history. that the most relevant of all. that our story. that who we are. 
+so we are going to take a couple of examples here of multidisciplinary thinking. we will ask this question, is there a simple two word description that accurately describes how everything in the world works? that would be very useful would not it if you know how everything works in just two words? so we go to bucket number one. how does everything work? we go to newton third law of motion. we are getting very multidisciplinary here. does anybody in the room know what newton third law of motion says? answer for every action there will always be an equal and opposite reaction. that beautiful. he wins one of my pens here for answering that question correctly. i always give out rewards. it like operant conditioning from psychology, right? so there you go. 
+yes if i put this bottle of water on this table, newton third law of motion says that if the bottle pushes down on the table with force x', and it also strangely says that the table pushes back with equal force x'. that very strange. but you know how long that been true? . billion years that been true. now what if i push down twice as hard, what does the table do? well if i push down twenty one and a half times as hard? what does the table do? twenty one and a half! ok. now is there a good word, a catchall word to describe what we are talking about here when this pushes down and this thing pushes back? yeah, it reciprocation is not it? but it not mere reciprocation. it perfectly mirrored reciprocation. the harder i push, the harder it pushes back. does everybody buy that? that bucket number one. that how the world works. it mirrored reciprocation. everything in the inorganic universe works that way. 
+we go to bucket number . i am going to introduce a little humor into this. even though this is a dog, pretend it a cat. ok? this is a cat for the time being. mark twain said that a man who picks up a cat by its tail will learn a lesson he can learn in no other way. what is this cat going to try to do? it going to do what? answer attack you. yeah it going to try and scratch me with its sharp claws. and why? it does not find being picked up by its tail very agreeable does it? now what if i start swinging this cat around by its tail. what does the cat do now? now it trying to scratch my eyes out. it said, you escalated on me pal, i am going to escalate back on you.' does that sound a lot like mirrored reciprocation? but what if instead of doing something disagreeable with this cat we do something very agreeable with this cat? and this cat sitting here and we come over and we gently pick it up by its tummy and we put it in the crook of our elbow and we gently stroke it. does the cat try and scratch us? what does it do? it licks our hands. and as long as i sit here and stroke it, it going to continue to try and lick my hand. it wants to show me what? i like this. this is agreeable. you are a good guy. keep it up man!' it is mirrored reciprocation is not it? if i act in a disagreeable way to the cat, the cat acts in a disagreeable way back, and mirrored. if i act in an agreeable way, what do you think we are going to find when we go to bucket number three? it exactly the same thing is not it? your entire life. every interaction you have with another human being is merely mirrored reciprocation. now you are going to say to yourself this is too simple. it ca not be this simple.' it is this simple! it does not mean it not sophisticated. this is a very sophisticated model we just derived is not it? we did it in a multidisciplinary fashion did not we? we looked into the three largest sample sizes that exist, the three most relevant, and they all said exactly the same thing. do you think we can bank on that? percent we can bank on that. 
+so, if you think about things being complex as being sophisticated like most people do, you think the more complex it is, the more sophisticated it is. i want you to remember, as best you can, what i am about to say. it very, very important. albert einstein once listed what he said were the five ascending levels of cognitive prowess. now there nobody in this room that does not want to be level number one. right? that why we are here. you do not want to be level number five. you want to be level number one. wait until you hear what these levels are, it going to blow your mind. so number he said, at the very bottom, was smart. ok. that the lowest level of cognitive prowess is being smart. the next level up, level , is intelligent. level , next up, is brilliant. next level up, level , he said is genius. what? what higher than genius? he must have that backward. no he does not. wait until you hear what number one is according to albert einstein. we just demonstrated it. number one is simple. simple transcends genius. 
+why is simple, the right kind of simple, better than genius? because you can understand it! i bought this book i usually take it when i am giving a talk like this. it the ethics by spinoza. spinoza ethics book was written by a true genius. and guess what? you ca not understand anything in it. but can you understand what i walked you through mirrored reciprocation? ok. 
+now, because this is an economics club, right, everybody here is interested in economics? so let give an example of a model derived, multidisciplinary, same way we did before, but is just about as pure an economic model as you can find. so now we are going to ask the question, what the most powerful force that we as human beings, both as individuals and groups, can potentially harness towards achieving our ends in life? 
+ok. we go to bucket number one. we ask, what the most powerful force in bucket number one? i am going to quote albert einstein again. he said, the most powerful force in the universe is compound interest.' but that not all he said about compound interest. he not only said that it the most powerful force in the universe, he said it the greatest mathematical discovery of all time. he said it the eighth wonder of the world. and he said that those who understand it get paid by it and those who do not pay for it. he said all these things, albert einstein, about compound interest. now what a good working definition of compound interest? i will propose one. you can have your own, but this is mine. i say compound interest is dogged incremental constant progress over a very long time frame. is that a fair definition? alright? i think that the answer from bucket number . the most powerful force that could be potentially harnessed is dogged incremental constant progress over a very long time frame. 
+we go to bucket number . . billion years of biology. what the most powerful force in three and a half billion years of biology? it the machine of evolution. how does it work? dogged incremental constant progress over a long time frame. this is the beauty of deriving things multidisciplinary. you ca not be wrong! you see these things lined up there like three bars on a slot machine. boy do you hit the jackpot. 
+what do you think we are going to find when we go to bucket number three? , years of human experience on earth. you want to win a gold medal in the olympics. you want to learn a musical instrument. you want to learn a foreign language. you want to build berkshire hathaway. what the formula? dogged incremental constant progress over a very long time frame. look how simple this is. this is above genius. it absolutely above genius because you can understand it. this is not somebody drawing all these formulas and things up here about, you know, how numbers multiply and amplify over time. the problem that human beings have is we do not like to be constant. think of each one of those terms. dogged incremental constant progress over a very long time frame. nobody wants to be constant. we are the functional equivalent of sisyphus pushing his boulder up the mountain. you push it up half way, and you go, aw, i will come back and do this another time.' it goes back down. i have got this great idea, i am going to really work hard on it.' you push it up half way and,' aw, you know i will get back to this next month.' this is the human condition. in geometric terms this is called variance drain. whenever you interrupt the constant increase above a certain level of threshold you lose compounding, you are no longer on the log curve. you fall back onto a linear curve or god forbid a step curve down. you have to be constant. how many people do you know that are constant in what they do? i know a couple. warren buffett and charlie munger. everybody wants to be rich like warren buffett and charlie munger. i am telling you how they got rich. they were constant. they were not intermittent. 
+let me give you an example of why intermittency is perhaps the most important thing in your lives whether you realize it or not. we will begin with the example of bringing home a puppy from the pet shop. brand spanking new puppy from the pet shop. and the kids are so excited, they are so excited. what your goal of bringing home this puppy to your household? i say it to have an engaged, contributing, all in, new member of your household. and night number one, how are we doing? it a disaster. this thing over in the corner shaking like a leaf. it anything but engaged. it anything but contributing and it anything but all in. it shaking like a leaf. human beings are really good at solving this problem. we know we need to create a calm, reassuring, secure, and safe environment. 
+we know that even though this puppy ca not understand what we are saying, we need to communicate in soothing tones. and we also know that we need to provide food and water for this puppy. but underlying all these things, stitching them all together, we really know we have to be constant, do not we? you ca not not feed the puppy one day, or what happens? well, the puppy freaks out. the puppy becomes a neurotic puppy. it does not know whether it can trust you or not. this trust that this puppy needs to go all in is dependent upon you being constant in these behaviors. does everybody accept that? so, if we are constant, usually in about seven days more or less, if we are constant, this little puppy will trot over to our side and it will attach itself to us. and for the rest of its life it will be willing to die for us. that puppy just went all in, did not it? now did it go all in because it our idea that we want an engaged, contributing, all in new member of our household? it does not even know what our idea is, does it? why did it just go all in? it was the puppy idea! 
+now let me tie this to your lives. i did this at google and they really could not figure out what i was doing. and then afterwards they said you know that was really good. your eight dollar crystal ball that really a good trick. so i will do my eight dollar crystal ball trick. and i told them i had rows bigger than this one, full of the smartest people in the world. and i said guess what i am going to do with my eight dollar crystal ball? i said, i am going to do a psychic reading of anybody in this room. anybody. and i said to google, if you think that i have got a stooge in the room where i have got this prearranged, i do not. go out in the corridor and bring somebody in. i will do the psychic reading.' this eight dollars i spent on amazon is the best money i ever spent. so i am going to select you. what your name? answer emily we are going to take emily, we are going to do a psychic reading of emily right in front of you. you are not going to believe this. i am going to nail this. you are all going this guy a nutcase.' spencer going, man why did i invite this guy?' just be patient, spencer, this is good stuff. i will pull it off. so i am going to tell emily what she been looking for her whole life. is there anybody here who thinks i can do this? well, wait until you hear my answer and then for the rest of your life you are all going to go, i know what everybody in the world is looking for.' emily, your entire life you have been on a quest, an odyssey, a search for that individual that you can percent absolutely and completely trust. but who not just trustworthy, but principled, and courageous, and competent, and kind, and loyal, and understanding, and forgiving, and unselfish. i am right, are not i? answer dead on you know what else my eight dollar crystal ball tells me? if you ever think you may have encountered this person, you are going to probe and probe and test and test to make sure that they are real, that you are not being fooled. and the paradox is that it looks like you are probing for weakness but you are not. you are probing for strength. and the worst day of your life is if instead of strength, you get back weakness. and now you feel betrayed. you know why? you have got to start your search all over again. it the worst thing in the whole world is not it? does everybody here agree with me on this? look how simple this is. 
+here your second course in leadership. that all it takes. you do not have to go to business school. you do not need books. you do not need guest speakers. all you have to do is take that list that in emily head, and every single other person in this room, every single other person in the whole world, has this list in their head trustworthy, principled, courageous, competent, loyal, kind, understanding, forgiving, unselfish, and in every single one of your interactions with others, be the list! remember how that puppy went all in? you do this with the other human beings you encounter in life. they are all going all in and not because it your idea. most people spend all day long trying to get other people to like them. they do it wrong. you do this list, you will not be able to keep the people away. everybody going to want to attach to you. and be willing to do what? just like the puppy, they would be willing to die for you. because you are what they have been looking for their whole lives. this is pretty profound, is not it? 
+look at this picture. i love this picture. does this woman look like she having a good time? ok. so i helped teach this high school class in los angeles, and the first class of each semester, a brand new group just like you guys, and i make them go through the following exercise. and believe me just like my eight dollar crystal ball, afterwards you are going to go i am really glad i heard that. because now i really understand things at a level i did not understand them before.' and to understand is to what? to know what to do. 
+this will clear up all your blind spots about yourself and other human beings. i asked the group, show of hands, how many of you think all human beings are alike? why? answer we all have the same basic needs. we express them differently. tremendous diversity in how we go about meeting them, but ultimately we all have the same needs.' you get two pens! that a beautiful answer. so we are going to identify what those needs are. what your name? answer craig craig nailed it. show of hands. how many of you want to be paid attention to? i mean is there really anybody here who does not want to be paid attention to? you are a different kind of human being if you are. ok. how many of you want to be listened to? how many of you want to be respected? how many of you want meaning, satisfaction, and fulfillment in your life in the sense that you matter? and then i tell the high school kids, number five. i put it number five. even though it the most important of the five, i put it last, because if i put it first, you would not raise your hands because it awkward. they are just going to think i am weird. but then they do raise their hand because i soften them up. how many of you want to be loved? everybody exactly the same. the only difference is, as craig said, the strategy that they are employing to try to get to fulfill those needs. ok. 
+now i am going to tell you the strategy that dogs use. the dog is going to be very unhappy with me for telling you this. i am ratting them out. so when your dog is in the backyard and he goes to the fence between your house and the next house and he talks to the dog next door, i am going to tell you what he says. no one has ever divulged this before. you are the first group to hear this. your dog says to the dog next door, can you believe how easy it is to manipulate human beings and get them to do whatever you want them to do for you?' and the dog next door goes, i know it a piece of cake.' and your dog says yeah. all you have to do is every single time they come home, you greet them at the door with the biggest unconditional show of attention that they have ever gotten in their whole life. and you only have to do it for like seconds, and then you can go back to doing whatever you were doing before and completely ignore them for the rest of the evening.' 
+however, you do have to do this every single time they come home. and what will the person do? they will take care of them. they will do anything for this dog. ok? now do you think that this woman feels she being paid attention to? and listened to? and respected? do you think she getting meaning, satisfaction, and fulfillment? do you think she matters to this dog? and do you think she thinks this dog loves her? and what does the dog get in return? everything. 
+all you have to do, if you want everything in life from everybody else, is first pay attention, listen to them, show them respect, give them meaning, satisfaction, and fulfillment. convey to them that they matter to you. and show you love them. but you have to go first. and what are you going to get back. mirrored reciprocation. right? see how we tie this all together? the world is so damn simple. it not complicated at all! every single person on this planet is looking for the same thing. now why is it that we do not act on these very simple things? 
+so i have an example i use with the class, my elevator example. i am famous for my elevator story. you are standing in front of an elevator. the doors open. and inside the elevator is one solitary stranger. you have never met this person before in your whole life. you walk into the elevator you have three choices for how you are going to behave as you walk into this elevator. choice number one you can smile and say good morning. and i say, at least in california, if you do that, percent of the time the person will smile, say good morning back. you can test it. ok. my guess is you are going to find that percent of the time that people say good morning. choice number two you can walk in and you can scowl and hiss at this stranger in the elevator. and they have no idea why you are scowling and hissing at them. and i say percent of the time, they may not hiss back at you, but they will scowl back at you. and option number three. this is where the wisdom comes. you can walk into the elevator and you can do nothing. and what do you get percent of the time if you walk into an elevator and you do nothing from that stranger in the elevator? nothing. it mirrored reciprocation is not it? but what did you have to do? you have to go first. and you are going to get back whatever you put out there. 
+this is why these bars are full of people at a.m. drowning their sorrows. knocking down these drinks. when the world going to give me something man? when am i going to get mine?' well, what did you ever do? did you ever get up in the morning and smile at the world? no. you either did nothing or you scowled and hissed at the world. you are getting back exactly what you would expect to get back if you understood how the world really works. which is why we study multidisciplinary things right? we ca not be wrong on this. can we? it all mirrored reciprocation. so what do you want to do? you want to go positive, you want to go first. what the obstacle? there a big obstacle. this is an economics club. certainly, you have all heard of daniel kahneman, nobel prize winner in economics. behavioral economics. and what did he win his nobel prize for? for answering the question, why would people not go positive and not go first when there a percent chance you are going to benefit from it, and only a percent chance the person going to tell you to screw off and you are going to feel horrible, lose face, and all the rest of that. and that real. that why we do not do it. he said there huge asymmetry between the standard human desire for gain and the standard human desire to avoid loss. which one do you think is more powerful? percent versus ! 
+now i gave this same talk at fairfax up in toronto, prem watsa outfit. it the berkshire hathaway of canada. and i said of all people in the whole world, you guys should not be making this mistake.' why? because you are in the insurance business. how does insurance work? you are supposed to spend percent to protect percent, right? look what you are doing. you are spending percent to protect against the percent probability that somebody makes you look foolish. lou brock set the major league record for stolen bases with the st. louis cardinals many years ago. and he once said, show me a man who is afraid of appearing foolish and i will show you a man who can be beat every time.' and if you are getting beat in life, chances are it because you are afraid of appearing foolish. so what do i do with my life? i risk the two percent. i was so proud the other day, i was reading bono on bono. bono the lead singer of u . he the only other person i have ever encountered in my entire life, and i asked all my cronies, has anybody else ever encountered this elevator model before?' no. no that yours peter.' and i said, you know how i said ? guess who got the exact same model? bono! well he does not have , he got .' those are his numbers . can i be wrong on this? that guy is really squared away. i hope some day i am as squared away as he is. it incredible to think, he figured it out. that why that guy had such a great life. he goes, you know, i know percent of people are going to screw me. that ok. if i am not willing to be vulnerable and expose myself to that , i am going to miss the other .' does that make sense? now charlie munger one day, you know he turned my whole life upside down. i was over at his house one day and he said, peter, i have been hearing about you going around giving all these talks. you do not have to go around the country telling people how to make more money.' i said, well that not what i do charlie.' i was very nimble on my feet. i said there a catch. i do tell how to make more money but, by the way, if you do these things that get people all in and whatnot, you will make all the money there is to be made. you really will. that not why i am here. i am here to give you the second half of the message, which is how to be a good person! what your name? answer albert . albert, how many lifetimes do you have albert? answer one . that correct, you get a pen. you see albert lucked out, he got an easy question. is your lifetime important to you albert? answer one of the most important. absolutely . 
+now what do we know in economics, it an economics model, what do we know we need to use as our decision making prism whenever something is both finite, like one, and important like your life? how do we have to make decisions? you had mankiw here right? he did not talk about opportunity cost? have you all heard of opportunity cost? it the classic illustration of opportunity cost. you have a finite number of something, it important. if you are doing a' with it, it means what? it means you are not doing b or c or d or e. what do you have to do? you have to evaluate all the different alternatives and pick the one that most optimal. is that fair? so you have got one lifetime. how do you want to spend your one lifetime? do you want to spend your one lifetime like most people do, fighting with everybody around them? no. i just told you how to avoid that. and in exchange have what? a celebratory life. instead of an antagonistic fighting life. all you have to do is go positive, go first, be patient enough. you know we have to be patient for a week with this puppy. do you know how long it usually takes for a human being to do all the probing and testing that emily was going to do and to find out that you are for real? it takes six months. this is why nobody does it. oh it takes too long.' compared to what? look at the plan b that everybody uses. it terrible! it does not work. they spend their whole lives fighting with everybody. 
+the three hallmarks of a great investment are superior returns, low risk, and long duration. the whole world concentrates on category . but if you are a leader of any merit at all, you should be treating these three as what? co priorities. how do you get low risk and long duration? win win. this is the biggest blind spot in business. people are actually proud of a win lose relationship. yeah we really beat the crap out of our suppliers.' you know, we have got these employees for you know, we have got them on an hb visa, they ca not work anywhere else for three years.' they are proud of it! total win lose. you take game theory and you insert the word lose in any scenario in game theory and what do you have? a suboptimal outcome. what happens when you insert win win in any game theory scenario, what do you get? optimal every time. what must you necessarily do if you are interested in achieving win win frameworks with your important counterparties in life? you must understand the basic axiom of clinical psychology, which i know because i am multidisciplinary. i also learned psychology. the basic axiom of clinical psychology reads, if you could see the world the way i see it, you would understand why i behave the way i do.' that pretty good is not it? now there two corollaries to that axiom. and i say if you buy the axiom, which you should, you must buy the two corollaries as well because they are logical extensions. they are undeniable. corollary number one, if that axiom is true and you want to understand the way someone behaving, you must see the world as they see it. but corollary number two, if you want to change a human being behavior and you accept that axiom, you must necessarily, to get them to change, change how they see the world. now this sounds impossible. it not really that hard. you take a business. most employees of a business see the world as</t>
+  </si>
+  <si>
+    <t>president powers, provost fenves, deans, members of the faculty, family and friends and most importantly, the class of . congratulations on your achievement. 
+it been almost years to the day that i graduated from ut. i remember a lot of things about that day. i remember i had throbbing headache from a party the night before. i remember i had a serious girlfriend, whom i later married that important to remember by the way and i remember that i was getting commissioned in the navy that day. 
+but of all the things i remember, i do not have a clue who the commencement speaker was that evening, and i certainly do not remember anything they said. so, acknowledging that fact, if i ca not make this commencement speech memorable, i will at least try to make it short. 
+the university slogan is, what starts here changes the world. i have to admit i kinda like it. what starts here changes the world. 
+tonight there are almost , students graduating from ut. that great paragon of analytical rigor, ask.com, says that the average american will meet , people in their lifetime. that a lot of folks. but, if every one of you changed the lives of just people and each one of those folks changed the lives of another people just then in five generations years the class of will have changed the lives of million people. 
+ million people think of it over twice the population of the united states. go one more generation and you can change the entire population of the world eight billion people. 
+if you think it hard to change the lives of people change their lives forever you are wrong. i saw it happen every day in iraq and afghanistan a young army officer makes a decision to go left instead of right down a road in baghdad and the soldiers in his squad are saved from close in ambush. in kandahar province, afghanistan, a non commissioned officer from the female engagement team senses something is not right and directs the infantry platoon away from a pound ied, saving the lives of a dozen soldiers. 
+but, if you think about it, not only were these soldiers saved by the decisions of one person, but their children yet unborn were also saved. and their children children were saved. generations were saved by one decision, by one person. 
+but changing the world can happen anywhere and anyone can do it. so, what starts here can indeed change the world, but the question is what will the world look like after you change it? 
+well, i am confident that it will look much, much better. but if you will humor this old sailor for just a moment, i have a few suggestions that may help you on your way to a better a world. and while these lessons were learned during my time in the military, i can assure you that it matters not whether you ever served a day in uniform. it matters not your gender, your ethnic or religious background, your orientation or your social status. 
+our struggles in this world are similar, and the lessons to overcome those struggles and to move forward changing ourselves and the world around us will apply equally to all. 
+i have been a navy seal for years. but it all began when i left ut for basic seal training in coronado, california. basic seal training is six months of long torturous runs in the soft sand, midnight swims in the cold water off san diego, obstacles courses, unending calisthenics, days without sleep and always being cold, wet and miserable. it is six months of being constantly harrassed by professionally trained warriors who seek to find the weak of mind and body and eliminate them from ever becoming a navy seal. 
+but, the training also seeks to find those students who can lead in an environment of constant stress, chaos, failure and hardships. to me basic seal training was a lifetime of challenges crammed into six months. 
+so, here are the lessons i learned from basic seal training that hopefully will be of value to you as you move forward in life. 
+every morning in basic seal training, my instructors, who at the time were all vietnam veterans, would show up in my barracks room and the first thing they would inspect was your bed. if you did it right, the corners would be square, the covers pulled tight, the pillow centered just under the headboard and the extra blanket folded neatly at the foot of the rack that navy talk for bed. 
+it was a simple task mundane at best. but every morning we were required to make our bed to perfection. it seemed a little ridiculous at the time, particularly in light of the fact that were aspiring to be real warriors, tough battle hardened seals, but the wisdom of this simple act has been proven to me many times over. 
+if you make your bed every morning you will have accomplished the first task of the day. it will give you a small sense of pride, and it will encourage you to do another task and another and another. by the end of the day, that one task completed will have turned into many tasks completed. making your bed will also reinforce the fact that little things in life matter. if you ca not do the little things right, you will never do the big things right. 
+and, if by chance you have a miserable day, you will come home to a bed that is made that you made and a made bed gives you encouragement that tomorrow will be better. 
+if you want to change the world, start off by making your bed. 
+during seal training the students are broken down into boat crews. each crew is seven students three on each side of a small rubber boat and one coxswain to help guide the dingy. every day your boat crew forms up on the beach and is instructed to get through the surfzone and paddle several miles down the coast. in the winter, the surf off san diego can get to be to feet high and it is exceedingly difficult to paddle through the plunging surf unless everyone digs in. every paddle must be synchronized to the stroke count of the coxswain. everyone must exert equal effort or the boat will turn against the wave and be unceremoniously tossed back on the beach. 
+for the boat to make it to its destination, everyone must paddle. you ca not change the world alone you will need some help and to truly get from your starting point to your destination takes friends, colleagues, the good will of strangers and a strong coxswain to guide them. 
+if you want to change the world, find someone to help you paddle. 
+over a few weeks of difficult training my seal class, which started with men, was down to just . there were now six boat crews of seven men each. i was in the boat with the tall guys, but the best boat crew we had was made up of the the little guys the munchkin crew we called them no one was over about five foot five. 
+the munchkin boat crew had one american indian, one african american, one polish american, one greek american, one italian american, and two tough kids from the midwest. they out paddled, out ran and out swam all the other boat crews. the big men in the other boat crews would always make good natured fun of the tiny little flippers the munchkins put on their tiny little feet prior to every swim. but somehow these little guys, from every corner of the nation and the world, always had the last laugh swimming faster than everyone and reaching the shore long before the rest of us. 
+seal training was a great equalizer. nothing mattered but your will to succeed. not your color, not your ethnic background, not your education and not your social status. 
+if you want to change the world, measure a person by the size of their heart, not the size of their flippers. 
+several times a week, the instructors would line up the class and do a uniform inspection. it was exceptionally thorough. your hat had to be perfectly starched, your uniform immaculately pressed and your belt buckle shiny and void of any smudges. but it seemed that no matter how much effort you put into starching your hat, or pressing your uniform or polishing your belt buckle it just was not good enough. the instructors would find something wrong. 
+for failing the uniform inspection, the student had to run, fully clothed into the surfzone and then, wet from head to toe, roll around on the beach until every part of your body was covered with sand. the effect was known as a sugar cookie. you stayed in that uniform the rest of the day cold, wet and sandy. 
+there were many a student who just could not accept the fact that all their effort was in vain. that no matter how hard they tried to get the uniform right, it was unappreciated. those students did not make it through training. those students did not understand the purpose of the drill. you were never going to succeed. you were never going to have a perfect uniform. 
+sometimes no matter how well you prepare or how well you perform you still end up as a sugar cookie. it just the way life is sometimes. 
+if you want to change the world get over being a sugar cookie and keep moving forward. 
+every day during training you were challenged with multiple physical events long runs, long swims, obstacle courses, hours of calisthenics something designed to test your mettle. every event had standards times you had to meet. if you failed to meet those standards your name was posted on a list, and at the end of the day those on the list were invited to a circus. a circus was two hours of additional calisthenics designed to wear you down, to break your spirit, to force you to quit. 
+no one wanted a circus. 
+a circus meant that for that day you did not measure up. a circus meant more fatigue and more fatigue meant that the following day would be more difficult and more circuses were likely. but at some time during seal training, everyone everyone made the circus list. 
+but an interesting thing happened to those who were constantly on the list. over time those students who did two hours of extra calisthenics got stronger and stronger. the pain of the circuses built inner strength, built physical resiliency. 
+life is filled with circuses. you will fail. you will likely fail often. it will be painful. it will be discouraging. at times it will test you to your very core. 
+but if you want to change the world, do not be afraid of the circuses. 
+at least twice a week, the trainees were required to run the obstacle course. the obstacle course contained obstacles including a foot high wall, a foot cargo net and a barbed wire crawl, to name a few. but the most challenging obstacle was the slide for life. it had a three level foot tower at one end and a one level tower at the other. in between was a foot long rope. you had to climb the three tiered tower and once at the top, you grabbed the rope, swung underneath the rope and pulled yourself hand over hand until you got to the other end. 
+the record for the obstacle course had stood for years when my class began training in . the record seemed unbeatable, until one day, a student decided to go down the slide for life head first. instead of swinging his body underneath the rope and inching his way down, he bravely mounted the top of the rope and thrust himself forward. 
+it was a dangerous move seemingly foolish, and fraught with risk. failure could mean injury and being dropped from the training. without hesitation the student slid down the rope perilously fast. instead of several minutes, it only took him half that time and by the end of the course he had broken the record. 
+if you want to change the world sometimes you have to slide down the obstacle head first. 
+during the land warfare phase of training, the students are flown out to san clemente island which lies off the coast of san diego. the waters off san clemente are a breeding ground for the great white sharks. to pass seal training there are a series of long swims that must be completed. one is the night swim. 
+before the swim the instructors joyfully brief the trainees on all the species of sharks that inhabit the waters off san clemente. they assure you, however, that no student has ever been eaten by a shark at least not recently. but, you are also taught that if a shark begins to circle your position stand your ground. do not swim away. do not act afraid. and if the shark, hungry for a midnight snack, darts towards you then summon up all your strength and punch him in the snout, and he will turn and swim away. 
+there are a lot of sharks in the world. if you hope to complete the swim you will have to deal with them. 
+so, if you want to change the world, do not back down from the sharks. 
+as navy seals one of our jobs is to conduct underwater attacks against enemy shipping. we practiced this technique extensively during basic training. the ship attack mission is where a pair of seal divers is dropped off outside an enemy harbor and then swims well over two miles underwater using nothing but a depth gauge and a compass to get to their target. 
+during the entire swim, even well below the surface, there is some light that comes through. it is comforting to know that there is open water above you. but as you approach the ship, which is tied to a pier, the light begins to fade. the steel structure of the ship blocks the moonlight, it blocks the surrounding street lamps, it blocks all ambient light. 
+to be successful in your mission, you have to swim under the ship and find the keel the centerline and the deepest part of the ship. this is your objective. but the keel is also the darkest part of the ship where you cannot see your hand in front of your face, where the noise from the ship machinery is deafening and where it is easy to get disoriented and fail. 
+every seal knows that under the keel, at the darkest moment of the mission, is the time when you must be calm, composed when all your tactical skills, your physical power and all your inner strength must be brought to bear. 
+if you want to change the world, you must be your very best in the darkest moment. 
+the ninth week of training is referred to as hell week. it is six days of no sleep, constant physical and mental harassment, and one special day at the mud flats. the mud flats are area between san diego and tijuana where the water runs off and creates the tijuana slues, a swampy patch of terrain where the mud will engulf you. 
+it is on wednesday of hell week that you paddle down to the mud flats and spend the next hours trying to survive the freezing cold mud, the howling wind and the incessant pressure to quit from the instructors. as the sun began to set that wednesday evening, my training class, having committed some egregious infraction of the rules was ordered into the mud. 
+the mud consumed each man till there was nothing visible but our heads. the instructors told us we could leave the mud if only five men would quit just five men and we could get out of the oppressive cold. looking around the mud flat it was apparent that some students were about to give up. it was still over eight hours till the sun came up eight more hours of bone chilling cold. 
+the chattering teeth and shivering moans of the trainees were so loud it was hard to hear anything. and then, one voice began to echo through the night, one voice raised in song. the song was terribly out of tune, but sung with great enthusiasm. one voice became two and two became three and before long everyone in the class was singing. we knew that if one man could rise above the misery then others could as well. 
+the instructors threatened us with more time in the mud if we kept up the singingbut the singing persisted. and somehow the mud seemed a little warmer, the wind a little tamer and the dawn not so far away. 
+if i have learned anything in my time traveling the world, it is the power of hope. the power of one person washington, lincoln, king, mandela and even a young girl from pakistan, malala one person can change the world by giving people hope. 
+so, if you want to change the world, start singing when you are up to your neck in mud. 
+finally, in seal training there is a bell. a brass bell that hangs in the center of the compound for all the students to see. all you have to do to quit is ring the bell. 
+ring the bell and you no longer have to wake up at o'clock. ring the bell and you no longer have to do the freezing cold swims. ring the bell and you no longer have to do the runs, the obstacle course, the pt and you no longer have to endure the hardships of training. just ring the bell. 
+if you want to change the world do not ever, ever ring the bell. 
+to the graduating class of , you are moments away from graduating. moments away from beginning your journey through life. moments away from starting to change the world for the better. it will not be easy. 
+but, you are the class of , the class that can affect the lives of million people in the next century. 
+start each day with a task completed. find someone to help you through life. respect everyone. 
+know that life is not fair and that you will fail often. but if take you take some risks, step up when the times are toughest, face down the bullies, lift up the downtrodden and never, ever give up if you do these things, then the next generation and the generations that follow will live in a world far better than the one we have today. 
+and what started here will indeed have changed the world for the better. 
+thank you very much. hook them horns.</t>
+  </si>
+  <si>
+    <t>we are in the midst of sea change a tidal wave might be more accurate with the medium of photography. while the lens is still firmly fixed to the camera body, the body itself appears to have imploded. the inner workings, that is the guts of the camera from talbot days when cameras were called mousetraps by his wife who was always tripping over them have changed faster than anyone expected. 
+the digital camera, the d slr, has become the new tool for lens based professionals and artists almost overnight. everywhere. we all have them now. but the pictures have not changed. nor have the ground rules for making them. the need for pictures that make a mark on our lives, that give meaning to experience, that park themselves deep in our consciousness, the way new music always does, has never been greater, the appetite for lens based visual culture stands above most other mediums of communication hands down. 
+in the art world, photography has stepped forward as the most important art medium of our times. 
+roberta smith, writing for new york times a few years back, put it this way and i am paraphrasing here in the last years no medium has had a more profound effect on art than the medium of photography. this, mind you, comes from one of america foremost critics of sculpture! 
+there is a bus station in helsinki i want to introduce you to, a bus station just next to eliel saarinen famous train station. surrounded by jugenstil architectural gems like the national theater and the national art museum, the bus station makes a cool backdrop for magnum wannabees armed with d slrs and vintage leica. 
+you might find yourself there sometime, too. 
+but getting back to the bus station and what makes it famous, at least among the students i teach at umass lowell, the university of art design helsinki, cole d'art appliqu s in lausanne, or the many workshops i give in tuscany, maine and santa fe, is the metaphor it offers students and professionals alike for creative continuity in a life long journey in photography, the metaphor it provides to young artists seeking to discover their own unique vision one day. 
+the helsinki bus station let me describe what happens there. 
+some two dozen platforms are laid out in a square at the heart of the city. at the head of each platform is a sign posting the numbers of the buses that leave from that particular platform. the bus numbers might read as follows , , , , and . 
+each bus takes the same route out of the city for a least a kilometer stopping at bus stop intervals along the way where the same numbers are again repeated , , , , and . 
+now let say, again metaphorically speaking, that each bus stop represents one year in the life of a photographer, meaning the third bus stop would represent three years of photographic activity. 
+ok, so you have been working for three years making platinum studies of nudes. call it bus . 
+you take those three years of work on the nude to the museum of fine arts boston and the curator asks if you are familiar with the nudes of irving penn. his bus, , was on the same line. or you take them to a gallery in paris and are reminded to check out bill brandt, bus , and so on. 
+shocked, you realize that what you have been doing for three years others have already done. 
+so you hop off the bus, grab a cab because life is short and head straight back to the bus station looking for another platform. 
+this time you are going to make view camera color snapshots of people lying on the beach from a cherry picker crane. 
+you spend three years at it and three grand and produce a series of works that elicit the same comment have not you seen the work of richard misrach? or, if they are steamy black and white camera view of palm trees swaying off a beachfront, have not you seen the work of sally mann? 
+so once again, you get off the bus, grab the cab, race back and find a new platform. this goes on all your creative life, always showing new work, always being compared to others. 
+what to do? 
+it simple. stay on the bus. stay on the f cking bus. 
+why, because if you do, in time you will begin to see a difference. 
+the buses that move out of helsinki stay on the same line but only for a while, maybe a kilometer or two. then they begin to separate, each number heading off to its own unique destination. bus suddenly goes north, bus southwest. 
+for a time maybe and dovetail one another but soon they split off as well, irving penn is headed elsewhere. 
+it the separation that makes all the difference, and once you start to see that difference in your work from the work you so admire that why you chose that platform after all , it time to look for your breakthrough. 
+suddenly your work starts to get noticed. now you are working more on your own, making more of the difference between your work and what influenced it. 
+your vision takes off. 
+and as the years mount up and your work takes begins to pile up, it will not be long before the critics become very intrigued, not just by what separates your work from a sally mann or a ralph gibson, but by what you did when you first got started! 
+you regain the whole bus route in fact. the vintage prints made in twenty years ago are suddenly re evaluated, and for what it is worth, start selling at a premium. 
+at the end of the line where the bus comes to rest and the driver can get out for a smoke or better yet a cup of coffee that when the work is done. it could be the end of your career as an artist or the end of your life for that matter, but your total output is now all there before you, the early so called imitations, the breakthroughs, the peaks and valleys, the closing masterpieces, all with the stamp of your unique vision. 
+why, because you stayed on the bus. 
+when i began photography i was enamored with the work of ralph gibson, duane michals, and jerry uelsmann. i was on their platforms. each told me that it was possible to use your mind to make pictures. as a copywriter on the minolta account before i became a photographer i wrote what happens inside your mind can happen inside a camera. i took that credo and made it my own. not with multiple images like uelsmann or in sequences like michals. but it was ralph gibson images that haunted me. 
+there was this one picture in particular of hands coming up over the prow of boat he made in that i loved. i had picture of my foot coming over the prow of a finnish rowboat the other way made in . i am sure his image had inspired mine even though i was not thinking about it when i made my picture. 
+in , there was a show in antibes called three masters of the surreal with eikoh hosoe, the great japanese master, ralph gibson, and humbly, myself. at the party after the vernissage, i told ralph about my trepidations when i first began photography. he nodded his head and said, when i first saw your work this was in or thereabouts , i had that feeling of something familiar. but then he was quick to add but you know, it did not take you long to find your way. 
+i had found the difference. ralph went on to photograph women and walls, color and surreal light. i continued my bus route less haunted, more assured. 
+so, our best chance of making our voice and vision heard is to find that common attribute by which the work can be recognized, by which audiences are made curious. it can happen early, as my teacher harry callahan stated it you never get much better than your first important works. and they come soon. 
+at an auction in london at sotheby a few years back, one of my pieces came up for bidding. it shows my upside down face with mouth wide open on a boardwalk in narragansett, rhode island. when the auctioneer announced the piece, certainly he or she did not describe it as a student work, which, in fact, it was. i had made it for harry class. 
+and it is why i teach. teachers who say, oh, it just student work, should maybe think twice about teaching. 
+georges braque has said that out of limited means, new forms emerge. i say we find out what we will do by knowing what we will not do. 
+and so, if your heart is set on platinum landscapes in misty southern terrains, work your way through those who inspire you, ride their bus route and damn those who would say you are merely repeating what has been done before. wait for the months and years to pass and soon your differences will begin to appear with clarity and intelligence, when your originality will become visible, even the works from those very first years of trepidation when everything you did seemed so done before. 
+we can do a whole lot of things in art, become ten different artists, but if we do that, there is great danger that we will communicate very little in the end. i say ride the bus of your dreams and stay the course. 
+in closing, i now want to take you to switzerland where i also teach. 
+stand back, stand back, far enough so you can see your own mountain top, then head straight for it knowing it will disappear from sight for most of your life as you meander the hidden forest trails that lift you ever higher even as many sections force you to drop down into the mountainside pockets of disappointment or even despair, but you will be climbing soon enough and always headed towards your goal. 
+there will be those special occasions, and may there be many of them, when the fruits of your labors are suddenly made visible, to be celebrated, when you will again see that peak, only closer now, giving you the confidence to step forward ever more briskly and bravely. 
+at one point the tree line will thin out the way hair on the top of old man begins to bald away but air will be clear and the path sure. 
+at the top you will delight in what you have accomplished as much as become aware of peaks far higher than what you had ever dreamed of, peaks that from the distance when you first saw them were hard to judge for their heights. 
+but now you see them way up there but your climbing days are done. 
+if you look up to those lofty peaks with raging jealousy, you will end your days in sadness and regret. 
+if you look down at the path you came up, you can become proud or even arrogant if you like of every step you took. 
+but if you skim the horizon with your eyes and take in the gorgeous sweep of panorama before you, you will know peace and rare humility. 
+we do not have to be number one in this world. we only have to be number one to ourselves. there is a special peace that comes with such humility, one that showers respect on you from your peers both above and below you. 
+when you reach this peak in life, you have reached the highest peak of them all. 
+god ca not bless both sides of a football field any more than she or he should bless one country over another. 
+you ca not be number one without having a number deux, tres, quatro, or funf. 
+it a lesson we are back in the classrooms of america learning i think. i hope. 
+when i see bumper stickers that read my son made the dean list, i see all the sons and daughters that did not. tracey moffatt has this poignant series of works dedicated to athletes who have come in fourth place no gold, no silver, not even bronze. being number uno? stardom is no dream to chase. we just need to be good. and make good work. 
+so, be the caretaker of your vision. make it famous. and above all, remember, that art is risk made visible. 
+good luck and see you out there. you are going to be great.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well, no doubt many of you are wondering why the speaker is so old. well, the answer is obviously he has not died yet. 
+and why was the speaker chosen? well, i do not know that either. i like to think that the development department had nothing to do with it. whatever the reason i think it very fitting that i am sitting here because i see one crowd of faces in the rear not wearing robes, and i know, from having educated an army of descendants, who really deserves a lot of the honors that are being given are the people here upfront. the sacrifice and the wisdom and the value transfer that comes from one generation to the next can never be underrated. 
+and that gives me enormous pleasure as i look at this sea of asian faces to my left. all my life i have admired confucius. i like the idea of filial piety, the idea that there are values that are taught and duties that come naturally and all that should be passed on to the next generation. and you people who do not think there anything in this idea, please note how fast these asian faces are rising in american life. i think they have something. 
+all right, i scratched out a few notes and i am going to try and just give an account of some ideas and attitudes that have worked well for me. i do not claim that they are perfect for everybody. although i think many of them are pretty close to universal values and many of them are ca not fail ideas. 
+what are the core ideas that have helped me? 
+well, luckily, i got at a very early age the idea that the safest way to try and get what you want is to try and deserve what you want. it such a simple idea. it the golden rule so to speak. you want to deliver to the world what you would buy if you were on the other end. there is no ethos, in my opinion, that is better for any lawyer or any other person to have. 
+by and large, the people who have this ethos win in life and they do not win just money, just honors and emoluments. they win the respect, the deserved trust, of the people they deal with, and there is huge pleasure in life to be obtained from getting deserved trust. and so the way to get it is to deliver what you would want to buy if the circumstances were reversed. 
+occasionally, you find a perfect rogue of a person, who dies rich and widely known. but mostly, these people are fully understood by the surrounding civilization, and when the cathedral is full of people at the funeral ceremony, most of them are there to celebrate the fact that the person is dead. 
+and that reminds me of the story of the time when one of these people died and the minister said, it now time for someone to say something nice about the deceased. 
+and nobody came forward. 
+and nobody came forward. 
+and nobody came forward. 
+and finally one man came up and he said, well, his brother was worse. 
+that is not where you want to go! that not the kind of funeral you want to have. you will leave entirely the wrong example. 
+a second idea that i got very early was that there is no love that so right as admiration based love, and that love should include the instructive dead. somehow, i got that idea and i lived with it all my life and it been very very useful to me. 
+a love like that celebrated by somerset maugham and his book of human bondage that a sick kind of love, it a disease. and if you find yourself in a disease like that my advice to you is turn around and fix it. eliminate it. 
+another idea that i got, and this may remind you of confucius too, is that wisdom acquisition is a moral duty. it not something you do just to advance in life. wisdom acquisition is a moral duty. 
+and there a corollary to that proposition which is very important. it means that you are hooked for lifetime learning, and without lifetime learning you people are not going to do very well. you are not going to get very far in life based on what you already know. you are going to advance in life by what you are going to learn after you leave here. 
+if you take berkshire hathaway, which is certainly one of the best regarded corporations in the world and may have the best long term investment record in the entire history of civilization, the skill that got berkshire through one decade would not have sufficed to get it through the next decade with the achievements made. without warren buffett being a learning machine, a continuous learning machine, the record would have been absolutely impossible. 
+the same is true at lower walks of life. i constantly see people rise in life who are not the smartest, sometimes not even the most diligent, but they are learning machines. they go to bed every night a little wiser than when they got up and boy does that help particularly when you have a long run ahead of you. 
+alfred north whitehead said it one time that the rapid advance of civilization came only when man invented the method of invention and, of course, he was referring to the huge growth of gdp per capita and all the other good things that we now take for granted, which started a few hundred years ago and before that all was stasis. 
+so, if civilization can progress only when it invents the method of invention, you can progress only when you learn the method of learning. 
+i was very lucky. i came to law school having learned the method of learning and nothing has served me better in my long life than continuous learning. and if you take warren buffett and watched him with a time clock, i would say half of all the time he spends is sitting on his ass and reading. and a big chunk of the rest of the time is spent talking one on one either on the telephone or personally with highly gifted people whom he trusts and who trust him. in other words, it looks quite academic, all this worldly success. 
+academia has many wonderful values in it. i came across such a value not too long ago. it was several years ago, in my capacity as a hospital board chairman. i was dealing with a medical school academic. and this man over years of hard work had made himself know more about bone tumor pathology than almost anybody else in the world. and he wanted to pass this knowledge on to the rest of us. 
+and how was he going to do it? well, he decided to write a textbook that would be very useful to other people. and i do not think a textbook like this sells two thousand copies if those two thousand copies are in all the major cancer centers in the world. 
+he took a year sabbatical, he sat down in front of his computer and he had all the slides because he saved them and organized them and filed them. he worked hours a day, days a week, for a year and that was his sabbatical. at the end of the year, he had one of the great bone tumor pathology textbooks in the world. when you are around values like that, you want to pick up as much as you can. 
+another idea that was hugely useful to me was that i listened in law school when some wag said, a legal mind is a mind that when two things are all twisted up together and interacting, it feasible to think responsibly about one thing and not the other. 
+well, i could see from that one sentence that was perfectly ridiculous, and it pushed me further into my natural drift, which was into learning all the big ideas and all the big disciplines so i would not be a perfect damn fool who was trying to think about one aspect of something that could not be removed from the totality of the situation in a constructive fashion. and what i noted, since the really big ideas carry percent of the freight, it was not at all that hard for me to pick up all the big ideas and all the big disciplines and make them a standard part of my mental routines. 
+once you have the ideas, of course, they are no good if you do not practice. you do not practice, you lose it. 
+so, i went through life constantly practicing this model of disciplinary approach. well, i ca not tell you what that done for me. it made life more fun. it made me more constructive. it made me more helpful to others. it made me enormously rich. you name it, that attitude really helps. 
+now there are dangers there, because it works so well, that if you do it, you will frequently find you are sitting in the presence of some other expert maybe even an expert that superior to you, supervising you and you will know more than he does about his own specialty, a lot more. you will see the correct answer when he missed it. 
+that is a very dangerous position to be in. you can cause enormous offense by helpfully being right in a way that causes somebody else to lose face. and i never found a perfect way to solve that problem. i was a great poker player when i was young, but i was not a good enough poker player so people failed to sense that i thought i knew more than they did about their subjects, and it gave a lot of offense. now i am just regarded as eccentric, but it was a difficult period to go through. and my advice to you is to learn sometimes to keep your light under a bushel. 
+one of my colleagues, also number one in his class in law school a great success in life, worked for the supreme court, etc. he knew a lot and he tended to show it as a very young lawyer and one day the senior partner called him in and said, listen, chuck, i want to explain something to you. your duty under any circumstances is to behave in such a way that the client thinks he the smartest person in the world. if you have any little energy and insight available after that, use it to make your senior partner look like the smartest person in the world. and only after you have satisfied those two obligations do you want your light to shine at all. 
+well, that may be very good advice for rising in a large firm. it was not what i did. i always obeyed the drift of my nature and if other people did not like it i did not need to be adored by everybody. 
+another idea, and by the way, when i talk about this multidisciplinary attitude i am really following a very key idea of the greatest lawyer of antiquity, marcus tullius cicero. cicero is famous for saying, a man who does not know what happened before he was born goes through life like a child. that is a very correct idea of cicero. and he right to ridicule somebody so foolish as not to know what happened before he was born. 
+but if you generalize cicero as i think one should, there are all these other things that you should know in addition to history, and those other things are the big ideas in all the other disciplines. and it does not help you just to know them enough just so you can prattle them back on an exam and get an a. you have to learn these things in such a way that they are in a mental latticework in your head and you automatically use them for the rest of your life. 
+if you do that, i solemnly promise you that one day you will be walking down the street and look to your right and left and think, my heavenly days! i am now one of the few most competent people of my whole age forward. if you do not do it, many of the brightest of you will live in the middle ranks or in the shallows. 
+another idea that i got and it was encapsulated by that story the dean recounted about the man who wanted to know where he was going to die and he would not go there that rustic let that idea have a profound truth in his hand. 
+the way complex adaptive systems work and the way mental constructs work problems frequently get easier and i would even say usually are easier to solve if you turn around in reverse. in other words, if you want to help india, the question you should ask is not, how can i help india? you think, what doing the worst damage in india? what would automatically do the worst damage and how do i avoid it? 
+you would think they are logically the same thing, they are not. those of you who have mastered algebra know that inversion frequently will solve problems which nothing else will solve. and in life, unless you are more gifted than einstein, inversion will help you solve problems that you ca not solve in other ways. 
+but to use a little inversion now, what will really fail in life? what do you want to avoid? 
+such an easy answer sloth and unreliability. if you are unreliable, it does not matter what your virtues are, you are going to crater immediately. so doing what you have faithfully engaged to do should be an automatic part of your conduct. you want to avoid sloth and unreliability. 
+another thing i think should be avoided is extremely intense ideology because it cabbages up one mind. you have seen that. you see a lot of it on tv. you know preachers, for instance, you know they have all got different ideas about theology and a lot of them have minds that are made of cabbage. but that can happen with political ideology. and if you are young, it easy to drift into loyalties. and when you announce that you are a loyal member and you start shouting the orthodox ideology out, what you are doing is pounding it in, pounding it in, and you are gradually ruining your mind so you want to be very careful with this ideology. it a big danger. 
+in my mind, i got a little example i use whenever i think about ideology and it these scandinavian canoeists who succeeded in taming all the rapids of scandinavia and they thought they would tackle the whirlpools in the aaron rapids here in the united states. the death rate was percent. a big whirlpool is not something you want to go into and i think the same is true about a really deep ideology. 
+i have what i call an iron prescription that helps me keep sane when i naturally drift toward preferring one ideology over another. and that is i say, i am not entitled to have an opinion on this subject unless i can state the arguments against my position better than the people do who are supporting it. i think only when i reach that stage am i qualified to speak. 
+now, you can say that too much of an iron discipline. it not too much of an iron discipline. it not even that hard to do. it sounds a lot like the iron prescription of ferdinand the great, it not necessary to hope in order to persevere. that probably is too tough for most people. i do not think it too tough for me, but it too tough for most people. 
+but this business of not drifting into extreme ideology is a very very important thing in life if you want to have more correct knowledge and be wiser than other people. a heavy ideology is very likely to do you in. 
+another thing, of course, that does one in is the self serving bias to which we are all subject. you think that your little me is entitled to do what it wants to do and, for instance, why should not the true little me overspend my income? 
+well, there once was a man who became the most famous composer in the world, but he was utterly miserable most of the time and one of the reasons was he always overspent his income. that was mozart. if mozart ca not get by with this kind of asinine conduct, i do not think you should try it. 
+generally speaking, envy, resentment, revenge, and self pity are disastrous modes of thought. self pity gets pretty close to paranoia and paranoia is one of the very hardest things to reverse. you do not want to drift into self pity. 
+i have a friend who carried a big stack of linen cards about this thick, and when somebody would make a comment that reflected self pity, he would take out one of the cards, take the top one off the stack and hand it to the person, and the card said, your story has touched my heart. never have i heard of anyone with as many misfortunes as you. 
+well, you can say that waggery, but i suggest that every time you find you are drifting into self pity i do not care what the cause, your child could be dying of cancer, self pity is not going to improve the situation just give yourself one of those cards. it a ridiculous way to behave and when you avoid it you get a great advantage over everybody else, almost everybody else, because self pity is a standard condition and yet you can train yourself out of it. 
+and, of course, a self serving bias, you want to get out of yourself thinking that what good for you is good for the wider civilization and rationalizing all these ridiculous conclusions based on the subconscious tendency to serve one self. it a terribly inaccurate way to think and, of course, you want to drive that out of yourself because you want to be wise, not foolish. 
+you also have to allow for the self serving bias of everybody else, because most people are not gonna remove it all that successfully, the only condition being what it is. if you do not allow for self serving bias in your conduct, again, you are a fool. 
+i watched the brilliant harvard law review trained general counsel of salomon lose his career. and what he did was, when the ceo was aware some underling had done something wrong, the general counsel said, gee, we do not have any legal duty to report this, but i think it what we should do. it our moral duty. 
+of course, the general counsel was totally correct, but, of course, it did not work. it was a very unpleasant thing for the ceo to do and he put it off and put it off and, of course, everything eroded into a major scandal and down went the ceo and the general counsel with him. 
+the correct answer in situations like that was given by ben franklin. he said, if you want to persuade, appeal to interest not to reason. the self serving bias is so extreme. if the general counsel said, look, this is going to erupt. it something that will destroy you, take away your money, take away your status. it a perfect disaster. it would have worked! you want to appeal to interest. you want to do it of lofty motives, but you should not avoid appealing to interest. 
+another thing perverse incentives. you do not want to be in a perverse incentive system that causing you to behave more and more foolishly or worse and worse. incentives are too powerful a controller of human cognition and human behavior, and one of the things you are going to find in some modern law firms is billable hour quotas and i could not have lived under a billable hour quota of , hours a year. that would have caused serious problems for me. i would not have done it and i do not have a solution for you for that. you have to figure it out for yourself, but it a significant problem. 
+and you particularly want to avoid working directly under somebody you really do not admire and do not want to be like. it very dangerous. we are all subject to control to some extent by authority figures particularly authority figures that are rewarding us. and that requires some talent. 
+the way i solved that is i figured out the people i did admire and i maneuvered cleverly, without criticizing anybody, so i was working entirely under people i admired. and a lot of law firms will permit that if you are shrewd enough to work it out. and your outcome in life will be way more satisfactory and way better if you work under people you really admire. the alternative is not a good idea. 
+objectivity maintenance. well, we all remember that darwin paid special attention to disconfirming evidence, particularly to disconfirm something he believed and loved. well, objectivity maintenance routines are totally required in life if you are going to be a correct thinker. and they were talking about darwin attitude special attention to the disconfirming evidence and also to checklist routines. checklist routines avoid a lot of errors. you should have all this elementary wisdom and then you should go through and have a checklist in order to use it. there is no other procedure that will work as well. 
+a last idea that i found very important is i realized very early that non egality would work better in the parts of the world i wanted to inhabit. what do i mean by non egality? i mean john wooden, when he was the number one basketball coach in the world. he just said to the bottom five players, you do not get to play. you are sparring partners. 
+the top seven did all the playing. well, the top seven learned more remember the learning machine because they were doing all the playing. and when he got to that system, why, wooden won more than he would ever won before. 
+i think the game of life, in many respects, is getting a lot of practice into the hands of the people that have the most aptitude to learn and the most tendency to be learning machines. and if you want the very highest reaches of human civilization, that where you have to go. you do not want to choose a brain surgeon for your child among fifty applicants, all of them just take turns during the procedure. you do not want your airplanes designed that way. you do not want your berkshire hathaway run that way. you want to get the power into the right people. 
+i frequently tell the story of max planck, when he won the nobel prize and went around germany giving lectures on quantum mechanics. and the chauffeur gradually memorized the lecture and he said, would you mind, professor planck, just because it so boring staying in our routines, would you mind if i gave the lecture this time and you just sat in front with my chauffeur hat? and planck said, sure. 
+and the chauffeur got up and he gave this long lecture on quantum mechanics, after which a physics professor stood up in the rear and asked a perfectly ghastly question. and the chauffeur said, well, i am surprised that in an advanced city like munich i get such an elementary question. i am going to ask my chauffeur to reply. 
+well, the reason i tell that story is not entirely to celebrate the quick wittiness of the protagonist. in this world, we have two kinds of knowledge. one is planck knowledge the people who really know. they have paid the dues, they have the aptitude. 
+then, we have got chauffeur knowledge they have learned to prattle the talk and they have a big head of hair. they may have fine timbre in the voice. they really make a hell of an impression. but in the end, they have got chauffeur knowledge. i think i have just described practically every politician in the united states. 
+and you are going to have the problem in your life of getting the responsibility to the people with the planck knowledge and away for the people who have the chauffeur knowledge. and there are huge forces working against you. 
+my generation has failed you to some extent. we are delivering to you, in california, a legislature where only the certified nuts from the left and the certified nuts from the right are allowed to serve and none of them are removable. that what my generation has done for you, but you would not like it to be too easy would you? 
+another thing that i found is an intense interest of the subject is indispensable if you are really going to excel. i could force myself to be fairly good in a lot of things, but i could not be really good in anything where i did not have an intense interest. so, to some extent, you are going to have to follow me. if at all feasible you want to drift into doing something in which you really have a natural interest. 
+another thing you have to do, of course, is have a lot of assiduity. i like that word because it means sit down in your ass until you do it. 
+i have had marvelous partners all my life. i think i got them partly because i tried to deserve them and, partly, because i was wise enough to select them and, partly, maybe it was some luck. but two partners that i chose for one little phase of my life had the following rule and they created a little design build construction team. and they sat down and said, two man partnership. divide everything equally. here the rule whenever we are behind in our commitments to other people, we will both work hours a day until we are caught up. 
+well, needless to say, that firm did not fail! the people died rich. it such a simple idea. 
+another thing, of course, is life will have terrible blows, horrible blows, unfair blows. does not matter. and some people recover and others do not. and there i think the attitude of epictetus is the best. he thought that every mischance in life was an opportunity to behave well. every mischance in life was an opportunity to learn something and your duty was not to be submerged in self pity, but to utilize the terrible blow in a constructive fashion. that is a very good idea. 
+and you may remember the epitaph which epictetus left for himself here lies epictetus, a slave, maimed in body, the ultimate in poverty, and favored of the gods. 
+well, that the way epictetus is now remembered. he said big consequences. and he was favorite of the gods! he was favored because he became wise, and he became manly. very good idea. 
+i got a final little idea because i am all for prudence as well as opportunism. my grandfather was the only federal judge in his city for nearly forty years and i really admired him. i am his namesake. and i am confucian enough that, even now, i sit here and i am saying, well, judge munger would be pleased to see me here. 
+so i am confucian enough, all these years after my grandfather is dead, to carry the torch for my grandfather values. and, grandfather munger was a federal judge at a time when there were no pensions for widows of federal judges. so if he did not save from his income, why, my grandmother would have been in penury. and being the kind of man he was he underspent his income all his life and left her in comfortable circumstances. 
+along the way, in the thirties, my uncle bank failed and could not reopen. and my grandfather saved the bank by taking over a third of his assets good assets and putting them into the bank and taking the horrible assets in exchange. and, of course, it did save the bank. 
+while my grandfather took a loss, he got most of his money back eventually. but i have always remembered the example. and so when i got to college and i came across houseman, i remember the little poem from houseman, and that went something like this 
+ the thoughts of others
+were light and fleeting,
+of lovers meeting
+or luck or fame.
+mine were of trouble,
+and mine were steady 
+so i was ready
+when trouble came. 
+you can say, who wants to go through life anticipating trouble? well, i did! all my life, i have gone through life anticipating trouble. and here i am, well along on my eighty fourth year, and like epictetus, i have had a favored life. it did not make me unhappy to anticipate trouble all the time and be ready to perform adequately if trouble came. it did not hurt me at all. in fact, it helped me. so i quick claim to you houseman and judge munger. 
+the last idea that i want to give you, as you go out into a profession that frequently puts a lot of procedure, and a lot of precautions, and a lot of mumbo jumbo into what it does, this is not the highest form which civilization can reach. the highest form that civilization can reach is a seamless web of deserved trust. not much procedure, just totally reliable people correctly trusting one another. 
+that the way an operating room works at the mayo clinic. if a bunch of lawyers were to introduce a lot of process, the patients would all die. so never forget, when you are a lawyer, that you may be rewarded for selling this stuff, but you do not have to buy it. in your own life, what you want is a seamless web of deserved trust. and if your proposed marriage contract has forty seven pages, my suggestion is you not enter. 
+well, that enough for one graduation. i hope these ruminations of an old man are useful to you. in the end, i am like the old valiant for truth in the pilgrim progress my sword i leave to him who can wear it. </t>
+  </si>
+  <si>
+    <t>hi. i am nathan myhrvold, and i am gonna talk to you today about roadkill on the information highway. now, any sufficiently complex and interesting topic is always reduced to a series of silly cliches. and so it is with a set of technology that winds up being referred to in the press as the information highway. 
+when you are presented with a choice, you either have to completely choose the silly clich , or wallow in it, and you will see we will probably wallow in it a little bit today. but there a very serious issue here, which is how does computing and communication come together to change our world? how will that change the landscape for the people involved competitively there? how will it change the technology? and ultimately, how will it change society itself? 
+now, the foundations of this information highway phenomena really rest on two fundamental technologies. vlsi, the chip technology that gives the raw power to computing, and software, which harnesses that raw power for end users needs. i am primarily a software guy, but we will talk a bunch about hardware today because it very important to understand what capabilities the hardware is gonna provide for us. 
+over the last years, there been an explosion in the price performance ratio. meaning at a constant price, the performance of computers has gone up enormously. at a constant level of performance, the price has dropped precipitously. it been about a factor of a million increase in the last years, and from all we can tell, the next years will have another factor of a million. and with any luck, the years thereafter has another factor of a million. 
+in tossing factors of a million around, it hard to get a grasp on what that really means. for reference, a factor of a million takes a year into seconds. that says a computer years from now will do in seconds what today computers would take a year to do. years hence, the computers will do in seconds what one of today machines, at comparable cost, would take a million years to do. 
+now that realm of increase in performance is so large that it stretches credulity. it almost ridiculous. people eyes glaze over and say, oh no. that could not be. something gonna happen. but i am basically here today to say i do not think that something unusual will happen. i think we will get those factors. 
+that what changed the computing world today. that why we have microprocessors and digital electronics and computers increasingly in our lives. over the next years, that going to change even more so. 
+the ability to store information has also gone up. ram memory or semiconductor memory increases by about x in density every months. and that has happened historically for a very long time. the price of ram drops at about per year in a very steady fashion. hard disks or magnetic storage decreases as well, about per year. 
+i have a general rule of thumb. the size of your hard disk that you may have on a computer today for a computer user, that how much ram you will have in between years. and the size of your hard disk will expand accordingly. that rule has been true for me for as long as i have had a computer or been involved in them, and all of these technologies are moving in a direction that that will remain true. that even without breakthroughs in optical storage technology, which could revolutionize both the fast main memory storage with things like holographic memory, or mass storage with new kinds of cd rom and writeable optical media. not only are we able to compute more and more, we are able to store more and more. this is gonna be a fundamental piece of what happens with the information highway. 
+here a chart that shows what i have been talking about. this shows the number of bytes you get of dynamic ram memory per dollar. this is a semi log chart, so it a logarithmic scale. you can see it a nice straight line. the line goes back to . that almost years that we have had remarkably steady, exponential decreases in the price per bit of memory. the last few data points in the chart are extrapolated out to the year . i think there every reason to believe that this phenomena is gonna continue. 
+in fact, if you look at the solid state physics that involved, you will find that people already have a very good idea as to how they are gonna continue to improve the density of ram, how they will continue to improve the price performance ratio of processors. the fundamental physics is there. what people need to do is learn how to make it more cost effective, manufacture in volume, make it reliable and cheap. people are very good at doing that once the fundamental capability is there. 
+the real lesson behind all of this is the importance of being exponential. if you know anything about exponential growth, what you know that it the asymptotic scaling that matters. anything which has a fixed threshold of performance, has a fixed amount of computing power, is rapidly overwhelmed. even things that grow or grow exponentially are overwhelmed if the growth rate winds up being slower. that why mainframe computers lost to microprocessors. they had exponential increase in performance too, just not at the same growth rate the microprocessor based systems had. 
+this leads to a fascinating phenomena. this unimaginable performance is going to go and blow by any fixed thresholds. on the other hand, there still some problems that are gonna be very hard that no amount of computing power, years, years, , years hence, will be able to solve. an example is a class of problems called np hard problems in computer science. consider a simple example where you have n objects and you take all combinations of those n objects, all different orderings. well, the number is n!. for three objects, the number is six. 
+but it grows very rapidly with the number. if you take objects and put them in all possible combinations, which really is not all that many objects. it only a little larger than the number of cards in a deck of playing cards. the total number of combinations is about th. cosmologists estimate that the number of baryons that heavy particles, protons, neutrons, things like that in the entire universe. if you did manage to calculate that number, you could not print it out unless you used all the matter and all the energy in the universe to actually make the printout. 
+clearly that problem is not gonna be solved anywhere near, in any finite period of time, and that only . if you make the number larger, it gets worse. the trick going forward is gonna be to figure out which problems will fall to the exponential rise of computing and communications, and which will remain. that the real challenge for the coming decades. 
+here another interesting chart. it a chart of microsoft stock price. and like the other chart, this is a semi log chart. exponential growth. here the arithmetic version. why am i showing you this? well, whenever we talk to stock market analysts, people say, gee, microsoft stock has been going up a lot. how come that so? is not that a very unusual circumstance? well, it really very unusual if you take it from the first principle perspective. but not if you recognize that we are surfing on a wave. a wave of computing created by the increase in performance of semiconductors, price performance. 
+basically, every time a new processor comes out and is twice as fast, we have more opportunity to add value by creating new products. every time ram gets larger, we have an opportunity to develop more and larger programs and sell them to people. to show this effect, i took this microsoft stock price and i divided it out by that previous graph of the memory price, and you get this. it almost flat. 
+now, this only takes the price of dynamic rams into account. if i also took the cpu price and the hard disk price and made an overall index, the curve would be absolutely flat. i have a conclusion that i draw from this. software is a gas. it expands to fit the container it in. in our case, the container is the vlsi technology. the cpu cycles software gets to burn, the memory that we get to store things in. and god bless those guys making the containers. as long as they keep making them larger, we are gonna keep having an ability to add value with software. 
+i used to be a cosmologist, actually, and i have another way of viewing this. it like selling real estate in an inflationary universe. you keep selling stuff, but the universe keeps expanding exponentially. 
+there a specific business strategy you have to follow if you want to keep surfing on this wave of exponential growth. and that to measure your success not by the traditional means of revenue and profit or market share. you should measure your success by the percentage of cpu cycles you consume. by the percentage of ram that you occupy. and so our strategy at microsoft has been to say, let follow the microprocessor. and we have had to change the mix of our products to do that. we had to move from being a company that first wrote a programming language, basic, to developing operating systems, dos and windows. developing graphical applications. more recently you have seen announcements or you may have seen announcements that we are doing multimedia titles, encyclopedias and titles on baseball and dinosaurs and a variety of other things. 
+finally, in my group, we are working on a variety of new platforms. intelligent televisions, servers that sit on these broadband networks i will talk about in a little bit. tiny computers that will fit in your pocket. wherever there are microprocessors and memory, there a job for software. and if you want to maintain your share of the world cycles, you have to change your software product mix in order to follow that vlsi wherever it goes. 
+there are a few bottlenecks. we talked about enormous exponential growth. turns out there a key network that is not gonna grow fast enough. it will become a major bottleneck for some things. it will not be a bottleneck for others. the network i am talking about is not the phone network. it is not the cable network. it the human nervous system. 
+you see, our input and output is limited, and we are not growing our capabilities exponentially. human beings only take a certain amount of information in and a certain amount of information out, and that a fixed number. it one of those fixed thresholds that computing is just gonna blow by. 
+i do not know how to build the peripherals that will be used in this system, how you can get touch and sense and other things built. but you can estimate what you would do if you had those peripherals. how hard is the pure computing task? what do we have to do? how far away are the ultimate data types, the complete perfect human interface that mimics reality as much as possible, or unreality? but that manages to saturate our i o bus that gets the maximum amount of information in and out. 
+it interesting to actually look at a couple of the senses and figure out how hard that would be and what sort of limits might come up, so let take a look at them. taste and smell are not appropriate for many programs. using them as an i o means for a computer program is gonna be somewhat specialized. and i do not know how on earth we are gonna connect those up to a computer, how we manage whether we jack into our central nervous system or we have some weird peripheral that puts little drops of chemicals on our tongues. 
+but we can calculate what the fundamental data type is and estimate how much it would take to compute that, synthesize and manipulate it. it turns out people have done a variety of physiological experiments to see how many unique tastes we can actually taste. and they have dropped little drops of stuff on people tongues and asked them to fill out questionnaires and so forth. 
+it turns out that the range of taste and also smell is quite limited. something in the order of , unique different tastes and smell elements. some people actually break it down to smaller than that, but conservatively, let say , different elements. turns out the time resolution of smell and taste is very low. you do not have thousands of tastes and smells per second. you have in the order of a few tastes and smells per second. 
+if we compare this with, say, cd audio. cd audio has two bit samples , times a second. here we are talking about one bit sample to get , different tastes and smells. we got a few bits of amplitude on top of that. we probably only sample it times or times a second. the total bandwidth is far less than audio. presumably, it far easier to synthesize, calculate, store. 
+on the day that you can jack in and get taste and smell, we will discover it really not all that hard. we have all the computing power necessary to do it today. it does not require any great breakthroughs in terms of the computing aspect of the problem. 
+touch is another great one. obviously video is something that quite common in computers these days. on a video screen, you tend to divide the screen up into a bunch of pixels or picture elements. well, let estimate how many touch elements or touchels you will need. again, we assume we have little discreet elements. well, once again, there been some physiological tests that have been done where people try to estimate the touch resolution people have in various parts of their bodies. they poke people with rods of various sizes and shapes. 
+the surprising conclusion is, we have very poor touch resolution everywhere except our hands, our lips and a couple other places. otherwise, the resolution is quite low. i was replicating some of these experiments, poking myself with these various rods to see if i could tell the difference. somebody walked in the room and i had to explain, really, this is research. this is for work. 
+it turns out that the total size of your body that has this high resolution stuff is also quite limited. in fact, to do an experiment there, i took some paper towels and covered the size of the monitor that i use for a computer. that got about a dots per inch resolution for a decent quality computer monitor these days. that also about the same resolution you have on the high sensitivity parts of your body. it about touchels per inch, would be about the maximum density. 
+then the question is, does the screen have greater area than your body? and of course you can do that by cutting that paper towel out and applying it to the sensitive parts of your body. you really do not want to get caught doing that experiment. but it turns out that in fact it about the same. 
+if you assume you have somewhere between and bits of resolution per touchel, you have about the same total number of touchels as you have in a high res computer screen. the bandwidth is only about the same as video. now, maybe i am wrong. maybe there some additional factors in there. suppose it was x video? remember, if you double every year, the factor of only takes you about three and a half years before you are there. 
+the story here is that although, again, i do not know how we will get touch sensitivity with computers, the total data feed is not all that big a deal. it not gonna be any harder to synthesize. it will not be any harder to ship around or store than video is. you put this together with the taste we already know how to do video reasonably well and they are making it stereo. completely saturating humans ability to do input and output is gonna be over within a few years. what it means is the computing is gonna have to move to other challenges, that providing the ultimate user interface is a temporary, desirable, but hardly a final state. 
+now, we have talked a bunch about computing, storing information, about calculating stuff. but what about communicating it? well, the world of communication is one that has not followed any of these laws of exponential growth. and, in fact, you can make a very strong analogy between a central office telephone switch and a mainframe. both giant systems. they have a similar kind of a culture. they have very similar sorts of margins and costs, et cetera. 
+you can make an analogy that the pbx that people have inside a company, which is a smaller scale switch, is a lot like a minicomputer. literally, it based on minicomputer technology, but again, the aspects of that industry are very similar to the aspects of the minicomputer world. 
+well, minicomputers mainframes ruled the world, computing wise, until microprocessor based systems came in. starting with personal computers and workstations and now large servers, the microprocessor has decimated the ranks of the mainframe and minicomputer world. and i think a similar thing is gonna be happening in communications because of two key technologies. the first is atm switching. the other is fiber optics. 
+for many years, fiber optics has had the ability to pipe huge amounts of information over long distances. you can modulate these lasers that are used in the fiber very, very well, so getting information from one point to another via fiber is commonplace. essentially, all long distance phone calls go that way today. 
+the problem has been that you could not get that high speed switched or delivered to the right place. you could move the bits, and if it was point to point you were okay, but you could not actually have a network that would get the information from one point to another. that where atm switches come in. and i believe that atm switches and that whole technology area is the equivalent for the communications world to what the microprocessor was for computing. atm switches follow vsli price performance curves. they are based on a small number for such a large number, but of replicated, cheap pieces of vlsi. 
+atm switching allows new entrants to come into the market. just as a variety of start up companies came in and revolutionized the world of personal computing, we are gonna find dozens of start up companies coming in in the atm switch area. i think that a variety of the existing switch people are gonna also be making great switches. i do not mean it limited to that. but we are gonna see a change here where people are very happy to get their kb or isdn kb lines today. that high tech in wide area networking, whereas that gonna be ridiculous in just a few years. and that industry gonna restructure completely as a result. 
+but that the technology level. there also some interesting service aspects of that. we go to what i call the communications rollercoaster. your phone bill has not followed an exponential price curve. it has not dropped by a factor of two every year. nor has the amount of data that you send. it expanded by a factor of two at the same cost. it basically been static. 
+well, now we have atm technology. we have fiber optics. and we have a third factor, competition, coming in. those three things are gonna combine to make the communications world change overnight. now overnight may take five years, may take years to do, but in the historical context we are gonna go from voice being a very expensive sort of a service to voice essentially being free. 
+in fact, you can calculate the numbers. a lot of people in the communications world are gearing up for video on demand service where they say, we will offer you a pay per view movie in your home. they will have to charge nobody knows exactly what they will charge, but they will have to charge something like , for that. if they charged more, they would not be competitive with the existing blockbuster store. 
+and out of that or , they have to pay tom cruise and the guys in hollywood, whoever the stars are. those guys have to get some money and distributors have to get some money. the raw communications cost is probably only about or cents per hour. cents per hour for megabits per second. if you compare that to what you have today for voice, you get vod service, which costs, for most long distance calls, between and cents a minute. that a factor of , different in price. 
+i believe that we will see a time when voice calls, even long distance voice calls, are free. not free by themselves, but someone will say, hey, if you sign up for our video on demand service and our video telephone service and you sign up for all of that, we will let you have the voice side for free, betting that you will move across. 
+one of the other factors to consider here is that the economics of the communications business is gonna be turned on its head. the way that public utility commissions and the networking companies today think is in terms of the enormous value of their installed equipment. well, it is valuable, but you have to remember that the new equipment will probably be a factor of two better for the same price every year. 
+whoever is operating these networks has to go on a very intense schedule of upgrading them. they also have to worry that 
+a schedule of upgrading them. they also have to worry that if they do not upgrade, some new guy going to come in, pay a fraction of what they paid to put the things in originally, and have much better service. it going to be a hell of a ride. but ultimately, i think both for the companies in that business and for the consumers, it going to be a real thrill too. 
+what sort of network are we talking about? we have sort of talked around the edges. i think the overall system that we foresee is a switched digital network that offers point to point high bandwidth digital communications, and on which you hang a wide variety of different devices. this is interesting analogy to the electrical system. when thomas edison invented the light bulb, it became the killer app, the key thing, that focused people minds on electrification. when electricity was first installed in american homes, it was installed as a dedicated lighting system. in fact, in large cities, it replaced an earlier dedicated lighting system based on gas, gas lights. now, we do not think of electricity as a dedicated lighting system anymore. sure, we have lights, but we also plug in our cuisinart and our stereo and our computer and our electric razor. it a general utility. 
+the same thing has happened in the communications world. today, you have two dedicated networks. you have a cable tv network, dedicated in the notion it will deliver you video. you have a telephone network, dedicated in the notion it delivers you point to point communications. those are going to evolve as we look forward into a general information utility. you will have a bit socket, like the rj jack you have today. into that bit socket, you will plug your personal computer, and you will plug your camcorder when you want to send pictures of the kids to grandma. you will have your smart tv, your smart cable box. you will have some dumb cable boxes. you will have wireless phones and smart phones, and you will have a wide variety of servers and other systems that are set up in order to supply information. 
+this is not about the telephone taking over the world. it not about the tv or the set top box taking over the world. it not about the personal computer taking over the world. what we are talking about here is a general information utility. people like to talk, will the tv win over the pc? they will both win. not only those, your water heater will be connected. every electrical device will ultimately be connected to this information utility, and offer you the ability to do demand side power management, security, a wide variety of different kinds of information usage. in fact, we will think of information as just as fundamentally utility as we think of electricity today. 
+now, in looking at how this world is going to evolve, there a variety of aspects of this information. what do you mean information? what kinds of information? how will it alter? i think one of the interesting ways to look at it is to divide things into two sides, the pure information addressing aspects. are you sending something to one person or to many people? is it point to point, one to one, or one to many? also, look at the temporal aspects in time. is it synchronous, like a telephone call when both parties have to be on the line at the same time, or is it asynchronous, or offline, so that the two parties can be completely decoupled in time? 
+well, you can make a list of these things. examples of an online one to many service would include things like television and radio. we all have to be there when the simpsons start, and if not, they start without us. we are all synced up. telephones and most computer networks are examples of point to point communications. we are sending something from one place to another place. telephone is certainly a synchronous example, or online example. the offline side, a book or a magazine is a classic one to many offline thing. you do not care when the book was written, it could have been written a hundred years before you were born. it fundamentally was written for a wide audience, not just for you. finally, there is point to point off line, electronic mail, fax, ordinary postal service. again, you have a decoupling of time, but you have a point to point address. 
+now, within each of these categories, i have described a variety of different information utilities, each of which has very different characteristics today. that going away. because once you have this kind of information transmittal means, storage means in your hand, you wind up finding that everything within a box winds up becoming quite similar. the difference between say a record album, which is one kind of one to many offline thing and a book, well that just different kinds of data. once you are storing them all digitally, what does it matter? fundamentally, you see the world collapsing into two kinds of services. there digital data that online, a digital phone call, a digital video call, et cetera. there digital data which is offline, either via a store and forward system, or perhaps it on an optical storage disc. 
+i think we will see a lot of things move from the online category to offline. why should we all have to wait for the simpsons to come on at a particular time? we have made ourselves slaves to the machines, slaves to the system. you should be able to watch a tv show, a movie, anytime you like. does not mean everything offline of course. there will still be late breaking news stories that will come on that you are going to want to watch at that point in time, but by and large, many of the things that are multicast and online will move offline. similarly, many of the things which you had a very long time constant for, you are going to be able to get instantaneously. ultimately, as we look forward to these kinds of information, we discover that the factors which survive the best are those that are the most generic, the addressing capabilities and the temporal aspects. 
+to get more information on how this is going to happen, we have to look for analogies. it hard to find something that has the same characteristics as this information highway explosion will have, unless you go very far back, back to the first information revolution, when johann gutenberg invented the printing press and completely changed the way people thought about information. i have got an analysis of that, based on what i call document demographics. 
+consider the total number of documents, say, published each year, versus the total number of readers that that information was dedicated to. in the zero column are notes to yourself. people take notes, they are not intended for any reader other than the author, it not for any kind of distribution really, it as a memory aid. well, then you have got letters, personal letters to a person, business letters, et cetera. those exist in one to a small number of copies. once you get up to a higher volume above a hundred, you are probably not sending letters. it probably things like ads, brochures, newsletters. finally, get up above about , , you have books, magazines, newspapers, things of that sort. you can estimate what the shape of that curve is. you can do that by figuring out how much notebook paper is sold, how many post it notes are sold, what the combined circulation of newspapers, magazines, books, et cetera. i have got a schematic curve there sort of illustrating this. 
+the thing that fascinating to me about this curve is that print media, which is basically what we are talking about, is very mature. print media is driven more by the fundamental desire of the people who are using it, than by the technology, although technology played an important role. it gives us an interesting way of looking at what might happen, i believe will happen, for online digital information. now, within each of these different ranges of documents, there a characteristic technology used for reproduction, for making the copies, for actually getting the copies out to people. 
+for the zero case, it pen or pencil. that how a document that gets no distribution other than the author is written. from one copy up to a hundred copies, you are in another realm, the realm of the photocopier, the xerox machine. that revolutionized that area. from to , copies, you are really in the realm of desktop publishing. laser printers, they are important in the smaller range too, but laser printers, and small offset presses and desktop publishing, really come into their own between and , copies. finally, when you get above say or , copies and up, you are in the realm of commercial printing. i say around , because that the minimum number you do really serious commercial printing for. most books, regardless of whether they are some very popular book or they are some very obscure scientific tome, are not printed in less than about or , copies. it just not worth starting the presses if you do not do that. 
+now, in addition to reproduction, there a characteristic distribution technology. how do you take those copies you have made for people, and physically get them to the people who need to see them? well, once again, distribution not a problem when you are in the zero case. from zero to a hundred, you are probably either using by hand, you are physically handing people or your interoffice mail is taking it. perhaps you are mailing them. between and , copies, there kind of an awkward phase. how do you send , copies of something? it too small a number to go into commercial distribution. instead, what you have to do, pretty much, is use the mail. there no good way of getting it out other than that. most of the documents in that are either given free, they are ads, or if they are sold, they are usually fairly expensive. if you subscribe to an industry newsletter, they usually cost to , a year. it quite expensive compared to, say, a popular magazine. once you get above , copies, you have the commercial world of distribution, retail, et cetera, where people either use the mail in the case of magazines, they use newsstands, bookstores, paperboys. there a specialty distribution system, it all set up for that domain. 
+now, there a fundamental lesson to learn here. each technology has characteristic economics, and that economics is what shapes the whole field. you may think of it in other terms, but in fact, the price per copy was an enormous barrier to people making photocopies at one time. was changed enormously by xerox. in addition to direct economic costs, there the convenience, the ability to go up to a machine and press a button, changed things enormously. in fact, we can go back and look at what the effects of each of these kinds of information delivery would have been before the technology changed the economics. in fact, the lesson is, when you change the economics of the information distribution, you change the world. 
+here a chart where i have superimposed on the original one what you used to do before xerox, before desktop publishing, and before gutenberg. well, before xerox, you could make a photostat or a mimeograph. there were ways of making copies. you could use carbon paper, but you had to hit those keys awful hard to make more than about two copies. in fact, there a hugely fewer number of copies made. you can estimate this by looking at the sales of copiers and copier paper. people basically did without having large numbers of copies. as soon as xerox made them feasible, they exploded. people found a need for all of this. it hard to imagine if you see the use of xerox machines today how on ea</t>
+  </si>
+  <si>
+    <t>it wonderful to be here. what did not tell you is that this lecture series used to be called the last lecture. if you had one last lecture to give before you died, what would it be? i thought, damn, i finally nailed the venue and they renamed it. 
+so, in case there anybody who wandered in and does not know the back story, my dad always taught me when there an elephant in the room, introduce them. if you look at my cat scans, there are approximately tumors in my liver and the doctors told me three to six months of good health left. that was a month ago, so you can do the math. i have some of the best doctors in the world. 
+so, that is what it is. we ca not change it and we just have to decide how we are going to respond to that. we can not change the cards we are dealt, just how we play the hand. if i do not seem as depressed or morose as i should be, sorry to disappoint you. 
+and i assure you, i am not in denial. it not like i am not aware of what going on. my family, my three kids, my wife, we just decamped. we bought a lovely house in chesapeake, virginia, near norfolk and we are doing that because that a better place for the family to be, down the road. 
+and the other thing is, i am in phenomenally good health right now. i mean, it the greatest thing of cognitive dissonance you will ever see is the fact that i am in really good shape. in fact, i am in better shape than most of you. so anybody who wants to cry or pity me, can come down and do a few of those and then you may pity me. 
+all right, so what we are not talking about today. we are not talking about cancer. because i spend a lot of time talking about that and i am really not interested. if you have any herbal supplements or remedies, please stay away from me. 
+and we are not going to talk about things that are even more important than achieving your childhood dreams. we are not going to talk about my wife, we are not gonna talk about my kids. because i am good, but i am not good enough to talk about that without tearing up. so, we are just gonna take that off the table. that much more important. 
+and we are not gonna talk about spirituality and religion. although, i will tell you that i have experienced a death bed conversion. i just bought a macintosh. now i knew i would get nine percent of the audience with that, but 
+all right, so what is today talk about then? it about my childhood dreams. and how i have achieved them. i have been very fortunate that way. how i believe i have been able to enable the dreams of others. and to some degree, lessons learned. i am a professor. there should be some lessons learned. and how you can use the stuff you hear today to achieve your dreams or enable the dreams of others. and as you get older, you may find that enable the dreams of others thing is even more fun. 
+so, what were my childhood dreams? well, you know, i had a really good childhood. i mean, no kidding around. i was going back through the family archives and what was really amazing was, i could not find any pictures of me as a kid where i was not smiling. right? and that was just a very gratifying thing. there was our dog. awe, thank you. and there, i actually have a picture of me dreaming. and i did a lot of that, you know. there was a lot of, wake up! s, you know? 
+and it was an easy time to dream. i was born in . right? when you are eight or nine years old and you look at the tv set and men are landing on the moon, anything is possible. and that something we should not lose sight of. is that the inspiration and the permission to dream is huge. 
+so what were my childhood dreams? you may not agree with this list, but i was there. being in zero gravity. playing in the national football league. authoring an article in the world book encyclopedia. i guess you can tell the nerds early. being captain kirk. anybody here have that childhood dream? not at cmu, no. i wanted to become one of the guys who won the big stuffed animals in the amusement park. and i wanted to be an imagineer with disney. these are not sorted in any particular order, although i do think they get harder, except for maybe the first one. 
+okay, so being in zero gravity. now it important to have specific dreams. i did not dream of being an astronaut because when i was a little kid, i wore glasses. and they told me, oh, astronauts ca not have glasses. and i was like, mm, i did not really want the whole astronaut gig. i just wanted the floating. so, and as a child, prototype zero point zero. but that did not work so well. 
+and it turns out that nasa has something called the vomit comet that they use to train the astronauts. and this thing does parabolic arcs. and at the top of each arc, you get about seconds where you are ballistic and you get about a rough equivalent of weightlessness for about seconds. and there is a program where college students can submit proposals. and if they win the competition, they get to fly. and i thought that was really cool and we had a team, we put a team together. and they won and they got to fly. and i was all excited because i was gonna go with them. and then i hit the first brick wall because they made it very clear that under no circumstances were faculty members allowed to fly with the teams. 
+i know, i was heartbroken. right. i was like, but, i worked so hard. and so, i read the literature very carefully and it turns out that nasa, it part of their outreach and publicity program. and it turns out that the students were allowed to bring a local media journalist from their hometown. and, randy pausch, web journalist. it really easy to get a press pass. 
+so i call up the guys at nasa and i said, i need to know where to fax some documents. and they said, what documents are going to fax us? i said, my resignation as the faculty advisor and my application as the journalist. and he said, that a little transparent. do not you think? and i said, yeah, but our project is virtual reality and we are gonna bring down a whole bunch of vr headsets and all the students from all the teams are going to experience it. and all those other real journalists, are going to get to film it. 
+jim foley going, oh, you bastard. yes. and the guy said, here the fax number. so, and indeed, we kept our end of the bargain. and that one of the themes that you will hear later on in the talk is, have something to bring to the table. all right? because that will make you more welcomed. 
+all right, let talk about football. my dream was to play in the national football league. and most of you do not know that i actually pl no. no, i did not make it to the national football league. but, i probably got more from that dream and not accomplishing it than i got from any of the ones that i did accomplish. 
+i had a coach. i was signed up when i was nine years old. i was the smallest kid in the league, by far. and i had a coach, jim graham, who was six foot four. he had played linebacker at penn state. he was just this hulk of a guy and he was old school. i mean really old school. like, he thought the forward pass was a trick play. 
+and he showed up for practice the first day and, you know, this big hulking guy, we were all scared to death of him. and he had not brought any footballs. how are we gonna have practice without any footballs? and one of the other kids said, excuse me, coach, cut there no football. and coach graham said, right. how many men are on a football field at a time? so i said, on a team, . and coach graham said, all right and how many people are touching the football at any given time? one of them. and he said, right. so we are gonna work on what those other guys are doing. 
+and that a really good story because it all about fundamentals. fundamentals, fundamentals, fundamentals. you have gotta get the fundamentals down because otherwise, the fancy stuff is not gonna work. 
+and the other jim graham story i have is, there was one practice where he just rode me, all practice. just, you are doing this wrong. you are doing this wrong. go back and do it again. you owe me. you are doing pushups after practice. and when it was all over, one of the other assistant coaches came over and said, yeah, coach graham rode you pretty hard, did not he? i said, yeah. he said, that a good thing. he said, when you are screwing up and nobody saying anything to you anymore, that means they gave up. and that a lesson that stuck with me my whole life. is that, when you see yourself doing something badly and nobody bothering to tell you anymore, that a very bad place to be. your critics are your ones telling you they still love you and care. 
+after coach graham, i had another coach, coach setliff and he taught me a lot about the power of enthusiasm. he did this one thing where only for one play at a time, he would put people in at like, the most horrifically wrong position for them. like all the short guys would become receivers, right? it was just laughable. but we only went in for one play. right? and boy, the other team just never knew what hit them. because when you are only doing it for one play and you are just not where you are supposed to be and freedom just another word for nothing left to lose, boy, are you gonna clean somebody clock for that one play. and that kind of enthusiasm was great. 
+and to this day, i am most comfortable on a football field. i mean, it just one of those things where, if i am working a hard problem, people will see me wandering the halls with one of these things. and that just because, you know, when you do something young enough and you train for it, it just becomes a part of you. and i am very glad that football was a part of my life. and if i did not get the dream of playing in the nfl, that okay. i probably got stuff more valuable. because looking at what going on in the nfl, i am not sure those guys are doing so great right now. 
+okay, and so, one of the expressions i learned in electronic arts, which i love, which pertains to this is, experience is what you get when you did not get what you wanted. and i think that absolutely lovely. 
+and the other thing about football is, we send out kids out to play football or soccer or swimming or whatever it is, and it the first example of what i am gonna call a head fake or indirect learning. we actually do not want our kids to learn football. i mean, yeah, it really nice that i have a wonderful three point stance and that i know how to do a chop block and all this kind of stuff. but, we send our kids out to learn much more important things. team work, sportsmanship, perseverance, et cetera, et cetera. and these kinds of head fake learnings are absolutely important. and you should keep your eye out for them because they are everywhere. 
+all right, a simple one, being an author in the world book encyclopedia. when i was a kid, we had the world book encyclopedia on the shelf. for the freshman, this is paper. we used to have these things called books. and after i had become somewhat of an authority on virtual reality, but not like a really important one, so i was at the level of people at the world book would badger. they called me up and i wrote an article. and this is katelyn kellaher. there an article, if you go to your local library where they still have copies of the world book, look under v for virtual reality and there it is. 
+and all i have to say is that, having been selected to be an author in the world book encyclopedia, i know believe that wikipedia is a perfectly fine source for your information because i know what the quality control is for real encyclopedias. they let me in. 
+all right, next one. at a certain point, you just realize there some things you are not gonna do, so maybe you just want to stand close the people. and, i mean, my god, what a role model for young people. i mean, this is everything you want to be. and what i learned that carried me forward in leadership later is that, you know, he was not the smartest guy on the ship. i mean, spock was pretty smart and mccoy was the doctor and scottie was the engineer. and you sort of go, and what skill set did he have to get on this damn thing and run it? 
+and clearly there this skill set called leadership. and whether or not you like the series, there no doubt that there was a lot to be learned about how to lead people by watching this guy in action. and he just had the coolest damn toys. right? i mean, my god. i just thought it was fascinating as a kid that he had this thing and he could talk to the ship with it. i just thought that was just spectacular. and of course, now i own one and it smaller. so that kind of cool. 
+so, i got to achieve this dream. james t kirk, his alter ego, william shatner, wrote a book. which, i think, was actually a pretty cool book. it was with chip walter who a pittsburgh based author who quite good. and the wrote a book on basically the science of star trek, what has come true. and they went around to top places around the country and looked at various things and they came here to study our virtual reality set up. and so we built a virtual reality for him. it looks something like that. we put it in, put it to red alert. he was a very good sport. it not like he saw that one coming. and it really cool to meet your boyhood idol. but it even cooler when he comes to you to see what cool stuff you are doing in your lab. that was just a great moment. 
+all right, winning stuffed animals. this may seems mundane to you, but when you are a little kid and you see the big buff guys walking around in an amusement park and they got all these big stuffed animals, right? and this is my lovely wife. and i have a lot of pictures of stuffed animals i have won. that my dad, posing with one that i won. i have won a lot of these animals. there my dad, he did win that one, to his credit. and this was just a big part of my life and my family life. 
+but you know, i can hear the cynics. you know, in this age of digitally manipulated things, maybe those bears are not really in the picture with me. or maybe i paid somebody five bucks to take a picture in the theme park next to the bear. and i said, how in this age of cynicism can i convince people? and i said, i know. i can show them the bears. bring them out. you can just put them right there. you can just put them back against the wall. 
+so here some bears. we did not have quite enough room in the moving truck down to chesapeake. and anybody who would like a little piece of me at the end of this, feel free to come up, first come, first serve. 
+all right, my next one. being an imagineer. this was the hard one. believe me, getting to zero gravity is easier than becoming an imagineer. when i was a kid, i was eight years old and our family took a trip cross country to see disneyland. and if you have ever seen the movie national lampoon vacation, it was a lot like that. it was a quest. 
+and these are real vintage photographs. and there i am, in front of the castle. and there i am. for those of you who are into foreshadowing, this is the alice ride. and i just thought this was just the coolest environment i would ever been in. and instead of saying, gee, i want to experience this, i said, i want to make stuff like this. 
+and so i bided my time and then i graduated with phd from carnegie mellon, thinking that meant me infinitely qualified to do anything. and i dashed off my letters of application to walt disney imagineering and they sent me some of the damn nicest go to hell letters i have ever gotten. i mean, it was just, we have carefully reviewed your application and presently, we do not have any positions available which require your particular qualifications. 
+now think about the fact that you are getting this from a place who famous for guys who sweep the street. so that was a bit of a set back. but remember, the brick walls are there for a reason. all right? the brick walls are not there to keep us out. the brick walls are there to give us a chance to show how badly we want something. because they brick walls are there to stop the people who do not want it badly enough. they are there to stop the other people. 
+all right, fast forward to . we did a system back at the university of virginia called virtual reality on five dollars a day . just one of those unbelievable spectacular things. i was so scared back in those days as a junior academic. jim foley here and i just love to tell this story. he knew my undergraduate advisor, andy vandamm. and i am at my first conference and i am just scared to death and this icon in the user interface community walks up to me and out of nowhere just gives me this huge bear hug. and he says, that was from andy. and that was when i thought, okay, maybe i can make it. maybe i do belong. 
+and a similar story is that this was just this unbelievable hit because, at the time, everybody needed a half a million dollars to do virtual reality. and everybody felt frustrated. and we literally hacked together a system for about , in parts and made a working vr system. and people were just like, oh my god. this like, hewlett packard garage thing. this is so awesome. 
+and so i am giving this talk and the room has just gone wild. and during the q and a, a guy named tom ferness, who was one of the big names in virtual reality at the time. he goes up to the microphone and he introduces himself. i did not know what he looked like, but i sure as hell knew the name. and he asked a question. and i was like, i am sorry, did you say you are tom ferness? he said, yes. i said, then i would love to answer your question, but first, will you have lunch with me tomorrow? and there a lot in that little moment. there a lot of humility, but also, asking a person where he ca not possibly say no. 
+and so, imagineering, a couple of years later was working on a virtual reality project. this was top secret. they were denying the existence of a virtual reality attraction after the time that the publicity department was running the tv commercials. so imagineering really had nailed this one tight. and it was the aladdin attraction where you would fly a magic carpet. and the head mounted display, sometimes known as gator vision. and so, i had an in. as soon as the project had just you know, they started running the tv commercials and i had been asked to brief the secretary of defense on the state of virtual reality. okay, fred brooks and i had been asked to brief the secretary of defense. and that gave me an excuse. so i called them up, i called imagineering and i said, look, i am briefing the secretary of defense. i would like some materials on what you have because it on of the best vr systems in the world. and they kind of pushed back. and i said, look, is all this patriotism stuff in the parks a farce? and they are like, mm, okay. they said, this is so new that the pr department does not have any footage for you so i am gonna have to connect you straight through to the team who did the work. jackpot. 
+so i find myself on the phone with a guy named john snoddy, who is one of the most impressive guys i have ever met. and he was the guy running this team. and it not surprising they had done impressive things. and so he sent me some stuff. we talked briefly, he sent me some stuff and i said, hey, i am gonna be out in the area for a conference shortly. would you like to get together and have lunch? translation, i am going to lie to you and say that i have an excuse to be in the area so i do not look too anxious. but i would go to neptune to have lunch with you. 
+and so john said sure. and i spent something like hours talking with all the vr experts in the world saying, if you had access to this one unbelievable project, what would you ask? and then i compiled all of that and i had to memorize it, which anybody who knows me knows that i have no memory at all. cause i could not go in looking like a dweeb with, hi, question 
+so, i went in and this was like a two hour lunch. and john must have thought he was talking to some phenomenal person because i was doing was channeling fred brooks and ivan sutherland and andy vandamm and people like that. henry fooks. so, it pretty easy to be smart when you are parodying smart people. 
+and at the end of the lunch with john, i sort of, as we say in the business, made the ask. and i said, you know, i have a sabbatical coming up. he said, what that? the beginnings of the culture clash. and so, i talked to him about the possibility of coming there and working with him. and he said, that really good, except, you know, you are in the business of telling people stuff and we are in the business of keeping secrets. and then what made john snoddy, john snoddy, was he said, but we will work it out. which i really loved. 
+the other thing that i learned from john snoddy, i could do easily an hour long talk just on what have i learned from john snoddy. one of the things he told me was that, wait long enough and people will surprise and impress you. he said, when you are pissed off at somebody and you are angry at them, you just have not given them enough time. just give them a little more time and they will almost always impress you. and that really stuck with me. i think he absolutely right on that one. 
+so, to make a long story short, we negotiated a legal contract. it was going to be the first, some people referred to it as the first and last paper ever published by imagineering. but the deal was, i go, i provide my own funding, i go for six months, i work with the project, we publish a paper. 
+and then we meet our villain. i ca not be all sweetness and light, because i have no credibility. somebody head gonna go on a stick. turns out that the person who gets his head on a stick is a dean back at the university of virginia. his name is not important, let call him dean wormer. and dena wormer has a meeting with me where i say i want to do this sabbatical thing. and i have actually gotten the imagineering guys to let an academic in, which is insane. i mean, if john had not gone nuts, this would never have been a possibility. this is a very secretive organization. 
+and dean wormer looks at the paperwork and he says, well, it says they are gonna own your intellectual property. i said, yeah, we got the agreement to publish the paper. there is no other ip. i do not do patentable stuff. he says, yeah, but you might. so deal off. just get them to change that little clause there and then come back to me. i am like, excuse me? and then i said to him, i want you to understand how important this is. if we ca not work this out, i am going to take an unpaid leave of absence and i am just gonna go there and i am gonna do this thing. and he said, hey, you know, i might not even let you do that. i mean, you have got the ip in your head already and maybe they are gonna suck it out of you so that not gonna fly either. 
+it very important to know when you are in a pissing match. and it very important to get out of it as quickly as possible. so i said to him, well, let back off on this. do we think this is a good idea at all? he said, i have no idea if this is a good idea. i was like, okay, well we have got common ground there. then i said, well, is this really your call? is not this the call of the dean of sponsored research? if it an ip issue? and he said, yeah, that true. so i said, if he happy, you are happy? yeah, then i would be fine. like wile e coyote. and i find myself in gene block office, who the most fantastic man in the world. 
+and i start talking to gene block and i say, let start at the high level, since i do not want to have to back out again. i said, let start at the high level. do you think this is a good idea? he said, well, if you are asking me if it a good idea, i do not have very much information. all i know is that one of my start faculty members is in my office and he really excited, so tell me more. here a lesson for everybody in administration, they both said the same thing. but think 
+ they both said the same thing, but think about how they said it. right? i do not know. well, i do not have much information but one of my star faculty members is here and he all excited so i want to learn more. they are both ways of saying i do not know but boy, there a good way and a bad way. so anyway, we got it all worked out. i went to imagineering. sweetness and light. and all well that ends well. 
+some brick walls are made of flesh. so i worked on the aladdin project. it was absolutely spectacular. i mean, just unbelievable. here my nephew, christopher. this was the apparatus. you would sit on this sort of motorcycle type thing and you would steer your magic carpet and you would put on the head mounted display. the head mounted display was very interesting. it had two parts and it was a very, very clever design. to get throughput through, the only part that touched the guests head was this little cap and everything else clicked onto it, all the expensive hardware. so you could replicate the caps, because they were basically free to manufacture. and, this is what i really did, is i was a cap cleaner. 
+i loved imagineering. it was just a spectacular place. just spectacular. everything that i had dreamed. i love the model shop. people crawling around on things the size of this room that are just big physical models. it was just an incredible place to walk around and be inspired. i am always reminded, when i went there and people said do you think the expectations are too high? and i said, did you ever see the movie charlie and the chocolate factory, willie wonka and the chocolate factory? where gene wilder says to the little boy, charlie, he about to give him the chocolate factory and he says, well, charlie, did anybody ever tell you the story of the little boy who suddenly got everything he ever wanted? charlie eyes get like saucers and he says, no, what happened to him? gene wilder says, he lived happily ever after. 
+okay. so, working on the aladdin vr, i describe it as a once in every five years opportunity and i stand by that assessment. it forever changed me. it was not just that it was good work and i got to be a part of it, but it got me into the place of working with real people and real hci user interface issues. most hci people live in this fantasy world of white collar laborers with phds and masters degrees and, you know, until you got ice cream spilled on you, you are not doing field work, right? 
+and, more than anything else, from jon snoddy, i learned how to put artists and engineers together, and that been the real legacy. we published a paper, just a nice academic cultural scandal. when we wrote the paper the guys at imagineering said, well, let do a nice big picture, like you would in a magazine. and the siggraph committee, which accepted the paper, it was like this big scandal. are they allowed to do that? there was no rule. so we published the paper and, amazingly, since then there a tradition of siggraph papers having color figures on the first page. i, so i have changed the world in a small way. 
+and then at the end of my six months, they came to me and they said, you want to do it for real? you can stay. and i said, no . one of the only times in my life i have surprised my father. he was like, you what? he said, since you were, you know, all you wanted, and now you that you got it and you are like huh? 
+there was a bottle of maalox in my desk drawer. be careful what you wish for. it was a particularly stressful place. imagineering, in general, is actually not so maalox laden, but the lab i was in oh, jon left in the middle. it was a lot like the soviet union. it was a little dicey for a while, but it worked out okay. and, if they had said stay here or never walk in the building again , i would have done it. i would have walked away from tenure. i would have just done it. but they made it easy on me. they said, you can have your cake and eat it too . and i basically become a day a week consultant for imagineering and i did that for about ten years. and that one of the reasons you should all become professors, because you can have your cake and eat it too. okay? 
+i went on and consulted on things like disneyquest. so there was the virtual jungle cruise and the best interactive experience, i think, ever done, and jesse schell gets the credit for this, pirates of the caribbean. wonderful at disneyquest. 
+and so, those are my childhood dreams. and, you know, that pretty good. i felt good about that. so, then the question becomes, how can i enable the childhood dreams of others? and again, boy, am i glad i became a professor. what better place to enable childhood dreams? maybe working at ea, i do not know, that would probably be a good close second. but, and this started in a very concrete realization that i could do this because a young man named tommy burnett, when i was at the university of virginia, came to me, was interested in joining my research group and we talked about it and he said, oh, and i have a childhood dream. it gets pretty easy to recognize them when they tell you. and i said, yes, tommy, what is your childhood dream? he said, i want to work on the next star wars film. now, you gotta remember the timing on this. where is tommy? tommy is here today. what year would this have been? your sophomore year? 
+tommy it was around . 
+randy pausch are you breaking anything back there, young man? okay. all right. so, in . and i said to tommy, you know they are probably not going to make those next movies. and he said, no, they are. and, tommy worked with me for a number of years as an undergraduate and then as a staff member, and then when i moved to carnegie mellon, every single member of my team came from virginia to carnegie mellon except for tommy because he got a better offer. and he did indeed work on all three of those films. so 
+and then i said, well, that nice but, you know, one at a time is kind of inefficient. and people who know me know that i am an efficiency freak. so i said, can i do this en masse? can i get people turned in such a way that they can be turned onto their childhood dreams? 
+and i created a course, i came to carnegie mellon, i created a course called building virtual worlds. it a very simple course. how many people have ever been to any of the shows? okay. so you have a, some of you have an idea. for those of you who do not, the course is very simple. there are students drawn from all the different departments of the university. there are randomly chosen, randomly chosen teams. four people per team, and they change every project. a project only lasts two weeks, so you do something, you make something, you show something, then i shuffle the teams. you get three new playmates, and you do it again. and, it every two weeks, and so you do five projects during the semester. 
+the first year we taught this course, it is impossible to describe how much of a tiger by the tail we had. i was just running the course because i wanted to see if we could do it. we had just learned how to do texture mapping on d graphics and we could make stuff that looked half decent but, you know, we were running on really weak computers, by current standards. but i said, i will give it a try. and at my new university i made a couple of phone calls and i said i want to cross list this course to get all these other people. and within hours it was cross listed in five departments. i love this university. i mean, it just, it the most amazing place. 
+and i said, and the kids said, well, what content do we make? i said, hell, i do not know. you make whatever you want. two rules no shooting violence and no pornography. not because i am opposed to those in particular but, you know, that been done with vr, right? and you would be amazed how many year old boys are completely out of ideas when you take those off the table. anyway, so i taught the course. 
+the first assignment, i gave it to them. they came back in two weeks and they just blew me away. i mean, the work was so beyond, literally, my imagination, because i copied the process from imagineering vr lab but i had no idea what they could or could not do with it as undergraduates and how, because their, and their tools were weaker. and they came back in the first assignment and they did something that was so spectacular that i literally did not, ten years as a professor and i had no idea what to do next. so i called up my mentor. i called up andy van dam. and i said, andy, i just ga</t>
+  </si>
+  <si>
+    <t>i look at all of you today and i cannot help but see myself twenty five years ago, at my own barnard commencement. i sometimes seem, in my mind, to have as much in common with that girl as i do with any stranger i might pass in the doorway of a starbucks or in the aisle of an airplane. i cannot remember what she wore or how she felt that day. but i can tell you this about her without question she was perfect. 
+let me be very clear what i mean by that. i mean that i got up every day and tried to be perfect in every possible way. if there was a test to be had, i had studied for it if there was a paper to be written, it was done. i smiled at everyone in the dorm hallways, because it was important to be friendly, and i made fun of them behind their backs because it was important to be witty. and i worked as a residence counselor and sat on housing council. if anyone had ever stopped and asked me why i did those things well, i am not sure what i would have said. but i can tell you, today, that i did them to be perfect, in every possible way. 
+being perfect was hard work, and the hell of it was, the rules of it changed. so that while i arrived at college in with a trunk full of perfect pleated kilts and perfect monogrammed sweaters, by christmas vacation i had another perfect uniform overalls, turtlenecks, doc martens, and the perfect new york city barnard college affect part hyperintellectual, part ennui. this was very hard work indeed. i had read neither sartre nor sappho, and the closest i ever came to being bored and above it all was falling asleep. finally, it was harder to become perfect because i realized, at barnard, that i was not the smartest girl in the world. eventually being perfect day after day, year after year, became like always carrying a backpack filled with bricks on my back. and oh, how i secretly longed to lay my burden down. 
+so what i want to say to you today is this if this sounds, in any way, familiar to you, if you have been trying to be perfect in one way or another, too, then make today, when for a moment there are no more grades to be gotten, classmates to be met, terrain to be scouted, positioning to be arranged make today the day to put down the backpack. trying to be perfect may be sort of inevitable for people like us, who are smart and ambitious and interested in the world and in its good opinion. but at one level it too hard, and at another, it too cheap and easy. because it really requires you mainly to read the zeitgeist of wherever and whenever you happen to be, and to assume the masks necessary to be the best of whatever the zeitgeist dictates or requires. those requirements shapeshift, sure, but when you are clever you can read them and do the imitation required. 
+but nothing important, or meaningful, or beautiful, or interesting, or great ever came out of imitations. the thing that is really hard, and really amazing, is giving up on being perfect and beginning the work of becoming yourself. 
+this is more difficult, because there is no zeitgeist to read, no template to follow, no mask to wear. set aside what your friends expect, what your parents demand, what your acquaintances require. set aside the messages this culture sends, through its advertising, its entertainment, its disdain and its disapproval, about how you should behave. 
+set aside the old traditional notion of female as nurturer and male as leader set aside, too, the new traditional notions of female as superwoman and male as oppressor. begin with that most terrifying of all things, a clean slate. then look, every day, at the choices you are making, and when you ask yourself why you are making them, find this answer for me, for me. because they are who and what i am, and mean to be. 
+this is the hard work of your life in the world, to make it all up as you go along, to acknowledge the introvert, the clown, the artist, the reserved, the distraught, the goofball, the thinker. you will have to bend all your will not to march to the music that all of those great theys out there pipe on their flutes. they want you to go to professional school, to wear khakis, to pierce your navel, to bare your soul. these are the fashionable ways. the music is tinny, if you listen close enough. look inside. that way lies dancing to the melodies spun out by your own heart. this is a symphony. all the rest are jingles. 
+this will always be your struggle whether you are twenty one or fifty one. i know this from experience. when i quit the new york timesto be a full time mother, the voices of the world said that i was nuts. when i quit it again to be a full time novelist, they said i was nuts again. but i am not nuts. i am happy. i am successful on my own terms. because if your success is not on your own terms, if it looks good to the world but does not feel good in your heart, it is not success at all. remember the words of lily tomlin if you win the rat race, you are still a rat. 
+look at your fingers. hold them in front of your face. each one is crowned by an abstract design that is completely different than those of anyone in this crowd, in this country, in this world. they are a metaphor for you. each of you is as different as your fingerprints. why in the world should you march to any lockstep? 
+the lockstep is easier, but here is why you cannot march to it. because nothing great or even good ever came of it. when young writers write to me about following in the footsteps of those of us who string together nouns and verbs for a living, i tell them this every story has already been told. once you have read anna karenina, bleak house, the sound and the fury, to kill a mockingbirdand a wrinkle in time,you understand that there is really no reason to ever write another novel. except that each writer brings to the table, if she will let herself, something that no one else in the history of time has ever had. and that is herself, her own personality, her own voice. if she is doing faulkner imitations, she can stay home. if she is giving readers what she thinks they want instead of what she is, she should stop typing. 
+but if her books reflect her character, who she really is, then she is giving them a new and wonderful gift. giving it to herself, too. 
+and that is true of music and art and teaching and medicine. someone sent me a t shirt not long ago that read well behaved women do not make history. they do not make good lawyers, either, or doctors or businesswomen. imitations are redundant. yourself is what is wanted. 
+you already know this. i just need to remind you. think back. think back to first or second grade, when you could still hear the sound of your own voice in your head, when you were too young, too unformed, too fantastic to understand that you were supposed to take on the protective coloration of the expectations of those around you. think of what the writer catherine drinker bowen once wrote, more than half a century ago many a man who has known himself at ten forgets himself utterly between ten and thirty. many a woman, too. 
+you are not alone in this. we parents have forgotten our way sometimes, too. i say this as the deeply committed, often flawed mother of three. when you were first born, each of you, our great glory was in thinking you absolutely distinct from every baby who had ever been born before. you were a miracle of singularity, and we knew it in every fiber of our being. 
+but we are only human, and being a parent is a very difficult job, more difficult than any other, because it requires the shaping of other people, which is an act of extraordinary hubris. over the years we learned to want for you things that you did not want for yourself. we learned to want the lead in the play, the acceptance to our own college, the straight and narrow path that often leads absolutely nowhere. sometimes we wanted those things because we were convinced it would make life better, or at least easier for you. sometimes we had a hard time distinguishing between where you ended and we began. 
+so that another reason that you must give up on being perfect and take hold of being yourself is because sometime, in the distant future, you may want to be parents, too. if you can bring to your children the self that you truly are, as opposed to some amalgam of manners and mannerisms, expectations and fears that you have acquired as a carapace along the way, you will give them, too, a great gift. you will teach them by example not to be terrorized by the narrow and parsimonious expectations of the world, a world that often likes to color within the lines when a spray of paint, a scrawl of crayon, is what is truly wanted. 
+remember yourself, from the days when you were younger and rougher and wilder, more scrawl than straight line. remember all of yourself, the flaws and faults as well as the many strengths. carl jung once said, if people can be educated to see the lowly side of their own natures, it may be hoped that they will also learn to understand and to love their fellow men better. a little less hypocrisy and a little more tolerance toward oneself can only have good results in respect for our neighbors, for we are all too prone to transfer to our fellows the injustice and violence we inflict upon our own natures. 
+most commencement speeches suggest you take up something or other the challenge of the future, a vision of the twenty first century. instead i would like you to give up. give up the backpack. give up the nonsensical and punishing quest for perfection that dogs too many of us through too much of our lives. it is a quest that causes us to doubt and denigrate ourselves, our true selves, our quirks and foibles and great leaps into the unknown, and that is bad enough. 
+but this is worse that someday, sometime, you will be somewhere, maybe on a day like today a berm overlooking a pond in vermont, the lip of the grand canyon at sunset. maybe something bad will have happened you will have lost someone you loved, or failed at something you wanted to succeed at very much. 
+and sitting there, you will fall into the center of yourself. you will look for that core to sustain you. if you have been perfect all your life, and have managed to meet all the expectations of your family, your friends, your community, your society, chances are excellent that there will be a black hole where your core ought to be. 
+do not take that chance. begin to say no to the greek chorus that thinks it knows the parameters of a happy life when all it knows is the homogenization of human experience. listen to that small voice from inside you, that tells you to go another way. george eliot wrote, it is never too late to be what you might have been. it is never too early, either. and it will make all the difference in the world. take it from someone who has left the backpack full of bricks far behind. every day feels light as a feather.</t>
+  </si>
+  <si>
+    <t>rain, somebody said, is like confetti from heaven. so even the heavens are celebrating this morning, joining the rest of us at this wonderful commencement ceremony. 
+before we go any further, graduates, you have an important task to perform because behind you are your parents and guardians. two or three or four years ago, they drove into cardigan, dropped you off, helped you get settled and then turned around and drove back out the gates. it was an extraordinary sacrifice for them. they drove down the trail of tears back to an emptier and lonelier house. they did that because the decision about your education, they knew, was about you. it was not about them. that sacrifice and others they made have brought you to this point. but this morning is not just about you. it is also about them, so i hope you will stand up and turn around and give them a great round of applause. please. 
+now when somebody asks me how the remarks at cardigan went, i will be able to say they were interrupted by applause. 
+congratulations, class of . you have reached an important milestone. an important stage of your life is behind you. i am sorry to be the one to tell you it is the easiest stage of your life, but it is in the books. while you have been at cardigan, you have all been a part of an important international community as well. and i think that needs to be particularly recognized. 
+ at this time, roberts gave brief remarks in other languages. 
+now around the country today at colleges, high schools, middle schools, commencement speakers are standing before impatient graduates. and they are almost always saying the same things. they will say that today is a commencement exercise. it is a beginning, not an end. you should look forward.' and i think that is true enough, however, i think if you are going to look forward to figure out where you are going, it good to know where you have been and to look back as well. and i think if you look back to your first afternoon here at cardigan, perhaps you will recall that you were lonely. perhaps you will recall that you were a little scared, a little anxious. and now look at you. you are surrounded by friends that you call brothers, and you are confident in facing the next step in your education. 
+it is worth trying to think why that is so. and when you do, i think you may appreciate that it was because of the support of your classmates in the classroom, on the athletic field and in the dorms. 
+and as far as the confidence goes, i think you will appreciate that it is not because you succeeded at everything you did, but because with the help of your friends, you were not afraid to fail. and if you did fail, you got up and tried again. and if you failed again, you got up and tried again. and if you failed again, it might be time to think about doing something else. but it was not just success, but not being afraid to fail that brought you to this point. 
+now the commencement speakers will typically also wish you good luck and extend good wishes to you. i will not do that, and i will tell you why. from time to time in the years to come, i hope you will be treated unfairly, so that you will come to know the value of justice. i hope that you will suffer betrayal because that will teach you the importance of loyalty. sorry to say, but i hope you will be lonely from time to time so that you do not take friends for granted. i wish you bad luck, again, from time to time so that you will be conscious of the role of chance in life and understand that your success is not completely deserved and that the failure of others is not completely deserved either. and when you lose, as you will from time to time, i hope every now and then, your opponent will gloat over your failure. it is a way for you to understand the importance of sportsmanship. i hope you will be ignored so you know the importance of listening to others, and i hope you will have just enough pain to learn compassion. whether i wish these things or not, they are going to happen. and whether you benefit from them or not will depend upon your ability to see the message in your misfortunes. 
+now commencement speakers are also expected to give some advice. they give grand advice, and they give some useful tips. the most common grand advice they give is for you to be yourself. it is an odd piece of advice to give people dressed identically, but you should you should be yourself. but you should understand what that means. unless you are perfect, it does not mean do not make any changes. in a certain sense, you should not be yourself. you should try to become something better. people say be yourself because they want you to resist the impulse to conform to what others want you to be. but you ca not be yourself if you do not learn who are, and you ca not learn who you are unless you think about it. 
+the greek philosopher socrates said, the unexamined life is not worth living.' and while just do it might be a good motto for some things, it not a good motto when it trying to figure out how to live your life that is before you. and one important clue to living a good life is to not to try to live the good life. the best way to lose the values that are central to who you are is frankly not to think about them at all. 
+so that the deep advice. now some tips as you get ready to go to your new school. other the last couple of years, i have gotten to know many of you young men pretty well, and i know you are good guys. but you are also privileged young men. and if you were not privileged when you came here, you are privileged now because you have been here. my advice is do not act like it. 
+when you get to your new school, walk up and introduce yourself to the person who is raking the leaves, shoveling the snow or emptying the trash. learn their name and call them by their name during your time at the school. 
+another piece of advice when you pass by people you do not recognize on the walks, smile, look them in the eye and say hello. the worst thing that will happen is that you will become known as the young man who smiles and says hello, and that is not a bad thing to start with. 
+you have been at a school with just boys. most of you will be going to a school with girls. i have no advice for you. 
+the last bit of advice i will give you is very simple, but i think it could make a big difference in your life. once a week, you should write a note to someone. not an email. a note on a piece of paper. it will take you exactly minutes. talk to an adult, let them tell you what a stamp is. you can put the stamp on the envelope. again, minutes, once a week. i will help you, right now. 
+i will dictate to you the first note you should write. it will say, dear .' say i have started at this new school. we are reading in english. football or soccer practice is hard, but i am enjoying it. thank you for teaching me.' put it in an envelope, put a stamp on it and send it. it will mean a great deal to people who for reasons most of us cannot contemplate have dedicated themselves to teaching middle school boys. as i said, that will take you exactly minutes a week. by the end of the school year, you will have sent notes to people. forty people will feel a little more special because you did, and they will think you are very special because of what you did. no one else is going to carry that dividend during your time at school. 
+enough advice. i would like to end by reading some important lyrics. i cited the greek philosopher socrates earlier. these lyrics are from the great american philosopher, bob dylan. they are almost years old. he wrote them for his son, jesse, who he was missing while he was on tour. it lists the hopes that a parent might have for a son and for a daughter. they are also good goals for a son and a daughter. the wishes are beautiful, they are timeless. they are universal. they are good and true, except for one it is the wish that gives the song its title and its refrain. that wish is a parent lament. it not a good wish. so these are the lyrics from forever young by bob dylan 
+may god bless you and keep you always
+may your wishes all come true
+may you always do for others
+and let others do for you
+may you build a ladder to the stars
+and climb on every rung
+and may you stay forever young 
+may you grow up to be righteous
+may you grow up to be true
+may you always know the truth
+and see the lights surrounding you
+may you always be courageous
+stand upright and be strong
+and may you stay forever young 
+may your hands always be busy
+may your feet always be swift
+may you have a strong foundation
+when the winds of changes shift
+may your heart always be joyful
+may your song always be sung
+and may you stay forever young 
+thank you.</t>
+  </si>
+  <si>
+    <t>good morning. how are you? 
+it been great, has not it? i have been blown away by the whole thing. in fact, i am leaving. 
+there have been three themes running through the conference which are relevant to what i want to talk about. one is the extraordinary evidence of human creativity in all of the presentations that we have had and in all of the people here. just the variety of it and the range of it. the second is that it put us in a place where we have no idea what going to happen, in terms of the future. no idea how this may play out. 
+i have an interest in education. actually, what i find is everybody has an interest in education. do not you? i find this very interesting. if you are at a dinner party, and you say you work in education actually, you are not often at dinner parties, frankly. 
+if you work in education, you are not asked. 
+and you are never asked back, curiously. that strange to me. but if you are, and you say to somebody, you know, they say, what do you do? and you say you work in education, you can see the blood run from their face. they are like, oh my god, you know, 
+ why me? 
+ my one night out all week. 
+but if you ask about their education, they pin you to the wall. because it one of those things that goes deep with people, am i right? like religion, and money and other things. so i have a big interest in education, and i think we all do. we have a huge vested interest in it, partly because it education that meant to take us into this future that we ca not grasp. if you think of it, children starting school this year will be retiring in . nobody has a clue, despite all the expertise that been on parade for the past four days, what the world will look like in five years time. and yet we are meant to be educating them for it. so the unpredictability, i think, is extraordinary. 
+and the third part of this is that we have all agreed, nonetheless, on the really extraordinary capacities that children have their capacities for innovation. i mean, sirena last night was a marvel, was not she? just seeing what she could do. and she exceptional, but i think she not, so to speak, exceptional in the whole of childhood. what you have there is a person of extraordinary dedication who found a talent. and my contention is, all kids have tremendous talents. and we squander them, pretty ruthlessly. 
+so i want to talk about education and i want to talk about creativity. my contention is that creativity now is as important in education as literacy, and we should treat it with the same status. 
+ applause thank you. 
+that was it, by the way. thank you very much. 
+so, minutes left. 
+well, i was born no. 
+i heard a great story recently i love telling it of a little girl who was in a drawing lesson. she was six, and she was at the back, drawing, and the teacher said this girl hardly ever paid attention, and in this drawing lesson, she did. the teacher was fascinated. she went over to her, and she said, what are you drawing? and the girl said, i am drawing a picture of god. and the teacher said, but nobody knows what god looks like. and the girl said, they will, in a minute. 
+when my son was four in england actually, he was four everywhere, to be honest. 
+if we are being strict about it, wherever he went, he was four that year. he was in the nativity play. do you remember the story? 
+no, it was big, it was a big story. mel gibson did the sequel, you may have seen it. 
+ nativity ii. but james got the part of joseph, which we were thrilled about. we considered this to be one of the lead parts. we had the place crammed full of agents in t shirts james robinson is joseph! laughter he did not have to speak, but you know the bit where the three kings come in? they come in bearing gifts, gold, frankincense and myrrh. this really happened. we were sitting there and i think they just went out of sequence, because we talked to the little boy afterward and we said, you ok with that? and he said, yeah, why? was that wrong? they just switched. the three boys came in, four year olds with tea towels on their heads, and they put these boxes down, and the first boy said, i bring you gold. and the second boy said, i bring you myrrh. and the third boy said, frank sent this. 
+what these things have in common is that kids will take a chance. if they do not know, they will have a go. am i right? they are not frightened of being wrong. i do not mean to say that being wrong is the same thing as being creative. what we do know is, if you are not prepared to be wrong, you will never come up with anything original if you are not prepared to be wrong. and by the time they get to be adults, most kids have lost that capacity. they have become frightened of being wrong. and we run our companies like this. we stigmatize mistakes. and we are now running national education systems where mistakes are the worst thing you can make. and the result is that we are educating people out of their creative capacities. 
+picasso once said this, he said that all children are born artists. the problem is to remain an artist as we grow up. i believe this passionately, that we do not grow into creativity, we grow out of it. or rather, we get educated out of it. so why is this? 
+i lived in stratford on avon until about five years ago. in fact, we moved from stratford to los angeles. so you can imagine what a seamless transition that was. 
+actually, we lived in a place called snitterfield, just outside stratford, which is where shakespeare father was born. are you struck by a new thought? i was. you do not think of shakespeare having a father, do you? do you? because you do not think of shakespeare being a child, do you? shakespeare being seven? i never thought of it. i mean, he was seven at some point. he was in somebody english class, was not he? 
+how annoying would that be? 
+ must try harder. 
+being sent to bed by his dad, you know, to shakespeare, go to bed, now! and put the pencil down. 
+ and stop speaking like that. 
+ it confusing everybody. 
+anyway, we moved from stratford to los angeles, and i just want to say a word about the transition. my son did not want to come. i have got two kids he now, my daughter . he did not want to come to los angeles. he loved it, but he had a girlfriend in england. this was the love of his life, sarah. he would known her for a month. 
+mind you, they would had their fourth anniversary, because it a long time when you are . he was really upset on the plane, he said, i will never find another girl like sarah. and we were rather pleased about that, frankly 
+because she was the main reason we were leaving the country. 
+but something strikes you when you move to america and travel around the world every education system on earth has the same hierarchy of subjects. every one. does not matter where you go. you would think it would be otherwise, but it is not. at the top are mathematics and languages, then the humanities, and at the bottom are the arts. everywhere on earth. and in pretty much every system too, there a hierarchy within the arts. art and music are normally given a higher status in schools than drama and dance. there is not an education system on the planet that teaches dance everyday to children the way we teach them mathematics. why? why not? i think this is rather important. i think math is very important, but so is dance. children dance all the time if they are allowed to, we all do. we all have bodies, do not we? did i miss a meeting? 
+truthfully, what happens is, as children grow up, we start to educate them progressively from the waist up. and then we focus on their heads. and slightly to one side. 
+if you were to visit education, as an alien, and say what it for, public education? i think you would have to conclude, if you look at the output, who really succeeds by this, who does everything that they should, who gets all the brownie points, who are the winners i think you would have to conclude the whole purpose of public education throughout the world is to produce university professors. is not it? they are the people who come out the top. and i used to be one, so there. 
+and i like university professors, but you know, we should not hold them up as the high water mark of all human achievement. they are just a form of life, another form of life. but they are rather curious, and i say this out of affection for them. there something curious about professors in my experience not all of them, but typically, they live in their heads. they live up there, and slightly to one side. they are disembodied, you know, in a kind of literal way. they look upon their body as a form of transport for their heads. 
+do not they? it a way of getting their head to meetings. 
+if you want real evidence of out of body experiences, get yourself along to a residential conference of senior academics, and pop into the discotheque on the final night. 
+and there, you will see it. grown men and women writhing uncontrollably, off the beat. 
+waiting until it ends so they can go home and write a paper about it. 
+our education system is predicated on the idea of academic ability. and there a reason. around the world, there were no public systems of education, really, before the th century. they all came into being to meet the needs of industrialism. so the hierarchy is rooted on two ideas. 
+number one, that the most useful subjects for work are at the top. so you were probably steered benignly away from things at school when you were a kid, things you liked, on the grounds that you would never get a job doing that. is that right? do not do music, you are not going to be a musician do not do art, you will not be an artist. benign advice now, profoundly mistaken. the whole world is engulfed in a revolution. 
+and the second is academic ability, which has really come to dominate our view of intelligence, because the universities designed the system in their image. if you think of it, the whole system of public education around the world is a protracted process of university entrance. and the consequence is that many highly talented, brilliant, creative people think they are not, because the thing they were good at at school was not valued, or was actually stigmatized. and i think we ca not afford to go on that way. 
+in the next years, according to unesco, more people worldwide will be graduating through education than since the beginning of history. more people, and it the combination of all the things we have talked about technology and its transformation effect on work, and demography and the huge explosion in population. 
+suddenly, degrees are not worth anything. is not that true? when i was a student, if you had a degree, you had a job. if you did not have a job, it because you did not want one. and i did not want one, frankly. laughter but now kids with degrees are often heading home to carry on playing video games, because you need an ma where the previous job required a ba, and now you need a phd for the other. it a process of academic inflation. and it indicates the whole structure of education is shifting beneath our feet. we need to radically rethink our view of intelligence. 
+we know three things about intelligence. one, it diverse. we think about the world in all the ways that we experience it. we think visually, we think in sound, we think kinesthetically. we think in abstract terms, we think in movement. secondly, intelligence is dynamic. if you look at the interactions of a human brain, as we heard yesterday from a number of presentations, intelligence is wonderfully interactive. the brain is not divided into compartments. in fact, creativity which i define as the process of having original ideas that have value more often than not comes about through the interaction of different disciplinary ways of seeing things. 
+by the way, there a shaft of nerves that joins the two halves of the brain called the corpus callosum. it thicker in women. following off from helen yesterday, this is probably why women are better at multi tasking. because you are, are not you? there a raft of research, but i know it from my personal life. if my wife is cooking a meal at home which is not often, thankfully. 
+no, she good at some things, but if she cooking, she dealing with people on the phone, she talking to the kids, she painting the ceiling, she doing open heart surgery over here. if i am cooking, the door is shut, the kids are out, the phone on the hook, if she comes in i get annoyed. i say, terry, please, i am trying to fry an egg in here. 
+ give me a break. 
+actually, do you know that old philosophical thing, if a tree falls in a forest and nobody hears it, did it happen? remember that old chestnut? i saw a great t shirt recently, which said, if a man speaks his mind in a forest, and no woman hears him, is he still wrong? 
+and the third thing about intelligence is, it distinct. i am doing a new book at the moment called epiphany, which is based on a series of interviews with people about how they discovered their talent. i am fascinated by how people got to be there. it really prompted by a conversation i had with a wonderful woman who maybe most people have never heard of, gillian lynne. have you heard of her? some have. she a choreographer, and everybody knows her work. she did cats and phantom of the opera. she wonderful. i used to be on the board of the royal ballet, as you can see. anyway, gillian and i had lunch one day and i said, how did you get to be a dancer? it was interesting. when she was at school, she was really hopeless. and the school, in the ' s, wrote to her parents and said, we think gillian has a learning disorder. she could not concentrate she was fidgeting. i think now they would say she had adhd. would not you? but this was the s, and adhd had not been invented at this point. it was not an available condition. 
+people were not aware they could have that. 
+anyway, she went to see this specialist. so, this oak paneled room, and she was there with her mother, and she was led and sat on this chair at the end, and she sat on her hands for minutes while this man talked to her mother about the problems gillian was having at school. because she was disturbing people her homework was always late and so on, little kid of eight. in the end, the doctor went and sat next to gillian, and said, i have listened to all these things your mother told me, i need to speak to her privately. wait here. we will be back we will not be very long, and they went and left her. 
+but as they went out of the room, he turned on the radio that was sitting on his desk. and when they got out, he said to her mother, just stand and watch her. and the minute they left the room, she was on her feet, moving to the music. and they watched for a few minutes and he turned to her mother and said, mrs. lynne, gillian is not sick she a dancer. take her to a dance school. 
+i said, what happened? she said, she did. i ca not tell you how wonderful it was. we walked in this room and it was full of people like me. people who could not sit still. people who had to move to think. who had to move to think. they did ballet, they did tap, jazz they did modern they did contemporary. she was eventually auditioned for the royal ballet school she became a soloist she had a wonderful career at the royal ballet. she eventually graduated from the royal ballet school, founded the gillian lynne dance company, met andrew lloyd webber. she been responsible for some of the most successful musical theater productions in history, she given pleasure to millions, and she a multi millionaire. somebody else might have put her on medication and told her to calm down. 
+what i think it comes to is this al gore spoke the other night about ecology and the revolution that was triggered by rachel carson. i believe our only hope for the future is to adopt a new conception of human ecology, one in which we start to reconstitute our conception of the richness of human capacity. our education system has mined our minds in the way that we strip mine the earth for a particular commodity. and for the future, it will not serve us. we have to rethink the fundamental principles on which we are educating our children. 
+there was a wonderful quote by jonas salk, who said, if all the insects were to disappear from the earth, within years all life on earth would end. if all human beings disappeared from the earth, within years all forms of life would flourish. and he right. 
+what ted celebrates is the gift of the human imagination. we have to be careful now that we use this gift wisely and that we avert some of the scenarios that we have talked about. and the only way we will do it is by seeing our creative capacities for the richness they are and seeing our children for the hope that they are. and our task is to educate their whole being, so they can face this future. by the way we may not see this future, but they will. and our job is to help them make something of it. 
+thank you very much.</t>
+  </si>
+  <si>
+    <t>president faust, members of the harvard corporation and the board of overseers, members of the faculty, proud parents, and, above all, graduates. 
+the first thing i would like to say is thank you.' not only has harvard given me an extraordinary honour, but the weeks of fear and nausea i have endured at the thought of giving this commencement address have made me lose weight. a win win situation! now all i have to do is take deep breaths, squint at the red banners and convince myself that i am at the world largest gryffindor reunion. 
+delivering a commencement address is a great responsibility or so i thought until i cast my mind back to my own graduation. the commencement speaker that day was the distinguished british philosopher baroness mary warnock. reflecting on her speech has helped me enormously in writing this one, because it turns out that i ca not remember a single word she said. this liberating discovery enables me to proceed without any fear that i might inadvertently influence you to abandon promising careers in business, the law or politics for the giddy delights of becoming a gay wizard. 
+you see? if all you remember in years to come is the gay wizard joke, i have come out ahead of baroness mary warnock. achievable goals the first step to self improvement. 
+actually, i have wracked my mind and heart for what i ought to say to you today. i have asked myself what i wish i had known at my own graduation, and what important lessons i have learned in the years that have expired between that day and this. 
+i have come up with two answers. on this wonderful day when we are gathered together to celebrate your academic success, i have decided to talk to you about the benefits of failure. and as you stand on the threshold of what is sometimes called real life, i want to extol the crucial importance of imagination. 
+these may seem quixotic or paradoxical choices, but please bear with me. 
+looking back at the year old that i was at graduation, is a slightly uncomfortable experience for the year old that she has become. half my lifetime ago, i was striking an uneasy balance between the ambition i had for myself, and what those closest to me expected of me. 
+i was convinced that the only thing i wanted to do, ever, was to write novels. however, my parents, both of whom came from impoverished backgrounds and neither of whom had been to college, took the view that my overactive imagination was an amusing personal quirk that would never pay a mortgage, or secure a pension. i know that the irony strikes with the force of a cartoon anvil, now. 
+so they hoped that i would take a vocational degree i wanted to study english literature. a compromise was reached that in retrospect satisfied nobody, and i went up to study modern languages. hardly had my parents car rounded the corner at the end of the road than i ditched german and scuttled off down the classics corridor. 
+i cannot remember telling my parents that i was studying classics they might well have found out for the first time on graduation day. of all the subjects on this planet, i think they would have been hard put to name one less useful than greek mythology when it came to securing the keys to an executive bathroom. 
+i would like to make it clear, in parenthesis, that i do not blame my parents for their point of view. there is an expiry date on blaming your parents for steering you in the wrong direction the moment you are old enough to take the wheel, responsibility lies with you. what is more, i cannot criticise my parents for hoping that i would never experience poverty. they had been poor themselves, and i have since been poor, and i quite agree with them that it is not an ennobling experience. poverty entails fear, and stress, and sometimes depression it means a thousand petty humiliations and hardships. climbing out of poverty by your own efforts, that is indeed something on which to pride yourself, but poverty itself is romanticised only by fools. 
+what i feared most for myself at your age was not poverty, but failure. 
+at your age, in spite of a distinct lack of motivation at university, where i had spent far too long in the coffee bar writing stories, and far too little time at lectures, i had a knack for passing examinations, and that, for years, had been the measure of success in my life and that of my peers. 
+i am not dull enough to suppose that because you are young, gifted and well educated, you have never known hardship or heartbreak. talent and intelligence never yet inoculated anyone against the caprice of the fates, and i do not for a moment suppose that everyone here has enjoyed an existence of unruffled privilege and contentment. 
+however, the fact that you are graduating from harvard suggests that you are not very well acquainted with failure. you might be driven by a fear of failure quite as much as a desire for success. indeed, your conception of failure might not be too far from the average person idea of success, so high have you already flown. 
+ultimately, we all have to decide for ourselves what constitutes failure, but the world is quite eager to give you a set of criteria if you let it. so i think it fair to say that by any conventional measure, a mere seven years after my graduation day, i had failed on an epic scale. an exceptionally short lived marriage had imploded, and i was jobless, a lone parent, and as poor as it is possible to be in modern britain, without being homeless. the fears that my parents had had for me, and that i had had for myself, had both come to pass, and by every usual standard, i was the biggest failure i knew. 
+now, i am not going to stand here and tell you that failure is fun. that period of my life was a dark one, and i had no idea that there was going to be what the press has since represented as a kind of fairy tale resolution. i had no idea then how far the tunnel extended, and for a long time, any light at the end of it was a hope rather than a reality. 
+so why do i talk about the benefits of failure? simply because failure meant a stripping away of the inessential. i stopped pretending to myself that i was anything other than what i was, and began to direct all my energy into finishing the only work that mattered to me. had i really succeeded at anything else, i might never have found the determination to succeed in the one arena i believed i truly belonged. i was set free, because my greatest fear had been realised, and i was still alive, and i still had a daughter whom i adored, and i had an old typewriter and a big idea. and so rock bottom became the solid foundation on which i rebuilt my life. 
+you might never fail on the scale i did, but some failure in life is inevitable. it is impossible to live without failing at something, unless you live so cautiously that you might as well not have lived at all in which case, you fail by default. 
+failure gave me an inner security that i had never attained by passing examinations. failure taught me things about myself that i could have learned no other way. i discovered that i had a strong will, and more discipline than i had suspected i also found out that i had friends whose value was truly above the price of rubies. 
+the knowledge that you have emerged wiser and stronger from setbacks means that you are, ever after, secure in your ability to survive. you will never truly know yourself, or the strength of your relationships, until both have been tested by adversity. such knowledge is a true gift, for all that it is painfully won, and it has been worth more than any qualification i ever earned. 
+so given a time turner, i would tell my year old self that personal happiness lies in knowing that life is not a check list of acquisition or achievement. your qualifications, your cv, are not your life, though you will meet many people of my age and older who confuse the two. life is difficult, and complicated, and beyond anyone total control, and the humility to know that will enable you to survive its vicissitudes. 
+now you might think that i chose my second theme, the importance of imagination, because of the part it played in rebuilding my life, but that is not wholly so. though i personally will defend the value of bedtime stories to my last gasp, i have learned to value imagination in a much broader sense. imagination is not only the uniquely human capacity to envision that which is not, and therefore the fount of all invention and innovation. in its arguably most transformative and revelatory capacity, it is the power that enables us to empathise with humans whose experiences we have never shared. 
+one of the greatest formative experiences of my life preceded harry potter, though it informed much of what i subsequently wrote in those books. this revelation came in the form of one of my earliest day jobs. though i was sloping off to write stories during my lunch hours, i paid the rent in my early s by working at the african research department at amnesty international headquarters in london. 
+there in my little office i read hastily scribbled letters smuggled out of totalitarian regimes by men and women who were risking imprisonment to inform the outside world of what was happening to them. i saw photographs of those who had disappeared without trace, sent to amnesty by their desperate families and friends. i read the testimony of torture victims and saw pictures of their injuries. i opened handwritten, eye witness accounts of summary trials and executions, of kidnappings and rapes. 
+many of my co workers were ex political prisoners, people who had been displaced from their homes, or fled into exile, because they had the temerity to speak against their governments. visitors to our offices included those who had come to give information, or to try and find out what had happened to those they had left behind. 
+i shall never forget the african torture victim, a young man no older than i was at the time, who had become mentally ill after all he had endured in his homeland. he trembled uncontrollably as he spoke into a video camera about the brutality inflicted upon him. he was a foot taller than i was, and seemed as fragile as a child. i was given the job of escorting him back to the underground station afterwards, and this man whose life had been shattered by cruelty took my hand with exquisite courtesy, and wished me future happiness. 
+and as long as i live i shall remember walking along an empty corridor and suddenly hearing, from behind a closed door, a scream of pain and horror such as i have never heard since. the door opened, and the researcher poked out her head and told me to run and make a hot drink for the young man sitting with her. she had just had to give him the news that in retaliation for his own outspokenness against his country regime, his mother had been seized and executed. 
+every day of my working week in my early s i was reminded how incredibly fortunate i was, to live in a country with a democratically elected government, where legal representation and a public trial were the rights of everyone. 
+every day, i saw more evidence about the evils humankind will inflict on their fellow humans, to gain or maintain power. i began to have nightmares, literal nightmares, about some of the things i saw, heard, and read. 
+and yet i also learned more about human goodness at amnesty international than i had ever known before. 
+amnesty mobilises thousands of people who have never been tortured or imprisoned for their beliefs to act on behalf of those who have. the power of human empathy, leading to collective action, saves lives, and frees prisoners. ordinary people, whose personal well being and security are assured, join together in huge numbers to save people they do not know, and will never meet. my small participation in that process was one of the most humbling and inspiring experiences of my life. 
+unlike any other creature on this planet, humans can learn and understand, without having experienced. they can think themselves into other people places. 
+of course, this is a power, like my brand of fictional magic, that is morally neutral. one might use such an ability to manipulate, or control, just as much as to understand or sympathise. 
+and many prefer not to exercise their imaginations at all. they choose to remain comfortably within the bounds of their own experience, never troubling to wonder how it would feel to have been born other than they are. they can refuse to hear screams or to peer inside cages they can close their minds and hearts to any suffering that does not touch them personally they can refuse to know. 
+i might be tempted to envy people who can live that way, except that i do not think they have any fewer nightmares than i do. choosing to live in narrow spaces leads to a form of mental agoraphobia, and that brings its own terrors. i think the wilfully unimaginative see more monsters. they are often more afraid. 
+what is more, those who choose not to empathise enable real monsters. for without ever committing an act of outright evil ourselves, we collude with it, through our own apathy. 
+one of the many things i learned at the end of that classics corridor down which i ventured at the age of , in search of something i could not then define, was this, written by the greek author plutarch what we achieve inwardly will change outer reality. 
+that is an astonishing statement and yet proven a thousand times every day of our lives. it expresses, in part, our inescapable connection with the outside world, the fact that we touch other people lives simply by existing. 
+but how much more are you, harvard graduates of , likely to touch other people lives? your intelligence, your capacity for hard work, the education you have earned and received, give you unique status, and unique responsibilities. even your nationality sets you apart. the great majority of you belong to the world only remaining superpower. the way you vote, the way you live, the way you protest, the pressure you bring to bear on your government, has an impact way beyond your borders. that is your privilege, and your burden. 
+if you choose to use your status and influence to raise your voice on behalf of those who have no voice if you choose to identify not only with the powerful, but with the powerless if you retain the ability to imagine yourself into the lives of those who do not have your advantages, then it will not only be your proud families who celebrate your existence, but thousands and millions of people whose reality you have helped change. we do not need magic to change the world, we carry all the power we need inside ourselves already we have the power to imagine better. 
+i am nearly finished. i have one last hope for you, which is something that i already had at . the friends with whom i sat on graduation day have been my friends for life. they are my children godparents, the people to whom i have been able to turn in times of trouble, people who have been kind enough not to sue me when i took their names for death eaters. at our graduation we were bound by enormous affection, by our shared experience of a time that could never come again, and, of course, by the knowledge that we held certain photographic evidence that would be exceptionally valuable if any of us ran for prime minister. 
+so today, i wish you nothing better than similar friendships. and tomorrow, i hope that even if you remember not a single word of mine, you remember those of seneca, another of those old romans i met when i fled down the classics corridor, in retreat from career ladders, in search of ancient wisdom as is a tale, so is life not how long it is, but how good it is, is what matters. 
+i wish you all very good lives. thank you very much.</t>
+  </si>
+  <si>
+    <t>i said you want to be starting something you got to be starting something i said you want to be starting something you got to be starting something
+and too high to get over yeah, yeah  and too low to get under yeah, yeah  you are stuck in the middle yeah, yeah  and the pain is thunder yeah, yeah 
+and too high to get over yeah, yeah  and too low to get under yeah, yeah  you are stuck in the middle yeah, yeah  and the pain is thunder yeah, yeah 
+i took my baby to the doctor with a fever, but nothing he found by the time this hit the street they said she had a breakdown
+someone always trying to start my baby crying talking, squealing, lying saying you just want to be starting something
+i said you want to be starting something you got to be starting something i said you want to be starting something you got to be starting something
+and too high to get over yeah, yeah  and too low to get under yeah, yeah  you are stuck in the middle yeah, yeah  and the pain is thunder yeah, yeah 
+and too high to get over yeah, yeah  and too low to get under yeah, yeah  you are stuck in the middle yeah, yeah  and the pain is thunder yeah, yeah 
+you love to pretend that you are good when you are always up to no good you really ca not make him hate her so your tongue became a razor
+someone always trying to keep my baby crying treacherous, cunning, declining you got my baby crying
+i said you want to be starting something you got to be starting something i said you want to be starting something you got to be starting something
+and too high to get over yeah, yeah  and too low to get under yeah, yeah  you are stuck in the middle yeah, yeah  and the pain is thunder yeah, yeah 
+and too high to get over yeah, yeah  and too low to get under yeah, yeah  you are stuck in the middle yeah, yeah  and the pain is thunder yeah, yeah 
+you are a vegetable, you are a vegetable still they hate you, you are a vegetable you are just a buffet, you are a vegetable they eat off of you, you are a vegetable
+billie jean is always talking when nobody else is talking telling lies and rubbing shoulders so they called her mouth a motor
+someone always trying to start my baby crying talking, squealing, spying saying you just want to be starting something
+i said you want to be starting something you got to be starting something i said you want to be starting something you got to be starting something
+and too high to get over yeah, yeah  and too low to get under yeah, yeah  you are stuck in the middle yeah, yeah  and the pain is thunder yeah, yeah 
+and too high to get over yeah, yeah  and too low to get under yeah, yeah  you are stuck in the middle yeah, yeah  and the pain is thunder yeah, yeah 
+you are a vegetable, you are a vegetable still they hate you, you are a vegetable you are just a buffet, you are a vegetable they eat off of you, you are a vegetable
+if you ca not feed your baby yeah, yeah  then do not have a baby yeah, yeah  and do not think maybe yeah, yeah  if you ca not feed your baby yeah, yeah 
+you will be always trying to stop that child from crying hustling, stealing, lying now baby slowly dying
+i said you want to be starting something you got to be starting something i said you want to be starting something you got to be starting something
+it too high to get over yeah, yeah  it too low to get under yeah, yeah  you are stuck in the middle yeah, yeah  and the pain is thunder yeah, yeah 
+it too high to get over yeah, yeah  and too low to get under yeah, yeah  you are stuck in the middle yeah, yeah  and the pain is thunder yeah, yeah 
+lift your head up high and scream out to the world i know i am someone and let the truth unfurl
+no one can hurt you now because you know what true yes, i believe in me so you believe in you
+help me sing it,
+  ma ma se, ma ma sa, ma ma coo sa ma ma se, ma ma sa, ma ma coo sa
+help me sing it! sing it to the world sing it out loud help me sing it!
+  ma ma se, ma ma sa, ma ma coo sa ma ma se, ma ma sa, ma ma coo sa
+ woo hoo, he he he  help me sing it!  woo hoo, he he he  sing it to the world
+  ma ma se, ma ma sa, ma ma coo sa ma ma se, ma ma sa, ma ma coo sa
+ woo hoo, he he he  help me sing it baby! sing it to the world sing it out loud  
+i do not need no dreams when i am by your side every moment takes me to paradise darling let me hold you warm you in my arms and melt your fears away show you all the magic that a perfect love can make i need you night and day
+so baby be mine baby you gotta be mine  and girl i will give you all i got to give so baby be my girl all the time  and we can share this ecstasy as long as we believe in love
+i will not give you reason to change your mind  i guess it still you thrill me baby be mine  you are all the future that i desire girl i need to hold you share my feelings in the heat of love embrace show you all the passion burning in my heart today it never gonna fade
+so baby be mine baby you gotta be mine  and girl i will give you all i got to give so baby be my girl all the time  you are everything this world could be the reason that i live
+will not you stay with me until the morning sun i promise you now that the dawn will be different lady ca not you see that heaven just begun it living here inside our hearts
+there will be no more mountains for us to climb  i ca not be still you thrill me baby be mine  this will be a love lasting for all time girl you got to hold me we can touch the sky and light the darkest day hold me only you and i can make sweet love this way there no more i can say
+so baby be mine baby you gotta be mine   tell me that you love me  and girl i will give you all i got to give  say you are thinking of me  so baby be mine all the time   show me how it should be  you are everything this world could be the reason that i live  every night it feels alright 
+baby be my girl  tell me that you love me  and girl i will give you all i got to give  say you are thinking of me  so baby, be mine, baby, be mine  show me how it should be  you are everything this world could be to me  every night it feels alright 
+come on girl come on girl  tell me that you love me   say you are thinking of me  so baby be mine  show me how it should be  you are everything this world could be to me  every night it feels alright   
+  every night she walks right in my dreams since i met her from the start i am so proud i am the only one who is special in her heart
+the girl is mine the doggone girl is mine i know she mine because the doggone girl is mine
+  i do not understand the way you think saying that she yours not mine sending roses and your silly dreams really just a waste of time
+because she mine the doggone girl is mine do not waste your time because the doggone girl is mine
+  i love you more than he  take you anywhere 
+  but i love you endlessly  loving we will share 
+  so come and go with me two on the town
+  but we both cannot have her so it one or the other and one day you will discover that she my girl forever and ever
+  i do not build your hopes to be let down because i really feel it time
+  i know she will tell you i am the one for her because she said i blow her mind
+the girl is mine the doggone girl is mine do not waste your time because the doggone girl is mine
+  she mine, she mine no, no, no, she mine the girl is mine, the girl is mine the girl is mine, the girl is mine
+  the girl is mine mine, mine yep she mine mine, mine  the girl is mine mine, mine yep she mine mine, mine 
+  do not waste your time because the doggone girl is mine the girl is mine, the girl is mine
+  michael, we are not gonna fight about this, okay?
+  paul, i think i told you, i am a lover not a fighter
+  i have heard it all before, michael she told me that i am her forever lover, you know, do not you remember?
+  well, after loving me, she said she could not love another
+  is that what she said?
+  yes, she said it, you keep dreaming
+  i do not believe it mine, mine no
+  the girl is mine mine, mine  no, mine no, mine mine, mine 
+  she mine mine mine mine mine mine, mine, mine 
+  because the girl is mine mine, mine 
+  no girl is mine mine, mine 
+  it close to midnight and something evil lurking in the dark under the moonlight you see a sight that almost stops your heart you try to scream but terror takes the sound before you make it you start to freeze as horror looks you right between the eyes, you are paralyzed
+because this is thriller, thriller night and no one gonna save you from the beast about to strike you know it thriller, thriller night you are fighting for your life inside a killer, thriller tonight
+you hear the door slam and realize there nowhere left to run you feel the cold hand and wonder if you will ever see the sun you close your eyes and hope that this is just imagination, girl but all the while you hear a creature creeping up behind you are outta time
+because this is thriller, thriller night there is not no second chance against the thing with the forty eyes, girl thriller, thriller night you are fighting for your life inside a killer, thriller tonight
+night creatures call and the dead start to walk in their masquerade there no escaping the jaws of the alien this time they are open wide  this is the end of your life
+they are out to get you, there demons closing in on every side they will possess you unless you change that number on your dial now is the time for you and i to cuddle close together all through the night i will save you from the terror on the screen, i will make you see
+that this is thriller, thriller night because i can thrill you more than any ghoul could ever dare try thriller, thriller night so let me hold you tight and share a killer, thriller, chiller thriller here tonight
+because this is thriller, thriller night girl, i can thrill you more than any ghoul could ever dare try thriller, thriller night so let me hold you tight and share a killer, thriller
+i am gonna thrill you tonight
+  darkness falls across the land the midnight hour is close at hand creatures crawl in search of blood to terrorize you all is neighborhood and whomsoever shall be found without the soul for getting down must stand and face the hounds of hell and rot inside a corpse shell
+  i am gonna thrill you tonight...
+  the foulest stench is in the air the funk of forty thousand years and grisly ghouls from every tomb are closing in to seal your doom and though you fight to stay alive your body starts to shiver for no mere mortal can resist the evil of the thriller
+they told him, do not you ever come around here. do not want to see your face. you better disappear.  the fire in their eyes and their words are really clear so beat it, just beat it
+you better run, you better do what you can do not want to see no blood, do not be a macho man you want to be tough, better do what you can so beat it, but you want to be bad
+  just beat it, beat it, beat it, beat it no one wants to be defeated showing how funky strong is your fight it does not matter who wrong or right
+just beat it, beat it 
+they are out to get you, better leave while you can do not want to be a boy, you want to be a man you want to stay alive, better do what you can so beat it, just beat it
+you have to show them that you are really not scared you are playing with your life, this is not no truth or dare they will kick you, then they beat you, then they will tell you it fair so beat it, but you want to be bad
+  just beat it, beat it, beat it, beat it no one wants to be defeated showing how funky strong is your fight it does not matter who wrong or right
+just beat it, beat it, beat it, beat it, beat it
+beat it, beat it, beat it, beat it no one wants to be defeated showing how funky strong is your fight it does not matter who wrong or right
+  just beat it, beat it, beat it, beat it no one wants to be defeated showing how funky strong is your fight it does not matter who wrong or right
+just beat it, beat it beat it, beat it, beat it  
+she was more like a beauty queen from a movie scene i said, do not mind, but what do you mean i am the one who will dance on the floor in the round?  she said i am the one who will dance on the floor in the round
+she told me her name was billie jean as she caused a scene then every head turned with eyes that dreamed of being the one who will dance on the floor in the round
+people always told me, be careful of what you do. and do not go around breaking young girls hearts.  and mother always told me, a be careful of who you love, and be careful of what you do because the lie becomes the truth. 
+billie jean is not my lover she just a girl who claims that i am the one but the kid is not my son she says i am the one but the kid is not my son
+for forty days and for forty nights law was on her side but who can stand when she in demand her schemes and plans because we danced on the floor in the round so take my strong advice just remember to always think twice  do think twice, do think twice. 
+she told, my baby, we would danced until three.  then she looked at me then showed a photo of a baby cry his eyes looked like mine, oh, no do a dance on the floor in the round, baby
+a people always told me, be careful of what you do and do not go around breaking young girls hearts.   do not break no heart.  a but she came and stood right by me and just the smell of sweet perfume and this happened much too soon and she called me to her room
+billie jean is not my lover she just a girl who claims that i am the one but the kid is not my son  no, no, no, no, no, no, no, no.  billie jean is not my lover she just a girl who claims that i am the one but the kid is not my son she says i am the one but the kid is not my son
+she says i am the one but the kid is not my son
+no, no, no
+billie jean is not my lover she just a girl who claims that i am the one  no, there not me, baby.  but the kid is not my son  no, no, no, no, no, no, no.  she says i am the one no, babe.  but the kid is not my son, no, no, no
+she says i am the one you know what you did she says he is my son breaking my heart, babe she says i am the one
+billie jean is not my lover billie jean is not my lover billie jean is not my lover she is the one billie jean is not my lover she is the one do not call me billie jean billie jean is not my lover she is the one she stumbled onto the scene billie jean is not my lover billie jean is not my lover  
+looking out across the night time the city winks a sleepless eye hear her voice shake my window sweet seducing sighs
+get me out into the night time four walls will not hold me tonight if this town is just an apple then let me take a bite
+if they say, why? why?  tell them that is human nature why, why does he do it that way? if they say, why? why?  tell them that is human nature why, why does he do it that way?
+reaching out to touch a stranger electric eyes are everywhere see that girl she knows i am watching she likes the way i stare
+if they say, why? why?  just tell them that is human nature why, why does he do it that way? if they say, why? why?   do you really like me to be around?  tell them that is human nature why, why does he do it that way? i like living this way i like loving this way
+that way the way it was.  that way the way it was. 
+looking out across the morning the city heart begins to beat reaching out i touch her shoulder i am dreaming of the street
+if they say, why? why?  tell them that is human nature why, why does he do it that way? if they say, why? why?   just tell me you like me to be around.  ooh, tell them why, why does he do it that way?
+if they say, why? why? 
+why, why does he do it that way? if they say, why? why?   just tell me you like me to be around.  ooh, tell them why, why does he do it that way?
+and they say, why? why?  ooh, tell them why, why does he do it that way?
+they say, why? why?   just tell me you like me to be around.  why, why does he do it that way? i like living this way
+the way the way  
+you know, you you make me feel so good inside i always wanted a girl just like you you are such a p.y.t. pretty young thing
+where did you come from baby and ooh will not you take me there? right away will not you baby tenderoni you have got to be spark my nature sugar fly with me
+do not you know now is the perfect time we can make it right hit the city lights
+then tonight ease the love and pain let me take you to the max
+i want to love you p.y.t.  pretty young thing you need some loving t.l.c.  tender love, and care and i will take you there i want to love you p.y.t.  pretty young thing you need some loving t.l.c.  tender love, and care and i will take you there
+anywhere you want to go yes, i will. 
+nothing can stop this burning desire to be with you gotta get to you baby will not you come, it emergency cool my fire yearning honey, come set me free
+do not you know now is the perfect time we can dim the lights just to make it right
+in the night hit the loving spot i will give you all that i have got
+i want to love you p.y.t.  pretty young thing you need some loving t.l.c.  tender love, and care and i will take you there yes, i will.  i want to love you p.y.t.  pretty young thing you need some loving t.l.c.  tender love, and care and i will take you there yes, i will
+pretty young thing you make me say pretty young thing you make me say
+pretty young things, repeat after me  say na, na, na.   na, na, na  na, na, na, na  na, na, na, na  say na, na, na.   na, na, na  na, na, na, na, na  na, na, na, na, na  i will take you there, take you there
+i want to love you p.y.t.  pretty young thing you need some loving t.l.c.  tender love, and care and i will take you there take you there take you there
+i want to love you p.y.t.  pretty young thing you need some loving t.l.c.  tender love, and care and i will take you there take you there
+  i want to love you p.y.t.  pretty young thing oh, baby you need some loving t.l.c.  pretty young thing oh, darling you know i think you are really, really nice you and i could have, could have just put together you are such a p.y.t. pretty young thing i just want to love you, you know, it i would give you all  
+there will be no darkness tonight lady our love will shine  lighting the night  just put your trust in my heart and meet me in paradise  now is the time  girl, you are every wonder in this world to me a treasure time will not steal away
+so listen to my heart lay your body close to mine let me fill you with my dreams i can make you feel alright and baby through the years gonna love you more each day so i promise you tonight that you will always be the lady in my life
+lay back in my tenderness let make this a night we will not forget girl, i need your sweet caress, oh reach out to a fantasy two hearts in a beat of ecstasy come to me, girl
+and i will keep you warm through the shadows of the night let me touch you with my love i can make you feel so right and baby through the years even when we are old and gray i will love you more each day because you will always be the lady in my life
+stay with me i want you to stay with me i need you by my side do not you go nowhere  ooh girl let me keep you warm  let me keep you warm  you are the lady in my life  you are my lady  fill you with the sweetest love  the sweetest love  always the lady in my life  i want to touch you baby
+ lay back in my tenderness   you are the lady in my life  doo doo doo  rock me with your sweet caress   always the lady in my life  you are my lady and i love you girl
+ ooh girl let me keep you warm   you are the lady in my life  do not you go nowhere  fill you with the sweetest love  i love you i love you  always the lady in my life  i need you i want you, baby
+ lay back in my tenderness  stay with me  you are the lady in my life  do not you go no where  rock me with your sweet caress  and i love you baby  always the lady in my life  woo
+ooh baby do not you go nowhere you are my lady all through the night
+ ooh girl let me keep you warm  i want to give you all  you are the lady in my life  in my life  fill you with the sweetest love  let me fill you baby  always the lady in my life  all over all over all over
+ lay back in my tenderness  lay back with me  you are the lady in my life  let me touch you girl  rock me with your sweet caress  lay back with me  always the lady in my life  all over 
+ ooh girl let me keep you warm  baby  you are the lady in my life  woo  fill you with the sweetest love   always the lady in my life  you are my lady
+ lay back in my tenderness  you are my lady baby  
+she from a world of popcorn and candy pony rides for a dime little children laughing
+i am from a world of disappointments and confusions but i want her to be mine i started talking she kept on walking she disappeared into the crowd
+i lost my heart on the carousel to a circus girl who left my heart in pieces lost my heart on the carousel to a circus girl who ran away.
+i was the clown and she was the dancer we both knew it would not work but we took our chances what i ca not recall is if there was a girl at all or was it my imagination? i still remember all of those faces and now all i have is memories.
+i lost my heart on the carousel to a circus girl who left my heart in pieces lost my heart on the carousel to a circus girl who ran away.
+two different people in love for an instant to see that the circus came today sometimes i can hear the calliope and i can hear her calling me.
+do not you know? i lost my heart on the carousel to a circus girl who left my heart in pieces lost my heart on the carousel to a circus girl who ran away</t>
+  </si>
+  <si>
+    <t>on a dark desert highway, cool wind in my hair warm smell of colitas, rising up through the air up ahead in the distance, i saw a shimmering light my head grew heavy and my sight grew dim i had to stop for the night there she stood in the doorway i heard the mission bell and i was thinking to myself  this could be heaven or this could be hell  then she lit up a candle and she showed me the way there were voices down the corridor i thought i heard them say
+welcome to the hotel california such a lovely place such a lovely place  such a lovely face plenty of room at the hotel california any time of year any time of year  you can find it here
+her mind is tiffany twisted, she got the mercedes bends she got a lot of pretty, pretty boys she calls friends how they dance in the courtyard, sweet summer sweat some dance to remember, some dance to forget
+so i called up the captain  please bring me my wine.  he said, we have not had that spirit here since nineteen sixty nine.  and still those voices are calling from far away wake you up in the middle of the night just to hear them say
+welcome to the hotel california such a lovely place such a lovely place  such a lovely face they living it up at the hotel california what a nice surprise what a nice surprise  bring your alibis
+mirrors on the ceiling the pink champagne on ice and she said we are all just prisoners here, of our own device  and in the master chambers they gathered for the feast they stab it with their steely knives but they just ca not kill the beast
+last thing i remember i was running for the door i had to find the passage back to the place i was before  relax, said the night man  we are programmed to receive you can check out any time you like but you can never leave!   
+there talk on the street it sounds so familiar great expectations, everybody watching you people you meet they all seem to know you even your old friends treat you like you are something new
+johnny come lately, the new kid in town everybody loves you, so do not let them down
+you look in her eyes the music begins to play hopeless romantics, here we go again but after awhile you are looking the other way it those restless hearts that never mend
+johnny come lately, the new kid in town will she still love you when you are not around?
+there so many things you should have told her but night after night you are willing to hold her just hold her tears on your shoulder
+there talk on the street it there to remind you it does not really matter which side you are on you are walking away and they are talking behind you they will never forget you until somebody new comes along
+where you have been lately? there a new kid in town everybody loves him do not they? now he holding her, and you are still around
+oh, my, my there a new kid in town just another new kid in town
+everybody talking about the new kid in town everybody walking like the new kid in town
+there a new kid in town i do not want to hear it there a new kid in town i do not want to hear it there a new kid in town there a new kid in town
+there a new kid in town  everybody talking  there a new kid in town  people started walking  there a new kid in town there a new kid in town  
+he was a hard headed man, he was brutally handsome, and she was terminally pretty she held him up, and he held her for ransom in the heart of the cold, cold city
+he had nasty reputation as a cruel dude they said he was ruthless, said he was crude they had one thing in common, they were good in bed she would say, faster, faster. the lights are turning red. 
+life in the fast lane surely make you lose your mind life in the fast lane
+are you with me so far?
+eager for action, hot for the game the coming attraction, the drop of a name
+they knew all the right people, they took all the right pills they threw outrageous parties, they paid heavenly bills
+there were lines on the mirror, lines on her face she pretended not to notice, she was caught up in the race
+out every evening, until it was light he was too tired to make it, she was too tired to fight about it
+life in the fast lane surely make you lose your mind life in the fast lane life in the fast lane, everything all the time life in the fast lane
+blowing and burning, blinded by thirst they did not see the stop sign, took a turn for the worst
+she said, listen, baby. you can hear the engine ring. we have been up and down this highway have not seen a goddamn thing. 
+he said, call the doctor. i think i am gonna crash.   the doctor say he coming, but you gotta pay him cash. 
+they went rushing down that freeway, messed around and got lost they did not care they were just dying to get off and it was...
+life in the fast lane surely make you lose your mind life in the fast lane life in the fast lane, everything all the time life in the fast lane,
+life in the fast lane life in the fast lane  
+well, baby, there you stand with your little head down in your hand
+oh, my god, you ca not believe it happening again your baby gone, and you are all alone and it looks like the end.
+and you are back out on the street. and you are trying to remember.
+how do you start it over? you do not know if you can. you do not care much for a stranger touch, but you ca not hold your man.
+you never thought you would be alone this far down the line and i know what been on your mind you are afraid it all been wasted time
+the autumn leaves have got you thinking about the first time that you fell you did not love the boy too much, no, no, you just loved the boy too well, well, well.
+so you live from day to day, and you dream about tomorrow
+and the hours go by like minutes and the shadows come to stay so you take a little something to make them go away
+i could have done so many things, baby if i could only stop my mind from wondering what i left behind and from worrying about this wasted time
+another love has come and gone and the years keep rushing on
+i remember what you told me before you went out on your own,  sometimes to keep it together, we got to leave it alone. 
+so you can get on with your search, baby, and i can get on with mine and maybe someday we will find that it was not really wasted time  
+what kind of love have you got? you should be home, but you are not a room full of noise and dangerous boys still makes you thirsty and hot
+i heard about you and that man there just one thing i do not understand you say he a liar and he put out your fire how come you still got his gun in your hand?
+victim of love, i see your broken heart you got your stories to tell victim of love, it such an easy part and you know how to play it so well
+some people never come clean i think you know what i mean you are walking the wire pain and desire looking for love in between
+tell me your secrets, i will tell you mine this is not no time to be cool and tell all your girlfriends, your been around the world friends that talk is for losers and fools
+victim of love, i see your broken heart i could be wrong, but i am not, no, i am not victim of love, we are not so far apart show me, what kind of love have you got?
+victim of love, i see your broken heart i could be wrong, but i am not victim of love, we are not so far apart what kind of love have you got?
+victim of love, you are just a victim of love i could be wrong, but i am not, no, i am not victim of love, now you are a victim of love what kind of love have you got? what kind of love have you got? what kind of love have you got?  
+hi there. how are you? it been a long time seems like we have come a long way my, but we learn so slow and heroes, they come and they go and leave us behind as if we are supposed to know why
+why do we give up our hearts to the past? and why must we grow up so fast?
+and all you wishing well fools with your fortunes someone should send you a rose with love from a friend, it nice to hear from you again
+and the storybook comes to a close gone are the ribbons and bows things to remember places to go pretty maids all in a row  
+when you are out there on your own where your memories can find you like a circle goes around you were lost until you found out what it all comes down to
+one by one the lonely feelings come day by day, they slowly fade away
+oh, the look was in her eyes you never know what might be found there she was dancing right in time and the moves she made so fine like the music that surrounds her
+should i stay or go? i really want to know would i lose or win if i try and love again? gonna try and love again i am gonna try and love again gonna try and love
+right or wrong, what done is done it only moments that you borrow but the thoughts will linger on of the lady and her song when the sun comes up tomorrow well, it might take years to see through all these tears do not let go when you find it you will know
+oh, gonna try and love again oh, gonna try and love again oh, gonna try and love again sometimes lose, sometimes win, sometimes you need a friend gonna try, gonna try gonna try, gonna try   
+she came from providence one in rhode island where the old world shadows hang heavy in the air she packed her hopes and dreams like a refugee just as her father came across the sea
+she heard about a place people were smiling they spoke about the red man way how they loved the land and they came from everywhere to the great divide seeking a place to stand or a place to hide
+down in the crowded bars out for a good time ca not wait to tell you all what it like up there they called it paradise i do not know why somebody laid the mountains low while the town got high
+then the chilly winds blew down across the desert through the canyons of the coast to the malibu where the pretty people play hungry for power to light their neon way give them things to do
+some rich men came and raped the land nobody caught them put up a bunch of ugly boxes and jesus people bought them they called it paradise the place to be they watched the hazy sun sinking in the sea
+you can leave it all behind and sail to lahaina just like the missionaries did so many years ago they even brought a neon sign jesus is coming  brought the white man burden down brought the white man reign
+who will provide the grand design? what is yours and what is mine? because there is no more new frontier we have got to make it here
+we satisfy our endless needs and justify our bloody deeds in the name of destiny and in the name of god
+and you can see them there on sunday morning they stand up and sing about what it like up there they call it paradise i do not know why you call someplace paradise kiss it goodbye</t>
+  </si>
+  <si>
+    <t>hey, hey mama, said the way you move gonna make you sweat, gonna make you groove
+uh uh child, way you shake that thing gonna make you burn, gonna make you sting
+hey, hey, baby, when you walk that way watch your honey drip, ca not keep away
+ah, yeah, ah, yeah, ah, ah, ah ah, yeah, ah, yeah, ah, ah, ah
+i gotta roll, ca not stand still got a flaming heart, ca not get my fill
+eyes that shine, burning red dreams of you all through my head
+ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah
+hey hey, baby, oh, baby, pretty baby darling ca not you do me now?
+hey, baby, oh, baby, pretty baby move me while you do me now
+did not take too long before i found out what people mean by down and out
+spent my money, took my car started telling her friends she gonna be a star
+i do not know, but i been told a big legged woman is not got no soul
+oh, yeah, oh, yeah, ah, ah, ah oh, yeah, oh, yeah, ah, ah, yeah
+all i ask for, all i pray steady loaded woman gonna come my way
+need a woman, gonna hold my hand will tell me no lies, make me a happy man
+ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah
+la da ah e ah
+yes i will. and, yes, i really, really do, baby, baby, baby
+i can really do you, huh? ooh, wow, you do it, baby push it, baby, push it, baby, push it, baby, push it, baby push it, baby, push it, babe, babe ooh, ooh, aah ooh. ooh. i would really like to do it now i would really like to do it now  
+it been a long time since i rock and rolled. it been a long time since i did the stroll. ooh, let me get it back, let me get it back, let me get it back, baby, where i come from.
+it been a long time, been a long time, been a long lonely, lonely, lonely, lonely, lonely time.
+yes, it has.
+it been a long time since the book of love. i ca not count the tears of a life with no love. carry me back, carry me back, carry me back, baby, where i come from.
+it been a long time, been a long time, been a long lonely, lonely, lonely, lonely, lonely time.
+seems so long since we walked in the moonlight, making vows that just ca not work right. open your arms, open your arms, open your arms, baby, let my love come running in.
+it been a long time, been a long time, been a long lonely, lonely, lonely, lonely, lonely time.
+it been a long time, been a long time, been a long lonely, lonely, lonely, lonely, lonely time.  
+the queen of light took her bow, and then she turned to go, the prince of peace embraced the gloom, and walked the night alone.
+oh, dance in the dark of night, sing to the morning light. the dark lord rides in force tonight, and time will tell us all.
+oh, throw down your plow and hoe, rest not to lock your homes. side by side we wait the might of the darkest of them all.
+i hear the horses thunder down in the valley below, i am waiting for the angels of avalon, waiting for the eastern glow.
+the apples of the valley hold the seeds of happiness, the ground is rich from tender care, repay, do not forget, no, no.
+dance in the dark of night, sing to the morning light. the apples turn to brown and black, the tyrant face is red.
+oh war is the common cry, pick up your swords and fly. the sky is filled with good and bad that mortals never know.
+oh, well, the night is long, the beads of time pass slow, tired eyes on the sunrise, waiting for the eastern glow.
+the pain of war cannot exceed the woe of aftermath, the drums will shake the castle wall, the ringwraiths ride in black, ride on.
+sing as you raise your bow,  ride on  shoot straighter than before. no comfort has the fire at night that lights the face so cold.
+oh dance in the dark of night, sing to the morning light. the magic runes are writ in gold to bring the balance back. bring it back.
+at last the sun is shining, the clouds of blue roll by, with flames from the dragon of darkness, the sunlight blinds his eyes.
+bring it back, bring it back, bring it back, bring it back, bring it back, bring it back, bring it back, bring it back
+oh now oh now oh now oh, oh now oh now oh now bring it back, bring it back, bring it back, bring it back oh now oh now oh now oh, oh now oh now oh now bring it bring it bring it bring it bring it  
+there a lady who sure all that glitters is gold and she buying a stairway to heaven. when she gets there she knows, if the stores are all closed with a word she can get what she came for. ooh, ooh, and she buying a stairway to heaven.
+there a sign on the wall but she wants to be sure because you know sometimes words have two meanings. in a tree by the brook, there a songbird who sings, sometimes all of our thoughts are misgiven.
+ooh, it makes me wonder, ooh, it makes me wonder.
+there a feeling i get when i look to the west, and my spirit is crying for leaving. in my thoughts i have seen rings of smoke through the trees, and the voices of those who stand looking.
+ooh, it makes me wonder, ooh, it really makes me wonder.
+and it whispered that soon, if we all call the tune, then the piper will lead us to reason. and a new day will dawn for those who stand long, and the forests will echo with laughter.
+if there a bustle in your hedgerow, do not be alarmed now, it just a spring clean for the may queen. yes, there are two paths you can go by, but in the long run there still time to change the road you are on. and it makes me wonder.
+your head is humming and it will not go, in case you do not know, the piper calling you to join him, dear lady, can you hear the wind blow, and did you know your stairway lies on the whispering wind?
+and as we wind on down the road our shadows taller than our soul. there walks a lady we all know who shines white light and wants to show how everything still turns to gold. and if you listen very hard the tune will come to you at last. when all are one and one is all to be a rock and not to roll.
+and she buying a stairway to heaven.  
+walking in the park just the other day, baby,  what do you, what do you think i saw?  crowds of people sitting on the grass with flowers in their hair said,   hey, boy, do you want to score?  and you know how it is  i really do not know what time it was, woh, oh,  so i asked them if i could stay awhile. 
+i did not notice but it had got very dark and i was really,  really out of my mind.  just then a policeman stepped up to me and asked us said,   please, hey, would we care to all get in line,  get in line.  well you know, they asked us to stay for tea and have some fun,  oh, oh, he said that his friends would all drop by, ooh. 
+why do not you take a good look at yourself and describe what you see,  and baby, baby, baby, do you like it?  there you sit, sitting spare like a book on a shelf rusting  ah, not trying to fight it.  you really do not care if they are coming, oh, oh,  i know that it all a state of mind, ooh. 
+if you go down in the streets today, baby, you better,  you better open your eyes.  folk down there really do not care, really do not care, do not care, really do not  which, which way the pressure lies,  so i have decided what i am gonna do now.  so i am packing my bags for the misty mountains  where the spirits go now,  over the hills where the spirits fly, ooh.  i really do not know.  
+one, two, three, four, five, six. one, two, three. one.
+oh, baby, it crying time,  oh, baby, i got to fly. got to try to find a way,  got to try to get away, because you know i gotta get away from you, babe.
+oh, baby, the river red,  oh, baby, in my head. there a funny feeling going on.  i do not think i can hold out long.
+and when the owls cry in the night,  oh, baby, baby, when the pines begin to cry, baby, baby, baby, how do you feel?  if the rivers run dry, baby, how would you feel?
+craze, baby, the rainbow end,  mm, baby, it just a den for those who hide,  who hide their love to depths of life and ruin dreams that we all knew so, babe.
+and when the owls cry in the night,  oh, baby, baby, when the pines begin to cry, baby, baby, baby, how do you feel?  if the rivers run dry, baby, how do you feel?
+baby, how do you feel?
+ooh yeah, brave i endure. ooh yeah, strong shields and lore. they ca not hold the wrath of those who walk, and the boots of those who march, baby, through the roads of time so long ago.  
+spent my days with a woman unkind smoked my stuff and drank all my wine made up my mind to make a new start going to california with an aching in my heart
+someone told me there a girl out there with love in her eyes and flowers in her hair
+took my chances on a big jet plane never let them tell you that they are all the same the sea was red and the sky was grey wondered how tomorrow could ever follow today
+mountains and the canyons start to tremble and shake the children of the sun begin to awake watch out
+seems that the wrath of the gods got a punch on the nose and it started to flow i think i might be sinking throw me a line if i reach it in time i will meet you up there where the path runs straight and high
+to find a queen without a king they say she plays guitar and cries and sings ride a white mare in the footsteps of dawn trying to find a woman who never, never, never been born standing on a hill in the mountain of dreams telling myself it not as hard, hard, hard as it seems  
+if it keeps on raining, levee going to break if it keeps on raining, levee going to break when the levee breaks i will have no place to stay
+mean old levee taught me to weep and moan mean old levee taught me to weep and moan it got what it takes to make a mountain man leave his home oh, well, oh, well, oh, well
+do not it make you feel bad when you are trying to find your way home you do not know which way to go? if you are going down south then there no work to do if you re going north there chicago
+crying will not help you, praying will not do you no good now, crying will not help you, praying will not do you no good when the levee breaks, mama, you got to move
+all last night i sat on the levee and moaned all last night sat on the levee and moaned thinking about my baby and my happy home
+going, i am going to chicago going to chicago sorry but i ca not take you going down... going down now going down... going down now going down going down going down
+going down going down now going down going down now
+going down going down now going down going down</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> we came in 
+so you thought you might like to go to the show to feel the warm thrill of confusion that space cadet glow
+tell me is something eluding you sunshine? is this not what you expected to see?
+if you want to find out what behind these cold eyes you will just have to claw your way through this disguise  
+momma loves her baby and daddy loves you too and the sea may look warm to you, babe and the sky may look blue
+ooh, babe ooh, baby blue ooh, babe
+if you should go skating on the thin ice of modern life dragging behind you the silent reproach of a million tear stained eyes
+do not be surprised, when a crack in the ice appears under your feet you slip out of your depth and out of your mind with your fear flowing out behind you as you claw the thin ice  
+daddy flown across the ocean leaving just a memory a snap shot in the family album daddy what else did you leave for me?
+daddy what would you leave behind for me?
+all in all it was just a brick in the wall all in all it was all just bricks in the wall  
+you! yes, you! stand still, laddy!
+when we grew up and went to school there were certain teachers who would hurt the children any way they could
+by pouring their derision upon anything we did exposing every weakness however carefully hidden by the kids
+but in the town it was well known when they got home at night, their fat and psychopathic wives would thrash them within inches of their lives  
+we do not need no education we do not need no thought control no dark sarcasm in the classroom teacher, leave them kids alone
+hey, teacher, leave them kids alone
+all in all it just another brick in the wall all in all you are just another brick in the wall
+we do not need no education we do not need no thought control no dark sarcasm in the classroom teachers, leave them kids alone
+hey, teacher, leave us kids alone
+all in all you are just another brick in the wall all in all you are just another brick in the wall
+  wrong! do it again! wrong! do it again! if you do not eat your meat, you ca not have any pudding! how can you have any pudding if you do not eat your meat?! you! yes, you, behind the bike sheds, stand still, laddy!  
+mother, do you think they will drop the bomb? mother, do you think they will like this song? mother, do you think they will try to break my balls? ooh, aah, mother, should i build the wall?
+mother, should i run for president? mother, should i trust the government? mother, will they put me in the firing line? ooh, aah, is it just a waste of time?
+hush now, baby, baby, do not you cry mama gonna make all of your nightmares come true mama gonna put all of her fears into you mama gonna keep you right here under her wing she will not let you fly but she might let you sing mama gonna keep baby cozy and warm
+ooh, babe, ooh, babe, ooh, babe of course mama gonna help build the wall
+mother, do you think she good enough for me? mother, do you think she dangerous to me? mother, will she tear your little boy apart? ooh, aah, mother, will she break my heart?
+hush now, baby, baby, do not you cry mama gonna check out all your girlfriends for you mama will not let anyone dirty get through mama gonna wait up until you get in mama will always find out where you have been mamma gonna keep baby healthy and clean
+ooh, babe, ooh, babe, ooh, babe you will always be a baby to me
+mother, did it need to be so high?  
+  look, mummy. there an airplane up in the sky.
+did, did, did, did you see the frightened ones? did, did, did, did you hear the falling bombs? did, did, did, did you ever wonder why we had to run for shelter when the promise of a brave new world unfurled beneath a clear blue sky?
+did, did, did, did you see the frightened ones? did, did, did, did you hear the falling bombs? the flames are all long gone but the pain lingers on
+goodbye blue sky goodbye blue sky goodbye goodbye  
+  hello, luka ... congratulations. you have just discovered the secret message. please send your answer to old pink, care of the funny farm, chalfont... roger! carolyne on the phone! okay
+what shall we use to fill the empty spaces where we used to talk? how shall i fill the final places? how should i complete the wall  
+i am just a new boy  a stranger in this town  where are all the good times  who gonna show this stranger around?  ooooooooh i need a dirty woman  ooooooooh i need a dirty girl  will some woman in this desert land  make me feel like a real man  take this rock and roll refugee  oooh babe set me free 
+ooooooooh i need a dirty woman  ooooooooh i need a dirty girl.  ooooooooh i need a dirty woman  ooooooooh i need a dirty girl.
+  hello? yes, a collect call for mrs. floyd from mr. floyd will you accept the charges from united states? oh, he hung up! that your residence, right? i wonder why he hung up? is there supposed to be someone else there besides your wife there to answer? hello? this is united states calling, are we reaching  see he keeps hanging up, and it a man answering  
+ oh my god! what a fabulous room! are all these your guitars?   i am sorry sir, i did not mean to startle you!   god! this place is bigger than our apartment!   let me know when you are entering a room.   yes, sir!   uh, can i get a drink of water?   i was wondering about dinner, sir.   you want some, huh?   yes?   when do you and your guests want to dine? i have to inform the kitchen staff.   oh wow, look at this tub? want to take a bath?   yes, i am aware of your duties dobbs.   yes, sir.   i will have to find out from mrs. bancroft what time she wants to eat. as for her maid, needless to say, she can have her meal with the kitchen help.   what are you watching?   very good, sir. if you will just let me know as soon as you can when you and mrs bancroft want to eat.   mrs. bancroft will be dining alone.   hello?   why? i do not understand, sir.   i will not be staying for dinner.   are you feeling okay?...   i am surprised to hear that, sir, since you just arrived.   yes, i am a little surprised about it myself. 
+day after day, love turns grey like the skin of a dying man night after night, we pretend it all right but i have grown older and you have grown colder and nothing is very much fun any more and i can feel one of my turns coming on i feel cold as a razor blade tight as a tourniquet dry as a funeral drum
+run to the bedroom in the suitcase on the left you will find my favourite axe do not look so frightened this is just a passing phase one of my bad days would you like to watch t.v.? or get between the sheets? or contemplate the silent freeway? would you like something to eat? would you like to learn to fly? would you? would you like to see me try?
+would you like to call the cops? do you think it time i stopped? why are you running away?  
+ooh babe do not leave me now
+do not say it the end of the road remember the flowers i sent i need you babe to put through the shredder in front of my friends
+ooh babe do not leave me now
+how could you go when you know how i need you?
+to beat to a pulp on a saturday night
+ooh babe do not leave me now
+how can you treat me this way running away
+ooh babe why are you running away? ooh babe!  
+i do not need no arms around me and i do not need no drugs to calm me i have seen the writing on the wall do not think i need anything at all
+no, do not think i will need anything at all
+all in all it was all just bricks in the wall all in all you were all just bricks in the wall  
+goodbye cruel world i am leaving you today goodbye goodbye goodbye
+goodbye all you people there nothing you can say to make me change my mind goodbye.  
+hey, you! out there in the cold getting lonely, getting old. can you feel me?
+hey, you! standing in the aisles with itchy feet and fading smiles. can you feel me?
+hey, you! do not help them to bury the light. do not give in without a fight.
+hey, you! out there on your own sitting naked by the phone. would you touch me?
+hey, you! with your ear against the wall waiting for someone to call out. would you touch me?
+hey, you! would you help me to carry the stone? open your heart, i am coming home
+but it was only fantasy. the wall was too high as you can see. no matter how he tried he could not break free. and the worms ate into his brain.
+hey, you! out there on the road, always doing what you are told. can you help me?
+hey, you! out there beyond the wall, breaking bottles in the hall. can you help me?
+hey, you! do not tell me there no hope at all. together we stand, divided we fall.  
+is there anybody out there? is there anybody out there? is there anybody out there? is there anybody out there?  
+i have got a little black book with my poems in i have got a bag with a toothbrush and a comb in when i am a good dog they sometimes throw me a bone in
+i got elastic bands keeping my shoes on got those swollen hand blues. i got thirteen channels of shit on the t.v. to choose from
+i have got electric light and i have got second sight got amazing powers of observation
+and that is how i know when i try to get through on the telephone to you there will be nobody home
+i have got the obligatory hendrix perm and the inevitable pinhole burns all down the front of my favourite satin shirt
+i have got nicotine stains on my fingers i have got a silver spoon on a chain i have got a grand piano to prop up my mortal remains
+i have got wild staring eyes i have got a strong urge to fly but i have got nowhere to fly to
+ooh, babe, when i pick up the phone there still nobody home
+i have got a pair of gohills boots but i have got fading roots.  
+does anybody here remember vera lynn? remember how she said that we would meet again some sunny day?
+vera! vera! what has become of you? does anybody else in here feel the way i do?  
+bring the boys back home  bring the boys back home  do not leave the children on their own  bring the boys back home  
+hello is there anybody in there? just nod if you can hear me is there anyone at home?
+come on now i hear you are feeling down well, i can ease your pain get you on your feet again
+relax i will need some information first just the basic facts can you show me where it hurts?
+there is no pain, you are receding a distant ship smoke on the horizon you are only coming through in waves your lips move but i ca not hear what you are saying when i was a child i had a fever my hands felt just like two balloons now i have got that feeling once again i ca not explain, you would not understand this is not how i am i have become comfortably numb
+i have become comfortably numb
+o.k. just a little pin prick there will be no more aaaaaaaah! but you may feel a little sick
+can you stand up? i do believe it working, good that will keep you going through the show come on, it time to go
+there is no pain you are receding a distant ship smoke on the horizon you are only coming through in waves your lips move but i ca not hear what you are saying when i was a child i caught a fleeting glimpse out of the corner of my eye i turned to look but it was gone i cannot put my finger on it now the child is grown the dream is gone i have become comfortably numb  
+ooh ma ooh pa must the show go on?
+ooh pa take me home ooh ma let me go
+there must be some mistake i did not mean to let them take away my soul am i too old? is it too late?
+ooh ma ooh pa where has the feeling gone? ooh ma ooh pa will i remember the songs? ooh ah the show must go on.  
+so you thought you might like to go to the show to feel the warm thrill of confusion that space cadet glow
+i got some bad news for you sunshine pink is not well, he stayed back at the hotel and they sent us along as a surrogate band we are gonna find out where you fans really stand
+are there any queers in the theatre tonight? get them up against the wall against the wall  now there one in the spotlight, he do not look right to me get him up against the wall against the... 
+and that one looks jewish and that one a coon who let all this riff raff into the room? there one smoking a joint and another with spots if i had my way i would have all of you shot  
+run, run, run, run  you better make your face up in your favourite disguise with your button down lips and your roller blind eyes with your empty smile and your hungry heart feel the bile rising from your guilty past with your nerves in tatters as the cockleshell shatters and the hammers batter down your door you better run
+run, run, run, run  you better run all day and run all night and keep your dirty feelings deep inside. and if you are taking your girlfriend out tonight you better park the car well out of sight because if they catch you in the back seat trying to pick her locks they are gonna send you back to mother in a cardboard box you better run  
+eins, zwei, drei, alle
+ooh ooh, you cannot reach me now ooh ooh, no matter how you try goodbye, cruel world, it over walk on by
+sitting in a bunker here behind my wall waiting for the worms to come worms to come 
+in perfect isolation here behind my wall waiting for the worms to come
+waiting to cut out the deadwood waiting to clean up the city waiting to follow the worms
+waiting to put on a black shirt waiting to weed out the weaklings waiting to smash in their windows and kick in their doors
+waiting for the final solution to strengthen the strain waiting to follow the worms
+waiting to turn on the showers and fire the ovens waiting for the queens and the coons and the reds and the jews waiting to follow the worms
+would you like to see britannia rule again my friend? all you have to do is follow the worms
+would you like to send our coloured cousins home again my friend? all you need to do is follow the worms  
+stop i want to go home take off this uniform and leave the show and i am waiting in this cell because i have to know have i been guilty all this time  
+  good morning, the worm your honour the crown will plainly show the prisoner who now stands before you was caught red handed showing feelings showing feelings of an almost human nature this will not do
+call the schoolmaster!
+  i always said he would come to no good in the end, your honour if they would let me have my way i could have flayed him into shape but my hands were tied the bleeding hearts and artists let him get away with murder let me hammer him today
+  crazy toys in the attic, i am crazy truly gone fishing they must have taken my marbles away
+  crazy toys in the attic he is crazy
+  you little shit, you are in it now i hope they throw away the key you should have talked to me more often than you did, but no, you had to go your own way. have you broken any homes up lately?
+ just five minutes, worm your honour, him and me alone 
+  babe come to mother, baby, let me hold you in my arms my lord i never wanted him to get in any trouble why would he ever have to leave me? worm your honour, let me take him home
+  crazy over the rainbow i am crazy bars in the window there must have been a door there in the wall when i came in
+  crazy over the rainbow he is crazy
+  the evidence before the court is incontrovertible. there no need for the jury to retire. in all my years of judging i have never heard before of someone more deserving the full penalty of law. the way you made them suffer  your exquisite wife and mother  fills me with the urge to defecate  go on, judge. shit on him.  since, my friend, you have revealed your deepest fear i sentence you to be exposed before your peers.
+tear down the wall
+  tear down the wall   
+all alone or in twos the ones who really love you walk up and down outside the wall
+some hand in hand and some gathered together in bands the bleeding hearts and the artists make their stand
+and when they have given you their all some stagger and fall, after all it not easy banging your heart against some mad bugger wall
+is not this where we...</t>
+  </si>
+  <si>
+    <t>i am rolling thunder pouring rain i am coming on like a hurricane my lightning flashing across the sky you are only young but you are gonna die i will not take no prisoners will not spare no lives nobody putting up a fight i got my bell i am gonna take you to hell i am gonna get you satan get you
+hells bells hells bells, you got me ringing hells bells, my temperature high hells bells
+i will give you black sensations up and down your spine if you are into evil you are a friend of mine see the white light flashing as i split the night cause if good on the left then i am sticking to the right i will not take no prisoners will not spare no lives nobody putting up a fight i got my bell i am gonna take you to hell i am gonna get you satan get you
+hells bells hells bells, you got me ringing hells bells, my temperature high hells bells
+hells bells, satan coming to you hells bells, he ringing them now
+those hells bells, the temperature high hells bells, across the sky hells bells, they are taking you down hells bells, they are dragging you under hells bells, gonna split the night hells bells, there no way to fight
+hells bells  
+all you women who want a man of the street do not know which way you want to turn just keep a coming and put your hand out to me cause i am the one who gonna make you burn
+i am gonna take you down down down down so do not you fool around i am gonna pull it, pull it pull the trigger
+shoot to thrill play to kill too many women too many pills, yeah shoot to thrill play to kill i got my gun at the ready gonna fire at will
+i am like evil i get under your skin just like a bomb that ready to blow cause i am illegal i got everything that all you women might need to know
+i am gonna take you down yeah down, down, down so do not you fool around i am gonna pull it, pull it pull the trigger
+shoot to thrill play to kill too many women too many pills shoot to thrill play, to kill i got my gun at the ready gonna fire at will cause i shoot to thrill and i am ready to kill i ca not get enough and i ca not get my fill shoot to thrill, play to kill pull the trigger, pull it pull it pull it pull the trigger
+shoot to thrill play to kill too many women too many pills, said shoot to thrill play to kill i got my gun at the ready gonna fire at will cause i shoot to thrill and i am ready to kill i ca not get enough and i ca not get my fill cause i shoot to thrill, play to kill
+yeah shoot you down, yeah i am gonna get you down on the bottom girl shoot you, i am gonna shoot you oh yeah, yeah, yeah, yeah i am gonna shoot you down, yeah yeah i am gonna get you down, down down down down
+shoot you, shoot you, shoot you, shoot you down shoot you, shoot you, shoot you down
+i am gonna shoot to thrill play to kill shoot to thrill  
+you working in bars riding in cars never gonna give it for free your apartment with a view on the finest avenue looking at your beat on the street you are always pushing, shoving, satisfied with nothing you bitch you must be getting old so stop your life on the road all your digging for gold you make me wonder yes i wonder i wonder honey, what do you do for money honey, what do you do for money where do you get your kicks
+you are loving on the take and you are always on the make squeezing all the blood outta men they are all standing in a queue just to spend a night with you it business as usual again you are always grabbing, stabbing trying get it back in but girl you must be getting slow so stop your life on the road all your digging for gold you make me wonder yes i wonder yes i wonder honey, what do you do for money honey, what do you do for money
+what do you do for money honey how do you get your kicks what do you do for money honey how do you get your licks
+honey, what do you do for money, i said honey, what do you do for money, oh yeah
+honey, what do you do for money honey, what you gotta do for money honey, what do you do for money what do you gotta do what do you gotta do  
+she take you down easy going down to her knees going down to the devil down down to ninety degrees oh, she blowing me crazy she blowing me crazy until my ammunition is dry
+oh, she using her head again she using her head oh, she using her head again
+i am just a giving the dog a bone giving the dog a bone, giving the dog a bone giving the dog a bone
+i am just a giving the dog a bone giving the dog a bone i am just a giving the dog a bone giving the dog a bone
+oh, she no mona lisa no she no playboy star but she will send you to heaven then explode you to mars
+oh, she using her head again she using her head oh, she using her head again
+i am just a giving the dog a bone giving the dog a bone, giving the dog a bone giving the dog a bone, giving the dog a bone
+i am just a giving the dog a bone giving the dog a bone i am just a giving the dog a bone giving the dog a bone
+she got the power of union she only hits when it hot and if she likes what you are doing she will give you the lot give it everything i got
+just giving the dog a bone giving the dog a bone, giving the dog a bone giving the dog a bone, giving the dog a bone giving the dog a bone, giving the dog a bone giving the dog a bone
+i am just a giving the dog a bone giving the dog a bone, giving the dog a bone giving the dog a bone i am just a giving the dog a bone giving the dog a bone i am just a giving the dog a bone giving the dog giving the dog i am just a giving the dog a bone  
+flying on a free flight driving all night with my machinery cause i i got the power any hour to show the man in me i got reputations blown to pieces with my artillery well i will be guiding and we will be riding giving what you got to me do not you struggle do not you fight do not you worry cause it your turn tonight
+let me put my love into you babe let me put my love on the line let me put my love into you babe let me cut your cake with my knife
+like a fever burning faster you spark the fire in me crazy feelings got me reeling they got me raising steam now do not you struggle do not you fight do not you worry cause it your turn tonight, yeah
+let me put my love into you babe let me put my love on the line let me put my love into you babe let me cut your cake with my knife
+oh! come on!
+let me, let me let me put my love into you babe let me put my love on the line let me put my love into you babe let me cut your cake with my knife
+let me put my love into you babe let me put my love on the line let me put my love into you babe
+let me give it all let me give it all to you to you give it all  
+back in black i hit the sack i have been too long i am glad to be back yes i am let loose from the noose that kept me hanging about i kept looking at the sky cause it getting me high forget the hearse cause i will never die i got nine lives cat eyes abusing every one of them and running wild cause i am back yes i am back well i am back yes i am back well i am back back well i am back in black yes i am back in black back in the back of a cadillac number one with a bullet i am a power pack yes i am in a bang with the gang they have got to catch me if they want me to hang cause i am back on the track and i am beating the flack nobody gonna get me on another rap so look at me now i am just making my play do not try to push your luck just get out of my way cause i am back yes i am back well i am back yes i am back well i am back back well i am back in black yes i am back in black
+well i am back yes i am back well i am back yes i am back well i am back back well i am back in black yes i am back in black
+ho yeah oh yeah yes i am oh yeah, yeah oh yeah back in now
+well i am back, i am back back, i am back  back, i am back  back, i am back  back, i am back  back back in black yes i am back in black
+outta sight  
+she was a fast machine she kept her motor clean she was the best damn woman that i ever seen she had the sightless eyes telling me no lies knocking me out with those american thighs taking more than her share had me fighting for air she told me to come but i was already there cause the walls start shaking the earth was quaking my mind was aching and we were making it and you shook me all night long yeah you shook me all night long
+i am working double time on the seduction line she one of a kind she just mine all mine wanted no applause it just another course made a meal outta me and come back for more had to cool me down to take another round now i am back in the ring to take another swing cause the walls were shaking the earth was quaking my mind was aching and we were making it
+and you shook me all night long yeah you shook me all night long knocked me out i said you shook me all night long you had me shaking and you shook me all night long yeah you shook me when you took me
+you really took me and you shook me all night long you shook me all night long yeah, yeah, you shook me all night long you really got me and you shook me all night long yeah you shook me yeah you shook me all night long  
+whiskey gin and brandy with a glass i am pretty handy i am trying to walk a straight line on sour mash and cheap wine so join me for a drink boys we are gonna make a big noise so do not worry about tomorrow take it today forget about the check we will get hell to pay have a drink on me yeah have a drink on me yeah have a drink on me have a drink on me
+i am dizzy drunk and fightin on tequila white lightnin my glass is getting shorter on whiskey ice and water so come on have a good time and get blinded outta your mind so do not worry about tomorrow take it today forget about the check we will get hell to pay have a drink on me yeah have a drink on me yeah have a drink on me have a drink on me get stoned
+have a drink on me have a drink on me have a drink on me come on
+gonna roll around gonna hit the ground take another swig have another drink gonna drink you dry gonna get me high come on all the boys make a noise have a drink on me have a drink on me have a drink on me have a drink on me
+have a drink on me have a drink on me have a drink on me  
+idle juvenile on the street on the street kicking everything with his feet with his feet fighting on the wrong side of the law of the law do not kick do not fight do not sleep at night and shake a leg shake a leg shake a leg shake it again
+keeping outta trouble with eyes in the back of my face kicking ass in the class and they tell me i am a damn disgrace they tell me what they think but they stink and i really do not care got a mind of my own move on get outta my hair shake a leg shake your head shake a leg wake the dead shake a leg get stuck in shake a leg shake a leg
+mob scenes, wet dreams, dirty women on machines for me big licks skin flicks tricky dicks are my chemistry going against the grain tryin to keep me sane with you so stop your grinning and drop your linen for me shake a leg shake your head shake a leg wake the dead shake a leg get stuck in shake a leg shake a leg shake it
+idle juvenile on the street on the street kicking everything with his feet with his feet fighting on the wrong side of the law of the law spitting and biting and kicking and fighting for more shake a leg shake your head shake a leg wake the dead shake a leg get stuck in shake a leg play to win shake a leg shake your head shake a leg wake the dead shake a leg get stuck in shake a leg shake a leg
+shake it  
+hey there all you middle men throw away your fancy clothes and while you are out sitting on a fence so get off your arse and come down here cause rock and roll is not no riddle man to me it makes good good sense good sense yeah let go
+heavy decibels are playing on my guitar we got vibrations coming up from the floor we are just listening to the rock that giving too much noise are you deaf you want to hear some more we are just talking about the future forget about the past it will always be with us it never gonna die never gonna die rock and roll is not noise pollution rock and roll is not gonna die rock and roll is not noise pollution rock and roll it will survive yes it will
+i took a look inside your bedroom door you looked so good lying on your bed well i asked you if you wanted any rhythm and love you said you want to rock and roll instead we are just talking about the future forget about the past it will always be with us it never gonna die never gonna die rock and roll is not noise pollution rock and roll is not gonna die rock and roll is not noise pollution rock and roll is just rock and roll
+rock and roll is not noise pollution rock and roll is not gonna die rock and roll is not noise pollution rock and rolling will survive rock and roll is not noise pollution rock and roll will never die rock and roll is not noise pollution rock and roll rock and roll
+is just rock and roll</t>
+  </si>
+  <si>
+    <t>we all came here for a party tonight and your gonna get left if you do not get right, child so forget your troubles and forget the news we are gonna pull the plug and black out them blues and if your tie to tight then adjust the noose because if your gonna hang tight, cut loose
+tearing it up and we are buring it down hey daddy hide your daughters until the sun come back around because we all came here to party we came to come unwound so go tell everybody that the boys are back in town just to tear it up and to burn it down
+we love to hear you stomp and sing just swamp a little southeast western swing thing so just grab unto each other and let go make a little midnight moonlight mo jo when the magic happens let it all hang out if you want to join the fun shout
+tearing it up and we are buring it down hey daddy hide your daughters until the sun come back around because we all came here to party we came to come unwound so go tell everybody that the boys are back in town just to tear it up and to burn it down
+tearing it up and we are buring it down hey daddy hide your daughters until that sun come back around because we all came here to party we came to come unwound so go tell everybody that the boys are back in town just to tear it up and to burn it down
+we know you like to party we know you like to throw it down so go tell everybody let get them all around we are gonna tear it up and burn it down  
+johnny grew up on the dark side of the law living in the shadow of the light he never saw
+rosie came around in the way that true love does just when you are looking elsewhere for the thing that never was
+wild as the wind wild as the wind is wild as the wind is love
+wild as the wind wild as the wind is wild as the wind is love
+so they team up and they traveled on thier way looking for forever for every yesterday
+she brings him hope in the way that angels do taking him to heaven in ways he never knew
+wild as the wind wild as the wind is wild as the wind is love
+wild as the wind wild as the wind is wild as the wind is love
+wild as the wind
+every so often he gets a stray look in his eye she knows how to hold him without ever asking why
+wild as the wind wild as the wind is wild as the wind is love
+wild as the wind wild as the wind is wild as the wind is love
+wild as the wind wild as the wind is wild as the wind is love
+wild as the wind wild as the wind is wild as the wind is love  
+standing in the spotlight on such a perfect night knowing that your out there listening i remember one time when i was so afraid did not think i had the courage to stand up on this stage then you reached into my heart and you found the melody and if there ever was somebody who made me believe in me it was you it was you
+it was your song that made me sing it was your voice that gave me wings and it was your light that shined guiding my heart to find this place where i belong it was your song
+every night i pray before the music starts to play that i will do my best and i will not let you down and for all the times i have stood here this feeling feels brand new and any time i doubt myself i think of you
+because it was your song that made me sing it was your voice that gave me wings and it was your light that shined guiding my heart to find this place where i belong it was your song
+dreams can come true with god great angels like you
+it was your song that made me sing it was your voice that gave me wings and it was your light that shined guiding my heart to find this place where i belong it was your song it was your song it always been your song</t>
+  </si>
+  <si>
+    <t>you got your big girl  now you have got your young one too  wondering if some day i could have them  the way i once had you  i remember your crazy remarks  we would get drunk and go out after dark  searching for someone we could take home    you do not want to be alone  you do not want to see the sun go down  you do not want to open the door and see her go  one step and tomorrow comes  two steps and she off with someone  three steps and it all you know  you will be gone, she will be gone  so what are you gonna do about me  i will be there when you have no one else  i will be there, be your friend  hold on strong, do not let go  there will never be no one to take your place  so do not you want to reach out and take my hand     
+with a little love, and some tenderness  we will walk upon the water  we will rise above this mess  with a little peace, and some harmony  we will take the world together  we will take them by the hand  because i have got a hand for you  because i want to run with you  yesterday, i saw you standing there  your head was down, your eyes were red  no comb had touched your hair  i said get up, and let me see you smile  we will take a walk together  walk the road awhile, because  because i have got a hand for you  i have got a hand for you  because i want to run with you  will not you let me run with you? yeah  hold my hand  want you to hold my hand  hold my hand  i will take you to a place where you can be  hold my hand  anything you want to be because  i want to love you the best that, the best that i can  see i was wasted, and i was wasting time  until i thought about your problems, i thought about your crimes  then i stood up, and then i screamed aloud  i do not want to be part of your problems  do not want to be part of your crowd, no  because i have got a hand for you  i have got a hand for you  because i want to run with you  ah, will not you let me run with you?  hold my hand  want you to hold my hand  hold my hand  i will take you to the promised land  hold my hand  maybe we ca not change the world but  i want to love you the best that, the best that i can, yeah  hold my hand  want you to hold my hand  hold my hand  i will take you to a place where you can be  hold my hand  anything you want to be because  i...oh...no, no, no, no, no  hold my hand  want you to hold my hand  hold my hand  i will take you to the promised land  hold my hand  maybe we ca not change the world but  i want to love you the best that, best that i can  oh, the best that i can  
+she sits alone by a lamp post trying to find a thought that escaped her mind she says dar the one i love the most but stipe not far behind
+she never lets me in only tell me where she been when she had too much to drink i say that i do not care i just run my hands through her dark hair then i pray to god you gotta help me fly away and just...
+let her cry, if the tears fall down like rain let her sing, if it eases all her pain let her go, let her walk right out on me and if the sun comes up tomorrow let her be, let her be.
+this morning i woke up alone found a note standing by the phone saying maybe, maybe i will be back some day i wanted to look for you you walked in i did not know just what i should do so i sat back down and had a beer and felt sorry for myself saying...
+let her cry, if the tears fall down like rain let her sing, if it eases all her pain let her go, let her walk right out on me and if the sun comes up tomorrow let her be, let her be.
+let her cry, if the tears fall down like rain let her sing, if it eases all her pain let her go, let her walk right out on me and if the sun comes up tomorrow let her be, oh, oh.
+last night i tried to leave cried so much i could not believe she was the same girl i fell in love with long ago
+she went in the back to get high i sat down on my couch and cried yelling oh mama please help me will not you hold my hand and...
+let her cry, if the tears fall down like rain let her sing, if it eases all her pain let her go, let her walk right out on me and if the sun comes up tomorrow let her be, oh, oh.
+let her cry, if the tears fall down like rain let her sing, if it eases all her pain let her go, let her walk right out on me and if the sun comes up tomorrow let her be, oh, let her be.  
+you and me we come from different worlds you like to laugh at me when i look at other girls sometimes you are crazy and you wonder why i am such a baby because the dolphins make me cry
+well, there nothing i can do i have been looking for a girl like you
+you look at me, you got nothing left to say i am gonna pout at you until i get my way i will not dance, you will not sing i just want to love you, but you want to wear my ring
+well, there nothing i can do i only want to be with you you can call me your fool i only want to be with you
+put on a little dylan sitting on a fence i say, that line is great.  you ask me what it meant by  said i shot a man named gray took his wife to italy she inherited a million bucks and when she died it came to me i ca not help it if i am lucky  i only want to be with you is not bobby so cool? i only want to be with you
+yeah, i am tangled up in blue i only want to be with you you can call me your fool only want to be with you
+sometimes i wonder if it will ever end you get so mad at me when i go out with my friends sometimes you are crazy and you wonder why i am such a baby, yeah the dolphins make me cry
+well, there nothing i can do only want to be with you you can call me your fool i only want to be with you
+yeah, i am tangled up in blue i only want to be with you i only want to be with you i only want to be with you i only want to be with you  
+do not look a gift horse in the mouth  come on try and tell me what you are talkin about  those things you are dealing with, you are living a lie  every time i see you it makes me want to cry  sometimes we would laugh and talk, seems like yesterday  then you let the white horse come and take you away  they came to get you, it was cold and black  the wheels were in motion, there was no turning back    running from and angel, runnin to the devil  i looked up to you a long time ago  but there something i want you to know  your lying and cheating really tore us apart  please do not come home if you are gonna break my momma heart           
+mama please do not go  will not you stay here for one more day  i have been your boy for so long now  there so much i still have to say  sky rips open, and i hold my heart in my hand  like a soldier on his very last day  cried myself to sleep that night, and i listened  as i heard the angels sing    sha la la la sha la la la, i am going home.  sha la la la sha la la la, i am going home.  something inside makes me scream  how could god take you from a little boy  he will be alright, he by my side  he no little boy, he my pride and joy    summer on the radio and the phone rings  and it was jeanette  she said boy we had to let her go  i begged her no, no not yet  you left six of us to fend for ourselves  i guess it part of someone master plan  i see you laughing, you are my best friend  you are the light of the lamb, and i cried  as the angels sing     
+trouble with the world is we are too busy to think about it, all right  why is there a rebel flag hanging from the state house walls?  tired of hearing this shit about heritage not hate  time to make the world a better place  why must we hate one another?  well no matter what we gotta live together  just that you do not look like me, tell me what do you see  when we pass on the street what do you want to see  p.e.'s coming is all i gotta say  want to turn and run away  they are just telling you how they see it  right or wrong they do not care, you wish that they would quit    drowning in a sea of tears  hatred trying to hide your fears  living only for yourself  hating everybody else  cause they do not look like you  nanci singing it a hard life wherever you go  about some fat racist living in chicago  trying to teach his kids to hate everyone  well tell me why is that something you want to teach your son?  why must we hate one another?  when the people in the church, they tell me you are my brother  you do not walk like me, ... you do not talk like me, saying  go back to africa, i just do not understand    i am trying to be someone that he could look up to, but  when i walk down the street, tell me what do you see  i am a man, i am a man, i am a man  no i am not like you  why do you hate me so  i do not know, i do not know, i do not know  hating everybody else cause they do not look like you  
+time, why you punish me? like a wave crashing into the shore you wash away my dreams
+time, why you walk away? like a friend with somewhere to go you left me crying
+can you teach me about tomorrow and all the pain and sorrow running free? because tomorrow just another day and i do not believe in time
+time, i do not understand children killing in the street dying for the color of a rag
+time, take their red and blue wash them in the ocean, make them clean maybe their mothers will not cry tonight
+can you teach me about tomorrow and all the pain and sorrow running free? but tomorrow just another day and i do not believe in
+time is wasting time is walking you is not no friend of mine i do not know where i am going i think i am out of my mind thinking about time
+if i die tomorrow, yeah just lay me down to sleep
+time is wasting time is walking you is not no friend of mine i do not know where i am going i think i am out of my mind thinking about time
+time, you left me standing there like a tree growing all alone the wind just stripped me bare, stripped me bare
+time, the past has come and gone the future far away now only lasts for one second, one second
+can you teach me about tomorrow and all the pain and sorrow running free? because tomorrow just another day and i do not believe in time
+time, you is not no friend of mine i do not know where i am going i think i am outta my mind walking, wasting you is not no friend of mine i do not know where i am going oh no, no, no time without courage and power without faith is just wasted, wasted, wasted time
+time, why you punish me?  
+i saw her standing there  tears upon her cheek told me something was wrong  i asked her what it was  she looked away and said my daddy home.  i knew what that meant  it meant that i could never see her again  i had seen this once before  i did not want to deal with it anymore  look away she said, as she turned to me  and when i tried to hold her, i could not let her be  let her be, let her be  i said why, why do you make me cry  she said i love you so, look away i do not want to know  i saw her standing there  tears upon her cheek told me something wrong  i said what baby  she looked away and said my daddy home  look away she said, and she turned to me  but darling, oh i loved her, could not let her be  let her be, let her be  look away, she said i love you so, look away.  
+alone as i sit and watch the trees  will not you tell me if i scream will they bend down and listen to me  and it makes me wonder if i know the words will you come  or will you laugh at me  or will i run  little boy says to me,   where you going now son  i said, i do not know where i am going boy  i only know where i am from  and it makes me wonder  if the stars shine when my eyes close  or does my brothers heart cry  i do not know  i am a stranger in my home  now that everybody gone  someone please talk to me  cause i feel you cry  and you are sitting with him  and i know i will never see you again  lying down in charleston under the carolina sky  you see i am tired of feeling this pain  i am tired of living my own little lie  and it makes me wonder  when i see you in my dreams  does it mean anything  are you trying to talk to me  i am a stranger in my home  tell me are you feeling alone  someone tell me what to do  because i am feeling strong  and i wonder how you feel  do you realize my pain is for real  i see you in my dreams  and i wonder if you are looking down at me  and smiling right now  i want to know if it true  when he looks at me  will not you tell me  does he realize he came down here  and he took you too soon  and now my days are short an my nights are long  i lay down with memories of you keep that keep me going on, going on  it makes me wonder as i sit and stare  will i see your face again  tell me, do you care  i am a stranger in my home  living life on my own  right now i just ca not see  because i am feeling weak  and my sould begins to bleed  and no one is listening to me, not even the trees  
+tomorrow used to be a day away  now love is gone and you are into someone far away.  i never thought the day would come  when i would see his hand, not mine,  holding onto yours because i could not find the time.  now i ca not deny  nothing lasts forever  i do not want to leave  and i see the tear drops in your eyes  i do not want to live to see the day we say goodbye  now there comes another part of life that i call alone  sitting at a bar with chris  and i ca not leave because my house is not no home, no.  i just want to touch you girl  i want to feel you close to me  without your love i would give up now  and walk away so easily.  so maybe while you are young  we will figure out together  that even with the pain, there a remedy  and we will be all right  i do not want to live to see the day we say goodbye.  when i first met you i could not love anyone  but you stole my dreams and you made me see  that i can walk under the sun  and i can still be me  and now i ca not deny nothing lasts forever.  but i do not want to leave and see the teardrops in your eyes  so baby while we are young let figure out together  that even with the pain there a remedy  and we will be all right.  i do not want to live to see the day we say goodbye,  we say goodbye, oh goodbye, goodbye.</t>
+  </si>
+  <si>
+    <t>i know there nothing to say someone has taken my place when times go bad when times go rough will not you lay me down in tall grass and let me do my stuff
+i know i got nothing on you i know there nothing to do when times go bad and you ca not get enough will not you lay me down in the tall grass and let me do my stuff
+one thing i think you should know i is not gonna miss you when you go been down so long i have been tossed around enough could not you just let me go down and do my stuff
+i know you are hoping to find someone who gonna give you peace of mind when times go bad when times go rough will not you lay me down in tall grass and let me do my stuff
+i am just second hand news i am just second hand news  
+now here you go again you say you want your freedom well, who am i to keep you down? it only right that you should play the way you feel it but listen carefully to the sound of your loneliness
+like a heartbeat... drives you mad in the stillness of remembering what you had and what you lost... and what you had... and what you lost
+thunder only happens when it raining players only love you when they are playing say... women... they will come and they will go when the rain washes you clean... you will know, you will know
+now here i go again, i see the crystal visions i keep my visions to myself it only me who wants to wrap around your dreams and... have you any dreams you would like to sell? dreams of loneliness...
+like a heartbeat... drives you mad... in the stillness of remembering what you had... and what you lost... and what you had... and what you lost
+thunder only happens when it raining players only love you when they are playing women they will come and they will go when the rain washes you clean, you will know
+oh, thunder only happens when it raining players only love you when they are playing say women they will come and they will go when the rain washes you clean, you will know, you will know you will know, you will know  
+she broke down and let me in made me see where i have been been down one time been down two times i am never going back again you do not know what it means to win come down and see me again been down one time been down two times i am never going back again  
+  if you wake up and do not want to smile if it takes just a little while open your eyes and look at the day you will see things in a different way
+  do not stop thinking about tomorrow do not stop, it will soon be here it will be here better than before yesterday gone, yesterday gone
+  why not think about times to come? and not about the things that you have done? if your life was bad to you just think what tomorrow will do
+  do not stop thinking about tomorrow do not stop, it will soon be here it will be here better than before yesterday gone, yesterday gone
+  all i want is to see you smile if it takes just a little while i know you do not believe that it true i never meant any harm to you
+  do not stop thinking about tomorrow do not stop, it will soon be here it will be here better than before yesterday gone, yesterday gone
+  do not stop thinking about tomorrow do not stop, it will soon be here it will be here better than before yesterday gone, yesterday gone
+  do not you look back do not you look back do not you look back do not you look back  
+loving you is not the right thing to do how can i ever change things that i feel?
+if i could baby i would give you my world how can i when you will not take it from me?
+you can go your own way go your own way you can call it another lonely day you can go your own way go your own way
+tell me why everything turned around packing up shacking up all you want to do
+if i could baby i would give you my world open up everything waiting for you
+you can go your own way go your own way you can call it another lonely day you can go your own way go your own way  
+for you, there will be no more crying for you, the sun will be shining and i feel that when i am with you it alright, i know it right
+to you, i will give the world to you, i will never be cold because i feel that when i am with you it alright, i know it right
+and the songbirds are singing like they know the score and i love you, i love you, i love you like never before
+and i wish you all the love in the world but most of all, i wish it from myself
+and the songbirds keep singing like they know the score and i love you, i love you, i love you like never before like never before like never before  
+listen to the wind blow watch the sun rise run in the shadows damn your love damn your lies
+  and if you do not love me now you will never love me again i can still hear you saying you would never break the chain
+listen to the wind blow down comes the night run in the shadows damn your love damn your lies
+break the silence damn the dark damn the light
+  and if you do not love me now you will never love me again i can still hear you saying you would never break the chain
+  chain, keep us together running in the shadows  
+sweet wonderful you, you make me happy with the things you do. oh, can it be so? this feeling follows me wherever i go.
+i never did believe in miracles, but i have a feeling it time to try. i never did believe in the ways of magic, but i am beginning to wonder why.
+i never did believe in miracles, but i have a feeling it time to try. i never did believe in the ways of magic, but i am beginning to wonder why.
+do not, do not break the spell. it would be different, and you know it will. you, you make loving fun, and i do not have to tell you, but you are the only one.
+you, you make loving fun. it all i want to do. you, you make loving fun. it all i want to do.
+you, you make loving fun. it all i want to do. you, you make loving fun. it all i want to do.  
+i do not want to know the reasons why our love keeps right on walking on down the line i do not want to stand between you and love, honey i just want you to feel fine
+i do not want to know the reasons why our love keeps right on walking on down the line i do not want to stand between you and love, honey i just want you to feel fine
+finally baby the truth has come down now take a listen to your spirit it crying out loud
+try to believe you say you love me, but you do not know you got me rocking and a reeling
+i do not want to know the reasons why our love keeps right on walking on down the line i do not want to stand between you and love, honey i just want you to feel fine
+i do not want to know the reasons why our love keeps right on walking on down the line i do not want to stand between you and love, honey i just want you to feel fine
+finally baby the truth has been told now you tell me that i am crazy it nothing that i did not know
+trying to survive you say you love me, but you do not know you got me rocking and a reeling hanging onto you
+i do not want to know the reasons why our love keeps right on walking on down the line i do not want to stand between you and love, honey, take a little time
+oh, i do not want to know  
+oh daddy, you know you make me cry, how can you love me, i do not understand why. oh daddy, if i can make you see, if there been a fool around, it got to be me. oh daddy, you soothe me with your smile, you are letting me know, you are the best thing in my life. oh daddy, if i can make you see, if there been a fool around, it got to be me. why are you right when i am so wrong, i am so weak but you are so strong, everything you do is just alright, and i ca not walk away from you, baby if i tried.  
+rock on, gold dust woman take your silver spoon and dig your grave
+heartless challenge pick your path and i will pray
+wake up in the morning see your sunrise loves to go down
+lousy lovers pick their prey but they never cry out loud, cry out
+well, did she make you cry, make you break down, shatter your illusions of love? and is it over now? do you know how? pick up the pieces and go home
+rock on, ancient queen follow those who pale in your shadow
+rulers make bad lovers you better put your kingdom up for sale, up for sale
+well, did she make you cry, make you break down, shatter your illusions of love? and is it over now? do you know how? pick up the pieces and go home
+well, did she make you cry, make you break down, shatter your illusions of love? and now tell me is it over now? do you know how? pick up the pieces and go home go home go home
+ooh, pale shadow of a woman, black widow, pale shadow of a dragon, dust woman.
+ooh, pale shadow of a woman, black widow, ooh, pale shadow, she a dragon, gold dust woman</t>
+  </si>
+  <si>
+    <t>let go girls! come on.
+i am going out tonight i am feeling alright gonna let it all hang out want to make some noise really raise my voice yeah, i want to scream and shout no inhibitions make no conditions get a little outta line i is not gonna act politically correct i only want to have a good time
+the best thing about being a woman is the prerogative to have a little fun
+oh, oh, oh, go totally crazy forget i am a lady men shirts short skirts oh, oh, oh, really go wild yeah, doing it in style oh, oh, oh, get in the action feel the attraction color my hair do what i dare oh, oh, oh, i want to be free yeah, to feel the way i feel man! i feel like a woman!
+the girls need a break tonight we are gonna take the chance to get out on the town we do not need romance we only want to dance we are gonna let our hair hang down
+the best thing about being a woman is the prerogative to have a little fun
+oh, oh, oh, go totally crazy forget i am a lady men shirts short skirts oh, oh, oh, really go wild yeah, doing it in style oh, oh, oh, get in the action feel the attraction color my hair do what i dare oh, oh, oh, i want to be free yeah, to feel the way i feel man! i feel like a woman!
+the best thing about being a woman is the prerogative to have a little fun fun, fun 
+oh, oh, oh, go totally crazy forget i am a lady men shirts short skirts oh, oh, oh, really go wild yeah, doing it in style oh, oh, oh, get in the action feel the attraction color my hair do what i dare oh, oh, oh, i want to be free yeah, to feel the way i feel man! i feel like a woman!
+i get totally crazy can you feel it come, come, come on baby i feel like a woman  
+i do not need a shrink to tell me what to think there is not no missing link in my love life it alright, i is not that uptight i do not need a psychic because i do not really like it when someone tries to tell me just what my future holds i already know  your love keeps me alive you are all i need to survive i got you by my side 
+so i am holding on i am feeling strong baby you are the one for all my life! yeah i am holding out there is not no doubt i ca not live without you all my life! i am holding on to love to save my life 
+i do not need to get all caught up on the net because i am already set ca not you understand already got my man no i do not need proof to show me the truth, not even dr. ruth is gonna tell me how i feel i know our love is real 
+your love keeps me alive you are all i need to survive i got you by my side 
+so i am holding on i am feeling strong baby you are the one for all my life! yeah i am holding out there is not no doubt i ca not live without you all my life! i am holding on to love to save my life 
+ i am holding on to love to save my life 
+your love keeps me alive you are all i need to survive i got you by my side 
+so i am holding on i am feeling strong baby you are the one for all my life! yeah i am holding out there is not no doubt i ca not live without you all my life! i am holding on to love to save my life 
+save me, save me, save me save my life  
+life was going great love was gonna have to wait was in no hurry had no worries staying single was the plan did not need a steady man i had it covered until i discovered  that love gets me every time my heart changed my mind i gol darn gone and done it 
+gone and done it gone and done it  guess i fell in love gone and done it  must have been the way he walked gone and done it  or his sweet, sweet talk gone and done it  i guess i gol darn gone and done it 
+i was quite content just a paying my own rent it was my place i needed my space i was free to shop around in no rush to settle down i had it covered until i discovered 
+that love gets me every time my heart changed my mind i gol darn gone and done it 
+gone and done it gone and done it  guess i fell in love gone and done it  must have been the way he walked gone and done it  or his sweet, sweet talk gone and done it  i guess i gol darn gone and done it 
+love gets me every time my heart changed my mind i gol darn gone and done it 
+gone and done it gone and done it  guess i fell in love gone and done it  must have been the way he walked gone and done it  or his sweet, sweet talk gone and done it  it in the way he calls my name gone and done it  i know i will never be the same gone and done it 
+love gets me every time my heart changed my mind i gol darn gone and done it 
+thought i had it covered life was going great well i gol darn gone and done it  
+you are so complicated you hang over my shoulder when i read my mail i do not appreciate it when i talk to other guys you think they are on my tail  i get so aggravated when i get off the phone and i get the third degree i am really feeling frustrated why do not you take a pill and put a little trust in me and you will see 
+do not freak out until you know the facts relax 
+do not be stupid you know i love you do not be ridiculous you know i need you do not be absurd you know i want you do not be impossible 
+i am mad about you i am mad about you  ca not live without you ca not live without you  i am crazy about you i am crazy about you  so do not be stupid you know i love you 
+stop overreacting you even get suspicious when i paint my nails it definitely distracting the way you dramatize every little small detail 
+do not freak out until you know the facts relax max 
+do not be stupid you know i love you do not be ridiculous you know i need you do not be absurd you know i want you do not be impossible i am mad about you i am mad about you  ca not live without you ca not live without you  i am crazy about you i am crazy about you  do not be stupid you know i love you 
+do not be stupid you are my baby 
+i am mad about you i am mad about you  ca not live without you ca not live without you  i am crazy about you i am crazy about you  do not be stupid you know i love you do not be ridiculous you know i need you do not be absurd you know i want you do not be impossible  
+i do swear that i will always be there i would give anything and everything and i will always care through weakness and strength, happiness and sorrow, for better for worse, i will love you with every beat of my heart
+from this moment life has begun from this moment you are the one right beside you is where i belong from this moment on
+from this moment i have been blessed i live only for your happiness and for your love i would give my last breath from this moment on
+i give my hand to you with all my heart i ca not wait to live my life with you i ca not wait to start you and i will never be apart my dreams came true because of you
+from this moment as long as i live i will love you, i promise you this there is nothing i would not give from this moment on
+you are the reason i believe in love and you are the answer to my prayers from up above all we need is just the two of us my dreams came true because of you
+from this moment as long as i live i will love you, i promise you this there is nothing i would not give from this moment i will love you as long as i live from this moment on  
+get a life get a grip get away somewhere, take a trip take a break take control take advice from someone you know  come on over come on in pull up a seat take a load off your feet come on over come on in you can unwind take a load off your mind 
+make a wish make a move make up your mind you can choose when you are up when you are down when you need a laugh come around 
+come on over come on in pull up a seat take a load off your feet come on over come on in you can unwind take a load off your mind 
+oh, oh, oh... 
+be a winner be a star be happy to be who you are gotta be yourself gotta make a plan gotta go for it while you can 
+come on over come on in pull up a seat take a load off your feet come on over come on in you can unwind take a load off your mind 
+get a life get a grip get away somewhere, take a trip take a break take control take advice from someone you know 
+come on over come on in pull up a seat take a load off your feet come on over come on in you can unwind take a load off your mind 
+oh, oh, oh...  
+if elephants could fly i would be a little more optimistic but i do not see that happening anytime soon i do not mean to sound so pessimistic but i do not think that cow really jumped over the moon  when will i wake up? why did we break up? when will we make up? 
+when money grows on trees people live in peace everyone agrees when happiness is free love can guarantee you will come back to me that when 
+i would love to wake up smiling full of the joys of spring and hear on cnn that elvis lives again and that john back with the beatles and they are going out on tour i will be the first in line for tickets gotta see that show for sure 
+when will i wake up? why did we break up? when will we make up? 
+when money grows on trees people live in peace everyone agrees when happiness is free love can guarantee you will come back to me that when 
+when will i wake up? why did we break up? when will we make up? 
+when money grows on trees people live in peace everyone agrees when happiness is free love can guarantee you will come back to me that when  
+deep in denialville trying a' fight the way i feel i go jello when you smile i start blushing my head rushing  if you stand too close to me i might melt down from the heat if ya look my way one more time i am gonna go out of my mind whatever you do... 
+do not even think about it! do not go and get me started! do not you dare drive me crazy! do not do that to me baby! 
+you stop me in my tracks my heart pumping to the max i am such a sucker for your eyes they permanently paralyze whatever you do... 
+do not even think about it! do not go and get me started! do not you dare drive me crazy! do not do that to me baby! 
+ whatever you do, do not do that to me  you got my heart under attack you give me shivers down my back would you have to walk the way you do? i get weak just watching you whatever you do... 
+do not even think about it! do not go and get me started! do not you dare drive me crazy! do not do that to me baby! 
+do not do that do not do that  
+let me let you in on a secret how to treat a woman right if you are looking for a place in her heart it is not gonna happen overnight  first you gotta learn to listen to understand her deepest thoughts she needs to know you can be friends before she will give you all she got 
+if you start from the heart you will see love is gonna play it part 
+if you want to get to know her really get inside her mind if you want to move in closer take it slow, yeah take your time you must start from the heart and then... if you want to touch her really want to touch her if you want to touch her, ask! 
+a little physical attraction romantic, old fashioned charm and a lot of love and tenderness is gonna get you into her arms 
+if you start from the heart you will see love is gonna play it part 
+if you want to get to know her really get inside her mind if you want to move in closer take it slow, yeah take your time you must start from the heart and then... if you want to touch her really want to touch her if you want to touch her, ask! 
+let me let you in on a secret how to treat a woman right if you are looking for a place in her heart it is not gonna happen overnight 
+if you want to get to know her really get inside her mind if you want to move in closer take it slow, yeah take your time you must start from the heart and then... if you want to touch her really want to touch her if you want to touch her, ask!  
+ when i first saw you, i saw love and the first time you touched me, i felt love and after all this time, you are still the one i love 
+looks like we made it look how far we have come, my baby we mighta took the long way we knew we would get there someday
+they said, i bet they will never make it  but just look at us holding on we are still together, still going strong
+ you are still the one  you are still the one i run to the one that i belong to you are still the one i want for life  you are still the one  you are still the one that i love the only one i dream of you are still the one i kiss good night
+is not nothing better we beat the odds together i am glad we did not listen look at what we would be missing
+they said, i bet they will never make it  but just look at us holding on we are still together still going strong
+ you are still the one  you are still the one i run to the one that i belong to you are still the one i want for life  you are still the one  you are still the one that i love the only one i dream of you are still the one i kiss good night
+you are still the one
+ you are still the one  you are still the one i run to the one that i belong to you are still the one i want for life  you are still the one  you are still the one that i love the only one i dream of you are still the one i kiss good night
+i am so glad we made it look how far we have come, my baby  
+the car will not start it falling apart i was late for work and the boss got smart my pantyline shows got a run in my hose my hair went flat man, i hate that  just when i thought things could not get worse i realized i forgot my purse with all this stress i must confess this could be worse than pms 
+this job is not worth the pay  ca not wait until the end of the day honey, i am on my way hey! hey! hey! hey! 
+honey, i am home and i had a hard day pour me a cold one and oh, by the way rub my feet, gimme something to eat fix me up my favorite treat honey, i am back, my head killing me i need to relax and watch tv get off the phone give the dog a bone hey! hey! honey, i am home! 
+i broke a nail opening the mail i cursed out loud because it hurt like hell this job a pain it so mundane it sure do not stimulate my brain 
+this job is not worth the pay  ca not wait until the end of the day honey, i am on my way hey! hey! hey! hey! 
+honey, i am home and i had a hard day pour me a cold one and oh, by the way rub my feet, gimme something to eat fix me up my favorite treat honey, i am back, my head killing me i need to relax and watch tv get off the phone give the dog a bone hey! hey! honey, i am home! 
+oh, rub my neck will you 
+honey, i am home and i had a hard day pour me a cold one and oh, by the way rub my feet, gimme something to eat fix me up my favorite treat honey, i am back, my head killing me i need to relax and watch tv get off the phone give the dog a bone hey! hey! honey, i am home! 
+i am home, that feels much better  
+i have known a few guys who thought they were pretty smart but you have got being right down to an art you think you are a genius, you drive me up the wall you are a regular original, a know it all
+oh oo oh, you think you are special oh oo oh, you think you are something else
+ok, so you are a rocket scientist
+that do not impress me much so you got the brain but have you got the touch? now do not get me wrong, yeah, i think you are alright but that will not keep me warm in the middle of the night
+that do not impress me much
+i never knew a guy who carried a mirror in his pocket and a comb up his sleeve just in case and all that extra hold gel in your hair oughtta lock it because heaven forbid it should fall outta place
+oh oo oh, you think you are special oh oo oh, you think you are something else
+ok, so you are brad pitt
+that do not impress me much so you got the looks but have you got the touch? now do not get me wrong, yeah, i think you are alright but that will not keep me warm in the middle of the night
+that do not impress me much
+you are one of those guys who likes to shine his machine you make me take off my shoes before you let me get in i ca not believe you kiss your car good night now, come on, baby, tell me? you must be joking, right?
+oh oo oh, you think you are special oh oo oh, you think you are something else
+ok, so you have got a car
+that do not impress me much so you got the moves but have you got the touch? now do not get me wrong, yeah, i think you are alright but that will not keep me warm in the middle of the night
+that do not impress me much you think you are cool but have you got the touch? now do not get me wrong, yeah, i think you are alright but that will not keep me warm on the long, cold, lonely night
+that do not impress me much
+ok. so, what do you think? you are elvis or something?
+that do not impress me much! that do not impress me much!  
+black eyes, i do not need them blue tears, gimme freedom  positively never going back i will not live where things are so out of whack no more rolling with the punches no more using or abusing 
+i would rather die standing than live on my knees begging please no more 
+black eyes i do not need them blue tears gimme freedom black eyes all behind me blue tears will never find me now 
+definitley found my self esteem finally i am forever free to dream no more crying in the corner no excuses no more bruises 
+i would rather die standing than live on my knees begging please no more 
+black eyes i do not need them blue tears gimme freedom black eyes all behind me blue tears will never find me now 
+i would rather die standing than live on my knees, begging please... 
+black eyes i do not need them blue tears gimme freedom black eyes all behind me blue tears will never find me now 
+it all behind me, they will never find me now 
+find your self esteem and be forever free to dream  
+together midnight in summer the air so much warmer falling in love under starlight holding on so tight together  i will not leave you lonely tonight i want you to hold me all night it gonna be alright i will not leave you lonely tonight 
+imagine the air filled with jasmine the breeze blows with passion you and me dance with desire the moon is on fire imagine 
+i will not leave you lonely tonight i want you to hold me all night it gonna be alright i will not leave you lonely tonight 
+je love you beaucoup mon amour you are the one i adore 
+i will not leave you lonely tonight i want you to hold me all night it gonna be alright no you will not be lonely tonight 
+na na na... te amo mucho mi amor you are the one i adore te amo  
+i woke up this morning with a buzz rolling around in my brain i have not been drinking but it feels pretty good just the same it must be contagious looks like it going around it cool once you catch it you ca not keep your feet on the ground  come on, come on let get something started come on, come on let start something now 
+we are gonna rock this country we are gonna rock this country every brown eyed boy every blue eyed girl gotta really go psycho give it a whirl we are gonna rock this country right out of this world ah oo na na na... 
+from utah to texas, minnesota, mississippi too or nevada, no matter where you live this buzz is for you 
+come on, come on let get something started come on, come on let start something now 
+we are gonna rock this country we are gonna rock this country every brown eyed boy every blue eyed girl gotta really go psycho give it a whirl we are gonna rock this country right out of this world ah oo na na na... 
+ah oo na na na... 
+we are plugging in the power cranking up the sound it coming your direction it heading to your town we are kicking up dust blowing off steam let get nuts now everybody scream 
+we are gonna rock this country we are gonna rock this country every brown eyed boy every blue eyed girl gotta really go psycho give it a whirl we are gonna rock this country right out of this world ah oo na na na...  
+you have got a way with me somehow you got me to believe in everything that i could be i have gotta say you really got a way you have got a way it seems you gave me faith to find my dreams you will never know just what that means ca not you see... you got a way with me
+it in the way you want me it in the way you hold me the way you show me just what love made of it in the way we make love
+you have got a way with words you get me smiling even when it hurts there no way to measure what your love is worth i ca not believe the way you get through to me
+it in the way you want me it in the way you hold me the way you show me just what love made of it in the way we make love
+oh, how i adore you like no one before you i love you just the way you are
+it in the way you want me it in the way you hold me the way you show me just what love made of it in the way we make love
+it just the way you are</t>
+  </si>
+  <si>
+    <t>oh, flew in by miami beach b.o.a.c. did not get to bed last night on the way the paper bag was on my knee man i had a dreadful flight
+i am back in the u.s.s.r. you do not know how lucky you are boy back in the u.s.s.r. yeah 
+been away so long i hardly knew the place gee it good to be back home leave it until tomorrow to unpack my case honey disconnect the phone
+i am back in the u.s.s.r. you do not know how lucky you are boy back in the u.s. back in the u.s. back in the u.s.s.r.
+well the ukraine girls really knock me out they leave the west behind and moscow girls make me sing and shout that georgia always on my my my my my my my my my mind
+aw come on! ho yeah! ho yeah! ho ho yeah! yeah yeah!
+yeah i am back in the u.s.s.r. you do not know how lucky you are boys back in the u.s.s.r.
+well the ukraine girls really knock me out they leave the west behind and moscow girls make me sing and shout that georgia always on my my my my my my my my my mind
+oh, show me around your snow peaked mountains way down south take me to your daddy farm let me hear your balalaikas ringing out come and keep your comrade warm
+i am back in the u.s.s.r. hey you do not know how lucky you are boys back in the u.s.s.r.
+oh let me tell you, honey hey, i am back! i am back in the u.s.s.r. yes, i am free! yeah, back in the u.s.s.r.
+ha ha  
+dear prudence, will not you come out to play? dear prudence, greet the brand new day the sun is up, the sky is blue it beautiful and so are you dear prudence, will not you come out to play?
+dear prudence, open up your eyes dear prudence, see the sunny skies the wind is low, the birds will sing that you are part of everything dear prudence, will not you open up your eyes?
+look around round look around round round look around
+dear prudence, let me see you smile dear prudence, like a little child the clouds will be a daisy chain so let me see you smile again dear prudence, will not you let me see you smile?
+dear prudence, will not you come out to play? dear prudence, greet the brand new day the sun is up, the sky is blue it beautiful and so are you dear prudence, will not you come out to play?  
+i told you about strawberry fields you know the place where nothing is real well here another place you can go where everything flows looking through the bent backed tulips to see how the other half live looking through a glass onion
+i told you about the walrus and me, man you know that we are as close as can be, man well here another clue for you all the walrus was paul standing on the cast iron shore, yeah lady madonna trying to make ends meet, yeah looking through a glass onion
+oh yeah oh yeah oh yeah looking through a glass onion
+i told you about the fool on the hill i tell you man he living there still well here another place you can be listen to me fixing a hole in the ocean trying to make a dove tail joint, yeah looking through a glass onion  
+desmond has a barrow in the market place molly is the singer in a band desmond says to molly, girl, i like your face  and molly says this as she takes him by the hand
+ob la di ob la da life goes on bra la la how their life goes on ob la di ob la da life goes on bra la la how their life goes on
+desmond takes a trolley to the jeweler stores buys a twenty carat golden ring golden ring?  takes it back to molly waiting at the door and as he gives it to her she begins to sing sing 
+ob la di ob la da life goes on bra la la how their life goes on ob la di ob la da life goes on bra la la how their life goes on, yeah no 
+in a couple of years they have built a home sweet home with a couple of kids running in the yard of desmond and molly jones  ah ha ha ha ha ha 
+happy ever after in the market place desmond lets the children lend a hand arm! leg!  molly stays at home and does her pretty face and in the evening she still sings it with the band
+yes, ob la di ob la da life goes on bra la la how their life goes on ha ha ha  hey, ob la di ob la da life goes on bra la la how their life goes on
+in a couple of years they have built a home sweet home with a couple of kids running in the yard of desmond and molly jones  ha ha ha ha ha ha ha ha ha ha 
+yeah, happy ever after in the market place molly lets the children lend a hand foot!  desmond stays at home and does his pretty face and in the evening she a singer with the band
+yeah, ob la di ob la da life goes on bra la la how their life goes on yeah, ob la di ob la da life goes on bra la la how their life goes on
+and if you want some fun take ob la di ob la da
+ thank you, uh, ha ha ha!   
+honey pie honey pie
+honey pie honey pie
+honey pie honey pie honey pie honey pie
+i love you, honey pie  
+hey, bungalow bill what did you kill, bungalow bill? hey, bungalow bill what did you kill, bungalow bill?
+he went out tiger hunting with his elephant and gun in case of accidents he always took his mum he the all american bullet headed saxon mother son all the children sing
+hey, bungalow bill what did you kill, bungalow bill? hey, bungalow bill what did you kill, bungalow bill?
+deep in the jungle where the mighty tiger lies bill and his elephants were taken by surprise so captain marvel zapped him right between the eyes, zap! all the children sing
+hey, bungalow bill what did you kill, bungalow bill? hey, bungalow bill what did you kill, bungalow bill?
+the children asked him if to kill was not a sin  not when he looked so fierce , his mummy butted in if looks could kill it would have been us instead of him all the children sing
+hey, bungalow bill what did you kill, bungalow bill? hey, bungalow bill what did you kill, bungalow bill?
+oh ho!
+hey, bungalow bill what did you kill, bungalow bill? hey, bungalow bill what did you kill, bungalow bill?
+hey, bungalow bill what did you kill, bungalow bill? hey, bungalow bill what did you kill, bungalow bill?
+hey, bungalow bill what did you kill, bungalow bill? hey, bungalow bill what did you kill, bungalow bill?
+ey op!  
+i look at you all, see the love there that sleeping while my guitar gently weeps i look at the floor and i see it needs sweeping still my guitar gently weeps
+i do not know why nobody told you how to unfold your love i do not know how someone controlled you they bought and sold you
+i look at the world and i notice it turning while my guitar gently weeps with every mistake we must surely be learning still my guitar gently weeps
+well...
+i do not know how you were diverted you were perverted too i do not know how you were inverted no one alerted you
+i look at you all, see the love there that sleeping  i look from the wings at the play you are staging. while my guitar gently weeps look at you all  as i am sitting here doing nothing but aging still my guitar gently weeps
+oh, oh oh, oh, oh, oh, oh, oh, oh oh, oh, oh, oh
+yeah, yeah, yeah, yeah, yeah yeah, yeah, yeah, yeah, oh, ooh  
+she not a girl who misses much do do do do do do do do, oh yeah she well acquainted with the touch of the velvet hand like a lizard on a window pane the man in the crowd with the multicoloured mirrors on his hobnail boots lying with his eyes while his hands are busy working overtime a soap impression of his wife which he ate and donated to the national trust
+down i need a fix because i am going down down to the bits that i left uptown i need a fix because i am going down
+mother superior jump the gun mother superior jump the gun mother superior jump the gun mother superior jump the gun mother superior jump the gun mother superior jump the gun
+happiness is a warm gun happiness bang, bang, shoot, shoot  happiness is a warm gun, mama happiness bang, bang, shoot, shoot  when i hold you in my arms oo oo oh yeah  and i feel my finger on your trigger oo oo oh yeah  i know nobody can do me no harm oo oo oh yeah 
+because happiness is a warm gun, mama happiness bang, bang, shoot, shoot  happiness is a warm gun, yes it is happiness bang, bang, shoot, shoot  happiness is a warm, yes it is, gun happiness bang, bang, shoot, shoot  well, do not you know that happiness is a warm gun, mama? happiness is a warm gun, yeah   
+martha my dear though i spend my days in conversation please remember me martha my love do not forget me martha my dear
+hold your head up you silly girl look what you have done when you find yourself in the thick of it help yourself to a bit of what is all around you silly girl
+take a good look around you take a good look you are bound to see that you and me were meant to be for each other silly girl
+hold your hand out you silly girl see what you have done when you find yourself in the thick of it help yourself to a bit of what is all around you silly girl
+martha my dear you have always been my inspiration please be good to me martha my love do not forget me martha my dear  
+i am so tired, i have not slept a wink i am so tired, my mind is on the blink i wonder should i get up and fix myself a drink no, no, no
+i am so tired i do not know what to do i am so tired my mind is set on you i wonder should i call you but i know what you would do
+you would say i am putting you on but it no joke, it doing me harm you know i ca not sleep, i ca not stop my brain you know it three weeks, i am going insane you know i would give you everything i have got for a little peace of mind
+i am so tired, i am feeling so upset although i am so tired i will have another cigarette and curse sir walter raleigh he was such a stupid git
+you would say i am putting you on but it no joke, it doing me harm you know i ca not sleep, i ca not stop my brain you know it three weeks, i am going insane you know i would give you everything i have got for a little peace of mind i would give you everything i have got for a little peace of mind i would give you everything i have got for a little peace of mind
+ monsieur, monsieur, monsieur, how about another one?   
+blackbird singing in the dead of night take these broken wings and learn to fly all your life you were only waiting for this moment to arise
+blackbird singing in the dead of night take these sunken eyes and learn to see all your life you were only waiting for this moment to be free
+black bird fly, black bird fly into the light of the dark black night
+black bird fly, black bird fly into the light of the dark black night
+blackbird singing in the dead of night take these broken wings and learn to fly all your life you were only waiting for this moment to arise you were only waiting for this moment to arise you were only waiting for this moment to arise  
+have you seen the little piggies crawling in the dirt? and for all the little piggies life is getting worse always having dirt to play around in
+have you seen the bigger piggies in their starched white shirts? you will find the bigger piggies stirring up the dirt always have clean shirts to play around in
+in their styes with all their backing they do not care what goes on around in their eyes there something lacking what they need a damn good whacking
+everywhere there lots of piggies living piggy lives you can see them out for dinner with their piggy wives clutching forks and knives to eat their bacon
+ one more time...   
+now somewhere in the black mountain hills of dakota there lived a young boy named rocky raccoon and one day his woman ran off with another guy hit young rocky in the eye rocky did not like that he said i am gonna get that boy  so one day he walked into town booked himself a room in the local saloon
+rocky raccoon checked into his room only to find gideon bible rocky had come, equipped with a gun to shoot off the legs of his rival
+his rival, it seems, had broken his dreams by stealing the girl of his fancy her name was magill, and she called herself lil but everyone knew her as nancy
+now she and her man, who called himself dan were in the next room at the hoedown rocky burst in, and grinning a grin he said, danny boy, this is a showdown 
+but daniel was hot, he drew first and shot and rocky collapsed in the corner, ah
+   da da da    da da da    da     do do do do do do
+   do do do    do do do    do do     do do do do do do
+now, the doctor came in, stinking of gin and proceeded to lie on the table he said, rocky, you met your match  and rocky said, doc, it only a scratch and i will be better, i will be better, doc, as soon as i am able 
+and now rocky raccoon, he fell back in his room only to find gideon bible gideon checked out and he left it no doubt to help with good rocky revival, ah oh yeah, yeah
+   do do do    do do do    do do     do do do do do do
+   do do do, come on, rocky boy    do do do, come on, rocky boy    do do     the story of rocky there  
+i listen for your footsteps coming up the drive listen for your footsteps but they do not arrive waiting for your knock, dear on my old front door i do not hear it does it mean you do not love me any more?
+i hear the clock are ticking on the mantel shelf see the hands are moving but i am by myself i wonder where you are tonight and why i am by myself i do not see you does it mean you do not love me any more?
+do not pass me by, do not make me cry, do not make me blue cause you know darling i love only you you will never know it hurt me so how i hate to see you go do not pass me by, do not make me cry
+i am sorry that i doubted you i was so unfair you were in a car crash and you lost your hair you said that you would be late about an hour or two i said that alright i am waiting here just waiting to hear from you
+do not pass me by, do not make me cry, do not make me blue cause you know darling i love only you you will never know it hurt me so how i hate to see you go do not pass me by, do not make me cry  
+why do not we do it in the road? mm why do not we do it in the road? ah why do not we do it in the road? mm why do not we do it in the road? mm no one will be watching us why do not we do it in the road?
+why do not we do it in the road? why do not we do it in the road? why do not we do it in the road? why do not we do it in the road? no one will be watching us why do not we do it in the road?
+ooh
+why do not we do it in the road? why do not we do it in the road? why do not we do it, do it in the road? why do not we do it in the road? no one will be watching us why do not we do it in the road?  
+who knows how long i have loved you you know i love you still will i wait a lonely lifetime if you want me to, i will
+for if i ever saw you i did not catch your name but it never really mattered i will always feel the same
+love you forever and forever love you with all my heart love you whenever we are together love you when we are apart
+and when at last i find you your song will fill the air sing it loud so i can hear you make it easy to be near you for the things you do endear you to me oh, you know i will i will
+mm mm mm mm mm mm mm mm mm da da da da da da da  
+half of what i say is meaningless but i say it just to reach you, julia
+julia, julia, oceanchild, calls me so i sing a song of love, julia julia, seashell eyes, windy smile, calls me so i sing a song of love, julia
+her hair of floating sky is shimmering, glimmering in the sun
+julia, julia, morning moon, touch me so i sing a song of love, julia
+when i cannot sing my heart i can only speak my mind, julia
+julia, sleeping sand, silent cloud, touch me so i sing a song of love, julia hum hum hum hum... calls me so i sing a song of love for julia, julia, julia  
+they say it your birthday it my birthday too, yeah they say it your birthday we are gonna have a good time i am glad it your birthday happy birthday to you
+ah ah ah come on come on
+yes we are going to a party party yes we are going to a party party yes we are going to a party party
+i would like you to dance birthday  take a cha cha cha chance birthday  i would like you to dance birthday  dance yeah
+oh come on
+i would like you to dance birthday  take a cha cha cha chance birthday  i would like you to dance birthday  oh dance! dance
+they say it your birthday well it my birthday too, yeah they say it your birthday we are gonna have a good time i am glad it your birthday happy birthday to you  
+two, three
+yes i am lonely want to die yes i am lonely want to die if i is not dead already ooh girl you know the reason why
+in the morning want to die in the evening want to die if i is not dead already ooh girl you know the reason why
+my mother was of the sky my father was of the earth but i am of the universe and you know what it worth i am lonely want to die if i is not dead already ooh girl you know the reason why
+the eagle picks my eye the worm he licks my bone i feel so suicidal just like dylan mr. jones lonely want to die if i is not dead already ooh girl you know the reason why
+black cloud crossed my mind blue mist around my soul feel so suicidal even hate my rock and roll want to die yeah want to die if i is not dead already ooh girl you know the reason why
+want to die yes, i am lonely want to die the only reason why want to die  
+born a poor young country boy, mother nature son all day long i am sitting singing songs for everyone
+sit beside a mountain stream, see her waters rise listen to the pretty sound of music as she flies
+doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo
+find me in my field of grass, mother nature son swaying daisies sing a lazy song beneath the sun
+doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo yeah yeah yeah
+mm mm mm mm mm mm mm mm mm mm, ooh ooh ooh mm mm mm mm mm mm mm mm mm mm mm, wah wah wah
+wah, mother nature son  
+come on come on come on come on come on it such a joy come on it such a joy
+come on let take it easy come on let take it easy take it easy take it easy everybody got something to hide except for me and my monkey
+ ooh the deeper you go the higher you fly the higher you fly the deeper you go so come on come on come on come on it such a joy come on it such a joy
+come on let make it easy come on let take it easy oh  take it easy yeh yeh yeh take it easy hoo  everybody got something to hide except for me and my monkey, yeah
+oh!
+your inside is out when your outside is in your outside is in when your inside is out so come on ho come on ho  come on it such a joy come on it such a joy
+come on let make it easy come on let make it easy make it easy hoo make it easy hoo  everybody got something to hide except for me and my monkey
+hey!
+come on, come on, come on, come on, come on come on, come on, come on...
+come on, come on, come on, come on, come on come on, come on, come on...  
+sexy sadie what have you done you made a fool of everyone you made a fool of everyone sexy sadie ooh what have you done
+sexy sadie you broke the rules you layed it down for all to see you layed it down for all to see sexy sadie oooh you broke the rules
+one sunny day the world was waiting for a lover she came along to turn on everyone sexy sadie the greatest of them all
+sexy sadie how did you know the world was waiting just for you the world was waiting just for you sexy sadie oooh how did you know
+sexy sadie you will get yours yet however big you think you are however big you think you are sexy sadie oooh you will get yours yet
+we gave her everything we owned just to sit at her table just a smile would lighten everything sexy sadie she the latest and the greatest of them all
+she made a fool of everyone sexy sadie
+however big you think you are sexy sadie  
+when i get to the bottom i go back to the top of the slide where i stop and i turn and i go for a ride till i get to the bottom and i see you again yeah yeah yeah hey
+do you, do not you want me to love you i am coming down fast but i am miles above you tell me tell me tell me come on tell me the answer well you may be a lover but you is not no dancer
+now helter skelter helter skelter helter skelter yeah ooh!
+will you, will not you want me to make you i am coming down fast but do not let me break you tell me tell me tell me the answer you may be a lover but you is not no dancer
+look out helter skelter helter skelter helter skelter ooh
+look out, cos here she comes
+when i get to the bottom i go back to the top of the slide and i stop and i turn and i go for a ride and i get to the bottom and i see you again yeah yeah yeah
+well do you, do not you want me to make you i am coming down fast but do not let me break you tell me tell me tell me the answer you may be a lover but you is not no dancer
+look out helter skelter helter skelter helter skelter
+look out helter skelter she coming down fast yes she is yes she is coming down fast
+ my head is spinning, ooh... 
+ ha ha ha, ha ha ha, alright! 
+ i got blisters on my fingers!   
+it been a long long long time how could i ever have lost you when i loved you
+it took a long long long time now i am so happy i found you how i love you
+so many tears i was searching so many tears i was wasting, oh oh
+now i can see you, be you how can i ever misplace you how i want you oh i love you you know that i need you ooh i love you
+oh  
+ah, take  ok!
+you say you want a revolution well you know we all want to change the world you tell me that it evolution well you know we all want to change the world
+but when you talk about destruction do not you know that you can count me out in
+do not you know it gonna be alright do not you know it gonna be alright do not you know it gonna be alright
+you say you got a real solution well you know we would all love to see the plan you ask me for a contribution well you know we are doing what we can
+but if you want money for people with minds that hate all i can tell you is brother you have to wait
+do not you know it gonna be alright do not you know it gonna be alright do not you know it gonna be alright
+you say you will change the constitution well you know we would all love to change your head you tell me it the institution well you know you better free your mind instead
+but if you go carrying pictures of chairman mao you is not going to make it with anyone anyhow
+do not you know it gonna be alright do not you know it gonna be alright do not you know it gonna be alright
+oh, oh, oh, oh, oh, oh, oh, oh, oh, oh alright, alright, alright, alright, alright alright, alright, alright, alright, alright oh, oh, oh, oh, oh, oh alright, alright, alright alright alright  
+she was a working girl north of england way now she hit the big time in the usa and if she could only hear me this is what i would say
+honey pie you are making me crazy i am in love but i am lazy so will not you please come home
+oh honey pie my position is tragic come and show me the magic of your hollywood song
+you became a legend of the silver screen and now the thought of meeting you makes me weak in the knee
+oh honey pie you are driving me frantic sail across the atlantic to be where you belong
+honey pie come back to me, oh
+yeah i like it like that, oh ah i like this kind of hot kind of music hot kind of music play it to me, play it to me, honey, the blues
+will the wind that blew her boat across the sea kindly send her sailing back to me
+honey pie you are making me crazy i am in love but i am lazy so will not you please come home come, come back to me, honey pie
+oooooooooooh oh oh oh oh oh oh oh oh honey pie, honey pie  
+creme tangerine and montelimar a ginger sling with a pineapple heart a coffee dessert, yes, you know it good news but you will have to have them all pulled out after the savoy truffle
+cool cherry cream, nice apple tart i feel your taste all the time we are apart coconut fudge really blows down those blues but you will have to have them all pulled out after the savoy truffle
+you might not feel it now but when the pain cuts through you are going to know and how the sweat is going to fill your head when it becomes too much you will shout aloud
+but you will have to have them all pulled out after the savoy truffle
+you know that what you eat you are but what is sweet now turns so sour we all know obla dibla da but can you show me where you are?
+creme tangerine and montelimar a ginger sling with a pineapple heart a coffee dessert, yes, you know it good news but you will have to have them all pulled out after the savoy truffle
+yes you will have to have them all pulled out after the savoy truffle  
+cry baby cry make your mother sigh she old enough to know better
+the king of marigold was in the kitchen cooking breakfast for the queen the queen was in the parlour playing piano for the children of the king
+cry baby cry make your mother sigh she old enough to know better so cry baby cry
+the king was in the garden picking flowers for a friend who came to play the queen was in the playroom painting pictures for the childrens holiday
+cry baby cry make your mother sigh she old enough to know better so cry baby cry
+the duchess of kircaldy always smiling and arriving late for tea the duke was having problems with a message at the local bird and bee
+cry baby cry make your mother sigh she old enough to know better so cry baby cry
+at twelve o'clock a meeting round the table for a seance in the dark with voices out of nowhere put on specially by the children for a lark
+cry baby cry make your mother sigh she old enough to know better so cry baby cry cry cry cry baby make your mother sigh she old enough to know better cry baby cry
+cry cry cry make your mother sigh she old enough to know better so cry baby cry  
+ bottle of claret for you if i had realised
+well, do it next time.
+i forgot about it, george, i am sorry. will you forgive me?
+yes. 
+cheeky bitch!
+number , number , number , number , number , number , number , number , number , number , number , number , number , number , number
+then there this welsh rarebit wearing some brown underpants about the shortage of grain in hertfordshire everyone of them knew that as time went by they would get a little bit older and a little bit slower but it all the same thing, in this case manufactured by someone who always umpteen your father giving it diddly i dee district was leaving, intended to pay for
+number , number 
+who to know? who was to know?
+number , number , number , number , number , number , number , number , number , number , number , number 
+i sustained nothing worse than also for example whatever you are doing a business deal falls through i informed him on the third night when fortune gives
+number , number , number 
+people right, people right right, right, right, right, right right! right!
+ , number , number , number 
+i have missed all of that it makes me a few days late compared with, like, wow! and weird stuff like that taking our sides sometimes floral bark rouge doctors have brought this specimen
+i have nobody short cuts, aha
+ , number 
+with the situation
+they are standing still
+the plan, the telegram
+ooh ooh
+number , number
+ooh
+a man without terrors from beard to false as the headmaster reported to me my son he really can try as they do to find function tell what he was saying, and his voice was low and his hive high and his eyes were low
+alright!
+his head was on fire, his glasses were saved this was... which enables him to move about
+number , number , number , number , number , number , number , number , number , number , number 
+so the wife called me and we would better go to see a surgeon or whatever to price it yellow underclothes so, any road, we went to see the dentist instead who gave her a pair of teeth which was not any good at all so so instead of that he joined the fucking navy and went to sea
+in my broken chair, my wings are broken and so is my hair i am not in the mood for whirling
+um da aaah
+how? we are gathered in france
+dogs for dogging, hands for clapping birds for birding and fish for fishing them for themming and when for whimming
+only to find the night watchman unaware of his presence in the building
+onion soup
+number , number , number , number , number , number 
+industrial output financial imbalance
+thrusting it between his shoulder blades
+the watusi the twist
+eldorado
+take this brother, may it serve you well
+maybe it nothing aaah maybe it nothing what? what? oh
+maybe even then impervious in london could be difficult thing
+hold that line! hold that line! hold that line! hold that line!
+it quick like rush for peace is because it so much it was like being naked it alright, it alright, it alright
+if you become naked
+block that kick! block that kick! block that kick! block that kick! block that kick! block that kick! block that kick! block that kick! block that kick! block that kick!  
+now it time to say good night good night, sleep tight now the sun turns out his light good night, sleep tight dream sweet dreams for me dream sweet  dream sweet dreams for you
+close your eyes and i will close mine good night, sleep tight now the moon begins to shine good night, sleep tight dream sweet dreams for me dream sweet  dream sweet dreams for you
+mmmmmm mmmmmm mmmmmmmmmm
+close your eyes and i will close mine good night, sleep tight now the sun turns out his light good night, sleep tight dream sweet dreams for me dream sweet  dream sweet dreams for you
+good night, good night, everybody everybody everywhere good night</t>
+  </si>
+  <si>
+    <t>if i should stay i would only be in your way so i will go but i know i will think of you every step of the way
+and i... will always love you, ooh will always love you you my darling, you... mmm mm
+bittersweet memories  that is all i am taking with me so good bye please do not cry  we both know i am not what you, you need
+and i... will always love you i... will always love you you, ooh
+i hope life treats you kind and i hope you have all you have dreamed of and i wish you joy and happiness but above all this i wish you love
+and i... will always love you i will always love you i will always love you i will always love you
+i will always love you i, i will always love you
+you darling, i love you i will always... i will always love you ooh ooh  
+share my life, take me for what i am because i will never change all my colours for you take my love, i will never ask for too much just all that you are and everything that you do
+i do not really need to look very much further i do not want to have to go where you do not follow i will not hold it back again, this passion inside ca not run from myself there nowhere to hide
+do not make me close one more door i do not want to hurt anymore stay in my arms if you dare or must i imagine you there do not walk away from me... i have nothing, nothing, nothing if i do not have you, you, you, you, you
+you see through right to the heart of me you break down my walls with the strength of your love i never knew love like i have known it with you will a memory survive, one i can hold on to
+i do not really need to look very much further i do not want to have to go where you do not follow i will not hold it back again, this passion inside i ca not run from myself there nowhere to hide your love i will remember forever
+do not make me close one more door i do not want to hurt anymore stay in my arms if you dare or must i imagine you there do not walk away from me... i have nothing, nothing, nothing...
+do not make me close one more door i do not want to hurt anymore stay in my arms if you dare or must i imagine you there do not walk away from me, no do not walk away from me do not you dare walk away from me i have nothing, nothing, nothing if i do not have you, you if i do not have you, oh, ooh, ooh  
+whatever you want whatever you need anything you want done, baby, i do it naturally because i am every woman every woman  it all in me it all in me yeah
+i am every woman it all in me anything you want done, baby, i do it naturally
+i am every woman it all in me i can read your thoughts right now every one from a to z... whoa whoa whoa whoa oh whoa oh whoa
+i can cast a spell secrets you ca not tell mix a special brew, put fire inside of you anytime you feel danger or fear then instantly i will appear yeah oh
+i am every woman it all in me anything you want done, baby, i do it naturally whoa whoa whoa whoa whoa whoa
+i can sense your needs like rain unto the seeds i can make a rhyme of confusion in your mind and when it comes down to some good old fashioned love i got it, i got it, i got it, got it, baby, baby
+i am every woman it all in me anything you want done, baby, i do it naturally
+i am every woman it all in me i can read your thoughts right now every one from a to z... whoa whoa whoa whoa whoa whoa
+i is not bragging because i am the one just ask me oh, it shall be done and do not bother to compare i have got it
+whoa whoa whoa whoa whoa whoa whoa whoa whoa ah
+i am every woman 
+i am every woman 
+i am every woman chaka khan  i am every woman chaka khan  i am every woman ha, ha, ha  i am every woman my girl   
+ooh, i know that when you look at me there so much that you just do not see but if you would only take the time i know in my heart you would find oh, a girl, who scared sometimes who is not always strong ca not you see the hurt in me? i feel so all alone
+i want to run to you i want to run to you will not you hold me in your arms? and keep me safe from harm i want to run to you but if i come to you tell me, will you stay or will you run away?
+each day, each day i play the role of someone always in control but at night, i come home and turn the key there nobody there, no one cares for me oh woah, what the sense of trying hard to find your dreams? without someone to share them with tell me, what does it mean?
+i want to run to you i want to run to you will not you hold me in your arms? and keep me safe from harm i want to run to you but if i come to you tell me, will you stay or will you run away? run away
+no, i need you here i need you here to wipe away my tears to kiss away my fears no, if you only knew how much i want to run to you know i want to run to you will not you hold me in your arms? and keep me safe from harm i want to run to you but if i come to you tell me, will you stay or will you run away?  
+i have got the stuff that you want i have got the thing that you need i have got more than enough to make you drop to your knees because i am the queen of the night the queen of the night, oh yeah, oh yeah, oh yeah yeah
+do not make no difference if i am wrong or i am right i have got the feeling and i am willing tonight well, i is not nobody angel, what can i say? well, i am just that way, hey
+i have got the stuff that you want stuff that you want  i have got the thing that you need thing that you need  i have got more than enough to make you drop to your knees because i am the queen of the night queen of the night  the queen of the night, oh yeah, just say say say queen of the night  because i am the queen of the night queen of the night  the queen of the night, oh yeah, oh yeah, oh yeah yeah queen of the night 
+you got a problem with the way that i am they say i am trouble and i do not give a damn but when i am bad i know i am better i just want to get you and turn it up for you
+i have got the stuff that you want stuff that you want  i have got the thing that you need thing that you need  i have got more than enough to make you drop to your knees more than enough, woo  because i am the queen of the night queen of the night  the queen of the night, oh yeah, just say, say it again queen of the night  because i am the queen of the night the queen of the night  the queen of the night, oh yeah, oh yeah, oh yeah yeah
+you play the guitar, yeah yeah ooh ohh, yeah
+i have got the stuff that you want stuff that you want  i have got the thing that you need the thing that you need  i have got more than enough to make you drop to your knees more than enough to make you drop  because i am the queen of the night the queen of the night  the queen of the night, oh yeah, oh say it again queen of the night  because i am the queen of the night queen of the night  the queen of the night, oh yeah, oh yeah, oh yeah yeah queen of the night  because i am the queen of the night the queen of the night  the queen of the night, oh yeah, oh yeah, oh yeah, oh yeah yeah ...  
+yes jesus loves me for the bible tells me so  jesus loves me this i know  for the bible tells me so  little ones to him belong  they are weak but he is strong 
+yes jesus loves me  oh, yes jesus loves me  yes jesus loves me for the bible tells me so 
+pressing on the upper away always guide me lord i pray  undeserving, and stubborn willed, never fail to love me still
+yes jesus loves me  oh yes jesus loves me  oh yes jesus loves me, for the bible tells me so  yes jesus loves me, love  oh yes jesus loves me for the bible tells me so  for the bible tells me so 
+ feels so good to know that i am never alone  see, sometimes i am lonely but never alone  for the bible tells, for the bible tells  for the bible tells me so 
+see i know that he loves me  whether i am right, whether i am wrong</t>
+  </si>
+  <si>
+    <t>i looked out this morning and the sun was gone turned on some music to start my day i lost myself in a familiar song i closed my eyes and i slipped away
+it more than a feeling  more than a feeling  when i hear that old song they used to play  more than a feeling  and i begin dreaming  more than a feeling  until i see marianne walk away i see my marianne walking away
+so many people have come and gone their faces fade as the years go by yet i still recall as i wander on as clear as the sun in the summer sky
+it more than a feeling  more than a feeling  when i hear that old song they used to play  more than a feeling  and i begin dreaming  more than a feeling  until i see marianne walk away i see my marianne walking away
+when i am tired and thinking cold i hide in my music, forget the day and dream of a girl i used to know i closed my eyes and she slipped away she slipped away
+it more than a feeling  more than a feeling  when i hear that old song they used to play  more than a feeling  and i begin dreaming  more than a feeling  until i see marianne walk away  
+now if you are feeling kinda low about the dues you have been paying future coming much too slow and you want to run but somehow you just keep on staying ca not decide on which way to go yeah, yeah, yeah
+i understand about indecision but i do not care if i get behind people living in competition all i want is to have my peace of mind
+now you are climbing to the top of the company ladder hope it does not take too long can'tcha see there will come a day when it will not matter come a day when you will be gone
+i understand about indecision but i do not care if i get behind people living in competition all i want is to have my peace of mind
+take a look ahead, take a look ahead, yeah, yeah, yeah, yeah...
+now everybody got advice they just keep on giving does not mean too much to me lot of people out to make believe they are living ca not decide who they should be
+i understand about indecision but i do not care if i get behind people living in competition all i want is to have my peace of mind
+take a look ahead, take a look ahead. look ahead  
+it been such a long time i think i should be going, yeah and time does not wait for me, it keeps on rolling sail on, on a distant highway i have got to keep on chasing a dream i have gotta be on my way wish there was something i could say
+well i am taking my time, i am just moving on you will forget about me after i have been gone and i take what i find, i do not want no more it just outside of your front door
+it been such a long time. it been such a long time
+well i get so lonely when i am without you but in my mind, deep in my mind i ca not forget about you good times, and faces that remind me i am trying to forget your name and leave it all behind me you are coming back to find me
+well i am taking my time, i am just moving on you will forget about me after i have been gone and i take what i find, i do not want no more it just outside of your front door
+it been such a long time. it been such a long time
+yeah. it been such a long time, i think i should be going, yeah and time does not wait for me, it keeps on rolling there a long road, i have gotta stay in time with i have got to keep on chasing that dream, though i may never find it i am always just behind it
+well i am taking my time, i am just moving along taking my time, just moving along taking my time, taking my time...  
+well, we were just another band out of boston on the road to try to make ends meet playing all the bars, sleeping in our cars and we practiced right on out in the street no, we did not have much money we barely made enough to survive but when we got up on stage and got ready to play people came alive.
+rock and roll band everybody waiting getting crazy anticipating love and music play, play, play, yeah, yeah, yeah, yeah
+dancing in the streets of hyannis we were getting pretty good at the game people stood in line and did not seem to mind you know everybody knew our name living on rock n roll music never worry about the things we were missing when we got up on the stage and got ready to play everybody would listen.
+rock and roll band everybody waiting getting crazy anticipating love and music play, play, play, yeah, yeah, yeah, yeah
+playing for a week in rhode island a man came to the stage one night he smoked a big cigar drove a cadillac car and said, boys, i think this bands outta sight sign a record company contract you know i have got great expectations when i hear you on the car radio you are going to be a sensation! 
+rock and roll band everybody waiting getting crazy anticipating love and music play, play, play, yeah, yeah, yeah, yeah  
+we are gonna play you a song, a little bit of rock n roll you gotta let yourself go, the band gonna take control. we are getting down today we will pick you up and take you away get down tonight
+smoking, smoking we are cooking tonight, just keep on toking smoking, smoking i feel alright, mamma i am not joking, yeah.
+get your feet to the floor, everybody rock and roll you have got nothing to lose just the rhythm and blues, that all, yeah we are gonna feel ok we will pick you up and take you away get down tonight.
+smoking, smoking we are cooking tonight, just keep on toking smoking, smoking i feel alright, mamma i am not joking, yeah.
+everybody jumping, dancing to the boogie tonight clap your hands, move your feet if you do not you know it will not seem right we are getting down today we will pick you up and take you away get down tonight
+we are getting down today we will pick you up and take you away get down tonight, well alright!  
+day is night in new york city smoke, like water, runs inside steel idle trees to pity every living things that died
+gonna hitch a ride head for the other side leave it all behind never change my mind gonna sail away sun lights another day freedom on my mind carry me away for the last time oh yeah
+life is like the coldest winter people freeze the tears i cry words of hail their minds are into i have got to crack this ice and fly
+gonna hitch a ride head for the other side leave it all behind never change my mind gonna sail away sun lights another day freedom on my mind carry me away for the last time
+gonna hitch a ride head for the other side leave it all behind never change my mind gonna sail away sun lights another day freedom on my mind carry me away for the last time  
+when i was younger i thought i could stand on my own it was not easy, i stood like a man made of stone
+but there was something about you i want you to know it brought a change over me it starting to show i have got this feeling inside gotta have you, have you, is not no good to hide
+it is not easy to show what i am feeling inside, girl it is not easy i know, when you believe in a man like me
+when i get angry i say things i do not want to say i really mean it, i do not want to leave you this way
+i could not help my reaction i want you to know i lose control over you i just wantcha to know got this feeling inside gotta have you, have you, is not no good to hide
+it is not easy to show what i am feeling inside, girl it is not easy i k now, when you believe in a man like me
+but there was something about you i want you to know it brought a change over me it starting to show i got this feeling inside, gotta have you, have you is not no good to hide.
+it is not easy to show what i am feeling inside, girl it is not easy i know, to believe in a man like me like me, can'tch see i gotta gotta have you
+but there was something about yeah there was something about you.  
+now i am not like this, i am really kind of shy but i get this feeling whenever you walk by i do not want to down you, i want to make you high if you could see your way to me, come on and let me try
+let me take you home tonight mamma now it alright let me take you home tonight i will show you sweet delight
+you must understand this, i have watched you for so long that i feel i have known you, i know it ca not be wrong if we just get together, i want to make you see i am dreaming of your sweet love tonight, so mamma let it be
+let me take you home tonight mamma now it alright let me take you home tonight i will show you sweet delight
+i do not want to make excuses, i do not want to lie i just got to get loose with you tonight
+let me take you home tonight mamma now it alright let me take you home tonight i will show you sweet delight
+i do not want to make excuses, i do not want to lie i just got to get loose with you tonight
+i do not want to down you, i want to make you high and i get this feeling whenever you walk by if we just get together, i want to make you see i am dreaming of your sweet love tonight, so mamma let it be
+let me take you home tonight mamma now it alright let me take you home tonight i will show you sweet delight i want to show you sweet delight, show you sweet delight pretty mamma want to show you sweet delight
+let me take you home tonight you know i want to take you home let me take you home tonight i do not want to be alone let me take you home tonight let me take you home tonight let me take you home tonight</t>
+  </si>
+  <si>
+    <t>three thirty in the morning not a soul in sight the city looking like a ghost town on a moonless summer night raindrops on the windshield there a storm moving in he heading back from somewhere that he never should have been and the thunder rolls and the thunder rolls
+every light is burning in a house across town she pacing by the telephone in her faded flannel gown asking for a miracle and hoping she not right praying it the weather that has kept him out all night and the thunder rolls and the thunder rolls
+the thunder rolls and the lightning strikes another love grows cold on a sleepless night as the storm blows on out of control deep in her heart the thunder rolls
+she waiting by the window when he pulls into the drive she rushes out to hold him thankful he alive but on the wind and rain a strange new perfume blows and the lightning flashes in her eyes and he knows that she knows and the thunder rolls and the thunder rolls
+the thunder rolls and the lightning strikes another love grows cold on a sleepless night as the storm blows on out of control deep in her heart the thunder rolls  
+like birds on a high line  they line up at night time at the bar  they all once were lovebirds  now bluebirds are all that they are  they landed in hell  the minute they fell from love sky  and now they hope in the wine  tht they will find a new way to fly 
+a new way to fly  far away from goodbye  above the clouds and the rain  the memories and the pain  and the tears that they cry  now the lessons been learned  they have all crashed and burned  but they can leve it behind  if they could just find  a new way to fly 
+by the end of the night  they will be high as a kite once again  and they do not seem to mind all the time  or the money they spend  it a high price to pay  to just find a way to get by  but it worth every dime  if they find a new way to fly 
+a new way to fly  far away from goodbye  above the clouds and the rain  the memories and the pain  and the tears that they cry  now the lessons been learned  they have all crashed and burned  but they can leve it behind  if they could just find  a new way to fly 
+they will leave it behind  as soon as they find  a new way to fly  
+yes, she my lady luck  hey, i am her wild card man  together we are building up a real hot hand  we live out in the country  hey, she my little queen of the south  yea, we are two of a kind  working on a full house 
+she wakes me every morning  with a smile and a kiss  her strong country loving is hard to resist  she my easy loving woman  i am her hard working man, no doubt  yea, we are two of a kind  working on a full house 
+yea, a pickup truck is her limousine  and her favorite dress is her faded blue jeans  she loves me tender when the going gets tough  somtimes we fight just so we can make up 
+lord i need that little woman  like the crops need the rain  she my honeycomb and i am her sugar cane  we really fit together  if you know what i am talking about  yea, we are two of a kind  working on a full house 
+this time i found a keeper, i made up my mind  lord the perfect combination is her heart and mine  the sky the limit, no hill is too steep  we are playing for fun, but we are playing for keeps 
+so draw the curtain, honey  turn the lights down low  we will find some country music on the radio  i am yours and you are mine  hey, that what it all about  yea, we are two of a kind  working on a full house 
+lordy, mama, we will be two of a kind  working on a full house  
+well, it took a little time  but i guess you finally learned  that promises get broken  and bridges do get burned  you have been sifting through the ashes  just trying to find a flame  holding on to nothing  you are a victim of the game 
+you were standing way too close  to see it all fall apart  and there were things you could not hear  because you were listening with your heart  but you ca not say i did not warn you  now there no one else to blame  there on one quite as blind  as a victim of the game 
+and it do not matter who you are  it treats everyone the same  all you need a heart  to be a victim of the game 
+you know it really getting to you  when you take to telling lies  and you can try to fool your friends  but yo ca not look them in the eye  there is not no standing tall  in the shadow of the shame  when everybody knows  that you are a victim of the game 
+and it do not matter who you are  it treats everyone the same  all you need a heart  to be a victim of the game 
+oh, you know, when i look into your eyes  i can really feel the pain  staring in the mirror  at a victim of the game  
+blame it all on my roots i showed up in boots and ruined your black tie affair the last one to know the last one to show i was the last one you thought you would see there
+and i saw the surprise and the fear in his eyes when i took his glass of champagne and i toasted you said, honey, we may be through, but you will never hear me complain. 
+because i have got friends in low places where the whiskey drowns and the beer chases my blues away and i will be okay i am not big on social graces think i will slip on down to the oasis oh, i have got friends in low places
+well, i guess i was wrong i just do not belong but then i have been there before everything all right i will just say goodnight and i will show myself to the door
+hey, i did not mean to cause a big scene just give me an hour and then well, i will be as high as that ivory tower that you are living in
+because i have got friends in low places where the whiskey drowns and the beer chases my blues away and i will be okay i am not big on social graces think i will slip on down to the oasis oh, i have got friends in low places
+i have got friends in low places where the whiskey drowns and the beer chases my blues away and i will be okay i am not big on social graces think i will slip on down to the oasis oh, i have got friends in low places
+i have got friends in low places where the whiskey drowns and the beer chases my blues away and i will be okay i am not big on social graces think i will slip on down to the oasis oh, i have got friends in low places
+i have got friends in low places where the whiskey drowns and the beer chases my blues away and i will be okay  
+from a phone booth in cheyenne  i made a promise to diane  no more rodeos  i would gone my last go around 
+the same promise that i made  in san antone and santa fe  but tonight i saddled up  and let her down 
+wild horses keep dragging me away  and i will lose more than i am gonna win someday  wild horses just stay wild  and her heart is all i break  wild horses keep dragging me away 
+she will watch me drive around her block  getting courage up to stop  to make her one more promise  that i ca not keep 
+the way i love the rodeo  i guess i should let her go  before i hurt her more  than she loves me 
+wild horses keep dragging me away  and i will lose more than i am gonna win someday  wild horses just stay wild  and her heart is all i break  wild horses keep dragging me away  
+just the other night at a hometown football game my wife and i ran into my old high school flame and as i introduced them the past came back to me and i could not help but think of the way things used to be
+she was the one that i would wanted for all times and each night i would spend praying that god would make her mine and if he would only grant me this wish i wished back then i would never ask for anything again
+sometimes i thank god for unanswered prayers remember when you are talking to the man upstairs that just because he does not answer does not mean he do not care some of god greatest gifts are unanswered prayers
+she was not quite the angel that i remembered in my dreams and i could tell that time had changed me in her eyes too it seemed we tried to talk about the old days there was not much we could recall i guess the lord knows what he doing after all
+and as she walked away and i looked at my wife and then and there i thanked the good lord for the gifts in my life
+sometimes i thank god for unanswered prayers remember when you are talking to the man upstairs that just because he may not answer does not mean he do not care some of god greatest gifts are unanswered
+some of god greatest gifts are all too often unanswered... some of god greatest gifts are unanswered prayers  
+while they dance  how she holds him  pulls him close  and loves him so  while he dreams of another  and counts the days  until he lets her go 
+same old story  that everybody knows  it one heart holding on  one letting go 
+while they ride  lord, he tells her  how they two  will settle down  but she only hears the highway  and a voice  in some other town 
+and the harder  he holds her  the more she slips away 
+same old story  that everybody knows  it one heart holding on  one letting go  
+our guardian star lost all its glow the day that i lost you it lost all its glitter the day you said no and its grey skies turned to blue
+like him i am doubtful that your love is true so if you decide to call on me ask for mr. blue
+i am mr. blue when you say you love me then prove it by going out on the sly proving your love is untrue call me mr. blue
+i am mr. blue when you say you are sorry then turn around headed for the lights of town hurting me through and through call me mr. blue
+i sleep alone each night wait by the phone each night but you do not call and i will not hurt my pride call me mister
+i will not tell you when you paint the town a bright red to turn it upside down i am painting it too but i am painting it blue
+i sleep alone each night wait by the phone each night but you do not call and i will not hurt my pride call me mister
+i will not tell you when you paint the town a bright red to turn it upside down i am painting it too but i am painting it blue call me mr. blue call me mister  
+january always bitter but lord this one beats all the wind is not quit for weeks now and the drifts are ten feet tall i been all night driving heifers closer in to lower ground then i spent the morning thinking about the ones the wolves pulled down
+charlie barton and his family stopped today to say goodbye he said the bank was taking over the last few years were just too dry and i promised that i would visit when they found a place in town then i spent a long time thinking about the ones the wolves pull down
+lord please shine a light of hope on those of us who fall behind and when we stumble in the snow could you help us up while there still time
+well i do not mean to be complaining lord you have always seen me through and i know you got your reasons for each and every thing you do but tonight outside my window there a lonesome mournful sound and i just ca not keep from thinking about the ones the wolves pull down
+oh lord keep me from being the one the wolves pull down  
+it a big estate with wrought iron gates and palm trees standing tall fancy mirrors and chandeliers comfort wall to wall and the ocean air is so crisp and clear and they rave about our view
+but there is not no mountain breeze and there is not no hickory trees and this is not tennessee and she is not you
+there a bedroom suite where she comes to me and as her fingers touch my face i close my eyes and i fantasize of another time and place what she feels is so warm and real and i know her love is true and she tries so hard to please still i think sometimes she sees that this is not tennessee and she is not you
+it not that it not good enough and it not that i am not man enough there just something easy going that i love about you and tennessee
+so i made up my mind to learn my lines and try to play the part but part of me is in tennessee and deep down in my heart i miss my smoky mountain home and i miss your loving too and it deep inside of me and it always gonna be because this is not tennessee and she is not you</t>
+  </si>
+  <si>
+    <t>well, you can tell by the way i use my walk, i am a woman man no time to talk. music loud and women warm, i have been kicked around since i was born.
+and now it all right. it ok. and you may look the other way. we can try to understand the new york times effect on man.
+whether you are a brother or whether you are a mother, you are staying alive, staying alive. feel the city breaking and everybody shaking, and we are staying alive, staying alive. ah, ha, ha, ha, staying alive, staying alive. ah, ha, ha, ha, staying alive.
+well, now, i get low and i get high, and if i ca not get either, i really try. got the wings of heaven on my shoes. i am a dancing man and i just ca not lose.
+you know it all right. it ok. i will live to see another day. we can try to understand the new york times effect on man.
+whether you are a brother or whether you are a mother, you are staying alive, staying alive. feel the city breaking and everybody shaking, and we are staying alive, staying alive. ah, ha, ha, ha, staying alive, staying alive. ah, ha, ha, ha, staying alive.
+life going nowhere. somebody help me. somebody help me, yeah. life going nowhere. somebody help me, yeah. staying alive.
+well, you can tell by the way i use my walk, i am a woman man no time to talk. music loud and women warm, i have been kicked around since i was born.
+and now it all right. it ok. and you may look the other way. we can try to understand the new york times effect on man.
+whether you are a brother or whether you are a mother, you are staying alive, staying alive. feel the city breaking and everybody shaking, and we are staying alive, staying alive. ah, ha, ha, ha, staying alive, staying alive. ah, ha, ha, ha, staying alive.
+life going nowhere. somebody help me. somebody help me, yeah. life going nowhere. somebody help me, yeah. i am staying alive.
+life going nowhere. somebody help me. somebody help me, yeah. life going nowhere. somebody help me, yeah. i am staying alive.
+life going nowhere. somebody help me. somebody help me, yeah. life going nowhere. somebody help me, yeah. i am staying alive.
+life going nowhere. somebody help me. somebody help me, yeah. life going nowhere. somebody help me, yeah. i am staying alive.  
+i know your eyes in the morning sun i feel you touch me in the pouring rain and the moment that you wander far from me i want to feel you in my arms again
+and you come to me on a summer breeze keep me warm in your love then you softly leave and it me you need to show how deep is your love
+how deep is your love, how deep is your love i really mean to learn because we are living in a world of fools breaking us down when they all should let us be we belong to you and me
+i believe in you you know the door to my very soul you are the light in my deepest darkest hour you are my saviour when i fall and you may not think i care for you when you know down inside that i really do and it me you need to show how deep is your love
+how deep is your love, how deep is your love i really mean to learn because we are living in a world of fools breaking us down when they all should let us be we belong to you and me
+and you come to me on a summer breeze keep me warm in your love then you softly leave and it me you need to show how deep is your love
+how deep is your love, how deep is your love i really mean to learn because we are living in a world of fools breaking us down when they all should let us be we belong to you and me    
+listen to the ground  there is movement all around. there is something going down and i can feel it.
+on the waves of the air, there is dancing out there. if it something we can share, we can steal it.
+and that sweet city woman, she moves through the light, controlling my mind and my soul. when you reach out for me yeah, and the feeling is right,
+then i get night fever, night fever. we know how to do it. gimme that night fever, night fever. we know how to show it.
+here i am, praying for this moment to last, living on the music so fine, borne on the wind, making it mine.
+night fever, night fever. we know how to do it. gimme that night fever, night fever. we know how to show it.
+in the heat of our love, do not need no help for us to make it. gimme just enough to take us to the morning. i got fire in my mind. i get higher in my walking. and i am glowing in the dark  i give you warning.
+and that sweet city woman, she moves through the light, controlling my mind and my soul. when you reach out for me yeah, and the feeling is right,
+then i get night fever, night fever. we know how to do it. gimme that night fever, night fever. we know how to show it.
+here i am, praying for this moment to last, living on the music so fine, borne on the wind, making it mine.
+night fever, night fever. we know how to do it feels like forever baby, do not you know  gimme that night fever, night fever. we know how to show it i will leave you never baby, do not you know 
+night fever, night fever. we know how to do it feels like forever baby, do not you know  gimme that night fever, night fever. we know how to show it i will leave you never baby, do not you know 
+night fever, night fever. we know how to do it feels like forever baby, do not you know   
+oh, girl i have known you very well i have seen you growing everyday i never really looked before but now you take my breath away
+suddenly you are in my life part of everything i do you got me working day and night just trying to keep a hold on you
+here in your arms i found my paradise my only chance for happiness and if i lose you now i think i would die
+oh say you will always be my baby we can make it shine, we can take forever just a minute at a time
+more than a woman, more than a woman to me more than a woman, more than a woman to me more than a woman, oh, oh, oh.
+there are stories old and true of people so in love like you and me and i can see myself let history repeat itself
+reflecting how i feel for you thinking about those people then i know that in a thousand years i would fall in love with you again
+this is the only way that we should fly this is the only way to go and if i lose your love i know i would die
+oh say you will always be my baby we can make it shine, we can take forever just a minute at a time
+more than a woman, more than a woman to me more than a woman, more than a woman to me more than a woman, oh, oh, oh  
+do not know why i am surviving every lonely day when there got to be no chance for me
+my life would end and it just do not matter how i cry my tears of love are a waste of time if i turn away
+am i strong enough to see it through go crazy is what i will do
+if i ca not have you i do not want nobody baby if i ca not have you, oh oh oh oh if i ca not have you i do not want nobody baby if i ca not have you, oh oh oh...
+ca not let go and it does not matter how i try i gave it all so easily to you my love
+to dreams that never will come true am i strong enough to see it through go crazy is what i will do
+if i ca not have you i do not want nobody baby if i ca not have you, oh oh oh oh if i ca not have you i do not want nobody baby if i ca not have you, oh oh oh...  
+it just your jive talking you are telling me lies, yeah jive talking you wear a disguise jive talking so misunderstood, yeah jive talking you really no good
+oh, my child you will never know just what you mean to me oh, my child you got so much you are gonna take away my energy
+with all your jive talking you are telling me lies, yeah good loving still gets in my eyes nobody believes what you say it just your jive talking that gets in the way
+oh my love you are so good treating me so cruel there you go with your fancy lies leaving me looking like a dumbstruck fool with all your
+jive talking you are telling me lies, yeah jive talking you wear a disguise jive talking so misunderstood, yeah jive talking you just is not no good
+love talking is all very fine, yeah jive talking just is not a crime and if there somebody you will love till you die then all that jive talking just gets in your eye
+jive talking you are telling me lies,yeah good loving still gets in my eyes nobody believes what you say it just your jive talking that gets in the way
+love talking is all very fine, yeah jive talking, just is not a crime and if there somebody you will love till you die then all that jive talking just gets in your eye
+jive talking  
+my baby moves at midnight goes right on till the dawn my woman takes me higher my woman keeps me warm
+what you doing on your back aah what you doing on your back aah you should be dancing, yeah dancing, yeah
+she juicy and she trouble she gets it to me good my woman gives me power goes right down to my blood
+what you doing on your back aah what you doing on your back aah you should be dancing, yeah dancing, yeah
+my baby moves at midnight goes right on till the dawn my woman takes me higher my woman keeps me warm
+what you doing on your back aah what you doing on your back aah you should be dancing, yeah dancing, yeah
+you should be dancing, yeah you should be dancing, yeah you should be dancing, yeah you should be dancing, yeah you should be dancing, yeah</t>
+  </si>
+  <si>
+    <t>drop down, baby, let your daddy see. drop down, my lady, just dream of me well, my mama allow me to fool around all night long well, i may look like i am crazy, i should know right from wrong
+see me coming, throw your man outdoor is not no stranger, done been this way before see me coming, mama, i throw your man outdoor i is not no stranger, i been this way before.
+put on your night shirt and your morning gown you know by night i am gonna shake them on down put on your night shirt, mama, and your morning gown well, you know by night i am sure gonna shake them on down shake it, shake it
+ooh, your custard pie, yeah, sweet and nice when you cut it, mama, save me a slice your custard pie, yeah, i declare you are sweet and nice like your custard pie when you cut it, mama... mama, please save me a slice.
+oh i chew on a piece of your custard pie. 
+drop down 
+chew on a piece of your custard pie.  
+i have been to london seen seven wonders i know to trip is just to fall i used to rock it sometimes i would roll it i always knew what it was for
+there can be no denying that the wind will shake them down and the flat world flying and there a new plague on the land
+just join hands we could just join hands if we could just join hands
+traversed the planet when heaven sent me i saw the kings who rule them all still by the firelight and purple moonlight i hear the rested rivers call
+and the wind is crying from a love that will not grow cold my lover she is lying on the dark side of the globe
+just join hands we could just join hands if we could just join hands
+you got me rocking when i ought to be a rolling darling tell me, darling, which way to go you keep me rocking baby, then you keep me stolen will not you tell me darling, which way to go that right
+oh how i wonder oh how i worry and i would dearly like to know i have all this wonder of earthly plunder will it leave us anything to show
+and our time is flying see the candle burning low is the new world rising from the shambles of the old?
+if we could just join hands if we could just join hands if we could just, if we could just, if we could just if we could just, if we could just join hands that all it takes, that all it takes that all it takes, that all it takes  
+in my time of dying, want nobody to mourn all i want for you to do is take my body home
+well, well, well, so i can die easy  well, well, well, so i can die easy 
+jesus, gotta make up you know jesus, gotta make up jesus, gonna make it my dying bed
+meet me, jesus, meet me meet me in the middle of the air if my wings should fail me, lord oh, please meet me with another pair
+well, well, well, so i can die easy  well, well, well, so i can die easy 
+jesus, gonna make up somebody, somebody jesus gonna make up jesus gonna make it my dying bed
+oh, saint peter, at the gates of heaven will not you let me in i never did no harm i never did no wrong
+oh, gabriel, let me blow your horn let me blow your horn oh, i never did, did no harm, did no harm
+i have only been this young once i never thought i would do anybody no wrong no, not once
+oh, i did somebody some good somebody some good
+oh, did somebody some good i must have did somebody some good oh, i believe i did
+i see the smiling faces i know i must have left some traces
+and i see them in the streets and i see them in the field and i hear them shouting under my feet and i know it got to be real
+oh, lord, deliver me all the wrong i have done oh, you can deliver me, lord i only wanted to have some fun
+oh, hear the angels marching, hear the marching, hear them marching, hear them marching, the marching
+oh my jesus 
+i know got my jesus it got to be my jesus it got to be  it got to be my jesus it got to be  it got to be my jesus take me home
+come on, come on i can hear the angels singing oh here they come, here they come, here they come
+bye, bye, bye, bye, bye, bye, bye, bye oh, feels pretty good up here pretty good up here oh, georgina oh, georgina oh, georgina oh, georgina
+ooh let see it again come on take  oh, yes, come on
+oh, do not you make it my dying, dying, dying cough
+that gonna be the one, is not it? come have a listen, then oh, yes, thank you  
+let me take you to the movies. can i take you to the show? let me be yours ever truly. can i make your garden grow?
+from the houses of the holy we can watch the white doves go. from the door comes satan daughter. and it only goes to show. and you know.
+there an angel on my shoulder. in my hand a sword of gold. let me wander in your garden. and the seeds of love i will sow. you know.
+so the world is spinning faster. are you dizzy when you stall? let the music be your master. will you heed the master call?
+satan and man.
+said there is not no use in crying because it will only, only drive you mad. does it hurt to hear them lying? was this the only world you had?
+so let me take you, take you to the movie. can i take you, baby, to the show? why do not you let me be yours ever truly? can i make your garden grow? you know that right.  
+greasy slicked down body, groovy leather trim i like the way you hold the road, mama, it is not no sin
+talking about love 
+trouble free transmission, helps your oil flow mama, let me pump your gas, mama, let me do it all
+talking about love 
+dig that heavy metal underneath your hood baby, i could work all night, believe i have got the perfect tools
+talking about love 
+a model built for comfort, really built with style specialist tradition, mama, let me feast my eyes
+talking about love 
+factory air conditioned, heat begins to rise guaranteed to run for hours, mama it a perfect size
+talking about love 
+grooving on the freeway, gauge is on the red gun down on my gasoline, i believe i am gonna crack a head.
+talking about love  i ca not stop talking about...
+come to me for service every hundred miles baby, let me check your points, fix your overdrive
+talking about love 
+fully automatic, comes in any size makes me wonder what i did, before we synchronized
+talking about love 
+feather light suspension, koni could not hold i am so glad i took a look inside your showroom doors
+talking about love 
+oh, i ca not stop talking about love.  
+oh, let the sun beat down upon my face with stars to fill my dream i am a traveler of both time and space to be where i have been
+sit with elders of the gentle race this world has seldom seen talk of days for which they sit and wait and all will be revealed
+talk and song from tongues of lilting grace sounds caress my ear but not a word i heard could i relate the story was quite clear
+ooh, baby, i have been flying no, yeah, mama, there is not no denying ooh, yeah, i have been flying mama, mama, is not no denying, no denying
+all i see turns to brown as the sun burns the ground and my eyes fill with sand as i scan this wasted land trying to find, trying to find where i have been
+oh, pilot of the storm who leaves no trace like thoughts inside a dream heed the path that led me to that place yellow desert stream
+my shangri la beneath the summer moon i will return again sure as the dust that floats high in june when moving through kashmir
+oh, father of the four winds, fill my sails across the sea of years with no provision but an open face along the straits of fear
+when i am on, when i am on my way when i see, when i see the way, you stay
+when i am down when i am down, so down ooh, my baby, ooh, my baby, let me take you there come on, come on let me take you there, let me take you there  
+and if you feel that you ca not go on. and your will sinking low just believe and you ca not go wrong. in the light you will find the road. you will find the road
+oh, did you ever believe that i could leave you, standing out in the cold i know how it feels because i have slipped through to the very depths of my soul. baby, i just want to show you what a clear view it is from every bend in the road. now listen to me oh, whoa whoa, as i was and really would be for you, too, honey as you would for me, oh, i would share your load. let me share your load. ooh, let me share, share your load
+and if you feel that you ca not go on in the light you will find the road
+though the winds of change may blow around you, but that will always be so when love is pain it can devour you, if you are never alone i would share your load. i would share your load baby, let me, oh, let me
+in the light everybody needs the light. in the light, in the light, in the light
+light, light, light, in the light light, light, light, in the light, ooh, yeah light, light, light, in the light  
+down by the seaside. see the boats go sailing  can the people hear, what the little fish are saying 
+oh, oh, the people turned away. oh, the people turned away 
+down in the city streets, see all the folk go racing, racing  no time left, to pass the time of day 
+the people turned away. the people turned away  so far away, so far away 
+see how they run, see how they run, see how they run, see how they run. 
+do you still do the twist  do you find you remember things that well  i want to tell you... some go twisting every day  though sometimes it awful hard to tell 
+out in the country, hear the people singing  singing about their progress, knowing where they are going 
+oh, oh, oh, oh, the people turned away  yes, the people turned away 
+sing loud for the sunshine, pray hard for the rain  and show your love for lady nature. and she will come back again  the people turned away  the people turned away  
+then as it was, then again it will be and though the course may change sometimes rivers always reach the sea
+blind stars of fortune, each have several rays on the wings of maybe, downy birds of prey kind of makes me feel sometimes, did not have to grow but as the eagle leaves the nest, got so far to go
+changes fill my time, baby, that alright with me in the midst i think of you, and how it used to be
+did you ever really need somebody and really need them bad? did you ever really want somebody the best love you ever had?
+do you ever remember me, baby, did it feel so good? because it was just the first time, and you knew you would
+dewy eyes now sparkle, senses growing keen taste your love along the way, see your feathers preen kind of makes me feel sometimes, did not have to grow we are eagles of one nest, the nest is in our soul
+vixen in my dreams, with great surprise to me i never thought i would see your face the way it used to be oh, darling, oh, darling oh, darling, oh, darling
+i am never gonna leave you. i am never gonna leave holding on, ten years gone holding on, ten years gone, ten years gone, holding on, ten years gone i am never i am never i am never  
+i received a message from my brother across the water  he sat laughing as he wrote the end in sight  so i said goodbye to all my friends  and packed my hopes inside a matchbox  because i know it time to fly 
+come on, meet me in the morning, meet me in the middle of the night  the morning light is coming, do not it make you want to go and feel alright 
+i just jumped a train that never stops,  so now somehow i will know i never finished paying for my ride  just n' someone pushed a gun into my hand  tell me i am the type of man to fight the fight that i will require 
+come on, meet me in the morning, meet me in the middle of the night  the morning light is coming, do not it make you want to go and feel alright 
+oh, mama, well i think it time i am leaving  nothing here to make me stay  whoa, mama, well it must be time i am going  they are knocking down them doors  they are trying to take me away 
+please mr. brakeman, will not you ring your bell. and ring loud and clear  please mr. fireman, will not you ring your bell  tell the people they got to fly away from here 
+i once saw a picture of a lady with a baby  southern lady, had a very, very special smile  we are in the middle of a change in destination  when the train stops, all together we will smile  oh, meet me in the morning.  will not you meet me in the middle of the night, night, night  everybody know the morning time is coming  do not it make you want to feel alright. ah, ah, yeah  make me feel alright. fly now, baby  get to fly, yeah. fly now, baby  
+silent woman in the night, you came, took my seed from my shaking frame.  same old fire, another flame, and the wheel rolls on. 
+silent woman through the flames, you come, from the deep behind the sun  seems my nightmares, have just begun  left me barely holding on. 
+with blazing eyes you see my trembling hand.  when we know the time has come  lose my senses, lose command  feel your healing rivers run 
+is it every time i fall, that i think this is the one  in the darkness can you hear me call  another day has just begun. 
+silent woman, my face is changed  some know in ways to come.  feel my fire needs a brand new flame  and the wheels rolls on.... rolls on.  
+been in town, my baby, we just got to rock on  yeah, darling, we just got to go home  i do not want no tutti frutti, no lollipop  come on, baby, just rock, rock, rock. 
+yeah yeah yeah yeah, honey  we have been shaking all night  oh, darling, we just got to roll right  ooh, my head... rock on. 
+hey babe, hey babe 
+i do not want no tutti frutti, no lollipop  come on baby, just rock, rock, rock.  
+ shall we roll it, jimmy?   we are rolling on, what, one?   no, one again?   airplane heard flying overhead got to get this airplane off.   naw, leave it, yeah. 
+hey, hey, mama, what the matter here  you did not have to tell me that you love me so  you did not have to love me, mama, let me go  hey, hey, mama, what the matter here  you did not have to make me a total disgrace  you did not have to leave me with that beer in my face  hey, hey, mama, what the matter here  that alright, it awful dog gone clear. 
+hey, hey, baby, why you treat me mean  you did not have to crucify me like you did  you did not have to tell me i was just your kid  hey, hey, mama, why would you treat me mean  you did not have say you would always be by my side  y' did not have to tell me you would be my blushing bride  hey, hey, mama, why you treat me mean  but that alright, i know your sisters, too 
+you did not have to tell me that you love me so  you did not have to leave me, mama, let me go  hey, hey, mama, what is wrong with you  you did not have to leave me like a total disgrace  you did not have to leave me with that beer on my face  hey, hey, mama, what is wrong with you  but that alright, i would be the same way, too 
+you did not have to crucify me like you did  you did not have to tell me i was just your kid  hey, hey, mama, what the matter here  you did not have to tell me you would be my own  you did not have to tell me, baby, let me go  hey, hey, mama, what is wrong with you  that alright, i know your sister, too.  what the matter with you, mama  
+from the window of your rented limousine, i saw your pretty blue eyes  one day soon you are gonna reach sixteen, painted lady in the city of lies. 
+oh, do you know my name? do i look the same  you know i am the one you want. i must be the one you need, yeah 
+clutching pages from your teenage dream in the lobby of the hotel paradise  through the circus of the l.a. queens. how fast your learn the downhill side 
+oh, do you know my name? do i look the same  you know i am the one you want. i must be the one you need,. 
+lips like cherries and the brow of a queen, come on, flash it in my eyes  said you dug me since you were thirteen,then you giggle as you heave and sigh. 
+oh, do you know my name? do i look the same  you know i am the one you want. i must be the one you need. 
+hours, hours, and the moments in between, oh, baby, i could not count the times  the fun of coming, oh the pain in leaving, baby, dry those silver eyes 
+oh, do you know my name? do i look the same  you know i am the one you want. i must be the one you need, 
+ooh, that right.</t>
+  </si>
+  <si>
+    <t>born down in a dead man town the first kick i took was when i hit the ground you end up like a dog that been beat too much till you spend half your life just covering up
+born in the u.s.a. i was born in the u.s.a. i was born in the u.s.a. born in the u.s.a.
+got in a little hometown jam so they put a rifle in my hand sent me off to a foreign land to go and kill the yellow man
+born in the u.s.a. i was born in the u.s.a. i was born in the u.s.a. i was born in the u.s.a. born in the u.s.a.
+come back home to the refinery hiring man says son if it was up to me  went down to see my v.a. man he said son, do not you understand 
+i had a brother at khe sanh fighting off the viet cong they are still there, he all gone
+he had a woman he loved in saigon i got a picture of him in her arms now
+down in the shadow of the penitentiary out by the gas fires of the refinery i am ten years burning down the road nowhere to run is not got nowhere to go
+born in the u.s.a. i was born in the u.s.a. born in the u.s.a. i am a long gone daddy in the u.s.a. born in the u.s.a. born in the u.s.a. born in the u.s.a. i am a cool rocking daddy in the u.s.a.  
+the times are tough now, just getting tougher this old world is rough, it just getting rougher cover me, come on baby, cover me well i am looking for a lover who will come on in and cover me promise me baby you will not let them find us hold me in your arms, let let our love blind us cover me, shut the door and cover me well i am looking for a lover who will come on in and cover me
+outside the rain, the driving snow i can hear the wild wind blowing turn out the light, bolt the door i is not going out there no more
+this whole world is out there just trying to score i have seen enough i do not want to see any more cover me, come on and cover me i am looking for a lover who will come on in and cover me looking for a lover who will come on in and cover me  
+driving in to darlington county  me and wayne on the fourth of july  driving in to darlington county  looking for some work on the county line  we drove down from new york city  where the girls are pretty but they just want to know your name  driving in to darlington city  got a union connection with an uncle of wayne  we drove miles without seeing a cop  we got rock and roll music blasting off the t top, singing... 
+  sha la la, sha la la la la  sha la la la, la la la  sha la la, sha la la la la  sha la la la, la la la 
+hey little girl, standing on the corner  today your lucky day for sure, all right  me and my buddy, we are from new york city  we got , we want to rock all night  girl, you are looking at two big spenders  why, the world do not know what me and wayne might do  our pa each own one of the world trade centers  for a kiss and a smile, i will give mine all to you  come on baby, take a seat on my fender  it a long night, and tell me, what else were you gonna do?  just me and you, we could... 
+little girl, sitting in the window  is not seen my buddy in seven days  county man tells me the same thing  he do not work and he do not get paid  little girl, you are so young and pretty  walk with me and you can have your way  and we will leave this darlington city  for a ride down that dixie highway 
+driving out of darlington county  my eyes seen the glory of the coming of the lord  driving out of darlington county  seen wayne handcuffed to the bumper of a state trooper ford 
+friday night pay night, guys fresh out of work  talking about the weekend, scrubbing off the dirt  some heading home to their families, some looking to get hurt  some going down to stovell wearing trouble on their shirts  i work for the county out on  all day i hold a red flag and watch the traffic pass me by  in my head i keep a picture of a pretty little miss  someday, mister, i am gonna lead a better life than this 
+  working on the highway, laying down the blacktop  working on the highway, all day long i do not stop  working on the highway, blasting through the bedrock  working on the highway, working on the highway 
+i met her at a dance down at the union hall  she was standing with her brothers, back up against the wall  sometimes we would go walking down the union tracks  one day i looked straight at her and she looked straight back  so i am... 
+i saved up my money and i put it all away  i went to see her daddy but we did not have much to say   son, ca not you see that she just a little girl  she do not know nothing about this cruel, cruel world  we lit out down to florida, we got along all right  one day her brothers came and got her and they took me in a black and white  the prosecutor kept the promise that he made on that day  and the judge got mad and he put me straight away  i wake up every morning to the work bell clang  me and the warden go swinging on the charlotte county road gang  i am... 
+i had a job, i had a girl i had something going mister in this world i got laid off down at the lumber yard our love went bad, times got hard now i work down at the carwash where all it ever does is rain do not you feel like you are a rider on a downbound train
+she just said joe i gotta go we had it once we is not got it any more  she packed her bags left me behind she bought a ticket on the central line nights as i sleep, i hear that whistle whining i feel her kiss in the misty rain and i feel like i am a rider on a downbound train
+last night i heard your voice you were crying, crying, you were so alone you said your love had never died you were waiting for me at home put on my jacket, i ran through the woods i ran till i thought my chest would explode there in the clearing, beyond the highway in the moonlight, our wedding house shone i rushed through the yard, i burst through the front door my head pounding hard, up the stairs i climbed the room was dark, our bed was empty then i heard that long whistle whine and i dropped to my knees, hung my head and cried
+now i swing a sledge hammer on a railroad gang knocking down them cross ties, working in the rain now do not it feel like you are a rider on a downbound train  
+hey, little girl, is your daddy home? did he go and leave you all alone? i got a bad desire oh oh oh, i am on fire
+tell me now, baby, is he good to you? and can he do to you the things that i do? oh, no i can take you higher oh oh oh, i am on fire
+sometimes it like someone took a knife, baby, edgy and dull and cut a six inch valley through the middle of my skull at night i wake up with the sheets soaking wet and a freight train running through the middle of my head only you can cool my desire oh oh oh, i am on fire oh oh oh, i am on fire oh oh oh, i am on fire  
+well, we busted out of class had to get away from those fools we learned more from a three minute record, baby, than we ever learned in school tonight i hear the neighborhood drummer sound i can feel my heart begin to pound you say you are tired and you just want to close your eyes and follow your dreams down
+well, we made a promise we swore we would always remember no retreat, baby, no surrender like soldiers in the winter night with a vow to defend no retreat, baby, no surrender
+and now young faces grow sad and old and hearts of fire grow cold we swore blood brothers against the wind now i am ready to grow young again
+and hear your sister voice calling us home across the open yards well maybe we could cut someplace of our own with these drums and these guitars
+because we made a promise we swore we would always remember no retreat, baby, no surrender blood brothers in the stormy night with a vow to defend no retreat, baby, no surrender
+now on the street tonight the lights grow dim the walls of my room are closing in there a war outside still raging you say it is not ours anymore to win
+i want to sleep beneath peaceful skies in my lover bed with a wide open country in my eyes and these romantic dreams in my head
+because we made a promise we swore we would always remember no retreat, baby, no surrender blood brothers in the stormy night with a vow to defend no retreat, baby, no surrender
+no retreat, baby, no surrender  
+well i came by your house the other day, your mother said you went away she said there was nothing that i could have done there was nothing nobody could say me and you we have known each other ever since we were sixteen i wished i would have known i wished i could have called you just to say goodbye bobby jean
+now you hung with me when all the others turned away turned up their nose we liked the same music we liked the same bands we liked the same clothes we told each other that we were the wildest, the wildest things we would ever seen now i wished you would have told me i wished i could have talked to you just to say goodbye bobby jean
+now we went walking in the rain talking about the pain from the world we hid now there is not nobody nowhere nohow gonna ever understand me the way you did maybe you will be out there on that road somewhere in some bus or train traveling along in some motel room there will be a radio playing and you will hear me sing this song well if you do you will know i am thinking of you and all the miles in between and i am just calling one last time not to change your mind but just to say i miss you baby, good luck goodbye, bobby jean  
+we sit in the car outside your house you are quiet i can feel the heat coming around i go to put my arm around you and you give me a look like i am way out of bounds well you let out one of your bored sighs well lately when i look into your eyes i am going down, down, down, down i am going down, down, down, down i am going down, down, down, down i am going down, down, down, down
+we get dressed up and we go out, baby, for the night we come home early burning, burning in some fire fight i am sick and tired of you setting me up setting me up just to knock a knock a knock a me down down, down, down i am going down, down, down, down i am going down, down, down, down i am going down, down, down, down
+i pull you close now baby but when we kiss i can feel a doubt i remember back when we started my kisses used to turn you inside out i used to drive you to work in the morning friday night i would drive you all around you used to love to drive me wild but lately girl you get your kicks from just driving me down  
+i had a friend was a big baseball player back in high school he could throw that speedball by you make you look like a fool boy saw him the other night at this roadside bar i was walking in, he was walking out we went back inside sat down had a few drinks but all he kept talking about was
+glory days well they will pass you by glory days in the wink of a young girl eye glory days, glory days
+well there a girl that lives up the block back in school she could turn all the boys heads sometimes on a friday i will stop by and have a few drinks after she put her kids to bed her and her husband bobby well they split up i guess it two years gone by now we just sit around talking about the old times she says when she feels like crying she starts laughing thinking about
+glory days well they will pass you by glory days in the wink of a young girl eye glory days, glory days
+now i think i am going down to the well tonight and i am going to drink till i get my fill and i hope when i get old i do not sit around thinking about it but i probably will yeah, just sitting back trying to recapture a little of the glory of, well time slips away and leaves you with nothing mister but boring stories of
+glory days well they will pass you by glory days in the wink of a young girl eye glory days, glory days
+well they will pass you by glory days in the wink of a young girl eye glory days, glory days  
+i get up in the evening and i is not got nothing to say i come home in the morning i go to bed feeling the same way i is not nothing but tired man i am just tired and bored with myself hey there baby, i could use just a little help
+you ca not start a fire you ca not start a fire without a spark this gun for hire even if we are just dancing in the dark
+messages keep getting clearer radio on and i am moving around my place i check my look in the mirror want to change my clothes, my hair, my face man i is not getting nowhere i am just living in a dump like this there something happening somewhere baby i just know there is
+ca not start a fire you ca not start a fire without a spark this gun for hire even if we are just dancing in the dark
+you sit around getting older there a joke, here somewhere and it on me i shake this world off my shoulders come on baby the laugh on me
+stay on the streets of this town and they will be carving you up alright they say you gotta stay hungry hey baby i am just about starving tonight i am dying for some action i am sick of sitting around here trying to write this book i need a love reaction come on now baby gimme just one look
+ca not start a fire sitting around crying over a broken heart this gun for hire even if we are just dancing in the dark you ca not start a fire worrying about your little world falling apart this gun for hire even if we are just dancing in the dark even if we are just dancing in the dark even if we are just dancing in the dark even if we are just dancing in the dark hey baby  
+i was eight years old and running with a dime in my hand into the bus stop to pick up a paper for my old man i would sit on his lap in that big old buick and steer as we drove through town he would tousle my hair and say son take a good look around this is your hometown this is your hometown this is your hometown this is your hometown
+in ' tension was running high at my high school there was a lot of fights between the black and white there was nothing you could do two cars at a light on a saturday night in the back seat there was a gun words were passed in a shotgun blast troubled times had come to my hometown my hometown my hometown my hometown
+now main street whitewashed windows and vacant stores seems like there is not nobody wants to come down here no more they are closing down the textile mill across the railroad tracks foreman says these jobs are going boys and they is not coming back to your hometown your hometown your hometown your hometown
+last night me and kate we laid in bed talking about getting out packing up our bags maybe heading south i am thirty five we got a boy of our own now last night i sat him up behind the wheel and said son take a good look around this is your hometown</t>
+  </si>
+  <si>
+    <t>deja you 'migo sin ella no somos na 
+  tika n'gai wa yo simba n'gai wa yo yaya
+yo la vi cantando en paris ella quiso estar junto de mi yo me sorprendi quando dijo yaleo
+vamos caminando el ise tomando vino y partiendo pan ella dijo dame, dame you yaleo yaleo
+yaleo 
+  tika n'gai wa yo simba n'gai wa yo yaya
+si to pudieras, decirme a mi yo no lo creo, lo que pasa aqui ella es mia, y me da su amor ahora tengo ninos que dicen yaleo yaleo
+yaleo 
+  tika n'gai wa yo simba n'gai wa yo yaya
+yaleo 
+  tika n'gai wa yo simba n'gai wa yo yaya  
+what you got it called carlos santana
+where you are, that where i want to be and through your eyes, all the things i want to see and in the night, you are my dream you are everything to me
+you are the love of my life and the breath in my prayers take my hand, lead me there what i need is you here
+i ca not forget the taste of your mouth from your lips all the heavens pour out i ca not forget when we are one with you alone i am free
+everyday, every night, you alone you are the love of my life
+alright, alright
+everyday, every night, you alone, you are the love of my life
+we go dancing in the moonlight with the starlight in your eyes we go dancing until the sunrise you and me we are gonna dance, dance, dance  
+hey now, all you sinners put your lights on, put your lights on hey now, all you lovers put your lights on, put your lights on
+hey now, all you killers put your lights on, put your lights on hey now, all you children leave your lights on, better leave your lights on
+because there a monster living under my bed whispering in my ear there an angel, with a hand on my head she say i have got nothing to fear
+there a darkness living deep in my soul i still got a purpose to serve so let your light shine, deep into my home god, do not let me lose my nerve do not let me lose my nerve
+hey now, hey now, hey now, hey now wo oh hey now, hey now, hey now, hey now
+hey now, all you sinners put your lights on, put your lights on hey now, all you children leave your lights on, you better leave your lights on
+because there a monster living under my bed whispering in my ear there an angel, with a hand on my head she say i have got nothing to fear
+she says la illaha illa allah we all shine like stars on and on  la illaha illa allah we all shine like stars on and on  then we fade away  
+ella baila la portugueza 
+estoy llamando a todas las morenas y la llamada la viene da la luz con calma se baila esta danza y con amor canto yo esta cancion
+africa bamba hace a un lado a la tristeza y otra mas dulce no la podras encontrar
+oye eso te va sentir feliz 
+ella baila la portugueza 
+estoy llamando a todas las morenas y la llamada la viene da la luz con calma se baila esta danza y con amor canto yo esta cancion
+africa bamba hace a un lado a la tristeza y otra mas dulce no la podras encontrar
+oye eso te va sentir feliz 
+ella 
+are are are
+africa yo te estoy llamando a ti oye puerto rico adonde estas levanta las manos colombia oye donde estas peruanos
+venezuela yo te quiero china, china yo te quiero tambien japon, japon, japon que rico japon japon baila con santana
+no se olviden mexico, mexico, mi mexico, mi mexico  
+man, it a hot one like seven inches from the midday sun well, i hear you whisper and the words melt everyone but you stay so cool
+my mu equita, my spanish harlem mona lisa you are my reason for reason the step in my groove, yeah.
+and if you said, this life is not good enough.  i would give my world to lift you up i could change my life to better suit your mood because you are so smooth
+and it just like the ocean under the moon it the same as the emotion that i get from you you got the kind of loving that can be so smooth, yeah. gimme your heart, make it real or else forget about it
+well, i will tell you one thing if you would leave it would be a crying shame in every breath and every word i hear your name calling me out
+well i am from the barrio, you hear my rhythm on your radio you feel the turning of the world so soft and slow turning you around and around
+and if you said, this life is not good enough.  i would give my world to lift you up i could change my life to better suit your mood because you are so smooth
+and it just like the ocean under the moon it the same as the emotion that i get from you you got the kind of loving that can be so smooth, yeah. gimme your heart, make it real or else forget about it
+and it just like the ocean under the moon it the same as the emotion that i get from you you got the kind of loving that can be so smooth, yeah. gimme your heart, make it real or else forget about it
+or else forget about it or else forget about it oh, let do not forget about it  gimme your heart, make it real  let do not forget about it let do not forget about it let do not forget about it let do not forget about it let do not forget about it  
+watch the master plan, pastures span through the streets, flipped the beat, move the sheep like the shepherd
+it a new day, my crew stay forever striving give thanks because we alive, and been through the gutter now we see the horizon
+it clear to me now used to be confused, took a lot of years to see how now we moving planets take the average mind and expand it you take for granted like we are always gonna be disadvantaged
+but soon come, it soon come, you soon done you start run, you stumble, we catch one in the rhythm, santana lick the guits with precision not accidental, intentional conscious decision
+to zion we are marching through with african mayans conquering babylon with the heart of a lion we hold and watch yesterday, come back around and the walls of jericho come a tumbling down
+tell me, how long has it been? is everything, everything alright my friend?
+you see, time is passing, people asking how come none of this is not lasting money will make people deal like they do not even have to feel but no, it is not real, it is not real
+oh, do you like the way that it going down? do you like the way that it going down? ooh, do you like the way?
+how long, how long will we wait to sit down and communicate? see, everything is relative, if you want to get then give ca not we all just build and live? ca not we, ca not we?
+do you like the way that it going down?   
+ladies and gents, turn up your sound systems to the sound of carlos santana and the g b, it the product of get away blues from the refugee camp
+  maria, maria she remind me of a west side story growing up in spanish harlem she living a life just like a movie star maria, maria she fell in love in east l.a to the sounds of the guitar, yeah, yeah played by carlos santana
+stop the looting, stop the shooting pick pocking on the corner see as the rich is getting richer the poor is getting poorer
+se mira maria on the corner thinking of ways to make it better in my mailbox there an eviction letter signed by the judge, said, see you later. 
+  ahora vengo mama chola mama chola ahora vengo mama chola east coast  ahora vengo mama chola mama chola ahora vengo mama chola west coast 
+  maria, maria she remind me of a west side story growing up in spanish harlem she living a life just like a movie star maria, maria she fell in love in east l.a i said it to the sounds of the guitar, yeah, yeah  by who?  played by carlos santana
+i said a la favella los colores the streets are getting hotter there is no water to put out the fire ni gota de esperanza
+se mira maria on the corner thinking of ways to make it better then i looked up in the sky hoping the days of paradise
+  ahora vengo mama chola mama chola ahora vengo mama chola north side  ahora vengo mama chola mama chola ahora vengo mama chola south side 
+ahora vengo mama chola mama chola ahora vengo mama chola world wide  ahora vengo mama chola mama chola ahora vengo mama chola open up your eyes 
+  maria you know you are my lover when the wind blows i can feel you through the weather and even when we are apart still feels like we are together
+maria she remind me of a west side story growing up in spanish harlem she living a life just like a movie star maria, maria she fell in love in east l.a to the sounds of the guitar played by carlos santana
+  put them up, yo carlos santana with the refugee camp wyclef, jerry wonda, mr. santana, g b yo, carlos, man, you are making that guitar cry  
+migra, migra pinche migra, dejame en paz migra, migra pinche migra, dejame en paz
+malicia veo en tus ojos desprecio en tu corazon malicia veo en tus ojos desprecio en tu corazon
+es hora de reconocer que todos somas una voz abrasa el concepto venimos de la misma voz
+me necesitas tu a mi mas y mas que yo a ti me necesitas tu a mi mas y mas que yo a ti me necesitas tu a mi mas y mas que yo a ti me necesitas tu a mi mas y mas que yo a ti
+people, people let start together let do it right now people, people let love one another i know we know how
+me necesitas tu a mi mas y mas que yo a ti me necesitas tu a mi mas y mas que yo a ti me necesitas tu a mi mas y mas que yo a ti me necesitas tu a mi mas y mas que yo a ti
+migra, migra pinche migra, dejame en paz
+people, people, let love one another i know we know how  
+y vamonos
+esa mujer me est matando me a espinado el coraz n por m s que trato de olvidarla mi alma no da raz n
+mi coraz n aplastado dolido y abandonado a ver, a ver, t sabes, dime mi amor, cu nto amor y qu dolor nos qued 
+coraz n espinado c mo me duele, me duele mam  c mo me duele el amor
+c mo duele, c mo duele el coraz n cuando uno es bien entregado pero no olvides mujer que alg n d a dir s c mo me duele el amor
+coraz n espinado c mo me duele, me duele mam  c mo me duele el amor
+coraz n espinado c mo me duele el amor
+y chale mi carlitos
+c mo me duele el olvido c mo duele el coraz n c mo me duele estar vivo sin tenerte a un lado amor
+coraz n espinado 
+coraz n espinado   
+beauty and grace is what touches me most good times can put me in fear i always feel safe when things are bad so i cannot let you come near
+it seems that i thrive on the dark side of things i always feel alive when the death bell rings now you have come and you bring out the tears in me
+pain never makes me cry, but happiness does it so strange to watch your life walk by wishing it was wishing it was more like a fantasy every day surprises me wishing it was
+wishing it was wishing it was
+this feeling will not last because i cannot survive i tell you i have been here before we are moving so fast, it a matter of time one of us walks out that door
+it seems that i thrive on the dark side of things i always feel alive when the death bell rings now you come and you bring out the tears in me
+pain never makes me cry, but happiness does it so strange to watch your life walk by wishing it was wishing it was more like a fantasy every day surprises me wishing it was
+wishing it was wishing it was
+give this some thought i am sure you will know this is the way it must be emotions will rise, emotions will flow you bring out the tears in me
+pain never makes me cry, but happiness does it so strange to watch your life walk by and wishing it was wishing it was more like a fantasy every day surprises me wishing it was
+wishing it was wishing it was    
+lluvia de sol como una bendicion la vida renace con su luz la primavera you llego
+todo es asi regreso a la raiz tiempo de inquieta juventud en primavera you
+la tierra negra se vuelve verde y las montanas y el desierto un bello jardin
+  como la semilla lleva nueva vida hay en esta primavera una nueva era
+en el aire de este nuevo universo hoy se respira libertad en primavera you
+la tierra negra se vuelve verde y las montanas y el desierto un bello jardin
+  como la semilla lleva nueva vida hay en esta primavera una nueva era
+la tierra negra se vuelve verde y las montanas y el desierto un bello jardin
+  como la semilla lleva nueva vida hay en esta primavera una nueva era  
+people, people, people, people people, people, people, people here me calling here me calling
+people, people, people, people people, people, people, people here me calling here me calling
+one love, one love lord, got nobody one love
+people, people, people, people people, people, people, people here me calling here me calling
+people, people, people, people people, people, people, people here me calling here me calling
+one love, one love lord, got nobody one love
+one love, one love, one love, lord, got nobody one love one love, one love, one love, lord, got nobody one love  
+freedom, freedom, freedom get up, stand up, let celebrate freedom, freedom, talking about freedom this is the time for redemption
+freedom, freedom, do not you want freedom for everybody? this is the time for liberation
+freedom, freedom, do not you want freedom for your children? this is the day of celebration
+let celebrate, i said let celebrate, we are gonna celebrate, celebrate</t>
+  </si>
+  <si>
+    <t>there a fire starting in my heart reaching a fever pitch, it bringing me out the dark finally i can see you crystal clear  go 'head and sell me out and i will lay your ship bare  go 'head and sell me out and i will lay your shit bare see how i leave with every piece of you do not underestimate the things that i will do
+there a fire starting in my heart reaching a fever pitch and it bringing me out the dark
+the scars of your love remind me of us they keep me thinking that we almost had it all the scars of your love, they leave me breathless i ca not help feeling we could have had it all  you are gonna wish you never had met me  rolling in the deep  tears are gonna fall, rolling in the deep  you had my heart inside of your hand  you are gonna wish you never had met me  and you played it, to the beat  tears are gonna fall, rolling in the deep 
+baby, i have no story to be told but i have heard one on you and i am gonna make your head burn think of me in the depths of your despair make a home down there as mine sure will not be shared
+ you are gonna wish you never had met me  the scars of your love remind me of us  tears are gonna fall, rolling in the deep  they keep me thinking that we almost had it all  you are gonna wish you never had met me  the scars of your love, they leave me breathless  tears are gonna fall, rolling in the deep  i ca not help feeling we could have had it all  you are gonna wish you never had met me  rolling in the deep  tears are gonna fall, rolling in the deep  you had my heart inside of your hand  you are gonna wish you never had met me  and you played it, to the beat  tears are gonna fall, rolling in the deep  we could have had it all rolling in the deep you had my heart inside of your hand but you played it, with a beating
+throw your soul through every open door woah  count your blessings to find what you look for woah  turn my sorrow into treasured gold woah  you will pay me back in kind and reap just what you sow woah   you are gonna wish you never had met me  we could have had it all  tears are gonna fall, rolling in the deep  we could have had it all  you are gonna wish you never had met me  it all, it all, it all  tears are gonna fall, rolling in the deep 
+we could have had it all  you are gonna wish you never had met me  rolling in the deep  tears are gonna fall, rolling in the deep  you had my heart inside of your hand  you are gonna wish you never had met me  and you played it to the beat  tears are gonna fall, rolling in the deep 
+we could have had it all  you are gonna wish you never had met me  rolling in the deep  tears are gonna fall, rolling in the deep  you had my heart inside of your hand  you are gonna wish you never had met me 
+but you played it you played it you played it you played it to the beat.  
+ooh, ooh, ooh, ooh
+she, she is not real she is not gonna be able to love you like i will she is a stranger you and i have history or do not you remember? sure, she got it all but, baby, is that really what you want?
+bless your soul, you have got your head in the clouds you made a fool out of you and, boy, she bringing you down she made your heart melt but you are cold to the core now rumour has it she is not got your love anymore
+rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour 
+she is half your age but i am guessing that the reason that you stayed i heard you have been missing me you have been telling people things you should not be like when we creep out and she is not around have not you heard the rumours?
+ bless your soul!  bless your soul, you have got your head in the clouds you made a fool out of me and, boy, you are bringing me down you made my heart melt, yet i am cold to the core but rumour has it i am the one you are leaving her for
+rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour 
+all of these words whispered in my ear tell a story that i cannot bear to hear just because i said it, it do not mean that i meant it people say crazy things just because i said it, do not mean that i meant it just because you heard it
+rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour 
+but rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour  but rumour has it rumour 
+but rumour has it he the one i am leaving you for  
+close enough to start a war all that i have is on the floor god only knows what we are fighting for all that i say, you always say more
+i ca not keep up with your turning tables under your thumb i ca not breathe
+so, i will not let you close enough to hurt me no, i will not rescue you to just desert me i ca not give you the heart you think you gave me it time to say goodbye to turning tables to turning tables
+under haunted skies i see you ooh  where love is lost your ghost is found i braved a hundred storms to leave you as hard as you try, no, i will never be knocked down, whoa
+i ca not keep up with your turning tables under your thumb i ca not breathe
+so, i will not let you close enough to hurt me, no, i will not rescue you to just desert me i ca not give you the heart you think you gave me it time to say goodbye to turning tables turning tables
+next time i will be braver i will be my own savior when the thunder calls for me next time i will be braver i will be my own savior standing on my own two feet
+i will not let you close enough to hurt me, no, i will not rescue you to just desert me i ca not give you the heart you think you gave me it time to say goodbye to turning tables to turning tables turning tables, yeah turning, oh  
+when will i see you again? you left with no goodbye. not a single word was said, no final kiss to seal any sins. i had no idea of the state we were in.
+i know i have a fickle heart and a bitterness, and a wandering eye, and a heaviness in my head.
+but do not you remember, do not you remember the reason you loved me before? baby, please remember me once more.
+when was the last time you thought of me? or have you completely erased me from your memory? i often think about where i went wrong. the more i do, the less i know.
+but i know i have a fickle heart and a bitterness, and a wandering eye, and a heaviness in my head.
+but do not you remember, do not you remember the reason you loved me before? baby, please remember me once more.
+gave you the space so you could breathe, i kept my distance so you would be free, and hoped that you would find the missing piece to bring you back to me.
+why do not you remember, do not you remember the reason you loved me before? baby, please remember me once more,
+when will i see you again?  
+i let it fall, my heart and as it fell, you rose to claim it it was dark, and i was over until you kissed my lips and you saved me
+my hands, they were strong but my knees were far too weak to stand in your arms without falling to your feet
+but there a side to you that i never knew, never knew all the things you would say they were never true, never true and the games you would play you would always win, always win
+but i set fire to the rain watched it pour as i touched your face well, it burned while i cried because i heard it screaming out your name, your name!
+when i lay with you i could stay there close my eyes feel you here forever you and me together nothing is better
+because there a side to you that i never knew, never knew all the things you would say they were never true, never true and the games you would play you would always win, always win
+but i set fire to the rain watched it pour as i touched your face well, it burned while i cried because i heard it screaming out your name, your name!
+i set fire to the rain and i threw us into the flames when it fell, something died because i knew that that was the last time, the last time!
+sometimes i wake up by the door that heart you caught must be waiting for you even now, when we are already over i ca not help myself from looking for you
+i set fire to the rain watched it pour as i touched your face well, it burned while i cried because i heard it screaming out your name, your name
+i set fire to the rain and i threw us into the flames when it fell, something died because i knew that that was the last time, the last time, oh!
+oh, no let it burn, oh let it burn let it burn  
+some say i will be better without you but they do not know you like i do or at least the sides i thought i knew
+i ca not bear this time it drags on as i lose my mind reminded by things i find like notes and clothes you have left behind
+wake me up, wake me up when all is done i will not rise until this battle won my dignity become undone
+but i will not go i ca not do it on my own if this is not love, then what is? i am willing to take the risk
+i will not go i ca not do it on my own if this is not love, then what is? i am willing to take the risk
+so petrified i am so scared to step into this ride what if i lose my heart and fail the climb? i will not forgive me if i give up trying
+i heard his voice today i did not know a single word he said not one resemblance to the man i met just a vague and broken boy instead
+but i will not go i ca not do it on my own if this is not love, then what is? i am willing to take the risk
+i will not go i ca not do it on my own if this is not love, then what is? i am willing to take the risk
+there will be times we will try and give it up bursting at the seams, no doubt we will almost fall apart then burn the pieces so watch them turn to dust but nothing will ever taint us
+i will not go i ca not do it on my own if this is not love, then what is? i am willing to take the risk
+i will not go i ca not do it on my own if this is not love, then what is? i am willing to take the risk
+will he... will he still remember me? will he still love me even when he free? or will he go back to the place where he would choose the poison over me?
+when we spoke yesterday he said to hold my breath and sit and wait  i will be home so soon, i will not be late. 
+he will not go he ca not do it on his own if this is not love, then what is? he willing to take the risk
+so i will not go he ca not do it on his own if this is not love, then what is? i am willing to take the risk
+because he will not go he ca not do it on his own if this is not love, then what is? we are willing to take the risk
+i will not go i ca not do it on my own if this is not love, then what is? i am willing to take the risk  
+did not i give it all, tried my best, gave you everything i had, everything and no less? did not i do it right? did i let you down?
+maybe you got too used to well having me around. still how can you walk away from all my tears? it gonna be an empty road without me right here.
+but go on and take it take it , take it all with you. do not look back do not look back at this crumbling fool. just take it all with my love, take it all with my love.
+maybe i should leave to help you see nothing is better than this and this is everything we need. so is it over? is this really it? you have given up so easily. i thought you loved me more than this.
+but go on, go on and take it take it  take it all with you. do not look back do not look back at this crumbling fool. just take it all with my love, take it all with my love.
+i will change if i must. slow it down and bring it home. i will adjust. oh, if only, if only you knew, everything i do is for you.
+but go on, go on and take it take it  take it all with you. do not look back do not look back at this crumbling fool.
+just take it take it , take it all with you. do not look back do not look back at this crumbling fool. just take it all with my love, take it all with my love take it all with my love.  
+hold me closer one more time say that you love me in your last goodbye please forgive me for my sins yes, i swam dirty waters but you pushed me in i have seen your face under every sky over every border and on every line you know my heart more than i do we were the greatest, me and you
+but we had time against us and miles between us the heavens cried i know i left you speechless but now the sky has cleared and it blue and i see my future in you
+i will be waiting for you when you are ready to love me again i will put my hands up i will do everything different i will be better to you i will be waiting for you when you are ready to love me again i will put my hands up i will be somebody different i will be better to you
+let me stay here for just one more night build your world around me and pull me to the light so i can tell you that i was wrong i was a child then, but now i am willing to learn
+but we had time against us and miles between us the heavens cried
+i know i left you speechless but now the sky has cleared and it blue and i see my future in you
+i will be waiting for you when you are ready to love me again i will put my hands up i will do everything different i will be better to you i will be waiting for you when you are ready to love me again i will put my hands up i will be somebody different i will be better to you
+time against us time against us  miles between us miles between us  heavens cried i know i left you speechless time against us time against us  miles between us miles between us  heavens cried i know i left you speechless i know i left you speechless i will be waiting
+i will be waiting for you when you are ready to love me again i will put my hands up i will do everything different i will be better to you i will be waiting for you when you are ready to love me again i will put my hands up i will be somebody different i will be better to you  
+you have been on my mind i grow fonder every day, lose myself in time just thinking of your face god only knows why it taken me so long to let my doubts go you are the only one that i want
+i do not know why i am scared, i have been here before every feeling, every word, i have imagined it all, you never know if you never try to forgive your past and simply be mine
+i dare you to let me be your, your one and only promise i am worthy to hold in your arms so come on and give me the chance to prove that i am the one who can walk that mile until the end starts
+if i have been on your mind you hang on every word i say lose yourself in time at the mention of my name will i ever know how it feels to hold you close? and have you tell me whichever road i choose you will go
+i do not know why i am scared because i have been here before every feeling, every word, i have imagined it all, you will never know if you never try to forgive your past and simply be mine
+i dare you to let me be your, your one and only i promise i am worthy to hold in your arms so come on and give me the chance to prove that i am the one who can walk that mile until the end starts
+i know it is not easy, giving up your heart i know it is not easy, giving up your heart
+ nobody perfect, trust me i have learned it  i know it is not easy, giving up your heart  nobody perfect, trust me i have learned it  i know it is not easy, giving up your heart  nobody perfect, trust me i have learned it  i know it is not easy, giving up your heart  nobody perfect, trust me i have learned it  i know it is not easy, giving up your heart
+so i dare you to let me be your, your one and only i promise i am worthy to hold in your arms so come on and give me a chance to prove that i am the one who can walk that mile until the end starts come on and give me a chance to prove that i am the one who can walk that mile until the end starts.  
+whenever i am alone with you you make me feel like i am home again whenever i am alone with you you make me feel like i am whole again whenever i am alone with you you make me feel like i am young again whenever i am alone with you you make me feel like i am fun again
+however far away i will always love you however long i stay i will always love you whatever words i say i will always love you i will always love you
+whenever i am alone with you you make me feel like i am free again whenever i am alone with you you make me feel like i am clean again
+however far away i will always love you however long i stay i will always love you whatever words i say i will always love you i will always love you
+however far away i will always love you however long i stay i will always love you whatever words i say i will always love you
+i will always love you i will always love you because i love you love, love, love...  
+i heard that you are settled down that you found a girl and you are married now. i heard that your dreams came true. guess she gave you things i did not give to you.
+old friend, why are you so shy? is not like you to hold back or hide from the light.
+i hate to turn up out of the blue uninvited but i could not stay away, i could not fight it. i had hoped you would see my face and that you would be reminded that for me it is not over.
+never mind, i will find someone like you i wish nothing but the best for you too do not forget me, i beg i will remember you said,  sometimes it lasts in love but sometimes it hurts instead, sometimes it lasts in love but sometimes it hurts instead 
+you know how the time flies only yesterday was the time of our lives we were born and raised in a summer haze bound by the surprise of our glory days
+i hate to turn up out of the blue uninvited but i could not stay away, i could not fight it. i would hoped you would see my face and that you would be reminded that for me it is not over.
+never mind, i will find someone like you i wish nothing but the best for you too do not forget me, i beg i will remember you said,  sometimes it lasts in love but sometimes it hurts instead. 
+nothing compares no worries or cares regrets and mistakes they are memories made. who would have known how bittersweet this would taste?
+never mind, i will find someone like you i wish nothing but the best for you do not forget me, i beg i will remember you said,  sometimes it lasts in love but sometimes it hurts instead .
+never mind, i will find someone like you i wish nothing but the best for you too do not forget me, i beg i will remember you said,  sometimes it lasts in love but sometimes it hurts instead, sometimes it lasts in love but sometimes it hurts instead.   
+i thought i told you, he would be home soon. could not help myself, you are too good to be true. i fall short each time, every time he is not here. you and your charm creep closer, closer and near. like a fool for fire, i fall with my pride and all. like a bomb before explosion ticking by your call. you are the wiser one, disguised from greed. and i am just a child who belongs on her knees.
+but i found a boy who i love more than i ever did you before. so, stand beside the river i cried and lay yourself down. look how you want me now that i do not need you.
+so, you thought that i would crumble to my knees at the first sight of you crawling back to me to whisper, will you leave your man?  because you swear that this time you can stand by me. i will not stand by you.
+because i found a boy who i love more than i ever did you before. so, stand beside the river i cried and lay yourself down. look how you want me now that i do not need you!
+i is not yours for no taking. you must be mistaken. i could never look into your eyes and settle for wrong and ignore the right.
+when i found a boy who loves me more than you ever did me before. so, stand beside the river you cried and lay yourself down! look how you want me now that i do not need you!  
+never woulda hitch hiked to birmingham if it had not been for love never woulda caught the train to louisiana if it had not been for love never woulda run through the blinding rain without one dollar to my name if it had not been if it had not been for love
+never woulda seen the trouble that i am in if it had not been for love woulda been gone like a wayward wind if it had not been for love nobody knows it better than me i would not be wishing i was free if it had not been if it had not been for love
+four cold walls against my will at least i know he lying still four cold walls without parole lord have mercy on my soul
+never woulda gone to that side of town if it had not been for love never woulda took a mind to track him down if it had not been for love never woulda loaded up a forty four put myself behind a jail house door if it had not been if it had not been for love
+four cold walls against my will at least i know he lying still four cold walls without parole lord have mercy on my soul
+never woulda hitch hiked to birmingham if it had not been for love never woulda caught the train to louisiana if it had not been for love never woulda loaded up a forty four put myself behind a jail house door if it had not been if it had not been for love if it had not been if it had not been for love if it had not been if it had not been for love  
+this is how the story went i met someone by accident who blew me away blew me away and it was in the darkest of my days when you took my sorrow and you took my pain and buried them away, buried them away
+i wish i could lay down beside you when the day is done and wake up to your face against the morning sun but like everything i have ever known you will disappear one day so i will spend my whole life hiding my heart away
+dropped you off at the train station put a kiss on top of your head watched you wave and watched you wave then i went on home to my skyscrapers and neon lights and waiting papers that i call home i call that home
+i wish i could lay down beside you when the day is done and wake up to your face against the morning sun but like everything i have ever known you will disappear one day so i will spend my whole life hiding my heart away away, yeah
+woke up feeling heavy hearted i am going back to where i started the morning rain the morning rain and though i wish that you were here on that same old road that brought me here it calling me home it calling me home
+i wish i could lay down beside you when the day is done and wake up to your face against the morning sun but like everything i have ever known you will disappear one day so i will spend my whole life hiding my heart away
+i can spend my whole life hiding my heart away  
+picture perfect memories scattered all around the floor reaching for the phone cause, i ca not fight it anymore and i wonder if i ever cross your mind for me it happens all the time
+it a quarter after one, i am all alone and i need you now said i would not call, but i lost all control and i need you now and i do not know how i can do without, i just need you now
+another shot of whiskey, ca not stop looking at the door wishing you would come sweeping in the way you did before and i wonder if i ever cross your mind for me it happens all the time
+it a quarter after one, i am a little drunk and i need you now said i would not call but i lost all control and i need you now and i do not know how i can do without, i just need you now
+yes i would rather hurt than feel nothing at all it a quarter after one, i am all alone and i need you now and i said i would not call but i am a little drunk and i need you now and i do not know how i can do without, i just need you now i just need you now oh baby i need you now</t>
+  </si>
+  <si>
+    <t>oh, baby, baby oh, baby, baby
+oh, baby, baby how was i supposed to know that something was not right here? oh, baby, baby i should not have let you go and now you are out of sight, yeah
+show me how you want it to be tell me, baby because i need to know now, oh, because
+my loneliness is killing me and i i must confess i still believe, still believe when i am not with you i lose my mind give me a sign hit me, baby, one more time
+oh, baby, baby the reason i breathe is you boy, you got me blinded oh, pretty baby there nothing that i would not do it not the way i planned it
+show me how you want it to be tell me, baby because i need to know now, oh, because
+my loneliness is killing me and i i must confess i still believe, still believe when i am not with you i lose my mind give me a sign hit me, baby, one more time
+oh, baby, baby oh, baby, baby ah, yeah, yeah
+oh, baby, baby how was i supposed to know? oh, pretty baby i should not have let you go
+i must confess that my loneliness is killing me now do not you know i still believe that you will be here and give me a sign? hit me, baby, one more time
+my loneliness is killing me and i i must confess i still believe, still believe when i am not with you i lose my mind give me a sign hit me, baby, one more time
+i must confess that my loneliness is killing me now do not you know i still believe that you will be here and give me a sign? hit me, baby, one more time  
+baby, i am so into you you got that something. what can i do? baby, you spin me around the earth is moving but i ca not feel the ground
+every time you look at me my heart is jumping, it easy to see
+loving you means so much more more than anything i ever felt before
+  you drive me crazy i just ca not sleep i am so excited, i am in too deep oh... crazy, but it feels alright baby, thinking of you keeps me up all night
+tell me, you are so into me that i am the only one you will see tell me, i am not in the blue, that i am not wasting my feelings on you
+loving you means so much more. more than anything i ever felt before
+crazy, i just ca not sleep i am so excited, i am in too deep crazy, but it feels alright every day and every night
+you drive me crazy you drive me crazy, baby  i am so excited, i am in too deep oh... crazy,  you make me feel alright  baby, thinking of you keeps me up all night
+you drive me crazy you drive me crazy, baby  oh... crazy you make me feel alright  but it feels alright baby, thinking of you keeps me up all night baby, thinking of you keeps me up all night  
+you tell me you are in love with me like you ca not take your pretty eyes away from me it not that i do not want to stay but every time you come too close i move away
+i want to believe in everything that you say because it sounds so good but if you really want me move slow there things about me you just have to know
+sometimes i run sometimes i hide sometimes i am scared of you but all i really want is to hold you tight treat you right, be with you day and night baby, all i need is time
+i do not want to be so shy every time that i am alone i wonder why hope that you will wait for me you will see that you are the only one for me
+i want to believe in everything that you say because it sounds so good but if you really want me move slow there things about me you just have to know
+sometimes i run sometimes  sometimes i hide sometimes i am scared of you but all i really want is to hold you tight treat you right, be with you day and night all i really want is to hold you tight treat you right, be with you day and night baby all i need is time
+just hang around and you will see there nowhere i would rather be if you love me, trust in me the way that i trust in you
+sometimes i run sometimes  sometimes i hide, sometimes i am scared of you oh  but all i really want is to hold you tight hold you tight  treat you right, be with you day and night day and night 
+sometimes i run sometimes  sometimes i hide sometimes i am scared of you but all i really want is to hold you tight treat you right, be with you day and night day and night 
+all i really want is to hold you tight be with you day and night
+sometimes i run sometimes  sometimes i hide sometimes i am scared of you but all i really want is to hold you tight    
+ooh ooh ah, here we go now oh  like a great boy, all my other women are insoles we are thinkin about the great exphidition as popped we chose  so here we come, throwing here  throwing here all on the scene though we go  on and on  come, come follow me britney  yeah mm hmm, soda pop, watch it fizz and pop the clock is ticking and we ca not stop ca not stop now  mm hmm soda pop, bop, shu bop the clock is tickin and we ca not stop we might start riding to the music tonight a clever way to get by, oh the pops keep flowing like its fire and ice so give it a little blind, ooh mm hmm soda pop, watch it fizz and pop mm hmm  the clock is tickin and we ca not stop now  mm hmm soda bop, bop shu bop shu bop the clock is tickinand we ca not stop ooh ooh we have a plan, we have a definite plan to level the vibes vibes  to level vibes agian ooh yeah  see where you ba do for a superlative self, oh yeah a wicked time to the end, oh yaeh, so mm hmm soda pop, watch it fizz and pop ooh  the clock is tickin and we ca not stop ca not stop  mm hmm soda pop, bop, shu bop shu bop the clock is tickin and we ca not stop so much pop we are losing, sittin watchin the clock so turn the tables baby, let go over top take it to the top now  no one else will do i am waiting for you so me what'cha got, just take a pop shot and we will never stop shu bop, shu bop yeah, mm hmm the clock is tickin and we ca not stop mm hmm soda pop, bop, shu bop shu bop the clockis tickin and we ca not stop ca not stop  do it like we never have before before, before, before  and lovin it til we drop we drop, ah, we drop yeah  we will flex tonight until they break down the door oh yeah  the party will not ever stop so mm hmm soda pop, watch it fizz and pop no, uh yeah  the clock is tickinand we ca not stop stop no  mm hmm soda pop, bop, shu bop shu bop mm hmm soda pop no watch it fizz and pop oh  the clock is tickin and we ca not stop ca not stop   i bet you we can pop like we have never popped it before why we keep commin back fdor more and more for sure sure  it cool britney when wee get down on the floor yeah and we go  on and on until the break of dawn mm hmm soda pop, watch it fizz and pop the clock is tickin and we ca not stop ah, ca not stop, no  mm hmm soda pop, bop, shu bop shu bop ooh yeah  the clock is tickinand we ca not stop  all we gotta do is just mm hmm soda pop, watch it fizz and pop oh yeah  the clock is tickin and we ca not stop  oh, we are on the bend  mmm, uh oh  
+oh, my love  oh, yeah yeah oh, yeah
+i am sitting here alone up in my room i am thinking about the times that we have been through oh, my love i am looking at a picture in my hand trying my best to understand i really want to know what we did wrong with a love that felt so strong if only you were here tonight i know that we could make it right
+i do not know how to live without your love i was born to make you happy because you are the only one up in my heart i was born to make you happy always and forever, you and me that the way our life should be i do not know how to live without your love i was born to make you happy
+i know i have been a fool since you have been gone i would better give it up and carry on oh, my love because living in a dream of you and me is not the way my life should be i do not want to cry a tear for you so forgive me if i do ooh  if only you were here tonight i know that we could make it right
+i do not know how to live without your love i was born to make you happy because you are the only one up in my heart i was born to make you happy always and forever, you and me that the way our life should be i do not know how to live without your love i was born to make you happy
+ oh yeah   oh yeah  i would do anything i would give you my world i would wait forever to be your girl  just call out my name  just call out my name and i will be there and i will be there ooh  just to show you how much i care alright ooh  i was born to make you happy, yeah ooh oh yeah 
+i do not know how to live without your love i was born to make you happy because you are the only one up in my heart i was born to make you happy always and forever, you and me that the way our life should be i do not know how to live without your love i was born to make you happy  oh, oh  i was born to make you happy  oh yeah, oh yeah  always and forever, you and me that the way our life should be i do not know how to live without your love i was born to make you happy  
+ never look back, we said how was i to know i would miss you so? loneliness up ahead, emptiness behind where do i go?
+and you did not hear all my joy through my tears all my hopes through my fears did you know, still i miss you somehow
+  from the bottom of my broken heart there just a thing or two i would like you to know you were my first love, you were my true love from the first kisses to the very last rose from the bottom of my broken heart even though time may find me somebody new you were my real love, i never knew love until there was you from the bottom of my broken heart
+ baby, i said, please stay. give our love a chance for one more day  we could have worked things out taking time is what love all about
+but you put a dart through my dreams through my heart and i am back where i started again never thought it would end
+you promised yourself but to somebody else and you made it so perfectly clear still i wish you were here
+ never look back, we said how was i to know i would miss you so?  
+oh yeah
+you do not have to say what on your mind because i know where you have been give it up and leave it all behind and then let me begin
+come on over here let me show how things should be i will make it alright let me make it clear you can put your trust in me yes i will be there
+  when you need someone you just turn around and i, will be there when you are feeling low baby let me know and i, will be there
+will not you let me make it up to you now you know where i am there is not nothin that i would not do just to love once again
+come on over here let me show how things should be i will make it alright let me make it clear you can put your trust in me yes i will be there
+i will be there just take a stand i will be here for you now and forever give one more chance to show you how much i care i will be there
+when you need someone i just turn around and i will be there when you are in sorrow just let me know and i will be there
+ time may take us apart, but i will still love you. i promise  and when the stars, stars are falling, i will keep calling  i promise that you will be my one my only everything, i will never be untrue  and i promise back that for your love i will do anything  i will give you the stars  i will buy you the moon  and even through longest of our nights  and even through the darkest days our  love will find away
+  and when the stars are falling, i will keep calling i will still love you and when your dreams are fading, i will be waiting i will still love you
+ you are my summer breeze my winter sun, my springtime soul, my autumn touch of gold  you are my sky my rain a way which my love flows cuz you are all  the smile of my heart and the breathe of my soul  even if we find ourselves apart  we will hold out hopes and dreams  forever in our hearts
+ tell me how you feel  i finally know how to feel. tell me if it real  and my heart is tells me it real  so real, so real
+ time will take us apart that true but i will always be there for you your in my heart and you will be in my dreams no matter how many miles between i promise you that i will not forget the day we kissed or the day we met the sky may fall and the stars my too but i will still, i will still love you
+oh, oh oh oh, oh, oh oh
+friends say, i am away because i am down with you every day they say, break away i am missing out on the fun and games but you smile and the words they tell me quickly disappear you speak and there is no other voice that i can hear
+i spend my days ooh, ooh  with you i spend my days  i spend my nights my nights  thinking about you thinking about you babe  i spend my days all day, all night  with you with you  i spend my nights my nights  thinking about you
+you stay on my mind, oh and i think about you all the time all the time  day and night feels so right and for us there is no end in sight, ooh each day that i spend around you passes by too fast each night that i spend without you is longer than the last
+i spend my days i spend my days  with you thinking about you babe  i spend my nights my nights  thinking about you all day, all night  i spend my days my days  with you thinking about you  i spend my nights my nights  thinking about you thinking about you babe 
+ooh, you know i ca not get enough of you ca not get enough yeah  uh uh, you know that hours will not ever, ever do yeah yeah  i spend my days, with you with you, with you  i spend my nights thinking about you i spend my days with you with you baby  i spend my nights all day, all night thinking about you all day, all night  i spend my days thinking about you with you thinking about you  i spend my nights i spend my days, oh yeah thinking about you i spend my days with you with you thinking about you  i spend my nights thinking about you baby thinking about you i spend my days all day, all night  with you all day, all night   
+it been hours seems like days, since you went away, and all i do is check the screen to see if you are ok. you do not answer when i phone, guess you want to be left alone. so i am sending my heart, my soul, and this is what i will say 
+  i am sorry, oh so sorry, ca not you give me one more chance to make it all up to you. e mail my heart and say our love will never die and that i know you are out there and i know that you still care. email me back and say our love will stay alive. forever, email my heart.
+whoa i can see you in my mind, coming on the line and opening this letter that i have sent a hundred times. here a picture of us two, i look so good on you and ca not you please forgive me for the hurt i put you through.
+i am sorry, oh so sorry, ca not you give me one more chance to make it all up to you .
+e mail my heart and say our love will never die and that i know you are out there and i know that you still care  i know that you still care...  email me back and say our love will stay alive forever will not you say, will not you say  forever, forever email my heart  
+drums keep pounding a rhythm to the brain la dee da dee dee la dee da dee da
+wait till you have reached the age blah blah history has turned the page blah blah we still want to hear a brand new thing uh huh we still need a song to sing uh huh
+and the beat goes on and the beat goes on and the beat goes on and the beat goes on and the beat goes on and the beat goes on
+drums keep pounding a rhythm to the brain la dee da dee dee la dee da dee da love is the first and last thing on our minds from tomorrow until the end of time
+and the beat goes on and the beat goes on and the beat goes on and the beat goes on
+and the beat goes and the beat goes and the beat goes on
+drums keep pounding a rhythm to the brain la dee da dee dee la dee da dee da we still move to a rhythm just like this we still dream of sharing our first kiss
+and the beat goes on and the beat goes on and the beat goes on and the beat goes on
+drums keep pounding a rhythm to the brain la dee da dee dee la dee da dee da the world keeps turning faster everyday everyday  we still want to dance the night away
+and the beat goes on and the beat goes on and the beat goes on and the beat goes on...    
+oh, yeah they say in this world, nothing lasts forever but i don t believe that s true cause the way that i feel when we are together i know that s the way, i always feel for you 
+  from now until forever thats how long i ll be true i will make you this vow and promise you now until forever i ll never stop loving you
+then will come a day when the world stops turning and stars will fall from the sky but this feeling will last when the suns start burning but all i want to do is love you until the end of time
+it s gonna take more than a lifetime to give you all the love all the love  feels for you tonight
+until forever i ll never stop loving you  
+  i never promised you a happy ending you never said you would not make me cry but summer love will keep us warm long after our autumn goodbye, autumn goodbye autumn goodbye 
+thinking of you and the love of our lives in the sweet summertime so sad but true so true, so true  we must leave it behind in our hearts, in our minds
+from april through september bittersweet was the love that we share do not forget i remember
+memories can fade but my heart has a place for the smile on your face and maybe someday we can be more than friends love will find us again
+red leaves and blue tomorrows time will give back the love that we shared on the time that we borrowed
+from april through september bittersweet was the love that we share do not forget i remember baby
+we will leave behind the summertime our hearts, our minds they will remind we will not forget the day we met the day we cried autumn goodbye
+i never promised you a happy ending you never said you would not make me cry but summer love will keep us warm long after our autumn goodbye, autumn goodbye autumn goodbye  
+walking through time looking for an answer how can it be this way what have i done i just ca not help but wonder how everything could change.
+  because you have turned my world around since you came along, no after this love was found it seems like we ca not go wrong.
+  deep in my heart i know there only you and right from the start i always knew i never let go because love you so ohhoohh i want you for the rest of my life.
+some people search what seems to be a lifetime to find a love like this and here we are with everything we wished for i never felt such bliss.
+there comes a chance in everyones life and i beleive it will not happen twice now since i have felt the glory of love i want spend forever  and ever with you .
+deep in my heart deep in my heart i want you for the rest of my life i want you for the rest of my life.</t>
+  </si>
+  <si>
+    <t>folks call me a maverick  guess i is not too diplomatic  i just never been the kind to go along  just avoiding confrontation  for the sake of conformation  and i will admit i tend to sing a different song  but sometimes you just ca not be afraid  to wear a different hat  if columbus had complied  this old world might still be flat  nothing ventured, nothing gained  sometimes you have got to go against the grain  well, i have been accused  of making my own rules  there must be rebel blood  just a running through my veins  but i is not no hypocrite  what you see is what you get  and that the only way i know  to play the game  old noah took much ridicule  for building his great ark  but after forty days and forty nights  he was looking pretty smart  sometimes it best to brave the wind and rain  by having strength to go against the grain  well, there more folks than a few  who share my point of view  but they are worried  if they are gonna sink or swiim  they would like to buck the system  but the deck is stacked against them  and they are a little scared  to go out on a limb  but if you are gonna make a difference  if you are gonna leave your mark you ca not follow like a bunch of sheep  you got to listen to your heart  go busting in like old john wayne  sometimes you got to go against the grain  nothing ventured, nothing gained  sometimes you have got to go against the grain  
+his eyes are cold and restless his wounds have almost healed and she would give half of texas just to change the way he feels she knows his love in tulsa and she knows he gonna go well it is not no woman flesh and blood it that damned old rodeo
+well it bulls and blood it dust and mud it the roar of a sunday crowd it the white in his knuckles the gold in the buckle he will win the next go around it boots and chaps it cowboy hats it spurs and latigo it the ropes and the reins and the joy and the pain and they call the thing rodeo
+she does her best to hold him when his love comes to call but his need for it controls him and her back against the wall and it so long girl i will see you when it time for him to go you know the woman wants her cowboy like he wants his rodeo
+well it bulls and blood it dust and mud it the roar of a sunday crowd it the white in his knuckles the gold in the buckle he will win the next go around it boots and chaps it cowboy hats it spurs and latigo it the ropes and the reins and the joy and the pain and they call the thing rodeo
+it will drive a cowboy crazy it will drive the man insane and he will sell off everything he owns just to pay to play the game and a broken home and some broken bones is all he will have to show for all the years that he spent chasing this dream they call rodeo
+well it bulls and blood it dust and mud it the roar of a sunday crowd it the white in his knuckles the gold in the buckle he will win the next go around it boots and chaps it cowboy hats it spurs and latigo it the ropes and the reins and the joy and the pain and they call the thing rodeo
+it the broncs and the blood it the steers and the mud and they call the thing rodeo  
+last time i saw her it was turning colder but that was years ago last i heard she had moved to boulder but where she now i do not know but there something about this time of year that spins my head around takes me back makes me wonder what she doing now
+because what she doing now is tearing me apart filling up my mind and emptying my heart i can hear her call each time the cold wind blows and i wonder if she knows...what she doing now
+just for laughs i dialed her old number but no one knew her name hung up the phone sat there and wondered if she would ever done the same i took a walk in the evening wind to clear my head somehow but tonight i lie here thinking what she doing now
+because what she doing now is tearing me apart filling up my mind and emptying my heart i can hear her call each time the cold wind blows and i wonder if she knows
+what she doing now is tearing me apart filling up my mind and emptying my heart i can hear her call each time the cold wind blows and i wonder if she knows...what she doing now  
+yesterday she thanked me  for oiling that front door  this morning when she wakes  she will not be thankful anymore  she will never know how much i cared  just that i could not stay  and i will never know the reason  why i always run away  burning bridges one by one  what i am doing ca not be undone  and i am always hoping someday  i am gonna stop this running around  but every time the chance comes up  another bridge goes down  last night we talked of old times  families and home towns  whe wondered if we would both agree  on where we would settle down  and i told her that we would cross that bridge  whenever it arrived  now through the flames i see her  standing on the other side  burning bridges one by one  what i am doing ca not be undone  and i am always hoping someday  i am gonna stop this running around  but every time the chance comes up  another bridge goes down  like ashes on the water  i drift away in sorrow  knowing that the day  my lesson finally learned  i will be standing at a river  staring out across tomorrow  and the bridge i need to get there  will be a bridge that i have burned  burning bridges one by one  what i am doing ca not be undone  and i am always hoping someday  i am gonna stop this running around  but every time the chance comes up  another bridge goes down  another bridge goes down  
+papa drove a truck nearly all his life you know it drove mama crazy being a trucker wife the part she could not handle was the being alone i guess she needed more to hold than just a telephone
+papa called mama each and every night just to ask her how she was and if us kids were alright mama would wait for that call to come in but when daddy would hang up she was gone again
+mama was a looker lord, how she shined papa was a good'n, but the jealous kind papa loved mama mama loved men mama in the graveyard papa in the pen
+well, it was bound to happen, one night it did papa came home, and it was just us kids he had a dozen roses and a bottle of wine if he was looking to surprise us he was doing fine
+i heard him cry for mama up and down the hall then i heard a bottle break against the bedroom wall that old diesel engine made an eerie sound when papa fired it up and headed into town
+well, the picture in the paper showed the scene real well papa rig was buried in the local motel the desk clerk said he saw it all real clear he never hit the brakes when he was shifting gears
+mama was a looker lord, how she shined papa was a good'n, but the jealous kind papa loved mama mama loved men mama in the graveyard papa in the pen  
+well i am shamemeless when it comes to loving you i will do anything you want me to i will do anything at all
+and i am standing here for all the world to see oh baby that what left of me do not have very far to fall
+you know now i am not a man who ever been insecure about the world i have been living in i do not break easy i have my pride but if you need to be satisfied
+i am shameless, oh honey i do not have a prayer every time i see you standing there i go down upon my knees
+and i am changing swore i would never compromise oh but you convinced me otherwise i will do anything you please
+you see in all my life i have never found what i could not resist what i could not turn down i could walk away from anyone i ever knew but i ca not walk away from you
+i have never let anything have this much control over me i work too hard to call my life my own and i have made myself a world and it worked so perfectly but it your world now i ca not refuse i have never had so much to lose oh i am shameless
+you know it should be easy for a man who strong to say he sorry or admit when he wrong i have never lost anything i have ever missed but i have never been in love like this
+it out of my hands i am shameless, i do not have the power now i do not want it anyhow so i got to let it go
+oh i am shameless, shameless as a man can be you make a total fool of me i just wanted to you to know
+oh i am shameless  i just wanted you to know oh i am shameless oh i am down on my knees...shameless  
+there a fire burning bright  at our house tonight  slow music playing  and soft candlelight  on her lips i keep tasting  the warm red wine  i am there in her arms  but it all in my mind 
+the snow is piled high on the highway tonight  i am a ship lost at sea on this ocean of white  eighteen wheels anchored somewhere out of dover  i wish i could hold her  instead of hugging this old cold shoulder 
+this old highway  is like a woman sometimes  she can be your best friend  but she the real jealous kind  she the lady that leads me  to the life i dream of  she the mistress that keeps me  from the ones that i love  the snow is piled high on the highway tonight  i am a ship lost at sea on this ocean of white  eighteen wheels anchored somewhere out of dover  i wish i could hold her  instead of hugging this old cold shoulder  god, i wish i could hold her  instead of hugging this old cold shoulder  
+hey, all the neighbors lights  came on last night  just like they do every time  we have a little fight  it getting to the point  we ca not get along  we are always fighting about things  that should be dead and gone 
+we bury the hatchet  but leave the handle sticking out  we are always digging up things  we should forget about  when it comes to forgetting  baby, there is not no doubt  we bury the hatchet  but leave the handle sticking out 
+well, i was kissing on cindy  hey, that i will not deny  but that a long time ago  i let a dead dog lie  but if you want to cut deep  how about you and ol joe  i caught you down at the creek  just ten years ago  we bury the hatchet  but leave the handle sticking out  we are always digging up things  we should forget about  when it comes to forgetting  baby, there is not no doubt  we bury the hatchet  but leave the handle sticking out  hey, we got enough on each other  to wage a full scale war  if we could ever remember  what we were fighting for  we bury the hatchet  but leave the handle sticking out  we are always digging up things  we should forget about  when it comes to forgetting  baby, there is not no doubt  we bury the hatchet  but leave the handle sticking out  we bury the hatchet  but leave the handle sticking out  
+she was a girl on a wagon train  headed west across the plains  the train got lost in a summer storm  they could not move west and they could not go home  then she saw him riding through the rain  he took charge of the wagons and he saved the train  and she looked down and her heart was gone  the train went west but she stayed on  in lonesome dove 
+a farmer daughter with a gentle hand  a blooming rose in a bed of sand  she loved the man who wore a star  a texas ranger known near and far  so they got married and they had a child  but times were tough and the west was wild  so it was no surprise the day she learned  that her texas man would not return  to lonesome dove 
+back to back with the rio grande  a christian woman in the devil land  she learned the language and she learned to fight  but she never learned how to beat the lonely nights  in lonesome dove, lonesome dove 
+she watched her boy grow into a man  he had an angel heart and the devil hand  he wore his star for all to see  he was a texas lawman legacy  then one day word blew into town  it seemed the men that shot his father down  had robbed a bank in jerico  the only thing between them and mexico  was lonesome dove 
+the shadows stretched across the land  as the shots rang out down the rio grande  and when the smoke had finally cleared the street  the men lay at the ranger feet  but legend tells to this very day  that shots were coming from an alleyway  though no one knows who held the gun  there is not no doubt if you ask someone  in lonesome dove 
+back to back with the rio grande  a christian woman in the devil land  she learned the language and she learned to fight  but she never learned how to beat the lonely nights  in lonesome dove, lonesome dove  
+you know a dream is like a river ever changing as it flows and a dreamer just a vessel that must follow where it goes trying to learn from what behind you and never knowing what in store makes each day a constant battle just to stay between the shores...and
+i will sail my vessel until the river runs dry like a bird upon the wind these waters are my sky i will never reach my destination if i never try so i will sail my vessel until the river runs dry
+too many times we stand aside and let the waters slip away until what we put off until tomorrow has now become today so do not you sit upon the shoreline and say you are satisfied choose to chance the rapids and dare to dance the tide...yes
+i will sail my vessel until the river runs dry like a bird upon the wind these waters are my sky i will never reach my destination if i never try so i will sail my vessel until the river runs dry
+there bound to be rough waters and i know i will take some falls but with the good lord as my captain i can make it through them all...yes
+i will sail my vessel until the river runs dry like a bird upon the wind these waters are my sky i will never reach my destination if i never try so i will sail my vessel until the river runs dry
+yes, i will sail my vessel until the river runs dry until the river runs dry  
+the girl at the bar, she bought me a beer and she would like to know if i am new around here and the gal that i danced with says she all alone her friends have all left and she needs a ride home
+oh and there have been others who gave me the eye but if they only knew they were wasting their time because there only one lover i can give my heart to but you did not want it and you broke it in two
+ so tell me which one of them will you be tonight oh which one will hold me in your arms so tight i have forgotten what wrong, given up on what right  tell me which one of them will you be tonight
+so i will just smile and pretend and she will never know who she up against when she holding me close you are all that i want, girl, you are all that i need and when i close my eyes, honey you are all i see
+ so tell me which one of them will you be tonight oh which one will hold me in your arms so tight i have forgotten what wrong, given up on what right  tell me which one of them will you be tonight</t>
+  </si>
+  <si>
+    <t>dearly beloved we are gathered here today to get through this thing called life
+electric word life it means forever and that a mighty long time but i am here to tell you there something else the afterworld
+a world of never ending happiness you can always see the sun, day or night
+so when you call up that shrink in beverly hills you know the one dr everything will be alright instead of asking him how much of your time is left ask him how much of your mind, baby
+because in this life things are much harder than in the afterworld in this life you are on your own
+and if the elevator tries to bring you down go crazy punch a higher floor
+if you do not like the world you are living in take a look around you at least you got friends
+you see i called my old lady for a friendly word she picked up the phone dropped it on the floor uh uh was all i heard
+are we gonna let the elevator bring us down oh, no let go!
+let go crazy let get nuts let look for the purple banana until they put us in the truck, let go!
+we are all excited but we do not know why maybe it cause we are all gonna die
+and when we do when we do  what it all for what it all for  you better live now before the grim reaper come knocking on your door
+tell me, are we gonna let the elevator bring us down oh, no let go!
+let go crazy let get nuts look for the purple banana until they put us in the truck, let go!
+come on baby let get nuts yeah
+are we gonna let the elevator bring us down oh, no let go! go crazy
+i said let go crazy go crazy  let go, let go go let go
+dr. everything will be alright will make everything go wrong pills and thrills and dafodills will kill hang tough children
+he coming he coming coming
+take me away!  
+i ca not disguise the pounding of my heart it beats so strong it in your eyes what can i say they turn me on
+i do not care where we go i do not care what we do i do not care pretty baby just take me with u
+come on and touch the place in me that calling out your name we want each other oh so much why must we play this game?
+do not care where we go i do not care what we do i do not care pretty baby just take me with u
+i do not care if we spend the night at your mansion i do not care if we spend the night on the town all i want is spend the night together all i want is spend the night in your arms
+to be around u is so oh right you are sheer perfection thank u  drive me crazy, drive me all night just do not break up the connection
+i do not care where we go i do not care what we do i do not care pretty baby just take me with u
+i do not care where we go i do not care what we do i do not care pretty baby just take me with u
+just take me with u oh will not u take me with u honey take me with u  
+baby, baby, baby what it gonna be baby, baby, baby is it him or is it me? do not make me waste my time do not make me lose my mind baby
+baby, baby, baby ca not u stay with me tonight oh baby, baby, baby do not my kisses please u right u were so hard find the beautiful ones, they hurt u everytime
+paint a perfect picture bring life a vision in one mind the beautiful ones always smash the picture always everytime
+if i told u baby that i was in love with u oh baby, baby, baby if we got married would that be cool?
+u make me so confused the beautiful ones u always seem lose
+baby, baby, baby, baby, baby, baby, baby, what it gonna be baby?
+do u want him? or do u want me? cause i want u said i want u tell me, babe do u want me? i gotta know, i gotta know do u want me? baby, baby, baby listen me i may not know where i am going babe  i said i may not know what i need one thing, one thing certain baby i know what i want, yeah and if it please u baby please u, baby i am begging down on my knees i want u yes i do baby, baby, baby, baby i want you
+yes i do  
+wendy? yes lisa is the water warm enough? yes lisa shall we begin? yes lisa
+where is my love life? where can it be? there must be something wrong with the machinery
+where is my love life? tell me, tell me where has it gone? somebody please please tell me what the hell is wrong
+until i find the righteous  computer blue until i find the righteous  computer blue  
+i knew a girl named nikki i guess you could say she was a sex fiend i met her in a hotel lobby masturbating with a magazine she said how would you like to waste some time and i could not resist when i saw little nikki grind
+she took me to her castle and i just could not believe my eyes she had so many devices everything that money could buy she said sign your name on the dotted line the lights went out and nikki started to grind
+nikki
+the castle started spinning or maybe it was my brain i ca not tell you what she did to me but my body will never be the same her loving will kick your behind oh, she will show you no mercy but she will sho'nuff sho'nuff show you how to grind
+darling nikki
+woke up the next morning nikki was not there i looked all over and all i found was a phone number on the stairs it said thank you for a funky time call me up whenever you want to grind
+oh, nikki, ohhhh
+come back nikki, come back your dirty little prince want to grind grind grind grind grind grind grind grind grind
+   hello, how are you? i am fine. because i know that the lord is coming soon, coming, coming soon.   
+dig if you will the picture of you and i engaged in a kiss the sweat of your body covers me can you my darling can you picture this?
+dream if you can a courtyard an ocean of violets in bloom animals strike curious poses they feel the heat the heat between me and you
+how can you just leave me standing? alone in a world that so cold? so cold  maybe i am just too demanding maybe i am just like my father, too bold maybe you are just like my mother she never satisfied she never satisfied  why do we scream at each other this is what it sounds like when doves cry
+touch if you will my stomach feel how it trembles inside you have got the butterflies all tied up do not make me chase you even doves have pride
+how can you just leave me standing? alone in a world so cold? world so cold  maybe i am just too demanding maybe i am just like my father, too bold maybe you are just like my mother she never satisfied she never satisfied  why do we scream at each other this is what it sounds like when doves cry
+how can you just leave me standing? alone in a world that so cold? a world that so cold  maybe you are just too demanding maybe, maybe i am like my father  maybe i am just like my father, too bold you know he too bold  maybe you are just like my mother maybe you are just like my mother  she never satisfied she never, never satisfied  why do we scream at each other why do we scream, why  this is what it sounds like
+when doves cry when doves cry doves cry, doves cry  when doves cry doves cry, doves cry 
+do not cry do not cry 
+when doves cry when doves cry when doves cry
+when doves cry doves cry, doves cry, doves cry do not cry darling do not cry do not cry do not cry do not do not cry  
+i am not a woman i am not a man i am something that you will never understand
+i will never beat you i will never lie and if you are evil i will forgive you by and by
+you, i would die for you, yeah darling if you want me to you, i would die for you
+i am not your lover i am not your friend i am something that you will never comprehend
+no need to worry no need to cry i am your messiah and you are the reason why
+because you, i would die for you, yeah darling if you want me to you, i would die for you
+you are just a sinner i am told be your fire when you are cold make you happy when you are sad make you good when you are bad
+i am not a human i am a dove i am your conscious i am love all i really need is to know that you believe
+yeah, i would die for you, yeah darling if you want me to you, i would die for you
+yeah, say one more time
+you, i would die for you darling if you want me to you, i would die for you  you
+i would die for you i would die for you you, i would die for you you, i would die for you  
+ , , ,  hey, look me over tell me do u like what u see? hey, i is not got no money but honey i am rich on personality hey, check it all out baby i know what it all about before the night is through u will see my point of view even if i have scream and shout
+baby i am a star  might not know it now baby but i r, i am a star  i do not want to stop, until i reach the top sing it we are all a star! 
+hey, take a listen tell me do u like what u hear? if it do not turn u on just say the word and i am gone but honey i know, is not nothing wrong with your ears hey, check it all out better look now or it just might be late just might be late  my lucks gonna change tonight there gotta be a better life take a picture sweetie i is not got time waste
+oh baby i am a star  might not know it now baby but i r, i am a star  i do not want to stop, until i reach the top sing it! we are all a star! 
+everybody say, nothing come easy but when u got it baby, nothing come hard you will see what i am all about see what i am all about  if i gotta scream and shout if i gotta scream and shout  baby baby baby baby baby baby baby  yeah yeah yeah yeah yeah yeah star 
+might not know it now baby but i r, i am a star  i do not want to stop, until i reach the top sing it! star 
+baby baby baby oh baby i am a star  baby baby baby somebody  we are all a star 
+ baby i am a star  we are all a star
+we are all a star
+doctor! baby, baby, baby, baby, baby, baby, baby, baby we are all a star
+   like what the fuck do they know. all their taste is in their mouth. really. what the fuck do they know? come on baby. let go... crazy   
+i never meant to cause you any sorrow i never meant to cause you any pain i only wanted one time to see you laughing i only want to see you laughing in the purple rain
+purple rain, purple rain purple rain, purple rain purple rain, purple rain
+i only want to see you bathing in the purple rain
+i never wanted to be your weekend lover i only wanted to be some kind of friend baby, i could never steal you from another it such a shame our friendship had to end
+purple rain, purple rain purple rain, purple rain purple rain, purple rain
+i only want to see you underneath the purple rain
+honey i know, i know, i know times are changing it time we all reach out for something new that means you too you say you want a leader but you ca not seem to make up your mind i think you better close it and let me guide you to the purple rain
+purple rain, purple rain purple rain, purple rain
+if you know what i am singing about up here come on, raise your hand
+purple rain, purple rain
+i only want to see you, only want to see you in the purple rain  
+good morning children take a look out your window our world is falling it almost time to go  dance  dance the dance electric the rhythm is love and love is blind love your enemies there is not much time, there is not much time
+look our world is falling a rhythmless house of blinded prophecy hear our master calling this is not what he wanted us to be
+we got to dance the dance electric listen to the rhythm of your soul come on and dance the dance electric we better love each other, it almost time to go
+do not it do not make you happy to give another someone your own smile dance the dance electric never mind your hatred, try a brand new style
+dance the dance electric listen to the rhythm of your soul come on and dance the dance electric we better love each other, it almost time to go
+we... love... all... enemies
+look you are living in babylon making, but not feeling love at all when your youth is gone, when it comes to dawn a light of truth will shine and you will fall
+that why you got to dance the dance electric listen to the rhythm of your soul come on and dance the dance electric we better love each other, it almost time to go
+see the light inside of us it darkened if we live a life that bad whatever you do, do not you let your light go dark my love it the only light that you will ever have
+why do not you dance the dance electric listen to the rhythm of your soul come on and dance the dance electric we better love each other, it almost time to go  almost time to  dance the dance electric listen to the rhythm of your soul come on and dance the dance electric we better love each other, it almost time to go  
+one, two, three, four yeah uh come on, baby, hurt me uh
+when we both die and go to heaven will you still desire me or will he make you fire me will he let you hurt me in the upper room
+let me say now sha la la la sha la la boom come on, baby, hurt me in the upper room sha la la la sha la la boom love and sex in the upper room
+alright hit me ow huh two
+when we both cry and want each other will you still resist me or will you come and kiss me how am i supposed to sleep without you in my arms
+keep singing sha la la la sha la la boom come on, baby, hurt me in the upper room sha la la la sha la la boom love and sex in the upper room photos
+get low boom boom sha la boom not too sad, too sad, happy too happy just one single sexy glance or two that what kind of party is the cool sha la la boom i put on my sunday best  his clothes is so sharp  sha boom
+when we all die and go to heaven will he let us fantasize is there some new cool surprise? let all try to come together before we go
+keep singing sha la la la sha la la boom come on, baby, hurt me in the upper room sha la la la sha la la boom love and sex in the upper room yeah, the upper room
+keep on singing sha la la la sha la la boom come on, baby, hurt me in the upper room sha la la la sha la la boom love and sex in the upper room in the upper room
+do you feel alright?  yeah!  do you feel alright?  yeah!  do you feel alright? let me hear you say, let me l let me hear you say yeah!   yeah!   yeah!  let me hear you say yeah!   yeah!  whoo  yeah!  alright  yeah!  let me hear you say yeah!  ooh, oh lord oh, huh  sha la la la, sha la la boom  whoo  come on, baby, hurt me in the upper room  sha la la la  sha la la la, sha la la boom  yeah  love and sex in the upper room  yeah keep singing  sha la la la, sha la la boom  come on, baby  come on, baby, hurt me in the upper room  hurt me, baby, yeah  sha la la la, sha la la boom  alright, oh  love and sex in the upper room  ah yeah that right  
+  wendy? yes, lisa? is the water warm enough? yes, lisa shall we begin? yes, lisa
+  where is my love life? where can it be? there must be something wrong with the machinery where is my love life? tell me, where has it gone? somebody please please tell me what the hell is wrong
+till i find the righteous one computer blue till i find the righteous one computer blue
+oh
+where is my baby? where can she be? somebody please, please tell me what is wrong with me? where is my baby? tell me, where has she gone? somebody please, please tell me what the hell is wrong?
+ooh
+till i find the righteous one computer blue till i find the righteous one computer blue
+  the computer on the verge of breakdown! come on aw baby, do not make me
+  poor lonely computer it time someone programmed you it time you learned love and lust they both have four letters but they are entirely different words poor lonely computer poor, poor lonely computer do you really know what love is?
+   na, na, na, na, na  wave your hands in the air now everybody sing it na, na, na, na, na  everybody work out work out, work out na, na, na, na, na  everybody work out work out, work out na, na, na, na, na  everybody work out
+  he did not like living home alone the house where he lived had many hallways it was a long walk to his bedroom because to him each hallway represented an emotion every one vastly different from the next one day while she was with him he decided to name each one of them she was at his side, one hand on his thigh no, wait she was sort of half a step behind him yeah the grip on his thigh intensified as they walked slowly through the corridor he named the hallway lust  and as they passed thru the next one he named it fear  the grip she now loosened so he walked faster her hands now trembling she let drop to her side as he wrote the word insecurity  he looked n her eyes and smiled a demon smile and quickly walked on to the next corridor after corridor he named almost all when suddenly he stopped he picked up the word hate  she was gone so he picked up the last one  pain 
+  on the verge of a breakdown what is life without love? it hell computer blue!
+  father, father, the sun is gone  father, father the dawn, the dawn father, father, where is the dawn?  where is the dawn, father?  na, na, na, na, na na, na, na, na, na na, na, na, na, na 
+shall i go to church on sundays? shall i stay home and pray? shall i try to make her happy? shall i try to make her stay?
+  narrow minded computer  somebody please, please tell me  it time someone programmed you  somebody please, please tell me what wrong with me  it time you learned women are not butterflies they are computers too just like you computer blue  where is my baby?  chauvinistic computer it time someone programmed you  na, na, na, na, na  you fall n love too fast and hate too soon and take for granted the feeling mutual  the feeling mutual!  we are computers too just like you computer blue  
+i feel some kind of love for you and i do not even know your name this is the kind of love that takes two i want you and i am not ashamed
+because baby, you shock my wild with a sexual electricity extraordinaire come and take advantage, undress me i do not even know you, i do not even care
+i feel some kind of sexual current tell me do you feel it too? our bodies want to be together girl, i want to be with you
+electric is my body, baby i will shock you with my lips darling, do not you know your technicolor climax is at my fingertips
+electric intercourse, electric intercourse do not you want to? electric intercourse, electric intercourse do not you want to make love, love, love?
+electric is my body, baby i will shock you with my lips darling, do not you know your technicolor climax is at my fingertips
+electric intercourse do not you want to? electric intercourse, electric intercourse do not you want to make love? do not you want to make?
+electric intercourse, electric intercourse do not you want to? electric intercourse, electric intercourse do not you want to make love? yeah, yeah...  
+  the moment you came to town my life sings all around twenty quarters to your name five george washingtons no one to blame
+oh, look, it written in the sky above our destiny is to fall in love do not fight it because it stronger than us our destiny is to fall in love i fell in love
+i knew when i saw you walk i had to talk to you i did not know what to say i wanted your love anyways
+oh, look, it written in the sky above our destiny is to fall in love do not fight it because it stronger than us our destiny is to fall in love i fell in love
+look, i am not saying ket get married or nothing i am not ready to settle down and i do not want to have your baby but you gotta be the finest specimen i have ever seen
+our destiny is to fall in love i fell in love i fell in love i fell in love
+i am smitten with that kiss that you steal babe, i would never treat you like this i have passions, tingle let find a room do you want me? i want you, i want you i want you, i want you
+  this is the road that leads to where i live see the house, open the door it alright, it alright
+this is the house where we used to play we are open nights, we are open days it alright, it alright
+this is the garden where emotions grow twenty four feelings all in a row it alright, yeah, it alright
+talking about the roadhouse garden oh, the roadhouse garden
+this is the place where evil died see the door, come inside it alright, it alright
+this is the house where life the play do not let the color scare you away it alright, it alright
+this is the garden where emotions grow give them love, open your soul it alright, yeah, it alright now
+i am talking about the roadhouse garden yeah, the roadhouse garden oh, come on in and let groove
+i am talking about the roadhouse garden the road, the road, roadhouse garden oh, the roadhouse garden, garden the roadhouse garden, oh oh, oh  
+oh yeah! mmmm mmm
+something the matter baby, i am going insane something inside of me keeps talking to my brain why ca not i stop this satanic lust? i know i should not hold you, but my body says i must
+i am possessed, ooh and i do not know what to do ooh, i am possessed, yes, ooh i am stone crazy in love with you
+something the matter baby, you are all i see your voice is all i hear begging to me i wish i did not need you, wish i did not care i have got to make some love to you cuz it much too much to bare
+i am possessed, yes i am and i do not know what to do ooh, i am possessed, oh i am stone crazy in love with you  
+i am possessed do not know what to do i am possessed i am stone crazy, ooh
+something the matter baby, my mind in a daze i am tripping on your love, it so hard for me to lay ca not stop this yearning, lord knows i have tried free me from dispair, i am much too young to die
+i am possessed, ooh and i do not know what i am gonna do i am possessed, ooh i am  i am stone crazy in love with you  
+i am possessed, ooh yes i am  and i do not know what i am gonna do i am possessed, yeah! i am stone crazy in love with you, ooh yeah ooh yeah ooh yeah ooh yeah!
+possessed stoned up, up in the head, baby said i am possessed, mmm mmm all i want to do is lay you down in my bed i am possessed, oh yes i am how about me not knowing what to do? i am possessed yes, oh yeah i am, i am stone crazy in love with you, yeah yeah pussy sugar... yeah yeah
+possessed well, i am going insane hey, i am possessed i only want to do things, baby only want to do things growing inside a negro brain, yeah yeah yeah..oh oh yeah you are leaving me no choice i am gonna hit you with my guitar, baby
+oh yes mmm, oh yes bobby z., step on it step on it mmm, step on it mmm, step on it now step down on my head now, baby
+yeah, i am possessed i am possessed, baby fucked up in my head i want to use you in my bed, yeah i am possessed well, oh oh, i got this lust baby you know i got this lust, yeah i do not want to hold you i do not want to hold you i do not want to hold you but my body says i must! i must, yeah oh, oh baby, i must! do you mean yeah ? yeah!  baby, if i do not because baby, if i do not because baby, if i do not you know your pussy puts up quite an awful fuss yes it does puts up a fuss, yeah you know what that means you are gonna get wet pussy get wet, mmm mmm
+something the matter baby, i am going insane something inside of me keeps talking to my brain why ca not i stop this satanic lust? i do not want to hold you but my body says i must
+i am possessd, yeah! i am possessed stone in love with you stone in love with you, baby  stone in love with you, baby stone crazy in love with you, baby
+me and the boys, we like to jam
+possessed!  
+you do not understand my quirky ways my crazy logic leaves you in a daze think my neurosis is just a phase you have got a wonderful ass
+you are so wonderful wonderful you are so wonderful  you have got a wonderful ass 
+you think that all my friends are my bedmates true love before sex you just ca not relate my sensibilities you aggravate you have got a wonderful ass
+you are so wonderful wonderful you are so wonderful  you have got a wonderful ass 
+listen  educate tolerate negotiate communicate litigate graduate appreciate separate interrogate violate fluctuate perpetrate masturbate stimulate, stimulate, stimulate
+you say that you love me, it do not do no good you want me to trust you, i wish that i could you cannot build a house with plastic wood you have got a wonderful ass
+you are so wonderful wonderful you are so wonderful  you have got a wonderful ass  you have got a wonderful, wonderful ass  
+i guess what it is is that i hate your ideas of fun oh yeah?  but baby i rate your ass number one i do not usually have time to drink from your glass but i can always find time for your ass you know what i am talking about baby?  yeah  i am talkin about that... ass  too sexy in here, yeah 
+the revolution will be heard! the revolution will be heard!
+you are so wonderful! you are so wonderful! you have got a wonderful ass you have got a wonderful ass 
+you do not understand my quirky ways girl, you have got a wonderful you have got a wonderful you have got a wonderful, wonderful ass
+you do not understand my quirky ways, yeah  you do not understand my quirky ways, but..  my crazy logic leaves you in a daze  you are in a daze, oh i like that ass  but you have got that wonderful ass
+baby, you think all my friends are my bedmates, yeah  well, you sleep around all the time  hey now baby, true love before sex you ca not relate, yeah true true love  but you have got that wonderful ass, babe my sensibilities you aggravate i understand   you try to fuck for love  you, why ca not, ca not you relate, yeah you have got a wonderful ass
+i like it i like it  i said i like it said i like it  wonderful you know i like that ass really?   
+you want to rock, you want to roll my velvet kitty cat she man best friend, furry and cuddly and fat take a swing, you are up to bat velvet kitty cat
+and every day and all night my velvet kitty cat wish she had a boyfriend but they were all rats mmm, there was nothing underneath their hats sad kitty cat mmm
+and i do not want no money, no fancy cars, that is not where it at i just want a body eat up all my cookies till he gets fat mmm i want a true love and that that velvet kitty cat
+go ahead on and play it cat
+you want to rock, you want to roll my velvet kitty cat she man best friend, furry and cuddly and fat i would let you pet her but then you gotta skat velvet kitty cat mmm
+mmm i would let you pet her but then you gotta skat velvet kitty cat
+i want a true love and that that velvet kitty cat mmm
+you can pet her but then you gotta skat velvet kitty cat mmm
+velvet kitty cat mmm  
+katrina makes paper dolls one doll for every day one doll for every day her old man been gone katrina makes paper dolls for every time he told her for every time he told her that their love was too strong
+there no way to tell who real and who not baby, it so much harder when your body hot she says that love is just a game or so it seems in many circles maybe that what makes her world go round
+katrina makes paper dolls they all look the same they play the same games katrina makes paper dolls it better than being lonely and love will make you lonely in the eyes of this dame, ooh, oh
+there no way to tell who real and who not baby, it so much harder when your body hot she says love is just a game or so it seems in many circles maybe that what makes her world go round
+katrina makes paper dolls it better than being lonely love will make you lonely in the eyes of this dame they are all just paper dolls
+ la, la, la, la  da, da  la, la, la, la  da, da  la, la, la, la  ooh katrina paper dolls love will make you horny  la, la, la, la  ooh la, la, la, la katrina paper dolls ooh katrina paper dolls katrina paper dolls katrina paper dolls  
+i could tell you stories until you get tired i could play with your mind but you would probably say that i was a liar so i will not waste your time i am scared because though we just met there this energy between us let just go somewhere, we can fuck
+i could say i am sorry all of my life that would not be true. i only say and do the things that i do because i am in love with you
+i am scared because though we just met i want you so bad, baby do not you want to come with me we can fuck
+oh oh ooh we can fuck oh oh ooh we can fuck
+no, this is not something i have said many times before but what difference does it make? that was them, this is you oh, ca not you see this room is electric? okay, well then maybe it me, but i know the smell of desire, honey, it all over you
+i could tell you things to get you excited, things you never heard you know the kama sutra? i could re write it with half as many words i am scared, because if i do not kiss you i am going to go mad, baby take off my clothes we can fuck
+oh oh ooh we can fuck oh oh ooh we can fuck  
+wait a minute, let me turn on some lights  we can fuck  is that better? come here you can blow the candle off baby you can turn the candle on which ever one you choose is alright because we are going to do it all night long do you want to... undress me, babe shall i undress you? you can leave your clothes on if you want to and i can still do all i want to do to you sex between two people is alright whether they are in love or not as long as they are not trying to hurt nobody just as long as it hot baby, i want to make love to you two times maybe three yeah, if you want to go four or five, baby that alright with me let me tell you, i will be your little baby yeah, i can be your big strong man i can be your girl or boy i can be your toy alright, let dance it up to you you can fuck me, baby i will fuck you we can fuck one another whatever you want to do you got an electric ass, baby you got electric thighs, baby ow, i ca not wait no longer, child it getting stronger, baby open up your eyes ow! see this gold chain around my waist? yeah, i want to give it to you when people tell me i got no taste blow this candle out let see if it true
+oh baby, this is excellent no, no, it is really it like i am sorry, it just i do not know i have just never felt this way before no, i am really happy, really well, i guess, i met you and i just do not deserve it because you are so special no i am not, not like you you are perfect you really are there are so many things i want to do with you there are so many things i want to do for you listen, do not ever love anybody else you do not have any reason to feel insecure you are the best would you believe that? no one can ever, ever, hurt you yes, i love you i know it sounds strange, but i do i do i knew i loved you the split second before we kissed oh darling, kiss me now wait please fuck me again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i found out what i have been missing  always on the run  i have been looking for someone 
+  now you are here like you have been before  and you know just what i need  it took some time for me to see  that you give good love to me baby  so good, take this heart mine into your hands  you give good love to me  never too much  baby you give good love 
+never stopping, i was always searching  for that perfect love  the kind that girls like me dream of 
+now i, i ca not stop looking around  it not, what this loves all about  our love is here to stay, stay 
+i ca not get you off my mind  no matter what i do  i am wishing you were here, with me  it makes no difference  i only think of you  and i living out my fantasy 
+  late at night, a rendezvous  being such a love sick fool  it might be pouring rain  but still the same, nothings changed  all and all i feel no shame  i am just your fool the same   i am just your fool   i keep thinking about you baby  so tell me what you are gonna do   i keep thinking about you  all i want to do is   like a river of wine, intoxicate my mind  i am thinking about you  that what i want to do   pick me up, let go down  i am thinking about it too   i am thinking about you  you got me thinking about you   i am thinking about it too 
+maybe weeping is a game  that hard for me to face   but you need me  just like i need you  there no reason  just my heart that makes me feel this way  and i hope you feel the same way too 
+    it might be pouring rain  but like a fool, insane  i run to you  i am just a love sick fool  i have got this thing for you i am just a love sick fool 
+  words and music by kashif, lala  
+ someone for me   someone for me  i am here alone on a friday night  waiting here beside the phone  the tv, radio, and me  really is not been getting along  i wish that i could find a way  to party to the break of day  and there i would be sure to meet  the guy that would be special to me  then momma comes and asks me  why i am dreaming, sitting alone  why not go out and have some fun  it the only way i will ever  find someone for me  while i am young and seventeen 
+  someone for me someone for me  i have got to find someone  someone someone for me  i have got to find someone 
+now there a party down at angie house  with people packed against the walls  i am sitting in a corner here  trying to make sense of it all  and when i least expect it  meeting a guy i see in my dreams  here he is walking up to me  and asking if i would like to come and dance with him  i think i found someone for me 
+  i need somebody for me  i need somebody for me, someone  and so i am finding out that  dreams you believe in, can come to be  and now i am looking up to find that joy  and happiness can come to you and me  i actually found someone for me 
+a few stolen moments is all that we share  you have got your family, and they need you there  though i have tried to resist, being last on your list  but no other man gonna do so i am saving all my love for you
+it not very easy living all alone  my friends try and tell me find a man of my own  but each time i try i just break down and cry  because i would rather be home feeling blue  so i am saving all my love for you 
+you used to tell me we would run away together  love gives you the right to be free  you said, be patient, just wait a little longer.  but that just an old fantasy 
+i have got to get ready just a few minutes more  gonna get that old feeling when you walk through that door 
+because tonight is the night for a feeling alright  we will be making love the whole night through  so i am saving all my love  yes, i am saving all my love  yes, i am saving all my love for you 
+no other woman is gonna love you more  because tonight is the night that i am feeling alright we will be making love the whole night through  so i am saving all my love  yeah, i am saving all my loving yes, i am saving all my love for you  for you, for you  
+like a candle burning bright, love is glowing in your eyes a flame to light our way that burns brighter everyday but now i have you nobody loves me like you do
+like a leaf upon the wind, i could find no place to land i dreamed the hours away, and wondered everyday  do dreams come true?  and nobody loves me like you do
+what if i would never met you? where would i be right now? funny how life just falls in place somehow you have touched my heart in places that i never even knew because nobody loves me like you do
+i was words without a tune, i was a song still unsung a poem with no rhyme, a dancer out of time but now there you baby, nobody loves me like you do
+what if i would never met you? where would i be right now? funny how life just falls in place somehow you have touched my heart in places that i never even knew nobody loves me nobody loves me!  nobody loves me nobody loves me like you do  nobody loves me like you do nobody loves me like you do  
+there a boy i know, he the one i dream of looks into my eyes, takes me to the clouds above ooh i lose control, ca not seem to get enough when i wake from dreaming, tell me is it really love
+how will i know  do not trust your feelings  how will i know how will i know  love can be deceiving  how will i know
+how will i know if he really loves me i say a prayer with every heart beat i fall in love whenever we meet i am asking you because you know about these things
+how will i know if he thinking of me i try to phone but i am too shy ca not speak  falling in love is so bitter sweet this love is strong why do i feel weak
+oh, wake me, i am shaking, wish i had you near me now said there no mistaking, what i feel is really love
+oh, tell me how will i know  do not trust your feelings  how will i know how will i know  love can be deceiving  how will i know
+how will i know if he really loves me i say a prayer with every heart beat i fall in love whenever we meet i am asking you because you know about these things
+how will i know if he thinking of me i try to phone but i am too shy ca not speak  falling in love is so bitter sweet this love is strong why do i feel weak
+if he loves me, if he loves me not if he loves me, if he loves me not if he loves me, if he loves me not
+how will i know how will i know how will i know how will i know
+how will i know if he really loves me i say a prayer with every heart beat i fall in love whenever we meet i am asking you because you know about these things
+how will i know if he thinking of me i try to phone but i am too shy ca not speak  falling in love is so bitter sweet this love is strong why do i feel weak
+how will i know  how will i know  how will i know how will i know  i say a prayer  how will i know
+how will i know?  i fall in love  how will i know hey, how will i know?  i am asking you   
+all at once i finally took a moment and i am realizing that you are not coming back and it finally hit me all at once all at once i started counting teardrops and at least a million fell my eyes began to swell and all my dreams were shattered all at once
+  ever since i met you you are the only love i have known and i ca not forget you though i must face it all alone all at once, i am drifting on a lonely sea wishing you would come back to me and that all that matters now all at once, i am drifting on a lonely sea holding on to memories and it hurts me more than you know so much more than it shows all at once
+all at once i looked around and found that you were with another love in someone else arms and all my dreams were shattered, all at once all at once the smile that used to greet me brightened someone else day she took your smile away and left me with just memories, all at once
+time can pass so slowly when you feel so all alone love can strike like lightning when you find your heart a home i have seen it in the movies, read about it in a book i never thought i would feel it, but your touch was all it took
+take good care of my heart, take good care of my heart baby, you are the first to take it you are the only one who can break it i love you more than i should, but it keeps me feeling so good i have waited for your love forever you are the one to take good care of my heart
+come and make your magic until you have me hypnotized if we get any closer, i will be drowning in your eyes you are the one i needed most, when my love was on the line i am so glad you gave me yours, when i gave you mine
+so take good care of my heart, take good care of my heart baby, you are the first to take it you are the only one who can break it i love you more than i should, but it keeps me feeling so good i have waited for your love forever you are the one to take good care of my heart
+i love you more than i should, but it keeps me feeling so good i have waited for your love forever you are the one to take good care of my heart
+take good care of my heart, take good care of my heart take good care of me  baby, you are the first to take it you are the only one who can break it i love you more than i should, but it keeps me feeling so good i have waited for your love forever you are the one to take good care of my heart
+ take good care of my heart, take good care of my heart will not you please? baby, you are the first to take it, and you are the only one who can break it i love you more than i should  
+i believe the children are our future teach them well and let them lead the way show them all the beauty they possess inside give them a sense of pride to make it easier let the children laughter remind us how we used to be
+everybody searching for a hero people need someone to look up to i never found anyone who fulfilled my needs a lonely place to be and so i learned to depend on me
+i decided long ago never to walk in anyone shadows if i fail, if i succeed at least i will live as i believe no matter what they take from me they ca not take away my dignity
+because the greatest love of all is happening to me i found the greatest love of all inside of me
+the greatest love of all is easy to achieve learning to love yourself it is the greatest love of all
+i believe the children are our future teach them well and let them lead the way show them all the beauty they possess inside give them a sense of pride to make it easier let the children laughter remind us how we used to be
+i decided long ago never to walk in anyone shadows if i fail, if i succeed at least i will live as i believe no matter what they take from me they ca not take away my dignity
+because the greatest love of all is happening to me i found the greatest love of all inside of me
+the greatest love of all is easy to achieve learning to love yourself it is the greatest love of all
+and if, by chance, that special place that you have been dreaming of leads you to a lonely place find your strength in love  
+i will hold you, and touch you  and make you my woman  and give you my love with sweet surrender  tonight our hearts will beat as one  and i will hold you, touch you  and make you my woman tonight 
+there something in your eyes i see  a pure and simple honesty 
+  hold me in your arms tonight  fill my life with pleasure  let not waste this precious time  this moment ours to treasure  hold me in your arms tonight  we will make it last forever  when the morning sun appears  we will find our way together 
+i believe you when you say that you love me  know that i will not take you for granted  tonight the magic has begun  so will not you hold me, touch me  make me your woman tonight 
+there something in your eyes i see  i will not betray your trust in me 
+i will hold you  and touch you  and make you my woman make me your woman tonight
+ </t>
+  </si>
+  <si>
+    <t>the weekend comes to this town  seven days too soon  for the ones who have to make up  what we break up of their rules 
+well i saw captain kidd on sunset  tell his boys they are in command  while chino danced a tango  with a broomstick in his hand  he said it alright alright if you have a good time  it alright alright if you want to cross that line  to break on through to the other side 
+  let it rock, let it go  you ca not stop a fire burning out of control  let it rock, let it go  with the night you are on the loose  you got to let it rock 
+we go down to the broadway  where everybody goes  to get on their rocking horse  and blast that radio  well i saw roxie on the table  her girlfriend down below  they will give it to the king of swing  before it time to go 
+they said it alright alright if you have a good time  it alright alright if you want to cross that line  to break on through to the other side 
+shot through the heart and you are to blame darling, you give love a bad name
+an angel smile is what you sell you promise me heaven, then put me through hell chains of love got a hold on me when passion a prison, you ca not break free
+oh, oh, you are a loaded gun oh, oh, there nowhere to run no one can save me the damage is done
+shot through the heart and you are to blame you give love a bad name bad name  i play my part and you play your game you give love a bad name bad name  you give love a bad name
+paint your smile on your lips blood red nails on your fingertips a school boy dream, you act so shy your very first kiss was your first kiss goodbye
+oh, oh, you are a loaded gun oh, oh, there nowhere to run no one can save me the damage is done
+shot through the heart and you are to blame you give love a bad name bad name  i play my part and you play your game you give love a bad name bad name  you give love
+shot through the heart and you are to blame you give love a bad name i play my part and you play your game you give love a bad name bad name 
+shot through the heart and you are to blame you give love a bad name bad name  i play my part and you play your game you give love a bad name bad name  you give love you give love bad name  you give love you give love bad name  you give love you give love bad name  you give love you give love bad name   
+once upon a time not so long ago
+tommy used to work on the docks union been on strike he down on his luck it tough, so tough
+gina works the diner all day working for her man she brings home her pay for love, for love
+she says, we have gotta hold on to what we have got it does not make a difference if we make it or not we have got each other and that a lot for love we will give it a shot. 
+whoa, we are half way there whoa, living on a prayer take my hand, we will make it. i swear whoa, living on a prayer
+tommy got his six string in hock now he holding in what he used to make it talk so tough, it tough
+gina dreams of running away when she cries in the night tommy whispers  baby, it okay, someday
+we have gotta hold on to what we have got it does not make a difference if we make it or not we have got each other and that a lot for love we will give it a shot
+whoa, we are half way there whoa, living on a prayer take my hand and we will make it. i swear whoa, living on a prayer
+living on a prayer
+we have gotta hold on ready or not you live for the fight when it all that you have got
+whoa, we are half way there whoa, living on a prayer take my hand and we will make it, i swear whoa, living on a prayer
+whoa, we are half way there whoa, living on a prayer take my hand and we will make it, i swear whoa, living on a prayer  
+you can read it in the papers  in some places it comes in thirty two flavors  but you would not tell no one  your favorite if you could 
+from the white house to the alleys  from the president down to long tall sally  ca not live with it but  you will die without it yes you would 
+senorita in the kitchen  she a fistful of dynamite  you call but you  ca not stop the fun tonite, it alright 
+  you ca not start a fire without a spark  but there something that i guarantee  you ca not hide when infection starts  because love is a social disease 
+where you look you can find it  try to run but you are always behind it  so you play hide and seek like a blind kid  till you are caught yeah you are caught 
+so you will say that you had some  but they took it and held it for ransom  were they tall, dark, skinny or  handsome you will not talk 
+so you telephone your doctor  just to see what pill to take  you know there no prescription  gonna wipe this one away 
+so full of high grade octane  she could run the bullet train on double d  now you know for sure, you know the cure  to make a blind man see  
+it all the same, only the names will change every day it seems we are wasting away another place where the faces are so cold i would drive all night just to get back home
+i am a cowboy, on a steel horse i ride i am wanted dead or alive wanted dead or alive
+sometimes i sleep, sometimes it not for days and the people i meet always go their separate ways sometimes you tell the day by the bottle that you drink and times when you are alone all you do is think
+i am a cowboy on a steel horse i ride i am wanted, wanted, dead or alive wanted wanted dead or alive
+oh and i ride!
+i am a cowboy on a steel horse i ride i am wanted wanted dead or alive
+and i walk these streets, a loaded six string on my back i play for keeps, because i might not make it back i have been everywhere, and still i am standing tall i have seen a million faces and i have rocked them all
+because i am a cowboy, on a steel horse i ride i am wanted dead or alive because i am a cowboy, i got the night on my side i am wanted dead or alive and i ride dead or alive i still drive, dead or alive dead or alive dead or alive dead or alive dead or alive  
+you you got a nasty reputation  we are in a sticky situation it down to me and you  so tell me is it true ... they say there is not nobody better  well now that we are together  show me what you can do 
+you are under the gun  out on the run  gonna set the night on fire  you are out on the run  under the gun  and playing to win 
+  raise your hands when you want to let it go raise your hands  and you want to let a feeling show  raise your hands  from new york to chicago  raise your hands  from new jersey to tokyo  raise your hands 
+i i have been out on the front line  where you will go down if you waste time  they will walk all over you  but i i is not here looking for surrender  i will raise the flag if you will defend her  it up to you 
+you are under the gun  out on the run  gonna set the night on fire  you are out on the run  under the gun  and playing to win 
+she was not young, but still a child  there still was innocence  in painted smiles  she called to me as i passed her by  lady of the night looked in my eyes  she said i been through some changes  but one thing always stays the same 
+  without love, there nothing without love  nothing else can get through the night  nothing else feels right without love 
+i saw a man down on lonely street  a broken man who looked like me  and no one knows the pain that he been living  he lost his love and still has not forgiven  he said i have been through some changes  but one thing always stays the same 
+there nothing without love  nothing else but love can burn as bright  and nothing would mean nothing without love 
+i see my life  there some things i took for granted  love passed me by  so many second chances  i was afraid  but i will not be afraid no more 
+there nothing without love  nothing else but love can burn as bright  and nothing would mean nothing without love  
+if you could see inside my heart then you would understand i would never mean to hurt you baby i am not that kind of man
+i might not say i am sorry yeah, i might talk tough sometimes and i might forget the little things or keep you hanging on the line
+in a world that do not know romeo and juliet boy meets girl and promises we ca not forget we are cast from eden gate with no regrets into the fire we cry
+  i would die for you i would cry for you i would do anything i would lie for you you know it true baby i would die for you i would die for you i would cry for you if it came right down to me and you you know it true, baby i would die for you
+i might not be a savior and i will never be a king i might not send you roses or buy you diamond rings
+but if i could see inside you maybe i would know just who we are because our love is like a hunger without it we would starve
+in a world that do not know romeo and juliet boy meets girl and promises we ca not forget we are cast from eden gate with no regrets into the fire we cry
+as i sit in this smokey room the night about to end i pass my time with strangers but this bottle my only friend
+remember when we used to park out on butler street out in the dark remember when we lost the keys and you lost more than that in my backseat baby
+remember how we used to talk about busting out we would break their hearts together forever
+never say goodbye never say goodbye you and me and my old friends hoping it would never end say goodbye never say goodbye holding on we gotta try holding on to never say goodbye
+remember days of skipping school racing cars and being cool with a six pack and the radio we did not need no place to go
+remember at the prom that night you and me we had a fight but the band they played our favorite song and i held you in my arms so strong
+we danced so close we danced so slow and i swore i would never let you go together forever
+never say goodbye never say goodbye you and me and my old friends hoping it would never end say goodbye never say goodbye holding on we gotta try holding on to never say goodbye
+i guess you would say we used to talk about busting out we would break their hearts together forever
+never say goodbye never say goodbye you and me and my old friends hoping it would never end say goodbye never say goodbye holding on we gotta try holding on to never say goodbye  
+joey comes from a sacred part of town  where sometimes you talk so tough  that your feet do not touch the ground  and the sidewalk soldiers sing the midnite blues  while the old men recite their story lines  about when i was young like you  they say oh yeah  we were cruising to the backbeat  oh yeah, making love in the backseats  we were wild, wild in the streets 
+a member of the boy brigade  had a date with the girl next door  you know it made her daddy crazy  but it only made her want him more  they were not looking for trouble  you know that boy did not want a fight not tonight  so she headed out thru her bathroom window  what her daddy did not know was gonna be alright  they said oh yeah  we were cruising to the backbeat  oh yeah, making love in the backseats  we were wild, wild in the streets  wild, wild in the streets  wild, wild in the streets  wild, wild in the streets 
+sometimes this town is not pretty  but you know it is not so bad  just like a girl who looks so happy  whe inside she so so sad  in here we got this code of honor  nobody going down  you do not walk in vain  trough the kid parade  because this is my hometown</t>
   </si>
   <si>
     <t>https://jamesclear.com/great-speeches/the-danger-of-a-single-story-by-chimamanda-ngozi-adichie</t>
@@ -238,6 +3969,48 @@
     <t>https://jamesclear.com/great-speeches/your-elusive-creative-genius-by-elizabeth-gilbert</t>
   </si>
   <si>
+    <t>https://jamesclear.com/great-speeches/the-common-denominator-of-success-by-albert-e-n-gray</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/runnin-down-a-dream-by-bill-gurley</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/learning-to-learn-by-richard-hamming</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/2005-stanford-commencement-address-by-steve-jobs</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/the-multidisciplinary-approach-to-thinking-by-peter-kaufman</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/make-your-bed-by-admiral-william-h-mcraven</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/finding-your-own-vision-by-arno-rafael-minkkinen</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/2007-usc-law-school-commencement-address-by-charlie-munger</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/roadkill-on-the-information-highway-by-nathan-myhrvold</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/achieving-your-childhood-dreams-by-randy-pausch</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/1999-mount-holyoke-commencement-speech-by-anna-quindlen</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/i-wish-you-bad-luck-by-john-roberts</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/do-schools-kill-creativity-by-ken-robinson</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/the-fringe-benefits-of-failure-and-the-importance-of-imagination-by-j-k-rowling</t>
+  </si>
+  <si>
     <t>https://www.azlyrics.com/j/jackson.html</t>
   </si>
   <si>
@@ -266,6 +4039,39 @@
   </si>
   <si>
     <t>https://www.azlyrics.com/b/beatles.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/h/houston.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/b/boston.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/b/beegees.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/s/springsteen.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/s/santana.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/a/adele.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/s/spears.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/p/prince.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/b/bonjovi.html</t>
+  </si>
+  <si>
+    <t>speech</t>
+  </si>
+  <si>
+    <t>song</t>
   </si>
 </sst>
 </file>
@@ -636,13 +4442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,285 +4461,807 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>66</v>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>83</v>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -958,6 +5286,33 @@
     <hyperlink ref="D19" r:id="rId18"/>
     <hyperlink ref="D20" r:id="rId19"/>
     <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
